--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13A009A-384F-471A-89E2-C598655234CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AE0BE3-62B7-40EE-AD82-B2CAA698DB8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5661" uniqueCount="1915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5663" uniqueCount="1917">
   <si>
     <t>元大台灣50</t>
   </si>
@@ -5795,6 +5795,16 @@
   </si>
   <si>
     <t>千興</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 資產股
+* PVC 股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* PVC 股
+* 2020 EPS 估 4.66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6154,8 +6164,8 @@
   <dimension ref="A1:I1877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I349" sqref="I349"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7864,7 +7874,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="str">
         <f>"00774B"</f>
         <v>00774B</v>
@@ -7879,7 +7889,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="str">
         <f>"00774C"</f>
         <v>00774C</v>
@@ -7894,7 +7904,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="str">
         <f>"00775B"</f>
         <v>00775B</v>
@@ -7909,7 +7919,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="str">
         <f>"00783"</f>
         <v>00783</v>
@@ -7924,7 +7934,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="str">
         <f>"008201"</f>
         <v>008201</v>
@@ -7939,7 +7949,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="str">
         <f>"00830"</f>
         <v>00830</v>
@@ -7954,7 +7964,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="str">
         <f>"00850"</f>
         <v>00850</v>
@@ -7969,7 +7979,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="str">
         <f>"00851"</f>
         <v>00851</v>
@@ -7984,7 +7994,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="str">
         <f>"00852L"</f>
         <v>00852L</v>
@@ -7999,7 +8009,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="str">
         <f>"00861"</f>
         <v>00861</v>
@@ -8014,7 +8024,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="str">
         <f>"00865B"</f>
         <v>00865B</v>
@@ -8029,7 +8039,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="str">
         <f>"00866"</f>
         <v>00866</v>
@@ -8044,7 +8054,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="str">
         <f>"00875"</f>
         <v>00875</v>
@@ -8059,7 +8069,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="str">
         <f>"00876"</f>
         <v>00876</v>
@@ -8074,7 +8084,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="str">
         <f>"00878"</f>
         <v>00878</v>
@@ -8089,7 +8099,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>1101</v>
       </c>
@@ -8101,6 +8111,18 @@
       </c>
       <c r="D128" s="2" t="s">
         <v>1121</v>
+      </c>
+      <c r="E128" s="2">
+        <v>47.1</v>
+      </c>
+      <c r="F128" s="2">
+        <v>40</v>
+      </c>
+      <c r="G128" s="2">
+        <v>45</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>1916</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -8551,7 +8573,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>1308</v>
       </c>
@@ -8565,7 +8587,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>1309</v>
       </c>
@@ -8579,7 +8601,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>1310</v>
       </c>
@@ -8593,7 +8615,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>1312</v>
       </c>
@@ -8607,7 +8629,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>169</v>
       </c>
@@ -8621,7 +8643,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>1313</v>
       </c>
@@ -8635,7 +8657,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>1314</v>
       </c>
@@ -8649,7 +8671,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>1315</v>
       </c>
@@ -8663,7 +8685,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>1316</v>
       </c>
@@ -8677,7 +8699,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>1319</v>
       </c>
@@ -8691,7 +8713,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>1321</v>
       </c>
@@ -8704,8 +8726,20 @@
       <c r="D171" s="2" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="2">
+        <v>37.25</v>
+      </c>
+      <c r="F171" s="2">
+        <v>31</v>
+      </c>
+      <c r="G171" s="2">
+        <v>36</v>
+      </c>
+      <c r="I171" s="5" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>1323</v>
       </c>
@@ -8719,7 +8753,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>1324</v>
       </c>
@@ -8733,7 +8767,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>1325</v>
       </c>
@@ -8747,7 +8781,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>1326</v>
       </c>
@@ -8761,7 +8795,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>1337</v>
       </c>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D4C3A3-4D0F-4076-9A62-0D47F63F30AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C46C74-1718-4A2E-B9EE-4F4A4F1222CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5944,8 +5944,8 @@
   <dimension ref="A1:P1749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A712" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L721" sqref="L721"/>
+      <pane ySplit="1" topLeftCell="A1424" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1441" sqref="F1441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -26461,7 +26461,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="1425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1425" s="3">
         <v>5530</v>
       </c>
@@ -26475,7 +26475,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="1426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1426" s="3">
         <v>5536</v>
       </c>
@@ -26489,7 +26489,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="1427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1427" s="3">
         <v>5543</v>
       </c>
@@ -26503,7 +26503,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="1428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1428" s="3">
         <v>5601</v>
       </c>
@@ -26517,7 +26517,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="1429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1429" s="3">
         <v>5603</v>
       </c>
@@ -26531,7 +26531,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="1430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1430" s="3">
         <v>5604</v>
       </c>
@@ -26545,7 +26545,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="1431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1431" s="3">
         <v>5609</v>
       </c>
@@ -26559,7 +26559,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="1432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1432" s="3">
         <v>5701</v>
       </c>
@@ -26573,7 +26573,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="1433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1433" s="3">
         <v>5703</v>
       </c>
@@ -26587,7 +26587,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="1434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1434" s="3">
         <v>5704</v>
       </c>
@@ -26601,7 +26601,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="1435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1435" s="3">
         <v>5820</v>
       </c>
@@ -26615,7 +26615,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="1436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1436" s="3">
         <v>5864</v>
       </c>
@@ -26629,7 +26629,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="1437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1437" s="3">
         <v>5878</v>
       </c>
@@ -26643,7 +26643,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="1438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1438" s="3">
         <v>5902</v>
       </c>
@@ -26657,7 +26657,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="1439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1439" s="3">
         <v>5903</v>
       </c>
@@ -26671,7 +26671,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="1440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1440" s="3">
         <v>5904</v>
       </c>
@@ -26683,6 +26683,12 @@
       </c>
       <c r="D1440" s="2" t="s">
         <v>991</v>
+      </c>
+      <c r="E1440" s="2">
+        <v>660</v>
+      </c>
+      <c r="F1440" s="2">
+        <v>430</v>
       </c>
     </row>
     <row r="1441" spans="1:10" x14ac:dyDescent="0.25">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C46C74-1718-4A2E-B9EE-4F4A4F1222CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3A15C2-BD53-466B-A59E-73DA168839E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="config" sheetId="2" r:id="rId1"/>
-    <sheet name="all_stock" sheetId="1" r:id="rId2"/>
+    <sheet name="all_stock" sheetId="1" r:id="rId1"/>
+    <sheet name="config" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5329" uniqueCount="1825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5326" uniqueCount="1822">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4652,9 +4652,6 @@
   </si>
   <si>
     <t>康呈</t>
-  </si>
-  <si>
-    <t>驊訊</t>
   </si>
   <si>
     <t>松崗</t>
@@ -5389,10 +5386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>買入價</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>千興</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5406,24 +5399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020Q1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020Q2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>估
-2020Q3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>估
-2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>定存股,傳產</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5444,10 +5419,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019配息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>綠能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5461,11 +5432,6 @@
   </si>
   <si>
     <t>太陽能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019
-EPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5579,6 +5545,41 @@
   </si>
   <si>
     <t>短期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PCB / ABF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>精密鑽針</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球第一 音效晶片控制廠商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球第三大音效晶片控制廠商
+PC 題材, 短期利多
+H1 小賺, 8月 0.35, Q3 估 1.5? 還好而以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驊訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買入價
+可估</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5589,7 +5590,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5603,6 +5604,19 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D5156"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5625,7 +5639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5648,6 +5662,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -5927,25 +5942,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00A392A-89DF-4573-A544-23CF075C2A72}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1749"/>
+  <dimension ref="A1:J1749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1424" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1441" sqref="F1441"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5960,14 +5962,10 @@
     <col min="8" max="8" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="7" customWidth="1"/>
     <col min="10" max="10" width="40.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="7.5703125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5978,46 +5976,28 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1801</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1772</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>1771</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1780</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1810</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1809</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>1773</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>1772</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>1798</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>1793</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>1784</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>1785</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>1786</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1101</v>
       </c>
@@ -6043,25 +6023,10 @@
         <v>40</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1788</v>
-      </c>
-      <c r="K2" s="2">
-        <v>4.29</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1.39</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1.36</v>
-      </c>
-      <c r="P2" s="2">
-        <v>4.66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1102</v>
       </c>
@@ -6077,29 +6042,11 @@
       <c r="E3" s="2">
         <v>43.95</v>
       </c>
-      <c r="F3" s="2">
-        <v>40</v>
-      </c>
       <c r="I3" s="7" t="s">
-        <v>1788</v>
-      </c>
-      <c r="K3" s="2">
-        <v>5.56</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1.49</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1.49</v>
-      </c>
-      <c r="P3" s="2">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1103</v>
       </c>
@@ -6113,25 +6060,10 @@
         <v>991</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>1791</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2.02</v>
-      </c>
-      <c r="M4" s="2">
-        <v>-0.33</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1104</v>
       </c>
@@ -6145,25 +6077,10 @@
         <v>991</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>1788</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1.74</v>
-      </c>
-      <c r="M5" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="P5" s="2">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1108</v>
       </c>
@@ -6180,25 +6097,10 @@
         <v>12.7</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>1789</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="P6" s="2">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1109</v>
       </c>
@@ -6212,7 +6114,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1110</v>
       </c>
@@ -6226,7 +6128,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1201</v>
       </c>
@@ -6240,7 +6142,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1203</v>
       </c>
@@ -6254,25 +6156,10 @@
         <v>991</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>1792</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1.92</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1210</v>
       </c>
@@ -6288,29 +6175,11 @@
       <c r="E11" s="2">
         <v>49.6</v>
       </c>
-      <c r="F11" s="2">
-        <v>42</v>
-      </c>
       <c r="I11" s="7" t="s">
-        <v>1790</v>
-      </c>
-      <c r="K11" s="2">
-        <v>2.86</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="P11" s="2">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1213</v>
       </c>
@@ -6324,7 +6193,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1215</v>
       </c>
@@ -6340,29 +6209,11 @@
       <c r="E13" s="2">
         <v>76</v>
       </c>
-      <c r="F13" s="2">
-        <v>65</v>
-      </c>
       <c r="I13" s="7" t="s">
-        <v>1790</v>
-      </c>
-      <c r="K13" s="2">
-        <v>5.46</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="N13" s="2">
-        <v>1.74</v>
-      </c>
-      <c r="O13" s="2">
-        <v>1.83</v>
-      </c>
-      <c r="P13" s="2">
-        <v>6.26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1216</v>
       </c>
@@ -6378,32 +6229,11 @@
       <c r="E14" s="2">
         <v>74</v>
       </c>
-      <c r="F14" s="2">
-        <v>60</v>
-      </c>
       <c r="I14" s="7" t="s">
-        <v>1790</v>
-      </c>
-      <c r="K14" s="2">
-        <v>3.35</v>
-      </c>
-      <c r="L14" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="N14" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="O14" s="2">
-        <v>1.24</v>
-      </c>
-      <c r="P14" s="2">
-        <v>4.3899999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1217</v>
       </c>
@@ -6417,7 +6247,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1218</v>
       </c>
@@ -6736,7 +6566,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -6823,7 +6653,7 @@
         <v>991</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -6986,10 +6816,10 @@
         <v>9.5</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>1819</v>
+        <v>1811</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -7501,7 +7331,7 @@
         <v>1466</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1803</v>
+        <v>1795</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>4</v>
@@ -7516,7 +7346,7 @@
         <v>18</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -7749,7 +7579,7 @@
         <v>42</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -8234,7 +8064,7 @@
         <v>120</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>1821</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -9130,7 +8960,7 @@
         <v>4</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -9334,7 +9164,7 @@
         <v>2025</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>4</v>
@@ -9797,10 +9627,10 @@
         <v>120</v>
       </c>
       <c r="I253" s="7" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
       <c r="J253" s="5" t="s">
-        <v>1811</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -10556,7 +10386,7 @@
         <v>2375</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1799</v>
+        <v>1791</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>4</v>
@@ -10568,16 +10398,13 @@
         <v>51</v>
       </c>
       <c r="F307" s="2">
-        <v>40</v>
-      </c>
-      <c r="G307" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I307" s="7" t="s">
-        <v>1800</v>
+        <v>1792</v>
       </c>
       <c r="J307" s="5" t="s">
-        <v>1812</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
@@ -10607,6 +10434,9 @@
       <c r="D309" s="2" t="s">
         <v>991</v>
       </c>
+      <c r="J309" s="5" t="s">
+        <v>1818</v>
+      </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
@@ -12771,7 +12601,7 @@
         <v>32</v>
       </c>
       <c r="I462" s="7" t="s">
-        <v>1819</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.25">
@@ -12897,7 +12727,7 @@
         <v>4</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.25">
@@ -13032,10 +12862,10 @@
         <v>15.5</v>
       </c>
       <c r="I480" s="7" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
       <c r="J480" s="5" t="s">
-        <v>1814</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">
@@ -13063,7 +12893,7 @@
         <v>4</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.25">
@@ -13077,7 +12907,7 @@
         <v>4</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.25">
@@ -13100,10 +12930,10 @@
         <v>30</v>
       </c>
       <c r="I484" s="7" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
       <c r="J484" s="5" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
@@ -13117,7 +12947,7 @@
         <v>4</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.25">
@@ -13131,7 +12961,7 @@
         <v>4</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
@@ -13168,10 +12998,10 @@
         <v>20</v>
       </c>
       <c r="I488" s="7" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
       <c r="J488" s="5" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.25">
@@ -13194,10 +13024,10 @@
         <v>14</v>
       </c>
       <c r="I489" s="7" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
       <c r="J489" s="5" t="s">
-        <v>1804</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
@@ -13220,10 +13050,10 @@
         <v>23.5</v>
       </c>
       <c r="I490" s="7" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
       <c r="J490" s="5" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
@@ -13251,7 +13081,7 @@
         <v>4</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
@@ -13265,7 +13095,7 @@
         <v>4</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
@@ -13293,7 +13123,7 @@
         <v>4</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
@@ -13307,7 +13137,7 @@
         <v>4</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -13363,7 +13193,7 @@
         <v>4</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -13377,7 +13207,7 @@
         <v>4</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -13419,7 +13249,7 @@
         <v>4</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -14128,7 +13958,7 @@
         <v>26</v>
       </c>
       <c r="J554" s="5" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.25">
@@ -15100,7 +14930,7 @@
         <v>16.8</v>
       </c>
       <c r="I623" s="7" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.25">
@@ -15428,7 +15258,7 @@
         <v>4</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
@@ -16577,10 +16407,10 @@
         <v>120</v>
       </c>
       <c r="I727" s="7" t="s">
-        <v>1823</v>
+        <v>1815</v>
       </c>
       <c r="J727" s="5" t="s">
-        <v>1824</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="728" spans="1:10" x14ac:dyDescent="0.25">
@@ -17014,7 +16844,7 @@
         <v>4</v>
       </c>
       <c r="D758" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
@@ -18516,7 +18346,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A865" s="3">
         <v>6715</v>
       </c>
@@ -18530,7 +18360,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A866" s="3">
         <v>6754</v>
       </c>
@@ -18544,7 +18374,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A867" s="3">
         <v>8011</v>
       </c>
@@ -18558,7 +18388,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A868" s="3">
         <v>8016</v>
       </c>
@@ -18572,7 +18402,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A869" s="3">
         <v>8021</v>
       </c>
@@ -18585,8 +18415,17 @@
       <c r="D869" s="2" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E869" s="2">
+        <v>26.85</v>
+      </c>
+      <c r="F869" s="2">
+        <v>21</v>
+      </c>
+      <c r="J869" s="8" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="870" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A870" s="3">
         <v>8028</v>
       </c>
@@ -18600,7 +18439,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A871" s="3">
         <v>8033</v>
       </c>
@@ -18614,7 +18453,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A872" s="3">
         <v>8039</v>
       </c>
@@ -18628,7 +18467,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A873" s="3">
         <v>8046</v>
       </c>
@@ -18642,7 +18481,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A874" s="3">
         <v>8070</v>
       </c>
@@ -18656,7 +18495,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A875" s="3">
         <v>8072</v>
       </c>
@@ -18670,7 +18509,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A876" s="3">
         <v>8081</v>
       </c>
@@ -18684,7 +18523,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A877" s="3">
         <v>8101</v>
       </c>
@@ -18698,7 +18537,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A878" s="3">
         <v>8103</v>
       </c>
@@ -18715,7 +18554,7 @@
         <v>41.85</v>
       </c>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A879" s="3">
         <v>8104</v>
       </c>
@@ -18729,7 +18568,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A880" s="3">
         <v>8105</v>
       </c>
@@ -19944,7 +19783,7 @@
         <v>4</v>
       </c>
       <c r="D966" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.25">
@@ -20053,7 +19892,7 @@
         <v>992</v>
       </c>
       <c r="C974" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D974" s="2" t="s">
         <v>991</v>
@@ -20067,7 +19906,7 @@
         <v>993</v>
       </c>
       <c r="C975" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D975" s="2" t="s">
         <v>991</v>
@@ -20081,7 +19920,7 @@
         <v>994</v>
       </c>
       <c r="C976" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D976" s="2" t="s">
         <v>991</v>
@@ -20095,7 +19934,7 @@
         <v>995</v>
       </c>
       <c r="C977" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D977" s="2" t="s">
         <v>991</v>
@@ -20109,7 +19948,7 @@
         <v>996</v>
       </c>
       <c r="C978" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D978" s="2" t="s">
         <v>991</v>
@@ -20123,7 +19962,7 @@
         <v>997</v>
       </c>
       <c r="C979" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D979" s="2" t="s">
         <v>991</v>
@@ -20137,7 +19976,7 @@
         <v>998</v>
       </c>
       <c r="C980" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D980" s="2" t="s">
         <v>991</v>
@@ -20151,7 +19990,7 @@
         <v>999</v>
       </c>
       <c r="C981" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D981" s="2" t="s">
         <v>991</v>
@@ -20165,7 +20004,7 @@
         <v>1000</v>
       </c>
       <c r="C982" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D982" s="2" t="s">
         <v>991</v>
@@ -20179,7 +20018,7 @@
         <v>1001</v>
       </c>
       <c r="C983" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D983" s="2" t="s">
         <v>991</v>
@@ -20193,7 +20032,7 @@
         <v>1002</v>
       </c>
       <c r="C984" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D984" s="2" t="s">
         <v>991</v>
@@ -20207,7 +20046,7 @@
         <v>1003</v>
       </c>
       <c r="C985" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D985" s="2" t="s">
         <v>991</v>
@@ -20221,7 +20060,7 @@
         <v>1004</v>
       </c>
       <c r="C986" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D986" s="2" t="s">
         <v>991</v>
@@ -20235,7 +20074,7 @@
         <v>1005</v>
       </c>
       <c r="C987" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D987" s="2" t="s">
         <v>991</v>
@@ -20249,7 +20088,7 @@
         <v>1006</v>
       </c>
       <c r="C988" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D988" s="2" t="s">
         <v>991</v>
@@ -20263,7 +20102,7 @@
         <v>1007</v>
       </c>
       <c r="C989" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D989" s="2" t="s">
         <v>991</v>
@@ -20277,7 +20116,7 @@
         <v>1008</v>
       </c>
       <c r="C990" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D990" s="2" t="s">
         <v>991</v>
@@ -20291,7 +20130,7 @@
         <v>1009</v>
       </c>
       <c r="C991" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D991" s="2" t="s">
         <v>991</v>
@@ -20305,7 +20144,7 @@
         <v>1010</v>
       </c>
       <c r="C992" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D992" s="2" t="s">
         <v>991</v>
@@ -20319,7 +20158,7 @@
         <v>1011</v>
       </c>
       <c r="C993" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D993" s="2" t="s">
         <v>991</v>
@@ -20333,7 +20172,7 @@
         <v>1012</v>
       </c>
       <c r="C994" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D994" s="2" t="s">
         <v>991</v>
@@ -20347,7 +20186,7 @@
         <v>1013</v>
       </c>
       <c r="C995" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D995" s="2" t="s">
         <v>991</v>
@@ -20361,7 +20200,7 @@
         <v>1014</v>
       </c>
       <c r="C996" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D996" s="2" t="s">
         <v>991</v>
@@ -20373,7 +20212,7 @@
         <v>41</v>
       </c>
       <c r="I996" s="7" t="s">
-        <v>1807</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="997" spans="1:9" x14ac:dyDescent="0.25">
@@ -20384,7 +20223,7 @@
         <v>1015</v>
       </c>
       <c r="C997" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D997" s="2" t="s">
         <v>991</v>
@@ -20398,7 +20237,7 @@
         <v>1016</v>
       </c>
       <c r="C998" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D998" s="2" t="s">
         <v>991</v>
@@ -20412,7 +20251,7 @@
         <v>1017</v>
       </c>
       <c r="C999" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D999" s="2" t="s">
         <v>991</v>
@@ -20426,7 +20265,7 @@
         <v>1018</v>
       </c>
       <c r="C1000" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1000" s="2" t="s">
         <v>991</v>
@@ -20440,7 +20279,7 @@
         <v>1019</v>
       </c>
       <c r="C1001" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1001" s="2" t="s">
         <v>991</v>
@@ -20454,7 +20293,7 @@
         <v>1020</v>
       </c>
       <c r="C1002" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1002" s="2" t="s">
         <v>991</v>
@@ -20468,7 +20307,7 @@
         <v>1021</v>
       </c>
       <c r="C1003" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1003" s="2" t="s">
         <v>991</v>
@@ -20482,7 +20321,7 @@
         <v>1022</v>
       </c>
       <c r="C1004" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1004" s="2" t="s">
         <v>991</v>
@@ -20496,7 +20335,7 @@
         <v>1023</v>
       </c>
       <c r="C1005" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1005" s="2" t="s">
         <v>991</v>
@@ -20510,7 +20349,7 @@
         <v>1024</v>
       </c>
       <c r="C1006" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1006" s="2" t="s">
         <v>991</v>
@@ -20522,7 +20361,7 @@
         <v>42</v>
       </c>
       <c r="I1006" s="7" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1007" spans="1:9" x14ac:dyDescent="0.25">
@@ -20533,7 +20372,7 @@
         <v>1025</v>
       </c>
       <c r="C1007" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1007" s="2" t="s">
         <v>991</v>
@@ -20547,7 +20386,7 @@
         <v>1026</v>
       </c>
       <c r="C1008" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1008" s="2" t="s">
         <v>991</v>
@@ -20561,7 +20400,7 @@
         <v>1027</v>
       </c>
       <c r="C1009" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1009" s="2" t="s">
         <v>991</v>
@@ -20575,7 +20414,7 @@
         <v>1028</v>
       </c>
       <c r="C1010" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1010" s="2" t="s">
         <v>991</v>
@@ -20589,7 +20428,7 @@
         <v>1029</v>
       </c>
       <c r="C1011" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1011" s="2" t="s">
         <v>991</v>
@@ -20603,7 +20442,7 @@
         <v>1030</v>
       </c>
       <c r="C1012" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1012" s="2" t="s">
         <v>991</v>
@@ -20617,7 +20456,7 @@
         <v>1031</v>
       </c>
       <c r="C1013" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1013" s="2" t="s">
         <v>991</v>
@@ -20631,7 +20470,7 @@
         <v>1032</v>
       </c>
       <c r="C1014" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1014" s="2" t="s">
         <v>991</v>
@@ -20645,7 +20484,7 @@
         <v>1033</v>
       </c>
       <c r="C1015" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1015" s="2" t="s">
         <v>991</v>
@@ -20659,7 +20498,7 @@
         <v>1034</v>
       </c>
       <c r="C1016" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1016" s="2" t="s">
         <v>991</v>
@@ -20673,7 +20512,7 @@
         <v>1035</v>
       </c>
       <c r="C1017" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1017" s="2" t="s">
         <v>991</v>
@@ -20687,7 +20526,7 @@
         <v>1036</v>
       </c>
       <c r="C1018" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1018" s="2" t="s">
         <v>991</v>
@@ -20701,7 +20540,7 @@
         <v>1037</v>
       </c>
       <c r="C1019" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1019" s="2" t="s">
         <v>991</v>
@@ -20715,7 +20554,7 @@
         <v>1038</v>
       </c>
       <c r="C1020" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1020" s="2" t="s">
         <v>991</v>
@@ -20729,7 +20568,7 @@
         <v>1039</v>
       </c>
       <c r="C1021" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1021" s="2" t="s">
         <v>991</v>
@@ -20743,7 +20582,7 @@
         <v>1040</v>
       </c>
       <c r="C1022" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1022" s="2" t="s">
         <v>991</v>
@@ -20757,7 +20596,7 @@
         <v>1041</v>
       </c>
       <c r="C1023" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1023" s="2" t="s">
         <v>991</v>
@@ -20771,7 +20610,7 @@
         <v>1042</v>
       </c>
       <c r="C1024" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1024" s="2" t="s">
         <v>991</v>
@@ -20785,7 +20624,7 @@
         <v>1043</v>
       </c>
       <c r="C1025" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1025" s="2" t="s">
         <v>991</v>
@@ -20799,7 +20638,7 @@
         <v>1044</v>
       </c>
       <c r="C1026" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1026" s="2" t="s">
         <v>991</v>
@@ -20813,7 +20652,7 @@
         <v>1045</v>
       </c>
       <c r="C1027" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1027" s="2" t="s">
         <v>991</v>
@@ -20827,7 +20666,7 @@
         <v>1046</v>
       </c>
       <c r="C1028" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1028" s="2" t="s">
         <v>991</v>
@@ -20841,7 +20680,7 @@
         <v>1047</v>
       </c>
       <c r="C1029" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1029" s="2" t="s">
         <v>991</v>
@@ -20855,7 +20694,7 @@
         <v>1048</v>
       </c>
       <c r="C1030" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1030" s="2" t="s">
         <v>991</v>
@@ -20869,7 +20708,7 @@
         <v>1049</v>
       </c>
       <c r="C1031" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1031" s="2" t="s">
         <v>991</v>
@@ -20883,7 +20722,7 @@
         <v>1050</v>
       </c>
       <c r="C1032" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1032" s="2" t="s">
         <v>991</v>
@@ -20897,7 +20736,7 @@
         <v>1051</v>
       </c>
       <c r="C1033" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1033" s="2" t="s">
         <v>991</v>
@@ -20911,7 +20750,7 @@
         <v>1052</v>
       </c>
       <c r="C1034" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1034" s="2" t="s">
         <v>991</v>
@@ -20925,7 +20764,7 @@
         <v>1053</v>
       </c>
       <c r="C1035" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1035" s="2" t="s">
         <v>991</v>
@@ -20939,7 +20778,7 @@
         <v>1054</v>
       </c>
       <c r="C1036" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1036" s="2" t="s">
         <v>991</v>
@@ -20953,7 +20792,7 @@
         <v>1055</v>
       </c>
       <c r="C1037" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1037" s="2" t="s">
         <v>991</v>
@@ -20967,7 +20806,7 @@
         <v>1056</v>
       </c>
       <c r="C1038" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1038" s="2" t="s">
         <v>991</v>
@@ -20981,7 +20820,7 @@
         <v>1057</v>
       </c>
       <c r="C1039" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1039" s="2" t="s">
         <v>991</v>
@@ -20998,7 +20837,7 @@
         <v>1058</v>
       </c>
       <c r="C1040" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1040" s="2" t="s">
         <v>991</v>
@@ -21012,7 +20851,7 @@
         <v>1059</v>
       </c>
       <c r="C1041" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1041" s="2" t="s">
         <v>991</v>
@@ -21026,7 +20865,7 @@
         <v>1060</v>
       </c>
       <c r="C1042" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1042" s="2" t="s">
         <v>991</v>
@@ -21040,7 +20879,7 @@
         <v>1061</v>
       </c>
       <c r="C1043" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1043" s="2" t="s">
         <v>991</v>
@@ -21054,7 +20893,7 @@
         <v>1062</v>
       </c>
       <c r="C1044" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1044" s="2" t="s">
         <v>991</v>
@@ -21068,7 +20907,7 @@
         <v>1063</v>
       </c>
       <c r="C1045" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1045" s="2" t="s">
         <v>991</v>
@@ -21082,7 +20921,7 @@
         <v>1064</v>
       </c>
       <c r="C1046" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1046" s="2" t="s">
         <v>991</v>
@@ -21096,7 +20935,7 @@
         <v>1065</v>
       </c>
       <c r="C1047" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1047" s="2" t="s">
         <v>991</v>
@@ -21110,7 +20949,7 @@
         <v>1066</v>
       </c>
       <c r="C1048" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1048" s="2" t="s">
         <v>991</v>
@@ -21124,7 +20963,7 @@
         <v>1067</v>
       </c>
       <c r="C1049" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1049" s="2" t="s">
         <v>991</v>
@@ -21138,7 +20977,7 @@
         <v>1068</v>
       </c>
       <c r="C1050" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1050" s="2" t="s">
         <v>991</v>
@@ -21152,7 +20991,7 @@
         <v>1069</v>
       </c>
       <c r="C1051" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1051" s="2" t="s">
         <v>991</v>
@@ -21166,7 +21005,7 @@
         <v>1070</v>
       </c>
       <c r="C1052" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1052" s="2" t="s">
         <v>991</v>
@@ -21180,7 +21019,7 @@
         <v>1071</v>
       </c>
       <c r="C1053" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1053" s="2" t="s">
         <v>991</v>
@@ -21194,7 +21033,7 @@
         <v>1072</v>
       </c>
       <c r="C1054" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1054" s="2" t="s">
         <v>991</v>
@@ -21208,7 +21047,7 @@
         <v>1073</v>
       </c>
       <c r="C1055" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1055" s="2" t="s">
         <v>991</v>
@@ -21222,7 +21061,7 @@
         <v>1074</v>
       </c>
       <c r="C1056" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1056" s="2" t="s">
         <v>991</v>
@@ -21236,7 +21075,7 @@
         <v>1075</v>
       </c>
       <c r="C1057" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1057" s="2" t="s">
         <v>991</v>
@@ -21250,7 +21089,7 @@
         <v>1076</v>
       </c>
       <c r="C1058" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1058" s="2" t="s">
         <v>991</v>
@@ -21264,7 +21103,7 @@
         <v>1077</v>
       </c>
       <c r="C1059" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1059" s="2" t="s">
         <v>991</v>
@@ -21278,7 +21117,7 @@
         <v>1078</v>
       </c>
       <c r="C1060" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1060" s="2" t="s">
         <v>991</v>
@@ -21292,7 +21131,7 @@
         <v>1079</v>
       </c>
       <c r="C1061" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1061" s="2" t="s">
         <v>991</v>
@@ -21306,7 +21145,7 @@
         <v>1080</v>
       </c>
       <c r="C1062" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1062" s="2" t="s">
         <v>991</v>
@@ -21320,7 +21159,7 @@
         <v>1081</v>
       </c>
       <c r="C1063" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1063" s="2" t="s">
         <v>991</v>
@@ -21334,7 +21173,7 @@
         <v>1082</v>
       </c>
       <c r="C1064" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1064" s="2" t="s">
         <v>991</v>
@@ -21348,7 +21187,7 @@
         <v>1083</v>
       </c>
       <c r="C1065" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1065" s="2" t="s">
         <v>991</v>
@@ -21362,7 +21201,7 @@
         <v>1084</v>
       </c>
       <c r="C1066" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1066" s="2" t="s">
         <v>991</v>
@@ -21376,7 +21215,7 @@
         <v>1085</v>
       </c>
       <c r="C1067" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1067" s="2" t="s">
         <v>991</v>
@@ -21390,7 +21229,7 @@
         <v>1086</v>
       </c>
       <c r="C1068" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1068" s="2" t="s">
         <v>991</v>
@@ -21407,7 +21246,7 @@
         <v>1087</v>
       </c>
       <c r="C1069" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1069" s="2" t="s">
         <v>991</v>
@@ -21421,7 +21260,7 @@
         <v>1088</v>
       </c>
       <c r="C1070" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1070" s="2" t="s">
         <v>991</v>
@@ -21435,7 +21274,7 @@
         <v>1089</v>
       </c>
       <c r="C1071" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1071" s="2" t="s">
         <v>991</v>
@@ -21449,7 +21288,7 @@
         <v>1090</v>
       </c>
       <c r="C1072" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1072" s="2" t="s">
         <v>991</v>
@@ -21463,7 +21302,7 @@
         <v>1091</v>
       </c>
       <c r="C1073" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1073" s="2" t="s">
         <v>991</v>
@@ -21477,7 +21316,7 @@
         <v>1092</v>
       </c>
       <c r="C1074" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1074" s="2" t="s">
         <v>991</v>
@@ -21491,7 +21330,7 @@
         <v>1093</v>
       </c>
       <c r="C1075" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1075" s="2" t="s">
         <v>991</v>
@@ -21505,7 +21344,7 @@
         <v>1094</v>
       </c>
       <c r="C1076" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1076" s="2" t="s">
         <v>991</v>
@@ -21519,7 +21358,7 @@
         <v>1095</v>
       </c>
       <c r="C1077" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1077" s="2" t="s">
         <v>991</v>
@@ -21533,7 +21372,7 @@
         <v>1096</v>
       </c>
       <c r="C1078" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1078" s="2" t="s">
         <v>991</v>
@@ -21547,7 +21386,7 @@
         <v>1097</v>
       </c>
       <c r="C1079" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1079" s="2" t="s">
         <v>991</v>
@@ -21561,7 +21400,7 @@
         <v>1098</v>
       </c>
       <c r="C1080" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1080" s="2" t="s">
         <v>991</v>
@@ -21575,7 +21414,7 @@
         <v>1099</v>
       </c>
       <c r="C1081" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1081" s="2" t="s">
         <v>991</v>
@@ -21589,7 +21428,7 @@
         <v>1100</v>
       </c>
       <c r="C1082" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1082" s="2" t="s">
         <v>991</v>
@@ -21603,7 +21442,7 @@
         <v>1101</v>
       </c>
       <c r="C1083" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1083" s="2" t="s">
         <v>991</v>
@@ -21617,7 +21456,7 @@
         <v>1102</v>
       </c>
       <c r="C1084" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1084" s="2" t="s">
         <v>991</v>
@@ -21631,7 +21470,7 @@
         <v>1103</v>
       </c>
       <c r="C1085" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1085" s="2" t="s">
         <v>991</v>
@@ -21645,7 +21484,7 @@
         <v>1104</v>
       </c>
       <c r="C1086" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1086" s="2" t="s">
         <v>991</v>
@@ -21659,7 +21498,7 @@
         <v>1105</v>
       </c>
       <c r="C1087" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1087" s="2" t="s">
         <v>991</v>
@@ -21673,7 +21512,7 @@
         <v>1106</v>
       </c>
       <c r="C1088" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1088" s="2" t="s">
         <v>991</v>
@@ -21687,7 +21526,7 @@
         <v>1107</v>
       </c>
       <c r="C1089" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1089" s="2" t="s">
         <v>991</v>
@@ -21701,7 +21540,7 @@
         <v>1108</v>
       </c>
       <c r="C1090" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1090" s="2" t="s">
         <v>991</v>
@@ -21715,7 +21554,7 @@
         <v>1109</v>
       </c>
       <c r="C1091" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1091" s="2" t="s">
         <v>991</v>
@@ -21729,7 +21568,7 @@
         <v>1110</v>
       </c>
       <c r="C1092" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1092" s="2" t="s">
         <v>991</v>
@@ -21749,7 +21588,7 @@
         <v>1111</v>
       </c>
       <c r="C1093" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1093" s="2" t="s">
         <v>991</v>
@@ -21763,7 +21602,7 @@
         <v>1112</v>
       </c>
       <c r="C1094" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1094" s="2" t="s">
         <v>991</v>
@@ -21777,7 +21616,7 @@
         <v>1113</v>
       </c>
       <c r="C1095" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1095" s="2" t="s">
         <v>991</v>
@@ -21791,7 +21630,7 @@
         <v>1114</v>
       </c>
       <c r="C1096" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1096" s="2" t="s">
         <v>991</v>
@@ -21805,7 +21644,7 @@
         <v>1115</v>
       </c>
       <c r="C1097" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1097" s="2" t="s">
         <v>991</v>
@@ -21819,7 +21658,7 @@
         <v>1116</v>
       </c>
       <c r="C1098" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1098" s="2" t="s">
         <v>991</v>
@@ -21836,7 +21675,7 @@
         <v>1117</v>
       </c>
       <c r="C1099" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1099" s="2" t="s">
         <v>991</v>
@@ -21850,7 +21689,7 @@
         <v>1118</v>
       </c>
       <c r="C1100" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1100" s="2" t="s">
         <v>991</v>
@@ -21865,7 +21704,7 @@
         <v>755</v>
       </c>
       <c r="I1100" s="7" t="s">
-        <v>1808</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1101" spans="1:9" x14ac:dyDescent="0.25">
@@ -21876,7 +21715,7 @@
         <v>1119</v>
       </c>
       <c r="C1101" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1101" s="2" t="s">
         <v>991</v>
@@ -21890,7 +21729,7 @@
         <v>1120</v>
       </c>
       <c r="C1102" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1102" s="2" t="s">
         <v>991</v>
@@ -21904,7 +21743,7 @@
         <v>1121</v>
       </c>
       <c r="C1103" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1103" s="2" t="s">
         <v>991</v>
@@ -21918,7 +21757,7 @@
         <v>1122</v>
       </c>
       <c r="C1104" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1104" s="2" t="s">
         <v>991</v>
@@ -21932,7 +21771,7 @@
         <v>1123</v>
       </c>
       <c r="C1105" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1105" s="2" t="s">
         <v>991</v>
@@ -21946,7 +21785,7 @@
         <v>1124</v>
       </c>
       <c r="C1106" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1106" s="2" t="s">
         <v>991</v>
@@ -21960,7 +21799,7 @@
         <v>1125</v>
       </c>
       <c r="C1107" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1107" s="2" t="s">
         <v>991</v>
@@ -21974,7 +21813,7 @@
         <v>1126</v>
       </c>
       <c r="C1108" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1108" s="2" t="s">
         <v>991</v>
@@ -21988,7 +21827,7 @@
         <v>1127</v>
       </c>
       <c r="C1109" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1109" s="2" t="s">
         <v>991</v>
@@ -22005,7 +21844,7 @@
         <v>1128</v>
       </c>
       <c r="C1110" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1110" s="2" t="s">
         <v>991</v>
@@ -22017,10 +21856,10 @@
         <v>215</v>
       </c>
       <c r="I1110" s="7" t="s">
-        <v>1801</v>
+        <v>1793</v>
       </c>
       <c r="J1110" s="5" t="s">
-        <v>1802</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="1111" spans="1:10" x14ac:dyDescent="0.25">
@@ -22031,7 +21870,7 @@
         <v>1129</v>
       </c>
       <c r="C1111" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1111" s="2" t="s">
         <v>991</v>
@@ -22045,7 +21884,7 @@
         <v>1130</v>
       </c>
       <c r="C1112" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1112" s="2" t="s">
         <v>991</v>
@@ -22059,7 +21898,7 @@
         <v>1131</v>
       </c>
       <c r="C1113" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1113" s="2" t="s">
         <v>991</v>
@@ -22073,7 +21912,7 @@
         <v>1132</v>
       </c>
       <c r="C1114" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1114" s="2" t="s">
         <v>991</v>
@@ -22087,7 +21926,7 @@
         <v>1133</v>
       </c>
       <c r="C1115" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1115" s="2" t="s">
         <v>991</v>
@@ -22101,7 +21940,7 @@
         <v>1134</v>
       </c>
       <c r="C1116" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1116" s="2" t="s">
         <v>991</v>
@@ -22115,7 +21954,7 @@
         <v>1135</v>
       </c>
       <c r="C1117" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1117" s="2" t="s">
         <v>991</v>
@@ -22129,7 +21968,7 @@
         <v>1136</v>
       </c>
       <c r="C1118" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1118" s="2" t="s">
         <v>991</v>
@@ -22143,7 +21982,7 @@
         <v>1137</v>
       </c>
       <c r="C1119" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1119" s="2" t="s">
         <v>991</v>
@@ -22157,7 +21996,7 @@
         <v>1138</v>
       </c>
       <c r="C1120" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1120" s="2" t="s">
         <v>991</v>
@@ -22171,7 +22010,7 @@
         <v>1139</v>
       </c>
       <c r="C1121" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1121" s="2" t="s">
         <v>991</v>
@@ -22185,7 +22024,7 @@
         <v>1140</v>
       </c>
       <c r="C1122" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1122" s="2" t="s">
         <v>991</v>
@@ -22199,7 +22038,7 @@
         <v>1141</v>
       </c>
       <c r="C1123" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1123" s="2" t="s">
         <v>991</v>
@@ -22213,7 +22052,7 @@
         <v>1142</v>
       </c>
       <c r="C1124" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1124" s="2" t="s">
         <v>991</v>
@@ -22227,7 +22066,7 @@
         <v>1143</v>
       </c>
       <c r="C1125" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1125" s="2" t="s">
         <v>991</v>
@@ -22241,7 +22080,7 @@
         <v>1144</v>
       </c>
       <c r="C1126" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1126" s="2" t="s">
         <v>991</v>
@@ -22255,7 +22094,7 @@
         <v>1145</v>
       </c>
       <c r="C1127" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1127" s="2" t="s">
         <v>991</v>
@@ -22269,7 +22108,7 @@
         <v>1146</v>
       </c>
       <c r="C1128" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1128" s="2" t="s">
         <v>991</v>
@@ -22283,7 +22122,7 @@
         <v>1147</v>
       </c>
       <c r="C1129" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1129" s="2" t="s">
         <v>991</v>
@@ -22297,7 +22136,7 @@
         <v>1148</v>
       </c>
       <c r="C1130" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1130" s="2" t="s">
         <v>991</v>
@@ -22311,7 +22150,7 @@
         <v>1149</v>
       </c>
       <c r="C1131" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1131" s="2" t="s">
         <v>991</v>
@@ -22325,7 +22164,7 @@
         <v>1150</v>
       </c>
       <c r="C1132" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1132" s="2" t="s">
         <v>991</v>
@@ -22339,7 +22178,7 @@
         <v>1151</v>
       </c>
       <c r="C1133" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1133" s="2" t="s">
         <v>991</v>
@@ -22353,7 +22192,7 @@
         <v>1152</v>
       </c>
       <c r="C1134" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1134" s="2" t="s">
         <v>991</v>
@@ -22373,7 +22212,7 @@
         <v>1153</v>
       </c>
       <c r="C1135" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1135" s="2" t="s">
         <v>991</v>
@@ -22387,7 +22226,7 @@
         <v>1154</v>
       </c>
       <c r="C1136" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1136" s="2" t="s">
         <v>991</v>
@@ -22401,7 +22240,7 @@
         <v>1155</v>
       </c>
       <c r="C1137" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1137" s="2" t="s">
         <v>991</v>
@@ -22415,7 +22254,7 @@
         <v>1156</v>
       </c>
       <c r="C1138" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1138" s="2" t="s">
         <v>991</v>
@@ -22429,7 +22268,7 @@
         <v>1157</v>
       </c>
       <c r="C1139" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1139" s="2" t="s">
         <v>991</v>
@@ -22443,7 +22282,7 @@
         <v>1158</v>
       </c>
       <c r="C1140" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1140" s="2" t="s">
         <v>991</v>
@@ -22457,7 +22296,7 @@
         <v>1159</v>
       </c>
       <c r="C1141" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1141" s="2" t="s">
         <v>991</v>
@@ -22471,7 +22310,7 @@
         <v>1160</v>
       </c>
       <c r="C1142" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1142" s="2" t="s">
         <v>991</v>
@@ -22485,7 +22324,7 @@
         <v>1161</v>
       </c>
       <c r="C1143" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1143" s="2" t="s">
         <v>991</v>
@@ -22499,7 +22338,7 @@
         <v>1162</v>
       </c>
       <c r="C1144" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1144" s="2" t="s">
         <v>991</v>
@@ -22513,7 +22352,7 @@
         <v>1163</v>
       </c>
       <c r="C1145" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1145" s="2" t="s">
         <v>991</v>
@@ -22527,7 +22366,7 @@
         <v>1164</v>
       </c>
       <c r="C1146" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1146" s="2" t="s">
         <v>991</v>
@@ -22541,7 +22380,7 @@
         <v>1165</v>
       </c>
       <c r="C1147" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1147" s="2" t="s">
         <v>991</v>
@@ -22555,7 +22394,7 @@
         <v>1166</v>
       </c>
       <c r="C1148" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1148" s="2" t="s">
         <v>991</v>
@@ -22569,7 +22408,7 @@
         <v>1167</v>
       </c>
       <c r="C1149" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1149" s="2" t="s">
         <v>991</v>
@@ -22583,7 +22422,7 @@
         <v>1168</v>
       </c>
       <c r="C1150" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1150" s="2" t="s">
         <v>991</v>
@@ -22597,7 +22436,7 @@
         <v>1169</v>
       </c>
       <c r="C1151" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1151" s="2" t="s">
         <v>991</v>
@@ -22611,7 +22450,7 @@
         <v>1170</v>
       </c>
       <c r="C1152" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1152" s="2" t="s">
         <v>991</v>
@@ -22625,7 +22464,7 @@
         <v>1171</v>
       </c>
       <c r="C1153" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1153" s="2" t="s">
         <v>991</v>
@@ -22639,7 +22478,7 @@
         <v>1172</v>
       </c>
       <c r="C1154" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1154" s="2" t="s">
         <v>991</v>
@@ -22653,7 +22492,7 @@
         <v>1173</v>
       </c>
       <c r="C1155" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1155" s="2" t="s">
         <v>991</v>
@@ -22667,7 +22506,7 @@
         <v>1174</v>
       </c>
       <c r="C1156" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1156" s="2" t="s">
         <v>991</v>
@@ -22681,7 +22520,7 @@
         <v>1175</v>
       </c>
       <c r="C1157" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1157" s="2" t="s">
         <v>991</v>
@@ -22695,7 +22534,7 @@
         <v>1176</v>
       </c>
       <c r="C1158" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1158" s="2" t="s">
         <v>991</v>
@@ -22709,7 +22548,7 @@
         <v>1177</v>
       </c>
       <c r="C1159" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1159" s="2" t="s">
         <v>991</v>
@@ -22723,7 +22562,7 @@
         <v>1178</v>
       </c>
       <c r="C1160" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1160" s="2" t="s">
         <v>991</v>
@@ -22735,7 +22574,7 @@
         <v>100</v>
       </c>
       <c r="I1160" s="7" t="s">
-        <v>1795</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1161" spans="1:9" x14ac:dyDescent="0.25">
@@ -22746,7 +22585,7 @@
         <v>1179</v>
       </c>
       <c r="C1161" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1161" s="2" t="s">
         <v>991</v>
@@ -22760,7 +22599,7 @@
         <v>1180</v>
       </c>
       <c r="C1162" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1162" s="2" t="s">
         <v>991</v>
@@ -22774,7 +22613,7 @@
         <v>1181</v>
       </c>
       <c r="C1163" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1163" s="2" t="s">
         <v>991</v>
@@ -22788,7 +22627,7 @@
         <v>1182</v>
       </c>
       <c r="C1164" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1164" s="2" t="s">
         <v>991</v>
@@ -22802,7 +22641,7 @@
         <v>1183</v>
       </c>
       <c r="C1165" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1165" s="2" t="s">
         <v>991</v>
@@ -22816,7 +22655,7 @@
         <v>1184</v>
       </c>
       <c r="C1166" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1166" s="2" t="s">
         <v>991</v>
@@ -22830,7 +22669,7 @@
         <v>1185</v>
       </c>
       <c r="C1167" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1167" s="2" t="s">
         <v>991</v>
@@ -22844,7 +22683,7 @@
         <v>1186</v>
       </c>
       <c r="C1168" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1168" s="2" t="s">
         <v>991</v>
@@ -22858,7 +22697,7 @@
         <v>1187</v>
       </c>
       <c r="C1169" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1169" s="2" t="s">
         <v>991</v>
@@ -22872,7 +22711,7 @@
         <v>1188</v>
       </c>
       <c r="C1170" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1170" s="2" t="s">
         <v>991</v>
@@ -22886,7 +22725,7 @@
         <v>1189</v>
       </c>
       <c r="C1171" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1171" s="2" t="s">
         <v>991</v>
@@ -22900,7 +22739,7 @@
         <v>1190</v>
       </c>
       <c r="C1172" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1172" s="2" t="s">
         <v>991</v>
@@ -22914,7 +22753,7 @@
         <v>1191</v>
       </c>
       <c r="C1173" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1173" s="2" t="s">
         <v>991</v>
@@ -22928,7 +22767,7 @@
         <v>1192</v>
       </c>
       <c r="C1174" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1174" s="2" t="s">
         <v>991</v>
@@ -22942,7 +22781,7 @@
         <v>1193</v>
       </c>
       <c r="C1175" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1175" s="2" t="s">
         <v>991</v>
@@ -22956,7 +22795,7 @@
         <v>1194</v>
       </c>
       <c r="C1176" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1176" s="2" t="s">
         <v>991</v>
@@ -22970,7 +22809,7 @@
         <v>1195</v>
       </c>
       <c r="C1177" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1177" s="2" t="s">
         <v>991</v>
@@ -22984,7 +22823,7 @@
         <v>1196</v>
       </c>
       <c r="C1178" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1178" s="2" t="s">
         <v>991</v>
@@ -22998,7 +22837,7 @@
         <v>1197</v>
       </c>
       <c r="C1179" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1179" s="2" t="s">
         <v>991</v>
@@ -23012,7 +22851,7 @@
         <v>1198</v>
       </c>
       <c r="C1180" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1180" s="2" t="s">
         <v>991</v>
@@ -23026,7 +22865,7 @@
         <v>1199</v>
       </c>
       <c r="C1181" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1181" s="2" t="s">
         <v>991</v>
@@ -23040,7 +22879,7 @@
         <v>1200</v>
       </c>
       <c r="C1182" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1182" s="2" t="s">
         <v>991</v>
@@ -23054,7 +22893,7 @@
         <v>1201</v>
       </c>
       <c r="C1183" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1183" s="2" t="s">
         <v>991</v>
@@ -23068,7 +22907,7 @@
         <v>1202</v>
       </c>
       <c r="C1184" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1184" s="2" t="s">
         <v>991</v>
@@ -23082,7 +22921,7 @@
         <v>1203</v>
       </c>
       <c r="C1185" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1185" s="2" t="s">
         <v>991</v>
@@ -23096,7 +22935,7 @@
         <v>1204</v>
       </c>
       <c r="C1186" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1186" s="2" t="s">
         <v>991</v>
@@ -23110,7 +22949,7 @@
         <v>1205</v>
       </c>
       <c r="C1187" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1187" s="2" t="s">
         <v>991</v>
@@ -23124,7 +22963,7 @@
         <v>1206</v>
       </c>
       <c r="C1188" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1188" s="2" t="s">
         <v>991</v>
@@ -23138,7 +22977,7 @@
         <v>1207</v>
       </c>
       <c r="C1189" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1189" s="2" t="s">
         <v>991</v>
@@ -23152,7 +22991,7 @@
         <v>1208</v>
       </c>
       <c r="C1190" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1190" s="2" t="s">
         <v>991</v>
@@ -23166,7 +23005,7 @@
         <v>1209</v>
       </c>
       <c r="C1191" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1191" s="2" t="s">
         <v>991</v>
@@ -23180,7 +23019,7 @@
         <v>1210</v>
       </c>
       <c r="C1192" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1192" s="2" t="s">
         <v>991</v>
@@ -23194,7 +23033,7 @@
         <v>1211</v>
       </c>
       <c r="C1193" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1193" s="2" t="s">
         <v>991</v>
@@ -23208,7 +23047,7 @@
         <v>1212</v>
       </c>
       <c r="C1194" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1194" s="2" t="s">
         <v>991</v>
@@ -23222,7 +23061,7 @@
         <v>1213</v>
       </c>
       <c r="C1195" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1195" s="2" t="s">
         <v>991</v>
@@ -23236,7 +23075,7 @@
         <v>1214</v>
       </c>
       <c r="C1196" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1196" s="2" t="s">
         <v>991</v>
@@ -23250,7 +23089,7 @@
         <v>1215</v>
       </c>
       <c r="C1197" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1197" s="2" t="s">
         <v>991</v>
@@ -23264,7 +23103,7 @@
         <v>1216</v>
       </c>
       <c r="C1198" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1198" s="2" t="s">
         <v>991</v>
@@ -23278,7 +23117,7 @@
         <v>1217</v>
       </c>
       <c r="C1199" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1199" s="2" t="s">
         <v>991</v>
@@ -23292,7 +23131,7 @@
         <v>1218</v>
       </c>
       <c r="C1200" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1200" s="2" t="s">
         <v>991</v>
@@ -23306,7 +23145,7 @@
         <v>1219</v>
       </c>
       <c r="C1201" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1201" s="2" t="s">
         <v>991</v>
@@ -23320,7 +23159,7 @@
         <v>1220</v>
       </c>
       <c r="C1202" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1202" s="2" t="s">
         <v>991</v>
@@ -23334,7 +23173,7 @@
         <v>1221</v>
       </c>
       <c r="C1203" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1203" s="2" t="s">
         <v>991</v>
@@ -23348,7 +23187,7 @@
         <v>1222</v>
       </c>
       <c r="C1204" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1204" s="2" t="s">
         <v>991</v>
@@ -23362,7 +23201,7 @@
         <v>1223</v>
       </c>
       <c r="C1205" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1205" s="2" t="s">
         <v>991</v>
@@ -23376,7 +23215,7 @@
         <v>1224</v>
       </c>
       <c r="C1206" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1206" s="2" t="s">
         <v>991</v>
@@ -23390,7 +23229,7 @@
         <v>1225</v>
       </c>
       <c r="C1207" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1207" s="2" t="s">
         <v>991</v>
@@ -23404,7 +23243,7 @@
         <v>1226</v>
       </c>
       <c r="C1208" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1208" s="2" t="s">
         <v>991</v>
@@ -23418,7 +23257,7 @@
         <v>1227</v>
       </c>
       <c r="C1209" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1209" s="2" t="s">
         <v>991</v>
@@ -23432,7 +23271,7 @@
         <v>1228</v>
       </c>
       <c r="C1210" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1210" s="2" t="s">
         <v>991</v>
@@ -23446,7 +23285,7 @@
         <v>1229</v>
       </c>
       <c r="C1211" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1211" s="2" t="s">
         <v>991</v>
@@ -23460,7 +23299,7 @@
         <v>1230</v>
       </c>
       <c r="C1212" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1212" s="2" t="s">
         <v>991</v>
@@ -23474,7 +23313,7 @@
         <v>1231</v>
       </c>
       <c r="C1213" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1213" s="2" t="s">
         <v>991</v>
@@ -23486,7 +23325,7 @@
         <v>61</v>
       </c>
       <c r="I1213" s="7" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1214" spans="1:9" x14ac:dyDescent="0.25">
@@ -23497,7 +23336,7 @@
         <v>1232</v>
       </c>
       <c r="C1214" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1214" s="2" t="s">
         <v>991</v>
@@ -23511,7 +23350,7 @@
         <v>1233</v>
       </c>
       <c r="C1215" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1215" s="2" t="s">
         <v>991</v>
@@ -23525,7 +23364,7 @@
         <v>1234</v>
       </c>
       <c r="C1216" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1216" s="2" t="s">
         <v>991</v>
@@ -23539,7 +23378,7 @@
         <v>1235</v>
       </c>
       <c r="C1217" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1217" s="2" t="s">
         <v>991</v>
@@ -23553,10 +23392,10 @@
         <v>1237</v>
       </c>
       <c r="C1218" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1218" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
@@ -23567,7 +23406,7 @@
         <v>1238</v>
       </c>
       <c r="C1219" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1219" s="2" t="s">
         <v>991</v>
@@ -23581,7 +23420,7 @@
         <v>1239</v>
       </c>
       <c r="C1220" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1220" s="2" t="s">
         <v>991</v>
@@ -23595,7 +23434,7 @@
         <v>1240</v>
       </c>
       <c r="C1221" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1221" s="2" t="s">
         <v>991</v>
@@ -23609,7 +23448,7 @@
         <v>1241</v>
       </c>
       <c r="C1222" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1222" s="2" t="s">
         <v>991</v>
@@ -23623,7 +23462,7 @@
         <v>1242</v>
       </c>
       <c r="C1223" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1223" s="2" t="s">
         <v>991</v>
@@ -23637,7 +23476,7 @@
         <v>1243</v>
       </c>
       <c r="C1224" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1224" s="2" t="s">
         <v>991</v>
@@ -23651,7 +23490,7 @@
         <v>1244</v>
       </c>
       <c r="C1225" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1225" s="2" t="s">
         <v>991</v>
@@ -23665,7 +23504,7 @@
         <v>1245</v>
       </c>
       <c r="C1226" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1226" s="2" t="s">
         <v>991</v>
@@ -23679,7 +23518,7 @@
         <v>1246</v>
       </c>
       <c r="C1227" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1227" s="2" t="s">
         <v>991</v>
@@ -23693,7 +23532,7 @@
         <v>1247</v>
       </c>
       <c r="C1228" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1228" s="2" t="s">
         <v>991</v>
@@ -23707,7 +23546,7 @@
         <v>1248</v>
       </c>
       <c r="C1229" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1229" s="2" t="s">
         <v>991</v>
@@ -23721,7 +23560,7 @@
         <v>1249</v>
       </c>
       <c r="C1230" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1230" s="2" t="s">
         <v>991</v>
@@ -23735,7 +23574,7 @@
         <v>1250</v>
       </c>
       <c r="C1231" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1231" s="2" t="s">
         <v>991</v>
@@ -23749,7 +23588,7 @@
         <v>1251</v>
       </c>
       <c r="C1232" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1232" s="2" t="s">
         <v>991</v>
@@ -23763,7 +23602,7 @@
         <v>1252</v>
       </c>
       <c r="C1233" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1233" s="2" t="s">
         <v>991</v>
@@ -23777,7 +23616,7 @@
         <v>1253</v>
       </c>
       <c r="C1234" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1234" s="2" t="s">
         <v>991</v>
@@ -23791,7 +23630,7 @@
         <v>1254</v>
       </c>
       <c r="C1235" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1235" s="2" t="s">
         <v>991</v>
@@ -23805,7 +23644,7 @@
         <v>1255</v>
       </c>
       <c r="C1236" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1236" s="2" t="s">
         <v>991</v>
@@ -23819,7 +23658,7 @@
         <v>1256</v>
       </c>
       <c r="C1237" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1237" s="2" t="s">
         <v>991</v>
@@ -23833,7 +23672,7 @@
         <v>1257</v>
       </c>
       <c r="C1238" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1238" s="2" t="s">
         <v>991</v>
@@ -23847,7 +23686,7 @@
         <v>1258</v>
       </c>
       <c r="C1239" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1239" s="2" t="s">
         <v>991</v>
@@ -23861,7 +23700,7 @@
         <v>1259</v>
       </c>
       <c r="C1240" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1240" s="2" t="s">
         <v>991</v>
@@ -23875,7 +23714,7 @@
         <v>1260</v>
       </c>
       <c r="C1241" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1241" s="2" t="s">
         <v>991</v>
@@ -23889,7 +23728,7 @@
         <v>1261</v>
       </c>
       <c r="C1242" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1242" s="2" t="s">
         <v>991</v>
@@ -23903,7 +23742,7 @@
         <v>1262</v>
       </c>
       <c r="C1243" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1243" s="2" t="s">
         <v>991</v>
@@ -23917,7 +23756,7 @@
         <v>1263</v>
       </c>
       <c r="C1244" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1244" s="2" t="s">
         <v>991</v>
@@ -23931,7 +23770,7 @@
         <v>1264</v>
       </c>
       <c r="C1245" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1245" s="2" t="s">
         <v>991</v>
@@ -23945,7 +23784,7 @@
         <v>1265</v>
       </c>
       <c r="C1246" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1246" s="2" t="s">
         <v>991</v>
@@ -23959,7 +23798,7 @@
         <v>1266</v>
       </c>
       <c r="C1247" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1247" s="2" t="s">
         <v>991</v>
@@ -23973,7 +23812,7 @@
         <v>1267</v>
       </c>
       <c r="C1248" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1248" s="2" t="s">
         <v>991</v>
@@ -23987,7 +23826,7 @@
         <v>1268</v>
       </c>
       <c r="C1249" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1249" s="2" t="s">
         <v>991</v>
@@ -24001,7 +23840,7 @@
         <v>1269</v>
       </c>
       <c r="C1250" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1250" s="2" t="s">
         <v>991</v>
@@ -24015,7 +23854,7 @@
         <v>1270</v>
       </c>
       <c r="C1251" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1251" s="2" t="s">
         <v>991</v>
@@ -24029,7 +23868,7 @@
         <v>1271</v>
       </c>
       <c r="C1252" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1252" s="2" t="s">
         <v>991</v>
@@ -24043,7 +23882,7 @@
         <v>1272</v>
       </c>
       <c r="C1253" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1253" s="2" t="s">
         <v>991</v>
@@ -24057,7 +23896,7 @@
         <v>1273</v>
       </c>
       <c r="C1254" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1254" s="2" t="s">
         <v>991</v>
@@ -24071,7 +23910,7 @@
         <v>1274</v>
       </c>
       <c r="C1255" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1255" s="2" t="s">
         <v>991</v>
@@ -24085,7 +23924,7 @@
         <v>1275</v>
       </c>
       <c r="C1256" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1256" s="2" t="s">
         <v>991</v>
@@ -24099,7 +23938,7 @@
         <v>1276</v>
       </c>
       <c r="C1257" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1257" s="2" t="s">
         <v>991</v>
@@ -24113,7 +23952,7 @@
         <v>1277</v>
       </c>
       <c r="C1258" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1258" s="2" t="s">
         <v>991</v>
@@ -24127,7 +23966,7 @@
         <v>1278</v>
       </c>
       <c r="C1259" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1259" s="2" t="s">
         <v>991</v>
@@ -24141,7 +23980,7 @@
         <v>1279</v>
       </c>
       <c r="C1260" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1260" s="2" t="s">
         <v>991</v>
@@ -24155,7 +23994,7 @@
         <v>1280</v>
       </c>
       <c r="C1261" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1261" s="2" t="s">
         <v>991</v>
@@ -24169,7 +24008,7 @@
         <v>1281</v>
       </c>
       <c r="C1262" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1262" s="2" t="s">
         <v>991</v>
@@ -24183,7 +24022,7 @@
         <v>1282</v>
       </c>
       <c r="C1263" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1263" s="2" t="s">
         <v>991</v>
@@ -24197,7 +24036,7 @@
         <v>1283</v>
       </c>
       <c r="C1264" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1264" s="2" t="s">
         <v>991</v>
@@ -24211,7 +24050,7 @@
         <v>1284</v>
       </c>
       <c r="C1265" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1265" s="2" t="s">
         <v>991</v>
@@ -24225,7 +24064,7 @@
         <v>1285</v>
       </c>
       <c r="C1266" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1266" s="2" t="s">
         <v>991</v>
@@ -24239,7 +24078,7 @@
         <v>1286</v>
       </c>
       <c r="C1267" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1267" s="2" t="s">
         <v>991</v>
@@ -24253,7 +24092,7 @@
         <v>1287</v>
       </c>
       <c r="C1268" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1268" s="2" t="s">
         <v>991</v>
@@ -24267,7 +24106,7 @@
         <v>1288</v>
       </c>
       <c r="C1269" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1269" s="2" t="s">
         <v>991</v>
@@ -24281,7 +24120,7 @@
         <v>1289</v>
       </c>
       <c r="C1270" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1270" s="2" t="s">
         <v>991</v>
@@ -24295,7 +24134,7 @@
         <v>1290</v>
       </c>
       <c r="C1271" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1271" s="2" t="s">
         <v>991</v>
@@ -24309,7 +24148,7 @@
         <v>1291</v>
       </c>
       <c r="C1272" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1272" s="2" t="s">
         <v>991</v>
@@ -24323,7 +24162,7 @@
         <v>1292</v>
       </c>
       <c r="C1273" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1273" s="2" t="s">
         <v>991</v>
@@ -24337,7 +24176,7 @@
         <v>1293</v>
       </c>
       <c r="C1274" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1274" s="2" t="s">
         <v>991</v>
@@ -24351,7 +24190,7 @@
         <v>1294</v>
       </c>
       <c r="C1275" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1275" s="2" t="s">
         <v>991</v>
@@ -24365,7 +24204,7 @@
         <v>1295</v>
       </c>
       <c r="C1276" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1276" s="2" t="s">
         <v>991</v>
@@ -24379,7 +24218,7 @@
         <v>1296</v>
       </c>
       <c r="C1277" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1277" s="2" t="s">
         <v>991</v>
@@ -24393,7 +24232,7 @@
         <v>1297</v>
       </c>
       <c r="C1278" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1278" s="2" t="s">
         <v>991</v>
@@ -24407,7 +24246,7 @@
         <v>1298</v>
       </c>
       <c r="C1279" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1279" s="2" t="s">
         <v>991</v>
@@ -24421,7 +24260,7 @@
         <v>1299</v>
       </c>
       <c r="C1280" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1280" s="2" t="s">
         <v>991</v>
@@ -24435,7 +24274,7 @@
         <v>1300</v>
       </c>
       <c r="C1281" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1281" s="2" t="s">
         <v>991</v>
@@ -24449,7 +24288,7 @@
         <v>1301</v>
       </c>
       <c r="C1282" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1282" s="2" t="s">
         <v>991</v>
@@ -24463,7 +24302,7 @@
         <v>1302</v>
       </c>
       <c r="C1283" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1283" s="2" t="s">
         <v>991</v>
@@ -24477,7 +24316,7 @@
         <v>1303</v>
       </c>
       <c r="C1284" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1284" s="2" t="s">
         <v>991</v>
@@ -24491,7 +24330,7 @@
         <v>1304</v>
       </c>
       <c r="C1285" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1285" s="2" t="s">
         <v>991</v>
@@ -24505,7 +24344,7 @@
         <v>1305</v>
       </c>
       <c r="C1286" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1286" s="2" t="s">
         <v>991</v>
@@ -24519,7 +24358,7 @@
         <v>1306</v>
       </c>
       <c r="C1287" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1287" s="2" t="s">
         <v>991</v>
@@ -24533,7 +24372,7 @@
         <v>1307</v>
       </c>
       <c r="C1288" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1288" s="2" t="s">
         <v>991</v>
@@ -24547,7 +24386,7 @@
         <v>1308</v>
       </c>
       <c r="C1289" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1289" s="2" t="s">
         <v>991</v>
@@ -24561,7 +24400,7 @@
         <v>1309</v>
       </c>
       <c r="C1290" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1290" s="2" t="s">
         <v>991</v>
@@ -24575,7 +24414,7 @@
         <v>1310</v>
       </c>
       <c r="C1291" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1291" s="2" t="s">
         <v>991</v>
@@ -24589,7 +24428,7 @@
         <v>1311</v>
       </c>
       <c r="C1292" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1292" s="2" t="s">
         <v>991</v>
@@ -24603,7 +24442,7 @@
         <v>1312</v>
       </c>
       <c r="C1293" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1293" s="2" t="s">
         <v>991</v>
@@ -24617,7 +24456,7 @@
         <v>1313</v>
       </c>
       <c r="C1294" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1294" s="2" t="s">
         <v>991</v>
@@ -24631,7 +24470,7 @@
         <v>1314</v>
       </c>
       <c r="C1295" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1295" s="2" t="s">
         <v>991</v>
@@ -24645,7 +24484,7 @@
         <v>1315</v>
       </c>
       <c r="C1296" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1296" s="2" t="s">
         <v>991</v>
@@ -24659,7 +24498,7 @@
         <v>1316</v>
       </c>
       <c r="C1297" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1297" s="2" t="s">
         <v>991</v>
@@ -24673,7 +24512,7 @@
         <v>1317</v>
       </c>
       <c r="C1298" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1298" s="2" t="s">
         <v>991</v>
@@ -24687,7 +24526,7 @@
         <v>1318</v>
       </c>
       <c r="C1299" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1299" s="2" t="s">
         <v>991</v>
@@ -24701,7 +24540,7 @@
         <v>1319</v>
       </c>
       <c r="C1300" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1300" s="2" t="s">
         <v>991</v>
@@ -24715,7 +24554,7 @@
         <v>1320</v>
       </c>
       <c r="C1301" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1301" s="2" t="s">
         <v>991</v>
@@ -24729,7 +24568,7 @@
         <v>1321</v>
       </c>
       <c r="C1302" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1302" s="2" t="s">
         <v>991</v>
@@ -24743,7 +24582,7 @@
         <v>1322</v>
       </c>
       <c r="C1303" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1303" s="2" t="s">
         <v>991</v>
@@ -24757,7 +24596,7 @@
         <v>1323</v>
       </c>
       <c r="C1304" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1304" s="2" t="s">
         <v>991</v>
@@ -24771,7 +24610,7 @@
         <v>1324</v>
       </c>
       <c r="C1305" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1305" s="2" t="s">
         <v>991</v>
@@ -24785,7 +24624,7 @@
         <v>1325</v>
       </c>
       <c r="C1306" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1306" s="2" t="s">
         <v>991</v>
@@ -24799,7 +24638,7 @@
         <v>1326</v>
       </c>
       <c r="C1307" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1307" s="2" t="s">
         <v>991</v>
@@ -24813,7 +24652,7 @@
         <v>1327</v>
       </c>
       <c r="C1308" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1308" s="2" t="s">
         <v>991</v>
@@ -24827,7 +24666,7 @@
         <v>1328</v>
       </c>
       <c r="C1309" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1309" s="2" t="s">
         <v>991</v>
@@ -24841,7 +24680,7 @@
         <v>1329</v>
       </c>
       <c r="C1310" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1310" s="2" t="s">
         <v>991</v>
@@ -24855,7 +24694,7 @@
         <v>1330</v>
       </c>
       <c r="C1311" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1311" s="2" t="s">
         <v>991</v>
@@ -24869,7 +24708,7 @@
         <v>1331</v>
       </c>
       <c r="C1312" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1312" s="2" t="s">
         <v>991</v>
@@ -24883,7 +24722,7 @@
         <v>1332</v>
       </c>
       <c r="C1313" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1313" s="2" t="s">
         <v>991</v>
@@ -24897,7 +24736,7 @@
         <v>1333</v>
       </c>
       <c r="C1314" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1314" s="2" t="s">
         <v>991</v>
@@ -24911,7 +24750,7 @@
         <v>1334</v>
       </c>
       <c r="C1315" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1315" s="2" t="s">
         <v>991</v>
@@ -24925,7 +24764,7 @@
         <v>1335</v>
       </c>
       <c r="C1316" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1316" s="2" t="s">
         <v>991</v>
@@ -24942,7 +24781,7 @@
         <v>1336</v>
       </c>
       <c r="C1317" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1317" s="2" t="s">
         <v>991</v>
@@ -24956,7 +24795,7 @@
         <v>1337</v>
       </c>
       <c r="C1318" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1318" s="2" t="s">
         <v>991</v>
@@ -24970,7 +24809,7 @@
         <v>1338</v>
       </c>
       <c r="C1319" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1319" s="2" t="s">
         <v>991</v>
@@ -24984,7 +24823,7 @@
         <v>1339</v>
       </c>
       <c r="C1320" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1320" s="2" t="s">
         <v>991</v>
@@ -24998,7 +24837,7 @@
         <v>1340</v>
       </c>
       <c r="C1321" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1321" s="2" t="s">
         <v>991</v>
@@ -25012,7 +24851,7 @@
         <v>1341</v>
       </c>
       <c r="C1322" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1322" s="2" t="s">
         <v>991</v>
@@ -25026,7 +24865,7 @@
         <v>1342</v>
       </c>
       <c r="C1323" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1323" s="2" t="s">
         <v>991</v>
@@ -25040,7 +24879,7 @@
         <v>1343</v>
       </c>
       <c r="C1324" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1324" s="2" t="s">
         <v>991</v>
@@ -25054,7 +24893,7 @@
         <v>1344</v>
       </c>
       <c r="C1325" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1325" s="2" t="s">
         <v>991</v>
@@ -25068,7 +24907,7 @@
         <v>1345</v>
       </c>
       <c r="C1326" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1326" s="2" t="s">
         <v>991</v>
@@ -25082,7 +24921,7 @@
         <v>1346</v>
       </c>
       <c r="C1327" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1327" s="2" t="s">
         <v>991</v>
@@ -25096,7 +24935,7 @@
         <v>1347</v>
       </c>
       <c r="C1328" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1328" s="2" t="s">
         <v>991</v>
@@ -25110,7 +24949,7 @@
         <v>1348</v>
       </c>
       <c r="C1329" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1329" s="2" t="s">
         <v>991</v>
@@ -25124,7 +24963,7 @@
         <v>1349</v>
       </c>
       <c r="C1330" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1330" s="2" t="s">
         <v>991</v>
@@ -25138,7 +24977,7 @@
         <v>1350</v>
       </c>
       <c r="C1331" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1331" s="2" t="s">
         <v>991</v>
@@ -25152,7 +24991,7 @@
         <v>1351</v>
       </c>
       <c r="C1332" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1332" s="2" t="s">
         <v>991</v>
@@ -25166,7 +25005,7 @@
         <v>1352</v>
       </c>
       <c r="C1333" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1333" s="2" t="s">
         <v>991</v>
@@ -25180,7 +25019,7 @@
         <v>1353</v>
       </c>
       <c r="C1334" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1334" s="2" t="s">
         <v>991</v>
@@ -25194,7 +25033,7 @@
         <v>1354</v>
       </c>
       <c r="C1335" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1335" s="2" t="s">
         <v>991</v>
@@ -25208,7 +25047,7 @@
         <v>1355</v>
       </c>
       <c r="C1336" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1336" s="2" t="s">
         <v>991</v>
@@ -25222,7 +25061,7 @@
         <v>1356</v>
       </c>
       <c r="C1337" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1337" s="2" t="s">
         <v>991</v>
@@ -25236,7 +25075,7 @@
         <v>1357</v>
       </c>
       <c r="C1338" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1338" s="2" t="s">
         <v>991</v>
@@ -25250,7 +25089,7 @@
         <v>1358</v>
       </c>
       <c r="C1339" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1339" s="2" t="s">
         <v>991</v>
@@ -25264,7 +25103,7 @@
         <v>1359</v>
       </c>
       <c r="C1340" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1340" s="2" t="s">
         <v>991</v>
@@ -25278,7 +25117,7 @@
         <v>1360</v>
       </c>
       <c r="C1341" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1341" s="2" t="s">
         <v>991</v>
@@ -25292,7 +25131,7 @@
         <v>1361</v>
       </c>
       <c r="C1342" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1342" s="2" t="s">
         <v>991</v>
@@ -25306,7 +25145,7 @@
         <v>1362</v>
       </c>
       <c r="C1343" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1343" s="2" t="s">
         <v>991</v>
@@ -25320,7 +25159,7 @@
         <v>1363</v>
       </c>
       <c r="C1344" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1344" s="2" t="s">
         <v>991</v>
@@ -25334,7 +25173,7 @@
         <v>1364</v>
       </c>
       <c r="C1345" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1345" s="2" t="s">
         <v>991</v>
@@ -25348,7 +25187,7 @@
         <v>1365</v>
       </c>
       <c r="C1346" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1346" s="2" t="s">
         <v>991</v>
@@ -25362,7 +25201,7 @@
         <v>1366</v>
       </c>
       <c r="C1347" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1347" s="2" t="s">
         <v>991</v>
@@ -25376,7 +25215,7 @@
         <v>1367</v>
       </c>
       <c r="C1348" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1348" s="2" t="s">
         <v>991</v>
@@ -25390,7 +25229,7 @@
         <v>1368</v>
       </c>
       <c r="C1349" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1349" s="2" t="s">
         <v>991</v>
@@ -25404,7 +25243,7 @@
         <v>1369</v>
       </c>
       <c r="C1350" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1350" s="2" t="s">
         <v>991</v>
@@ -25418,7 +25257,7 @@
         <v>1370</v>
       </c>
       <c r="C1351" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1351" s="2" t="s">
         <v>991</v>
@@ -25432,7 +25271,7 @@
         <v>1371</v>
       </c>
       <c r="C1352" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1352" s="2" t="s">
         <v>991</v>
@@ -25446,7 +25285,7 @@
         <v>1372</v>
       </c>
       <c r="C1353" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1353" s="2" t="s">
         <v>991</v>
@@ -25460,7 +25299,7 @@
         <v>1373</v>
       </c>
       <c r="C1354" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1354" s="2" t="s">
         <v>991</v>
@@ -25474,7 +25313,7 @@
         <v>1374</v>
       </c>
       <c r="C1355" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1355" s="2" t="s">
         <v>991</v>
@@ -25488,7 +25327,7 @@
         <v>1375</v>
       </c>
       <c r="C1356" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1356" s="2" t="s">
         <v>991</v>
@@ -25502,7 +25341,7 @@
         <v>1376</v>
       </c>
       <c r="C1357" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1357" s="2" t="s">
         <v>991</v>
@@ -25516,7 +25355,7 @@
         <v>1377</v>
       </c>
       <c r="C1358" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1358" s="2" t="s">
         <v>991</v>
@@ -25530,7 +25369,7 @@
         <v>1378</v>
       </c>
       <c r="C1359" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1359" s="2" t="s">
         <v>991</v>
@@ -25544,7 +25383,7 @@
         <v>1379</v>
       </c>
       <c r="C1360" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1360" s="2" t="s">
         <v>991</v>
@@ -25558,7 +25397,7 @@
         <v>1380</v>
       </c>
       <c r="C1361" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1361" s="2" t="s">
         <v>991</v>
@@ -25572,7 +25411,7 @@
         <v>1381</v>
       </c>
       <c r="C1362" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1362" s="2" t="s">
         <v>991</v>
@@ -25586,7 +25425,7 @@
         <v>1382</v>
       </c>
       <c r="C1363" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1363" s="2" t="s">
         <v>991</v>
@@ -25600,7 +25439,7 @@
         <v>1383</v>
       </c>
       <c r="C1364" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1364" s="2" t="s">
         <v>991</v>
@@ -25614,7 +25453,7 @@
         <v>1384</v>
       </c>
       <c r="C1365" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1365" s="2" t="s">
         <v>991</v>
@@ -25628,7 +25467,7 @@
         <v>1385</v>
       </c>
       <c r="C1366" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1366" s="2" t="s">
         <v>991</v>
@@ -25640,10 +25479,10 @@
         <v>34</v>
       </c>
       <c r="I1366" s="7" t="s">
-        <v>1806</v>
+        <v>1798</v>
       </c>
       <c r="J1366" s="5" t="s">
-        <v>1813</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1367" spans="1:10" x14ac:dyDescent="0.25">
@@ -25654,7 +25493,7 @@
         <v>1386</v>
       </c>
       <c r="C1367" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1367" s="2" t="s">
         <v>991</v>
@@ -25668,7 +25507,7 @@
         <v>1387</v>
       </c>
       <c r="C1368" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1368" s="2" t="s">
         <v>991</v>
@@ -25682,7 +25521,7 @@
         <v>1388</v>
       </c>
       <c r="C1369" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1369" s="2" t="s">
         <v>991</v>
@@ -25696,7 +25535,7 @@
         <v>1389</v>
       </c>
       <c r="C1370" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1370" s="2" t="s">
         <v>991</v>
@@ -25710,7 +25549,7 @@
         <v>1390</v>
       </c>
       <c r="C1371" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1371" s="2" t="s">
         <v>991</v>
@@ -25724,7 +25563,7 @@
         <v>1391</v>
       </c>
       <c r="C1372" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1372" s="2" t="s">
         <v>991</v>
@@ -25738,7 +25577,7 @@
         <v>1392</v>
       </c>
       <c r="C1373" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1373" s="2" t="s">
         <v>991</v>
@@ -25752,7 +25591,7 @@
         <v>1393</v>
       </c>
       <c r="C1374" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1374" s="2" t="s">
         <v>991</v>
@@ -25766,7 +25605,7 @@
         <v>1394</v>
       </c>
       <c r="C1375" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1375" s="2" t="s">
         <v>991</v>
@@ -25780,7 +25619,7 @@
         <v>1395</v>
       </c>
       <c r="C1376" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1376" s="2" t="s">
         <v>991</v>
@@ -25794,7 +25633,7 @@
         <v>1396</v>
       </c>
       <c r="C1377" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1377" s="2" t="s">
         <v>991</v>
@@ -25808,7 +25647,7 @@
         <v>1397</v>
       </c>
       <c r="C1378" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1378" s="2" t="s">
         <v>991</v>
@@ -25822,7 +25661,7 @@
         <v>1398</v>
       </c>
       <c r="C1379" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1379" s="2" t="s">
         <v>991</v>
@@ -25836,7 +25675,7 @@
         <v>1399</v>
       </c>
       <c r="C1380" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1380" s="2" t="s">
         <v>991</v>
@@ -25850,7 +25689,7 @@
         <v>1400</v>
       </c>
       <c r="C1381" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1381" s="2" t="s">
         <v>991</v>
@@ -25864,7 +25703,7 @@
         <v>1401</v>
       </c>
       <c r="C1382" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1382" s="2" t="s">
         <v>991</v>
@@ -25878,7 +25717,7 @@
         <v>1402</v>
       </c>
       <c r="C1383" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1383" s="2" t="s">
         <v>991</v>
@@ -25892,7 +25731,7 @@
         <v>1403</v>
       </c>
       <c r="C1384" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1384" s="2" t="s">
         <v>991</v>
@@ -25906,7 +25745,7 @@
         <v>1404</v>
       </c>
       <c r="C1385" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1385" s="2" t="s">
         <v>991</v>
@@ -25920,7 +25759,7 @@
         <v>1405</v>
       </c>
       <c r="C1386" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1386" s="2" t="s">
         <v>991</v>
@@ -25934,7 +25773,7 @@
         <v>1406</v>
       </c>
       <c r="C1387" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1387" s="2" t="s">
         <v>991</v>
@@ -25948,7 +25787,7 @@
         <v>1407</v>
       </c>
       <c r="C1388" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1388" s="2" t="s">
         <v>991</v>
@@ -25962,7 +25801,7 @@
         <v>1408</v>
       </c>
       <c r="C1389" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1389" s="2" t="s">
         <v>991</v>
@@ -25976,7 +25815,7 @@
         <v>1409</v>
       </c>
       <c r="C1390" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1390" s="2" t="s">
         <v>991</v>
@@ -25990,7 +25829,7 @@
         <v>1410</v>
       </c>
       <c r="C1391" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1391" s="2" t="s">
         <v>991</v>
@@ -26004,7 +25843,7 @@
         <v>1411</v>
       </c>
       <c r="C1392" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1392" s="2" t="s">
         <v>991</v>
@@ -26018,7 +25857,7 @@
         <v>1412</v>
       </c>
       <c r="C1393" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1393" s="2" t="s">
         <v>991</v>
@@ -26032,7 +25871,7 @@
         <v>1413</v>
       </c>
       <c r="C1394" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1394" s="2" t="s">
         <v>991</v>
@@ -26046,7 +25885,7 @@
         <v>1414</v>
       </c>
       <c r="C1395" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1395" s="2" t="s">
         <v>991</v>
@@ -26060,7 +25899,7 @@
         <v>1415</v>
       </c>
       <c r="C1396" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1396" s="2" t="s">
         <v>991</v>
@@ -26074,7 +25913,7 @@
         <v>1416</v>
       </c>
       <c r="C1397" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1397" s="2" t="s">
         <v>991</v>
@@ -26088,7 +25927,7 @@
         <v>1417</v>
       </c>
       <c r="C1398" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1398" s="2" t="s">
         <v>991</v>
@@ -26102,7 +25941,7 @@
         <v>1418</v>
       </c>
       <c r="C1399" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1399" s="2" t="s">
         <v>991</v>
@@ -26116,7 +25955,7 @@
         <v>1419</v>
       </c>
       <c r="C1400" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1400" s="2" t="s">
         <v>991</v>
@@ -26130,7 +25969,7 @@
         <v>1420</v>
       </c>
       <c r="C1401" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1401" s="2" t="s">
         <v>991</v>
@@ -26147,7 +25986,7 @@
         <v>1421</v>
       </c>
       <c r="C1402" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1402" s="2" t="s">
         <v>991</v>
@@ -26161,7 +26000,7 @@
         <v>1422</v>
       </c>
       <c r="C1403" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1403" s="2" t="s">
         <v>991</v>
@@ -26175,7 +26014,7 @@
         <v>1423</v>
       </c>
       <c r="C1404" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1404" s="2" t="s">
         <v>991</v>
@@ -26189,7 +26028,7 @@
         <v>1424</v>
       </c>
       <c r="C1405" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1405" s="2" t="s">
         <v>991</v>
@@ -26203,7 +26042,7 @@
         <v>1425</v>
       </c>
       <c r="C1406" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1406" s="2" t="s">
         <v>991</v>
@@ -26217,7 +26056,7 @@
         <v>1426</v>
       </c>
       <c r="C1407" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1407" s="2" t="s">
         <v>991</v>
@@ -26231,7 +26070,7 @@
         <v>1427</v>
       </c>
       <c r="C1408" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1408" s="2" t="s">
         <v>991</v>
@@ -26245,7 +26084,7 @@
         <v>1428</v>
       </c>
       <c r="C1409" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1409" s="2" t="s">
         <v>991</v>
@@ -26259,7 +26098,7 @@
         <v>1429</v>
       </c>
       <c r="C1410" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1410" s="2" t="s">
         <v>991</v>
@@ -26273,7 +26112,7 @@
         <v>1430</v>
       </c>
       <c r="C1411" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1411" s="2" t="s">
         <v>991</v>
@@ -26287,7 +26126,7 @@
         <v>1431</v>
       </c>
       <c r="C1412" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1412" s="2" t="s">
         <v>991</v>
@@ -26301,7 +26140,7 @@
         <v>1432</v>
       </c>
       <c r="C1413" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1413" s="2" t="s">
         <v>991</v>
@@ -26315,7 +26154,7 @@
         <v>1433</v>
       </c>
       <c r="C1414" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1414" s="2" t="s">
         <v>991</v>
@@ -26329,7 +26168,7 @@
         <v>1434</v>
       </c>
       <c r="C1415" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1415" s="2" t="s">
         <v>991</v>
@@ -26343,7 +26182,7 @@
         <v>1435</v>
       </c>
       <c r="C1416" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1416" s="2" t="s">
         <v>991</v>
@@ -26357,7 +26196,7 @@
         <v>1436</v>
       </c>
       <c r="C1417" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1417" s="2" t="s">
         <v>991</v>
@@ -26371,7 +26210,7 @@
         <v>1437</v>
       </c>
       <c r="C1418" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1418" s="2" t="s">
         <v>991</v>
@@ -26385,7 +26224,7 @@
         <v>1438</v>
       </c>
       <c r="C1419" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1419" s="2" t="s">
         <v>991</v>
@@ -26399,7 +26238,7 @@
         <v>1439</v>
       </c>
       <c r="C1420" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1420" s="2" t="s">
         <v>991</v>
@@ -26413,7 +26252,7 @@
         <v>1440</v>
       </c>
       <c r="C1421" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1421" s="2" t="s">
         <v>991</v>
@@ -26427,7 +26266,7 @@
         <v>1441</v>
       </c>
       <c r="C1422" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1422" s="2" t="s">
         <v>991</v>
@@ -26441,7 +26280,7 @@
         <v>1442</v>
       </c>
       <c r="C1423" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1423" s="2" t="s">
         <v>991</v>
@@ -26455,7 +26294,7 @@
         <v>1443</v>
       </c>
       <c r="C1424" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1424" s="2" t="s">
         <v>991</v>
@@ -26469,7 +26308,7 @@
         <v>1444</v>
       </c>
       <c r="C1425" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1425" s="2" t="s">
         <v>991</v>
@@ -26483,7 +26322,7 @@
         <v>1445</v>
       </c>
       <c r="C1426" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1426" s="2" t="s">
         <v>991</v>
@@ -26497,7 +26336,7 @@
         <v>1446</v>
       </c>
       <c r="C1427" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1427" s="2" t="s">
         <v>991</v>
@@ -26511,7 +26350,7 @@
         <v>1447</v>
       </c>
       <c r="C1428" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1428" s="2" t="s">
         <v>991</v>
@@ -26525,7 +26364,7 @@
         <v>1448</v>
       </c>
       <c r="C1429" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1429" s="2" t="s">
         <v>991</v>
@@ -26539,7 +26378,7 @@
         <v>1449</v>
       </c>
       <c r="C1430" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1430" s="2" t="s">
         <v>991</v>
@@ -26553,7 +26392,7 @@
         <v>1450</v>
       </c>
       <c r="C1431" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1431" s="2" t="s">
         <v>991</v>
@@ -26567,7 +26406,7 @@
         <v>1451</v>
       </c>
       <c r="C1432" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1432" s="2" t="s">
         <v>991</v>
@@ -26581,7 +26420,7 @@
         <v>1452</v>
       </c>
       <c r="C1433" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1433" s="2" t="s">
         <v>991</v>
@@ -26595,7 +26434,7 @@
         <v>1453</v>
       </c>
       <c r="C1434" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1434" s="2" t="s">
         <v>991</v>
@@ -26609,7 +26448,7 @@
         <v>1454</v>
       </c>
       <c r="C1435" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1435" s="2" t="s">
         <v>991</v>
@@ -26623,7 +26462,7 @@
         <v>1455</v>
       </c>
       <c r="C1436" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1436" s="2" t="s">
         <v>991</v>
@@ -26637,7 +26476,7 @@
         <v>1456</v>
       </c>
       <c r="C1437" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1437" s="2" t="s">
         <v>991</v>
@@ -26651,7 +26490,7 @@
         <v>1457</v>
       </c>
       <c r="C1438" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1438" s="2" t="s">
         <v>991</v>
@@ -26665,7 +26504,7 @@
         <v>1458</v>
       </c>
       <c r="C1439" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1439" s="2" t="s">
         <v>991</v>
@@ -26679,7 +26518,7 @@
         <v>1459</v>
       </c>
       <c r="C1440" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1440" s="2" t="s">
         <v>991</v>
@@ -26699,7 +26538,7 @@
         <v>1460</v>
       </c>
       <c r="C1441" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1441" s="2" t="s">
         <v>991</v>
@@ -26713,7 +26552,7 @@
         <v>1461</v>
       </c>
       <c r="C1442" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1442" s="2" t="s">
         <v>991</v>
@@ -26727,7 +26566,7 @@
         <v>1462</v>
       </c>
       <c r="C1443" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1443" s="2" t="s">
         <v>991</v>
@@ -26741,7 +26580,7 @@
         <v>1463</v>
       </c>
       <c r="C1444" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1444" s="2" t="s">
         <v>991</v>
@@ -26755,7 +26594,7 @@
         <v>1464</v>
       </c>
       <c r="C1445" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1445" s="2" t="s">
         <v>991</v>
@@ -26769,7 +26608,7 @@
         <v>1465</v>
       </c>
       <c r="C1446" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1446" s="2" t="s">
         <v>991</v>
@@ -26783,7 +26622,7 @@
         <v>1466</v>
       </c>
       <c r="C1447" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1447" s="2" t="s">
         <v>991</v>
@@ -26797,7 +26636,7 @@
         <v>1467</v>
       </c>
       <c r="C1448" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1448" s="2" t="s">
         <v>991</v>
@@ -26811,7 +26650,7 @@
         <v>1468</v>
       </c>
       <c r="C1449" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1449" s="2" t="s">
         <v>991</v>
@@ -26825,7 +26664,7 @@
         <v>1469</v>
       </c>
       <c r="C1450" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1450" s="2" t="s">
         <v>991</v>
@@ -26834,10 +26673,10 @@
         <v>90</v>
       </c>
       <c r="I1450" s="7" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="J1450" s="5" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1451" spans="1:10" x14ac:dyDescent="0.25">
@@ -26848,7 +26687,7 @@
         <v>1470</v>
       </c>
       <c r="C1451" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1451" s="2" t="s">
         <v>991</v>
@@ -26862,7 +26701,7 @@
         <v>1471</v>
       </c>
       <c r="C1452" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1452" s="2" t="s">
         <v>991</v>
@@ -26876,7 +26715,7 @@
         <v>1472</v>
       </c>
       <c r="C1453" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1453" s="2" t="s">
         <v>991</v>
@@ -26890,7 +26729,7 @@
         <v>1473</v>
       </c>
       <c r="C1454" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1454" s="2" t="s">
         <v>991</v>
@@ -26904,7 +26743,7 @@
         <v>1474</v>
       </c>
       <c r="C1455" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1455" s="2" t="s">
         <v>991</v>
@@ -26918,7 +26757,7 @@
         <v>1475</v>
       </c>
       <c r="C1456" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1456" s="2" t="s">
         <v>991</v>
@@ -26932,7 +26771,7 @@
         <v>1476</v>
       </c>
       <c r="C1457" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1457" s="2" t="s">
         <v>991</v>
@@ -26946,7 +26785,7 @@
         <v>1477</v>
       </c>
       <c r="C1458" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1458" s="2" t="s">
         <v>991</v>
@@ -26960,7 +26799,7 @@
         <v>1478</v>
       </c>
       <c r="C1459" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1459" s="2" t="s">
         <v>991</v>
@@ -26974,7 +26813,7 @@
         <v>1479</v>
       </c>
       <c r="C1460" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1460" s="2" t="s">
         <v>991</v>
@@ -26988,7 +26827,7 @@
         <v>1480</v>
       </c>
       <c r="C1461" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1461" s="2" t="s">
         <v>991</v>
@@ -27002,7 +26841,7 @@
         <v>1481</v>
       </c>
       <c r="C1462" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1462" s="2" t="s">
         <v>991</v>
@@ -27016,7 +26855,7 @@
         <v>1482</v>
       </c>
       <c r="C1463" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1463" s="2" t="s">
         <v>991</v>
@@ -27030,7 +26869,7 @@
         <v>1483</v>
       </c>
       <c r="C1464" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1464" s="2" t="s">
         <v>991</v>
@@ -27044,7 +26883,7 @@
         <v>1484</v>
       </c>
       <c r="C1465" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1465" s="2" t="s">
         <v>991</v>
@@ -27058,7 +26897,7 @@
         <v>1485</v>
       </c>
       <c r="C1466" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1466" s="2" t="s">
         <v>991</v>
@@ -27072,7 +26911,7 @@
         <v>1486</v>
       </c>
       <c r="C1467" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1467" s="2" t="s">
         <v>991</v>
@@ -27086,7 +26925,7 @@
         <v>1487</v>
       </c>
       <c r="C1468" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1468" s="2" t="s">
         <v>991</v>
@@ -27100,7 +26939,7 @@
         <v>1488</v>
       </c>
       <c r="C1469" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1469" s="2" t="s">
         <v>991</v>
@@ -27114,7 +26953,7 @@
         <v>1489</v>
       </c>
       <c r="C1470" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1470" s="2" t="s">
         <v>991</v>
@@ -27128,7 +26967,7 @@
         <v>1490</v>
       </c>
       <c r="C1471" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1471" s="2" t="s">
         <v>991</v>
@@ -27142,7 +26981,7 @@
         <v>1491</v>
       </c>
       <c r="C1472" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1472" s="2" t="s">
         <v>991</v>
@@ -27156,7 +26995,7 @@
         <v>1492</v>
       </c>
       <c r="C1473" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1473" s="2" t="s">
         <v>991</v>
@@ -27170,7 +27009,7 @@
         <v>1493</v>
       </c>
       <c r="C1474" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1474" s="2" t="s">
         <v>991</v>
@@ -27184,7 +27023,7 @@
         <v>1494</v>
       </c>
       <c r="C1475" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1475" s="2" t="s">
         <v>991</v>
@@ -27198,7 +27037,7 @@
         <v>1495</v>
       </c>
       <c r="C1476" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1476" s="2" t="s">
         <v>991</v>
@@ -27212,7 +27051,7 @@
         <v>1496</v>
       </c>
       <c r="C1477" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1477" s="2" t="s">
         <v>991</v>
@@ -27226,7 +27065,7 @@
         <v>1497</v>
       </c>
       <c r="C1478" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1478" s="2" t="s">
         <v>991</v>
@@ -27240,7 +27079,7 @@
         <v>1498</v>
       </c>
       <c r="C1479" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1479" s="2" t="s">
         <v>991</v>
@@ -27254,7 +27093,7 @@
         <v>1499</v>
       </c>
       <c r="C1480" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1480" s="2" t="s">
         <v>991</v>
@@ -27268,7 +27107,7 @@
         <v>1500</v>
       </c>
       <c r="C1481" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1481" s="2" t="s">
         <v>991</v>
@@ -27282,7 +27121,7 @@
         <v>1501</v>
       </c>
       <c r="C1482" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1482" s="2" t="s">
         <v>991</v>
@@ -27296,7 +27135,7 @@
         <v>1502</v>
       </c>
       <c r="C1483" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1483" s="2" t="s">
         <v>991</v>
@@ -27310,7 +27149,7 @@
         <v>1503</v>
       </c>
       <c r="C1484" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1484" s="2" t="s">
         <v>991</v>
@@ -27324,7 +27163,7 @@
         <v>1504</v>
       </c>
       <c r="C1485" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1485" s="2" t="s">
         <v>991</v>
@@ -27338,7 +27177,7 @@
         <v>1505</v>
       </c>
       <c r="C1486" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1486" s="2" t="s">
         <v>991</v>
@@ -27352,7 +27191,7 @@
         <v>1506</v>
       </c>
       <c r="C1487" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1487" s="2" t="s">
         <v>991</v>
@@ -27366,7 +27205,7 @@
         <v>1507</v>
       </c>
       <c r="C1488" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1488" s="2" t="s">
         <v>991</v>
@@ -27380,7 +27219,7 @@
         <v>1508</v>
       </c>
       <c r="C1489" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1489" s="2" t="s">
         <v>991</v>
@@ -27394,7 +27233,7 @@
         <v>1509</v>
       </c>
       <c r="C1490" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1490" s="2" t="s">
         <v>991</v>
@@ -27408,7 +27247,7 @@
         <v>1510</v>
       </c>
       <c r="C1491" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1491" s="2" t="s">
         <v>991</v>
@@ -27422,7 +27261,7 @@
         <v>1511</v>
       </c>
       <c r="C1492" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1492" s="2" t="s">
         <v>991</v>
@@ -27436,7 +27275,7 @@
         <v>1512</v>
       </c>
       <c r="C1493" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1493" s="2" t="s">
         <v>991</v>
@@ -27448,7 +27287,7 @@
         <v>68</v>
       </c>
       <c r="J1493" s="5" t="s">
-        <v>1805</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1494" spans="1:10" x14ac:dyDescent="0.25">
@@ -27459,7 +27298,7 @@
         <v>1513</v>
       </c>
       <c r="C1494" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1494" s="2" t="s">
         <v>991</v>
@@ -27473,7 +27312,7 @@
         <v>1514</v>
       </c>
       <c r="C1495" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1495" s="2" t="s">
         <v>991</v>
@@ -27487,7 +27326,7 @@
         <v>1515</v>
       </c>
       <c r="C1496" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1496" s="2" t="s">
         <v>991</v>
@@ -27501,7 +27340,7 @@
         <v>1516</v>
       </c>
       <c r="C1497" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1497" s="2" t="s">
         <v>991</v>
@@ -27515,7 +27354,7 @@
         <v>1517</v>
       </c>
       <c r="C1498" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1498" s="2" t="s">
         <v>991</v>
@@ -27529,7 +27368,7 @@
         <v>1518</v>
       </c>
       <c r="C1499" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1499" s="2" t="s">
         <v>991</v>
@@ -27543,7 +27382,7 @@
         <v>1519</v>
       </c>
       <c r="C1500" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1500" s="2" t="s">
         <v>2</v>
@@ -27557,7 +27396,7 @@
         <v>1520</v>
       </c>
       <c r="C1501" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1501" s="2" t="s">
         <v>991</v>
@@ -27571,7 +27410,7 @@
         <v>1521</v>
       </c>
       <c r="C1502" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1502" s="2" t="s">
         <v>991</v>
@@ -27585,7 +27424,7 @@
         <v>1522</v>
       </c>
       <c r="C1503" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1503" s="2" t="s">
         <v>991</v>
@@ -27599,7 +27438,7 @@
         <v>1523</v>
       </c>
       <c r="C1504" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1504" s="2" t="s">
         <v>991</v>
@@ -27613,7 +27452,7 @@
         <v>1524</v>
       </c>
       <c r="C1505" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1505" s="2" t="s">
         <v>991</v>
@@ -27627,7 +27466,7 @@
         <v>1525</v>
       </c>
       <c r="C1506" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1506" s="2" t="s">
         <v>991</v>
@@ -27641,7 +27480,7 @@
         <v>1526</v>
       </c>
       <c r="C1507" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1507" s="2" t="s">
         <v>991</v>
@@ -27655,7 +27494,7 @@
         <v>1527</v>
       </c>
       <c r="C1508" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1508" s="2" t="s">
         <v>991</v>
@@ -27669,7 +27508,7 @@
         <v>1528</v>
       </c>
       <c r="C1509" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1509" s="2" t="s">
         <v>991</v>
@@ -27683,7 +27522,7 @@
         <v>1529</v>
       </c>
       <c r="C1510" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1510" s="2" t="s">
         <v>991</v>
@@ -27697,7 +27536,7 @@
         <v>1530</v>
       </c>
       <c r="C1511" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1511" s="2" t="s">
         <v>991</v>
@@ -27711,7 +27550,7 @@
         <v>1531</v>
       </c>
       <c r="C1512" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1512" s="2" t="s">
         <v>991</v>
@@ -27725,7 +27564,7 @@
         <v>1532</v>
       </c>
       <c r="C1513" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1513" s="2" t="s">
         <v>991</v>
@@ -27742,7 +27581,7 @@
         <v>1533</v>
       </c>
       <c r="C1514" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1514" s="2" t="s">
         <v>991</v>
@@ -27756,7 +27595,7 @@
         <v>1534</v>
       </c>
       <c r="C1515" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1515" s="2" t="s">
         <v>991</v>
@@ -27770,7 +27609,7 @@
         <v>1535</v>
       </c>
       <c r="C1516" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1516" s="2" t="s">
         <v>991</v>
@@ -27784,7 +27623,7 @@
         <v>1536</v>
       </c>
       <c r="C1517" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1517" s="2" t="s">
         <v>991</v>
@@ -27798,7 +27637,7 @@
         <v>1537</v>
       </c>
       <c r="C1518" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1518" s="2" t="s">
         <v>991</v>
@@ -27812,7 +27651,7 @@
         <v>1538</v>
       </c>
       <c r="C1519" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1519" s="2" t="s">
         <v>991</v>
@@ -27826,21 +27665,21 @@
         <v>1539</v>
       </c>
       <c r="C1520" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1520" s="2" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1521" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1521" s="3">
         <v>6237</v>
       </c>
       <c r="B1521" s="1" t="s">
-        <v>1540</v>
+        <v>1820</v>
       </c>
       <c r="C1521" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1521" s="2" t="s">
         <v>991</v>
@@ -27848,212 +27687,218 @@
       <c r="E1521" s="2">
         <v>54.7</v>
       </c>
-    </row>
-    <row r="1522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1521" s="2">
+        <v>40</v>
+      </c>
+      <c r="J1521" s="5" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1522" s="3">
         <v>6240</v>
       </c>
       <c r="B1522" s="1" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C1522" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1522" s="2" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1523" s="3">
         <v>6241</v>
       </c>
       <c r="B1523" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C1523" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1523" s="2" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1524" s="3">
         <v>6242</v>
       </c>
       <c r="B1524" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C1524" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1524" s="2" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1525" s="3">
         <v>6245</v>
       </c>
       <c r="B1525" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C1525" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1525" s="2" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1526" s="3">
         <v>6246</v>
       </c>
       <c r="B1526" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C1526" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1526" s="2" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1527" s="3">
         <v>6247</v>
       </c>
       <c r="B1527" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C1527" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1527" s="2" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1528" s="3">
         <v>6248</v>
       </c>
       <c r="B1528" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C1528" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1528" s="2" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1529" s="3">
         <v>6259</v>
       </c>
       <c r="B1529" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C1529" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1529" s="2" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1530" s="3">
         <v>6261</v>
       </c>
       <c r="B1530" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C1530" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1530" s="2" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1531" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1531" s="3">
         <v>6263</v>
       </c>
       <c r="B1531" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C1531" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1531" s="2" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1532" s="3">
         <v>6264</v>
       </c>
       <c r="B1532" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C1532" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1532" s="2" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1533" s="3">
         <v>6265</v>
       </c>
       <c r="B1533" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C1533" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1533" s="2" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1534" s="3">
         <v>6266</v>
       </c>
       <c r="B1534" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C1534" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1534" s="2" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1535" s="3">
         <v>6270</v>
       </c>
       <c r="B1535" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C1535" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1535" s="2" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1536" s="3">
         <v>6274</v>
       </c>
       <c r="B1536" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C1536" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1536" s="2" t="s">
         <v>991</v>
@@ -28064,10 +27909,10 @@
         <v>6275</v>
       </c>
       <c r="B1537" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C1537" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1537" s="2" t="s">
         <v>991</v>
@@ -28078,10 +27923,10 @@
         <v>6276</v>
       </c>
       <c r="B1538" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C1538" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1538" s="2" t="s">
         <v>991</v>
@@ -28092,10 +27937,10 @@
         <v>6279</v>
       </c>
       <c r="B1539" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C1539" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1539" s="2" t="s">
         <v>991</v>
@@ -28106,10 +27951,10 @@
         <v>6284</v>
       </c>
       <c r="B1540" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C1540" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1540" s="2" t="s">
         <v>991</v>
@@ -28120,10 +27965,10 @@
         <v>6287</v>
       </c>
       <c r="B1541" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="C1541" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1541" s="2" t="s">
         <v>991</v>
@@ -28134,10 +27979,10 @@
         <v>6290</v>
       </c>
       <c r="B1542" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C1542" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1542" s="2" t="s">
         <v>991</v>
@@ -28148,10 +27993,10 @@
         <v>6291</v>
       </c>
       <c r="B1543" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C1543" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1543" s="2" t="s">
         <v>991</v>
@@ -28162,10 +28007,10 @@
         <v>6292</v>
       </c>
       <c r="B1544" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C1544" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1544" s="2" t="s">
         <v>991</v>
@@ -28176,10 +28021,10 @@
         <v>6294</v>
       </c>
       <c r="B1545" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C1545" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1545" s="2" t="s">
         <v>991</v>
@@ -28190,10 +28035,10 @@
         <v>6404</v>
       </c>
       <c r="B1546" s="1" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C1546" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1546" s="2" t="s">
         <v>991</v>
@@ -28204,10 +28049,10 @@
         <v>6411</v>
       </c>
       <c r="B1547" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C1547" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1547" s="2" t="s">
         <v>991</v>
@@ -28218,10 +28063,10 @@
         <v>6417</v>
       </c>
       <c r="B1548" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C1548" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1548" s="2" t="s">
         <v>991</v>
@@ -28232,10 +28077,10 @@
         <v>6418</v>
       </c>
       <c r="B1549" s="1" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C1549" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1549" s="2" t="s">
         <v>991</v>
@@ -28246,10 +28091,10 @@
         <v>6419</v>
       </c>
       <c r="B1550" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C1550" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1550" s="2" t="s">
         <v>991</v>
@@ -28260,10 +28105,10 @@
         <v>6425</v>
       </c>
       <c r="B1551" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C1551" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1551" s="2" t="s">
         <v>991</v>
@@ -28274,10 +28119,10 @@
         <v>6426</v>
       </c>
       <c r="B1552" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C1552" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1552" s="2" t="s">
         <v>991</v>
@@ -28288,10 +28133,10 @@
         <v>6432</v>
       </c>
       <c r="B1553" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C1553" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1553" s="2" t="s">
         <v>991</v>
@@ -28302,10 +28147,10 @@
         <v>6435</v>
       </c>
       <c r="B1554" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C1554" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1554" s="2" t="s">
         <v>991</v>
@@ -28316,10 +28161,10 @@
         <v>6438</v>
       </c>
       <c r="B1555" s="1" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C1555" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1555" s="2" t="s">
         <v>991</v>
@@ -28330,10 +28175,10 @@
         <v>6441</v>
       </c>
       <c r="B1556" s="1" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C1556" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1556" s="2" t="s">
         <v>991</v>
@@ -28348,7 +28193,7 @@
         <v>157</v>
       </c>
       <c r="I1556" s="7" t="s">
-        <v>1796</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1557" spans="1:9" x14ac:dyDescent="0.25">
@@ -28356,10 +28201,10 @@
         <v>6446</v>
       </c>
       <c r="B1557" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C1557" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1557" s="2" t="s">
         <v>991</v>
@@ -28370,10 +28215,10 @@
         <v>6457</v>
       </c>
       <c r="B1558" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C1558" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1558" s="2" t="s">
         <v>991</v>
@@ -28384,10 +28229,10 @@
         <v>6461</v>
       </c>
       <c r="B1559" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C1559" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1559" s="2" t="s">
         <v>991</v>
@@ -28398,10 +28243,10 @@
         <v>6462</v>
       </c>
       <c r="B1560" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C1560" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1560" s="2" t="s">
         <v>991</v>
@@ -28412,10 +28257,10 @@
         <v>6465</v>
       </c>
       <c r="B1561" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C1561" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1561" s="2" t="s">
         <v>991</v>
@@ -28426,10 +28271,10 @@
         <v>6469</v>
       </c>
       <c r="B1562" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C1562" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1562" s="2" t="s">
         <v>991</v>
@@ -28440,10 +28285,10 @@
         <v>6470</v>
       </c>
       <c r="B1563" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C1563" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1563" s="2" t="s">
         <v>991</v>
@@ -28454,10 +28299,10 @@
         <v>6472</v>
       </c>
       <c r="B1564" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C1564" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1564" s="2" t="s">
         <v>991</v>
@@ -28468,10 +28313,10 @@
         <v>6482</v>
       </c>
       <c r="B1565" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C1565" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1565" s="2" t="s">
         <v>991</v>
@@ -28482,10 +28327,10 @@
         <v>6485</v>
       </c>
       <c r="B1566" s="1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C1566" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1566" s="2" t="s">
         <v>991</v>
@@ -28496,10 +28341,10 @@
         <v>6486</v>
       </c>
       <c r="B1567" s="1" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C1567" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1567" s="2" t="s">
         <v>991</v>
@@ -28510,10 +28355,10 @@
         <v>6488</v>
       </c>
       <c r="B1568" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C1568" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1568" s="2" t="s">
         <v>991</v>
@@ -28524,10 +28369,10 @@
         <v>6492</v>
       </c>
       <c r="B1569" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C1569" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1569" s="2" t="s">
         <v>991</v>
@@ -28538,10 +28383,10 @@
         <v>6494</v>
       </c>
       <c r="B1570" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C1570" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1570" s="2" t="s">
         <v>991</v>
@@ -28552,10 +28397,10 @@
         <v>6496</v>
       </c>
       <c r="B1571" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C1571" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1571" s="2" t="s">
         <v>991</v>
@@ -28566,10 +28411,10 @@
         <v>6499</v>
       </c>
       <c r="B1572" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C1572" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1572" s="2" t="s">
         <v>991</v>
@@ -28580,10 +28425,10 @@
         <v>6506</v>
       </c>
       <c r="B1573" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C1573" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1573" s="2" t="s">
         <v>991</v>
@@ -28594,10 +28439,10 @@
         <v>6508</v>
       </c>
       <c r="B1574" s="1" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C1574" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1574" s="2" t="s">
         <v>991</v>
@@ -28608,10 +28453,10 @@
         <v>6509</v>
       </c>
       <c r="B1575" s="1" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C1575" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1575" s="2" t="s">
         <v>991</v>
@@ -28622,10 +28467,10 @@
         <v>6510</v>
       </c>
       <c r="B1576" s="1" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C1576" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1576" s="2" t="s">
         <v>991</v>
@@ -28636,10 +28481,10 @@
         <v>6512</v>
       </c>
       <c r="B1577" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C1577" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1577" s="2" t="s">
         <v>991</v>
@@ -28650,10 +28495,10 @@
         <v>6514</v>
       </c>
       <c r="B1578" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C1578" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1578" s="2" t="s">
         <v>991</v>
@@ -28664,10 +28509,10 @@
         <v>6516</v>
       </c>
       <c r="B1579" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C1579" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1579" s="2" t="s">
         <v>991</v>
@@ -28678,10 +28523,10 @@
         <v>6523</v>
       </c>
       <c r="B1580" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C1580" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1580" s="2" t="s">
         <v>991</v>
@@ -28692,10 +28537,10 @@
         <v>6527</v>
       </c>
       <c r="B1581" s="1" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C1581" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1581" s="2" t="s">
         <v>991</v>
@@ -28706,10 +28551,10 @@
         <v>6530</v>
       </c>
       <c r="B1582" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C1582" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1582" s="2" t="s">
         <v>991</v>
@@ -28720,10 +28565,10 @@
         <v>6532</v>
       </c>
       <c r="B1583" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C1583" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1583" s="2" t="s">
         <v>991</v>
@@ -28734,10 +28579,10 @@
         <v>6535</v>
       </c>
       <c r="B1584" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C1584" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1584" s="2" t="s">
         <v>991</v>
@@ -28748,10 +28593,10 @@
         <v>6538</v>
       </c>
       <c r="B1585" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C1585" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1585" s="2" t="s">
         <v>991</v>
@@ -28763,7 +28608,7 @@
         <v>160</v>
       </c>
       <c r="I1585" s="7" t="s">
-        <v>1797</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="1586" spans="1:9" x14ac:dyDescent="0.25">
@@ -28771,10 +28616,10 @@
         <v>6542</v>
       </c>
       <c r="B1586" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C1586" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1586" s="2" t="s">
         <v>991</v>
@@ -28785,10 +28630,10 @@
         <v>6547</v>
       </c>
       <c r="B1587" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C1587" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1587" s="2" t="s">
         <v>991</v>
@@ -28799,10 +28644,10 @@
         <v>6548</v>
       </c>
       <c r="B1588" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C1588" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1588" s="2" t="s">
         <v>991</v>
@@ -28813,10 +28658,10 @@
         <v>6556</v>
       </c>
       <c r="B1589" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C1589" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1589" s="2" t="s">
         <v>991</v>
@@ -28827,10 +28672,10 @@
         <v>6560</v>
       </c>
       <c r="B1590" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C1590" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1590" s="2" t="s">
         <v>991</v>
@@ -28841,10 +28686,10 @@
         <v>6561</v>
       </c>
       <c r="B1591" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C1591" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1591" s="2" t="s">
         <v>991</v>
@@ -28855,10 +28700,10 @@
         <v>6568</v>
       </c>
       <c r="B1592" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C1592" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1592" s="2" t="s">
         <v>991</v>
@@ -28869,10 +28714,10 @@
         <v>6569</v>
       </c>
       <c r="B1593" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C1593" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1593" s="2" t="s">
         <v>991</v>
@@ -28883,10 +28728,10 @@
         <v>6570</v>
       </c>
       <c r="B1594" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C1594" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1594" s="2" t="s">
         <v>991</v>
@@ -28897,10 +28742,10 @@
         <v>6574</v>
       </c>
       <c r="B1595" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C1595" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1595" s="2" t="s">
         <v>991</v>
@@ -28911,10 +28756,10 @@
         <v>6576</v>
       </c>
       <c r="B1596" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C1596" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1596" s="2" t="s">
         <v>991</v>
@@ -28925,10 +28770,10 @@
         <v>6577</v>
       </c>
       <c r="B1597" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C1597" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1597" s="2" t="s">
         <v>991</v>
@@ -28939,10 +28784,10 @@
         <v>6578</v>
       </c>
       <c r="B1598" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C1598" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1598" s="2" t="s">
         <v>991</v>
@@ -28953,10 +28798,10 @@
         <v>6588</v>
       </c>
       <c r="B1599" s="1" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C1599" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1599" s="2" t="s">
         <v>991</v>
@@ -28967,10 +28812,10 @@
         <v>6589</v>
       </c>
       <c r="B1600" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C1600" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1600" s="2" t="s">
         <v>991</v>
@@ -28981,10 +28826,10 @@
         <v>6590</v>
       </c>
       <c r="B1601" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C1601" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1601" s="2" t="s">
         <v>991</v>
@@ -28995,10 +28840,10 @@
         <v>6593</v>
       </c>
       <c r="B1602" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C1602" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1602" s="2" t="s">
         <v>991</v>
@@ -29009,10 +28854,10 @@
         <v>6594</v>
       </c>
       <c r="B1603" s="1" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C1603" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1603" s="2" t="s">
         <v>991</v>
@@ -29023,10 +28868,10 @@
         <v>6596</v>
       </c>
       <c r="B1604" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C1604" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1604" s="2" t="s">
         <v>991</v>
@@ -29037,10 +28882,10 @@
         <v>6603</v>
       </c>
       <c r="B1605" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C1605" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1605" s="2" t="s">
         <v>991</v>
@@ -29051,10 +28896,10 @@
         <v>6609</v>
       </c>
       <c r="B1606" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C1606" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1606" s="2" t="s">
         <v>991</v>
@@ -29065,10 +28910,10 @@
         <v>6612</v>
       </c>
       <c r="B1607" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="C1607" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1607" s="2" t="s">
         <v>991</v>
@@ -29079,10 +28924,10 @@
         <v>6613</v>
       </c>
       <c r="B1608" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C1608" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1608" s="2" t="s">
         <v>991</v>
@@ -29093,10 +28938,10 @@
         <v>6615</v>
       </c>
       <c r="B1609" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C1609" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1609" s="2" t="s">
         <v>991</v>
@@ -29107,10 +28952,10 @@
         <v>6616</v>
       </c>
       <c r="B1610" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C1610" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1610" s="2" t="s">
         <v>991</v>
@@ -29121,10 +28966,10 @@
         <v>6624</v>
       </c>
       <c r="B1611" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C1611" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1611" s="2" t="s">
         <v>991</v>
@@ -29135,10 +28980,10 @@
         <v>6629</v>
       </c>
       <c r="B1612" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C1612" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1612" s="2" t="s">
         <v>991</v>
@@ -29149,10 +28994,10 @@
         <v>6640</v>
       </c>
       <c r="B1613" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C1613" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1613" s="2" t="s">
         <v>991</v>
@@ -29163,10 +29008,10 @@
         <v>6642</v>
       </c>
       <c r="B1614" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C1614" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1614" s="2" t="s">
         <v>991</v>
@@ -29177,10 +29022,10 @@
         <v>6643</v>
       </c>
       <c r="B1615" s="1" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C1615" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1615" s="2" t="s">
         <v>991</v>
@@ -29191,10 +29036,10 @@
         <v>6649</v>
       </c>
       <c r="B1616" s="1" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C1616" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1616" s="2" t="s">
         <v>991</v>
@@ -29205,10 +29050,10 @@
         <v>6654</v>
       </c>
       <c r="B1617" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C1617" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1617" s="2" t="s">
         <v>991</v>
@@ -29219,10 +29064,10 @@
         <v>6662</v>
       </c>
       <c r="B1618" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C1618" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1618" s="2" t="s">
         <v>991</v>
@@ -29233,10 +29078,10 @@
         <v>6664</v>
       </c>
       <c r="B1619" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C1619" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1619" s="2" t="s">
         <v>991</v>
@@ -29247,10 +29092,10 @@
         <v>6667</v>
       </c>
       <c r="B1620" s="1" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C1620" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1620" s="2" t="s">
         <v>991</v>
@@ -29261,10 +29106,10 @@
         <v>6679</v>
       </c>
       <c r="B1621" s="1" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C1621" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1621" s="2" t="s">
         <v>991</v>
@@ -29275,10 +29120,10 @@
         <v>6680</v>
       </c>
       <c r="B1622" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C1622" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1622" s="2" t="s">
         <v>991</v>
@@ -29289,10 +29134,10 @@
         <v>6683</v>
       </c>
       <c r="B1623" s="1" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C1623" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1623" s="2" t="s">
         <v>991</v>
@@ -29303,10 +29148,10 @@
         <v>6690</v>
       </c>
       <c r="B1624" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C1624" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1624" s="2" t="s">
         <v>991</v>
@@ -29317,10 +29162,10 @@
         <v>6697</v>
       </c>
       <c r="B1625" s="1" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C1625" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1625" s="2" t="s">
         <v>991</v>
@@ -29331,10 +29176,10 @@
         <v>6716</v>
       </c>
       <c r="B1626" s="1" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C1626" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1626" s="2" t="s">
         <v>991</v>
@@ -29345,10 +29190,10 @@
         <v>6732</v>
       </c>
       <c r="B1627" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C1627" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1627" s="2" t="s">
         <v>991</v>
@@ -29359,10 +29204,10 @@
         <v>6803</v>
       </c>
       <c r="B1628" s="1" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C1628" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1628" s="2" t="s">
         <v>991</v>
@@ -29373,10 +29218,10 @@
         <v>7402</v>
       </c>
       <c r="B1629" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C1629" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1629" s="2" t="s">
         <v>991</v>
@@ -29387,10 +29232,10 @@
         <v>8024</v>
       </c>
       <c r="B1630" s="1" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C1630" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1630" s="2" t="s">
         <v>991</v>
@@ -29401,10 +29246,10 @@
         <v>8027</v>
       </c>
       <c r="B1631" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C1631" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1631" s="2" t="s">
         <v>991</v>
@@ -29421,10 +29266,10 @@
         <v>8032</v>
       </c>
       <c r="B1632" s="1" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C1632" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1632" s="2" t="s">
         <v>991</v>
@@ -29435,10 +29280,10 @@
         <v>8034</v>
       </c>
       <c r="B1633" s="1" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1633" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1633" s="2" t="s">
         <v>991</v>
@@ -29449,10 +29294,10 @@
         <v>8038</v>
       </c>
       <c r="B1634" s="1" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C1634" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1634" s="2" t="s">
         <v>991</v>
@@ -29463,10 +29308,10 @@
         <v>8040</v>
       </c>
       <c r="B1635" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C1635" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1635" s="2" t="s">
         <v>991</v>
@@ -29477,10 +29322,10 @@
         <v>8042</v>
       </c>
       <c r="B1636" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C1636" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1636" s="2" t="s">
         <v>991</v>
@@ -29491,10 +29336,10 @@
         <v>8043</v>
       </c>
       <c r="B1637" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C1637" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1637" s="2" t="s">
         <v>991</v>
@@ -29505,10 +29350,10 @@
         <v>8044</v>
       </c>
       <c r="B1638" s="1" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C1638" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1638" s="2" t="s">
         <v>991</v>
@@ -29519,10 +29364,10 @@
         <v>8047</v>
       </c>
       <c r="B1639" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C1639" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1639" s="2" t="s">
         <v>991</v>
@@ -29533,10 +29378,10 @@
         <v>8048</v>
       </c>
       <c r="B1640" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C1640" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1640" s="2" t="s">
         <v>991</v>
@@ -29547,10 +29392,10 @@
         <v>8049</v>
       </c>
       <c r="B1641" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C1641" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1641" s="2" t="s">
         <v>991</v>
@@ -29561,10 +29406,10 @@
         <v>8050</v>
       </c>
       <c r="B1642" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C1642" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1642" s="2" t="s">
         <v>991</v>
@@ -29575,10 +29420,10 @@
         <v>8054</v>
       </c>
       <c r="B1643" s="1" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C1643" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1643" s="2" t="s">
         <v>991</v>
@@ -29589,10 +29434,10 @@
         <v>8059</v>
       </c>
       <c r="B1644" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C1644" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1644" s="2" t="s">
         <v>991</v>
@@ -29603,10 +29448,10 @@
         <v>8064</v>
       </c>
       <c r="B1645" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C1645" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1645" s="2" t="s">
         <v>991</v>
@@ -29617,10 +29462,10 @@
         <v>8066</v>
       </c>
       <c r="B1646" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C1646" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1646" s="2" t="s">
         <v>991</v>
@@ -29631,10 +29476,10 @@
         <v>8067</v>
       </c>
       <c r="B1647" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C1647" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1647" s="2" t="s">
         <v>991</v>
@@ -29645,10 +29490,10 @@
         <v>8068</v>
       </c>
       <c r="B1648" s="1" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C1648" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1648" s="2" t="s">
         <v>991</v>
@@ -29659,10 +29504,10 @@
         <v>8069</v>
       </c>
       <c r="B1649" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C1649" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1649" s="2" t="s">
         <v>991</v>
@@ -29673,10 +29518,10 @@
         <v>8071</v>
       </c>
       <c r="B1650" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C1650" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1650" s="2" t="s">
         <v>991</v>
@@ -29687,10 +29532,10 @@
         <v>8074</v>
       </c>
       <c r="B1651" s="1" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C1651" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1651" s="2" t="s">
         <v>991</v>
@@ -29701,10 +29546,10 @@
         <v>8076</v>
       </c>
       <c r="B1652" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C1652" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1652" s="2" t="s">
         <v>991</v>
@@ -29715,10 +29560,10 @@
         <v>8077</v>
       </c>
       <c r="B1653" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C1653" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1653" s="2" t="s">
         <v>991</v>
@@ -29729,10 +29574,10 @@
         <v>8080</v>
       </c>
       <c r="B1654" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C1654" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1654" s="2" t="s">
         <v>991</v>
@@ -29743,10 +29588,10 @@
         <v>8083</v>
       </c>
       <c r="B1655" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C1655" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1655" s="2" t="s">
         <v>991</v>
@@ -29757,10 +29602,10 @@
         <v>8084</v>
       </c>
       <c r="B1656" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C1656" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1656" s="2" t="s">
         <v>991</v>
@@ -29771,10 +29616,10 @@
         <v>8085</v>
       </c>
       <c r="B1657" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C1657" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1657" s="2" t="s">
         <v>991</v>
@@ -29785,10 +29630,10 @@
         <v>8086</v>
       </c>
       <c r="B1658" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C1658" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1658" s="2" t="s">
         <v>991</v>
@@ -29802,10 +29647,10 @@
         <v>8087</v>
       </c>
       <c r="B1659" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C1659" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1659" s="2" t="s">
         <v>991</v>
@@ -29816,10 +29661,10 @@
         <v>8088</v>
       </c>
       <c r="B1660" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C1660" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1660" s="2" t="s">
         <v>991</v>
@@ -29830,10 +29675,10 @@
         <v>8091</v>
       </c>
       <c r="B1661" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C1661" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1661" s="2" t="s">
         <v>991</v>
@@ -29844,10 +29689,10 @@
         <v>8092</v>
       </c>
       <c r="B1662" s="1" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C1662" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1662" s="2" t="s">
         <v>991</v>
@@ -29858,10 +29703,10 @@
         <v>8093</v>
       </c>
       <c r="B1663" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C1663" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1663" s="2" t="s">
         <v>991</v>
@@ -29872,10 +29717,10 @@
         <v>8096</v>
       </c>
       <c r="B1664" s="1" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C1664" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1664" s="2" t="s">
         <v>991</v>
@@ -29886,10 +29731,10 @@
         <v>8097</v>
       </c>
       <c r="B1665" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C1665" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1665" s="2" t="s">
         <v>991</v>
@@ -29900,10 +29745,10 @@
         <v>8099</v>
       </c>
       <c r="B1666" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C1666" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1666" s="2" t="s">
         <v>991</v>
@@ -29914,10 +29759,10 @@
         <v>8107</v>
       </c>
       <c r="B1667" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C1667" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1667" s="2" t="s">
         <v>991</v>
@@ -29928,10 +29773,10 @@
         <v>8109</v>
       </c>
       <c r="B1668" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C1668" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1668" s="2" t="s">
         <v>991</v>
@@ -29942,10 +29787,10 @@
         <v>8111</v>
       </c>
       <c r="B1669" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C1669" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1669" s="2" t="s">
         <v>991</v>
@@ -29956,10 +29801,10 @@
         <v>8121</v>
       </c>
       <c r="B1670" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C1670" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1670" s="2" t="s">
         <v>991</v>
@@ -29970,10 +29815,10 @@
         <v>8147</v>
       </c>
       <c r="B1671" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C1671" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1671" s="2" t="s">
         <v>991</v>
@@ -29984,10 +29829,10 @@
         <v>8155</v>
       </c>
       <c r="B1672" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C1672" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1672" s="2" t="s">
         <v>991</v>
@@ -29998,10 +29843,10 @@
         <v>8171</v>
       </c>
       <c r="B1673" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C1673" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1673" s="2" t="s">
         <v>991</v>
@@ -30012,10 +29857,10 @@
         <v>8176</v>
       </c>
       <c r="B1674" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C1674" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1674" s="2" t="s">
         <v>991</v>
@@ -30026,10 +29871,10 @@
         <v>8182</v>
       </c>
       <c r="B1675" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C1675" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1675" s="2" t="s">
         <v>991</v>
@@ -30040,10 +29885,10 @@
         <v>8183</v>
       </c>
       <c r="B1676" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C1676" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1676" s="2" t="s">
         <v>991</v>
@@ -30054,10 +29899,10 @@
         <v>8234</v>
       </c>
       <c r="B1677" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C1677" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1677" s="2" t="s">
         <v>991</v>
@@ -30068,10 +29913,10 @@
         <v>8240</v>
       </c>
       <c r="B1678" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C1678" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1678" s="2" t="s">
         <v>991</v>
@@ -30082,10 +29927,10 @@
         <v>8255</v>
       </c>
       <c r="B1679" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C1679" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1679" s="2" t="s">
         <v>991</v>
@@ -30096,10 +29941,10 @@
         <v>8277</v>
       </c>
       <c r="B1680" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C1680" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1680" s="2" t="s">
         <v>991</v>
@@ -30110,10 +29955,10 @@
         <v>8279</v>
       </c>
       <c r="B1681" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C1681" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1681" s="2" t="s">
         <v>991</v>
@@ -30124,10 +29969,10 @@
         <v>8284</v>
       </c>
       <c r="B1682" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C1682" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1682" s="2" t="s">
         <v>991</v>
@@ -30138,10 +29983,10 @@
         <v>8289</v>
       </c>
       <c r="B1683" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C1683" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1683" s="2" t="s">
         <v>991</v>
@@ -30152,10 +29997,10 @@
         <v>8291</v>
       </c>
       <c r="B1684" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C1684" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1684" s="2" t="s">
         <v>991</v>
@@ -30166,10 +30011,10 @@
         <v>8299</v>
       </c>
       <c r="B1685" s="1" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C1685" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1685" s="2" t="s">
         <v>991</v>
@@ -30180,10 +30025,10 @@
         <v>8342</v>
       </c>
       <c r="B1686" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C1686" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1686" s="2" t="s">
         <v>991</v>
@@ -30194,10 +30039,10 @@
         <v>8349</v>
       </c>
       <c r="B1687" s="1" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C1687" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1687" s="2" t="s">
         <v>991</v>
@@ -30205,16 +30050,16 @@
     </row>
     <row r="1688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1688" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B1688" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="B1688" s="1" t="s">
-        <v>1708</v>
-      </c>
       <c r="C1688" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1688" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1689" spans="1:4" x14ac:dyDescent="0.25">
@@ -30222,10 +30067,10 @@
         <v>8354</v>
       </c>
       <c r="B1689" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C1689" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1689" s="2" t="s">
         <v>991</v>
@@ -30236,10 +30081,10 @@
         <v>8358</v>
       </c>
       <c r="B1690" s="1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C1690" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1690" s="2" t="s">
         <v>991</v>
@@ -30250,10 +30095,10 @@
         <v>8383</v>
       </c>
       <c r="B1691" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C1691" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1691" s="2" t="s">
         <v>991</v>
@@ -30264,10 +30109,10 @@
         <v>8390</v>
       </c>
       <c r="B1692" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C1692" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1692" s="2" t="s">
         <v>991</v>
@@ -30278,10 +30123,10 @@
         <v>8401</v>
       </c>
       <c r="B1693" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C1693" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1693" s="2" t="s">
         <v>991</v>
@@ -30292,10 +30137,10 @@
         <v>8403</v>
       </c>
       <c r="B1694" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C1694" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1694" s="2" t="s">
         <v>991</v>
@@ -30306,10 +30151,10 @@
         <v>8406</v>
       </c>
       <c r="B1695" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C1695" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1695" s="2" t="s">
         <v>991</v>
@@ -30320,10 +30165,10 @@
         <v>8409</v>
       </c>
       <c r="B1696" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C1696" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1696" s="2" t="s">
         <v>991</v>
@@ -30334,10 +30179,10 @@
         <v>8410</v>
       </c>
       <c r="B1697" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C1697" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1697" s="2" t="s">
         <v>991</v>
@@ -30348,10 +30193,10 @@
         <v>8415</v>
       </c>
       <c r="B1698" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C1698" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1698" s="2" t="s">
         <v>991</v>
@@ -30362,10 +30207,10 @@
         <v>8416</v>
       </c>
       <c r="B1699" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C1699" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1699" s="2" t="s">
         <v>991</v>
@@ -30376,10 +30221,10 @@
         <v>8418</v>
       </c>
       <c r="B1700" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C1700" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1700" s="2" t="s">
         <v>991</v>
@@ -30390,10 +30235,10 @@
         <v>8420</v>
       </c>
       <c r="B1701" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C1701" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1701" s="2" t="s">
         <v>991</v>
@@ -30404,10 +30249,10 @@
         <v>8421</v>
       </c>
       <c r="B1702" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C1702" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1702" s="2" t="s">
         <v>991</v>
@@ -30418,10 +30263,10 @@
         <v>8423</v>
       </c>
       <c r="B1703" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C1703" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1703" s="2" t="s">
         <v>991</v>
@@ -30432,10 +30277,10 @@
         <v>8424</v>
       </c>
       <c r="B1704" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C1704" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1704" s="2" t="s">
         <v>991</v>
@@ -30446,10 +30291,10 @@
         <v>8426</v>
       </c>
       <c r="B1705" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C1705" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1705" s="2" t="s">
         <v>991</v>
@@ -30460,10 +30305,10 @@
         <v>8431</v>
       </c>
       <c r="B1706" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C1706" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1706" s="2" t="s">
         <v>991</v>
@@ -30474,10 +30319,10 @@
         <v>8432</v>
       </c>
       <c r="B1707" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C1707" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1707" s="2" t="s">
         <v>991</v>
@@ -30488,10 +30333,10 @@
         <v>8433</v>
       </c>
       <c r="B1708" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C1708" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1708" s="2" t="s">
         <v>991</v>
@@ -30502,10 +30347,10 @@
         <v>8435</v>
       </c>
       <c r="B1709" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C1709" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1709" s="2" t="s">
         <v>991</v>
@@ -30516,10 +30361,10 @@
         <v>8436</v>
       </c>
       <c r="B1710" s="1" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C1710" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1710" s="2" t="s">
         <v>991</v>
@@ -30530,10 +30375,10 @@
         <v>8437</v>
       </c>
       <c r="B1711" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C1711" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1711" s="2" t="s">
         <v>991</v>
@@ -30544,10 +30389,10 @@
         <v>8440</v>
       </c>
       <c r="B1712" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C1712" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1712" s="2" t="s">
         <v>991</v>
@@ -30558,10 +30403,10 @@
         <v>8444</v>
       </c>
       <c r="B1713" s="1" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C1713" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1713" s="2" t="s">
         <v>991</v>
@@ -30572,10 +30417,10 @@
         <v>8446</v>
       </c>
       <c r="B1714" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C1714" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1714" s="2" t="s">
         <v>991</v>
@@ -30586,10 +30431,10 @@
         <v>8450</v>
       </c>
       <c r="B1715" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C1715" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1715" s="2" t="s">
         <v>991</v>
@@ -30600,10 +30445,10 @@
         <v>8455</v>
       </c>
       <c r="B1716" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C1716" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1716" s="2" t="s">
         <v>991</v>
@@ -30614,10 +30459,10 @@
         <v>8472</v>
       </c>
       <c r="B1717" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C1717" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1717" s="2" t="s">
         <v>991</v>
@@ -30628,10 +30473,10 @@
         <v>8476</v>
       </c>
       <c r="B1718" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C1718" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1718" s="2" t="s">
         <v>991</v>
@@ -30642,10 +30487,10 @@
         <v>8477</v>
       </c>
       <c r="B1719" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C1719" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1719" s="2" t="s">
         <v>991</v>
@@ -30656,10 +30501,10 @@
         <v>8489</v>
       </c>
       <c r="B1720" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C1720" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1720" s="2" t="s">
         <v>991</v>
@@ -30670,10 +30515,10 @@
         <v>8905</v>
       </c>
       <c r="B1721" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C1721" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1721" s="2" t="s">
         <v>991</v>
@@ -30684,10 +30529,10 @@
         <v>8906</v>
       </c>
       <c r="B1722" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C1722" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1722" s="2" t="s">
         <v>991</v>
@@ -30698,10 +30543,10 @@
         <v>8908</v>
       </c>
       <c r="B1723" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C1723" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1723" s="2" t="s">
         <v>991</v>
@@ -30712,10 +30557,10 @@
         <v>8916</v>
       </c>
       <c r="B1724" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C1724" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1724" s="2" t="s">
         <v>991</v>
@@ -30723,16 +30568,16 @@
     </row>
     <row r="1725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1725" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B1725" s="1" t="s">
         <v>1745</v>
       </c>
-      <c r="B1725" s="1" t="s">
-        <v>1746</v>
-      </c>
       <c r="C1725" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1725" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1726" spans="1:4" x14ac:dyDescent="0.25">
@@ -30740,10 +30585,10 @@
         <v>8917</v>
       </c>
       <c r="B1726" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C1726" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1726" s="2" t="s">
         <v>991</v>
@@ -30754,10 +30599,10 @@
         <v>8921</v>
       </c>
       <c r="B1727" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C1727" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1727" s="2" t="s">
         <v>991</v>
@@ -30768,10 +30613,10 @@
         <v>8923</v>
       </c>
       <c r="B1728" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C1728" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1728" s="2" t="s">
         <v>991</v>
@@ -30782,10 +30627,10 @@
         <v>8924</v>
       </c>
       <c r="B1729" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C1729" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1729" s="2" t="s">
         <v>991</v>
@@ -30796,10 +30641,10 @@
         <v>8927</v>
       </c>
       <c r="B1730" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C1730" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1730" s="2" t="s">
         <v>991</v>
@@ -30810,10 +30655,10 @@
         <v>8928</v>
       </c>
       <c r="B1731" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C1731" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1731" s="2" t="s">
         <v>991</v>
@@ -30824,10 +30669,10 @@
         <v>8929</v>
       </c>
       <c r="B1732" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C1732" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1732" s="2" t="s">
         <v>991</v>
@@ -30838,10 +30683,10 @@
         <v>8930</v>
       </c>
       <c r="B1733" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C1733" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1733" s="2" t="s">
         <v>991</v>
@@ -30852,10 +30697,10 @@
         <v>8931</v>
       </c>
       <c r="B1734" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C1734" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1734" s="2" t="s">
         <v>991</v>
@@ -30866,10 +30711,10 @@
         <v>8932</v>
       </c>
       <c r="B1735" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C1735" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1735" s="2" t="s">
         <v>991</v>
@@ -30880,10 +30725,10 @@
         <v>8933</v>
       </c>
       <c r="B1736" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C1736" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1736" s="2" t="s">
         <v>991</v>
@@ -30894,10 +30739,10 @@
         <v>8934</v>
       </c>
       <c r="B1737" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C1737" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1737" s="2" t="s">
         <v>991</v>
@@ -30908,10 +30753,10 @@
         <v>8935</v>
       </c>
       <c r="B1738" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C1738" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1738" s="2" t="s">
         <v>991</v>
@@ -30922,10 +30767,10 @@
         <v>8936</v>
       </c>
       <c r="B1739" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C1739" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1739" s="2" t="s">
         <v>991</v>
@@ -30936,10 +30781,10 @@
         <v>8937</v>
       </c>
       <c r="B1740" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C1740" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1740" s="2" t="s">
         <v>991</v>
@@ -30950,10 +30795,10 @@
         <v>8938</v>
       </c>
       <c r="B1741" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C1741" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1741" s="2" t="s">
         <v>991</v>
@@ -30964,10 +30809,10 @@
         <v>8941</v>
       </c>
       <c r="B1742" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C1742" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1742" s="2" t="s">
         <v>991</v>
@@ -30978,10 +30823,10 @@
         <v>8942</v>
       </c>
       <c r="B1743" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C1743" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1743" s="2" t="s">
         <v>991</v>
@@ -30992,10 +30837,10 @@
         <v>9949</v>
       </c>
       <c r="B1744" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C1744" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1744" s="2" t="s">
         <v>991</v>
@@ -31006,10 +30851,10 @@
         <v>9950</v>
       </c>
       <c r="B1745" s="1" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C1745" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1745" s="2" t="s">
         <v>991</v>
@@ -31020,10 +30865,10 @@
         <v>9951</v>
       </c>
       <c r="B1746" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C1746" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1746" s="2" t="s">
         <v>991</v>
@@ -31034,10 +30879,10 @@
         <v>9960</v>
       </c>
       <c r="B1747" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C1747" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1747" s="2" t="s">
         <v>991</v>
@@ -31048,10 +30893,10 @@
         <v>9962</v>
       </c>
       <c r="B1748" s="1" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C1748" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1748" s="2" t="s">
         <v>991</v>
@@ -31062,10 +30907,10 @@
         <v>8089</v>
       </c>
       <c r="B1749" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C1749" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1749" s="2" t="s">
         <v>991</v>
@@ -31077,7 +30922,7 @@
         <v>50</v>
       </c>
       <c r="I1749" s="7" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
   </sheetData>
@@ -31085,4 +30930,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00A392A-89DF-4573-A544-23CF075C2A72}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3A15C2-BD53-466B-A59E-73DA168839E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AF14CA-C090-41B6-BCFA-F5B55BFA807C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_stock" sheetId="1" r:id="rId1"/>
-    <sheet name="config" sheetId="2" r:id="rId2"/>
+    <sheet name="資訊列表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5326" uniqueCount="1822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5354" uniqueCount="1849">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5580,6 +5580,114 @@
   <si>
     <t>買入價
 可估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceHigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淨值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QEPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020Q3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營業利益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稅前淨利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稅後淨利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月營收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度/月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年増</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累計營收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累計年增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Stock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5627,7 +5735,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -5635,11 +5743,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5663,6 +5888,45 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -5945,7 +6209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1749"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
@@ -30934,13 +31198,174 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00A392A-89DF-4573-A544-23CF075C2A72}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="11" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="12" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="12" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3D2605-3937-46AC-BF50-2F932E843A55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14571A24-4634-4187-AAD2-33BABECB8F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5412" uniqueCount="1874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5411" uniqueCount="1869">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5716,33 +5716,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定存</t>
-  </si>
-  <si>
-    <t>定存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衰退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>區間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一年</t>
-  </si>
-  <si>
-    <t>一年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5793,6 +5771,9 @@
   <si>
     <t>空單價</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>區間</t>
   </si>
 </sst>
 </file>
@@ -6317,8 +6298,8 @@
   <dimension ref="A1:L1748"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A648" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H662" sqref="H662"/>
+      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L354" sqref="L354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6351,7 +6332,7 @@
         <v>1777</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1769</v>
@@ -6360,7 +6341,7 @@
         <v>1819</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>1800</v>
@@ -6389,7 +6370,7 @@
         <v>990</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="F2" s="2">
         <v>47.1</v>
@@ -7073,10 +7054,13 @@
         <v>990</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="F47" s="2">
         <v>216</v>
+      </c>
+      <c r="H47" s="2">
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -7191,7 +7175,7 @@
         <v>990</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="F55" s="2">
         <v>12.5</v>
@@ -7724,13 +7708,13 @@
         <v>990</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
       <c r="F92" s="2">
         <v>29.5</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -7957,7 +7941,7 @@
         <v>990</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="F108" s="2">
         <v>58.1</v>
@@ -7967,7 +7951,7 @@
       </c>
       <c r="K108" s="5"/>
       <c r="L108" s="5" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -8446,7 +8430,7 @@
         <v>990</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="F142" s="2">
         <v>162</v>
@@ -10012,7 +9996,7 @@
         <v>990</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="F253" s="2">
         <v>212</v>
@@ -10139,7 +10123,7 @@
         <v>990</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="F261" s="2">
         <v>34</v>
@@ -10789,7 +10773,7 @@
         <v>990</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="F307" s="2">
         <v>62.7</v>
@@ -10831,9 +10815,6 @@
       <c r="D309" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="E309" s="2" t="s">
-        <v>1860</v>
-      </c>
       <c r="L309" s="5" t="s">
         <v>1816</v>
       </c>
@@ -11191,7 +11172,7 @@
         <v>990</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="F334" s="2">
         <v>85.4</v>
@@ -11452,7 +11433,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>2441</v>
       </c>
@@ -11469,7 +11450,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>2442</v>
       </c>
@@ -11483,7 +11464,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>2443</v>
       </c>
@@ -11497,7 +11478,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>2444</v>
       </c>
@@ -11511,7 +11492,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>2448</v>
       </c>
@@ -11525,7 +11506,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>2449</v>
       </c>
@@ -11538,8 +11519,23 @@
       <c r="D358" s="2" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E358" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="F358" s="2">
+        <v>36</v>
+      </c>
+      <c r="G358" s="2">
+        <v>30</v>
+      </c>
+      <c r="I358" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="J358" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>2450</v>
       </c>
@@ -11553,7 +11549,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>2451</v>
       </c>
@@ -11567,7 +11563,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>2453</v>
       </c>
@@ -11581,7 +11577,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>2454</v>
       </c>
@@ -11595,7 +11591,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>2455</v>
       </c>
@@ -11609,7 +11605,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>2456</v>
       </c>
@@ -11623,7 +11619,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>2457</v>
       </c>
@@ -11637,7 +11633,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>2458</v>
       </c>
@@ -11654,7 +11650,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>2459</v>
       </c>
@@ -11668,7 +11664,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>2460</v>
       </c>
@@ -12018,7 +12014,7 @@
         <v>990</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>1856</v>
+        <v>1866</v>
       </c>
       <c r="F392" s="2">
         <v>240</v>
@@ -12029,8 +12025,11 @@
       <c r="I392" s="2">
         <v>183</v>
       </c>
+      <c r="J392" s="2">
+        <v>240</v>
+      </c>
       <c r="K392" s="7" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
@@ -13286,7 +13285,7 @@
         <v>990</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>1856</v>
+        <v>1868</v>
       </c>
       <c r="F480" s="2">
         <v>25</v>
@@ -13357,7 +13356,7 @@
         <v>990</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>1856</v>
+        <v>1868</v>
       </c>
       <c r="F484" s="2">
         <v>52</v>
@@ -13428,7 +13427,7 @@
         <v>990</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>1855</v>
+        <v>1868</v>
       </c>
       <c r="F488" s="2">
         <v>29.85</v>
@@ -13457,7 +13456,7 @@
         <v>990</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>1855</v>
+        <v>1868</v>
       </c>
       <c r="F489" s="2">
         <v>20.65</v>
@@ -13486,7 +13485,7 @@
         <v>990</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>1855</v>
+        <v>1868</v>
       </c>
       <c r="F490" s="2">
         <v>33.799999999999997</v>
@@ -14355,7 +14354,7 @@
         <v>990</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>1856</v>
+        <v>1866</v>
       </c>
       <c r="F551" s="2">
         <v>85</v>
@@ -14365,6 +14364,9 @@
       </c>
       <c r="I551" s="2">
         <v>75.5</v>
+      </c>
+      <c r="J551" s="2">
+        <v>83</v>
       </c>
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.25">
@@ -14409,7 +14411,7 @@
         <v>990</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>1857</v>
+        <v>1864</v>
       </c>
       <c r="F554" s="2">
         <v>31</v>
@@ -15589,7 +15591,7 @@
         <v>990</v>
       </c>
       <c r="E637" s="2" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="F637" s="2">
         <v>158</v>
@@ -16850,7 +16852,7 @@
         <v>990</v>
       </c>
       <c r="E726" s="2" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="F726" s="2">
         <v>183</v>
@@ -18316,7 +18318,7 @@
         <v>990</v>
       </c>
       <c r="E829" s="2" t="s">
-        <v>1857</v>
+        <v>1866</v>
       </c>
       <c r="F829" s="2">
         <v>41.25</v>
@@ -18880,7 +18882,7 @@
         <v>990</v>
       </c>
       <c r="E868" s="2" t="s">
-        <v>1857</v>
+        <v>1866</v>
       </c>
       <c r="F868" s="2">
         <v>26.85</v>
@@ -19018,7 +19020,7 @@
         <v>990</v>
       </c>
       <c r="E877" s="2" t="s">
-        <v>1857</v>
+        <v>1866</v>
       </c>
       <c r="F877" s="2">
         <v>41.85</v>
@@ -20676,7 +20678,7 @@
         <v>990</v>
       </c>
       <c r="E995" s="2" t="s">
-        <v>1857</v>
+        <v>1866</v>
       </c>
       <c r="F995" s="2">
         <v>54.8</v>
@@ -21301,14 +21303,11 @@
       <c r="D1038" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="E1038" s="2" t="s">
-        <v>1862</v>
-      </c>
       <c r="F1038" s="2">
         <v>51.3</v>
       </c>
       <c r="K1038" s="7" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1039" spans="1:11" x14ac:dyDescent="0.25">
@@ -21717,13 +21716,13 @@
         <v>990</v>
       </c>
       <c r="E1067" s="2" t="s">
-        <v>1857</v>
+        <v>1866</v>
       </c>
       <c r="F1067" s="2">
         <v>28.5</v>
       </c>
       <c r="K1067" s="7" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1068" spans="1:11" x14ac:dyDescent="0.25">
@@ -22062,7 +22061,7 @@
         <v>990</v>
       </c>
       <c r="E1091" s="2" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="F1091" s="2">
         <v>86.1</v>
@@ -22071,7 +22070,7 @@
         <v>40</v>
       </c>
       <c r="K1091" s="7" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1092" spans="1:11" x14ac:dyDescent="0.25">
@@ -22189,16 +22188,19 @@
         <v>990</v>
       </c>
       <c r="E1099" s="2" t="s">
-        <v>1857</v>
+        <v>1864</v>
       </c>
       <c r="F1099" s="2">
         <v>995</v>
       </c>
       <c r="G1099" s="2">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="I1099" s="2">
-        <v>755</v>
+        <v>760</v>
+      </c>
+      <c r="J1099" s="2">
+        <v>1080</v>
       </c>
       <c r="K1099" s="7" t="s">
         <v>1798</v>
@@ -22347,7 +22349,7 @@
         <v>990</v>
       </c>
       <c r="E1109" s="2" t="s">
-        <v>1857</v>
+        <v>1866</v>
       </c>
       <c r="F1109" s="2">
         <v>251.5</v>
@@ -22695,7 +22697,7 @@
         <v>990</v>
       </c>
       <c r="E1133" s="2" t="s">
-        <v>1857</v>
+        <v>1866</v>
       </c>
       <c r="F1133" s="2">
         <v>96.6</v>
@@ -23071,7 +23073,7 @@
         <v>990</v>
       </c>
       <c r="E1159" s="2" t="s">
-        <v>1857</v>
+        <v>1864</v>
       </c>
       <c r="F1159" s="2">
         <v>158</v>
@@ -25279,13 +25281,13 @@
         <v>990</v>
       </c>
       <c r="E1315" s="2" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="F1315" s="2">
         <v>34.700000000000003</v>
       </c>
       <c r="K1315" s="7" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1316" spans="1:11" x14ac:dyDescent="0.25">
@@ -25988,7 +25990,7 @@
         <v>990</v>
       </c>
       <c r="E1365" s="2" t="s">
-        <v>1857</v>
+        <v>1866</v>
       </c>
       <c r="F1365" s="2">
         <v>49.4</v>
@@ -27799,7 +27801,7 @@
         <v>990</v>
       </c>
       <c r="E1492" s="2" t="s">
-        <v>1857</v>
+        <v>1864</v>
       </c>
       <c r="F1492" s="2">
         <v>92</v>
@@ -28094,7 +28096,7 @@
         <v>990</v>
       </c>
       <c r="E1512" s="2" t="s">
-        <v>1860</v>
+        <v>1866</v>
       </c>
       <c r="F1512" s="2">
         <v>167</v>
@@ -28220,9 +28222,6 @@
       <c r="F1520" s="2">
         <v>54.7</v>
       </c>
-      <c r="G1520" s="2">
-        <v>40</v>
-      </c>
       <c r="L1520" s="5" t="s">
         <v>1817</v>
       </c>
@@ -28717,7 +28716,7 @@
         <v>990</v>
       </c>
       <c r="E1555" s="2" t="s">
-        <v>1857</v>
+        <v>1864</v>
       </c>
       <c r="F1555" s="2">
         <v>182</v>
@@ -29135,7 +29134,7 @@
         <v>990</v>
       </c>
       <c r="E1584" s="2" t="s">
-        <v>1858</v>
+        <v>1862</v>
       </c>
       <c r="F1584" s="2">
         <v>295</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82CDDCA-C989-45EB-9EB1-B7F6FE7E0A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F1D011-4696-4B31-89EB-1CA5FB7F5E29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5408" uniqueCount="1868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5450" uniqueCount="1873">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5336,10 +5336,6 @@
   </si>
   <si>
     <t>上櫃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近期最高價</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5771,6 +5767,33 @@
   </si>
   <si>
     <t>區間</t>
+  </si>
+  <si>
+    <t>定存</t>
+  </si>
+  <si>
+    <t>定存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[看法]
+核心
+觀察
+看戲
+定存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6295,8 +6318,8 @@
   <dimension ref="A1:L1747"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1365" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1379" sqref="H1379"/>
+      <pane ySplit="1" topLeftCell="A854" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I867" sqref="I867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6305,8 +6328,7 @@
     <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.140625" style="2" bestFit="1" customWidth="1"/>
@@ -6326,31 +6348,31 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1860</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>1872</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1865</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1769</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>1768</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>1818</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>1866</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1799</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1798</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>1770</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>1769</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -6367,16 +6389,16 @@
         <v>990</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="F2" s="2">
-        <v>47.1</v>
+        <v>1868</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1854</v>
       </c>
       <c r="G2" s="2">
         <v>40.5</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6392,11 +6414,8 @@
       <c r="D3" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F3" s="2">
-        <v>43.95</v>
-      </c>
       <c r="K3" s="7" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -6413,7 +6432,7 @@
         <v>990</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6430,7 +6449,7 @@
         <v>990</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -6446,11 +6465,8 @@
       <c r="D6" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F6" s="2">
-        <v>12.7</v>
-      </c>
       <c r="K6" s="7" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -6509,7 +6525,7 @@
         <v>990</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -6525,11 +6541,8 @@
       <c r="D11" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F11" s="2">
-        <v>49.6</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6559,11 +6572,8 @@
       <c r="D13" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F13" s="2">
-        <v>76</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -6579,11 +6589,8 @@
       <c r="D14" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F14" s="2">
-        <v>74</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -6919,7 +6926,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -7006,7 +7013,7 @@
         <v>990</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -7051,10 +7058,10 @@
         <v>990</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1859</v>
-      </c>
-      <c r="F47" s="2">
-        <v>216</v>
+        <v>1869</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>1858</v>
       </c>
       <c r="H47" s="2">
         <v>120</v>
@@ -7172,19 +7179,19 @@
         <v>990</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="F55" s="2">
-        <v>12.5</v>
+        <v>1868</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>1854</v>
       </c>
       <c r="G55" s="2">
         <v>9.5</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -7696,7 +7703,7 @@
         <v>1466</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>4</v>
@@ -7705,13 +7712,13 @@
         <v>990</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="K92" s="7" t="s">
         <v>1861</v>
-      </c>
-      <c r="F92" s="2">
-        <v>29.5</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>1862</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -7938,17 +7945,17 @@
         <v>990</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>1863</v>
-      </c>
-      <c r="F108" s="2">
-        <v>58.1</v>
+        <v>1870</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>1862</v>
       </c>
       <c r="G108" s="2">
         <v>45</v>
       </c>
       <c r="K108" s="5"/>
       <c r="L108" s="5" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -8427,16 +8434,16 @@
         <v>990</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="F142" s="2">
-        <v>162</v>
+        <v>1871</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>1864</v>
       </c>
       <c r="G142" s="2">
         <v>120</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -9332,7 +9339,7 @@
         <v>4</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -9536,7 +9543,7 @@
         <v>2025</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>4</v>
@@ -9993,19 +10000,19 @@
         <v>990</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>1863</v>
-      </c>
-      <c r="F253" s="2">
-        <v>212</v>
+        <v>1871</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>1862</v>
       </c>
       <c r="G253" s="2">
         <v>120</v>
       </c>
       <c r="K253" s="7" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="L253" s="5" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
@@ -10050,7 +10057,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>2241</v>
       </c>
@@ -10064,7 +10071,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>2243</v>
       </c>
@@ -10078,7 +10085,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>2301</v>
       </c>
@@ -10092,7 +10099,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>2302</v>
       </c>
@@ -10106,7 +10113,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>2303</v>
       </c>
@@ -10120,13 +10127,16 @@
         <v>990</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="F261" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1869</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G261" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>2305</v>
       </c>
@@ -10140,7 +10150,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>2308</v>
       </c>
@@ -10154,7 +10164,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>2312</v>
       </c>
@@ -10168,7 +10178,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>2313</v>
       </c>
@@ -10182,7 +10192,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>2314</v>
       </c>
@@ -10196,7 +10206,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>2316</v>
       </c>
@@ -10210,7 +10220,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>2317</v>
       </c>
@@ -10224,7 +10234,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>2321</v>
       </c>
@@ -10238,7 +10248,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>2323</v>
       </c>
@@ -10252,7 +10262,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>2324</v>
       </c>
@@ -10266,7 +10276,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>2327</v>
       </c>
@@ -10761,28 +10771,28 @@
         <v>2375</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="G307" s="2">
+        <v>58</v>
+      </c>
+      <c r="K307" s="7" t="s">
         <v>1789</v>
       </c>
-      <c r="C307" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="F307" s="2">
-        <v>62.7</v>
-      </c>
-      <c r="G307" s="2">
-        <v>50</v>
-      </c>
-      <c r="K307" s="7" t="s">
-        <v>1790</v>
-      </c>
       <c r="L307" s="5" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
@@ -10813,7 +10823,7 @@
         <v>990</v>
       </c>
       <c r="L309" s="5" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
@@ -10899,9 +10909,6 @@
       <c r="D315" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F315" s="2">
-        <v>78</v>
-      </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
@@ -11169,10 +11176,10 @@
         <v>990</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>1859</v>
-      </c>
-      <c r="F334" s="2">
-        <v>85.4</v>
+        <v>1869</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>1858</v>
       </c>
       <c r="G334" s="2">
         <v>40</v>
@@ -11443,9 +11450,6 @@
       <c r="D353" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F353" s="2">
-        <v>55.2</v>
-      </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
@@ -11517,10 +11521,10 @@
         <v>990</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="F358" s="2">
-        <v>36</v>
+        <v>1868</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>1854</v>
       </c>
       <c r="G358" s="2">
         <v>30</v>
@@ -11643,9 +11647,6 @@
       <c r="D366" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F366" s="2">
-        <v>163</v>
-      </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
@@ -12011,22 +12012,16 @@
         <v>990</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="F392" s="2">
-        <v>240</v>
+        <v>1870</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>1864</v>
       </c>
       <c r="G392" s="2">
         <v>180</v>
       </c>
-      <c r="I392" s="2">
-        <v>183</v>
-      </c>
-      <c r="J392" s="2">
-        <v>240</v>
-      </c>
       <c r="K392" s="7" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
@@ -12448,11 +12443,8 @@
       <c r="D422" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="E422" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="F422" s="2">
-        <v>52</v>
+      <c r="F422" s="2" t="s">
+        <v>1854</v>
       </c>
       <c r="G422" s="2">
         <v>45</v>
@@ -13018,16 +13010,16 @@
         <v>990</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="F462" s="2">
-        <v>39.5</v>
+        <v>1867</v>
+      </c>
+      <c r="F462" s="2" t="s">
+        <v>1854</v>
       </c>
       <c r="G462" s="2">
         <v>32</v>
       </c>
       <c r="K462" s="7" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
@@ -13153,7 +13145,7 @@
         <v>4</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.25">
@@ -13284,17 +13276,17 @@
       <c r="E480" s="2" t="s">
         <v>1867</v>
       </c>
-      <c r="F480" s="2">
-        <v>25</v>
+      <c r="F480" s="2" t="s">
+        <v>1866</v>
       </c>
       <c r="G480" s="2">
         <v>15.5</v>
       </c>
       <c r="K480" s="7" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="L480" s="5" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.25">
@@ -13322,7 +13314,7 @@
         <v>4</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.25">
@@ -13336,7 +13328,7 @@
         <v>4</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.25">
@@ -13355,17 +13347,17 @@
       <c r="E484" s="2" t="s">
         <v>1867</v>
       </c>
-      <c r="F484" s="2">
-        <v>52</v>
+      <c r="F484" s="2" t="s">
+        <v>1866</v>
       </c>
       <c r="G484" s="2">
         <v>30</v>
       </c>
       <c r="K484" s="7" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="L484" s="5" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.25">
@@ -13379,7 +13371,7 @@
         <v>4</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.25">
@@ -13393,7 +13385,7 @@
         <v>4</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.25">
@@ -13426,17 +13418,17 @@
       <c r="E488" s="2" t="s">
         <v>1867</v>
       </c>
-      <c r="F488" s="2">
-        <v>29.85</v>
+      <c r="F488" s="2" t="s">
+        <v>1866</v>
       </c>
       <c r="G488" s="2">
         <v>20</v>
       </c>
       <c r="K488" s="7" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="L488" s="5" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.25">
@@ -13455,17 +13447,17 @@
       <c r="E489" s="2" t="s">
         <v>1867</v>
       </c>
-      <c r="F489" s="2">
-        <v>20.65</v>
+      <c r="F489" s="2" t="s">
+        <v>1866</v>
       </c>
       <c r="G489" s="2">
         <v>14</v>
       </c>
       <c r="K489" s="7" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="L489" s="5" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.25">
@@ -13484,17 +13476,17 @@
       <c r="E490" s="2" t="s">
         <v>1867</v>
       </c>
-      <c r="F490" s="2">
-        <v>33.799999999999997</v>
+      <c r="F490" s="2" t="s">
+        <v>1866</v>
       </c>
       <c r="G490" s="2">
         <v>23.5</v>
       </c>
       <c r="K490" s="7" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="L490" s="5" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.25">
@@ -13522,7 +13514,7 @@
         <v>4</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.25">
@@ -13536,7 +13528,7 @@
         <v>4</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.25">
@@ -13564,7 +13556,7 @@
         <v>4</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.25">
@@ -13578,7 +13570,7 @@
         <v>4</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -13634,7 +13626,7 @@
         <v>4</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -13648,7 +13640,7 @@
         <v>4</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -13690,7 +13682,7 @@
         <v>4</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -14351,19 +14343,13 @@
         <v>990</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="F551" s="2">
-        <v>85</v>
+        <v>1871</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>1864</v>
       </c>
       <c r="G551" s="2">
-        <v>70</v>
-      </c>
-      <c r="I551" s="2">
-        <v>75.5</v>
-      </c>
-      <c r="J551" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.25">
@@ -14408,16 +14394,16 @@
         <v>990</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>1863</v>
-      </c>
-      <c r="F554" s="2">
-        <v>31</v>
+        <v>1871</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>1862</v>
       </c>
       <c r="G554" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L554" s="5" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.25">
@@ -15385,11 +15371,8 @@
       <c r="D623" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F623" s="2">
-        <v>16.8</v>
-      </c>
       <c r="K623" s="7" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
@@ -15588,10 +15571,10 @@
         <v>990</v>
       </c>
       <c r="E637" s="2" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F637" s="2">
-        <v>158</v>
+        <v>1869</v>
+      </c>
+      <c r="F637" s="2" t="s">
+        <v>1860</v>
       </c>
       <c r="G637" s="2">
         <v>80</v>
@@ -15720,7 +15703,7 @@
         <v>4</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
@@ -16535,7 +16518,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" s="3">
         <v>4927</v>
       </c>
@@ -16549,7 +16532,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" s="3">
         <v>4930</v>
       </c>
@@ -16563,7 +16546,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" s="3">
         <v>4934</v>
       </c>
@@ -16577,7 +16560,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" s="3">
         <v>4935</v>
       </c>
@@ -16591,7 +16574,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" s="3">
         <v>4938</v>
       </c>
@@ -16605,7 +16588,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" s="3">
         <v>4942</v>
       </c>
@@ -16619,7 +16602,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" s="3">
         <v>4943</v>
       </c>
@@ -16633,7 +16616,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" s="3">
         <v>4952</v>
       </c>
@@ -16647,7 +16630,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" s="3">
         <v>4956</v>
       </c>
@@ -16661,7 +16644,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" s="3">
         <v>4958</v>
       </c>
@@ -16675,7 +16658,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" s="3">
         <v>4960</v>
       </c>
@@ -16689,7 +16672,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" s="3">
         <v>4961</v>
       </c>
@@ -16702,11 +16685,8 @@
       <c r="D716" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F716" s="2">
-        <v>38.799999999999997</v>
-      </c>
-    </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" s="3">
         <v>4967</v>
       </c>
@@ -16720,7 +16700,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" s="3">
         <v>4968</v>
       </c>
@@ -16734,7 +16714,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" s="3">
         <v>4976</v>
       </c>
@@ -16747,11 +16727,8 @@
       <c r="D719" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F719" s="2">
-        <v>49.25</v>
-      </c>
-    </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" s="3">
         <v>4977</v>
       </c>
@@ -16849,19 +16826,19 @@
         <v>990</v>
       </c>
       <c r="E726" s="2" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F726" s="2">
-        <v>183</v>
+        <v>1869</v>
+      </c>
+      <c r="F726" s="2" t="s">
+        <v>1860</v>
       </c>
       <c r="G726" s="2">
         <v>120</v>
       </c>
       <c r="K726" s="7" t="s">
+        <v>1811</v>
+      </c>
+      <c r="L726" s="5" t="s">
         <v>1812</v>
-      </c>
-      <c r="L726" s="5" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="727" spans="1:12" x14ac:dyDescent="0.25">
@@ -17295,7 +17272,7 @@
         <v>4</v>
       </c>
       <c r="D757" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
@@ -17676,7 +17653,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" s="3">
         <v>6177</v>
       </c>
@@ -17690,7 +17667,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" s="3">
         <v>6183</v>
       </c>
@@ -17704,7 +17681,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" s="3">
         <v>6184</v>
       </c>
@@ -17718,7 +17695,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" s="3">
         <v>6189</v>
       </c>
@@ -17732,7 +17709,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" s="3">
         <v>6191</v>
       </c>
@@ -17745,11 +17722,8 @@
       <c r="D789" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F789" s="2">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" s="3">
         <v>6192</v>
       </c>
@@ -17763,7 +17737,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" s="3">
         <v>6196</v>
       </c>
@@ -17777,7 +17751,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" s="3">
         <v>6197</v>
       </c>
@@ -17791,7 +17765,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" s="3">
         <v>6201</v>
       </c>
@@ -17805,7 +17779,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" s="3">
         <v>6202</v>
       </c>
@@ -17819,7 +17793,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" s="3">
         <v>6205</v>
       </c>
@@ -17833,7 +17807,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" s="3">
         <v>6206</v>
       </c>
@@ -17847,7 +17821,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797" s="3">
         <v>6209</v>
       </c>
@@ -17861,7 +17835,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" s="3">
         <v>6213</v>
       </c>
@@ -17875,7 +17849,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" s="3">
         <v>6214</v>
       </c>
@@ -17889,7 +17863,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800" s="3">
         <v>6215</v>
       </c>
@@ -17903,7 +17877,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A801" s="3">
         <v>6216</v>
       </c>
@@ -17917,7 +17891,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A802" s="3">
         <v>6224</v>
       </c>
@@ -17931,7 +17905,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803" s="3">
         <v>6225</v>
       </c>
@@ -17945,7 +17919,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A804" s="3">
         <v>6226</v>
       </c>
@@ -17959,7 +17933,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805" s="3">
         <v>6230</v>
       </c>
@@ -17973,7 +17947,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806" s="3">
         <v>6235</v>
       </c>
@@ -17987,7 +17961,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807" s="3">
         <v>6239</v>
       </c>
@@ -18001,7 +17975,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808" s="3">
         <v>6243</v>
       </c>
@@ -18015,7 +17989,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809" s="3">
         <v>6251</v>
       </c>
@@ -18029,7 +18003,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810" s="3">
         <v>6257</v>
       </c>
@@ -18043,7 +18017,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811" s="3">
         <v>6269</v>
       </c>
@@ -18057,7 +18031,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812" s="3">
         <v>6271</v>
       </c>
@@ -18071,7 +18045,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813" s="3">
         <v>6277</v>
       </c>
@@ -18085,7 +18059,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A814" s="3">
         <v>6278</v>
       </c>
@@ -18098,11 +18072,8 @@
       <c r="D814" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F814" s="2">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815" s="3">
         <v>6281</v>
       </c>
@@ -18116,7 +18087,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816" s="3">
         <v>6282</v>
       </c>
@@ -18157,9 +18128,6 @@
       <c r="D818" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F818" s="2">
-        <v>86.6</v>
-      </c>
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A819" s="3">
@@ -18315,10 +18283,10 @@
         <v>990</v>
       </c>
       <c r="E829" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="F829" s="2">
-        <v>41.25</v>
+        <v>1870</v>
+      </c>
+      <c r="F829" s="2" t="s">
+        <v>1864</v>
       </c>
       <c r="G829" s="2">
         <v>30</v>
@@ -18576,10 +18544,10 @@
         <v>990</v>
       </c>
       <c r="E847" s="2" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F847" s="2">
-        <v>238</v>
+        <v>1869</v>
+      </c>
+      <c r="F847" s="2" t="s">
+        <v>1860</v>
       </c>
       <c r="G847" s="2">
         <v>130</v>
@@ -18879,16 +18847,19 @@
         <v>990</v>
       </c>
       <c r="E868" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="F868" s="2">
-        <v>26.85</v>
+        <v>1870</v>
+      </c>
+      <c r="F868" s="2" t="s">
+        <v>1864</v>
       </c>
       <c r="G868" s="2">
         <v>22</v>
       </c>
+      <c r="I868" s="2">
+        <v>26.5</v>
+      </c>
       <c r="L868" s="8" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="869" spans="1:12" x14ac:dyDescent="0.25">
@@ -19017,10 +18988,10 @@
         <v>990</v>
       </c>
       <c r="E877" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="F877" s="2">
-        <v>41.85</v>
+        <v>1869</v>
+      </c>
+      <c r="F877" s="2" t="s">
+        <v>1864</v>
       </c>
     </row>
     <row r="878" spans="1:12" x14ac:dyDescent="0.25">
@@ -20252,7 +20223,7 @@
         <v>4</v>
       </c>
       <c r="D965" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.25">
@@ -20675,16 +20646,16 @@
         <v>990</v>
       </c>
       <c r="E995" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="F995" s="2">
-        <v>54.8</v>
+        <v>1870</v>
+      </c>
+      <c r="F995" s="2" t="s">
+        <v>1864</v>
       </c>
       <c r="G995" s="2">
         <v>41</v>
       </c>
       <c r="K995" s="7" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="996" spans="1:11" x14ac:dyDescent="0.25">
@@ -20827,16 +20798,16 @@
         <v>990</v>
       </c>
       <c r="E1005" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="F1005" s="2">
-        <v>59.9</v>
+        <v>1868</v>
+      </c>
+      <c r="F1005" s="2" t="s">
+        <v>1854</v>
       </c>
       <c r="G1005" s="2">
         <v>42</v>
       </c>
       <c r="K1005" s="7" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1006" spans="1:11" x14ac:dyDescent="0.25">
@@ -21300,11 +21271,8 @@
       <c r="D1038" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F1038" s="2">
-        <v>51.3</v>
-      </c>
       <c r="K1038" s="7" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1039" spans="1:11" x14ac:dyDescent="0.25">
@@ -21712,14 +21680,11 @@
       <c r="D1067" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="E1067" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="F1067" s="2">
-        <v>28.5</v>
+      <c r="F1067" s="2" t="s">
+        <v>1864</v>
       </c>
       <c r="K1067" s="7" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1068" spans="1:11" x14ac:dyDescent="0.25">
@@ -22058,16 +22023,16 @@
         <v>990</v>
       </c>
       <c r="E1091" s="2" t="s">
-        <v>1859</v>
-      </c>
-      <c r="F1091" s="2">
-        <v>86.1</v>
+        <v>1869</v>
+      </c>
+      <c r="F1091" s="2" t="s">
+        <v>1858</v>
       </c>
       <c r="G1091" s="2">
         <v>40</v>
       </c>
       <c r="K1091" s="7" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1092" spans="1:11" x14ac:dyDescent="0.25">
@@ -22153,9 +22118,6 @@
       <c r="D1097" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F1097" s="2">
-        <v>77.8</v>
-      </c>
     </row>
     <row r="1098" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1098" s="3">
@@ -22185,10 +22147,10 @@
         <v>990</v>
       </c>
       <c r="E1099" s="2" t="s">
-        <v>1863</v>
-      </c>
-      <c r="F1099" s="2">
-        <v>995</v>
+        <v>1870</v>
+      </c>
+      <c r="F1099" s="2" t="s">
+        <v>1862</v>
       </c>
       <c r="G1099" s="2">
         <v>700</v>
@@ -22200,7 +22162,7 @@
         <v>1080</v>
       </c>
       <c r="K1099" s="7" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1100" spans="1:11" x14ac:dyDescent="0.25">
@@ -22328,9 +22290,6 @@
       <c r="D1108" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F1108" s="2">
-        <v>51</v>
-      </c>
     </row>
     <row r="1109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1109" s="3">
@@ -22346,16 +22305,16 @@
         <v>990</v>
       </c>
       <c r="E1109" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="F1109" s="2">
-        <v>251.5</v>
+        <v>1871</v>
+      </c>
+      <c r="F1109" s="2" t="s">
+        <v>1864</v>
       </c>
       <c r="G1109" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K1109" s="7" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="1110" spans="1:11" x14ac:dyDescent="0.25">
@@ -22694,16 +22653,16 @@
         <v>990</v>
       </c>
       <c r="E1133" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="F1133" s="2">
-        <v>96.6</v>
+        <v>1871</v>
+      </c>
+      <c r="F1133" s="2" t="s">
+        <v>1864</v>
       </c>
       <c r="G1133" s="2">
         <v>70</v>
       </c>
       <c r="K1133" s="7" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="1134" spans="1:11" x14ac:dyDescent="0.25">
@@ -23070,16 +23029,16 @@
         <v>990</v>
       </c>
       <c r="E1159" s="2" t="s">
-        <v>1863</v>
-      </c>
-      <c r="F1159" s="2">
-        <v>158</v>
+        <v>1870</v>
+      </c>
+      <c r="F1159" s="2" t="s">
+        <v>1862</v>
       </c>
       <c r="G1159" s="2">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K1159" s="7" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="1160" spans="1:11" x14ac:dyDescent="0.25">
@@ -23824,16 +23783,16 @@
         <v>990</v>
       </c>
       <c r="E1212" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="F1212" s="2">
-        <v>97.9</v>
+        <v>1868</v>
+      </c>
+      <c r="F1212" s="2" t="s">
+        <v>1854</v>
       </c>
       <c r="G1212" s="2">
         <v>61</v>
       </c>
       <c r="K1212" s="7" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1213" spans="1:11" x14ac:dyDescent="0.25">
@@ -23903,7 +23862,7 @@
         <v>1767</v>
       </c>
       <c r="D1217" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
@@ -25278,13 +25237,13 @@
         <v>990</v>
       </c>
       <c r="E1315" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="F1315" s="2">
-        <v>34.700000000000003</v>
+        <v>1871</v>
+      </c>
+      <c r="F1315" s="2" t="s">
+        <v>1854</v>
       </c>
       <c r="K1315" s="7" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1316" spans="1:11" x14ac:dyDescent="0.25">
@@ -25987,19 +25946,19 @@
         <v>990</v>
       </c>
       <c r="E1365" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="F1365" s="2">
-        <v>49.4</v>
+        <v>1871</v>
+      </c>
+      <c r="F1365" s="2" t="s">
+        <v>1864</v>
       </c>
       <c r="G1365" s="2">
         <v>40</v>
       </c>
       <c r="K1365" s="7" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="L1365" s="5" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1366" spans="1:12" x14ac:dyDescent="0.25">
@@ -26380,7 +26339,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1393" s="3">
         <v>5438</v>
       </c>
@@ -26394,7 +26353,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1394" s="3">
         <v>5439</v>
       </c>
@@ -26408,7 +26367,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1395" s="3">
         <v>5443</v>
       </c>
@@ -26422,7 +26381,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1396" s="3">
         <v>5450</v>
       </c>
@@ -26436,7 +26395,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1397" s="3">
         <v>5452</v>
       </c>
@@ -26450,7 +26409,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1398" s="3">
         <v>5455</v>
       </c>
@@ -26464,7 +26423,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1399" s="3">
         <v>5457</v>
       </c>
@@ -26477,11 +26436,8 @@
       <c r="D1399" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F1399" s="2">
-        <v>138.5</v>
-      </c>
-    </row>
-    <row r="1400" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1400" s="3">
         <v>5460</v>
       </c>
@@ -26495,7 +26451,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1401" s="3">
         <v>5464</v>
       </c>
@@ -26509,7 +26465,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1402" s="3">
         <v>5465</v>
       </c>
@@ -26523,7 +26479,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1403" s="3">
         <v>5468</v>
       </c>
@@ -26537,7 +26493,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1404" s="3">
         <v>5474</v>
       </c>
@@ -26551,7 +26507,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1405" s="3">
         <v>5475</v>
       </c>
@@ -26565,7 +26521,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1406" s="3">
         <v>5478</v>
       </c>
@@ -26579,7 +26535,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1407" s="3">
         <v>5481</v>
       </c>
@@ -26593,7 +26549,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1408" s="3">
         <v>5483</v>
       </c>
@@ -27026,9 +26982,6 @@
       <c r="D1438" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F1438" s="2">
-        <v>660</v>
-      </c>
       <c r="G1438" s="2">
         <v>430</v>
       </c>
@@ -27172,14 +27125,11 @@
       <c r="D1448" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F1448" s="2">
-        <v>90</v>
-      </c>
       <c r="K1448" s="7" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="L1448" s="5" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1449" spans="1:12" x14ac:dyDescent="0.25">
@@ -27784,19 +27734,19 @@
         <v>990</v>
       </c>
       <c r="E1491" s="2" t="s">
-        <v>1863</v>
-      </c>
-      <c r="F1491" s="2">
-        <v>92</v>
+        <v>1870</v>
+      </c>
+      <c r="F1491" s="2" t="s">
+        <v>1862</v>
       </c>
       <c r="G1491" s="2">
         <v>80</v>
       </c>
       <c r="K1491" s="7" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="L1491" s="5" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="1492" spans="1:12" x14ac:dyDescent="0.25">
@@ -28079,10 +28029,10 @@
         <v>990</v>
       </c>
       <c r="E1511" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="F1511" s="2">
-        <v>167</v>
+        <v>1871</v>
+      </c>
+      <c r="F1511" s="2" t="s">
+        <v>1864</v>
       </c>
       <c r="G1511" s="2">
         <v>100</v>
@@ -28191,7 +28141,7 @@
         <v>6237</v>
       </c>
       <c r="B1519" s="1" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C1519" s="2" t="s">
         <v>1767</v>
@@ -28200,13 +28150,13 @@
         <v>990</v>
       </c>
       <c r="E1519" s="2" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F1519" s="2">
-        <v>54.7</v>
+        <v>1869</v>
+      </c>
+      <c r="F1519" s="2" t="s">
+        <v>1860</v>
       </c>
       <c r="L1519" s="5" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1520" spans="1:12" x14ac:dyDescent="0.25">
@@ -28699,16 +28649,19 @@
         <v>990</v>
       </c>
       <c r="E1554" s="2" t="s">
-        <v>1863</v>
-      </c>
-      <c r="F1554" s="2">
-        <v>182</v>
+        <v>1870</v>
+      </c>
+      <c r="F1554" s="2" t="s">
+        <v>1862</v>
       </c>
       <c r="G1554" s="2">
         <v>120</v>
       </c>
+      <c r="I1554" s="2">
+        <v>147</v>
+      </c>
       <c r="K1554" s="7" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1555" spans="1:11" x14ac:dyDescent="0.25">
@@ -29117,16 +29070,16 @@
         <v>990</v>
       </c>
       <c r="E1583" s="2" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F1583" s="2">
-        <v>295</v>
+        <v>1869</v>
+      </c>
+      <c r="F1583" s="2" t="s">
+        <v>1860</v>
       </c>
       <c r="G1583" s="2">
         <v>160</v>
       </c>
       <c r="K1583" s="7" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1584" spans="1:11" x14ac:dyDescent="0.25">
@@ -29772,9 +29725,6 @@
       <c r="D1629" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F1629" s="2">
-        <v>82.3</v>
-      </c>
       <c r="G1629" s="2">
         <v>70</v>
       </c>
@@ -30045,7 +29995,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1649" s="3">
         <v>8074</v>
       </c>
@@ -30059,7 +30009,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1650" s="3">
         <v>8076</v>
       </c>
@@ -30073,7 +30023,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1651" s="3">
         <v>8077</v>
       </c>
@@ -30087,7 +30037,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1652" s="3">
         <v>8080</v>
       </c>
@@ -30101,7 +30051,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1653" s="3">
         <v>8083</v>
       </c>
@@ -30115,7 +30065,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1654" s="3">
         <v>8084</v>
       </c>
@@ -30129,7 +30079,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1655" s="3">
         <v>8085</v>
       </c>
@@ -30143,7 +30093,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1656" s="3">
         <v>8086</v>
       </c>
@@ -30156,11 +30106,8 @@
       <c r="D1656" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F1656" s="2">
-        <v>113.5</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1657" s="3">
         <v>8087</v>
       </c>
@@ -30174,7 +30121,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1658" s="3">
         <v>8088</v>
       </c>
@@ -30188,7 +30135,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1659" s="3">
         <v>8091</v>
       </c>
@@ -30202,7 +30149,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1660" s="3">
         <v>8092</v>
       </c>
@@ -30216,7 +30163,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1661" s="3">
         <v>8093</v>
       </c>
@@ -30230,7 +30177,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1662" s="3">
         <v>8096</v>
       </c>
@@ -30244,7 +30191,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1663" s="3">
         <v>8097</v>
       </c>
@@ -30258,7 +30205,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1664" s="3">
         <v>8099</v>
       </c>
@@ -30577,7 +30524,7 @@
         <v>1767</v>
       </c>
       <c r="D1686" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1687" spans="1:4" x14ac:dyDescent="0.25">
@@ -31095,7 +31042,7 @@
         <v>1767</v>
       </c>
       <c r="D1723" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1724" spans="1:4" x14ac:dyDescent="0.25">
@@ -31425,7 +31372,7 @@
         <v>8089</v>
       </c>
       <c r="B1747" s="1" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C1747" s="2" t="s">
         <v>1767</v>
@@ -31434,16 +31381,16 @@
         <v>990</v>
       </c>
       <c r="E1747" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="F1747" s="2">
-        <v>75</v>
+        <v>1868</v>
+      </c>
+      <c r="F1747" s="2" t="s">
+        <v>1854</v>
       </c>
       <c r="G1747" s="2">
         <v>50</v>
       </c>
       <c r="K1747" s="7" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
   </sheetData>
@@ -31473,168 +31420,168 @@
   <sheetData>
     <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="11" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>1831</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="14" t="s">
         <v>1832</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="17" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>1838</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>1844</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="18"/>
       <c r="D27" s="19"/>
       <c r="E27" s="20" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="12" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E29" s="22">
         <v>44151</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
@@ -31642,7 +31589,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="17" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
@@ -31650,7 +31597,7 @@
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="17" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
@@ -31658,7 +31605,7 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="17" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
@@ -31666,7 +31613,7 @@
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="17" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -31674,7 +31621,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="20" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
   </sheetData>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F1D011-4696-4B31-89EB-1CA5FB7F5E29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBC8D7B-CE37-4388-86C2-A3235353619C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5450" uniqueCount="1873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5451" uniqueCount="1873">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6318,8 +6318,8 @@
   <dimension ref="A1:L1747"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A854" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I867" sqref="I867"/>
+      <pane ySplit="1" topLeftCell="A1733" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1753" sqref="K1753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10786,7 +10786,7 @@
         <v>1864</v>
       </c>
       <c r="G307" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K307" s="7" t="s">
         <v>1789</v>
@@ -10980,7 +10980,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>2397</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>2399</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>2401</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>2402</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>2404</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>2405</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>2406</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>2408</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>2409</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>2412</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>2413</v>
       </c>
@@ -11134,7 +11134,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>2414</v>
       </c>
@@ -11148,7 +11148,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>2415</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>2417</v>
       </c>
@@ -11181,11 +11181,11 @@
       <c r="F334" s="2" t="s">
         <v>1858</v>
       </c>
-      <c r="G334" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H334" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>2419</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>2420</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>31.9</v>
       </c>
       <c r="J358" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
@@ -12020,6 +12020,9 @@
       <c r="G392" s="2">
         <v>180</v>
       </c>
+      <c r="I392" s="2">
+        <v>189</v>
+      </c>
       <c r="K392" s="7" t="s">
         <v>1857</v>
       </c>
@@ -12443,6 +12446,9 @@
       <c r="D422" s="2" t="s">
         <v>990</v>
       </c>
+      <c r="E422" s="2" t="s">
+        <v>1868</v>
+      </c>
       <c r="F422" s="2" t="s">
         <v>1854</v>
       </c>
@@ -15389,7 +15395,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" s="3">
         <v>3588</v>
       </c>
@@ -15403,7 +15409,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" s="3">
         <v>3591</v>
       </c>
@@ -15417,7 +15423,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" s="3">
         <v>3593</v>
       </c>
@@ -15431,7 +15437,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" s="3">
         <v>3596</v>
       </c>
@@ -15445,7 +15451,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" s="3">
         <v>3605</v>
       </c>
@@ -15459,7 +15465,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" s="3">
         <v>3607</v>
       </c>
@@ -15473,7 +15479,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" s="3">
         <v>3617</v>
       </c>
@@ -15487,7 +15493,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" s="3">
         <v>3622</v>
       </c>
@@ -15501,7 +15507,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" s="3">
         <v>3645</v>
       </c>
@@ -15515,7 +15521,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" s="3">
         <v>3653</v>
       </c>
@@ -15529,7 +15535,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" s="3">
         <v>3661</v>
       </c>
@@ -15543,7 +15549,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" s="3">
         <v>3665</v>
       </c>
@@ -15557,7 +15563,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" s="3">
         <v>3669</v>
       </c>
@@ -15576,11 +15582,11 @@
       <c r="F637" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="G637" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H637" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" s="3">
         <v>3673</v>
       </c>
@@ -15594,7 +15600,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" s="3">
         <v>3679</v>
       </c>
@@ -15608,7 +15614,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" s="3">
         <v>3682</v>
       </c>
@@ -16831,8 +16837,8 @@
       <c r="F726" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="G726" s="2">
-        <v>120</v>
+      <c r="H726" s="2">
+        <v>165</v>
       </c>
       <c r="K726" s="7" t="s">
         <v>1811</v>
@@ -18334,7 +18340,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A833" s="3">
         <v>6464</v>
       </c>
@@ -18348,7 +18354,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A834" s="3">
         <v>6477</v>
       </c>
@@ -18362,7 +18368,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A835" s="3">
         <v>6491</v>
       </c>
@@ -18376,7 +18382,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A836" s="3">
         <v>6504</v>
       </c>
@@ -18390,7 +18396,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A837" s="3">
         <v>6505</v>
       </c>
@@ -18404,7 +18410,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A838" s="3">
         <v>6525</v>
       </c>
@@ -18418,7 +18424,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A839" s="3">
         <v>6531</v>
       </c>
@@ -18432,7 +18438,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A840" s="3">
         <v>6533</v>
       </c>
@@ -18446,7 +18452,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A841" s="3">
         <v>6541</v>
       </c>
@@ -18460,7 +18466,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A842" s="3">
         <v>6552</v>
       </c>
@@ -18474,7 +18480,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A843" s="3">
         <v>6558</v>
       </c>
@@ -18488,7 +18494,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A844" s="3">
         <v>6573</v>
       </c>
@@ -18502,7 +18508,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A845" s="3">
         <v>6579</v>
       </c>
@@ -18516,7 +18522,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A846" s="3">
         <v>6581</v>
       </c>
@@ -18530,7 +18536,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A847" s="3">
         <v>6582</v>
       </c>
@@ -18549,11 +18555,11 @@
       <c r="F847" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="G847" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H847" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A848" s="3">
         <v>6591</v>
       </c>
@@ -18853,10 +18859,7 @@
         <v>1864</v>
       </c>
       <c r="G868" s="2">
-        <v>22</v>
-      </c>
-      <c r="I868" s="2">
-        <v>26.5</v>
+        <v>25</v>
       </c>
       <c r="L868" s="8" t="s">
         <v>1813</v>
@@ -22028,8 +22031,8 @@
       <c r="F1091" s="2" t="s">
         <v>1858</v>
       </c>
-      <c r="G1091" s="2">
-        <v>40</v>
+      <c r="H1091" s="2">
+        <v>55</v>
       </c>
       <c r="K1091" s="7" t="s">
         <v>1856</v>
@@ -22659,7 +22662,7 @@
         <v>1864</v>
       </c>
       <c r="G1133" s="2">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K1133" s="7" t="s">
         <v>1790</v>
@@ -23037,6 +23040,9 @@
       <c r="G1159" s="2">
         <v>140</v>
       </c>
+      <c r="I1159" s="2">
+        <v>164</v>
+      </c>
       <c r="K1159" s="7" t="s">
         <v>1785</v>
       </c>
@@ -28655,10 +28661,7 @@
         <v>1862</v>
       </c>
       <c r="G1554" s="2">
-        <v>120</v>
-      </c>
-      <c r="I1554" s="2">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="K1554" s="7" t="s">
         <v>1786</v>
@@ -29075,8 +29078,8 @@
       <c r="F1583" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="G1583" s="2">
-        <v>160</v>
+      <c r="H1583" s="2">
+        <v>220</v>
       </c>
       <c r="K1583" s="7" t="s">
         <v>1787</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC40A74F-FEA6-4230-909F-017F8F592215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14520E59-C262-4C45-B0A4-FBB163EEE8F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="all_stock" sheetId="1" r:id="rId1"/>
     <sheet name="資訊列表" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_stock!$E$1:$E$1747</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5475" uniqueCount="1891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5489" uniqueCount="1904">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5804,10 +5807,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DRAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缺貨、漲價</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5842,11 +5841,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>觀察
-工具機</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>聯發科
 觀察</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5874,6 +5868,74 @@
   <si>
     <t>觀察
 Tesla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星
+工具機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星
+儲能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星
+軟板
+Apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星
+DRAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星
+Tesla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星
+聯發科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電源供應器</t>
+  </si>
+  <si>
+    <t>電源供應器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看戲
+PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀察
+聯發科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光學鏡頭廠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mini-LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mini LED</t>
+  </si>
+  <si>
+    <t>PCB
+電動車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高技目前各產品比重，電工50％、網通35％、車用5％、半導體10％。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6399,8 +6461,8 @@
   <dimension ref="A1:L1747"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1709" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1363" sqref="F1363"/>
+      <pane ySplit="1" topLeftCell="A1383" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1395" sqref="L1395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -8516,7 +8578,7 @@
         <v>990</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>1864</v>
@@ -9774,7 +9836,7 @@
         <v>990</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.4">
@@ -10085,7 +10147,7 @@
         <v>990</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>1862</v>
@@ -10212,7 +10274,7 @@
         <v>990</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>1854</v>
@@ -10874,7 +10936,7 @@
         <v>990</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>1864</v>
@@ -11603,6 +11665,9 @@
       <c r="D357" s="2" t="s">
         <v>990</v>
       </c>
+      <c r="E357" s="2" t="s">
+        <v>1900</v>
+      </c>
     </row>
     <row r="358" spans="1:7" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A358" s="3">
@@ -11618,7 +11683,7 @@
         <v>990</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>1854</v>
@@ -11683,7 +11748,7 @@
         <v>990</v>
       </c>
       <c r="E362" s="4" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.4">
@@ -12112,7 +12177,7 @@
         <v>990</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>1864</v>
@@ -14054,7 +14119,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:11" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A524" s="3">
         <v>3006</v>
       </c>
@@ -14067,8 +14132,8 @@
       <c r="D524" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="E524" s="2" t="s">
-        <v>1875</v>
+      <c r="E524" s="4" t="s">
+        <v>1892</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>1864</v>
@@ -14077,7 +14142,7 @@
         <v>54.5</v>
       </c>
       <c r="K524" s="7" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.4">
@@ -14163,6 +14228,9 @@
       <c r="D530" s="2" t="s">
         <v>990</v>
       </c>
+      <c r="E530" s="2" t="s">
+        <v>1895</v>
+      </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A531" s="3">
@@ -14222,6 +14290,9 @@
       <c r="D534" s="2" t="s">
         <v>990</v>
       </c>
+      <c r="E534" s="2" t="s">
+        <v>1899</v>
+      </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A535" s="3">
@@ -14512,7 +14583,7 @@
         <v>990</v>
       </c>
       <c r="E554" s="4" t="s">
-        <v>1885</v>
+        <v>1894</v>
       </c>
       <c r="F554" s="2" t="s">
         <v>1862</v>
@@ -15667,7 +15738,7 @@
         <v>990</v>
       </c>
       <c r="E635" s="2" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.4">
@@ -16225,7 +16296,7 @@
         <v>990</v>
       </c>
       <c r="E674" s="4" t="s">
-        <v>1884</v>
+        <v>1889</v>
       </c>
       <c r="F674" s="2" t="s">
         <v>1862</v>
@@ -17568,7 +17639,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A769" s="3">
         <v>6120</v>
       </c>
@@ -17582,7 +17653,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A770" s="3">
         <v>6128</v>
       </c>
@@ -17596,7 +17667,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A771" s="3">
         <v>6133</v>
       </c>
@@ -17610,7 +17681,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A772" s="3">
         <v>6136</v>
       </c>
@@ -17624,7 +17695,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A773" s="3">
         <v>6139</v>
       </c>
@@ -17638,7 +17709,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A774" s="3">
         <v>6141</v>
       </c>
@@ -17652,7 +17723,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A775" s="3">
         <v>6142</v>
       </c>
@@ -17666,7 +17737,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A776" s="3">
         <v>6152</v>
       </c>
@@ -17680,7 +17751,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:5" ht="46.3" x14ac:dyDescent="0.4">
       <c r="A777" s="3">
         <v>6153</v>
       </c>
@@ -17693,8 +17764,11 @@
       <c r="D777" s="2" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E777" s="4" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A778" s="3">
         <v>6155</v>
       </c>
@@ -17708,7 +17782,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A779" s="3">
         <v>6164</v>
       </c>
@@ -17722,7 +17796,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A780" s="3">
         <v>6165</v>
       </c>
@@ -17736,7 +17810,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A781" s="3">
         <v>6166</v>
       </c>
@@ -17750,7 +17824,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A782" s="3">
         <v>6168</v>
       </c>
@@ -17764,7 +17838,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A783" s="3">
         <v>6172</v>
       </c>
@@ -17778,7 +17852,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A784" s="3">
         <v>6176</v>
       </c>
@@ -17792,7 +17866,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A785" s="3">
         <v>6177</v>
       </c>
@@ -17806,7 +17880,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A786" s="3">
         <v>6183</v>
       </c>
@@ -17820,7 +17894,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A787" s="3">
         <v>6184</v>
       </c>
@@ -17834,7 +17908,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A788" s="3">
         <v>6189</v>
       </c>
@@ -17848,7 +17922,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A789" s="3">
         <v>6191</v>
       </c>
@@ -17862,7 +17936,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A790" s="3">
         <v>6192</v>
       </c>
@@ -17876,7 +17950,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A791" s="3">
         <v>6196</v>
       </c>
@@ -17890,7 +17964,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A792" s="3">
         <v>6197</v>
       </c>
@@ -17904,7 +17978,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A793" s="3">
         <v>6201</v>
       </c>
@@ -17918,7 +17992,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A794" s="3">
         <v>6202</v>
       </c>
@@ -17932,7 +18006,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:5" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A795" s="3">
         <v>6205</v>
       </c>
@@ -17945,8 +18019,11 @@
       <c r="D795" s="2" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E795" s="4" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A796" s="3">
         <v>6206</v>
       </c>
@@ -17960,7 +18037,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A797" s="3">
         <v>6209</v>
       </c>
@@ -17974,7 +18051,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A798" s="3">
         <v>6213</v>
       </c>
@@ -17988,7 +18065,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A799" s="3">
         <v>6214</v>
       </c>
@@ -18002,7 +18079,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A800" s="3">
         <v>6215</v>
       </c>
@@ -18422,7 +18499,7 @@
         <v>990</v>
       </c>
       <c r="E829" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="F829" s="2" t="s">
         <v>1864</v>
@@ -18706,7 +18783,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A849" s="3">
         <v>6592</v>
       </c>
@@ -18720,7 +18797,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A850" s="3">
         <v>6598</v>
       </c>
@@ -18734,7 +18811,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A851" s="3">
         <v>6605</v>
       </c>
@@ -18748,7 +18825,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A852" s="3">
         <v>6625</v>
       </c>
@@ -18762,7 +18839,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A853" s="3">
         <v>6641</v>
       </c>
@@ -18776,7 +18853,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A854" s="3">
         <v>6655</v>
       </c>
@@ -18790,7 +18867,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A855" s="3">
         <v>6666</v>
       </c>
@@ -18804,7 +18881,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A856" s="3">
         <v>6668</v>
       </c>
@@ -18818,7 +18895,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A857" s="3">
         <v>6669</v>
       </c>
@@ -18832,7 +18909,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A858" s="3">
         <v>6670</v>
       </c>
@@ -18846,7 +18923,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A859" s="3">
         <v>6671</v>
       </c>
@@ -18860,7 +18937,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A860" s="3">
         <v>6672</v>
       </c>
@@ -18874,7 +18951,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A861" s="3">
         <v>6674</v>
       </c>
@@ -18888,7 +18965,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A862" s="3">
         <v>6698</v>
       </c>
@@ -18902,7 +18979,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A863" s="3">
         <v>6706</v>
       </c>
@@ -18915,8 +18992,11 @@
       <c r="D863" s="2" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E863" s="2" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A864" s="3">
         <v>6715</v>
       </c>
@@ -21410,6 +21490,9 @@
       <c r="D1038" s="2" t="s">
         <v>990</v>
       </c>
+      <c r="E1038" s="2" t="s">
+        <v>1896</v>
+      </c>
       <c r="K1038" s="7" t="s">
         <v>1853</v>
       </c>
@@ -22752,6 +22835,9 @@
       <c r="D1130" s="2" t="s">
         <v>990</v>
       </c>
+      <c r="E1130" s="2" t="s">
+        <v>1895</v>
+      </c>
     </row>
     <row r="1131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1131" s="3">
@@ -23100,6 +23186,9 @@
       <c r="D1154" s="2" t="s">
         <v>990</v>
       </c>
+      <c r="E1154" s="2" t="s">
+        <v>1895</v>
+      </c>
     </row>
     <row r="1155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1155" s="3">
@@ -23171,7 +23260,7 @@
         <v>990</v>
       </c>
       <c r="E1159" s="4" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="F1159" s="2" t="s">
         <v>1862</v>
@@ -23934,7 +24023,7 @@
         <v>990</v>
       </c>
       <c r="E1212" s="4" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="F1212" s="2" t="s">
         <v>1854</v>
@@ -26097,7 +26186,7 @@
         <v>990</v>
       </c>
       <c r="E1365" s="4" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="F1365" s="2" t="s">
         <v>1864</v>
@@ -26493,7 +26582,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1393" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1393" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1393" s="3">
         <v>5438</v>
       </c>
@@ -26507,7 +26596,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1394" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1394" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A1394" s="3">
         <v>5439</v>
       </c>
@@ -26520,8 +26609,14 @@
       <c r="D1394" s="2" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="1395" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1394" s="4" t="s">
+        <v>1902</v>
+      </c>
+      <c r="L1394" s="5" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1395" s="3">
         <v>5443</v>
       </c>
@@ -26535,7 +26630,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1396" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1396" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1396" s="3">
         <v>5450</v>
       </c>
@@ -26549,7 +26644,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1397" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1397" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1397" s="3">
         <v>5452</v>
       </c>
@@ -26563,7 +26658,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1398" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1398" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1398" s="3">
         <v>5455</v>
       </c>
@@ -26577,7 +26672,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1399" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1399" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1399" s="3">
         <v>5457</v>
       </c>
@@ -26591,7 +26686,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1400" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1400" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1400" s="3">
         <v>5460</v>
       </c>
@@ -26605,7 +26700,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1401" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1401" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1401" s="3">
         <v>5464</v>
       </c>
@@ -26619,7 +26714,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1402" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1402" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1402" s="3">
         <v>5465</v>
       </c>
@@ -26633,7 +26728,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1403" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1403" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1403" s="3">
         <v>5468</v>
       </c>
@@ -26647,7 +26742,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1404" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1404" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1404" s="3">
         <v>5474</v>
       </c>
@@ -26661,7 +26756,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1405" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1405" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1405" s="3">
         <v>5475</v>
       </c>
@@ -26675,7 +26770,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1406" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1406" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1406" s="3">
         <v>5478</v>
       </c>
@@ -26689,7 +26784,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1407" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1407" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1407" s="3">
         <v>5481</v>
       </c>
@@ -26703,7 +26798,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1408" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1408" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1408" s="3">
         <v>5483</v>
       </c>
@@ -28017,6 +28112,9 @@
       <c r="D1499" s="2" t="s">
         <v>990</v>
       </c>
+      <c r="E1499" s="2" t="s">
+        <v>1895</v>
+      </c>
     </row>
     <row r="1500" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1500" s="3">
@@ -28172,7 +28270,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1511" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1511" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A1511" s="3">
         <v>6223</v>
       </c>
@@ -28185,8 +28283,8 @@
       <c r="D1511" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="E1511" s="2" t="s">
-        <v>1871</v>
+      <c r="E1511" s="4" t="s">
+        <v>1898</v>
       </c>
       <c r="F1511" s="2" t="s">
         <v>1864</v>
@@ -28251,7 +28349,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1516" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1516" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A1516" s="3">
         <v>6233</v>
       </c>
@@ -28263,6 +28361,9 @@
       </c>
       <c r="D1516" s="2" t="s">
         <v>990</v>
+      </c>
+      <c r="E1516" s="4" t="s">
+        <v>1897</v>
       </c>
     </row>
     <row r="1517" spans="1:12" x14ac:dyDescent="0.4">
@@ -28306,8 +28407,8 @@
       <c r="D1519" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="E1519" s="2" t="s">
-        <v>1869</v>
+      <c r="E1519" s="4" t="s">
+        <v>1897</v>
       </c>
       <c r="F1519" s="2" t="s">
         <v>1860</v>
@@ -28792,7 +28893,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1554" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1554" spans="1:11" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A1554" s="3">
         <v>6441</v>
       </c>
@@ -28805,8 +28906,8 @@
       <c r="D1554" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="E1554" s="2" t="s">
-        <v>1870</v>
+      <c r="E1554" s="4" t="s">
+        <v>1890</v>
       </c>
       <c r="F1554" s="2" t="s">
         <v>1862</v>
@@ -30149,7 +30250,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1649" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1649" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1649" s="3">
         <v>8074</v>
       </c>
@@ -30163,7 +30264,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1650" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1650" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1650" s="3">
         <v>8076</v>
       </c>
@@ -30177,7 +30278,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1651" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1651" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1651" s="3">
         <v>8077</v>
       </c>
@@ -30191,7 +30292,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1652" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1652" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1652" s="3">
         <v>8080</v>
       </c>
@@ -30205,7 +30306,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1653" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1653" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1653" s="3">
         <v>8083</v>
       </c>
@@ -30219,7 +30320,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1654" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1654" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1654" s="3">
         <v>8084</v>
       </c>
@@ -30233,7 +30334,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1655" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1655" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1655" s="3">
         <v>8085</v>
       </c>
@@ -30247,7 +30348,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1656" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1656" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1656" s="3">
         <v>8086</v>
       </c>
@@ -30261,7 +30362,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1657" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1657" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1657" s="3">
         <v>8087</v>
       </c>
@@ -30275,7 +30376,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1658" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1658" spans="1:5" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A1658" s="3">
         <v>8088</v>
       </c>
@@ -30288,8 +30389,11 @@
       <c r="D1658" s="2" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="1659" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1658" s="4" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1659" s="3">
         <v>8091</v>
       </c>
@@ -30303,7 +30407,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1660" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1660" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1660" s="3">
         <v>8092</v>
       </c>
@@ -30317,7 +30421,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1661" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1661" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1661" s="3">
         <v>8093</v>
       </c>
@@ -30331,7 +30435,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1662" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1662" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1662" s="3">
         <v>8096</v>
       </c>
@@ -30345,7 +30449,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1663" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1663" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1663" s="3">
         <v>8097</v>
       </c>
@@ -30359,7 +30463,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="1664" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1664" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1664" s="3">
         <v>8099</v>
       </c>
@@ -31548,6 +31652,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E1747" xr:uid="{2F1487F7-FEF7-4959-96DB-8EDFACEF03FB}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDEEEF5-F531-4EDA-B292-A5A9CB04FB26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE2BAEB-77A2-41D0-82A4-528498892EE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5571" uniqueCount="1918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5574" uniqueCount="1920">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6001,6 +6001,13 @@
   <si>
     <t>健身品牌
 美國出貨公司大跌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽車</t>
+  </si>
+  <si>
+    <t>汽車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6525,9 +6532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1747"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L143" sqref="L143"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E251" sqref="E251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -10140,6 +10147,9 @@
       <c r="D246" s="2" t="s">
         <v>989</v>
       </c>
+      <c r="E246" s="2" t="s">
+        <v>1918</v>
+      </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A247" s="3">
@@ -10154,6 +10164,9 @@
       <c r="D247" s="2" t="s">
         <v>989</v>
       </c>
+      <c r="E247" s="2" t="s">
+        <v>1918</v>
+      </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A248" s="3">
@@ -10183,7 +10196,7 @@
         <v>989</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>1906</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.4">
@@ -10213,6 +10226,9 @@
       <c r="D251" s="2" t="s">
         <v>989</v>
       </c>
+      <c r="E251" s="2" t="s">
+        <v>1918</v>
+      </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A252" s="3">
@@ -11403,7 +11419,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="77.150000000000006" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:12" ht="61.75" x14ac:dyDescent="0.4">
       <c r="A332" s="3">
         <v>2414</v>
       </c>
@@ -14277,9 +14293,6 @@
       </c>
       <c r="G524" s="2">
         <v>55</v>
-      </c>
-      <c r="I524" s="2">
-        <v>59</v>
       </c>
       <c r="K524" s="7" t="s">
         <v>1869</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A204F7B3-CD62-47DA-B885-22D407738AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5036B329-ECFE-419E-BFFD-16B431A7A1FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6618,8 +6618,8 @@
   <dimension ref="A1:L1747"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1443" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1450" sqref="E1450"/>
+      <pane ySplit="1" topLeftCell="A1738" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1747" sqref="G1747"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -6696,7 +6696,7 @@
         <v>1850</v>
       </c>
       <c r="G2" s="2">
-        <v>40.5</v>
+        <v>41</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>1776</v>
@@ -11945,7 +11945,7 @@
         <v>1850</v>
       </c>
       <c r="G358" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.4">
@@ -12892,7 +12892,7 @@
         <v>1850</v>
       </c>
       <c r="G422" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.4">
@@ -27640,6 +27640,9 @@
       <c r="E1429" s="2" t="s">
         <v>1863</v>
       </c>
+      <c r="G1429" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="1430" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1430" s="3">
@@ -32255,7 +32258,7 @@
         <v>1850</v>
       </c>
       <c r="G1747" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K1747" s="7" t="s">
         <v>1803</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DDADCC-638E-41FE-94B5-671D216FE4D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A402108F-844A-4BAB-BAB7-55859516CA17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="180" windowWidth="21150" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_stock" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5645" uniqueCount="1952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5638" uniqueCount="1950">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5380,31 +5380,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定存股,傳產</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定存股,傳產,水資源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定存股,食品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳產</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>綠能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TESLA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5446,11 +5422,6 @@
   </si>
   <si>
     <t>台積電</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博奕
-長線</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5986,12 +5957,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>核心
-車用
-Teals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電腦選
 矽晶圓</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6147,6 +6112,38 @@
   </si>
   <si>
     <t>電機機械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDR5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房室回溫
+2020 營收沒衰退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博奕
+長線
+月營收 7.5E
+單月EPS 5塊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心
+Tesla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月 EPS 0.9
+10月 EPS 1.08
+11月營收新高
+2021 EPS上看15塊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6672,8 +6669,8 @@
   <dimension ref="A1:L1747"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
+      <pane ySplit="1" topLeftCell="A1100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1109" sqref="K1109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6687,7 +6684,7 @@
     <col min="7" max="7" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="7" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="7" customWidth="1"/>
     <col min="12" max="12" width="48.42578125" style="5" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -6706,22 +6703,22 @@
         <v>1771</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1942</v>
+        <v>1934</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1854</v>
+        <v>1847</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>1812</v>
+        <v>1805</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>1860</v>
+        <v>1853</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1793</v>
+        <v>1786</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>1765</v>
@@ -6730,7 +6727,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1101</v>
       </c>
@@ -6744,16 +6741,16 @@
         <v>988</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1862</v>
+        <v>1855</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="G2" s="2">
         <v>41</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>1775</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6769,9 +6766,6 @@
       <c r="D3" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>1775</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -6786,9 +6780,6 @@
       <c r="D4" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>1778</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -6803,11 +6794,8 @@
       <c r="D5" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1108</v>
       </c>
@@ -6819,9 +6807,6 @@
       </c>
       <c r="D6" s="2" t="s">
         <v>988</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -6879,9 +6864,6 @@
       <c r="D10" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>1779</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -6896,9 +6878,6 @@
       <c r="D11" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>1777</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -6927,9 +6906,6 @@
       <c r="D13" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>1777</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -6944,9 +6920,6 @@
       <c r="D14" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>1777</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -6967,7 +6940,7 @@
         <v>1218</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1898</v>
+        <v>1891</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -6976,7 +6949,7 @@
         <v>988</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1943</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -7007,7 +6980,7 @@
         <v>988</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1943</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -7080,7 +7053,7 @@
         <v>988</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1944</v>
+        <v>1936</v>
       </c>
       <c r="G23" s="2">
         <v>100</v>
@@ -7425,10 +7398,10 @@
         <v>988</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1936</v>
+        <v>1928</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>1853</v>
+        <v>1846</v>
       </c>
       <c r="H47" s="2">
         <v>120</v>
@@ -7546,16 +7519,16 @@
         <v>988</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>1945</v>
+        <v>1937</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="G55" s="2">
         <v>9.5</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>1803</v>
+        <v>1796</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>1774</v>
@@ -8070,7 +8043,7 @@
         <v>1466</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>4</v>
@@ -8079,16 +8052,16 @@
         <v>988</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>1933</v>
+        <v>1925</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>1855</v>
+        <v>1848</v>
       </c>
       <c r="H92" s="2">
         <v>20</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>1856</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -8245,7 +8218,7 @@
         <v>988</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>1951</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -8262,7 +8235,7 @@
         <v>988</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>1951</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -8293,13 +8266,13 @@
         <v>988</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>1946</v>
+        <v>1938</v>
       </c>
       <c r="G106" s="2">
         <v>50</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>1947</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -8330,17 +8303,17 @@
         <v>988</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>1948</v>
+        <v>1940</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="G108" s="2">
         <v>46</v>
       </c>
       <c r="K108" s="5"/>
       <c r="L108" s="5" t="s">
-        <v>1858</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -8357,7 +8330,7 @@
         <v>988</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>1946</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -8374,7 +8347,7 @@
         <v>988</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -8405,7 +8378,7 @@
         <v>988</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>1927</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -8492,7 +8465,7 @@
         <v>988</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>1927</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -8593,7 +8566,7 @@
         <v>988</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -8792,7 +8765,7 @@
         <v>988</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -8837,16 +8810,16 @@
         <v>988</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>1855</v>
+        <v>1848</v>
       </c>
       <c r="G142" s="2">
         <v>110</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -9213,7 +9186,7 @@
         <v>988</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -10098,7 +10071,7 @@
         <v>988</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -10255,7 +10228,7 @@
         <v>988</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>1934</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
@@ -10314,7 +10287,7 @@
         <v>988</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -10331,7 +10304,7 @@
         <v>988</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
@@ -10362,7 +10335,7 @@
         <v>988</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>1907</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
@@ -10393,7 +10366,7 @@
         <v>988</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -10424,19 +10397,19 @@
         <v>988</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="G253" s="2">
         <v>160</v>
       </c>
       <c r="K253" s="7" t="s">
-        <v>1804</v>
+        <v>1797</v>
       </c>
       <c r="L253" s="5" t="s">
-        <v>1795</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
@@ -10551,10 +10524,10 @@
         <v>988</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>1918</v>
+        <v>1910</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="G261" s="2">
         <v>35</v>
@@ -10588,7 +10561,7 @@
         <v>988</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -10619,7 +10592,7 @@
         <v>988</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -10664,7 +10637,7 @@
         <v>988</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>1922</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -10723,7 +10696,7 @@
         <v>988</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
       <c r="G272" s="2">
         <v>420</v>
@@ -10771,7 +10744,7 @@
         <v>988</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>1917</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -10886,7 +10859,7 @@
         <v>988</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>1938</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -10903,7 +10876,7 @@
         <v>988</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>1937</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -10976,7 +10949,7 @@
         <v>988</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -11035,7 +11008,7 @@
         <v>988</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -11164,7 +11137,7 @@
         <v>988</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -11195,7 +11168,7 @@
         <v>988</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>1928</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
@@ -11231,7 +11204,7 @@
         <v>2375</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>4</v>
@@ -11240,19 +11213,19 @@
         <v>988</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>1872</v>
+        <v>1865</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="G307" s="2">
         <v>60</v>
       </c>
       <c r="K307" s="7" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="L307" s="5" t="s">
-        <v>1796</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
@@ -11283,7 +11256,7 @@
         <v>988</v>
       </c>
       <c r="L309" s="5" t="s">
-        <v>1809</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
@@ -11300,7 +11273,7 @@
         <v>988</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
@@ -11373,7 +11346,7 @@
         <v>988</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
@@ -11575,7 +11548,7 @@
         <v>988</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>1923</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
@@ -11592,7 +11565,7 @@
         <v>988</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>1920</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
@@ -11623,13 +11596,13 @@
         <v>988</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="L332" s="5" t="s">
-        <v>1900</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
@@ -11660,10 +11633,10 @@
         <v>988</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>1853</v>
+        <v>1846</v>
       </c>
       <c r="H334" s="2">
         <v>60</v>
@@ -11711,7 +11684,7 @@
         <v>988</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>1879</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -11826,7 +11799,7 @@
         <v>988</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>1937</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -11941,7 +11914,7 @@
         <v>988</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>1902</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -12000,7 +11973,7 @@
         <v>988</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>1882</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -12017,10 +11990,10 @@
         <v>988</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>1871</v>
+        <v>1864</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="G358" s="2">
         <v>32</v>
@@ -12082,7 +12055,7 @@
         <v>988</v>
       </c>
       <c r="E362" s="4" t="s">
-        <v>1941</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -12113,7 +12086,7 @@
         <v>988</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -12144,7 +12117,7 @@
         <v>988</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -12301,7 +12274,7 @@
         <v>988</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>1930</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
@@ -12360,7 +12333,7 @@
         <v>988</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
@@ -12391,13 +12364,13 @@
         <v>988</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
       <c r="I383" s="2">
         <v>46.6</v>
       </c>
       <c r="L383" s="5" t="s">
-        <v>1901</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
@@ -12470,7 +12443,7 @@
         <v>988</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
@@ -12529,16 +12502,16 @@
         <v>988</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>1870</v>
+        <v>1863</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="G392" s="2">
         <v>190</v>
       </c>
       <c r="K392" s="7" t="s">
-        <v>1852</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
@@ -12597,7 +12570,7 @@
         <v>988</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
@@ -12754,7 +12727,7 @@
         <v>988</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -12967,10 +12940,10 @@
         <v>988</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>1862</v>
+        <v>1855</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="G422" s="2">
         <v>46</v>
@@ -13536,16 +13509,16 @@
         <v>988</v>
       </c>
       <c r="E462" s="4" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="F462" s="2" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="G462" s="2">
         <v>32</v>
       </c>
       <c r="K462" s="7" t="s">
-        <v>1803</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
@@ -13800,19 +13773,19 @@
         <v>988</v>
       </c>
       <c r="E480" s="4" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
       <c r="G480" s="2">
         <v>15.5</v>
       </c>
       <c r="K480" s="7" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
       <c r="L480" s="5" t="s">
-        <v>1798</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.25">
@@ -13829,7 +13802,7 @@
         <v>988</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.25">
@@ -13874,19 +13847,19 @@
         <v>988</v>
       </c>
       <c r="E484" s="4" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="F484" s="2" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
       <c r="G484" s="2">
         <v>30</v>
       </c>
       <c r="K484" s="7" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
       <c r="L484" s="5" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.25">
@@ -13945,19 +13918,19 @@
         <v>988</v>
       </c>
       <c r="E488" s="4" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="F488" s="2" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
       <c r="G488" s="2">
         <v>20</v>
       </c>
       <c r="K488" s="7" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
       <c r="L488" s="5" t="s">
-        <v>1801</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.25">
@@ -13974,19 +13947,19 @@
         <v>988</v>
       </c>
       <c r="E489" s="4" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
       <c r="G489" s="2">
         <v>14</v>
       </c>
       <c r="K489" s="7" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
       <c r="L489" s="5" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.25">
@@ -14003,19 +13976,19 @@
         <v>988</v>
       </c>
       <c r="E490" s="4" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="F490" s="2" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
       <c r="G490" s="2">
         <v>23.5</v>
       </c>
       <c r="K490" s="7" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
       <c r="L490" s="5" t="s">
-        <v>1799</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.25">
@@ -14256,7 +14229,7 @@
         <v>988</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
@@ -14329,7 +14302,7 @@
         <v>988</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>1890</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
@@ -14346,7 +14319,7 @@
         <v>988</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>1890</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
@@ -14503,16 +14476,16 @@
         <v>988</v>
       </c>
       <c r="E524" s="4" t="s">
-        <v>1876</v>
+        <v>1869</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="G524" s="2">
         <v>55</v>
       </c>
       <c r="K524" s="7" t="s">
-        <v>1865</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
@@ -14529,7 +14502,7 @@
         <v>988</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>1949</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
@@ -14588,7 +14561,7 @@
         <v>988</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -14605,7 +14578,7 @@
         <v>988</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>1879</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
@@ -14636,7 +14609,7 @@
         <v>988</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
@@ -14667,7 +14640,7 @@
         <v>988</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>1881</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
@@ -14712,7 +14685,7 @@
         <v>988</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
@@ -14771,7 +14744,7 @@
         <v>988</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>1879</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
@@ -14802,7 +14775,7 @@
         <v>988</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -14875,7 +14848,7 @@
         <v>988</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.25">
@@ -14920,10 +14893,10 @@
         <v>988</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
       <c r="F551" s="2" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="G551" s="2">
         <v>78</v>
@@ -14971,16 +14944,16 @@
         <v>988</v>
       </c>
       <c r="E554" s="4" t="s">
-        <v>1878</v>
+        <v>1871</v>
       </c>
       <c r="F554" s="2" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="G554" s="2">
         <v>29</v>
       </c>
       <c r="L554" s="5" t="s">
-        <v>1805</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.25">
@@ -15039,7 +15012,7 @@
         <v>988</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>1920</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.25">
@@ -15336,7 +15309,7 @@
         <v>988</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
@@ -15591,7 +15564,7 @@
         <v>988</v>
       </c>
       <c r="E597" s="2" t="s">
-        <v>1949</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
@@ -15720,7 +15693,7 @@
         <v>988</v>
       </c>
       <c r="E606" s="2" t="s">
-        <v>1924</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
@@ -15779,7 +15752,7 @@
         <v>988</v>
       </c>
       <c r="E610" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
@@ -15855,7 +15828,7 @@
         <v>988</v>
       </c>
       <c r="E615" s="4" t="s">
-        <v>1939</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
@@ -15970,7 +15943,7 @@
         <v>988</v>
       </c>
       <c r="K623" s="7" t="s">
-        <v>1780</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
@@ -16127,7 +16100,7 @@
         <v>988</v>
       </c>
       <c r="E634" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.25">
@@ -16144,7 +16117,7 @@
         <v>988</v>
       </c>
       <c r="E635" s="2" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.25">
@@ -16175,10 +16148,10 @@
         <v>988</v>
       </c>
       <c r="E637" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F637" s="2" t="s">
         <v>1848</v>
-      </c>
-      <c r="F637" s="2" t="s">
-        <v>1855</v>
       </c>
       <c r="H637" s="2">
         <v>100</v>
@@ -16226,7 +16199,7 @@
         <v>988</v>
       </c>
       <c r="E640" s="2" t="s">
-        <v>1920</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
@@ -16299,7 +16272,7 @@
         <v>988</v>
       </c>
       <c r="E645" s="2" t="s">
-        <v>1937</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
@@ -16386,7 +16359,7 @@
         <v>988</v>
       </c>
       <c r="E651" s="2" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
@@ -16473,7 +16446,7 @@
         <v>988</v>
       </c>
       <c r="E657" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
       <c r="G657" s="2">
         <v>115</v>
@@ -16717,10 +16690,10 @@
         <v>988</v>
       </c>
       <c r="E674" s="4" t="s">
-        <v>1873</v>
+        <v>1866</v>
       </c>
       <c r="F674" s="2" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="G674" s="2">
         <v>45</v>
@@ -17076,7 +17049,7 @@
         <v>988</v>
       </c>
       <c r="E699" s="2" t="s">
-        <v>1920</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
@@ -17149,7 +17122,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A705" s="3">
         <v>4927</v>
       </c>
@@ -17163,7 +17136,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A706" s="3">
         <v>4930</v>
       </c>
@@ -17177,7 +17150,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A707" s="3">
         <v>4934</v>
       </c>
@@ -17191,10 +17164,10 @@
         <v>988</v>
       </c>
       <c r="E707" s="2" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A708" s="3">
         <v>4935</v>
       </c>
@@ -17208,7 +17181,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A709" s="3">
         <v>4938</v>
       </c>
@@ -17222,7 +17195,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A710" s="3">
         <v>4942</v>
       </c>
@@ -17236,7 +17209,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A711" s="3">
         <v>4943</v>
       </c>
@@ -17250,7 +17223,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A712" s="3">
         <v>4952</v>
       </c>
@@ -17264,7 +17237,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A713" s="3">
         <v>4956</v>
       </c>
@@ -17278,7 +17251,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A714" s="3">
         <v>4958</v>
       </c>
@@ -17292,7 +17265,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A715" s="3">
         <v>4960</v>
       </c>
@@ -17306,7 +17279,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A716" s="3">
         <v>4961</v>
       </c>
@@ -17320,10 +17293,10 @@
         <v>988</v>
       </c>
       <c r="E716" s="2" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A717" s="3">
         <v>4967</v>
       </c>
@@ -17336,11 +17309,14 @@
       <c r="D717" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="E717" s="2" t="s">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E717" s="4" t="s">
+        <v>1945</v>
+      </c>
+      <c r="L717" s="5" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A718" s="3">
         <v>4968</v>
       </c>
@@ -17354,10 +17330,10 @@
         <v>988</v>
       </c>
       <c r="E718" s="2" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A719" s="3">
         <v>4976</v>
       </c>
@@ -17371,10 +17347,10 @@
         <v>988</v>
       </c>
       <c r="E719" s="2" t="s">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A720" s="3">
         <v>4977</v>
       </c>
@@ -17416,7 +17392,7 @@
         <v>988</v>
       </c>
       <c r="E722" s="2" t="s">
-        <v>1888</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="723" spans="1:12" x14ac:dyDescent="0.25">
@@ -17475,19 +17451,19 @@
         <v>988</v>
       </c>
       <c r="E726" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F726" s="2" t="s">
         <v>1848</v>
-      </c>
-      <c r="F726" s="2" t="s">
-        <v>1855</v>
       </c>
       <c r="H726" s="2">
         <v>160</v>
       </c>
       <c r="K726" s="7" t="s">
-        <v>1806</v>
+        <v>1799</v>
       </c>
       <c r="L726" s="5" t="s">
-        <v>1807</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="727" spans="1:12" x14ac:dyDescent="0.25">
@@ -17913,10 +17889,10 @@
         <v>988</v>
       </c>
       <c r="E756" s="4" t="s">
-        <v>1929</v>
+        <v>1921</v>
       </c>
       <c r="F756" s="2" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="G756" s="2">
         <v>130</v>
@@ -18048,7 +18024,7 @@
         <v>988</v>
       </c>
       <c r="E765" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.25">
@@ -18079,7 +18055,7 @@
         <v>988</v>
       </c>
       <c r="E767" s="2" t="s">
-        <v>1924</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.25">
@@ -18222,7 +18198,7 @@
         <v>988</v>
       </c>
       <c r="E777" s="4" t="s">
-        <v>1875</v>
+        <v>1868</v>
       </c>
       <c r="G777" s="2">
         <v>34</v>
@@ -18354,13 +18330,13 @@
         <v>988</v>
       </c>
       <c r="E786" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
       <c r="G786" s="2">
         <v>45</v>
       </c>
       <c r="L786" s="5" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="787" spans="1:12" x14ac:dyDescent="0.25">
@@ -18405,7 +18381,7 @@
         <v>988</v>
       </c>
       <c r="E789" s="2" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="790" spans="1:12" x14ac:dyDescent="0.25">
@@ -18492,7 +18468,7 @@
         <v>988</v>
       </c>
       <c r="E795" s="4" t="s">
-        <v>1877</v>
+        <v>1870</v>
       </c>
       <c r="G795" s="2">
         <v>42</v>
@@ -18526,7 +18502,7 @@
         <v>988</v>
       </c>
       <c r="E797" s="2" t="s">
-        <v>1949</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="798" spans="1:12" x14ac:dyDescent="0.25">
@@ -18711,7 +18687,7 @@
         <v>988</v>
       </c>
       <c r="E810" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="811" spans="1:12" x14ac:dyDescent="0.25">
@@ -18742,10 +18718,10 @@
         <v>988</v>
       </c>
       <c r="E812" s="2" t="s">
-        <v>1902</v>
+        <v>1895</v>
       </c>
       <c r="L812" s="5" t="s">
-        <v>1903</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="813" spans="1:12" x14ac:dyDescent="0.25">
@@ -18776,7 +18752,7 @@
         <v>988</v>
       </c>
       <c r="E814" s="2" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="815" spans="1:12" x14ac:dyDescent="0.25">
@@ -18793,7 +18769,7 @@
         <v>988</v>
       </c>
       <c r="E815" s="2" t="s">
-        <v>1937</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="816" spans="1:12" x14ac:dyDescent="0.25">
@@ -18838,7 +18814,7 @@
         <v>988</v>
       </c>
       <c r="E818" s="2" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.25">
@@ -18939,7 +18915,7 @@
         <v>988</v>
       </c>
       <c r="E825" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.25">
@@ -18998,10 +18974,10 @@
         <v>988</v>
       </c>
       <c r="E829" s="4" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="F829" s="2" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="G829" s="2">
         <v>30</v>
@@ -19259,10 +19235,10 @@
         <v>988</v>
       </c>
       <c r="E847" s="2" t="s">
-        <v>1934</v>
+        <v>1926</v>
       </c>
       <c r="F847" s="2" t="s">
-        <v>1855</v>
+        <v>1848</v>
       </c>
       <c r="H847" s="2">
         <v>190</v>
@@ -19282,7 +19258,7 @@
         <v>988</v>
       </c>
       <c r="E848" s="2" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="849" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -19299,7 +19275,7 @@
         <v>988</v>
       </c>
       <c r="E849" s="4" t="s">
-        <v>1929</v>
+        <v>1921</v>
       </c>
       <c r="G849" s="2">
         <v>65</v>
@@ -19417,7 +19393,7 @@
         <v>988</v>
       </c>
       <c r="E857" s="2" t="s">
-        <v>1904</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.25">
@@ -19504,7 +19480,7 @@
         <v>988</v>
       </c>
       <c r="E863" s="2" t="s">
-        <v>1883</v>
+        <v>1876</v>
       </c>
       <c r="G863" s="2">
         <v>140</v>
@@ -19580,16 +19556,16 @@
         <v>988</v>
       </c>
       <c r="E868" s="4" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="F868" s="2" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="G868" s="2">
         <v>25</v>
       </c>
       <c r="L868" s="8" t="s">
-        <v>1808</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="869" spans="1:12" x14ac:dyDescent="0.25">
@@ -19606,10 +19582,10 @@
         <v>988</v>
       </c>
       <c r="E869" s="2" t="s">
-        <v>1930</v>
+        <v>1922</v>
       </c>
       <c r="L869" s="5" t="s">
-        <v>1931</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="870" spans="1:12" x14ac:dyDescent="0.25">
@@ -19654,7 +19630,7 @@
         <v>988</v>
       </c>
       <c r="E872" s="2" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="873" spans="1:12" x14ac:dyDescent="0.25">
@@ -19699,7 +19675,7 @@
         <v>988</v>
       </c>
       <c r="E875" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="876" spans="1:12" x14ac:dyDescent="0.25">
@@ -19721,7 +19697,7 @@
         <v>8103</v>
       </c>
       <c r="B877" s="1" t="s">
-        <v>1932</v>
+        <v>1924</v>
       </c>
       <c r="C877" s="2" t="s">
         <v>4</v>
@@ -19730,10 +19706,10 @@
         <v>988</v>
       </c>
       <c r="E877" s="2" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
       <c r="F877" s="2" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="878" spans="1:12" x14ac:dyDescent="0.25">
@@ -19988,7 +19964,7 @@
         <v>988</v>
       </c>
       <c r="E895" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.25">
@@ -20117,7 +20093,7 @@
         <v>988</v>
       </c>
       <c r="E904" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.25">
@@ -20302,7 +20278,7 @@
         <v>988</v>
       </c>
       <c r="E917" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.25">
@@ -20683,7 +20659,7 @@
         <v>988</v>
       </c>
       <c r="E944" s="2" t="s">
-        <v>1927</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.25">
@@ -20728,7 +20704,7 @@
         <v>988</v>
       </c>
       <c r="E947" s="2" t="s">
-        <v>1935</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.25">
@@ -20745,7 +20721,7 @@
         <v>988</v>
       </c>
       <c r="E948" s="2" t="s">
-        <v>1927</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.25">
@@ -20762,7 +20738,7 @@
         <v>988</v>
       </c>
       <c r="E949" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.25">
@@ -20975,7 +20951,7 @@
         <v>988</v>
       </c>
       <c r="E964" s="4" t="s">
-        <v>1929</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.25">
@@ -21090,7 +21066,7 @@
         <v>988</v>
       </c>
       <c r="E972" s="2" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.25">
@@ -21373,7 +21349,7 @@
         <v>988</v>
       </c>
       <c r="E992" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="993" spans="1:11" x14ac:dyDescent="0.25">
@@ -21421,13 +21397,13 @@
         <v>277</v>
       </c>
       <c r="F995" s="2" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="G995" s="2">
         <v>41</v>
       </c>
       <c r="K995" s="7" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="996" spans="1:11" x14ac:dyDescent="0.25">
@@ -21444,7 +21420,7 @@
         <v>988</v>
       </c>
       <c r="E996" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="997" spans="1:11" x14ac:dyDescent="0.25">
@@ -21573,16 +21549,16 @@
         <v>988</v>
       </c>
       <c r="E1005" s="2" t="s">
-        <v>1862</v>
+        <v>1855</v>
       </c>
       <c r="F1005" s="2" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="G1005" s="2">
         <v>42</v>
       </c>
       <c r="K1005" s="7" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1006" spans="1:11" x14ac:dyDescent="0.25">
@@ -21725,7 +21701,7 @@
         <v>988</v>
       </c>
       <c r="E1015" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1016" spans="1:5" x14ac:dyDescent="0.25">
@@ -21980,7 +21956,7 @@
         <v>988</v>
       </c>
       <c r="E1033" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1034" spans="1:11" x14ac:dyDescent="0.25">
@@ -21997,7 +21973,7 @@
         <v>988</v>
       </c>
       <c r="E1034" s="2" t="s">
-        <v>1888</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1035" spans="1:11" x14ac:dyDescent="0.25">
@@ -22056,13 +22032,13 @@
         <v>988</v>
       </c>
       <c r="E1038" s="2" t="s">
-        <v>1880</v>
+        <v>1873</v>
       </c>
       <c r="H1038" s="2">
         <v>50</v>
       </c>
       <c r="K1038" s="7" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1039" spans="1:11" x14ac:dyDescent="0.25">
@@ -22093,7 +22069,7 @@
         <v>988</v>
       </c>
       <c r="E1040" s="2" t="s">
-        <v>1888</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1041" spans="1:5" x14ac:dyDescent="0.25">
@@ -22124,7 +22100,7 @@
         <v>988</v>
       </c>
       <c r="E1042" s="2" t="s">
-        <v>1910</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1043" spans="1:5" x14ac:dyDescent="0.25">
@@ -22183,7 +22159,7 @@
         <v>988</v>
       </c>
       <c r="E1046" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1047" spans="1:5" x14ac:dyDescent="0.25">
@@ -22480,13 +22456,13 @@
         <v>988</v>
       </c>
       <c r="E1067" s="2" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
       <c r="F1067" s="2" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="K1067" s="7" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1068" spans="1:11" x14ac:dyDescent="0.25">
@@ -22573,7 +22549,7 @@
         <v>988</v>
       </c>
       <c r="E1073" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1074" spans="1:7" x14ac:dyDescent="0.25">
@@ -22590,10 +22566,10 @@
         <v>988</v>
       </c>
       <c r="E1074" s="2" t="s">
-        <v>1889</v>
+        <v>1882</v>
       </c>
       <c r="F1074" s="2" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="G1074" s="2">
         <v>180</v>
@@ -22837,16 +22813,16 @@
         <v>988</v>
       </c>
       <c r="E1091" s="4" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
       <c r="F1091" s="2" t="s">
-        <v>1853</v>
+        <v>1846</v>
       </c>
       <c r="H1091" s="2">
         <v>55</v>
       </c>
       <c r="K1091" s="7" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1092" spans="1:11" x14ac:dyDescent="0.25">
@@ -22947,7 +22923,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1099" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A1099" s="3">
         <v>3293</v>
       </c>
@@ -22961,10 +22937,10 @@
         <v>988</v>
       </c>
       <c r="E1099" s="4" t="s">
-        <v>1909</v>
+        <v>1902</v>
       </c>
       <c r="F1099" s="2" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="G1099" s="2">
         <v>700</v>
@@ -22976,7 +22952,7 @@
         <v>1080</v>
       </c>
       <c r="K1099" s="7" t="s">
-        <v>1792</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1100" spans="1:11" x14ac:dyDescent="0.25">
@@ -23119,16 +23095,16 @@
         <v>988</v>
       </c>
       <c r="E1109" s="2" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="F1109" s="2" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="G1109" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K1109" s="7" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1110" spans="1:11" x14ac:dyDescent="0.25">
@@ -23201,7 +23177,7 @@
         <v>988</v>
       </c>
       <c r="E1114" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1115" spans="1:11" x14ac:dyDescent="0.25">
@@ -23218,7 +23194,7 @@
         <v>988</v>
       </c>
       <c r="E1115" s="2" t="s">
-        <v>1949</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1116" spans="1:11" x14ac:dyDescent="0.25">
@@ -23437,7 +23413,7 @@
         <v>988</v>
       </c>
       <c r="E1130" s="2" t="s">
-        <v>1879</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1131" spans="1:11" x14ac:dyDescent="0.25">
@@ -23482,16 +23458,16 @@
         <v>988</v>
       </c>
       <c r="E1133" s="2" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="F1133" s="2" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="G1133" s="2">
         <v>65</v>
       </c>
       <c r="K1133" s="7" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1134" spans="1:11" x14ac:dyDescent="0.25">
@@ -23718,7 +23694,7 @@
         <v>988</v>
       </c>
       <c r="E1149" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1150" spans="1:5" x14ac:dyDescent="0.25">
@@ -23791,7 +23767,7 @@
         <v>988</v>
       </c>
       <c r="E1154" s="2" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1155" spans="1:11" x14ac:dyDescent="0.25">
@@ -23822,7 +23798,7 @@
         <v>988</v>
       </c>
       <c r="E1156" s="4" t="s">
-        <v>1911</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1157" spans="1:11" x14ac:dyDescent="0.25">
@@ -23853,7 +23829,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1159" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1159" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A1159" s="3">
         <v>3552</v>
       </c>
@@ -23867,10 +23843,10 @@
         <v>988</v>
       </c>
       <c r="E1159" s="4" t="s">
-        <v>1915</v>
+        <v>1948</v>
       </c>
       <c r="F1159" s="2" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="G1159" s="2">
         <v>140</v>
@@ -23879,7 +23855,7 @@
         <v>183</v>
       </c>
       <c r="K1159" s="7" t="s">
-        <v>1781</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1160" spans="1:11" x14ac:dyDescent="0.25">
@@ -24176,7 +24152,7 @@
         <v>988</v>
       </c>
       <c r="E1180" s="2" t="s">
-        <v>1949</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1181" spans="1:5" x14ac:dyDescent="0.25">
@@ -24409,7 +24385,7 @@
         <v>988</v>
       </c>
       <c r="E1196" s="2" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="G1196" s="2">
         <v>160</v>
@@ -24639,16 +24615,16 @@
         <v>988</v>
       </c>
       <c r="E1212" s="4" t="s">
-        <v>1869</v>
+        <v>1862</v>
       </c>
       <c r="F1212" s="2" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="G1212" s="2">
         <v>61</v>
       </c>
       <c r="K1212" s="7" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1213" spans="1:11" x14ac:dyDescent="0.25">
@@ -24987,7 +24963,7 @@
         <v>988</v>
       </c>
       <c r="E1236" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1237" spans="1:5" x14ac:dyDescent="0.25">
@@ -26096,16 +26072,16 @@
         <v>988</v>
       </c>
       <c r="E1315" s="4" t="s">
-        <v>1886</v>
+        <v>1879</v>
       </c>
       <c r="F1315" s="2" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="G1315" s="2">
         <v>30</v>
       </c>
       <c r="K1315" s="7" t="s">
-        <v>1887</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1316" spans="1:11" x14ac:dyDescent="0.25">
@@ -26164,7 +26140,7 @@
         <v>988</v>
       </c>
       <c r="E1319" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1320" spans="1:11" x14ac:dyDescent="0.25">
@@ -26181,7 +26157,7 @@
         <v>988</v>
       </c>
       <c r="E1320" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1321" spans="1:11" x14ac:dyDescent="0.25">
@@ -26450,7 +26426,7 @@
         <v>988</v>
       </c>
       <c r="E1339" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1340" spans="1:5" x14ac:dyDescent="0.25">
@@ -26467,7 +26443,7 @@
         <v>988</v>
       </c>
       <c r="E1340" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1341" spans="1:5" x14ac:dyDescent="0.25">
@@ -26652,7 +26628,7 @@
         <v>988</v>
       </c>
       <c r="E1353" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1354" spans="1:5" x14ac:dyDescent="0.25">
@@ -26809,7 +26785,7 @@
         <v>988</v>
       </c>
       <c r="E1364" s="2" t="s">
-        <v>1927</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1365" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -26826,10 +26802,10 @@
         <v>988</v>
       </c>
       <c r="E1365" s="4" t="s">
-        <v>1940</v>
+        <v>1932</v>
       </c>
       <c r="F1365" s="2" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="G1365" s="2">
         <v>40</v>
@@ -26838,10 +26814,10 @@
         <v>48.2</v>
       </c>
       <c r="K1365" s="7" t="s">
+        <v>1784</v>
+      </c>
+      <c r="L1365" s="5" t="s">
         <v>1790</v>
-      </c>
-      <c r="L1365" s="5" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="1366" spans="1:12" x14ac:dyDescent="0.25">
@@ -26998,7 +26974,7 @@
         <v>988</v>
       </c>
       <c r="E1376" s="4" t="s">
-        <v>1917</v>
+        <v>1909</v>
       </c>
       <c r="G1376" s="2">
         <v>85</v>
@@ -27256,13 +27232,13 @@
         <v>988</v>
       </c>
       <c r="E1394" s="4" t="s">
-        <v>1884</v>
+        <v>1877</v>
       </c>
       <c r="G1394" s="2">
         <v>65</v>
       </c>
       <c r="L1394" s="5" t="s">
-        <v>1885</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1395" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -27279,7 +27255,7 @@
         <v>988</v>
       </c>
       <c r="E1395" s="4" t="s">
-        <v>1919</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1396" spans="1:12" x14ac:dyDescent="0.25">
@@ -27310,7 +27286,7 @@
         <v>988</v>
       </c>
       <c r="E1397" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1398" spans="1:12" x14ac:dyDescent="0.25">
@@ -27341,7 +27317,7 @@
         <v>988</v>
       </c>
       <c r="E1399" s="2" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1400" spans="1:12" x14ac:dyDescent="0.25">
@@ -27414,7 +27390,7 @@
         <v>988</v>
       </c>
       <c r="E1404" s="2" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1405" spans="1:12" x14ac:dyDescent="0.25">
@@ -27445,7 +27421,7 @@
         <v>988</v>
       </c>
       <c r="E1406" s="2" t="s">
-        <v>1910</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1407" spans="1:12" x14ac:dyDescent="0.25">
@@ -27476,7 +27452,7 @@
         <v>988</v>
       </c>
       <c r="E1408" s="4" t="s">
-        <v>1916</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1409" spans="1:5" x14ac:dyDescent="0.25">
@@ -27563,7 +27539,7 @@
         <v>988</v>
       </c>
       <c r="E1414" s="2" t="s">
-        <v>1913</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1415" spans="1:5" x14ac:dyDescent="0.25">
@@ -27776,7 +27752,7 @@
         <v>988</v>
       </c>
       <c r="E1429" s="2" t="s">
-        <v>1862</v>
+        <v>1855</v>
       </c>
       <c r="G1429" s="2">
         <v>60</v>
@@ -27894,7 +27870,7 @@
         <v>988</v>
       </c>
       <c r="E1437" s="2" t="s">
-        <v>1937</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1438" spans="1:7" x14ac:dyDescent="0.25">
@@ -27911,7 +27887,7 @@
         <v>988</v>
       </c>
       <c r="E1438" s="2" t="s">
-        <v>1890</v>
+        <v>1883</v>
       </c>
       <c r="G1438" s="2">
         <v>430</v>
@@ -28048,7 +28024,7 @@
         <v>6104</v>
       </c>
       <c r="B1448" s="1" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
       <c r="C1448" s="2" t="s">
         <v>1763</v>
@@ -28057,7 +28033,7 @@
         <v>988</v>
       </c>
       <c r="E1448" s="2" t="s">
-        <v>1892</v>
+        <v>1885</v>
       </c>
       <c r="K1448" s="7" t="s">
         <v>1767</v>
@@ -28234,7 +28210,7 @@
         <v>988</v>
       </c>
       <c r="E1460" s="2" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1461" spans="1:5" x14ac:dyDescent="0.25">
@@ -28293,7 +28269,7 @@
         <v>988</v>
       </c>
       <c r="E1464" s="4" t="s">
-        <v>1926</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1465" spans="1:5" x14ac:dyDescent="0.25">
@@ -28520,7 +28496,7 @@
         <v>988</v>
       </c>
       <c r="E1480" s="2" t="s">
-        <v>1910</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1481" spans="1:5" x14ac:dyDescent="0.25">
@@ -28565,7 +28541,7 @@
         <v>988</v>
       </c>
       <c r="E1483" s="4" t="s">
-        <v>1921</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1484" spans="1:5" x14ac:dyDescent="0.25">
@@ -28624,7 +28600,7 @@
         <v>988</v>
       </c>
       <c r="E1487" s="2" t="s">
-        <v>1888</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1488" spans="1:5" x14ac:dyDescent="0.25">
@@ -28641,7 +28617,7 @@
         <v>988</v>
       </c>
       <c r="E1488" s="2" t="s">
-        <v>1925</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1489" spans="1:12" x14ac:dyDescent="0.25">
@@ -28689,16 +28665,16 @@
         <v>277</v>
       </c>
       <c r="F1491" s="2" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="G1491" s="2">
         <v>80</v>
       </c>
       <c r="K1491" s="7" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="L1491" s="5" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1492" spans="1:12" x14ac:dyDescent="0.25">
@@ -28813,7 +28789,7 @@
         <v>988</v>
       </c>
       <c r="E1499" s="4" t="s">
-        <v>1896</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1500" spans="1:12" x14ac:dyDescent="0.25">
@@ -28956,7 +28932,7 @@
         <v>988</v>
       </c>
       <c r="E1509" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1510" spans="1:12" x14ac:dyDescent="0.25">
@@ -28987,10 +28963,10 @@
         <v>988</v>
       </c>
       <c r="E1511" s="4" t="s">
-        <v>1941</v>
+        <v>1933</v>
       </c>
       <c r="F1511" s="2" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="G1511" s="2">
         <v>100</v>
@@ -29052,7 +29028,7 @@
         <v>988</v>
       </c>
       <c r="E1515" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1516" spans="1:12" x14ac:dyDescent="0.25">
@@ -29069,7 +29045,7 @@
         <v>988</v>
       </c>
       <c r="E1516" s="4" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1517" spans="1:12" x14ac:dyDescent="0.25">
@@ -29105,7 +29081,7 @@
         <v>6237</v>
       </c>
       <c r="B1519" s="1" t="s">
-        <v>1811</v>
+        <v>1804</v>
       </c>
       <c r="C1519" s="2" t="s">
         <v>1763</v>
@@ -29114,13 +29090,13 @@
         <v>988</v>
       </c>
       <c r="E1519" s="4" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F1519" s="2" t="s">
         <v>1848</v>
       </c>
-      <c r="F1519" s="2" t="s">
-        <v>1855</v>
-      </c>
       <c r="L1519" s="5" t="s">
-        <v>1810</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1520" spans="1:12" x14ac:dyDescent="0.25">
@@ -29389,7 +29365,7 @@
         <v>988</v>
       </c>
       <c r="E1538" s="4" t="s">
-        <v>1921</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1539" spans="1:5" x14ac:dyDescent="0.25">
@@ -29560,7 +29536,7 @@
         <v>988</v>
       </c>
       <c r="E1550" s="2" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1551" spans="1:5" x14ac:dyDescent="0.25">
@@ -29619,16 +29595,16 @@
         <v>988</v>
       </c>
       <c r="E1554" s="4" t="s">
-        <v>1874</v>
+        <v>1867</v>
       </c>
       <c r="F1554" s="2" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="G1554" s="2">
         <v>130</v>
       </c>
       <c r="K1554" s="7" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1555" spans="1:11" x14ac:dyDescent="0.25">
@@ -29799,7 +29775,7 @@
         <v>988</v>
       </c>
       <c r="E1566" s="2" t="s">
-        <v>1925</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1567" spans="1:11" x14ac:dyDescent="0.25">
@@ -29900,7 +29876,7 @@
         <v>988</v>
       </c>
       <c r="E1573" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1574" spans="1:11" x14ac:dyDescent="0.25">
@@ -30043,16 +30019,16 @@
         <v>988</v>
       </c>
       <c r="E1583" s="2" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="F1583" s="2" t="s">
-        <v>1855</v>
+        <v>1848</v>
       </c>
       <c r="H1583" s="2">
         <v>220</v>
       </c>
       <c r="K1583" s="7" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1584" spans="1:11" x14ac:dyDescent="0.25">
@@ -30060,7 +30036,7 @@
         <v>6542</v>
       </c>
       <c r="B1584" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
       <c r="C1584" s="2" t="s">
         <v>1763</v>
@@ -30069,7 +30045,7 @@
         <v>988</v>
       </c>
       <c r="E1584" s="2" t="s">
-        <v>1888</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1585" spans="1:5" x14ac:dyDescent="0.25">
@@ -30282,7 +30258,7 @@
         <v>988</v>
       </c>
       <c r="E1599" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1600" spans="1:5" x14ac:dyDescent="0.25">
@@ -30565,7 +30541,7 @@
         <v>988</v>
       </c>
       <c r="E1619" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1620" spans="1:7" x14ac:dyDescent="0.25">
@@ -30596,7 +30572,7 @@
         <v>988</v>
       </c>
       <c r="E1621" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1622" spans="1:7" x14ac:dyDescent="0.25">
@@ -30711,7 +30687,7 @@
         <v>988</v>
       </c>
       <c r="E1629" s="4" t="s">
-        <v>1919</v>
+        <v>1911</v>
       </c>
       <c r="G1629" s="2">
         <v>70</v>
@@ -31053,7 +31029,7 @@
         <v>988</v>
       </c>
       <c r="E1653" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1654" spans="1:7" x14ac:dyDescent="0.25">
@@ -31098,7 +31074,7 @@
         <v>988</v>
       </c>
       <c r="E1656" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1657" spans="1:7" x14ac:dyDescent="0.25">
@@ -31129,10 +31105,10 @@
         <v>988</v>
       </c>
       <c r="E1658" s="4" t="s">
-        <v>1876</v>
+        <v>1869</v>
       </c>
       <c r="F1658" s="2" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="G1658" s="2">
         <v>26</v>
@@ -31586,7 +31562,7 @@
         <v>988</v>
       </c>
       <c r="E1690" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1691" spans="1:5" x14ac:dyDescent="0.25">
@@ -32177,7 +32153,7 @@
         <v>988</v>
       </c>
       <c r="E1732" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1733" spans="1:5" x14ac:dyDescent="0.25">
@@ -32390,10 +32366,10 @@
         <v>988</v>
       </c>
       <c r="E1747" s="4" t="s">
-        <v>1950</v>
+        <v>1942</v>
       </c>
       <c r="F1747" s="2" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="G1747" s="2">
         <v>40</v>
@@ -32427,168 +32403,168 @@
   <sheetData>
     <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1839</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>1813</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>1814</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>1815</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>1816</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>1817</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>1818</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>1819</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>1820</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>1821</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>1824</v>
+        <v>1817</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1822</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="11" t="s">
-        <v>1823</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
-        <v>1825</v>
+        <v>1818</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1826</v>
+        <v>1819</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1827</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="17" t="s">
-        <v>1828</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17" t="s">
-        <v>1829</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17" t="s">
-        <v>1830</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20" t="s">
-        <v>1831</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
-        <v>1832</v>
+        <v>1825</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>1838</v>
+        <v>1831</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>1833</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17" t="s">
-        <v>1832</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17" t="s">
-        <v>1834</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17" t="s">
-        <v>1835</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17" t="s">
-        <v>1836</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="18"/>
       <c r="D27" s="19"/>
       <c r="E27" s="20" t="s">
-        <v>1837</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="12" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>1840</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>1847</v>
       </c>
       <c r="E29" s="22">
         <v>44151</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>1841</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
@@ -32596,7 +32572,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="17" t="s">
-        <v>1842</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
@@ -32604,7 +32580,7 @@
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="17" t="s">
-        <v>1843</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
@@ -32612,7 +32588,7 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="17" t="s">
-        <v>1844</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
@@ -32620,7 +32596,7 @@
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="17" t="s">
-        <v>1845</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -32628,7 +32604,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="20" t="s">
-        <v>1846</v>
+        <v>1839</v>
       </c>
     </row>
   </sheetData>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62FF255-9339-4344-9EE4-6EFE8A56093C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D056435-1529-42B9-8192-F8843A2E31B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5665" uniqueCount="1973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5687" uniqueCount="1988">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6182,83 +6182,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>定存
+營建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營建</t>
+  </si>
+  <si>
+    <t>營建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心
+能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像擷取晶片
+電源IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車用、風電、太陽能、手機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車用
+綠能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC 設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合觸控暨驅動 IC (TDDI)
+以及大尺寸面板驅動 IC （LDDIC）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伺服器，怕也是一年行情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子紙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均熱片</t>
+  </si>
+  <si>
+    <t>均熱片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋁質電容廠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心
+生醫股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配息率太低，都只有5成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>全球第一 音效晶片控制廠商
 網通晶片
 瑞昱的WiFi及藍牙晶片出貨強勁
-車用及網路基建相關訂單明顯回溫</t>
+車用及網路基建相關訂單明顯回溫
+2021 初估EPS 20塊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定存
-營建</t>
+    <t>20年綠能貢獻 0.3~0.47
+本業大概 1塊左右</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>營建</t>
-  </si>
-  <si>
-    <t>營建</t>
+    <t>射頻 IC 廠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>核心
-能源</t>
+    <t>航運</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影像擷取晶片
-電源IC</t>
+    <t>配息很少
+不值得投資</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>車用、風電、太陽能、手機</t>
+    <t>不投資</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>車用
-綠能</t>
+    <t>配息率 : 54.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>資安</t>
+    <t>配息率 : 49.01
+5G、WiFi 6及電源管理IC市場需求暢旺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IC 設計</t>
+    <t>配息小氣，都配5塊而以。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>整合觸控暨驅動 IC (TDDI)
-以及大尺寸面板驅動 IC （LDDIC）</t>
+    <t>配息率 : 41.75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伺服器，怕也是一年行情</t>
+    <t>都是衰退巿場</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>電子紙</t>
+    <t>衰退行業</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>均熱片</t>
-  </si>
-  <si>
-    <t>均熱片</t>
+    <t>2021 預估 EPS 1.5 * 4 = 6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鋁質電容廠</t>
+    <t>也算PC產業?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>核心
-生醫股</t>
+    <t>2020/09 EPS 4.01 - 1.08 - 1.31 = 1.62
+2020 估 EPS 6~7.5 
+2021 還是不看好，東西不用一直換</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配息率太低，都只有5成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve"> WiFi 產品目前在中國運營商市占高達 7 成
+立積11月純益年增4.7倍 每股賺1.64元
+2021 粗估 EPS 20，0.6，約配息 12塊。
+殖利率 -&gt; 200</t>
   </si>
 </sst>
 </file>
@@ -6783,8 +6851,8 @@
   <dimension ref="A1:L1747"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A603" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L615" sqref="L615"/>
+      <pane ySplit="1" topLeftCell="A709" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L719" sqref="L719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8868,7 +8936,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>1589</v>
       </c>
@@ -8883,6 +8951,12 @@
       </c>
       <c r="E139" s="2" t="s">
         <v>1829</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="L139" s="5" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -8967,7 +9041,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>1605</v>
       </c>
@@ -8981,7 +9055,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>1608</v>
       </c>
@@ -8995,7 +9069,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>1609</v>
       </c>
@@ -9008,8 +9082,17 @@
       <c r="D147" s="2" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="G147" s="2">
+        <v>13</v>
+      </c>
+      <c r="L147" s="5" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>1611</v>
       </c>
@@ -9023,7 +9106,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>1612</v>
       </c>
@@ -9037,7 +9120,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>1614</v>
       </c>
@@ -9051,7 +9134,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>1615</v>
       </c>
@@ -9065,7 +9148,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>1616</v>
       </c>
@@ -9079,7 +9162,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>1617</v>
       </c>
@@ -9093,7 +9176,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>1618</v>
       </c>
@@ -9107,7 +9190,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>1626</v>
       </c>
@@ -9121,7 +9204,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>1701</v>
       </c>
@@ -9135,7 +9218,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>1702</v>
       </c>
@@ -9149,7 +9232,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>1707</v>
       </c>
@@ -9163,7 +9246,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>1708</v>
       </c>
@@ -9177,7 +9260,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>1709</v>
       </c>
@@ -9421,7 +9504,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>1731</v>
       </c>
@@ -9435,7 +9518,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>1732</v>
       </c>
@@ -9449,7 +9532,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>1733</v>
       </c>
@@ -9463,7 +9546,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>1734</v>
       </c>
@@ -9477,7 +9560,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>1735</v>
       </c>
@@ -9491,7 +9574,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>1736</v>
       </c>
@@ -9507,8 +9590,11 @@
       <c r="E182" s="2" t="s">
         <v>1842</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L182" s="5" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>1737</v>
       </c>
@@ -9522,7 +9608,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>1760</v>
       </c>
@@ -9536,7 +9622,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>1762</v>
       </c>
@@ -9550,7 +9636,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>1773</v>
       </c>
@@ -9564,7 +9650,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>1776</v>
       </c>
@@ -9578,7 +9664,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>1783</v>
       </c>
@@ -9592,7 +9678,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>1786</v>
       </c>
@@ -9606,7 +9692,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>1789</v>
       </c>
@@ -9620,7 +9706,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>1795</v>
       </c>
@@ -9634,7 +9720,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>1802</v>
       </c>
@@ -10574,7 +10660,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>2241</v>
       </c>
@@ -10588,7 +10674,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>2243</v>
       </c>
@@ -10602,7 +10688,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>2301</v>
       </c>
@@ -10616,7 +10702,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>2302</v>
       </c>
@@ -10630,7 +10716,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>2303</v>
       </c>
@@ -10653,7 +10739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>2305</v>
       </c>
@@ -10667,7 +10753,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>2308</v>
       </c>
@@ -10683,8 +10769,17 @@
       <c r="E263" s="2" t="s">
         <v>1829</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F263" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G263" s="2">
+        <v>130</v>
+      </c>
+      <c r="L263" s="5" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>2312</v>
       </c>
@@ -10698,7 +10793,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>2313</v>
       </c>
@@ -10715,7 +10810,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>2314</v>
       </c>
@@ -10729,7 +10824,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>2316</v>
       </c>
@@ -10743,7 +10838,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>2317</v>
       </c>
@@ -10759,8 +10854,14 @@
       <c r="E268" s="2" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F268" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="L268" s="5" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>2321</v>
       </c>
@@ -10774,7 +10875,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>2323</v>
       </c>
@@ -10788,7 +10889,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>2324</v>
       </c>
@@ -10802,7 +10903,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>2327</v>
       </c>
@@ -11376,6 +11477,12 @@
       <c r="E308" s="2" t="s">
         <v>1827</v>
       </c>
+      <c r="F308" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="L308" s="5" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
@@ -11393,8 +11500,14 @@
       <c r="E309" s="2" t="s">
         <v>1827</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="F309" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="L309" s="5" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>2379</v>
       </c>
@@ -11414,7 +11527,7 @@
         <v>232</v>
       </c>
       <c r="L310" s="5" t="s">
-        <v>1955</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
@@ -11760,7 +11873,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>2417</v>
       </c>
@@ -11781,6 +11894,9 @@
       </c>
       <c r="H334" s="2">
         <v>60</v>
+      </c>
+      <c r="L334" s="5" t="s">
+        <v>1986</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
@@ -12236,7 +12352,7 @@
         <v>1840</v>
       </c>
       <c r="L364" s="5" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
@@ -12593,7 +12709,7 @@
         <v>987</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -12874,7 +12990,7 @@
         <v>987</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -12961,7 +13077,7 @@
         <v>987</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -13090,7 +13206,7 @@
         <v>987</v>
       </c>
       <c r="E422" s="4" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>1828</v>
@@ -13127,7 +13243,7 @@
         <v>987</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -14364,7 +14480,7 @@
         <v>987</v>
       </c>
       <c r="E507" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="G507" s="2">
         <v>24</v>
@@ -14700,7 +14816,7 @@
         <v>1827</v>
       </c>
       <c r="L529" s="5" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.25">
@@ -14719,6 +14835,9 @@
       <c r="E530" s="2" t="s">
         <v>1850</v>
       </c>
+      <c r="L530" s="5" t="s">
+        <v>1985</v>
+      </c>
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" s="3">
@@ -14824,13 +14943,13 @@
         <v>987</v>
       </c>
       <c r="E537" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="G537" s="2">
         <v>160</v>
       </c>
       <c r="L537" s="5" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.25">
@@ -14920,7 +15039,7 @@
         <v>987</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="G543" s="2">
         <v>36</v>
@@ -14996,13 +15115,13 @@
         <v>987</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G548" s="2">
         <v>260</v>
       </c>
       <c r="L548" s="5" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.25">
@@ -15309,7 +15428,7 @@
         <v>987</v>
       </c>
       <c r="E568" s="2" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
@@ -15912,7 +16031,7 @@
         <v>1827</v>
       </c>
       <c r="L610" s="5" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.25">
@@ -15994,7 +16113,7 @@
         <v>300</v>
       </c>
       <c r="L615" s="5" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.25">
@@ -16272,7 +16391,7 @@
         <v>987</v>
       </c>
       <c r="E634" s="2" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="635" spans="1:12" x14ac:dyDescent="0.25">
@@ -16624,7 +16743,7 @@
         <v>987</v>
       </c>
       <c r="E657" s="4" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G657" s="2">
         <v>115</v>
@@ -17503,7 +17622,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A718" s="3">
         <v>4968</v>
       </c>
@@ -17517,7 +17636,13 @@
         <v>987</v>
       </c>
       <c r="E718" s="2" t="s">
-        <v>1864</v>
+        <v>1974</v>
+      </c>
+      <c r="G718" s="2">
+        <v>200</v>
+      </c>
+      <c r="L718" s="5" t="s">
+        <v>1987</v>
       </c>
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.25">
@@ -17995,7 +18120,7 @@
         <v>987</v>
       </c>
       <c r="E750" s="2" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
@@ -19959,7 +20084,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A881" s="3">
         <v>8112</v>
       </c>
@@ -19973,7 +20098,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A882" s="3">
         <v>8114</v>
       </c>
@@ -19987,7 +20112,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A883" s="3">
         <v>8131</v>
       </c>
@@ -20001,7 +20126,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A884" s="3">
         <v>8150</v>
       </c>
@@ -20015,7 +20140,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A885" s="3">
         <v>8163</v>
       </c>
@@ -20029,7 +20154,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A886" s="3">
         <v>8201</v>
       </c>
@@ -20043,7 +20168,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A887" s="3">
         <v>8210</v>
       </c>
@@ -20057,7 +20182,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A888" s="3">
         <v>8213</v>
       </c>
@@ -20071,7 +20196,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A889" s="3">
         <v>8215</v>
       </c>
@@ -20085,7 +20210,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A890" s="3">
         <v>8222</v>
       </c>
@@ -20099,7 +20224,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A891" s="3">
         <v>8249</v>
       </c>
@@ -20113,7 +20238,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A892" s="3">
         <v>8261</v>
       </c>
@@ -20127,7 +20252,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A893" s="3">
         <v>8271</v>
       </c>
@@ -20141,7 +20266,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A894" s="3">
         <v>8341</v>
       </c>
@@ -20155,7 +20280,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A895" s="3">
         <v>8367</v>
       </c>
@@ -20169,10 +20294,19 @@
         <v>987</v>
       </c>
       <c r="E895" s="2" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1975</v>
+      </c>
+      <c r="F895" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G895" s="2">
+        <v>21</v>
+      </c>
+      <c r="L895" s="5" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="896" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A896" s="3">
         <v>8374</v>
       </c>
@@ -20867,7 +21001,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A945" s="3">
         <v>9917</v>
       </c>
@@ -20881,7 +21015,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A946" s="3">
         <v>9918</v>
       </c>
@@ -20895,7 +21029,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A947" s="3">
         <v>9919</v>
       </c>
@@ -20911,8 +21045,14 @@
       <c r="E947" s="2" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F947" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="L947" s="5" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="948" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A948" s="3">
         <v>9921</v>
       </c>
@@ -20929,7 +21069,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A949" s="3">
         <v>9924</v>
       </c>
@@ -20946,7 +21086,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A950" s="3">
         <v>9925</v>
       </c>
@@ -20960,7 +21100,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A951" s="3">
         <v>9926</v>
       </c>
@@ -20974,7 +21114,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A952" s="3">
         <v>9927</v>
       </c>
@@ -20988,7 +21128,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A953" s="3">
         <v>9928</v>
       </c>
@@ -21002,7 +21142,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A954" s="3">
         <v>9929</v>
       </c>
@@ -21016,7 +21156,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A955" s="3">
         <v>9930</v>
       </c>
@@ -21030,7 +21170,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A956" s="3">
         <v>9931</v>
       </c>
@@ -21044,7 +21184,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A957" s="3">
         <v>9933</v>
       </c>
@@ -21058,7 +21198,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A958" s="3">
         <v>9934</v>
       </c>
@@ -21072,7 +21212,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A959" s="3">
         <v>9935</v>
       </c>
@@ -21086,7 +21226,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A960" s="3">
         <v>9937</v>
       </c>
@@ -30722,7 +30862,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="1617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1617" s="3">
         <v>6664</v>
       </c>
@@ -30736,7 +30876,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="1618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1618" s="3">
         <v>6667</v>
       </c>
@@ -30750,7 +30890,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="1619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1619" s="3">
         <v>6679</v>
       </c>
@@ -30767,7 +30907,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="1620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1620" s="3">
         <v>6680</v>
       </c>
@@ -30781,7 +30921,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="1621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1621" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1621" s="3">
         <v>6683</v>
       </c>
@@ -30795,10 +30935,19 @@
         <v>987</v>
       </c>
       <c r="E1621" s="2" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="1622" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1913</v>
+      </c>
+      <c r="F1621" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G1621" s="2">
+        <v>103</v>
+      </c>
+      <c r="L1621" s="5" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1622" s="3">
         <v>6690</v>
       </c>
@@ -30812,7 +30961,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="1623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1623" s="3">
         <v>6697</v>
       </c>
@@ -30826,7 +30975,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="1624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1624" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1624" s="3">
         <v>6716</v>
       </c>
@@ -30840,7 +30989,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="1625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1625" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1625" s="3">
         <v>6732</v>
       </c>
@@ -30854,7 +31003,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="1626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1626" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1626" s="3">
         <v>6803</v>
       </c>
@@ -30868,7 +31017,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="1627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1627" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1627" s="3">
         <v>7402</v>
       </c>
@@ -30882,7 +31031,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="1628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1628" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1628" s="3">
         <v>8024</v>
       </c>
@@ -30896,7 +31045,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="1629" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1629" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1629" s="3">
         <v>8027</v>
       </c>
@@ -30916,7 +31065,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="1630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1630" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1630" s="3">
         <v>8032</v>
       </c>
@@ -30930,7 +31079,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="1631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1631" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1631" s="3">
         <v>8034</v>
       </c>
@@ -30944,7 +31093,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="1632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1632" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1632" s="3">
         <v>8038</v>
       </c>
@@ -30989,7 +31138,7 @@
         <v>1840</v>
       </c>
       <c r="L1634" s="5" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1635" spans="1:12" x14ac:dyDescent="0.25">
@@ -31174,7 +31323,7 @@
         <v>987</v>
       </c>
       <c r="E1647" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1648" spans="1:12" x14ac:dyDescent="0.25">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FCC4FC-90F9-4570-83A5-DA63C173A452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8803258-CAC8-434E-8AFE-F2EA40AA8B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5763" uniqueCount="2020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="2021">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6464,6 +6464,10 @@
   <si>
     <t>定存
 當沖多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二及體</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6989,8 +6993,8 @@
   <dimension ref="A1:L1747"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F359" sqref="F359"/>
+      <pane ySplit="1" topLeftCell="A1381" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1390" sqref="L1390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -11230,6 +11234,9 @@
       <c r="D282" s="2" t="s">
         <v>986</v>
       </c>
+      <c r="E282" s="2" t="s">
+        <v>1897</v>
+      </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A283" s="3">
@@ -27682,7 +27689,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1377" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1377" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1377" s="3">
         <v>5348</v>
       </c>
@@ -27696,7 +27703,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="1378" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1378" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1378" s="3">
         <v>5353</v>
       </c>
@@ -27710,7 +27717,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="1379" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1379" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1379" s="3">
         <v>5355</v>
       </c>
@@ -27724,7 +27731,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="1380" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1380" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1380" s="3">
         <v>5356</v>
       </c>
@@ -27738,7 +27745,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="1381" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1381" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1381" s="3">
         <v>5364</v>
       </c>
@@ -27752,7 +27759,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="1382" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1382" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1382" s="3">
         <v>5371</v>
       </c>
@@ -27766,7 +27773,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="1383" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1383" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1383" s="3">
         <v>5381</v>
       </c>
@@ -27780,7 +27787,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="1384" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1384" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1384" s="3">
         <v>5383</v>
       </c>
@@ -27794,7 +27801,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="1385" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1385" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1385" s="3">
         <v>5386</v>
       </c>
@@ -27808,7 +27815,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="1386" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1386" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1386" s="3">
         <v>5392</v>
       </c>
@@ -27822,7 +27829,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="1387" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1387" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1387" s="3">
         <v>5398</v>
       </c>
@@ -27836,7 +27843,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="1388" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1388" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1388" s="3">
         <v>5403</v>
       </c>
@@ -27850,7 +27857,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="1389" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1389" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1389" s="3">
         <v>5410</v>
       </c>
@@ -27864,7 +27871,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="1390" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1390" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1390" s="3">
         <v>5425</v>
       </c>
@@ -27877,8 +27884,14 @@
       <c r="D1390" s="2" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="1391" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1390" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="L1390" s="5" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1391" s="3">
         <v>5426</v>
       </c>
@@ -27892,7 +27905,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="1392" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1392" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1392" s="3">
         <v>5432</v>
       </c>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8803258-CAC8-434E-8AFE-F2EA40AA8B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BBEB3D-828A-4F87-9C84-6BFA7DE51484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="2021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5758" uniqueCount="2019">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6363,9 +6363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>當沖多</t>
-  </si>
-  <si>
     <t>當沖空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6390,10 +6387,6 @@
   <si>
     <t>影像與傳輸介面晶片設計廠譜瑞
 PCIe 4.0、USB產品線、Mini LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>當沖多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6462,12 +6455,11 @@
     <t>可能要等一下</t>
   </si>
   <si>
-    <t>定存
-當沖多</t>
+    <t>二及體</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二及體</t>
+    <t>不小心去空到了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6993,8 +6985,8 @@
   <dimension ref="A1:L1747"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1390" sqref="L1390"/>
+      <pane ySplit="1" topLeftCell="A1124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1134" sqref="F1134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -7030,7 +7022,7 @@
         <v>1891</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1789</v>
@@ -8714,7 +8706,7 @@
         <v>1878</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>1985</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
@@ -10342,7 +10334,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A225" s="3">
         <v>2030</v>
       </c>
@@ -10356,7 +10348,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A226" s="3">
         <v>2031</v>
       </c>
@@ -10370,7 +10362,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A227" s="3">
         <v>2032</v>
       </c>
@@ -10384,7 +10376,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A228" s="3">
         <v>2033</v>
       </c>
@@ -10398,7 +10390,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A229" s="3">
         <v>2034</v>
       </c>
@@ -10412,7 +10404,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A230" s="3">
         <v>2038</v>
       </c>
@@ -10426,7 +10418,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A231" s="3">
         <v>2049</v>
       </c>
@@ -10442,11 +10434,8 @@
       <c r="E231" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="F231" s="2" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A232" s="3">
         <v>2059</v>
       </c>
@@ -10460,7 +10449,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A233" s="3">
         <v>2062</v>
       </c>
@@ -10474,7 +10463,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A234" s="3">
         <v>2069</v>
       </c>
@@ -10488,7 +10477,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A235" s="3">
         <v>2101</v>
       </c>
@@ -10502,7 +10491,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A236" s="3">
         <v>2102</v>
       </c>
@@ -10516,7 +10505,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A237" s="3">
         <v>2103</v>
       </c>
@@ -10530,7 +10519,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A238" s="3">
         <v>2104</v>
       </c>
@@ -10544,7 +10533,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A239" s="3">
         <v>2105</v>
       </c>
@@ -10558,7 +10547,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A240" s="3">
         <v>2106</v>
       </c>
@@ -11017,9 +11006,6 @@
       <c r="E268" s="2" t="s">
         <v>1874</v>
       </c>
-      <c r="F268" s="2" t="s">
-        <v>2005</v>
-      </c>
       <c r="L268" s="5" t="s">
         <v>1952</v>
       </c>
@@ -11319,9 +11305,6 @@
       <c r="E287" s="2" t="s">
         <v>1910</v>
       </c>
-      <c r="F287" s="2" t="s">
-        <v>2005</v>
-      </c>
       <c r="L287" s="5" t="s">
         <v>1912</v>
       </c>
@@ -12414,7 +12397,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="358" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A358" s="3">
         <v>2449</v>
       </c>
@@ -12431,7 +12414,7 @@
         <v>1839</v>
       </c>
       <c r="F358" s="4" t="s">
-        <v>2019</v>
+        <v>1835</v>
       </c>
       <c r="G358" s="2">
         <v>32</v>
@@ -12776,6 +12759,12 @@
       <c r="E381" s="2" t="s">
         <v>1836</v>
       </c>
+      <c r="F381" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="L381" s="5" t="s">
+        <v>2018</v>
+      </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A382" s="3">
@@ -12810,9 +12799,6 @@
       <c r="F383" s="2" t="s">
         <v>1985</v>
       </c>
-      <c r="I383" s="2">
-        <v>46.6</v>
-      </c>
       <c r="L383" s="5" t="s">
         <v>1994</v>
       </c>
@@ -12948,9 +12934,6 @@
       <c r="E392" s="4" t="s">
         <v>1993</v>
       </c>
-      <c r="F392" s="2" t="s">
-        <v>2005</v>
-      </c>
       <c r="G392" s="2">
         <v>190</v>
       </c>
@@ -15048,7 +15031,7 @@
         <v>1774</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.4">
@@ -15400,9 +15383,6 @@
       <c r="E554" s="4" t="s">
         <v>1890</v>
       </c>
-      <c r="F554" s="2" t="s">
-        <v>2005</v>
-      </c>
       <c r="G554" s="2">
         <v>29</v>
       </c>
@@ -15775,7 +15755,7 @@
         <v>1837</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.4">
@@ -17007,10 +16987,10 @@
         <v>986</v>
       </c>
       <c r="E661" s="4" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="L661" s="5" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.4">
@@ -17197,9 +17177,6 @@
       <c r="E674" s="4" t="s">
         <v>1840</v>
       </c>
-      <c r="F674" s="2" t="s">
-        <v>2005</v>
-      </c>
       <c r="G674" s="2">
         <v>45</v>
       </c>
@@ -17419,7 +17396,7 @@
         <v>4725</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>4</v>
@@ -18565,7 +18542,7 @@
         <v>41</v>
       </c>
       <c r="L765" s="5" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="766" spans="1:12" x14ac:dyDescent="0.4">
@@ -22331,11 +22308,8 @@
       <c r="E1015" s="2" t="s">
         <v>1946</v>
       </c>
-      <c r="F1015" s="2" t="s">
-        <v>1998</v>
-      </c>
       <c r="L1015" s="5" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1016" spans="1:12" x14ac:dyDescent="0.4">
@@ -23465,7 +23439,7 @@
         <v>1825</v>
       </c>
       <c r="F1091" s="2" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="H1091" s="2">
         <v>55</v>
@@ -23747,7 +23721,7 @@
         <v>1774</v>
       </c>
       <c r="F1109" s="2" t="s">
-        <v>1832</v>
+        <v>2006</v>
       </c>
       <c r="G1109" s="2">
         <v>215</v>
@@ -24113,7 +24087,7 @@
         <v>1774</v>
       </c>
       <c r="F1133" s="2" t="s">
-        <v>1832</v>
+        <v>2006</v>
       </c>
       <c r="G1133" s="2">
         <v>65</v>
@@ -24343,7 +24317,7 @@
         <v>986</v>
       </c>
       <c r="E1149" s="2" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F1149" s="2" t="s">
         <v>1835</v>
@@ -24352,7 +24326,7 @@
         <v>70</v>
       </c>
       <c r="L1149" s="5" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1150" spans="1:12" x14ac:dyDescent="0.4">
@@ -24462,7 +24436,7 @@
         <v>1985</v>
       </c>
       <c r="L1156" s="5" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1157" spans="1:12" x14ac:dyDescent="0.4">
@@ -26424,10 +26398,10 @@
         <v>986</v>
       </c>
       <c r="E1291" s="4" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L1291" s="5" t="s">
         <v>2011</v>
-      </c>
-      <c r="L1291" s="5" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="1292" spans="1:12" x14ac:dyDescent="0.4">
@@ -26843,7 +26817,7 @@
         <v>1971</v>
       </c>
       <c r="F1319" s="2" t="s">
-        <v>1967</v>
+        <v>1835</v>
       </c>
       <c r="G1319" s="2">
         <v>80</v>
@@ -26863,13 +26837,13 @@
         <v>986</v>
       </c>
       <c r="E1320" s="2" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G1320" s="2">
         <v>80</v>
       </c>
       <c r="L1320" s="5" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1321" spans="1:12" x14ac:dyDescent="0.4">
@@ -27888,7 +27862,7 @@
         <v>1836</v>
       </c>
       <c r="L1390" s="5" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1391" spans="1:12" x14ac:dyDescent="0.4">
@@ -27975,6 +27949,9 @@
       <c r="F1395" s="2" t="s">
         <v>1990</v>
       </c>
+      <c r="G1395" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="1396" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1396" s="3">
@@ -28181,11 +28158,8 @@
       <c r="E1408" s="4" t="s">
         <v>1877</v>
       </c>
-      <c r="F1408" s="2" t="s">
-        <v>2005</v>
-      </c>
       <c r="L1408" s="5" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1409" spans="1:12" x14ac:dyDescent="0.4">
@@ -28202,7 +28176,7 @@
         <v>986</v>
       </c>
       <c r="L1409" s="5" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1410" spans="1:12" x14ac:dyDescent="0.4">
@@ -29008,7 +28982,7 @@
         <v>986</v>
       </c>
       <c r="E1464" s="4" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1465" spans="1:5" x14ac:dyDescent="0.4">
@@ -29282,14 +29256,11 @@
       <c r="E1483" s="4" t="s">
         <v>1873</v>
       </c>
-      <c r="F1483" s="2" t="s">
-        <v>2005</v>
-      </c>
       <c r="G1483" s="2">
         <v>60</v>
       </c>
       <c r="L1483" s="5" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1484" spans="1:12" x14ac:dyDescent="0.4">
@@ -29412,9 +29383,6 @@
       <c r="E1491" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F1491" s="2" t="s">
-        <v>1967</v>
-      </c>
       <c r="G1491" s="2">
         <v>80</v>
       </c>
@@ -29677,7 +29645,7 @@
         <v>986</v>
       </c>
       <c r="E1509" s="2" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1510" spans="1:12" x14ac:dyDescent="0.4">
@@ -30582,10 +30550,10 @@
         <v>986</v>
       </c>
       <c r="E1570" s="4" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="L1570" s="5" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1571" spans="1:12" x14ac:dyDescent="0.4">
@@ -30759,10 +30727,10 @@
         <v>986</v>
       </c>
       <c r="E1582" s="4" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="L1582" s="5" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1583" spans="1:12" x14ac:dyDescent="0.4">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21215898-A508-4EB5-9CE7-EC0CED9C8E7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D6E149-50BF-43F1-A87D-0A45443D21CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5776" uniqueCount="2029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5787" uniqueCount="2038">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5402,13 +5402,6 @@
 毫米波雷達拿下兩大車廠訂單
 市佔至少五成
 明年EPS挑戰15元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鋁質電解電容
-電動車、太陽能都要用
-國巨集團就是要整合這一塊
-減資之後第三季單季獲利應該有2.5元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6218,13 +6211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>綠能、儲能
-外資投信出貨中
-2020 EPS 估2.5塊，配 2塊
-2021 EPS 估4塊，配3.2塊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>軟板
 Apple</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6461,10 +6447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>電阻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外資大布單
 目前EPS不太夠
 營收沒有大成長?</t>
@@ -6508,6 +6490,72 @@
   </si>
   <si>
     <t>車用、影音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋁質電解電容
+電動車、太陽能都要用
+國巨集團就是要整合這一塊
+目前本益比己經偏高很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探針卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配息率偏低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電阻
+90壓力大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配息太低
+從定股股拿掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料中心、伺服器機殼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定存股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5G 散熱
+伺服器散熱
+網通產品散熱
+筆電散熱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMI 材料，
+8成用於PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學名藥廠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠能、儲能
+外資投信出貨中
+2020 EPS 估2.5塊，配 2塊
+2021 EPS 估4塊，配3.2塊
+太陽光電、氫能、嘟嘟房以及正興機電</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醫療器材通路商，
+主要營業項目為代理
+血液透析耗材、牙科、心臟科等產品；
+各項產品比重上
+血液透析耗材佔約83%、急重症各科別約佔8%、牙材3%、其他各項佔6%
+美金計價，美金受惠股</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7033,8 +7081,8 @@
   <dimension ref="A1:L1747"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1452" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1461" sqref="L1461"/>
+      <pane ySplit="1" topLeftCell="A987" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L997" sqref="L997"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -7067,16 +7115,16 @@
         <v>1766</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>1778</v>
@@ -7105,16 +7153,16 @@
         <v>985</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1963</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1964</v>
       </c>
       <c r="G2" s="2">
         <v>41</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -7304,7 +7352,7 @@
         <v>1218</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -7313,7 +7361,7 @@
         <v>985</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -7344,10 +7392,10 @@
         <v>985</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G18" s="2">
         <v>12</v>
@@ -7423,10 +7471,10 @@
         <v>985</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G23" s="2">
         <v>110</v>
@@ -7771,10 +7819,10 @@
         <v>985</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="H47" s="2">
         <v>120</v>
@@ -7892,10 +7940,10 @@
         <v>985</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G55" s="2">
         <v>9.5</v>
@@ -8422,16 +8470,16 @@
         <v>985</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="H92" s="2">
         <v>20</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
@@ -8588,7 +8636,7 @@
         <v>985</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.4">
@@ -8605,7 +8653,7 @@
         <v>985</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.4">
@@ -8636,13 +8684,13 @@
         <v>985</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="G106" s="2">
         <v>50</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.4">
@@ -8659,7 +8707,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="61.75" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:12" ht="77.150000000000006" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
         <v>1513</v>
       </c>
@@ -8673,17 +8721,17 @@
         <v>985</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="G108" s="2">
         <v>46</v>
       </c>
       <c r="K108" s="5"/>
       <c r="L108" s="5" t="s">
-        <v>1967</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.4">
@@ -8700,10 +8748,10 @@
         <v>985</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.4">
@@ -8720,7 +8768,7 @@
         <v>985</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.4">
@@ -8751,13 +8799,13 @@
         <v>985</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
@@ -8844,7 +8892,7 @@
         <v>985</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
@@ -8945,7 +8993,7 @@
         <v>985</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.4">
@@ -9144,13 +9192,13 @@
         <v>985</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="L139" s="5" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.4">
@@ -9195,16 +9243,16 @@
         <v>985</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G142" s="2">
         <v>110</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.4">
@@ -9283,7 +9331,7 @@
         <v>13</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.4">
@@ -9580,10 +9628,10 @@
         <v>985</v>
       </c>
       <c r="E168" s="2" t="s">
+        <v>1923</v>
+      </c>
+      <c r="L168" s="5" t="s">
         <v>1924</v>
-      </c>
-      <c r="L168" s="5" t="s">
-        <v>1925</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.4">
@@ -9754,7 +9802,7 @@
         <v>985</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.4">
@@ -9785,13 +9833,13 @@
         <v>985</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.4">
@@ -9822,7 +9870,7 @@
         <v>985</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.4">
@@ -10483,7 +10531,7 @@
         <v>985</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.4">
@@ -10640,7 +10688,7 @@
         <v>985</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.4">
@@ -10699,7 +10747,7 @@
         <v>985</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.4">
@@ -10716,7 +10764,7 @@
         <v>985</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.4">
@@ -10747,7 +10795,7 @@
         <v>985</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.4">
@@ -10778,7 +10826,7 @@
         <v>985</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.4">
@@ -10809,10 +10857,10 @@
         <v>985</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="G253" s="2">
         <v>160</v>
@@ -10933,10 +10981,10 @@
         <v>985</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="G261" s="2">
         <v>35</v>
@@ -10970,16 +11018,16 @@
         <v>985</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="G263" s="2">
         <v>130</v>
       </c>
       <c r="L263" s="5" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.4">
@@ -11010,7 +11058,7 @@
         <v>985</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.4">
@@ -11055,10 +11103,10 @@
         <v>985</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="L268" s="5" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.4">
@@ -11117,7 +11165,7 @@
         <v>985</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G272" s="2">
         <v>420</v>
@@ -11137,10 +11185,10 @@
         <v>985</v>
       </c>
       <c r="E273" s="4" t="s">
+        <v>1899</v>
+      </c>
+      <c r="L273" s="5" t="s">
         <v>1900</v>
-      </c>
-      <c r="L273" s="5" t="s">
-        <v>1901</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.4">
@@ -11171,7 +11219,7 @@
         <v>985</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.4">
@@ -11272,7 +11320,7 @@
         <v>985</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.4">
@@ -11289,7 +11337,7 @@
         <v>985</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.4">
@@ -11306,7 +11354,7 @@
         <v>985</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G284" s="2">
         <v>41</v>
@@ -11354,10 +11402,10 @@
         <v>985</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="L287" s="5" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.4">
@@ -11374,7 +11422,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A289" s="3">
         <v>2353</v>
       </c>
@@ -11388,10 +11436,10 @@
         <v>985</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A290" s="3">
         <v>2354</v>
       </c>
@@ -11405,7 +11453,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A291" s="3">
         <v>2355</v>
       </c>
@@ -11419,7 +11467,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A292" s="3">
         <v>2356</v>
       </c>
@@ -11433,7 +11481,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A293" s="3">
         <v>2357</v>
       </c>
@@ -11447,10 +11495,10 @@
         <v>985</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A294" s="3">
         <v>2358</v>
       </c>
@@ -11464,7 +11512,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A295" s="3">
         <v>2359</v>
       </c>
@@ -11478,7 +11526,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A296" s="3">
         <v>2360</v>
       </c>
@@ -11492,7 +11540,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A297" s="3">
         <v>2362</v>
       </c>
@@ -11506,7 +11554,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A298" s="3">
         <v>2363</v>
       </c>
@@ -11520,7 +11568,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A299" s="3">
         <v>2364</v>
       </c>
@@ -11534,7 +11582,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A300" s="3">
         <v>2365</v>
       </c>
@@ -11548,7 +11596,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A301" s="3">
         <v>2367</v>
       </c>
@@ -11562,7 +11610,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A302" s="3">
         <v>2368</v>
       </c>
@@ -11576,10 +11624,16 @@
         <v>985</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1835</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="G302" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A303" s="3">
         <v>2369</v>
       </c>
@@ -11593,7 +11647,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A304" s="3">
         <v>2371</v>
       </c>
@@ -11607,7 +11661,7 @@
         <v>985</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.4">
@@ -11652,16 +11706,16 @@
         <v>985</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G307" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L307" s="5" t="s">
-        <v>1780</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.4">
@@ -11678,13 +11732,13 @@
         <v>985</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="L308" s="5" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.4">
@@ -11701,13 +11755,13 @@
         <v>985</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="L309" s="5" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="310" spans="1:12" ht="77.150000000000006" x14ac:dyDescent="0.4">
@@ -11724,13 +11778,13 @@
         <v>985</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="G310" s="2">
         <v>280</v>
       </c>
       <c r="L310" s="5" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.4">
@@ -11803,7 +11857,7 @@
         <v>985</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.4">
@@ -12005,7 +12059,7 @@
         <v>985</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.4">
@@ -12022,13 +12076,13 @@
         <v>985</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="L330" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.4">
@@ -12059,13 +12113,13 @@
         <v>985</v>
       </c>
       <c r="E332" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F332" s="2" t="s">
         <v>1824</v>
       </c>
-      <c r="F332" s="2" t="s">
-        <v>1825</v>
-      </c>
       <c r="L332" s="5" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.4">
@@ -12096,16 +12150,16 @@
         <v>985</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="H334" s="2">
         <v>60</v>
       </c>
       <c r="L334" s="5" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.4">
@@ -12150,7 +12204,7 @@
         <v>985</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.4">
@@ -12265,7 +12319,7 @@
         <v>985</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.4">
@@ -12324,10 +12378,10 @@
         <v>985</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="L349" s="5" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.4">
@@ -12386,7 +12440,7 @@
         <v>985</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.4">
@@ -12445,7 +12499,7 @@
         <v>985</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.4">
@@ -12462,10 +12516,10 @@
         <v>985</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="F358" s="4" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G358" s="2">
         <v>32</v>
@@ -12527,7 +12581,7 @@
         <v>985</v>
       </c>
       <c r="E362" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.4">
@@ -12558,10 +12612,16 @@
         <v>985</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="G364" s="2">
+        <v>100</v>
       </c>
       <c r="L364" s="5" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.4">
@@ -12592,7 +12652,7 @@
         <v>985</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.4">
@@ -12707,10 +12767,10 @@
         <v>985</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="L374" s="5" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.4">
@@ -12746,7 +12806,7 @@
         <v>2472</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>4</v>
@@ -12755,7 +12815,7 @@
         <v>985</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.4">
@@ -12800,7 +12860,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A381" s="3">
         <v>2478</v>
       </c>
@@ -12814,16 +12874,13 @@
         <v>985</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>1835</v>
-      </c>
-      <c r="F381" s="2" t="s">
-        <v>1984</v>
+        <v>1834</v>
       </c>
       <c r="I381" s="2">
         <v>87.5</v>
       </c>
       <c r="L381" s="5" t="s">
-        <v>2018</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.4">
@@ -12854,13 +12911,16 @@
         <v>985</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>1984</v>
+        <v>1965</v>
+      </c>
+      <c r="G383" s="2">
+        <v>45</v>
       </c>
       <c r="L383" s="5" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.4">
@@ -12933,7 +12993,7 @@
         <v>985</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.4">
@@ -12992,7 +13052,7 @@
         <v>985</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="G392" s="2">
         <v>190</v>
@@ -13054,7 +13114,7 @@
         <v>985</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.4">
@@ -13211,7 +13271,7 @@
         <v>985</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.4">
@@ -13298,7 +13358,7 @@
         <v>985</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.4">
@@ -13427,10 +13487,10 @@
         <v>985</v>
       </c>
       <c r="E422" s="4" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G422" s="2">
         <v>46</v>
@@ -13464,7 +13524,7 @@
         <v>985</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.4">
@@ -13999,10 +14059,10 @@
         <v>985</v>
       </c>
       <c r="E462" s="4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="F462" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="G462" s="2">
         <v>32</v>
@@ -14260,16 +14320,16 @@
         <v>985</v>
       </c>
       <c r="E480" s="4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G480" s="2">
         <v>15.5</v>
       </c>
       <c r="L480" s="5" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.4">
@@ -14286,7 +14346,7 @@
         <v>985</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.4">
@@ -14331,16 +14391,16 @@
         <v>985</v>
       </c>
       <c r="E484" s="4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="F484" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G484" s="2">
         <v>30</v>
       </c>
       <c r="L484" s="5" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.4">
@@ -14399,16 +14459,16 @@
         <v>985</v>
       </c>
       <c r="E488" s="4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="F488" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G488" s="2">
         <v>20</v>
       </c>
       <c r="L488" s="5" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.4">
@@ -14425,10 +14485,10 @@
         <v>985</v>
       </c>
       <c r="E489" s="4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G489" s="2">
         <v>14</v>
@@ -14451,16 +14511,16 @@
         <v>985</v>
       </c>
       <c r="E490" s="4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="F490" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G490" s="2">
         <v>23.5</v>
       </c>
       <c r="L490" s="5" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.4">
@@ -14701,10 +14761,10 @@
         <v>985</v>
       </c>
       <c r="E507" s="4" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="F507" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G507" s="2">
         <v>24</v>
@@ -14780,7 +14840,7 @@
         <v>985</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.4">
@@ -14797,7 +14857,7 @@
         <v>985</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.4">
@@ -14954,7 +15014,7 @@
         <v>985</v>
       </c>
       <c r="E524" s="4" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="G524" s="2">
         <v>51</v>
@@ -14975,7 +15035,7 @@
         <v>985</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.4">
@@ -15034,10 +15094,10 @@
         <v>985</v>
       </c>
       <c r="E529" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="L529" s="5" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.4">
@@ -15054,10 +15114,10 @@
         <v>985</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="L530" s="5" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.4">
@@ -15091,7 +15151,10 @@
         <v>1773</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>2004</v>
+        <v>2002</v>
+      </c>
+      <c r="L532" s="5" t="s">
+        <v>2031</v>
       </c>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.4">
@@ -15122,7 +15185,7 @@
         <v>985</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.4">
@@ -15167,13 +15230,13 @@
         <v>985</v>
       </c>
       <c r="E537" s="4" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="G537" s="2">
         <v>160</v>
       </c>
       <c r="L537" s="5" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.4">
@@ -15232,7 +15295,7 @@
         <v>985</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.4">
@@ -15263,7 +15326,7 @@
         <v>985</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="G543" s="2">
         <v>36</v>
@@ -15339,13 +15402,13 @@
         <v>985</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="G548" s="2">
         <v>260</v>
       </c>
       <c r="L548" s="5" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.4">
@@ -15390,10 +15453,10 @@
         <v>985</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="F551" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G551" s="2">
         <v>78</v>
@@ -15441,13 +15504,13 @@
         <v>985</v>
       </c>
       <c r="E554" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="G554" s="2">
         <v>29</v>
       </c>
       <c r="L554" s="5" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.4">
@@ -15506,13 +15569,13 @@
         <v>985</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="L558" s="5" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.4">
@@ -15655,7 +15718,7 @@
         <v>985</v>
       </c>
       <c r="E568" s="2" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.4">
@@ -15812,13 +15875,13 @@
         <v>985</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="L579" s="5" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="580" spans="1:12" x14ac:dyDescent="0.4">
@@ -16073,7 +16136,7 @@
         <v>985</v>
       </c>
       <c r="E597" s="2" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.4">
@@ -16202,7 +16265,7 @@
         <v>985</v>
       </c>
       <c r="E606" s="2" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.4">
@@ -16261,10 +16324,10 @@
         <v>985</v>
       </c>
       <c r="E610" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="L610" s="5" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.4">
@@ -16340,13 +16403,13 @@
         <v>985</v>
       </c>
       <c r="E615" s="4" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G615" s="2">
         <v>300</v>
       </c>
       <c r="L615" s="5" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.4">
@@ -16492,10 +16555,10 @@
         <v>985</v>
       </c>
       <c r="E625" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="L625" s="5" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="626" spans="1:12" x14ac:dyDescent="0.4">
@@ -16624,7 +16687,7 @@
         <v>985</v>
       </c>
       <c r="E634" s="2" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="G634" s="2">
         <v>200</v>
@@ -16644,7 +16707,7 @@
         <v>985</v>
       </c>
       <c r="E635" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.4">
@@ -16675,10 +16738,10 @@
         <v>985</v>
       </c>
       <c r="E637" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="H637" s="2">
         <v>100</v>
@@ -16726,7 +16789,7 @@
         <v>985</v>
       </c>
       <c r="E640" s="2" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="641" spans="1:12" x14ac:dyDescent="0.4">
@@ -16799,7 +16862,7 @@
         <v>985</v>
       </c>
       <c r="E645" s="2" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.4">
@@ -16844,13 +16907,13 @@
         <v>985</v>
       </c>
       <c r="E648" s="2" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="F648" s="2" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="L648" s="5" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.4">
@@ -16895,7 +16958,7 @@
         <v>985</v>
       </c>
       <c r="E651" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="652" spans="1:12" x14ac:dyDescent="0.4">
@@ -16911,6 +16974,9 @@
       <c r="D652" s="2" t="s">
         <v>985</v>
       </c>
+      <c r="E652" s="2" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="653" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A653" s="3">
@@ -16940,16 +17006,16 @@
         <v>985</v>
       </c>
       <c r="E654" s="4" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F654" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G654" s="2">
         <v>48</v>
       </c>
       <c r="L654" s="5" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="655" spans="1:12" x14ac:dyDescent="0.4">
@@ -16994,13 +17060,13 @@
         <v>985</v>
       </c>
       <c r="E657" s="4" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F657" s="2" t="s">
-        <v>1834</v>
+        <v>2002</v>
       </c>
       <c r="G657" s="2">
-        <v>115</v>
+        <v>70</v>
       </c>
     </row>
     <row r="658" spans="1:12" x14ac:dyDescent="0.4">
@@ -17059,10 +17125,10 @@
         <v>985</v>
       </c>
       <c r="E661" s="4" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="L661" s="5" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.4">
@@ -17247,7 +17313,7 @@
         <v>985</v>
       </c>
       <c r="E674" s="4" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="G674" s="2">
         <v>45</v>
@@ -17468,7 +17534,7 @@
         <v>4725</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>4</v>
@@ -17603,13 +17669,13 @@
         <v>985</v>
       </c>
       <c r="E699" s="2" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="F699" s="2" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="L699" s="5" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="700" spans="1:12" x14ac:dyDescent="0.4">
@@ -17741,10 +17807,10 @@
         <v>985</v>
       </c>
       <c r="E708" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="L708" s="5" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="709" spans="1:12" x14ac:dyDescent="0.4">
@@ -17859,10 +17925,10 @@
         <v>985</v>
       </c>
       <c r="E716" s="2" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="L716" s="5" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="717" spans="1:12" x14ac:dyDescent="0.4">
@@ -17879,10 +17945,10 @@
         <v>985</v>
       </c>
       <c r="E717" s="4" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="L717" s="5" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="718" spans="1:12" ht="61.75" x14ac:dyDescent="0.4">
@@ -17899,13 +17965,13 @@
         <v>985</v>
       </c>
       <c r="E718" s="2" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G718" s="2">
         <v>200</v>
       </c>
       <c r="L718" s="5" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.4">
@@ -17922,7 +17988,7 @@
         <v>985</v>
       </c>
       <c r="E719" s="2" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="720" spans="1:12" x14ac:dyDescent="0.4">
@@ -17967,7 +18033,7 @@
         <v>985</v>
       </c>
       <c r="E722" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="723" spans="1:12" x14ac:dyDescent="0.4">
@@ -18026,16 +18092,16 @@
         <v>985</v>
       </c>
       <c r="E726" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F726" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="H726" s="2">
         <v>160</v>
       </c>
       <c r="L726" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="727" spans="1:12" x14ac:dyDescent="0.4">
@@ -18122,7 +18188,7 @@
         <v>985</v>
       </c>
       <c r="E732" s="2" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="733" spans="1:12" x14ac:dyDescent="0.4">
@@ -18167,10 +18233,10 @@
         <v>985</v>
       </c>
       <c r="E735" s="2" t="s">
+        <v>1908</v>
+      </c>
+      <c r="L735" s="5" t="s">
         <v>1909</v>
-      </c>
-      <c r="L735" s="5" t="s">
-        <v>1910</v>
       </c>
     </row>
     <row r="736" spans="1:12" x14ac:dyDescent="0.4">
@@ -18386,7 +18452,7 @@
         <v>985</v>
       </c>
       <c r="E750" s="2" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.4">
@@ -18473,10 +18539,10 @@
         <v>985</v>
       </c>
       <c r="E756" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="F756" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G756" s="2">
         <v>110</v>
@@ -18608,13 +18674,13 @@
         <v>985</v>
       </c>
       <c r="E765" s="2" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G765" s="2">
         <v>41</v>
       </c>
       <c r="L765" s="5" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="766" spans="1:12" x14ac:dyDescent="0.4">
@@ -18645,7 +18711,7 @@
         <v>985</v>
       </c>
       <c r="E767" s="2" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="G767" s="2">
         <v>11</v>
@@ -18791,16 +18857,16 @@
         <v>985</v>
       </c>
       <c r="E777" s="4" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="F777" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G777" s="2">
         <v>30</v>
       </c>
       <c r="L777" s="5" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="778" spans="1:12" x14ac:dyDescent="0.4">
@@ -18929,16 +18995,16 @@
         <v>985</v>
       </c>
       <c r="E786" s="2" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="F786" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G786" s="2">
         <v>42</v>
       </c>
       <c r="L786" s="5" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="787" spans="1:12" x14ac:dyDescent="0.4">
@@ -18983,7 +19049,7 @@
         <v>985</v>
       </c>
       <c r="E789" s="2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="790" spans="1:12" x14ac:dyDescent="0.4">
@@ -19070,13 +19136,13 @@
         <v>985</v>
       </c>
       <c r="E795" s="4" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="G795" s="2">
         <v>42</v>
       </c>
       <c r="L795" s="5" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="796" spans="1:12" x14ac:dyDescent="0.4">
@@ -19107,7 +19173,7 @@
         <v>985</v>
       </c>
       <c r="E797" s="2" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="798" spans="1:12" x14ac:dyDescent="0.4">
@@ -19208,7 +19274,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="805" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:12" ht="61.75" x14ac:dyDescent="0.4">
       <c r="A805" s="3">
         <v>6230</v>
       </c>
@@ -19220,6 +19286,12 @@
       </c>
       <c r="D805" s="2" t="s">
         <v>985</v>
+      </c>
+      <c r="E805" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="L805" s="5" t="s">
+        <v>2033</v>
       </c>
     </row>
     <row r="806" spans="1:12" x14ac:dyDescent="0.4">
@@ -19249,6 +19321,9 @@
       <c r="D807" s="2" t="s">
         <v>985</v>
       </c>
+      <c r="E807" s="2" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="808" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A808" s="3">
@@ -19292,7 +19367,10 @@
         <v>985</v>
       </c>
       <c r="E810" s="2" t="s">
-        <v>1854</v>
+        <v>1859</v>
+      </c>
+      <c r="F810" s="2" t="s">
+        <v>2032</v>
       </c>
     </row>
     <row r="811" spans="1:12" x14ac:dyDescent="0.4">
@@ -19323,10 +19401,10 @@
         <v>985</v>
       </c>
       <c r="E812" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="L812" s="5" t="s">
         <v>1860</v>
-      </c>
-      <c r="L812" s="5" t="s">
-        <v>1861</v>
       </c>
     </row>
     <row r="813" spans="1:12" x14ac:dyDescent="0.4">
@@ -19357,7 +19435,7 @@
         <v>985</v>
       </c>
       <c r="E814" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="815" spans="1:12" x14ac:dyDescent="0.4">
@@ -19374,7 +19452,7 @@
         <v>985</v>
       </c>
       <c r="E815" s="2" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="816" spans="1:12" x14ac:dyDescent="0.4">
@@ -19419,7 +19497,7 @@
         <v>985</v>
       </c>
       <c r="E818" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="819" spans="1:12" x14ac:dyDescent="0.4">
@@ -19520,7 +19598,7 @@
         <v>985</v>
       </c>
       <c r="E825" s="2" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="826" spans="1:12" x14ac:dyDescent="0.4">
@@ -19582,7 +19660,7 @@
         <v>1771</v>
       </c>
       <c r="F829" s="2" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G829" s="2">
         <v>30</v>
@@ -19602,10 +19680,10 @@
         <v>985</v>
       </c>
       <c r="E830" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="L830" s="5" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="831" spans="1:12" x14ac:dyDescent="0.4">
@@ -19846,10 +19924,10 @@
         <v>985</v>
       </c>
       <c r="E847" s="2" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="F847" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="H847" s="2">
         <v>190</v>
@@ -19886,7 +19964,7 @@
         <v>985</v>
       </c>
       <c r="E849" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="G849" s="2">
         <v>50</v>
@@ -19906,7 +19984,7 @@
         <v>985</v>
       </c>
       <c r="E850" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="851" spans="1:12" x14ac:dyDescent="0.4">
@@ -20007,7 +20085,7 @@
         <v>985</v>
       </c>
       <c r="E857" s="2" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="858" spans="1:12" x14ac:dyDescent="0.4">
@@ -20094,16 +20172,16 @@
         <v>985</v>
       </c>
       <c r="E863" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="F863" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="G863" s="2">
         <v>100</v>
       </c>
       <c r="L863" s="5" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="864" spans="1:12" x14ac:dyDescent="0.4">
@@ -20176,16 +20254,16 @@
         <v>985</v>
       </c>
       <c r="E868" s="4" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="F868" s="2" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="G868" s="2">
         <v>25</v>
       </c>
       <c r="L868" s="8" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="869" spans="1:12" x14ac:dyDescent="0.4">
@@ -20202,10 +20280,10 @@
         <v>985</v>
       </c>
       <c r="E869" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="L869" s="5" t="s">
         <v>1879</v>
-      </c>
-      <c r="L869" s="5" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="870" spans="1:12" x14ac:dyDescent="0.4">
@@ -20250,7 +20328,7 @@
         <v>985</v>
       </c>
       <c r="E872" s="2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="873" spans="1:12" x14ac:dyDescent="0.4">
@@ -20295,10 +20373,10 @@
         <v>985</v>
       </c>
       <c r="E875" s="2" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="L875" s="5" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="876" spans="1:12" x14ac:dyDescent="0.4">
@@ -20320,7 +20398,7 @@
         <v>8103</v>
       </c>
       <c r="B877" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C877" s="2" t="s">
         <v>4</v>
@@ -20329,10 +20407,10 @@
         <v>985</v>
       </c>
       <c r="E877" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F877" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="878" spans="1:12" x14ac:dyDescent="0.4">
@@ -20587,16 +20665,16 @@
         <v>985</v>
       </c>
       <c r="E895" s="2" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F895" s="2" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="G895" s="2">
         <v>21</v>
       </c>
       <c r="L895" s="5" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="896" spans="1:12" x14ac:dyDescent="0.4">
@@ -20725,16 +20803,16 @@
         <v>985</v>
       </c>
       <c r="E904" s="2" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="F904" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="G904" s="2">
         <v>320</v>
       </c>
       <c r="L904" s="5" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="905" spans="1:12" x14ac:dyDescent="0.4">
@@ -20849,7 +20927,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="913" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="913" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A913" s="3">
         <v>8481</v>
       </c>
@@ -20863,7 +20941,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="914" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="914" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A914" s="3">
         <v>8482</v>
       </c>
@@ -20877,7 +20955,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="915" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A915" s="3">
         <v>8488</v>
       </c>
@@ -20891,7 +20969,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="916" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A916" s="3">
         <v>8497</v>
       </c>
@@ -20905,7 +20983,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="917" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="917" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A917" s="3">
         <v>8499</v>
       </c>
@@ -20919,10 +20997,13 @@
         <v>985</v>
       </c>
       <c r="E917" s="2" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="918" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1823</v>
+      </c>
+      <c r="L917" s="5" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="918" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A918" s="3">
         <v>8926</v>
       </c>
@@ -20936,7 +21017,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="919" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A919" s="3">
         <v>8940</v>
       </c>
@@ -20950,7 +21031,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="920" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="920" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A920" s="3">
         <v>8996</v>
       </c>
@@ -20964,7 +21045,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="921" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="921" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A921" s="3">
         <v>9103</v>
       </c>
@@ -20978,7 +21059,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="922" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="922" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A922" s="3">
         <v>910322</v>
       </c>
@@ -20992,7 +21073,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="923" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="923" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A923" s="3">
         <v>9105</v>
       </c>
@@ -21006,7 +21087,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="924" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="924" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A924" s="3">
         <v>910861</v>
       </c>
@@ -21020,7 +21101,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="925" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="925" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A925" s="3">
         <v>9110</v>
       </c>
@@ -21034,7 +21115,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="926" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="926" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A926" s="3">
         <v>911608</v>
       </c>
@@ -21048,7 +21129,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="927" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="927" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A927" s="3">
         <v>911616</v>
       </c>
@@ -21062,7 +21143,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="928" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A928" s="3">
         <v>911622</v>
       </c>
@@ -21300,7 +21381,7 @@
         <v>985</v>
       </c>
       <c r="E944" s="2" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="945" spans="1:12" x14ac:dyDescent="0.4">
@@ -21345,13 +21426,13 @@
         <v>985</v>
       </c>
       <c r="E947" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="F947" s="2" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="L947" s="5" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="948" spans="1:12" x14ac:dyDescent="0.4">
@@ -21368,7 +21449,7 @@
         <v>985</v>
       </c>
       <c r="E948" s="2" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="949" spans="1:12" x14ac:dyDescent="0.4">
@@ -21385,16 +21466,16 @@
         <v>985</v>
       </c>
       <c r="E949" s="2" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="F949" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G949" s="2">
         <v>40</v>
       </c>
       <c r="L949" s="5" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="950" spans="1:12" x14ac:dyDescent="0.4">
@@ -21607,13 +21688,13 @@
         <v>985</v>
       </c>
       <c r="E964" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="F964" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G964" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="965" spans="1:12" x14ac:dyDescent="0.4">
@@ -21658,16 +21739,16 @@
         <v>985</v>
       </c>
       <c r="E967" s="4" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="F967" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G967" s="2">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L967" s="5" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="968" spans="1:12" x14ac:dyDescent="0.4">
@@ -21740,13 +21821,13 @@
         <v>985</v>
       </c>
       <c r="E972" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="G972" s="2">
         <v>90</v>
       </c>
       <c r="L972" s="5" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="973" spans="1:12" x14ac:dyDescent="0.4">
@@ -21805,7 +21886,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="977" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="977" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A977" s="3">
         <v>1268</v>
       </c>
@@ -21819,7 +21900,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="978" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="978" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A978" s="3">
         <v>1336</v>
       </c>
@@ -21833,7 +21914,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="979" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="979" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A979" s="3">
         <v>1565</v>
       </c>
@@ -21847,7 +21928,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="980" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="980" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A980" s="3">
         <v>1569</v>
       </c>
@@ -21861,7 +21942,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="981" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="981" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A981" s="3">
         <v>1570</v>
       </c>
@@ -21875,7 +21956,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="982" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="982" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A982" s="3">
         <v>1580</v>
       </c>
@@ -21889,7 +21970,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="983" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="983" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A983" s="3">
         <v>1584</v>
       </c>
@@ -21903,7 +21984,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="984" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="984" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A984" s="3">
         <v>1586</v>
       </c>
@@ -21917,7 +21998,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="985" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="985" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A985" s="3">
         <v>1591</v>
       </c>
@@ -21931,7 +22012,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="986" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="986" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A986" s="3">
         <v>1593</v>
       </c>
@@ -21945,7 +22026,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="987" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="987" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A987" s="3">
         <v>1595</v>
       </c>
@@ -21959,7 +22040,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="988" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="988" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A988" s="3">
         <v>1597</v>
       </c>
@@ -21973,10 +22054,10 @@
         <v>985</v>
       </c>
       <c r="E988" s="2" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="989" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="989" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A989" s="3">
         <v>1599</v>
       </c>
@@ -21990,7 +22071,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="990" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="990" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A990" s="3">
         <v>1742</v>
       </c>
@@ -22004,7 +22085,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="991" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="991" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A991" s="3">
         <v>1752</v>
       </c>
@@ -22018,7 +22099,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="992" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="992" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A992" s="3">
         <v>1777</v>
       </c>
@@ -22032,10 +22113,16 @@
         <v>985</v>
       </c>
       <c r="E992" s="2" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="993" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1923</v>
+      </c>
+      <c r="G992" s="2">
+        <v>70</v>
+      </c>
+      <c r="L992" s="5" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="993" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A993" s="3">
         <v>1781</v>
       </c>
@@ -22049,7 +22136,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="994" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="994" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A994" s="3">
         <v>1784</v>
       </c>
@@ -22063,7 +22150,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="995" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="995" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A995" s="3">
         <v>1785</v>
       </c>
@@ -22080,13 +22167,13 @@
         <v>277</v>
       </c>
       <c r="F995" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G995" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="996" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="996" spans="1:12" ht="108" x14ac:dyDescent="0.4">
       <c r="A996" s="3">
         <v>1788</v>
       </c>
@@ -22100,10 +22187,19 @@
         <v>985</v>
       </c>
       <c r="E996" s="2" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="997" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1923</v>
+      </c>
+      <c r="F996" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G996" s="2">
+        <v>110</v>
+      </c>
+      <c r="L996" s="5" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="997" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A997" s="3">
         <v>1796</v>
       </c>
@@ -22117,7 +22213,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="998" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="998" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A998" s="3">
         <v>1799</v>
       </c>
@@ -22131,7 +22227,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="999" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="999" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A999" s="3">
         <v>1813</v>
       </c>
@@ -22145,7 +22241,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1000" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1000" s="3">
         <v>1815</v>
       </c>
@@ -22159,7 +22255,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1001" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1001" s="3">
         <v>2035</v>
       </c>
@@ -22173,7 +22269,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1002" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1002" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1002" s="3">
         <v>2061</v>
       </c>
@@ -22187,7 +22283,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1003" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1003" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1003" s="3">
         <v>2063</v>
       </c>
@@ -22201,7 +22297,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1004" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1004" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1004" s="3">
         <v>2064</v>
       </c>
@@ -22215,7 +22311,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1005" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1005" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1005" s="3">
         <v>2065</v>
       </c>
@@ -22229,16 +22325,16 @@
         <v>985</v>
       </c>
       <c r="E1005" s="2" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="F1005" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G1005" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="1006" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1006" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1006" s="3">
         <v>2066</v>
       </c>
@@ -22252,7 +22348,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1007" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1007" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1007" s="3">
         <v>2067</v>
       </c>
@@ -22266,7 +22362,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1008" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1008" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1008" s="3">
         <v>2070</v>
       </c>
@@ -22378,10 +22474,10 @@
         <v>985</v>
       </c>
       <c r="E1015" s="2" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L1015" s="5" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1016" spans="1:12" x14ac:dyDescent="0.4">
@@ -22636,7 +22732,7 @@
         <v>985</v>
       </c>
       <c r="E1033" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1034" spans="1:8" x14ac:dyDescent="0.4">
@@ -22653,7 +22749,7 @@
         <v>985</v>
       </c>
       <c r="E1034" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1035" spans="1:8" x14ac:dyDescent="0.4">
@@ -22712,7 +22808,7 @@
         <v>985</v>
       </c>
       <c r="E1038" s="2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="H1038" s="2">
         <v>50</v>
@@ -22746,7 +22842,7 @@
         <v>985</v>
       </c>
       <c r="E1040" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1041" spans="1:12" x14ac:dyDescent="0.4">
@@ -22777,7 +22873,7 @@
         <v>985</v>
       </c>
       <c r="E1042" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1043" spans="1:12" x14ac:dyDescent="0.4">
@@ -22836,7 +22932,7 @@
         <v>985</v>
       </c>
       <c r="E1046" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1047" spans="1:12" x14ac:dyDescent="0.4">
@@ -22923,10 +23019,10 @@
         <v>985</v>
       </c>
       <c r="E1052" s="4" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="L1052" s="5" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1053" spans="1:12" x14ac:dyDescent="0.4">
@@ -23083,7 +23179,7 @@
         <v>985</v>
       </c>
       <c r="E1063" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1064" spans="1:12" x14ac:dyDescent="0.4">
@@ -23142,10 +23238,10 @@
         <v>985</v>
       </c>
       <c r="E1067" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="F1067" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1068" spans="1:12" x14ac:dyDescent="0.4">
@@ -23176,10 +23272,10 @@
         <v>985</v>
       </c>
       <c r="E1069" s="4" t="s">
+        <v>1912</v>
+      </c>
+      <c r="L1069" s="5" t="s">
         <v>1913</v>
-      </c>
-      <c r="L1069" s="5" t="s">
-        <v>1914</v>
       </c>
     </row>
     <row r="1070" spans="1:12" x14ac:dyDescent="0.4">
@@ -23238,7 +23334,7 @@
         <v>985</v>
       </c>
       <c r="E1073" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1074" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
@@ -23255,16 +23351,16 @@
         <v>985</v>
       </c>
       <c r="E1074" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="F1074" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="G1074" s="2">
         <v>150</v>
       </c>
       <c r="L1074" s="5" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1075" spans="1:12" x14ac:dyDescent="0.4">
@@ -23449,7 +23545,7 @@
         <v>985</v>
       </c>
       <c r="E1087" s="4" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1088" spans="1:12" x14ac:dyDescent="0.4">
@@ -23508,16 +23604,16 @@
         <v>985</v>
       </c>
       <c r="E1091" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F1091" s="2" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="H1091" s="2">
         <v>55</v>
       </c>
       <c r="L1091" s="7" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1092" spans="1:12" x14ac:dyDescent="0.4">
@@ -23632,13 +23728,13 @@
         <v>985</v>
       </c>
       <c r="E1099" s="4" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="F1099" s="2" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="G1099" s="2">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="I1099" s="2">
         <v>760</v>
@@ -23647,7 +23743,7 @@
         <v>1080</v>
       </c>
       <c r="L1099" s="7" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1100" spans="1:12" x14ac:dyDescent="0.4">
@@ -23793,7 +23889,7 @@
         <v>1773</v>
       </c>
       <c r="F1109" s="2" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G1109" s="2">
         <v>215</v>
@@ -23869,13 +23965,13 @@
         <v>985</v>
       </c>
       <c r="E1114" s="4" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="F1114" s="2" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="L1114" s="5" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1115" spans="1:12" x14ac:dyDescent="0.4">
@@ -23892,7 +23988,7 @@
         <v>985</v>
       </c>
       <c r="E1115" s="2" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1116" spans="1:12" x14ac:dyDescent="0.4">
@@ -24111,7 +24207,7 @@
         <v>985</v>
       </c>
       <c r="E1130" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1131" spans="1:7" x14ac:dyDescent="0.4">
@@ -24159,10 +24255,10 @@
         <v>1773</v>
       </c>
       <c r="F1133" s="2" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G1133" s="2">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1134" spans="1:7" x14ac:dyDescent="0.4">
@@ -24389,16 +24485,16 @@
         <v>985</v>
       </c>
       <c r="E1149" s="2" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="F1149" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G1149" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L1149" s="5" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1150" spans="1:12" x14ac:dyDescent="0.4">
@@ -24471,7 +24567,7 @@
         <v>985</v>
       </c>
       <c r="E1154" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1155" spans="1:12" x14ac:dyDescent="0.4">
@@ -24502,13 +24598,16 @@
         <v>985</v>
       </c>
       <c r="E1156" s="4" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="F1156" s="2" t="s">
-        <v>1984</v>
+        <v>1982</v>
+      </c>
+      <c r="G1156" s="2">
+        <v>90</v>
       </c>
       <c r="L1156" s="5" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1157" spans="1:12" x14ac:dyDescent="0.4">
@@ -24553,10 +24652,10 @@
         <v>985</v>
       </c>
       <c r="E1159" s="4" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="F1159" s="2" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="G1159" s="2">
         <v>140</v>
@@ -24565,7 +24664,7 @@
         <v>183</v>
       </c>
       <c r="L1159" s="7" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1160" spans="1:12" x14ac:dyDescent="0.4">
@@ -24862,7 +24961,7 @@
         <v>985</v>
       </c>
       <c r="E1180" s="2" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1181" spans="1:5" x14ac:dyDescent="0.4">
@@ -25067,7 +25166,7 @@
         <v>985</v>
       </c>
       <c r="E1194" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1195" spans="1:7" x14ac:dyDescent="0.4">
@@ -25202,13 +25301,13 @@
         <v>985</v>
       </c>
       <c r="E1203" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F1203" s="2" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="L1203" s="5" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1204" spans="1:12" x14ac:dyDescent="0.4">
@@ -25225,10 +25324,10 @@
         <v>985</v>
       </c>
       <c r="E1204" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="L1204" s="5" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1205" spans="1:12" x14ac:dyDescent="0.4">
@@ -25343,16 +25442,16 @@
         <v>985</v>
       </c>
       <c r="E1212" s="4" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F1212" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G1212" s="2">
         <v>61</v>
       </c>
       <c r="L1212" s="5" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1213" spans="1:12" x14ac:dyDescent="0.4">
@@ -25397,7 +25496,7 @@
         <v>985</v>
       </c>
       <c r="E1215" s="2" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1216" spans="1:12" x14ac:dyDescent="0.4">
@@ -25582,7 +25681,7 @@
         <v>985</v>
       </c>
       <c r="E1228" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1229" spans="1:5" x14ac:dyDescent="0.4">
@@ -25641,7 +25740,7 @@
         <v>985</v>
       </c>
       <c r="E1232" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1233" spans="1:5" x14ac:dyDescent="0.4">
@@ -25728,7 +25827,7 @@
         <v>985</v>
       </c>
       <c r="E1238" s="2" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1239" spans="1:5" x14ac:dyDescent="0.4">
@@ -26473,10 +26572,10 @@
         <v>985</v>
       </c>
       <c r="E1291" s="4" t="s">
+        <v>2005</v>
+      </c>
+      <c r="L1291" s="5" t="s">
         <v>2007</v>
-      </c>
-      <c r="L1291" s="5" t="s">
-        <v>2009</v>
       </c>
     </row>
     <row r="1292" spans="1:12" x14ac:dyDescent="0.4">
@@ -26535,7 +26634,7 @@
         <v>985</v>
       </c>
       <c r="E1295" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1296" spans="1:12" x14ac:dyDescent="0.4">
@@ -26566,7 +26665,7 @@
         <v>985</v>
       </c>
       <c r="E1297" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1298" spans="1:5" x14ac:dyDescent="0.4">
@@ -26821,16 +26920,16 @@
         <v>985</v>
       </c>
       <c r="E1315" s="4" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="F1315" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G1315" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L1315" s="7" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1316" spans="1:12" x14ac:dyDescent="0.4">
@@ -26861,7 +26960,7 @@
         <v>985</v>
       </c>
       <c r="E1317" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1318" spans="1:12" x14ac:dyDescent="0.4">
@@ -26878,7 +26977,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1319" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1319" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A1319" s="3">
         <v>4953</v>
       </c>
@@ -26892,13 +26991,13 @@
         <v>985</v>
       </c>
       <c r="E1319" s="2" t="s">
-        <v>1970</v>
-      </c>
-      <c r="F1319" s="2" t="s">
-        <v>1834</v>
+        <v>1968</v>
       </c>
       <c r="G1319" s="2">
         <v>80</v>
+      </c>
+      <c r="L1319" s="5" t="s">
+        <v>2030</v>
       </c>
     </row>
     <row r="1320" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
@@ -26915,13 +27014,13 @@
         <v>985</v>
       </c>
       <c r="E1320" s="2" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G1320" s="2">
         <v>80</v>
       </c>
       <c r="L1320" s="5" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1321" spans="1:12" x14ac:dyDescent="0.4">
@@ -27190,7 +27289,7 @@
         <v>985</v>
       </c>
       <c r="E1339" s="2" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1340" spans="1:5" x14ac:dyDescent="0.4">
@@ -27207,7 +27306,7 @@
         <v>985</v>
       </c>
       <c r="E1340" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1341" spans="1:5" x14ac:dyDescent="0.4">
@@ -27392,7 +27491,7 @@
         <v>985</v>
       </c>
       <c r="E1353" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1354" spans="1:5" x14ac:dyDescent="0.4">
@@ -27549,7 +27648,7 @@
         <v>985</v>
       </c>
       <c r="E1364" s="2" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1365" spans="1:12" ht="46.3" x14ac:dyDescent="0.4">
@@ -27566,10 +27665,10 @@
         <v>985</v>
       </c>
       <c r="E1365" s="4" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="F1365" s="2" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="G1365" s="2">
         <v>40</v>
@@ -27578,7 +27677,7 @@
         <v>48.2</v>
       </c>
       <c r="L1365" s="5" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1366" spans="1:12" x14ac:dyDescent="0.4">
@@ -27735,7 +27834,7 @@
         <v>985</v>
       </c>
       <c r="E1376" s="4" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="G1376" s="2">
         <v>85</v>
@@ -27937,10 +28036,10 @@
         <v>985</v>
       </c>
       <c r="E1390" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="L1390" s="5" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1391" spans="1:12" x14ac:dyDescent="0.4">
@@ -27999,13 +28098,13 @@
         <v>985</v>
       </c>
       <c r="E1394" s="4" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="G1394" s="2">
         <v>50</v>
       </c>
       <c r="L1394" s="5" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1395" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
@@ -28022,16 +28121,16 @@
         <v>985</v>
       </c>
       <c r="E1395" s="4" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="F1395" s="2" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="G1395" s="2">
         <v>40</v>
       </c>
       <c r="L1395" s="5" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1396" spans="1:12" x14ac:dyDescent="0.4">
@@ -28062,16 +28161,16 @@
         <v>985</v>
       </c>
       <c r="E1397" s="2" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="F1397" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="G1397" s="2">
         <v>10</v>
       </c>
       <c r="L1397" s="5" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1398" spans="1:12" x14ac:dyDescent="0.4">
@@ -28102,7 +28201,7 @@
         <v>985</v>
       </c>
       <c r="E1399" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1400" spans="1:12" x14ac:dyDescent="0.4">
@@ -28175,7 +28274,7 @@
         <v>985</v>
       </c>
       <c r="E1404" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1405" spans="1:12" x14ac:dyDescent="0.4">
@@ -28206,7 +28305,7 @@
         <v>985</v>
       </c>
       <c r="E1406" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1407" spans="1:12" x14ac:dyDescent="0.4">
@@ -28237,10 +28336,10 @@
         <v>985</v>
       </c>
       <c r="E1408" s="4" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="L1408" s="5" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1409" spans="1:12" x14ac:dyDescent="0.4">
@@ -28257,7 +28356,7 @@
         <v>985</v>
       </c>
       <c r="L1409" s="5" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1410" spans="1:12" x14ac:dyDescent="0.4">
@@ -28330,7 +28429,7 @@
         <v>985</v>
       </c>
       <c r="E1414" s="2" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="G1414" s="2">
         <v>12</v>
@@ -28546,10 +28645,10 @@
         <v>985</v>
       </c>
       <c r="E1429" s="2" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F1429" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G1429" s="2">
         <v>60</v>
@@ -28667,7 +28766,7 @@
         <v>985</v>
       </c>
       <c r="E1437" s="2" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1438" spans="1:7" x14ac:dyDescent="0.4">
@@ -28684,7 +28783,7 @@
         <v>985</v>
       </c>
       <c r="E1438" s="2" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="G1438" s="2">
         <v>430</v>
@@ -28821,16 +28920,16 @@
         <v>6104</v>
       </c>
       <c r="B1448" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C1448" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D1448" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="E1448" s="2" t="s">
         <v>1851</v>
-      </c>
-      <c r="C1448" s="2" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D1448" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="E1448" s="2" t="s">
-        <v>1852</v>
       </c>
       <c r="L1448" s="5" t="s">
         <v>1762</v>
@@ -29004,7 +29103,7 @@
         <v>985</v>
       </c>
       <c r="E1460" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1461" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
@@ -29021,13 +29120,13 @@
         <v>985</v>
       </c>
       <c r="E1461" s="4" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="F1461" s="2" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="L1461" s="5" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1462" spans="1:12" x14ac:dyDescent="0.4">
@@ -29072,7 +29171,7 @@
         <v>985</v>
       </c>
       <c r="E1464" s="4" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1465" spans="1:12" x14ac:dyDescent="0.4">
@@ -29299,7 +29398,7 @@
         <v>985</v>
       </c>
       <c r="E1480" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1481" spans="1:12" x14ac:dyDescent="0.4">
@@ -29344,13 +29443,13 @@
         <v>985</v>
       </c>
       <c r="E1483" s="4" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="G1483" s="2">
         <v>60</v>
       </c>
       <c r="L1483" s="5" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1484" spans="1:12" x14ac:dyDescent="0.4">
@@ -29409,7 +29508,7 @@
         <v>985</v>
       </c>
       <c r="E1487" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1488" spans="1:12" x14ac:dyDescent="0.4">
@@ -29426,7 +29525,7 @@
         <v>985</v>
       </c>
       <c r="E1488" s="2" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1489" spans="1:12" x14ac:dyDescent="0.4">
@@ -29592,7 +29691,7 @@
         <v>985</v>
       </c>
       <c r="E1499" s="4" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1500" spans="1:12" x14ac:dyDescent="0.4">
@@ -29735,7 +29834,7 @@
         <v>985</v>
       </c>
       <c r="E1509" s="2" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1510" spans="1:12" x14ac:dyDescent="0.4">
@@ -29766,13 +29865,16 @@
         <v>985</v>
       </c>
       <c r="E1511" s="4" t="s">
-        <v>1889</v>
+        <v>2027</v>
       </c>
       <c r="F1511" s="2" t="s">
-        <v>1831</v>
+        <v>1888</v>
       </c>
       <c r="G1511" s="2">
         <v>100</v>
+      </c>
+      <c r="L1511" s="5" t="s">
+        <v>2028</v>
       </c>
     </row>
     <row r="1512" spans="1:12" x14ac:dyDescent="0.4">
@@ -29831,7 +29933,7 @@
         <v>985</v>
       </c>
       <c r="E1515" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1516" spans="1:12" x14ac:dyDescent="0.4">
@@ -29848,7 +29950,7 @@
         <v>985</v>
       </c>
       <c r="E1516" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1517" spans="1:12" x14ac:dyDescent="0.4">
@@ -29884,7 +29986,7 @@
         <v>6237</v>
       </c>
       <c r="B1519" s="1" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C1519" s="2" t="s">
         <v>1759</v>
@@ -29893,13 +29995,13 @@
         <v>985</v>
       </c>
       <c r="E1519" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F1519" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="L1519" s="5" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="1520" spans="1:12" x14ac:dyDescent="0.4">
@@ -30168,7 +30270,7 @@
         <v>985</v>
       </c>
       <c r="E1538" s="4" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1539" spans="1:12" x14ac:dyDescent="0.4">
@@ -30269,13 +30371,10 @@
         <v>985</v>
       </c>
       <c r="E1545" s="2" t="s">
-        <v>1934</v>
-      </c>
-      <c r="F1545" s="2" t="s">
-        <v>2004</v>
+        <v>1933</v>
       </c>
       <c r="L1545" s="5" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1546" spans="1:12" x14ac:dyDescent="0.4">
@@ -30348,7 +30447,7 @@
         <v>985</v>
       </c>
       <c r="E1550" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1551" spans="1:12" x14ac:dyDescent="0.4">
@@ -30407,16 +30506,16 @@
         <v>985</v>
       </c>
       <c r="E1554" s="4" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="F1554" s="2" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="G1554" s="2">
         <v>130</v>
       </c>
       <c r="L1554" s="5" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1555" spans="1:12" x14ac:dyDescent="0.4">
@@ -30433,7 +30532,7 @@
         <v>985</v>
       </c>
       <c r="E1555" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1556" spans="1:12" x14ac:dyDescent="0.4">
@@ -30590,7 +30689,7 @@
         <v>985</v>
       </c>
       <c r="E1566" s="2" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1567" spans="1:12" x14ac:dyDescent="0.4">
@@ -30649,10 +30748,10 @@
         <v>985</v>
       </c>
       <c r="E1570" s="4" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="L1570" s="5" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1571" spans="1:12" x14ac:dyDescent="0.4">
@@ -30697,7 +30796,7 @@
         <v>985</v>
       </c>
       <c r="E1573" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1574" spans="1:12" x14ac:dyDescent="0.4">
@@ -30826,10 +30925,10 @@
         <v>985</v>
       </c>
       <c r="E1582" s="4" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="L1582" s="5" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1583" spans="1:12" x14ac:dyDescent="0.4">
@@ -30849,7 +30948,7 @@
         <v>1771</v>
       </c>
       <c r="F1583" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="H1583" s="2">
         <v>220</v>
@@ -30863,7 +30962,7 @@
         <v>6542</v>
       </c>
       <c r="B1584" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="C1584" s="2" t="s">
         <v>1759</v>
@@ -30872,7 +30971,7 @@
         <v>985</v>
       </c>
       <c r="E1584" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1585" spans="1:12" x14ac:dyDescent="0.4">
@@ -30894,19 +30993,19 @@
         <v>6548</v>
       </c>
       <c r="B1586" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C1586" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D1586" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="E1586" s="2" t="s">
         <v>1908</v>
       </c>
-      <c r="C1586" s="2" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D1586" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="E1586" s="2" t="s">
-        <v>1909</v>
-      </c>
       <c r="L1586" s="5" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1587" spans="1:12" x14ac:dyDescent="0.4">
@@ -31021,7 +31120,7 @@
         <v>985</v>
       </c>
       <c r="E1594" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1595" spans="1:12" x14ac:dyDescent="0.4">
@@ -31080,7 +31179,7 @@
         <v>985</v>
       </c>
       <c r="E1598" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1599" spans="1:12" x14ac:dyDescent="0.4">
@@ -31097,7 +31196,7 @@
         <v>985</v>
       </c>
       <c r="E1599" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1600" spans="1:12" x14ac:dyDescent="0.4">
@@ -31268,10 +31367,10 @@
         <v>985</v>
       </c>
       <c r="E1611" s="2" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="L1611" s="5" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1612" spans="1:12" x14ac:dyDescent="0.4">
@@ -31386,7 +31485,7 @@
         <v>985</v>
       </c>
       <c r="E1619" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1620" spans="1:12" x14ac:dyDescent="0.4">
@@ -31417,16 +31516,16 @@
         <v>985</v>
       </c>
       <c r="E1621" s="2" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F1621" s="2" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="G1621" s="2">
         <v>103</v>
       </c>
       <c r="L1621" s="5" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1622" spans="1:12" x14ac:dyDescent="0.4">
@@ -31541,7 +31640,7 @@
         <v>985</v>
       </c>
       <c r="E1629" s="4" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="G1629" s="2">
         <v>70</v>
@@ -31617,10 +31716,10 @@
         <v>985</v>
       </c>
       <c r="E1634" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="L1634" s="5" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1635" spans="1:12" x14ac:dyDescent="0.4">
@@ -31805,16 +31904,16 @@
         <v>985</v>
       </c>
       <c r="E1647" s="2" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F1647" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G1647" s="2">
         <v>40</v>
       </c>
       <c r="L1647" s="5" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1648" spans="1:12" x14ac:dyDescent="0.4">
@@ -31901,7 +32000,7 @@
         <v>985</v>
       </c>
       <c r="E1653" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1654" spans="1:7" x14ac:dyDescent="0.4">
@@ -31946,7 +32045,7 @@
         <v>985</v>
       </c>
       <c r="E1656" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1657" spans="1:7" x14ac:dyDescent="0.4">
@@ -31977,10 +32076,10 @@
         <v>985</v>
       </c>
       <c r="E1658" s="4" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="F1658" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="G1658" s="2">
         <v>26</v>
@@ -32434,7 +32533,7 @@
         <v>985</v>
       </c>
       <c r="E1690" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1691" spans="1:5" x14ac:dyDescent="0.4">
@@ -33025,7 +33124,7 @@
         <v>985</v>
       </c>
       <c r="E1732" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1733" spans="1:5" x14ac:dyDescent="0.4">
@@ -33238,10 +33337,10 @@
         <v>985</v>
       </c>
       <c r="E1747" s="4" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F1747" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="G1747" s="2">
         <v>40</v>
@@ -33275,168 +33374,168 @@
   <sheetData>
     <row r="2" spans="1:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3" s="9" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="11" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C14" s="11" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C16" s="12" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>1801</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="14" t="s">
         <v>1802</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="17" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C22" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>1808</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>1814</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C27" s="18"/>
       <c r="D27" s="19"/>
       <c r="E27" s="20" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="29" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C29" s="12" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E29" s="22">
         <v>44151</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.4">
@@ -33444,7 +33543,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="17" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.4">
@@ -33452,7 +33551,7 @@
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="17" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.4">
@@ -33460,7 +33559,7 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="17" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.4">
@@ -33468,7 +33567,7 @@
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="17" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
@@ -33476,7 +33575,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="20" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
   </sheetData>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D6E149-50BF-43F1-A87D-0A45443D21CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FCC1CD-C590-45D2-ABFC-834DE3BD5D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5787" uniqueCount="2038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5790" uniqueCount="2041">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5903,13 +5903,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9月 EPS 0.9
-10月 EPS 1.08
-11月營收新高
-2021 EPS上看15塊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鴻海
 PCB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6556,6 +6549,26 @@
 各項產品比重上
 血液透析耗材佔約83%、急重症各科別約佔8%、牙材3%、其他各項佔6%
 美金計價，美金受惠股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月 EPS 0.9
+10月 EPS 1.08
+11月營收新高
+2021 EPS上看15 ~ 18塊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磊晶矽晶圓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半導體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二及體
+IGBT 模組</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7081,8 +7094,8 @@
   <dimension ref="A1:L1747"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A987" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L997" sqref="L997"/>
+      <pane ySplit="1" topLeftCell="A1668" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1678" sqref="L1678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -7118,7 +7131,7 @@
         <v>1889</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1787</v>
@@ -7153,10 +7166,10 @@
         <v>985</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1962</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1963</v>
       </c>
       <c r="G2" s="2">
         <v>41</v>
@@ -7361,7 +7374,7 @@
         <v>985</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -7392,7 +7405,7 @@
         <v>985</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1833</v>
@@ -7471,7 +7484,7 @@
         <v>985</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>1833</v>
@@ -7822,7 +7835,7 @@
         <v>1884</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="H47" s="2">
         <v>120</v>
@@ -8473,7 +8486,7 @@
         <v>1881</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="H92" s="2">
         <v>20</v>
@@ -8724,14 +8737,14 @@
         <v>1893</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="G108" s="2">
         <v>46</v>
       </c>
       <c r="K108" s="5"/>
       <c r="L108" s="5" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.4">
@@ -8751,7 +8764,7 @@
         <v>1825</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.4">
@@ -8802,10 +8815,10 @@
         <v>1876</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
@@ -9195,10 +9208,10 @@
         <v>1825</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="L139" s="5" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.4">
@@ -9331,7 +9344,7 @@
         <v>13</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.4">
@@ -9628,10 +9641,10 @@
         <v>985</v>
       </c>
       <c r="E168" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="L168" s="5" t="s">
         <v>1923</v>
-      </c>
-      <c r="L168" s="5" t="s">
-        <v>1924</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.4">
@@ -9802,7 +9815,7 @@
         <v>985</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.4">
@@ -9836,10 +9849,10 @@
         <v>1836</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.4">
@@ -9870,7 +9883,7 @@
         <v>985</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.4">
@@ -11021,13 +11034,13 @@
         <v>1825</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="G263" s="2">
         <v>130</v>
       </c>
       <c r="L263" s="5" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.4">
@@ -11106,7 +11119,7 @@
         <v>1872</v>
       </c>
       <c r="L268" s="5" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.4">
@@ -11185,10 +11198,10 @@
         <v>985</v>
       </c>
       <c r="E273" s="4" t="s">
+        <v>1898</v>
+      </c>
+      <c r="L273" s="5" t="s">
         <v>1899</v>
-      </c>
-      <c r="L273" s="5" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.4">
@@ -11402,10 +11415,10 @@
         <v>985</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="L287" s="5" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.4">
@@ -11627,7 +11640,7 @@
         <v>1835</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G302" s="2">
         <v>45</v>
@@ -11715,7 +11728,7 @@
         <v>50</v>
       </c>
       <c r="L307" s="5" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.4">
@@ -11735,10 +11748,10 @@
         <v>1823</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="L308" s="5" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.4">
@@ -11758,10 +11771,10 @@
         <v>1823</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="L309" s="5" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="310" spans="1:12" ht="77.150000000000006" x14ac:dyDescent="0.4">
@@ -11784,7 +11797,7 @@
         <v>280</v>
       </c>
       <c r="L310" s="5" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.4">
@@ -12079,10 +12092,10 @@
         <v>1870</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="L330" s="5" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.4">
@@ -12153,13 +12166,13 @@
         <v>1823</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="H334" s="2">
         <v>60</v>
       </c>
       <c r="L334" s="5" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.4">
@@ -12381,7 +12394,7 @@
         <v>1855</v>
       </c>
       <c r="L349" s="5" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.4">
@@ -12615,13 +12628,13 @@
         <v>1834</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G364" s="2">
         <v>100</v>
       </c>
       <c r="L364" s="5" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.4">
@@ -12767,10 +12780,10 @@
         <v>985</v>
       </c>
       <c r="E374" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="L374" s="5" t="s">
         <v>2019</v>
-      </c>
-      <c r="L374" s="5" t="s">
-        <v>2020</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.4">
@@ -12806,7 +12819,7 @@
         <v>2472</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>4</v>
@@ -12876,11 +12889,8 @@
       <c r="E381" s="2" t="s">
         <v>1834</v>
       </c>
-      <c r="I381" s="2">
-        <v>87.5</v>
-      </c>
       <c r="L381" s="5" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.4">
@@ -12914,13 +12924,13 @@
         <v>1834</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="G383" s="2">
         <v>45</v>
       </c>
       <c r="L383" s="5" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.4">
@@ -12993,7 +13003,7 @@
         <v>985</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.4">
@@ -13052,7 +13062,7 @@
         <v>985</v>
       </c>
       <c r="E392" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="G392" s="2">
         <v>190</v>
@@ -13271,7 +13281,7 @@
         <v>985</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.4">
@@ -13358,7 +13368,7 @@
         <v>985</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.4">
@@ -13487,10 +13497,10 @@
         <v>985</v>
       </c>
       <c r="E422" s="4" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="G422" s="2">
         <v>46</v>
@@ -13524,7 +13534,7 @@
         <v>985</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.4">
@@ -14761,7 +14771,7 @@
         <v>985</v>
       </c>
       <c r="E507" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>1833</v>
@@ -15097,7 +15107,7 @@
         <v>1823</v>
       </c>
       <c r="L529" s="5" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.4">
@@ -15117,7 +15127,7 @@
         <v>1840</v>
       </c>
       <c r="L530" s="5" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.4">
@@ -15151,10 +15161,10 @@
         <v>1773</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="L532" s="5" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.4">
@@ -15230,13 +15240,13 @@
         <v>985</v>
       </c>
       <c r="E537" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="G537" s="2">
         <v>160</v>
       </c>
       <c r="L537" s="5" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.4">
@@ -15326,7 +15336,7 @@
         <v>985</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="G543" s="2">
         <v>36</v>
@@ -15402,13 +15412,13 @@
         <v>985</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="G548" s="2">
         <v>260</v>
       </c>
       <c r="L548" s="5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.4">
@@ -15510,7 +15520,7 @@
         <v>29</v>
       </c>
       <c r="L554" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.4">
@@ -15572,10 +15582,10 @@
         <v>1870</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="L558" s="5" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.4">
@@ -15718,7 +15728,7 @@
         <v>985</v>
       </c>
       <c r="E568" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.4">
@@ -15878,10 +15888,10 @@
         <v>1835</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="L579" s="5" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="580" spans="1:12" x14ac:dyDescent="0.4">
@@ -16327,7 +16337,7 @@
         <v>1823</v>
       </c>
       <c r="L610" s="5" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.4">
@@ -16409,7 +16419,7 @@
         <v>300</v>
       </c>
       <c r="L615" s="5" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.4">
@@ -16558,7 +16568,7 @@
         <v>1855</v>
       </c>
       <c r="L625" s="5" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="626" spans="1:12" x14ac:dyDescent="0.4">
@@ -16687,7 +16697,7 @@
         <v>985</v>
       </c>
       <c r="E634" s="2" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G634" s="2">
         <v>200</v>
@@ -16741,7 +16751,7 @@
         <v>1823</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="H637" s="2">
         <v>100</v>
@@ -16910,10 +16920,10 @@
         <v>1878</v>
       </c>
       <c r="F648" s="2" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="L648" s="5" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.4">
@@ -17006,16 +17016,16 @@
         <v>985</v>
       </c>
       <c r="E654" s="4" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F654" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="G654" s="2">
         <v>48</v>
       </c>
       <c r="L654" s="5" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="655" spans="1:12" x14ac:dyDescent="0.4">
@@ -17060,10 +17070,10 @@
         <v>985</v>
       </c>
       <c r="E657" s="4" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F657" s="2" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G657" s="2">
         <v>70</v>
@@ -17125,10 +17135,10 @@
         <v>985</v>
       </c>
       <c r="E661" s="4" t="s">
+        <v>2004</v>
+      </c>
+      <c r="L661" s="5" t="s">
         <v>2005</v>
-      </c>
-      <c r="L661" s="5" t="s">
-        <v>2006</v>
       </c>
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.4">
@@ -17534,7 +17544,7 @@
         <v>4725</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>4</v>
@@ -17672,10 +17682,10 @@
         <v>1870</v>
       </c>
       <c r="F699" s="2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="L699" s="5" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="700" spans="1:12" x14ac:dyDescent="0.4">
@@ -17810,7 +17820,7 @@
         <v>1823</v>
       </c>
       <c r="L708" s="5" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="709" spans="1:12" x14ac:dyDescent="0.4">
@@ -17928,7 +17938,7 @@
         <v>1872</v>
       </c>
       <c r="L716" s="5" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="717" spans="1:12" x14ac:dyDescent="0.4">
@@ -17965,13 +17975,13 @@
         <v>985</v>
       </c>
       <c r="E718" s="2" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="G718" s="2">
         <v>200</v>
       </c>
       <c r="L718" s="5" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.4">
@@ -18101,7 +18111,7 @@
         <v>160</v>
       </c>
       <c r="L726" s="5" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="727" spans="1:12" x14ac:dyDescent="0.4">
@@ -18188,7 +18198,7 @@
         <v>985</v>
       </c>
       <c r="E732" s="2" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="733" spans="1:12" x14ac:dyDescent="0.4">
@@ -18233,10 +18243,10 @@
         <v>985</v>
       </c>
       <c r="E735" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="L735" s="5" t="s">
         <v>1908</v>
-      </c>
-      <c r="L735" s="5" t="s">
-        <v>1909</v>
       </c>
     </row>
     <row r="736" spans="1:12" x14ac:dyDescent="0.4">
@@ -18452,7 +18462,7 @@
         <v>985</v>
       </c>
       <c r="E750" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.4">
@@ -18539,10 +18549,10 @@
         <v>985</v>
       </c>
       <c r="E756" s="4" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="F756" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="G756" s="2">
         <v>110</v>
@@ -18674,13 +18684,13 @@
         <v>985</v>
       </c>
       <c r="E765" s="2" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G765" s="2">
         <v>41</v>
       </c>
       <c r="L765" s="5" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="766" spans="1:12" x14ac:dyDescent="0.4">
@@ -18857,7 +18867,7 @@
         <v>985</v>
       </c>
       <c r="E777" s="4" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="F777" s="2" t="s">
         <v>1830</v>
@@ -18866,7 +18876,7 @@
         <v>30</v>
       </c>
       <c r="L777" s="5" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="778" spans="1:12" x14ac:dyDescent="0.4">
@@ -18995,7 +19005,7 @@
         <v>985</v>
       </c>
       <c r="E786" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="F786" s="2" t="s">
         <v>1833</v>
@@ -19142,7 +19152,7 @@
         <v>42</v>
       </c>
       <c r="L795" s="5" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="796" spans="1:12" x14ac:dyDescent="0.4">
@@ -19291,7 +19301,7 @@
         <v>1773</v>
       </c>
       <c r="L805" s="5" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="806" spans="1:12" x14ac:dyDescent="0.4">
@@ -19370,7 +19380,7 @@
         <v>1859</v>
       </c>
       <c r="F810" s="2" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="811" spans="1:12" x14ac:dyDescent="0.4">
@@ -19598,7 +19608,7 @@
         <v>985</v>
       </c>
       <c r="E825" s="2" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="826" spans="1:12" x14ac:dyDescent="0.4">
@@ -19660,7 +19670,7 @@
         <v>1771</v>
       </c>
       <c r="F829" s="2" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G829" s="2">
         <v>30</v>
@@ -19683,7 +19693,7 @@
         <v>1855</v>
       </c>
       <c r="L830" s="5" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="831" spans="1:12" x14ac:dyDescent="0.4">
@@ -19964,7 +19974,7 @@
         <v>985</v>
       </c>
       <c r="E849" s="4" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="G849" s="2">
         <v>50</v>
@@ -19984,7 +19994,7 @@
         <v>985</v>
       </c>
       <c r="E850" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="851" spans="1:12" x14ac:dyDescent="0.4">
@@ -20181,7 +20191,7 @@
         <v>100</v>
       </c>
       <c r="L863" s="5" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="864" spans="1:12" x14ac:dyDescent="0.4">
@@ -20254,10 +20264,10 @@
         <v>985</v>
       </c>
       <c r="E868" s="4" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F868" s="2" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="G868" s="2">
         <v>25</v>
@@ -20373,10 +20383,10 @@
         <v>985</v>
       </c>
       <c r="E875" s="2" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="L875" s="5" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="876" spans="1:12" x14ac:dyDescent="0.4">
@@ -20665,16 +20675,16 @@
         <v>985</v>
       </c>
       <c r="E895" s="2" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F895" s="2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="G895" s="2">
         <v>21</v>
       </c>
       <c r="L895" s="5" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="896" spans="1:12" x14ac:dyDescent="0.4">
@@ -20803,16 +20813,16 @@
         <v>985</v>
       </c>
       <c r="E904" s="2" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="F904" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G904" s="2">
         <v>320</v>
       </c>
       <c r="L904" s="5" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="905" spans="1:12" x14ac:dyDescent="0.4">
@@ -21000,7 +21010,7 @@
         <v>1823</v>
       </c>
       <c r="L917" s="5" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="918" spans="1:12" x14ac:dyDescent="0.4">
@@ -21429,10 +21439,10 @@
         <v>1883</v>
       </c>
       <c r="F947" s="2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="L947" s="5" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="948" spans="1:12" x14ac:dyDescent="0.4">
@@ -21466,7 +21476,7 @@
         <v>985</v>
       </c>
       <c r="E949" s="2" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="F949" s="2" t="s">
         <v>1833</v>
@@ -21475,7 +21485,7 @@
         <v>40</v>
       </c>
       <c r="L949" s="5" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="950" spans="1:12" x14ac:dyDescent="0.4">
@@ -21688,10 +21698,10 @@
         <v>985</v>
       </c>
       <c r="E964" s="4" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="F964" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="G964" s="2">
         <v>95</v>
@@ -21739,16 +21749,16 @@
         <v>985</v>
       </c>
       <c r="E967" s="4" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="F967" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="G967" s="2">
         <v>55</v>
       </c>
       <c r="L967" s="5" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="968" spans="1:12" x14ac:dyDescent="0.4">
@@ -21827,7 +21837,7 @@
         <v>90</v>
       </c>
       <c r="L972" s="5" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="973" spans="1:12" x14ac:dyDescent="0.4">
@@ -22113,13 +22123,13 @@
         <v>985</v>
       </c>
       <c r="E992" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="G992" s="2">
         <v>70</v>
       </c>
       <c r="L992" s="5" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="993" spans="1:12" x14ac:dyDescent="0.4">
@@ -22187,7 +22197,7 @@
         <v>985</v>
       </c>
       <c r="E996" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F996" s="2" t="s">
         <v>1833</v>
@@ -22196,7 +22206,7 @@
         <v>110</v>
       </c>
       <c r="L996" s="5" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="997" spans="1:12" x14ac:dyDescent="0.4">
@@ -22325,10 +22335,10 @@
         <v>985</v>
       </c>
       <c r="E1005" s="2" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="F1005" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="G1005" s="2">
         <v>42</v>
@@ -22474,10 +22484,10 @@
         <v>985</v>
       </c>
       <c r="E1015" s="2" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="L1015" s="5" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1016" spans="1:12" x14ac:dyDescent="0.4">
@@ -23019,10 +23029,10 @@
         <v>985</v>
       </c>
       <c r="E1052" s="4" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="L1052" s="5" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1053" spans="1:12" x14ac:dyDescent="0.4">
@@ -23179,7 +23189,7 @@
         <v>985</v>
       </c>
       <c r="E1063" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1064" spans="1:12" x14ac:dyDescent="0.4">
@@ -23272,10 +23282,10 @@
         <v>985</v>
       </c>
       <c r="E1069" s="4" t="s">
+        <v>1911</v>
+      </c>
+      <c r="L1069" s="5" t="s">
         <v>1912</v>
-      </c>
-      <c r="L1069" s="5" t="s">
-        <v>1913</v>
       </c>
     </row>
     <row r="1070" spans="1:12" x14ac:dyDescent="0.4">
@@ -23360,7 +23370,7 @@
         <v>150</v>
       </c>
       <c r="L1074" s="5" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1075" spans="1:12" x14ac:dyDescent="0.4">
@@ -23607,7 +23617,7 @@
         <v>1823</v>
       </c>
       <c r="F1091" s="2" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H1091" s="2">
         <v>55</v>
@@ -23731,7 +23741,7 @@
         <v>1847</v>
       </c>
       <c r="F1099" s="2" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="G1099" s="2">
         <v>700</v>
@@ -23889,7 +23899,7 @@
         <v>1773</v>
       </c>
       <c r="F1109" s="2" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G1109" s="2">
         <v>215</v>
@@ -23965,13 +23975,13 @@
         <v>985</v>
       </c>
       <c r="E1114" s="4" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="F1114" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L1114" s="5" t="s">
         <v>1973</v>
-      </c>
-      <c r="L1114" s="5" t="s">
-        <v>1974</v>
       </c>
     </row>
     <row r="1115" spans="1:12" x14ac:dyDescent="0.4">
@@ -24255,7 +24265,7 @@
         <v>1773</v>
       </c>
       <c r="F1133" s="2" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G1133" s="2">
         <v>60</v>
@@ -24485,7 +24495,7 @@
         <v>985</v>
       </c>
       <c r="E1149" s="2" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="F1149" s="2" t="s">
         <v>1833</v>
@@ -24494,7 +24504,7 @@
         <v>80</v>
       </c>
       <c r="L1149" s="5" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1150" spans="1:12" x14ac:dyDescent="0.4">
@@ -24601,13 +24611,13 @@
         <v>1847</v>
       </c>
       <c r="F1156" s="2" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="G1156" s="2">
         <v>90</v>
       </c>
       <c r="L1156" s="5" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1157" spans="1:12" x14ac:dyDescent="0.4">
@@ -24655,16 +24665,13 @@
         <v>1887</v>
       </c>
       <c r="F1159" s="2" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="G1159" s="2">
         <v>140</v>
       </c>
-      <c r="I1159" s="2">
-        <v>183</v>
-      </c>
       <c r="L1159" s="7" t="s">
-        <v>1898</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="1160" spans="1:12" x14ac:dyDescent="0.4">
@@ -25301,13 +25308,13 @@
         <v>985</v>
       </c>
       <c r="E1203" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="F1203" s="2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="L1203" s="5" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1204" spans="1:12" x14ac:dyDescent="0.4">
@@ -25324,10 +25331,10 @@
         <v>985</v>
       </c>
       <c r="E1204" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="L1204" s="5" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1205" spans="1:12" x14ac:dyDescent="0.4">
@@ -25442,16 +25449,16 @@
         <v>985</v>
       </c>
       <c r="E1212" s="4" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F1212" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="G1212" s="2">
         <v>61</v>
       </c>
       <c r="L1212" s="5" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1213" spans="1:12" x14ac:dyDescent="0.4">
@@ -25496,7 +25503,7 @@
         <v>985</v>
       </c>
       <c r="E1215" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1216" spans="1:12" x14ac:dyDescent="0.4">
@@ -25681,7 +25688,7 @@
         <v>985</v>
       </c>
       <c r="E1228" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1229" spans="1:5" x14ac:dyDescent="0.4">
@@ -25740,7 +25747,7 @@
         <v>985</v>
       </c>
       <c r="E1232" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1233" spans="1:5" x14ac:dyDescent="0.4">
@@ -25827,7 +25834,7 @@
         <v>985</v>
       </c>
       <c r="E1238" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1239" spans="1:5" x14ac:dyDescent="0.4">
@@ -26572,10 +26579,10 @@
         <v>985</v>
       </c>
       <c r="E1291" s="4" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="L1291" s="5" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1292" spans="1:12" x14ac:dyDescent="0.4">
@@ -26634,7 +26641,7 @@
         <v>985</v>
       </c>
       <c r="E1295" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1296" spans="1:12" x14ac:dyDescent="0.4">
@@ -26665,7 +26672,7 @@
         <v>985</v>
       </c>
       <c r="E1297" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1298" spans="1:5" x14ac:dyDescent="0.4">
@@ -26920,10 +26927,10 @@
         <v>985</v>
       </c>
       <c r="E1315" s="4" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="F1315" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="G1315" s="2">
         <v>25</v>
@@ -26991,13 +26998,13 @@
         <v>985</v>
       </c>
       <c r="E1319" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="G1319" s="2">
         <v>80</v>
       </c>
       <c r="L1319" s="5" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1320" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
@@ -27014,13 +27021,13 @@
         <v>985</v>
       </c>
       <c r="E1320" s="2" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G1320" s="2">
         <v>80</v>
       </c>
       <c r="L1320" s="5" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1321" spans="1:12" x14ac:dyDescent="0.4">
@@ -27289,7 +27296,7 @@
         <v>985</v>
       </c>
       <c r="E1339" s="2" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1340" spans="1:5" x14ac:dyDescent="0.4">
@@ -27668,7 +27675,7 @@
         <v>1887</v>
       </c>
       <c r="F1365" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="G1365" s="2">
         <v>40</v>
@@ -27677,7 +27684,7 @@
         <v>48.2</v>
       </c>
       <c r="L1365" s="5" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1366" spans="1:12" x14ac:dyDescent="0.4">
@@ -28039,7 +28046,7 @@
         <v>1834</v>
       </c>
       <c r="L1390" s="5" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1391" spans="1:12" x14ac:dyDescent="0.4">
@@ -28104,7 +28111,7 @@
         <v>50</v>
       </c>
       <c r="L1394" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1395" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
@@ -28121,16 +28128,16 @@
         <v>985</v>
       </c>
       <c r="E1395" s="4" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F1395" s="2" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="G1395" s="2">
         <v>40</v>
       </c>
       <c r="L1395" s="5" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1396" spans="1:12" x14ac:dyDescent="0.4">
@@ -28170,7 +28177,7 @@
         <v>10</v>
       </c>
       <c r="L1397" s="5" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1398" spans="1:12" x14ac:dyDescent="0.4">
@@ -28339,7 +28346,7 @@
         <v>1875</v>
       </c>
       <c r="L1408" s="5" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1409" spans="1:12" x14ac:dyDescent="0.4">
@@ -28356,7 +28363,7 @@
         <v>985</v>
       </c>
       <c r="L1409" s="5" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1410" spans="1:12" x14ac:dyDescent="0.4">
@@ -28429,7 +28436,7 @@
         <v>985</v>
       </c>
       <c r="E1414" s="2" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="G1414" s="2">
         <v>12</v>
@@ -28645,10 +28652,10 @@
         <v>985</v>
       </c>
       <c r="E1429" s="2" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F1429" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="G1429" s="2">
         <v>60</v>
@@ -29120,13 +29127,13 @@
         <v>985</v>
       </c>
       <c r="E1461" s="4" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F1461" s="2" t="s">
         <v>1878</v>
       </c>
       <c r="L1461" s="5" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1462" spans="1:12" x14ac:dyDescent="0.4">
@@ -29171,7 +29178,7 @@
         <v>985</v>
       </c>
       <c r="E1464" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1465" spans="1:12" x14ac:dyDescent="0.4">
@@ -29449,7 +29456,7 @@
         <v>60</v>
       </c>
       <c r="L1483" s="5" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1484" spans="1:12" x14ac:dyDescent="0.4">
@@ -29834,7 +29841,7 @@
         <v>985</v>
       </c>
       <c r="E1509" s="2" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1510" spans="1:12" x14ac:dyDescent="0.4">
@@ -29865,7 +29872,7 @@
         <v>985</v>
       </c>
       <c r="E1511" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="F1511" s="2" t="s">
         <v>1888</v>
@@ -29874,7 +29881,7 @@
         <v>100</v>
       </c>
       <c r="L1511" s="5" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1512" spans="1:12" x14ac:dyDescent="0.4">
@@ -30371,10 +30378,10 @@
         <v>985</v>
       </c>
       <c r="E1545" s="2" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="L1545" s="5" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1546" spans="1:12" x14ac:dyDescent="0.4">
@@ -30506,16 +30513,16 @@
         <v>985</v>
       </c>
       <c r="E1554" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="F1554" s="2" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="G1554" s="2">
         <v>130</v>
       </c>
       <c r="L1554" s="5" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1555" spans="1:12" x14ac:dyDescent="0.4">
@@ -30532,7 +30539,7 @@
         <v>985</v>
       </c>
       <c r="E1555" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1556" spans="1:12" x14ac:dyDescent="0.4">
@@ -30691,6 +30698,9 @@
       <c r="E1566" s="2" t="s">
         <v>1875</v>
       </c>
+      <c r="L1566" s="5" t="s">
+        <v>2038</v>
+      </c>
     </row>
     <row r="1567" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1567" s="3">
@@ -30748,10 +30758,10 @@
         <v>985</v>
       </c>
       <c r="E1570" s="4" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="L1570" s="5" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1571" spans="1:12" x14ac:dyDescent="0.4">
@@ -30925,10 +30935,10 @@
         <v>985</v>
       </c>
       <c r="E1582" s="4" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="L1582" s="5" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1583" spans="1:12" x14ac:dyDescent="0.4">
@@ -30993,19 +31003,19 @@
         <v>6548</v>
       </c>
       <c r="B1586" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C1586" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D1586" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="E1586" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="C1586" s="2" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D1586" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="E1586" s="2" t="s">
-        <v>1908</v>
-      </c>
       <c r="L1586" s="5" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1587" spans="1:12" x14ac:dyDescent="0.4">
@@ -31120,7 +31130,7 @@
         <v>985</v>
       </c>
       <c r="E1594" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1595" spans="1:12" x14ac:dyDescent="0.4">
@@ -31179,7 +31189,7 @@
         <v>985</v>
       </c>
       <c r="E1598" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1599" spans="1:12" x14ac:dyDescent="0.4">
@@ -31367,10 +31377,10 @@
         <v>985</v>
       </c>
       <c r="E1611" s="2" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="L1611" s="5" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1612" spans="1:12" x14ac:dyDescent="0.4">
@@ -31519,13 +31529,13 @@
         <v>1892</v>
       </c>
       <c r="F1621" s="2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="G1621" s="2">
         <v>103</v>
       </c>
       <c r="L1621" s="5" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1622" spans="1:12" x14ac:dyDescent="0.4">
@@ -31719,7 +31729,7 @@
         <v>1834</v>
       </c>
       <c r="L1634" s="5" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1635" spans="1:12" x14ac:dyDescent="0.4">
@@ -31904,7 +31914,7 @@
         <v>985</v>
       </c>
       <c r="E1647" s="2" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F1647" s="2" t="s">
         <v>1833</v>
@@ -31913,7 +31923,7 @@
         <v>40</v>
       </c>
       <c r="L1647" s="5" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1648" spans="1:12" x14ac:dyDescent="0.4">
@@ -32045,7 +32055,7 @@
         <v>985</v>
       </c>
       <c r="E1656" s="2" t="s">
-        <v>1853</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1657" spans="1:7" x14ac:dyDescent="0.4">
@@ -32169,7 +32179,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1665" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1665" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1665" s="3">
         <v>8107</v>
       </c>
@@ -32183,7 +32193,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1666" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1666" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1666" s="3">
         <v>8109</v>
       </c>
@@ -32197,7 +32207,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1667" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1667" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1667" s="3">
         <v>8111</v>
       </c>
@@ -32211,7 +32221,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1668" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1668" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1668" s="3">
         <v>8121</v>
       </c>
@@ -32225,7 +32235,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1669" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1669" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1669" s="3">
         <v>8147</v>
       </c>
@@ -32239,7 +32249,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1670" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1670" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1670" s="3">
         <v>8155</v>
       </c>
@@ -32253,7 +32263,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1671" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1671" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1671" s="3">
         <v>8171</v>
       </c>
@@ -32267,7 +32277,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1672" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1672" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1672" s="3">
         <v>8176</v>
       </c>
@@ -32281,7 +32291,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1673" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1673" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1673" s="3">
         <v>8182</v>
       </c>
@@ -32295,7 +32305,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1674" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1674" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1674" s="3">
         <v>8183</v>
       </c>
@@ -32309,7 +32319,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1675" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1675" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1675" s="3">
         <v>8234</v>
       </c>
@@ -32323,7 +32333,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1676" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1676" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1676" s="3">
         <v>8240</v>
       </c>
@@ -32337,7 +32347,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1677" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1677" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A1677" s="3">
         <v>8255</v>
       </c>
@@ -32350,8 +32360,14 @@
       <c r="D1677" s="2" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="1678" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1677" s="2" t="s">
+        <v>1834</v>
+      </c>
+      <c r="L1677" s="5" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1678" s="3">
         <v>8277</v>
       </c>
@@ -32365,7 +32381,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1679" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1679" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1679" s="3">
         <v>8279</v>
       </c>
@@ -32379,7 +32395,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1680" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1680" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1680" s="3">
         <v>8284</v>
       </c>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B70115F-A3E1-4561-A958-35E17756939B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23480A1-DCB3-480D-8CEA-CD89BB49D49A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7104,8 +7104,8 @@
   <dimension ref="A1:L1746"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A357" sqref="A357:XFD357"/>
+      <pane ySplit="1" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B636" sqref="B636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -12184,6 +12184,9 @@
       <c r="H334" s="2">
         <v>60</v>
       </c>
+      <c r="I334" s="2">
+        <v>57.3</v>
+      </c>
       <c r="L334" s="5" t="s">
         <v>1950</v>
       </c>
@@ -16761,6 +16764,9 @@
       <c r="H636" s="2">
         <v>100</v>
       </c>
+      <c r="I636" s="2">
+        <v>73.400000000000006</v>
+      </c>
     </row>
     <row r="637" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A637" s="3">
@@ -23630,6 +23636,9 @@
       <c r="H1090" s="2">
         <v>55</v>
       </c>
+      <c r="I1090" s="2">
+        <v>50</v>
+      </c>
       <c r="L1090" s="7" t="s">
         <v>1825</v>
       </c>
@@ -23752,7 +23761,7 @@
         <v>1977</v>
       </c>
       <c r="G1098" s="2">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="L1098" s="7" t="s">
         <v>1894</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23480A1-DCB3-480D-8CEA-CD89BB49D49A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629CC100-6D08-4FE6-B7E6-8B0DEA02616C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5793" uniqueCount="2042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5795" uniqueCount="2044">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6424,11 +6424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>轉正
-前3季EPS轉正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外資大布單
 目前EPS不太夠
 營收沒有大成長?</t>
@@ -6579,6 +6574,19 @@
   <si>
     <t>DDR5
 利基型DRAM存貨高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油壓碟煞、把手、座立管及輪圈花鼓
+前3季EPS轉正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣政府公共工程案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7104,8 +7112,8 @@
   <dimension ref="A1:L1746"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B636" sqref="B636"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -7500,7 +7508,7 @@
         <v>1832</v>
       </c>
       <c r="G23" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -7848,7 +7856,7 @@
         <v>1960</v>
       </c>
       <c r="H47" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
@@ -8710,7 +8718,7 @@
         <v>1891</v>
       </c>
       <c r="G106" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L106" s="5" t="s">
         <v>1888</v>
@@ -8747,14 +8755,14 @@
         <v>1891</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>1961</v>
+        <v>1978</v>
       </c>
       <c r="G108" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K108" s="5"/>
       <c r="L108" s="5" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.4">
@@ -8828,7 +8836,7 @@
         <v>1961</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>2011</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
@@ -11741,7 +11749,7 @@
         <v>50</v>
       </c>
       <c r="L307" s="5" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.4">
@@ -12779,10 +12787,10 @@
         <v>984</v>
       </c>
       <c r="E373" s="2" t="s">
+        <v>2014</v>
+      </c>
+      <c r="L373" s="5" t="s">
         <v>2015</v>
-      </c>
-      <c r="L373" s="5" t="s">
-        <v>2016</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.4">
@@ -12889,7 +12897,7 @@
         <v>1833</v>
       </c>
       <c r="L380" s="5" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.4">
@@ -15163,7 +15171,7 @@
         <v>1998</v>
       </c>
       <c r="L531" s="5" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.4">
@@ -15890,7 +15898,7 @@
         <v>1998</v>
       </c>
       <c r="L578" s="5" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.4">
@@ -16739,7 +16747,7 @@
         <v>1998</v>
       </c>
       <c r="L635" s="5" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.4">
@@ -16934,7 +16942,7 @@
         <v>1998</v>
       </c>
       <c r="L647" s="5" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.4">
@@ -17972,7 +17980,7 @@
         <v>50.3</v>
       </c>
       <c r="L716" s="5" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="717" spans="1:12" ht="61.75" x14ac:dyDescent="0.4">
@@ -19315,7 +19323,7 @@
         <v>1772</v>
       </c>
       <c r="L804" s="5" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="805" spans="1:12" x14ac:dyDescent="0.4">
@@ -19394,7 +19402,7 @@
         <v>1857</v>
       </c>
       <c r="F809" s="2" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="810" spans="1:12" x14ac:dyDescent="0.4">
@@ -21024,7 +21032,7 @@
         <v>1822</v>
       </c>
       <c r="L916" s="5" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="917" spans="1:12" x14ac:dyDescent="0.4">
@@ -22143,7 +22151,7 @@
         <v>70</v>
       </c>
       <c r="L991" s="5" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="992" spans="1:12" x14ac:dyDescent="0.4">
@@ -22220,7 +22228,7 @@
         <v>110</v>
       </c>
       <c r="L995" s="5" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="996" spans="1:12" x14ac:dyDescent="0.4">
@@ -24685,7 +24693,7 @@
         <v>140</v>
       </c>
       <c r="L1158" s="7" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1159" spans="1:12" x14ac:dyDescent="0.4">
@@ -27018,7 +27026,7 @@
         <v>80</v>
       </c>
       <c r="L1318" s="5" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1319" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
@@ -27170,7 +27178,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="1329" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1329" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1329" s="3">
         <v>5011</v>
       </c>
@@ -27183,8 +27191,14 @@
       <c r="D1329" s="2" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="1330" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E1329" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L1329" s="5" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1330" s="3">
         <v>5013</v>
       </c>
@@ -27198,7 +27212,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="1331" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1331" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1331" s="3">
         <v>5014</v>
       </c>
@@ -27212,7 +27226,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="1332" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1332" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1332" s="3">
         <v>5015</v>
       </c>
@@ -27226,7 +27240,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="1333" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1333" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1333" s="3">
         <v>5016</v>
       </c>
@@ -27240,7 +27254,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="1334" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1334" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1334" s="3">
         <v>5102</v>
       </c>
@@ -27254,7 +27268,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="1335" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1335" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1335" s="3">
         <v>5201</v>
       </c>
@@ -27268,7 +27282,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="1336" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1336" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1336" s="3">
         <v>5202</v>
       </c>
@@ -27282,7 +27296,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="1337" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1337" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1337" s="3">
         <v>5205</v>
       </c>
@@ -27296,7 +27310,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="1338" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1338" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1338" s="3">
         <v>5206</v>
       </c>
@@ -27313,7 +27327,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="1339" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1339" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1339" s="3">
         <v>5209</v>
       </c>
@@ -27330,7 +27344,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="1340" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1340" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1340" s="3">
         <v>5210</v>
       </c>
@@ -27344,7 +27358,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="1341" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1341" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1341" s="3">
         <v>5211</v>
       </c>
@@ -27358,7 +27372,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="1342" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1342" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1342" s="3">
         <v>5212</v>
       </c>
@@ -27372,7 +27386,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="1343" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1343" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1343" s="3">
         <v>5213</v>
       </c>
@@ -27386,7 +27400,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="1344" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1344" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1344" s="3">
         <v>5220</v>
       </c>
@@ -28142,7 +28156,7 @@
         <v>984</v>
       </c>
       <c r="E1394" s="4" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F1394" s="2" t="s">
         <v>1983</v>
@@ -28151,7 +28165,7 @@
         <v>40</v>
       </c>
       <c r="L1394" s="5" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1395" spans="1:12" x14ac:dyDescent="0.4">
@@ -29141,13 +29155,13 @@
         <v>984</v>
       </c>
       <c r="E1460" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F1460" s="2" t="s">
         <v>1876</v>
       </c>
       <c r="L1460" s="5" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1461" spans="1:12" x14ac:dyDescent="0.4">
@@ -29886,7 +29900,7 @@
         <v>984</v>
       </c>
       <c r="E1510" s="4" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F1510" s="2" t="s">
         <v>1886</v>
@@ -29895,7 +29909,7 @@
         <v>100</v>
       </c>
       <c r="L1510" s="5" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1511" spans="1:12" x14ac:dyDescent="0.4">
@@ -30395,7 +30409,7 @@
         <v>1929</v>
       </c>
       <c r="L1544" s="5" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1545" spans="1:12" x14ac:dyDescent="0.4">
@@ -30713,7 +30727,7 @@
         <v>1873</v>
       </c>
       <c r="L1565" s="5" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1566" spans="1:12" x14ac:dyDescent="0.4">
@@ -31391,10 +31405,10 @@
         <v>984</v>
       </c>
       <c r="E1610" s="2" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="L1610" s="5" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1611" spans="1:12" x14ac:dyDescent="0.4">
@@ -32069,7 +32083,7 @@
         <v>984</v>
       </c>
       <c r="E1655" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1656" spans="1:7" x14ac:dyDescent="0.4">
@@ -32333,13 +32347,13 @@
         <v>984</v>
       </c>
       <c r="E1673" s="4" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="F1673" s="2" t="s">
         <v>1998</v>
       </c>
       <c r="L1673" s="5" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="1674" spans="1:12" x14ac:dyDescent="0.4">
@@ -32387,7 +32401,7 @@
         <v>1833</v>
       </c>
       <c r="L1676" s="5" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1677" spans="1:12" x14ac:dyDescent="0.4">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629CC100-6D08-4FE6-B7E6-8B0DEA02616C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE4C9BC-0B46-40EE-9D3B-13D8EF6E4839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5795" uniqueCount="2044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5797" uniqueCount="2046">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6587,6 +6587,14 @@
   </si>
   <si>
     <t>台東縣政府公共工程案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阮老師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昇陽半導體</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7112,8 +7120,8 @@
   <dimension ref="A1:L1746"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
+      <pane ySplit="1" topLeftCell="A861" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E871" sqref="E871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -16633,6 +16641,9 @@
       <c r="D628" s="2" t="s">
         <v>984</v>
       </c>
+      <c r="E628" s="2" t="s">
+        <v>2044</v>
+      </c>
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A629" s="3">
@@ -20302,8 +20313,8 @@
       <c r="A868" s="3">
         <v>8028</v>
       </c>
-      <c r="B868" s="3">
-        <v>8028</v>
+      <c r="B868" s="3" t="s">
+        <v>2045</v>
       </c>
       <c r="C868" s="2" t="s">
         <v>4</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,28 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE4C9BC-0B46-40EE-9D3B-13D8EF6E4839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404A511D-DE69-4AB4-A1AC-8BB7B844351A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_stock" sheetId="1" r:id="rId1"/>
     <sheet name="資訊列表" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_stock!$E$1:$F$1746</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5797" uniqueCount="2046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5799" uniqueCount="2050">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5897,10 +5907,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>轉投資固態電池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>充電頭的固態電容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5954,10 +5960,6 @@
   <si>
     <t>阮老師
 車用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADAS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6447,10 +6449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>視覺檢測</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USB 4.0 防爆IC
 2021 上看 10 塊?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6590,11 +6588,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阮老師</t>
+    <t>昇陽半導體</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>昇陽半導體</t>
+    <t>上海充電樁用的充電線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADAS 連接器、零組件
+2021 EPS 上看5元?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉投資固態電池
+車用、電動車裡面的動力系統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>視覺檢測
+和均豪一起打進台積電供應鍵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備廠
+台積電</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADAS
+TWS/無線耳機/有線耳機/智能裝置
+約佔公司營收58%
+聲學元件產品包括：喇叭/麥克風/蜂鳴器/聲學模組設計
+約佔公司營收42%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快充電頭
+ADAS
+拉回40看看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7120,8 +7156,8 @@
   <dimension ref="A1:L1746"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A861" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E871" sqref="E871"/>
+      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G392" sqref="G392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -7136,7 +7172,7 @@
     <col min="8" max="9" width="8.1640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.1640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="48.4140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="58" style="5" customWidth="1"/>
     <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
@@ -7157,7 +7193,7 @@
         <v>1887</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1786</v>
@@ -7192,10 +7228,10 @@
         <v>984</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G2" s="2">
         <v>41</v>
@@ -7400,7 +7436,7 @@
         <v>984</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -7431,7 +7467,7 @@
         <v>984</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1832</v>
@@ -7510,7 +7546,7 @@
         <v>984</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>1832</v>
@@ -7861,7 +7897,7 @@
         <v>1882</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="H47" s="2">
         <v>90</v>
@@ -8512,7 +8548,7 @@
         <v>1879</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="H92" s="2">
         <v>20</v>
@@ -8763,14 +8799,14 @@
         <v>1891</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="G108" s="2">
         <v>47</v>
       </c>
       <c r="K108" s="5"/>
       <c r="L108" s="5" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.4">
@@ -8790,7 +8826,7 @@
         <v>1824</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.4">
@@ -8841,10 +8877,10 @@
         <v>1874</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
@@ -9237,10 +9273,10 @@
         <v>1824</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="L139" s="5" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.4">
@@ -9373,7 +9409,7 @@
         <v>13</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.4">
@@ -9670,10 +9706,10 @@
         <v>984</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.4">
@@ -9844,7 +9880,7 @@
         <v>984</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.4">
@@ -9878,10 +9914,10 @@
         <v>1835</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.4">
@@ -9912,7 +9948,7 @@
         <v>984</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.4">
@@ -11063,13 +11099,13 @@
         <v>1824</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="G263" s="2">
         <v>130</v>
       </c>
       <c r="L263" s="5" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.4">
@@ -11148,7 +11184,7 @@
         <v>1870</v>
       </c>
       <c r="L268" s="5" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.4">
@@ -11230,7 +11266,7 @@
         <v>1895</v>
       </c>
       <c r="L273" s="5" t="s">
-        <v>1896</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.4">
@@ -11444,10 +11480,10 @@
         <v>984</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="L287" s="5" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.4">
@@ -11669,7 +11705,7 @@
         <v>1834</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G302" s="2">
         <v>45</v>
@@ -11757,7 +11793,7 @@
         <v>50</v>
       </c>
       <c r="L307" s="5" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.4">
@@ -11777,10 +11813,10 @@
         <v>1822</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="L308" s="5" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.4">
@@ -11800,10 +11836,10 @@
         <v>1822</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="L309" s="5" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="310" spans="1:12" ht="77.150000000000006" x14ac:dyDescent="0.4">
@@ -11826,7 +11862,7 @@
         <v>280</v>
       </c>
       <c r="L310" s="5" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.4">
@@ -12121,10 +12157,10 @@
         <v>1868</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="L330" s="5" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.4">
@@ -12195,7 +12231,7 @@
         <v>1822</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="H334" s="2">
         <v>60</v>
@@ -12204,7 +12240,7 @@
         <v>57.3</v>
       </c>
       <c r="L334" s="5" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.4">
@@ -12409,7 +12445,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:12" ht="46.3" x14ac:dyDescent="0.4">
       <c r="A349" s="3">
         <v>2436</v>
       </c>
@@ -12423,10 +12459,16 @@
         <v>984</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>1853</v>
+        <v>1927</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="G349" s="2">
+        <v>41</v>
       </c>
       <c r="L349" s="5" t="s">
-        <v>1898</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.4">
@@ -12642,14 +12684,11 @@
       <c r="E363" s="2" t="s">
         <v>1833</v>
       </c>
-      <c r="F363" s="2" t="s">
-        <v>1998</v>
-      </c>
       <c r="G363" s="2">
         <v>100</v>
       </c>
       <c r="L363" s="5" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.4">
@@ -12795,10 +12834,10 @@
         <v>984</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="L373" s="5" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.4">
@@ -12834,7 +12873,7 @@
         <v>2472</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>4</v>
@@ -12905,7 +12944,7 @@
         <v>1833</v>
       </c>
       <c r="L380" s="5" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.4">
@@ -12939,13 +12978,13 @@
         <v>1833</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="G382" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L382" s="5" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.4">
@@ -13018,7 +13057,7 @@
         <v>984</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.4">
@@ -13077,10 +13116,10 @@
         <v>984</v>
       </c>
       <c r="E391" s="4" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="G391" s="2">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.4">
@@ -13296,7 +13335,7 @@
         <v>984</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.4">
@@ -13383,7 +13422,7 @@
         <v>984</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.4">
@@ -13512,10 +13551,10 @@
         <v>984</v>
       </c>
       <c r="E421" s="4" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G421" s="2">
         <v>46</v>
@@ -13549,7 +13588,7 @@
         <v>984</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.4">
@@ -14786,7 +14825,7 @@
         <v>984</v>
       </c>
       <c r="E506" s="4" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="F506" s="2" t="s">
         <v>1832</v>
@@ -15122,7 +15161,7 @@
         <v>1822</v>
       </c>
       <c r="L528" s="5" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.4">
@@ -15142,7 +15181,7 @@
         <v>1839</v>
       </c>
       <c r="L529" s="5" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.4">
@@ -15176,10 +15215,10 @@
         <v>1772</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="L531" s="5" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.4">
@@ -15255,13 +15294,13 @@
         <v>984</v>
       </c>
       <c r="E536" s="4" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="G536" s="2">
         <v>160</v>
       </c>
       <c r="L536" s="5" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.4">
@@ -15351,7 +15390,7 @@
         <v>984</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="G542" s="2">
         <v>36</v>
@@ -15427,13 +15466,13 @@
         <v>984</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="G547" s="2">
         <v>260</v>
       </c>
       <c r="L547" s="5" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.4">
@@ -15535,7 +15574,7 @@
         <v>29</v>
       </c>
       <c r="L553" s="5" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.4">
@@ -15597,10 +15636,10 @@
         <v>1868</v>
       </c>
       <c r="F557" s="2" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="L557" s="5" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.4">
@@ -15743,7 +15782,7 @@
         <v>984</v>
       </c>
       <c r="E567" s="2" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.4">
@@ -15903,10 +15942,10 @@
         <v>1834</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="L578" s="5" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.4">
@@ -16352,7 +16391,7 @@
         <v>1822</v>
       </c>
       <c r="L609" s="5" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.4">
@@ -16434,7 +16473,7 @@
         <v>300</v>
       </c>
       <c r="L614" s="5" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.4">
@@ -16583,7 +16622,7 @@
         <v>1853</v>
       </c>
       <c r="L624" s="5" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="625" spans="1:12" x14ac:dyDescent="0.4">
@@ -16628,7 +16667,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A628" s="3">
         <v>3605</v>
       </c>
@@ -16642,7 +16681,10 @@
         <v>984</v>
       </c>
       <c r="E628" s="2" t="s">
-        <v>2044</v>
+        <v>1885</v>
+      </c>
+      <c r="L628" s="5" t="s">
+        <v>2043</v>
       </c>
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.4">
@@ -16715,7 +16757,7 @@
         <v>984</v>
       </c>
       <c r="E633" s="2" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="G633" s="2">
         <v>200</v>
@@ -16755,10 +16797,10 @@
         <v>1885</v>
       </c>
       <c r="F635" s="2" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="L635" s="5" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.4">
@@ -16778,7 +16820,7 @@
         <v>1822</v>
       </c>
       <c r="F636" s="2" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="H636" s="2">
         <v>100</v>
@@ -16950,10 +16992,10 @@
         <v>1876</v>
       </c>
       <c r="F647" s="2" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="L647" s="5" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.4">
@@ -17046,16 +17088,16 @@
         <v>984</v>
       </c>
       <c r="E653" s="4" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="F653" s="2" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G653" s="2">
         <v>48</v>
       </c>
       <c r="L653" s="5" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="654" spans="1:12" x14ac:dyDescent="0.4">
@@ -17100,10 +17142,10 @@
         <v>984</v>
       </c>
       <c r="E656" s="4" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="F656" s="2" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G656" s="2">
         <v>70</v>
@@ -17165,10 +17207,10 @@
         <v>984</v>
       </c>
       <c r="E660" s="4" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="L660" s="5" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.4">
@@ -17574,7 +17616,7 @@
         <v>4725</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>4</v>
@@ -17712,10 +17754,10 @@
         <v>1868</v>
       </c>
       <c r="F698" s="2" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="L698" s="5" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.4">
@@ -17850,7 +17892,7 @@
         <v>1822</v>
       </c>
       <c r="L707" s="5" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="708" spans="1:12" x14ac:dyDescent="0.4">
@@ -17968,7 +18010,7 @@
         <v>1870</v>
       </c>
       <c r="L715" s="5" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="716" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
@@ -17991,7 +18033,7 @@
         <v>50.3</v>
       </c>
       <c r="L716" s="5" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="717" spans="1:12" ht="61.75" x14ac:dyDescent="0.4">
@@ -18008,13 +18050,13 @@
         <v>984</v>
       </c>
       <c r="E717" s="2" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="G717" s="2">
         <v>200</v>
       </c>
       <c r="L717" s="5" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="718" spans="1:12" x14ac:dyDescent="0.4">
@@ -18144,7 +18186,7 @@
         <v>160</v>
       </c>
       <c r="L725" s="5" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="726" spans="1:12" x14ac:dyDescent="0.4">
@@ -18231,7 +18273,7 @@
         <v>984</v>
       </c>
       <c r="E731" s="2" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="732" spans="1:12" x14ac:dyDescent="0.4">
@@ -18276,10 +18318,10 @@
         <v>984</v>
       </c>
       <c r="E734" s="2" t="s">
+        <v>1903</v>
+      </c>
+      <c r="L734" s="5" t="s">
         <v>1904</v>
-      </c>
-      <c r="L734" s="5" t="s">
-        <v>1905</v>
       </c>
     </row>
     <row r="735" spans="1:12" x14ac:dyDescent="0.4">
@@ -18495,7 +18537,7 @@
         <v>984</v>
       </c>
       <c r="E749" s="2" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.4">
@@ -18582,10 +18624,10 @@
         <v>984</v>
       </c>
       <c r="E755" s="4" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="F755" s="2" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G755" s="2">
         <v>110</v>
@@ -18717,13 +18759,13 @@
         <v>984</v>
       </c>
       <c r="E764" s="2" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="G764" s="2">
         <v>41</v>
       </c>
       <c r="L764" s="5" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="765" spans="1:12" x14ac:dyDescent="0.4">
@@ -18900,7 +18942,7 @@
         <v>984</v>
       </c>
       <c r="E776" s="4" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="F776" s="2" t="s">
         <v>1829</v>
@@ -18909,7 +18951,7 @@
         <v>30</v>
       </c>
       <c r="L776" s="5" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="777" spans="1:12" x14ac:dyDescent="0.4">
@@ -19038,7 +19080,7 @@
         <v>984</v>
       </c>
       <c r="E785" s="2" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="F785" s="2" t="s">
         <v>1832</v>
@@ -19185,7 +19227,7 @@
         <v>42</v>
       </c>
       <c r="L794" s="5" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="795" spans="1:12" x14ac:dyDescent="0.4">
@@ -19334,7 +19376,7 @@
         <v>1772</v>
       </c>
       <c r="L804" s="5" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="805" spans="1:12" x14ac:dyDescent="0.4">
@@ -19413,7 +19455,7 @@
         <v>1857</v>
       </c>
       <c r="F809" s="2" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="810" spans="1:12" x14ac:dyDescent="0.4">
@@ -19641,7 +19683,7 @@
         <v>984</v>
       </c>
       <c r="E824" s="2" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="825" spans="1:12" x14ac:dyDescent="0.4">
@@ -19703,7 +19745,7 @@
         <v>1770</v>
       </c>
       <c r="F828" s="2" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G828" s="2">
         <v>30</v>
@@ -19726,7 +19768,7 @@
         <v>1853</v>
       </c>
       <c r="L829" s="5" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="830" spans="1:12" x14ac:dyDescent="0.4">
@@ -20007,7 +20049,7 @@
         <v>984</v>
       </c>
       <c r="E848" s="4" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="G848" s="2">
         <v>50</v>
@@ -20027,7 +20069,7 @@
         <v>984</v>
       </c>
       <c r="E849" s="2" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="850" spans="1:12" x14ac:dyDescent="0.4">
@@ -20224,7 +20266,7 @@
         <v>100</v>
       </c>
       <c r="L862" s="5" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="863" spans="1:12" x14ac:dyDescent="0.4">
@@ -20297,10 +20339,10 @@
         <v>984</v>
       </c>
       <c r="E867" s="4" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="F867" s="2" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="G867" s="2">
         <v>25</v>
@@ -20314,7 +20356,7 @@
         <v>8028</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="C868" s="2" t="s">
         <v>4</v>
@@ -20416,10 +20458,10 @@
         <v>984</v>
       </c>
       <c r="E874" s="2" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="L874" s="5" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="875" spans="1:12" x14ac:dyDescent="0.4">
@@ -20452,9 +20494,6 @@
       <c r="E876" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="F876" s="2" t="s">
-        <v>1829</v>
-      </c>
     </row>
     <row r="877" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A877" s="3">
@@ -20708,16 +20747,16 @@
         <v>984</v>
       </c>
       <c r="E894" s="2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F894" s="2" t="s">
         <v>1940</v>
-      </c>
-      <c r="F894" s="2" t="s">
-        <v>1942</v>
       </c>
       <c r="G894" s="2">
         <v>21</v>
       </c>
       <c r="L894" s="5" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="895" spans="1:12" x14ac:dyDescent="0.4">
@@ -20846,16 +20885,16 @@
         <v>984</v>
       </c>
       <c r="E903" s="2" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="F903" s="2" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="G903" s="2">
         <v>320</v>
       </c>
       <c r="L903" s="5" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="904" spans="1:12" x14ac:dyDescent="0.4">
@@ -21043,7 +21082,7 @@
         <v>1822</v>
       </c>
       <c r="L916" s="5" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="917" spans="1:12" x14ac:dyDescent="0.4">
@@ -21472,10 +21511,10 @@
         <v>1881</v>
       </c>
       <c r="F946" s="2" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="L946" s="5" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="947" spans="1:12" x14ac:dyDescent="0.4">
@@ -21509,7 +21548,7 @@
         <v>984</v>
       </c>
       <c r="E948" s="2" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="F948" s="2" t="s">
         <v>1832</v>
@@ -21518,7 +21557,7 @@
         <v>40</v>
       </c>
       <c r="L948" s="5" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="949" spans="1:12" x14ac:dyDescent="0.4">
@@ -21731,10 +21770,10 @@
         <v>984</v>
       </c>
       <c r="E963" s="4" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="F963" s="2" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G963" s="2">
         <v>95</v>
@@ -21782,16 +21821,16 @@
         <v>984</v>
       </c>
       <c r="E966" s="4" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="F966" s="2" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G966" s="2">
         <v>55</v>
       </c>
       <c r="L966" s="5" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="967" spans="1:12" x14ac:dyDescent="0.4">
@@ -21870,7 +21909,7 @@
         <v>90</v>
       </c>
       <c r="L971" s="5" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="972" spans="1:12" x14ac:dyDescent="0.4">
@@ -22156,13 +22195,13 @@
         <v>984</v>
       </c>
       <c r="E991" s="2" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="G991" s="2">
         <v>70</v>
       </c>
       <c r="L991" s="5" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="992" spans="1:12" x14ac:dyDescent="0.4">
@@ -22230,7 +22269,7 @@
         <v>984</v>
       </c>
       <c r="E995" s="2" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="F995" s="2" t="s">
         <v>1832</v>
@@ -22239,7 +22278,7 @@
         <v>110</v>
       </c>
       <c r="L995" s="5" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="996" spans="1:12" x14ac:dyDescent="0.4">
@@ -22368,10 +22407,10 @@
         <v>984</v>
       </c>
       <c r="E1004" s="2" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="F1004" s="2" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G1004" s="2">
         <v>42</v>
@@ -22517,10 +22556,10 @@
         <v>984</v>
       </c>
       <c r="E1014" s="2" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="L1014" s="5" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1015" spans="1:12" x14ac:dyDescent="0.4">
@@ -22960,6 +22999,12 @@
       <c r="D1044" s="2" t="s">
         <v>984</v>
       </c>
+      <c r="E1044" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="L1044" s="5" t="s">
+        <v>2042</v>
+      </c>
     </row>
     <row r="1045" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1045" s="3">
@@ -23062,10 +23107,10 @@
         <v>984</v>
       </c>
       <c r="E1051" s="4" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="L1051" s="5" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1052" spans="1:12" x14ac:dyDescent="0.4">
@@ -23222,7 +23267,7 @@
         <v>984</v>
       </c>
       <c r="E1062" s="2" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1063" spans="1:12" x14ac:dyDescent="0.4">
@@ -23301,7 +23346,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="1068" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="1068" spans="1:12" ht="92.6" x14ac:dyDescent="0.4">
       <c r="A1068" s="3">
         <v>3206</v>
       </c>
@@ -23315,10 +23360,10 @@
         <v>984</v>
       </c>
       <c r="E1068" s="4" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="L1068" s="5" t="s">
-        <v>1909</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1069" spans="1:12" x14ac:dyDescent="0.4">
@@ -23403,7 +23448,7 @@
         <v>150</v>
       </c>
       <c r="L1073" s="5" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1074" spans="1:12" x14ac:dyDescent="0.4">
@@ -23650,7 +23695,7 @@
         <v>1822</v>
       </c>
       <c r="F1090" s="2" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="H1090" s="2">
         <v>55</v>
@@ -23777,7 +23822,7 @@
         <v>1845</v>
       </c>
       <c r="F1098" s="2" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="G1098" s="2">
         <v>710</v>
@@ -23929,7 +23974,7 @@
         <v>1772</v>
       </c>
       <c r="F1108" s="2" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G1108" s="2">
         <v>215</v>
@@ -24008,13 +24053,13 @@
         <v>984</v>
       </c>
       <c r="E1113" s="4" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="F1113" s="2" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="L1113" s="5" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1114" spans="1:12" x14ac:dyDescent="0.4">
@@ -24298,7 +24343,7 @@
         <v>1772</v>
       </c>
       <c r="F1132" s="2" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G1132" s="2">
         <v>60</v>
@@ -24528,7 +24573,7 @@
         <v>984</v>
       </c>
       <c r="E1148" s="2" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="F1148" s="2" t="s">
         <v>1832</v>
@@ -24537,7 +24582,7 @@
         <v>80</v>
       </c>
       <c r="L1148" s="5" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1149" spans="1:12" x14ac:dyDescent="0.4">
@@ -24644,13 +24689,13 @@
         <v>1845</v>
       </c>
       <c r="F1155" s="2" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="G1155" s="2">
         <v>90</v>
       </c>
       <c r="L1155" s="5" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1156" spans="1:12" x14ac:dyDescent="0.4">
@@ -24698,13 +24743,13 @@
         <v>1885</v>
       </c>
       <c r="F1158" s="2" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="G1158" s="2">
         <v>140</v>
       </c>
       <c r="L1158" s="7" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1159" spans="1:12" x14ac:dyDescent="0.4">
@@ -25341,13 +25386,13 @@
         <v>984</v>
       </c>
       <c r="E1202" s="2" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="F1202" s="2" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="L1202" s="5" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1203" spans="1:12" x14ac:dyDescent="0.4">
@@ -25364,10 +25409,10 @@
         <v>984</v>
       </c>
       <c r="E1203" s="2" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="L1203" s="5" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1204" spans="1:12" x14ac:dyDescent="0.4">
@@ -25482,16 +25527,16 @@
         <v>984</v>
       </c>
       <c r="E1211" s="4" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="F1211" s="2" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G1211" s="2">
         <v>61</v>
       </c>
       <c r="L1211" s="5" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1212" spans="1:12" x14ac:dyDescent="0.4">
@@ -25536,7 +25581,7 @@
         <v>984</v>
       </c>
       <c r="E1214" s="2" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1215" spans="1:12" x14ac:dyDescent="0.4">
@@ -25721,7 +25766,7 @@
         <v>984</v>
       </c>
       <c r="E1227" s="2" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1228" spans="1:5" x14ac:dyDescent="0.4">
@@ -25780,7 +25825,7 @@
         <v>984</v>
       </c>
       <c r="E1231" s="2" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1232" spans="1:5" x14ac:dyDescent="0.4">
@@ -25867,7 +25912,7 @@
         <v>984</v>
       </c>
       <c r="E1237" s="2" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1238" spans="1:5" x14ac:dyDescent="0.4">
@@ -26612,10 +26657,10 @@
         <v>984</v>
       </c>
       <c r="E1290" s="4" t="s">
+        <v>1999</v>
+      </c>
+      <c r="L1290" s="5" t="s">
         <v>2001</v>
-      </c>
-      <c r="L1290" s="5" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="1291" spans="1:12" x14ac:dyDescent="0.4">
@@ -26674,7 +26719,7 @@
         <v>984</v>
       </c>
       <c r="E1294" s="2" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1295" spans="1:12" x14ac:dyDescent="0.4">
@@ -26705,7 +26750,7 @@
         <v>984</v>
       </c>
       <c r="E1296" s="2" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1297" spans="1:4" x14ac:dyDescent="0.4">
@@ -26960,10 +27005,10 @@
         <v>984</v>
       </c>
       <c r="E1314" s="4" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="F1314" s="2" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G1314" s="2">
         <v>25</v>
@@ -27031,13 +27076,13 @@
         <v>984</v>
       </c>
       <c r="E1318" s="2" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="G1318" s="2">
         <v>80</v>
       </c>
       <c r="L1318" s="5" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1319" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
@@ -27054,13 +27099,13 @@
         <v>984</v>
       </c>
       <c r="E1319" s="2" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G1319" s="2">
         <v>80</v>
       </c>
       <c r="L1319" s="5" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1320" spans="1:12" x14ac:dyDescent="0.4">
@@ -27203,10 +27248,10 @@
         <v>984</v>
       </c>
       <c r="E1329" s="2" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="L1329" s="5" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1330" spans="1:12" x14ac:dyDescent="0.4">
@@ -27335,7 +27380,7 @@
         <v>984</v>
       </c>
       <c r="E1338" s="2" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1339" spans="1:12" x14ac:dyDescent="0.4">
@@ -27714,7 +27759,7 @@
         <v>1885</v>
       </c>
       <c r="F1364" s="2" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="G1364" s="2">
         <v>40</v>
@@ -27723,7 +27768,7 @@
         <v>48.2</v>
       </c>
       <c r="L1364" s="5" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1365" spans="1:12" x14ac:dyDescent="0.4">
@@ -28085,7 +28130,7 @@
         <v>1833</v>
       </c>
       <c r="L1389" s="5" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1390" spans="1:12" x14ac:dyDescent="0.4">
@@ -28150,7 +28195,7 @@
         <v>50</v>
       </c>
       <c r="L1393" s="5" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1394" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
@@ -28167,16 +28212,16 @@
         <v>984</v>
       </c>
       <c r="E1394" s="4" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F1394" s="2" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="G1394" s="2">
         <v>40</v>
       </c>
       <c r="L1394" s="5" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1395" spans="1:12" x14ac:dyDescent="0.4">
@@ -28216,7 +28261,7 @@
         <v>10</v>
       </c>
       <c r="L1396" s="5" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1397" spans="1:12" x14ac:dyDescent="0.4">
@@ -28385,7 +28430,7 @@
         <v>1873</v>
       </c>
       <c r="L1407" s="5" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1408" spans="1:12" x14ac:dyDescent="0.4">
@@ -28402,7 +28447,7 @@
         <v>984</v>
       </c>
       <c r="L1408" s="5" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1409" spans="1:7" x14ac:dyDescent="0.4">
@@ -28475,7 +28520,7 @@
         <v>984</v>
       </c>
       <c r="E1413" s="2" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="G1413" s="2">
         <v>12</v>
@@ -28691,10 +28736,10 @@
         <v>984</v>
       </c>
       <c r="E1428" s="2" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="F1428" s="2" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G1428" s="2">
         <v>60</v>
@@ -29166,13 +29211,13 @@
         <v>984</v>
       </c>
       <c r="E1460" s="4" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="F1460" s="2" t="s">
         <v>1876</v>
       </c>
       <c r="L1460" s="5" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1461" spans="1:12" x14ac:dyDescent="0.4">
@@ -29217,7 +29262,7 @@
         <v>984</v>
       </c>
       <c r="E1463" s="4" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1464" spans="1:12" x14ac:dyDescent="0.4">
@@ -29495,7 +29540,7 @@
         <v>60</v>
       </c>
       <c r="L1482" s="5" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1483" spans="1:12" x14ac:dyDescent="0.4">
@@ -29880,7 +29925,7 @@
         <v>984</v>
       </c>
       <c r="E1508" s="2" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1509" spans="1:12" x14ac:dyDescent="0.4">
@@ -29911,7 +29956,7 @@
         <v>984</v>
       </c>
       <c r="E1510" s="4" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F1510" s="2" t="s">
         <v>1886</v>
@@ -29920,7 +29965,7 @@
         <v>100</v>
       </c>
       <c r="L1510" s="5" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1511" spans="1:12" x14ac:dyDescent="0.4">
@@ -30417,10 +30462,10 @@
         <v>984</v>
       </c>
       <c r="E1544" s="2" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="L1544" s="5" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1545" spans="1:12" x14ac:dyDescent="0.4">
@@ -30552,16 +30597,16 @@
         <v>984</v>
       </c>
       <c r="E1553" s="4" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="F1553" s="2" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="G1553" s="2">
         <v>130</v>
       </c>
       <c r="L1553" s="5" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1554" spans="1:12" x14ac:dyDescent="0.4">
@@ -30578,7 +30623,7 @@
         <v>984</v>
       </c>
       <c r="E1554" s="2" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1555" spans="1:12" x14ac:dyDescent="0.4">
@@ -30738,7 +30783,7 @@
         <v>1873</v>
       </c>
       <c r="L1565" s="5" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1566" spans="1:12" x14ac:dyDescent="0.4">
@@ -30797,10 +30842,10 @@
         <v>984</v>
       </c>
       <c r="E1569" s="4" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="L1569" s="5" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1570" spans="1:12" x14ac:dyDescent="0.4">
@@ -30974,10 +31019,10 @@
         <v>984</v>
       </c>
       <c r="E1581" s="4" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="L1581" s="5" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1582" spans="1:12" x14ac:dyDescent="0.4">
@@ -31042,19 +31087,19 @@
         <v>6548</v>
       </c>
       <c r="B1585" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C1585" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D1585" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="E1585" s="2" t="s">
         <v>1903</v>
       </c>
-      <c r="C1585" s="2" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D1585" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="E1585" s="2" t="s">
-        <v>1904</v>
-      </c>
       <c r="L1585" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1586" spans="1:12" x14ac:dyDescent="0.4">
@@ -31169,7 +31214,7 @@
         <v>984</v>
       </c>
       <c r="E1593" s="2" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1594" spans="1:12" x14ac:dyDescent="0.4">
@@ -31228,7 +31273,7 @@
         <v>984</v>
       </c>
       <c r="E1597" s="2" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1598" spans="1:12" x14ac:dyDescent="0.4">
@@ -31402,7 +31447,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="1610" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1610" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A1610" s="3">
         <v>6640</v>
       </c>
@@ -31415,11 +31460,11 @@
       <c r="D1610" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="E1610" s="2" t="s">
-        <v>2014</v>
+      <c r="E1610" s="4" t="s">
+        <v>2046</v>
       </c>
       <c r="L1610" s="5" t="s">
-        <v>2016</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1611" spans="1:12" x14ac:dyDescent="0.4">
@@ -31568,13 +31613,13 @@
         <v>1890</v>
       </c>
       <c r="F1620" s="2" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="G1620" s="2">
         <v>103</v>
       </c>
       <c r="L1620" s="5" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1621" spans="1:12" x14ac:dyDescent="0.4">
@@ -31768,7 +31813,7 @@
         <v>1833</v>
       </c>
       <c r="L1633" s="5" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1634" spans="1:12" x14ac:dyDescent="0.4">
@@ -31953,7 +31998,7 @@
         <v>984</v>
       </c>
       <c r="E1646" s="2" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="F1646" s="2" t="s">
         <v>1832</v>
@@ -31962,7 +32007,7 @@
         <v>40</v>
       </c>
       <c r="L1646" s="5" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1647" spans="1:12" x14ac:dyDescent="0.4">
@@ -32094,7 +32139,7 @@
         <v>984</v>
       </c>
       <c r="E1655" s="2" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1656" spans="1:7" x14ac:dyDescent="0.4">
@@ -32358,13 +32403,13 @@
         <v>984</v>
       </c>
       <c r="E1673" s="4" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="F1673" s="2" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="L1673" s="5" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1674" spans="1:12" x14ac:dyDescent="0.4">
@@ -32412,7 +32457,7 @@
         <v>1833</v>
       </c>
       <c r="L1676" s="5" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1677" spans="1:12" x14ac:dyDescent="0.4">
@@ -33647,4 +33692,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577FBE2C-D309-4555-924F-764FB6899FA4}">
+  <dimension ref="D4:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D4">
+        <v>3.67</v>
+      </c>
+      <c r="E4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D5">
+        <v>4.28</v>
+      </c>
+      <c r="E5">
+        <f>($E$4/$D$4)*D5</f>
+        <v>0.25656675749318802</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D6">
+        <v>3.48</v>
+      </c>
+      <c r="E6">
+        <f>($E$4/$D$4)*D6</f>
+        <v>0.20861035422343324</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531CBF42-4EE3-444E-9FBE-9F19B4F33F93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C4D4D7-BB2B-47FA-9E05-4394DA0ADAD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_stock" sheetId="1" r:id="rId1"/>
@@ -7181,9 +7181,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1099" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1109" sqref="I1109"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1664" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1664" sqref="E1664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -24033,7 +24033,7 @@
         <v>1772</v>
       </c>
       <c r="F1108" s="2" t="s">
-        <v>1995</v>
+        <v>1976</v>
       </c>
       <c r="G1108" s="2">
         <v>215</v>
@@ -32477,7 +32477,10 @@
         <v>1959</v>
       </c>
       <c r="G1673" s="2">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="I1673" s="2">
+        <v>24.15</v>
       </c>
       <c r="L1673" s="5" t="s">
         <v>2032</v>
@@ -33767,15 +33770,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577FBE2C-D309-4555-924F-764FB6899FA4}">
-  <dimension ref="D4:E6"/>
+  <dimension ref="D4:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D4">
         <v>3.67</v>
       </c>
@@ -33783,7 +33786,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D5">
         <v>4.28</v>
       </c>
@@ -33792,13 +33795,64 @@
         <v>0.25656675749318802</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D6">
         <v>3.48</v>
       </c>
       <c r="E6">
         <f>($E$4/$D$4)*D6</f>
         <v>0.20861035422343324</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F9">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F10">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F11">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F12">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F13">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F14">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F17">
+        <v>45</v>
+      </c>
+      <c r="G17">
+        <v>0.06</v>
+      </c>
+      <c r="H17">
+        <f>$F$17/G17</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="G18">
+        <v>0.05</v>
+      </c>
+      <c r="H18">
+        <f>$F$17/G18</f>
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959BDCD1-DFBE-4997-98F6-40BC342E3972}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABEE9FB-8D27-46B3-86B8-82EED8E5D70C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6510" yWindow="180" windowWidth="21150" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_stock" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5825" uniqueCount="2063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5825" uniqueCount="2064">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6678,6 +6678,11 @@
   </si>
   <si>
     <t>GZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星
+短期注意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7203,8 +7208,8 @@
   <dimension ref="A1:L1746"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A921" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M929" sqref="M929"/>
+      <pane ySplit="1" topLeftCell="A1458" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1469" sqref="I1469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8926,9 +8931,6 @@
       <c r="F112" s="2" t="s">
         <v>1959</v>
       </c>
-      <c r="I112" s="2">
-        <v>14.3</v>
-      </c>
       <c r="L112" s="5" t="s">
         <v>2036</v>
       </c>
@@ -12535,9 +12537,6 @@
       <c r="G349" s="2">
         <v>41</v>
       </c>
-      <c r="I349" s="2">
-        <v>49.8</v>
-      </c>
       <c r="L349" s="5" t="s">
         <v>2046</v>
       </c>
@@ -29456,6 +29455,9 @@
       <c r="F1468" s="2" t="s">
         <v>2049</v>
       </c>
+      <c r="I1468" s="2">
+        <v>74.2</v>
+      </c>
     </row>
     <row r="1469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1469" s="3">
@@ -32530,14 +32532,11 @@
       <c r="E1673" s="4" t="s">
         <v>2033</v>
       </c>
-      <c r="F1673" s="2" t="s">
-        <v>1959</v>
+      <c r="F1673" s="4" t="s">
+        <v>2063</v>
       </c>
       <c r="G1673" s="2">
         <v>20</v>
-      </c>
-      <c r="I1673" s="2">
-        <v>24.15</v>
       </c>
       <c r="L1673" s="5" t="s">
         <v>2032</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{906F7A3C-0FE5-4B94-A679-C70E22181E47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CADC2B-8689-4641-9456-139393987AE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_stock!$E$1:$F$1746</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5827" uniqueCount="2065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5834" uniqueCount="2070">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6697,6 +6696,26 @@
   </si>
   <si>
     <t>工業電腦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老師選</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配息率太低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7222,8 +7241,8 @@
   <dimension ref="A1:L1746"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A814" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H814" sqref="H814"/>
+      <pane ySplit="1" topLeftCell="A951" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L961" sqref="L961"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -12263,6 +12282,9 @@
       <c r="D331" s="2" t="s">
         <v>984</v>
       </c>
+      <c r="E331" s="2" t="s">
+        <v>1853</v>
+      </c>
     </row>
     <row r="332" spans="1:12" ht="46.3" x14ac:dyDescent="0.4">
       <c r="A332" s="3">
@@ -12806,7 +12828,7 @@
         <v>1927</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>2049</v>
+        <v>1976</v>
       </c>
       <c r="G365" s="2">
         <v>145</v>
@@ -15686,6 +15708,12 @@
       <c r="D554" s="2" t="s">
         <v>984</v>
       </c>
+      <c r="E554" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>2067</v>
+      </c>
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A555" s="3">
@@ -17673,6 +17701,9 @@
       <c r="D685" s="2" t="s">
         <v>984</v>
       </c>
+      <c r="E685" s="2" t="s">
+        <v>2065</v>
+      </c>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A686" s="3">
@@ -21847,6 +21878,12 @@
       <c r="D960" s="2" t="s">
         <v>984</v>
       </c>
+      <c r="E960" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="L960" s="5" t="s">
+        <v>2069</v>
+      </c>
     </row>
     <row r="961" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A961" s="3">
@@ -25443,6 +25480,9 @@
       </c>
       <c r="D1197" s="2" t="s">
         <v>984</v>
+      </c>
+      <c r="E1197" s="2" t="s">
+        <v>2066</v>
       </c>
     </row>
     <row r="1198" spans="1:7" x14ac:dyDescent="0.4">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CADC2B-8689-4641-9456-139393987AE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06CC9BF-1172-4F4C-945B-7371FA6CD9EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5834" uniqueCount="2070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5837" uniqueCount="2076">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5402,13 +5402,6 @@
   </si>
   <si>
     <t>持有價</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9月大陸新法規，要加裝防撞警示系統
-毫米波雷達拿下兩大車廠訂單
-市佔至少五成
-明年EPS挑戰15元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6304,13 +6297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二極體
-營收要持續看多才行
-50塊錢的壓力很大，
-但題材也很熱，暫時不會回修?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tesla藍牙胎壓偵測大訂單
 獨家訂單，又是標配。
 2020/12/23 或許可能止跌了?</t>
@@ -6716,6 +6702,49 @@
   </si>
   <si>
     <t>配息率太低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月大陸新法規，要加裝防撞警示系統
+毫米波雷達拿下兩大車廠訂單
+市佔至少五成
+2021 EPS挑戰15元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長多
+短期注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋁質電容廠
+Q4 可能匯損嚴重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外資、法人持續布局中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二極體
+營收要持續看多才行
+50塊錢的壓力很大，
+但題材也很熱，暫時不會回修?
+強茂(2481)列注意股，109年11月營收10.09億元，
+稅前純益8700萬元，本期淨利8700萬元，每股純益0.26元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定存股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電源供應器
+PC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7241,8 +7270,8 @@
   <dimension ref="A1:L1746"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A951" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L961" sqref="L961"/>
+      <pane ySplit="1" topLeftCell="A1737" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1747" sqref="G1747"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -7275,16 +7304,16 @@
         <v>1765</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>1777</v>
@@ -7313,16 +7342,16 @@
         <v>984</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1956</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1957</v>
       </c>
       <c r="G2" s="2">
         <v>41</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -7512,7 +7541,7 @@
         <v>1218</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -7521,7 +7550,7 @@
         <v>984</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -7552,13 +7581,13 @@
         <v>984</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G18" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -7631,10 +7660,10 @@
         <v>984</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G23" s="2">
         <v>115</v>
@@ -7979,10 +8008,10 @@
         <v>984</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="H47" s="2">
         <v>90</v>
@@ -8100,10 +8129,10 @@
         <v>984</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G55" s="2">
         <v>9.5</v>
@@ -8630,16 +8659,16 @@
         <v>984</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="H92" s="2">
         <v>20</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
@@ -8796,7 +8825,7 @@
         <v>984</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.4">
@@ -8813,7 +8842,7 @@
         <v>984</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.4">
@@ -8844,13 +8873,13 @@
         <v>984</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="G106" s="2">
         <v>55</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.4">
@@ -8881,17 +8910,17 @@
         <v>984</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="G108" s="2">
         <v>47</v>
       </c>
       <c r="K108" s="5"/>
       <c r="L108" s="5" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.4">
@@ -8908,10 +8937,10 @@
         <v>984</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.4">
@@ -8928,7 +8957,7 @@
         <v>984</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.4">
@@ -8959,13 +8988,13 @@
         <v>984</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
@@ -9052,7 +9081,7 @@
         <v>984</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
@@ -9153,7 +9182,7 @@
         <v>984</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.4">
@@ -9184,7 +9213,7 @@
         <v>984</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.4">
@@ -9313,10 +9342,10 @@
         <v>984</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.4">
@@ -9361,13 +9390,13 @@
         <v>984</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="L139" s="5" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.4">
@@ -9412,16 +9441,16 @@
         <v>984</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="G142" s="2">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.4">
@@ -9497,10 +9526,10 @@
         <v>1770</v>
       </c>
       <c r="G147" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.4">
@@ -9797,10 +9826,10 @@
         <v>984</v>
       </c>
       <c r="E168" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L168" s="5" t="s">
         <v>1917</v>
-      </c>
-      <c r="L168" s="5" t="s">
-        <v>1918</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.4">
@@ -9971,7 +10000,7 @@
         <v>984</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.4">
@@ -10002,13 +10031,13 @@
         <v>984</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.4">
@@ -10039,7 +10068,7 @@
         <v>984</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.4">
@@ -10700,7 +10729,7 @@
         <v>984</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.4">
@@ -10759,7 +10788,7 @@
         <v>984</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.4">
@@ -10776,7 +10805,7 @@
         <v>984</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.4">
@@ -10821,7 +10850,7 @@
         <v>984</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.4">
@@ -10838,7 +10867,7 @@
         <v>984</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.4">
@@ -10869,7 +10898,7 @@
         <v>984</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.4">
@@ -10886,7 +10915,7 @@
         <v>984</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.4">
@@ -10931,7 +10960,7 @@
         <v>984</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.4">
@@ -10948,7 +10977,7 @@
         <v>984</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.4">
@@ -10979,7 +11008,7 @@
         <v>984</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.4">
@@ -11010,7 +11039,7 @@
         <v>984</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.4">
@@ -11041,16 +11070,16 @@
         <v>984</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>1864</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>1828</v>
-      </c>
-      <c r="G253" s="2">
-        <v>160</v>
+        <v>1863</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>2069</v>
+      </c>
+      <c r="H253" s="2">
+        <v>200</v>
       </c>
       <c r="L253" s="5" t="s">
-        <v>1778</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.4">
@@ -11165,10 +11194,10 @@
         <v>984</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G261" s="2">
         <v>35</v>
@@ -11202,16 +11231,16 @@
         <v>984</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="G263" s="2">
         <v>130</v>
       </c>
       <c r="L263" s="5" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.4">
@@ -11242,7 +11271,7 @@
         <v>984</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.4">
@@ -11287,10 +11316,10 @@
         <v>984</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="L268" s="5" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.4">
@@ -11349,7 +11378,7 @@
         <v>984</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G272" s="2">
         <v>420</v>
@@ -11369,10 +11398,10 @@
         <v>984</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="L273" s="5" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.4">
@@ -11403,7 +11432,7 @@
         <v>984</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.4">
@@ -11504,7 +11533,7 @@
         <v>984</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.4">
@@ -11521,7 +11550,7 @@
         <v>984</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.4">
@@ -11538,10 +11567,7 @@
         <v>984</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>1883</v>
-      </c>
-      <c r="G284" s="2">
-        <v>41</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.4">
@@ -11586,10 +11612,10 @@
         <v>984</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="L287" s="5" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.4">
@@ -11620,7 +11646,7 @@
         <v>984</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.4">
@@ -11679,7 +11705,7 @@
         <v>984</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.4">
@@ -11808,13 +11834,13 @@
         <v>984</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G302" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.4">
@@ -11845,7 +11871,7 @@
         <v>984</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.4">
@@ -11890,16 +11916,16 @@
         <v>984</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G307" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L307" s="5" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.4">
@@ -11916,13 +11942,13 @@
         <v>984</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="L308" s="5" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.4">
@@ -11939,13 +11965,13 @@
         <v>984</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="L309" s="5" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="310" spans="1:12" ht="77.150000000000006" x14ac:dyDescent="0.4">
@@ -11962,13 +11988,13 @@
         <v>984</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="G310" s="2">
         <v>280</v>
       </c>
       <c r="L310" s="5" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.4">
@@ -12041,7 +12067,7 @@
         <v>984</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.4">
@@ -12243,7 +12269,7 @@
         <v>984</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.4">
@@ -12260,13 +12286,13 @@
         <v>984</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="L330" s="5" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.4">
@@ -12283,7 +12309,7 @@
         <v>984</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="332" spans="1:12" ht="46.3" x14ac:dyDescent="0.4">
@@ -12300,13 +12326,13 @@
         <v>984</v>
       </c>
       <c r="E332" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F332" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="F332" s="2" t="s">
-        <v>1823</v>
-      </c>
       <c r="L332" s="5" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.4">
@@ -12337,16 +12363,16 @@
         <v>984</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="H334" s="2">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L334" s="5" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.4">
@@ -12391,7 +12417,7 @@
         <v>984</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.4">
@@ -12506,7 +12532,7 @@
         <v>984</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.4">
@@ -12565,16 +12591,16 @@
         <v>984</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="G349" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="L349" s="5" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.4">
@@ -12633,7 +12659,7 @@
         <v>984</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.4">
@@ -12692,13 +12718,13 @@
         <v>984</v>
       </c>
       <c r="E357" s="4" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="F357" s="4" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="G357" s="2">
-        <v>35</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.4">
@@ -12757,7 +12783,7 @@
         <v>984</v>
       </c>
       <c r="E361" s="4" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.4">
@@ -12774,7 +12800,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A363" s="3">
         <v>2456</v>
       </c>
@@ -12788,13 +12814,13 @@
         <v>984</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G363" s="2">
-        <v>100</v>
+        <v>1832</v>
+      </c>
+      <c r="H363" s="2">
+        <v>115</v>
       </c>
       <c r="L363" s="5" t="s">
-        <v>1933</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.4">
@@ -12825,13 +12851,16 @@
         <v>984</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="G365" s="2">
-        <v>145</v>
+        <v>160</v>
+      </c>
+      <c r="L365" s="5" t="s">
+        <v>2071</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.4">
@@ -12946,10 +12975,10 @@
         <v>984</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="L373" s="5" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.4">
@@ -12985,7 +13014,7 @@
         <v>2472</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>4</v>
@@ -12994,10 +13023,10 @@
         <v>984</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.4">
@@ -13056,10 +13085,10 @@
         <v>984</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="L380" s="5" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.4">
@@ -13076,7 +13105,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="382" spans="1:12" ht="61.75" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:12" ht="92.6" x14ac:dyDescent="0.4">
       <c r="A382" s="3">
         <v>2481</v>
       </c>
@@ -13090,16 +13119,16 @@
         <v>984</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="G382" s="2">
         <v>51</v>
       </c>
       <c r="L382" s="5" t="s">
-        <v>1984</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.4">
@@ -13172,7 +13201,7 @@
         <v>984</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.4">
@@ -13231,7 +13260,7 @@
         <v>984</v>
       </c>
       <c r="E391" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="G391" s="2">
         <v>210</v>
@@ -13293,7 +13322,7 @@
         <v>984</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.4">
@@ -13450,7 +13479,7 @@
         <v>984</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.4">
@@ -13537,7 +13566,7 @@
         <v>984</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.4">
@@ -13666,10 +13695,10 @@
         <v>984</v>
       </c>
       <c r="E421" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G421" s="2">
         <v>46</v>
@@ -13703,7 +13732,7 @@
         <v>984</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.4">
@@ -14238,10 +14267,10 @@
         <v>984</v>
       </c>
       <c r="E461" s="4" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G461" s="2">
         <v>32</v>
@@ -14499,16 +14528,16 @@
         <v>984</v>
       </c>
       <c r="E479" s="4" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F479" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G479" s="2">
         <v>15.5</v>
       </c>
       <c r="L479" s="5" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.4">
@@ -14525,7 +14554,7 @@
         <v>984</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.4">
@@ -14570,16 +14599,16 @@
         <v>984</v>
       </c>
       <c r="E483" s="4" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F483" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G483" s="2">
         <v>30</v>
       </c>
       <c r="L483" s="5" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.4">
@@ -14638,16 +14667,16 @@
         <v>984</v>
       </c>
       <c r="E487" s="4" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F487" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G487" s="2">
         <v>20</v>
       </c>
       <c r="L487" s="5" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.4">
@@ -14664,10 +14693,10 @@
         <v>984</v>
       </c>
       <c r="E488" s="4" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F488" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G488" s="2">
         <v>14</v>
@@ -14690,16 +14719,16 @@
         <v>984</v>
       </c>
       <c r="E489" s="4" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G489" s="2">
         <v>23.5</v>
       </c>
       <c r="L489" s="5" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.4">
@@ -14940,10 +14969,10 @@
         <v>984</v>
       </c>
       <c r="E506" s="4" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F506" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G506" s="2">
         <v>24</v>
@@ -15019,7 +15048,7 @@
         <v>984</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.4">
@@ -15036,7 +15065,7 @@
         <v>984</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.4">
@@ -15193,10 +15222,10 @@
         <v>984</v>
       </c>
       <c r="E523" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="G523" s="2">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="L523" s="7"/>
     </row>
@@ -15214,7 +15243,7 @@
         <v>984</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.4">
@@ -15273,10 +15302,10 @@
         <v>984</v>
       </c>
       <c r="E528" s="4" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="L528" s="5" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.4">
@@ -15293,10 +15322,10 @@
         <v>984</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="L529" s="5" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.4">
@@ -15330,10 +15359,10 @@
         <v>1772</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="L531" s="5" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.4">
@@ -15364,7 +15393,7 @@
         <v>984</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.4">
@@ -15409,16 +15438,16 @@
         <v>984</v>
       </c>
       <c r="E536" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="G536" s="2">
         <v>160</v>
       </c>
       <c r="L536" s="5" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.4">
@@ -15477,7 +15506,7 @@
         <v>984</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.4">
@@ -15508,7 +15537,7 @@
         <v>984</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="G542" s="2">
         <v>36</v>
@@ -15584,13 +15613,13 @@
         <v>984</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="G547" s="2">
         <v>260</v>
       </c>
       <c r="L547" s="5" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.4">
@@ -15635,13 +15664,13 @@
         <v>984</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="F550" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G550" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.4">
@@ -15686,13 +15715,10 @@
         <v>984</v>
       </c>
       <c r="E553" s="4" t="s">
-        <v>1886</v>
-      </c>
-      <c r="G553" s="2">
-        <v>29</v>
+        <v>1885</v>
       </c>
       <c r="L553" s="5" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.4">
@@ -15709,10 +15735,10 @@
         <v>984</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="F554" s="2" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.4">
@@ -15757,13 +15783,13 @@
         <v>984</v>
       </c>
       <c r="E557" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="F557" s="2" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="L557" s="5" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.4">
@@ -15906,7 +15932,7 @@
         <v>984</v>
       </c>
       <c r="E567" s="2" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.4">
@@ -16063,13 +16089,13 @@
         <v>984</v>
       </c>
       <c r="E578" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="L578" s="5" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.4">
@@ -16282,10 +16308,10 @@
         <v>984</v>
       </c>
       <c r="E593" s="2" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="F593" s="2" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.4">
@@ -16330,7 +16356,7 @@
         <v>984</v>
       </c>
       <c r="E596" s="2" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.4">
@@ -16417,10 +16443,10 @@
         <v>984</v>
       </c>
       <c r="E602" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F602" s="2" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.4">
@@ -16465,7 +16491,7 @@
         <v>984</v>
       </c>
       <c r="E605" s="2" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.4">
@@ -16524,10 +16550,10 @@
         <v>984</v>
       </c>
       <c r="E609" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="L609" s="5" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.4">
@@ -16603,13 +16629,13 @@
         <v>984</v>
       </c>
       <c r="E614" s="4" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="G614" s="2">
         <v>300</v>
       </c>
       <c r="L614" s="5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.4">
@@ -16755,10 +16781,10 @@
         <v>984</v>
       </c>
       <c r="E624" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="L624" s="5" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="625" spans="1:12" x14ac:dyDescent="0.4">
@@ -16817,10 +16843,10 @@
         <v>984</v>
       </c>
       <c r="E628" s="2" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="L628" s="5" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.4">
@@ -16893,10 +16919,10 @@
         <v>984</v>
       </c>
       <c r="E633" s="2" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="G633" s="2">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="634" spans="1:12" x14ac:dyDescent="0.4">
@@ -16913,7 +16939,7 @@
         <v>984</v>
       </c>
       <c r="E634" s="2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="635" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
@@ -16930,13 +16956,13 @@
         <v>984</v>
       </c>
       <c r="E635" s="2" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F635" s="2" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="L635" s="5" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.4">
@@ -16953,13 +16979,13 @@
         <v>984</v>
       </c>
       <c r="E636" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F636" s="2" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="H636" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="637" spans="1:12" x14ac:dyDescent="0.4">
@@ -17004,7 +17030,7 @@
         <v>984</v>
       </c>
       <c r="E639" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="640" spans="1:12" x14ac:dyDescent="0.4">
@@ -17077,7 +17103,7 @@
         <v>984</v>
       </c>
       <c r="E644" s="2" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="645" spans="1:12" x14ac:dyDescent="0.4">
@@ -17122,13 +17148,13 @@
         <v>984</v>
       </c>
       <c r="E647" s="2" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="F647" s="2" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="L647" s="5" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.4">
@@ -17173,7 +17199,7 @@
         <v>984</v>
       </c>
       <c r="E650" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="651" spans="1:12" x14ac:dyDescent="0.4">
@@ -17190,7 +17216,7 @@
         <v>984</v>
       </c>
       <c r="E651" s="2" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="652" spans="1:12" x14ac:dyDescent="0.4">
@@ -17221,16 +17247,16 @@
         <v>984</v>
       </c>
       <c r="E653" s="4" t="s">
+        <v>1916</v>
+      </c>
+      <c r="F653" s="2" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G653" s="2">
+        <v>50</v>
+      </c>
+      <c r="L653" s="5" t="s">
         <v>1917</v>
-      </c>
-      <c r="F653" s="2" t="s">
-        <v>1957</v>
-      </c>
-      <c r="G653" s="2">
-        <v>48</v>
-      </c>
-      <c r="L653" s="5" t="s">
-        <v>1918</v>
       </c>
     </row>
     <row r="654" spans="1:12" x14ac:dyDescent="0.4">
@@ -17275,13 +17301,10 @@
         <v>984</v>
       </c>
       <c r="E656" s="4" t="s">
-        <v>1917</v>
-      </c>
-      <c r="F656" s="2" t="s">
-        <v>1995</v>
+        <v>1916</v>
       </c>
       <c r="G656" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="657" spans="1:12" x14ac:dyDescent="0.4">
@@ -17340,10 +17363,10 @@
         <v>984</v>
       </c>
       <c r="E660" s="4" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="L660" s="5" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.4">
@@ -17528,7 +17551,7 @@
         <v>984</v>
       </c>
       <c r="E673" s="4" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="G673" s="2">
         <v>45</v>
@@ -17702,7 +17725,7 @@
         <v>984</v>
       </c>
       <c r="E685" s="2" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.4">
@@ -17752,7 +17775,7 @@
         <v>4725</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>4</v>
@@ -17887,13 +17910,13 @@
         <v>984</v>
       </c>
       <c r="E698" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="F698" s="2" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="L698" s="5" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.4">
@@ -18025,10 +18048,10 @@
         <v>984</v>
       </c>
       <c r="E707" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="L707" s="5" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="708" spans="1:12" x14ac:dyDescent="0.4">
@@ -18143,10 +18166,10 @@
         <v>984</v>
       </c>
       <c r="E715" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="L715" s="5" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="716" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
@@ -18163,10 +18186,10 @@
         <v>984</v>
       </c>
       <c r="E716" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="L716" s="5" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="717" spans="1:12" ht="61.75" x14ac:dyDescent="0.4">
@@ -18183,13 +18206,13 @@
         <v>984</v>
       </c>
       <c r="E717" s="2" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="G717" s="2">
         <v>200</v>
       </c>
       <c r="L717" s="5" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="718" spans="1:12" x14ac:dyDescent="0.4">
@@ -18206,7 +18229,7 @@
         <v>984</v>
       </c>
       <c r="E718" s="2" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.4">
@@ -18251,7 +18274,7 @@
         <v>984</v>
       </c>
       <c r="E721" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="722" spans="1:12" x14ac:dyDescent="0.4">
@@ -18310,16 +18333,19 @@
         <v>984</v>
       </c>
       <c r="E725" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F725" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="H725" s="2">
-        <v>160</v>
+        <v>140</v>
+      </c>
+      <c r="J725" s="2">
+        <v>145</v>
       </c>
       <c r="L725" s="5" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="726" spans="1:12" x14ac:dyDescent="0.4">
@@ -18406,7 +18432,7 @@
         <v>984</v>
       </c>
       <c r="E731" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="732" spans="1:12" x14ac:dyDescent="0.4">
@@ -18451,10 +18477,10 @@
         <v>984</v>
       </c>
       <c r="E734" s="2" t="s">
+        <v>1902</v>
+      </c>
+      <c r="L734" s="5" t="s">
         <v>1903</v>
-      </c>
-      <c r="L734" s="5" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="735" spans="1:12" x14ac:dyDescent="0.4">
@@ -18670,7 +18696,7 @@
         <v>984</v>
       </c>
       <c r="E749" s="2" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.4">
@@ -18757,10 +18783,10 @@
         <v>984</v>
       </c>
       <c r="E755" s="4" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="F755" s="2" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G755" s="2">
         <v>110</v>
@@ -18892,13 +18918,16 @@
         <v>984</v>
       </c>
       <c r="E764" s="2" t="s">
-        <v>1986</v>
+        <v>1984</v>
+      </c>
+      <c r="F764" s="2" t="s">
+        <v>2073</v>
       </c>
       <c r="G764" s="2">
         <v>41</v>
       </c>
       <c r="L764" s="5" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="765" spans="1:12" x14ac:dyDescent="0.4">
@@ -18929,7 +18958,7 @@
         <v>984</v>
       </c>
       <c r="E766" s="2" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="G766" s="2">
         <v>11</v>
@@ -19075,16 +19104,16 @@
         <v>984</v>
       </c>
       <c r="E776" s="4" t="s">
+        <v>1959</v>
+      </c>
+      <c r="F776" s="2" t="s">
+        <v>1828</v>
+      </c>
+      <c r="G776" s="2">
+        <v>33</v>
+      </c>
+      <c r="L776" s="5" t="s">
         <v>1960</v>
-      </c>
-      <c r="F776" s="2" t="s">
-        <v>1829</v>
-      </c>
-      <c r="G776" s="2">
-        <v>30</v>
-      </c>
-      <c r="L776" s="5" t="s">
-        <v>1961</v>
       </c>
     </row>
     <row r="777" spans="1:12" x14ac:dyDescent="0.4">
@@ -19213,16 +19242,16 @@
         <v>984</v>
       </c>
       <c r="E785" s="2" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="F785" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G785" s="2">
         <v>42</v>
       </c>
       <c r="L785" s="5" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="786" spans="1:12" x14ac:dyDescent="0.4">
@@ -19267,7 +19296,7 @@
         <v>984</v>
       </c>
       <c r="E788" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="789" spans="1:12" x14ac:dyDescent="0.4">
@@ -19354,13 +19383,16 @@
         <v>984</v>
       </c>
       <c r="E794" s="4" t="s">
-        <v>1885</v>
+        <v>1884</v>
+      </c>
+      <c r="F794" s="2" t="s">
+        <v>2074</v>
       </c>
       <c r="G794" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L794" s="5" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="795" spans="1:12" x14ac:dyDescent="0.4">
@@ -19391,7 +19423,7 @@
         <v>984</v>
       </c>
       <c r="E796" s="2" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="797" spans="1:12" x14ac:dyDescent="0.4">
@@ -19464,13 +19496,13 @@
         <v>984</v>
       </c>
       <c r="E801" s="2" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F801" s="2" t="s">
+        <v>2055</v>
+      </c>
+      <c r="L801" s="5" t="s">
         <v>2056</v>
-      </c>
-      <c r="F801" s="2" t="s">
-        <v>2057</v>
-      </c>
-      <c r="L801" s="5" t="s">
-        <v>2058</v>
       </c>
     </row>
     <row r="802" spans="1:12" x14ac:dyDescent="0.4">
@@ -19518,7 +19550,7 @@
         <v>1772</v>
       </c>
       <c r="L804" s="5" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="805" spans="1:12" x14ac:dyDescent="0.4">
@@ -19549,7 +19581,7 @@
         <v>984</v>
       </c>
       <c r="E806" s="2" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="807" spans="1:12" x14ac:dyDescent="0.4">
@@ -19594,10 +19626,10 @@
         <v>984</v>
       </c>
       <c r="E809" s="2" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="F809" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="810" spans="1:12" x14ac:dyDescent="0.4">
@@ -19628,10 +19660,10 @@
         <v>984</v>
       </c>
       <c r="E811" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="L811" s="5" t="s">
         <v>1857</v>
-      </c>
-      <c r="L811" s="5" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="812" spans="1:12" x14ac:dyDescent="0.4">
@@ -19662,7 +19694,7 @@
         <v>984</v>
       </c>
       <c r="E813" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="814" spans="1:12" x14ac:dyDescent="0.4">
@@ -19679,7 +19711,7 @@
         <v>984</v>
       </c>
       <c r="E814" s="2" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="815" spans="1:12" x14ac:dyDescent="0.4">
@@ -19724,7 +19756,7 @@
         <v>984</v>
       </c>
       <c r="E817" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="818" spans="1:12" x14ac:dyDescent="0.4">
@@ -19811,7 +19843,7 @@
         <v>984</v>
       </c>
       <c r="E823" s="2" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="824" spans="1:12" x14ac:dyDescent="0.4">
@@ -19828,7 +19860,7 @@
         <v>984</v>
       </c>
       <c r="E824" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="825" spans="1:12" x14ac:dyDescent="0.4">
@@ -19845,7 +19877,7 @@
         <v>984</v>
       </c>
       <c r="E825" s="2" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="826" spans="1:12" x14ac:dyDescent="0.4">
@@ -19893,7 +19925,7 @@
         <v>1770</v>
       </c>
       <c r="F828" s="2" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G828" s="2">
         <v>30</v>
@@ -19913,10 +19945,10 @@
         <v>984</v>
       </c>
       <c r="E829" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="L829" s="5" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="830" spans="1:12" x14ac:dyDescent="0.4">
@@ -20157,13 +20189,13 @@
         <v>984</v>
       </c>
       <c r="E846" s="2" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="F846" s="2" t="s">
-        <v>1826</v>
+        <v>1975</v>
       </c>
       <c r="H846" s="2">
-        <v>190</v>
+        <v>130</v>
       </c>
     </row>
     <row r="847" spans="1:8" x14ac:dyDescent="0.4">
@@ -20197,7 +20229,7 @@
         <v>984</v>
       </c>
       <c r="E848" s="4" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="G848" s="2">
         <v>50</v>
@@ -20217,7 +20249,7 @@
         <v>984</v>
       </c>
       <c r="E849" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="850" spans="1:12" x14ac:dyDescent="0.4">
@@ -20318,7 +20350,7 @@
         <v>984</v>
       </c>
       <c r="E856" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="857" spans="1:12" x14ac:dyDescent="0.4">
@@ -20405,16 +20437,16 @@
         <v>984</v>
       </c>
       <c r="E862" s="2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="F862" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G862" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="L862" s="5" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="863" spans="1:12" x14ac:dyDescent="0.4">
@@ -20487,16 +20519,16 @@
         <v>984</v>
       </c>
       <c r="E867" s="4" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="F867" s="2" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="G867" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L867" s="8" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="868" spans="1:12" x14ac:dyDescent="0.4">
@@ -20504,7 +20536,7 @@
         <v>8028</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="C868" s="2" t="s">
         <v>4</v>
@@ -20513,10 +20545,10 @@
         <v>984</v>
       </c>
       <c r="E868" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="L868" s="5" t="s">
         <v>1876</v>
-      </c>
-      <c r="L868" s="5" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="869" spans="1:12" x14ac:dyDescent="0.4">
@@ -20561,7 +20593,7 @@
         <v>984</v>
       </c>
       <c r="E871" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="872" spans="1:12" x14ac:dyDescent="0.4">
@@ -20606,10 +20638,10 @@
         <v>984</v>
       </c>
       <c r="E874" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="L874" s="5" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="875" spans="1:12" x14ac:dyDescent="0.4">
@@ -20631,7 +20663,7 @@
         <v>8103</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C876" s="2" t="s">
         <v>4</v>
@@ -20640,7 +20672,7 @@
         <v>984</v>
       </c>
       <c r="E876" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="877" spans="1:12" x14ac:dyDescent="0.4">
@@ -20895,16 +20927,13 @@
         <v>984</v>
       </c>
       <c r="E894" s="2" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F894" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="L894" s="5" t="s">
         <v>1940</v>
-      </c>
-      <c r="G894" s="2">
-        <v>21</v>
-      </c>
-      <c r="L894" s="5" t="s">
-        <v>1941</v>
       </c>
     </row>
     <row r="895" spans="1:12" x14ac:dyDescent="0.4">
@@ -21033,16 +21062,16 @@
         <v>984</v>
       </c>
       <c r="E903" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="F903" s="2" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="G903" s="2">
         <v>320</v>
       </c>
       <c r="L903" s="5" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="904" spans="1:12" x14ac:dyDescent="0.4">
@@ -21227,10 +21256,10 @@
         <v>984</v>
       </c>
       <c r="E916" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="L916" s="5" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="917" spans="1:12" x14ac:dyDescent="0.4">
@@ -21471,7 +21500,7 @@
         <v>984</v>
       </c>
       <c r="E933" s="2" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.4">
@@ -21614,7 +21643,7 @@
         <v>984</v>
       </c>
       <c r="E943" s="2" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.4">
@@ -21659,13 +21688,13 @@
         <v>984</v>
       </c>
       <c r="E946" s="2" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="F946" s="2" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="L946" s="5" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="947" spans="1:12" x14ac:dyDescent="0.4">
@@ -21682,7 +21711,7 @@
         <v>984</v>
       </c>
       <c r="E947" s="2" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="948" spans="1:12" x14ac:dyDescent="0.4">
@@ -21699,16 +21728,16 @@
         <v>984</v>
       </c>
       <c r="E948" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="F948" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G948" s="2">
         <v>40</v>
       </c>
       <c r="L948" s="5" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="949" spans="1:12" x14ac:dyDescent="0.4">
@@ -21879,10 +21908,10 @@
         <v>984</v>
       </c>
       <c r="E960" s="2" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="L960" s="5" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="961" spans="1:12" x14ac:dyDescent="0.4">
@@ -21927,10 +21956,10 @@
         <v>984</v>
       </c>
       <c r="E963" s="4" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="F963" s="2" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G963" s="2">
         <v>95</v>
@@ -21978,16 +22007,16 @@
         <v>984</v>
       </c>
       <c r="E966" s="4" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="F966" s="2" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G966" s="2">
         <v>55</v>
       </c>
       <c r="L966" s="5" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="967" spans="1:12" x14ac:dyDescent="0.4">
@@ -22060,13 +22089,13 @@
         <v>984</v>
       </c>
       <c r="E971" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="G971" s="2">
         <v>90</v>
       </c>
       <c r="L971" s="5" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="972" spans="1:12" x14ac:dyDescent="0.4">
@@ -22237,13 +22266,13 @@
         <v>984</v>
       </c>
       <c r="E983" s="2" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F983" s="2" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="L983" s="5" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="984" spans="1:12" x14ac:dyDescent="0.4">
@@ -22302,7 +22331,7 @@
         <v>984</v>
       </c>
       <c r="E987" s="2" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="988" spans="1:12" x14ac:dyDescent="0.4">
@@ -22361,13 +22390,13 @@
         <v>984</v>
       </c>
       <c r="E991" s="2" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="G991" s="2">
         <v>70</v>
       </c>
       <c r="L991" s="5" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="992" spans="1:12" x14ac:dyDescent="0.4">
@@ -22415,10 +22444,10 @@
         <v>277</v>
       </c>
       <c r="F994" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G994" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="995" spans="1:12" ht="108" x14ac:dyDescent="0.4">
@@ -22435,16 +22464,16 @@
         <v>984</v>
       </c>
       <c r="E995" s="2" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="F995" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G995" s="2">
         <v>110</v>
       </c>
       <c r="L995" s="5" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="996" spans="1:12" x14ac:dyDescent="0.4">
@@ -22573,10 +22602,10 @@
         <v>984</v>
       </c>
       <c r="E1004" s="2" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="F1004" s="2" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G1004" s="2">
         <v>42</v>
@@ -22722,10 +22751,10 @@
         <v>984</v>
       </c>
       <c r="E1014" s="2" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="L1014" s="5" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1015" spans="1:12" x14ac:dyDescent="0.4">
@@ -22980,7 +23009,7 @@
         <v>984</v>
       </c>
       <c r="E1032" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1033" spans="1:8" x14ac:dyDescent="0.4">
@@ -22997,7 +23026,7 @@
         <v>984</v>
       </c>
       <c r="E1033" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1034" spans="1:8" x14ac:dyDescent="0.4">
@@ -23042,7 +23071,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="1037" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1037" spans="1:8" ht="30.9" x14ac:dyDescent="0.4">
       <c r="A1037" s="3">
         <v>3078</v>
       </c>
@@ -23055,8 +23084,8 @@
       <c r="D1037" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="E1037" s="2" t="s">
-        <v>1840</v>
+      <c r="E1037" s="4" t="s">
+        <v>2075</v>
       </c>
       <c r="H1037" s="2">
         <v>50</v>
@@ -23090,7 +23119,7 @@
         <v>984</v>
       </c>
       <c r="E1039" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1040" spans="1:8" x14ac:dyDescent="0.4">
@@ -23121,7 +23150,7 @@
         <v>984</v>
       </c>
       <c r="E1041" s="2" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1042" spans="1:12" x14ac:dyDescent="0.4">
@@ -23166,10 +23195,10 @@
         <v>984</v>
       </c>
       <c r="E1044" s="2" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="L1044" s="5" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1045" spans="1:12" x14ac:dyDescent="0.4">
@@ -23186,7 +23215,7 @@
         <v>984</v>
       </c>
       <c r="E1045" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1046" spans="1:12" x14ac:dyDescent="0.4">
@@ -23273,10 +23302,10 @@
         <v>984</v>
       </c>
       <c r="E1051" s="4" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="L1051" s="5" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1052" spans="1:12" x14ac:dyDescent="0.4">
@@ -23433,7 +23462,7 @@
         <v>984</v>
       </c>
       <c r="E1062" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1063" spans="1:12" x14ac:dyDescent="0.4">
@@ -23492,10 +23521,10 @@
         <v>984</v>
       </c>
       <c r="E1066" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F1066" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1067" spans="1:12" x14ac:dyDescent="0.4">
@@ -23526,10 +23555,10 @@
         <v>984</v>
       </c>
       <c r="E1068" s="4" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="L1068" s="5" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="1069" spans="1:12" x14ac:dyDescent="0.4">
@@ -23588,7 +23617,7 @@
         <v>984</v>
       </c>
       <c r="E1072" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1073" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
@@ -23605,16 +23634,16 @@
         <v>984</v>
       </c>
       <c r="E1073" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="F1073" s="2" t="s">
-        <v>1828</v>
-      </c>
-      <c r="G1073" s="2">
-        <v>150</v>
+        <v>1827</v>
+      </c>
+      <c r="H1073" s="2">
+        <v>250</v>
       </c>
       <c r="L1073" s="5" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1074" spans="1:12" x14ac:dyDescent="0.4">
@@ -23799,7 +23828,7 @@
         <v>984</v>
       </c>
       <c r="E1086" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1087" spans="1:12" x14ac:dyDescent="0.4">
@@ -23858,10 +23887,10 @@
         <v>984</v>
       </c>
       <c r="E1090" s="4" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F1090" s="2" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="H1090" s="2">
         <v>55</v>
@@ -23870,7 +23899,7 @@
         <v>50</v>
       </c>
       <c r="L1090" s="7" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1091" spans="1:12" x14ac:dyDescent="0.4">
@@ -23985,16 +24014,16 @@
         <v>984</v>
       </c>
       <c r="E1098" s="4" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="F1098" s="2" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="G1098" s="2">
         <v>710</v>
       </c>
       <c r="L1098" s="7" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1099" spans="1:12" x14ac:dyDescent="0.4">
@@ -24140,7 +24169,7 @@
         <v>1772</v>
       </c>
       <c r="F1108" s="2" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="G1108" s="2">
         <v>215</v>
@@ -24219,13 +24248,13 @@
         <v>984</v>
       </c>
       <c r="E1113" s="4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="F1113" s="2" t="s">
+        <v>1966</v>
+      </c>
+      <c r="L1113" s="5" t="s">
         <v>1967</v>
-      </c>
-      <c r="L1113" s="5" t="s">
-        <v>1968</v>
       </c>
     </row>
     <row r="1114" spans="1:12" x14ac:dyDescent="0.4">
@@ -24242,7 +24271,7 @@
         <v>984</v>
       </c>
       <c r="E1114" s="2" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1115" spans="1:12" x14ac:dyDescent="0.4">
@@ -24304,7 +24333,7 @@
         <v>277</v>
       </c>
       <c r="G1118" s="2">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="1119" spans="1:12" x14ac:dyDescent="0.4">
@@ -24461,7 +24490,7 @@
         <v>984</v>
       </c>
       <c r="E1129" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1130" spans="1:7" x14ac:dyDescent="0.4">
@@ -24509,7 +24538,7 @@
         <v>1772</v>
       </c>
       <c r="F1132" s="2" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G1132" s="2">
         <v>60</v>
@@ -24739,16 +24768,16 @@
         <v>984</v>
       </c>
       <c r="E1148" s="2" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="F1148" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G1148" s="2">
         <v>80</v>
       </c>
       <c r="L1148" s="5" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1149" spans="1:12" x14ac:dyDescent="0.4">
@@ -24821,7 +24850,7 @@
         <v>984</v>
       </c>
       <c r="E1153" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1154" spans="1:12" x14ac:dyDescent="0.4">
@@ -24852,16 +24881,16 @@
         <v>984</v>
       </c>
       <c r="E1155" s="4" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="F1155" s="2" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="G1155" s="2">
         <v>90</v>
       </c>
       <c r="L1155" s="5" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1156" spans="1:12" x14ac:dyDescent="0.4">
@@ -24906,16 +24935,16 @@
         <v>984</v>
       </c>
       <c r="E1158" s="4" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F1158" s="2" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="G1158" s="2">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="L1158" s="7" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1159" spans="1:12" x14ac:dyDescent="0.4">
@@ -25212,7 +25241,7 @@
         <v>984</v>
       </c>
       <c r="E1179" s="2" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1180" spans="1:5" x14ac:dyDescent="0.4">
@@ -25417,7 +25446,7 @@
         <v>984</v>
       </c>
       <c r="E1193" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1194" spans="1:7" x14ac:dyDescent="0.4">
@@ -25482,7 +25511,7 @@
         <v>984</v>
       </c>
       <c r="E1197" s="2" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1198" spans="1:7" x14ac:dyDescent="0.4">
@@ -25555,13 +25584,13 @@
         <v>984</v>
       </c>
       <c r="E1202" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="F1202" s="2" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="L1202" s="5" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1203" spans="1:12" x14ac:dyDescent="0.4">
@@ -25578,10 +25607,10 @@
         <v>984</v>
       </c>
       <c r="E1203" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="L1203" s="5" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1204" spans="1:12" x14ac:dyDescent="0.4">
@@ -25696,16 +25725,16 @@
         <v>984</v>
       </c>
       <c r="E1211" s="4" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="F1211" s="2" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G1211" s="2">
         <v>61</v>
       </c>
       <c r="L1211" s="5" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1212" spans="1:12" x14ac:dyDescent="0.4">
@@ -25750,7 +25779,7 @@
         <v>984</v>
       </c>
       <c r="E1214" s="2" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1215" spans="1:12" x14ac:dyDescent="0.4">
@@ -25935,7 +25964,7 @@
         <v>984</v>
       </c>
       <c r="E1227" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1228" spans="1:5" x14ac:dyDescent="0.4">
@@ -25994,7 +26023,7 @@
         <v>984</v>
       </c>
       <c r="E1231" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1232" spans="1:5" x14ac:dyDescent="0.4">
@@ -26081,7 +26110,7 @@
         <v>984</v>
       </c>
       <c r="E1237" s="2" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1238" spans="1:5" x14ac:dyDescent="0.4">
@@ -26602,10 +26631,10 @@
         <v>984</v>
       </c>
       <c r="E1274" s="2" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="F1274" s="2" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1275" spans="1:6" x14ac:dyDescent="0.4">
@@ -26832,10 +26861,10 @@
         <v>984</v>
       </c>
       <c r="E1290" s="4" t="s">
+        <v>1996</v>
+      </c>
+      <c r="L1290" s="5" t="s">
         <v>1998</v>
-      </c>
-      <c r="L1290" s="5" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="1291" spans="1:12" x14ac:dyDescent="0.4">
@@ -26894,7 +26923,7 @@
         <v>984</v>
       </c>
       <c r="E1294" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1295" spans="1:12" x14ac:dyDescent="0.4">
@@ -26925,7 +26954,7 @@
         <v>984</v>
       </c>
       <c r="E1296" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1297" spans="1:4" x14ac:dyDescent="0.4">
@@ -27180,16 +27209,16 @@
         <v>984</v>
       </c>
       <c r="E1314" s="4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="F1314" s="2" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G1314" s="2">
         <v>25</v>
       </c>
       <c r="L1314" s="7" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1315" spans="1:12" x14ac:dyDescent="0.4">
@@ -27220,7 +27249,7 @@
         <v>984</v>
       </c>
       <c r="E1316" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1317" spans="1:12" x14ac:dyDescent="0.4">
@@ -27251,13 +27280,13 @@
         <v>984</v>
       </c>
       <c r="E1318" s="2" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="G1318" s="2">
         <v>80</v>
       </c>
       <c r="L1318" s="5" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1319" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
@@ -27274,13 +27303,10 @@
         <v>984</v>
       </c>
       <c r="E1319" s="2" t="s">
-        <v>1991</v>
-      </c>
-      <c r="G1319" s="2">
-        <v>80</v>
+        <v>1989</v>
       </c>
       <c r="L1319" s="5" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1320" spans="1:12" x14ac:dyDescent="0.4">
@@ -27423,10 +27449,10 @@
         <v>984</v>
       </c>
       <c r="E1329" s="2" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="L1329" s="5" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1330" spans="1:12" x14ac:dyDescent="0.4">
@@ -27555,7 +27581,7 @@
         <v>984</v>
       </c>
       <c r="E1338" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1339" spans="1:12" x14ac:dyDescent="0.4">
@@ -27572,7 +27598,7 @@
         <v>984</v>
       </c>
       <c r="E1339" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1340" spans="1:12" x14ac:dyDescent="0.4">
@@ -27757,7 +27783,7 @@
         <v>984</v>
       </c>
       <c r="E1352" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1353" spans="1:5" x14ac:dyDescent="0.4">
@@ -27914,7 +27940,7 @@
         <v>984</v>
       </c>
       <c r="E1363" s="2" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1364" spans="1:12" ht="46.3" x14ac:dyDescent="0.4">
@@ -27931,19 +27957,19 @@
         <v>984</v>
       </c>
       <c r="E1364" s="4" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F1364" s="2" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="G1364" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I1364" s="2">
         <v>48.2</v>
       </c>
       <c r="L1364" s="5" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1365" spans="1:12" x14ac:dyDescent="0.4">
@@ -28100,7 +28126,7 @@
         <v>984</v>
       </c>
       <c r="E1375" s="4" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="G1375" s="2">
         <v>85</v>
@@ -28302,10 +28328,10 @@
         <v>984</v>
       </c>
       <c r="E1389" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="L1389" s="5" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1390" spans="1:12" x14ac:dyDescent="0.4">
@@ -28364,13 +28390,13 @@
         <v>984</v>
       </c>
       <c r="E1393" s="4" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="G1393" s="2">
         <v>50</v>
       </c>
       <c r="L1393" s="5" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1394" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
@@ -28387,16 +28413,16 @@
         <v>984</v>
       </c>
       <c r="E1394" s="4" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F1394" s="2" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="G1394" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L1394" s="5" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1395" spans="1:12" x14ac:dyDescent="0.4">
@@ -28427,16 +28453,16 @@
         <v>984</v>
       </c>
       <c r="E1396" s="2" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="F1396" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G1396" s="2">
         <v>10</v>
       </c>
       <c r="L1396" s="5" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1397" spans="1:12" x14ac:dyDescent="0.4">
@@ -28467,7 +28493,7 @@
         <v>984</v>
       </c>
       <c r="E1398" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1399" spans="1:12" x14ac:dyDescent="0.4">
@@ -28540,7 +28566,7 @@
         <v>984</v>
       </c>
       <c r="E1403" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1404" spans="1:12" x14ac:dyDescent="0.4">
@@ -28571,7 +28597,7 @@
         <v>984</v>
       </c>
       <c r="E1405" s="2" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1406" spans="1:12" x14ac:dyDescent="0.4">
@@ -28602,10 +28628,10 @@
         <v>984</v>
       </c>
       <c r="E1407" s="4" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="L1407" s="5" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1408" spans="1:12" x14ac:dyDescent="0.4">
@@ -28622,7 +28648,7 @@
         <v>984</v>
       </c>
       <c r="L1408" s="5" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1409" spans="1:7" x14ac:dyDescent="0.4">
@@ -28695,7 +28721,7 @@
         <v>984</v>
       </c>
       <c r="E1413" s="2" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="G1413" s="2">
         <v>12</v>
@@ -28911,13 +28937,13 @@
         <v>984</v>
       </c>
       <c r="E1428" s="2" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F1428" s="2" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G1428" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1429" spans="1:7" x14ac:dyDescent="0.4">
@@ -29032,7 +29058,7 @@
         <v>984</v>
       </c>
       <c r="E1436" s="2" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1437" spans="1:7" x14ac:dyDescent="0.4">
@@ -29049,7 +29075,7 @@
         <v>984</v>
       </c>
       <c r="E1437" s="2" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G1437" s="2">
         <v>430</v>
@@ -29186,16 +29212,16 @@
         <v>6104</v>
       </c>
       <c r="B1447" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C1447" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D1447" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="E1447" s="2" t="s">
         <v>1848</v>
-      </c>
-      <c r="C1447" s="2" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D1447" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="E1447" s="2" t="s">
-        <v>1849</v>
       </c>
       <c r="L1447" s="5" t="s">
         <v>1761</v>
@@ -29369,7 +29395,7 @@
         <v>984</v>
       </c>
       <c r="E1459" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1460" spans="1:12" ht="30.9" x14ac:dyDescent="0.4">
@@ -29386,13 +29412,13 @@
         <v>984</v>
       </c>
       <c r="E1460" s="4" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="F1460" s="2" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="L1460" s="5" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1461" spans="1:12" x14ac:dyDescent="0.4">
@@ -29437,7 +29463,7 @@
         <v>984</v>
       </c>
       <c r="E1463" s="4" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1464" spans="1:12" x14ac:dyDescent="0.4">
@@ -29510,10 +29536,10 @@
         <v>984</v>
       </c>
       <c r="E1468" s="2" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="F1468" s="2" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="I1468" s="2">
         <v>74.2</v>
@@ -29673,7 +29699,7 @@
         <v>984</v>
       </c>
       <c r="E1479" s="2" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1480" spans="1:12" x14ac:dyDescent="0.4">
@@ -29718,16 +29744,16 @@
         <v>984</v>
       </c>
       <c r="E1482" s="4" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="F1482" s="2" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="G1482" s="2">
         <v>60</v>
       </c>
       <c r="L1482" s="5" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1483" spans="1:12" x14ac:dyDescent="0.4">
@@ -29786,7 +29812,7 @@
         <v>984</v>
       </c>
       <c r="E1486" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1487" spans="1:12" x14ac:dyDescent="0.4">
@@ -29803,7 +29829,7 @@
         <v>984</v>
       </c>
       <c r="E1487" s="2" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1488" spans="1:12" x14ac:dyDescent="0.4">
@@ -29851,7 +29877,7 @@
         <v>277</v>
       </c>
       <c r="G1490" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L1490" s="5" t="s">
         <v>1775</v>
@@ -29969,7 +29995,7 @@
         <v>984</v>
       </c>
       <c r="E1498" s="4" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1499" spans="1:12" x14ac:dyDescent="0.4">
@@ -30112,7 +30138,7 @@
         <v>984</v>
       </c>
       <c r="E1508" s="2" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1509" spans="1:12" x14ac:dyDescent="0.4">
@@ -30143,16 +30169,16 @@
         <v>984</v>
       </c>
       <c r="E1510" s="4" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="F1510" s="2" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G1510" s="2">
         <v>100</v>
       </c>
       <c r="L1510" s="5" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1511" spans="1:12" x14ac:dyDescent="0.4">
@@ -30211,7 +30237,7 @@
         <v>984</v>
       </c>
       <c r="E1514" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1515" spans="1:12" x14ac:dyDescent="0.4">
@@ -30228,7 +30254,7 @@
         <v>984</v>
       </c>
       <c r="E1515" s="4" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1516" spans="1:12" x14ac:dyDescent="0.4">
@@ -30264,7 +30290,7 @@
         <v>6237</v>
       </c>
       <c r="B1518" s="1" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C1518" s="2" t="s">
         <v>1758</v>
@@ -30273,13 +30299,13 @@
         <v>984</v>
       </c>
       <c r="E1518" s="4" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F1518" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="L1518" s="5" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1519" spans="1:12" x14ac:dyDescent="0.4">
@@ -30548,7 +30574,7 @@
         <v>984</v>
       </c>
       <c r="E1537" s="4" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1538" spans="1:12" x14ac:dyDescent="0.4">
@@ -30649,10 +30675,10 @@
         <v>984</v>
       </c>
       <c r="E1544" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="L1544" s="5" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1545" spans="1:12" x14ac:dyDescent="0.4">
@@ -30725,7 +30751,7 @@
         <v>984</v>
       </c>
       <c r="E1549" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1550" spans="1:12" x14ac:dyDescent="0.4">
@@ -30784,16 +30810,16 @@
         <v>984</v>
       </c>
       <c r="E1553" s="4" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="F1553" s="2" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="G1553" s="2">
         <v>130</v>
       </c>
       <c r="L1553" s="5" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1554" spans="1:12" x14ac:dyDescent="0.4">
@@ -30810,7 +30836,7 @@
         <v>984</v>
       </c>
       <c r="E1554" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1555" spans="1:12" x14ac:dyDescent="0.4">
@@ -30967,10 +30993,10 @@
         <v>984</v>
       </c>
       <c r="E1565" s="2" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="L1565" s="5" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1566" spans="1:12" x14ac:dyDescent="0.4">
@@ -31029,10 +31055,10 @@
         <v>984</v>
       </c>
       <c r="E1569" s="4" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="L1569" s="5" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1570" spans="1:12" x14ac:dyDescent="0.4">
@@ -31077,7 +31103,7 @@
         <v>984</v>
       </c>
       <c r="E1572" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1573" spans="1:12" x14ac:dyDescent="0.4">
@@ -31206,10 +31232,10 @@
         <v>984</v>
       </c>
       <c r="E1581" s="4" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="L1581" s="5" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1582" spans="1:12" x14ac:dyDescent="0.4">
@@ -31229,7 +31255,7 @@
         <v>1770</v>
       </c>
       <c r="F1582" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="H1582" s="2">
         <v>220</v>
@@ -31243,7 +31269,7 @@
         <v>6542</v>
       </c>
       <c r="B1583" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C1583" s="2" t="s">
         <v>1758</v>
@@ -31252,7 +31278,7 @@
         <v>984</v>
       </c>
       <c r="E1583" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1584" spans="1:12" x14ac:dyDescent="0.4">
@@ -31274,19 +31300,19 @@
         <v>6548</v>
       </c>
       <c r="B1585" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1585" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D1585" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="E1585" s="2" t="s">
         <v>1902</v>
       </c>
-      <c r="C1585" s="2" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D1585" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="E1585" s="2" t="s">
-        <v>1903</v>
-      </c>
       <c r="L1585" s="5" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1586" spans="1:12" x14ac:dyDescent="0.4">
@@ -31401,7 +31427,7 @@
         <v>984</v>
       </c>
       <c r="E1593" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1594" spans="1:12" x14ac:dyDescent="0.4">
@@ -31460,7 +31486,7 @@
         <v>984</v>
       </c>
       <c r="E1597" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1598" spans="1:12" x14ac:dyDescent="0.4">
@@ -31477,7 +31503,7 @@
         <v>984</v>
       </c>
       <c r="E1598" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1599" spans="1:12" x14ac:dyDescent="0.4">
@@ -31648,10 +31674,10 @@
         <v>984</v>
       </c>
       <c r="E1610" s="4" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="L1610" s="5" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1611" spans="1:12" x14ac:dyDescent="0.4">
@@ -31766,7 +31792,7 @@
         <v>984</v>
       </c>
       <c r="E1618" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1619" spans="1:12" x14ac:dyDescent="0.4">
@@ -31797,16 +31823,16 @@
         <v>984</v>
       </c>
       <c r="E1620" s="2" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F1620" s="2" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="G1620" s="2">
         <v>103</v>
       </c>
       <c r="L1620" s="5" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1621" spans="1:12" x14ac:dyDescent="0.4">
@@ -31921,10 +31947,13 @@
         <v>984</v>
       </c>
       <c r="E1628" s="4" t="s">
-        <v>1867</v>
+        <v>1866</v>
+      </c>
+      <c r="F1628" s="2" t="s">
+        <v>2074</v>
       </c>
       <c r="G1628" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1629" spans="1:12" x14ac:dyDescent="0.4">
@@ -31997,10 +32026,10 @@
         <v>984</v>
       </c>
       <c r="E1633" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="L1633" s="5" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1634" spans="1:12" x14ac:dyDescent="0.4">
@@ -32185,16 +32214,16 @@
         <v>984</v>
       </c>
       <c r="E1646" s="2" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F1646" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G1646" s="2">
         <v>40</v>
       </c>
       <c r="L1646" s="5" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1647" spans="1:12" x14ac:dyDescent="0.4">
@@ -32281,7 +32310,7 @@
         <v>984</v>
       </c>
       <c r="E1652" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1653" spans="1:7" x14ac:dyDescent="0.4">
@@ -32326,7 +32355,7 @@
         <v>984</v>
       </c>
       <c r="E1655" s="2" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1656" spans="1:7" x14ac:dyDescent="0.4">
@@ -32357,10 +32386,10 @@
         <v>984</v>
       </c>
       <c r="E1657" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F1657" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G1657" s="2">
         <v>26</v>
@@ -32590,16 +32619,16 @@
         <v>984</v>
       </c>
       <c r="E1673" s="4" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="F1673" s="4" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="G1673" s="2">
         <v>20</v>
       </c>
       <c r="L1673" s="5" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1674" spans="1:12" x14ac:dyDescent="0.4">
@@ -32644,10 +32673,10 @@
         <v>984</v>
       </c>
       <c r="E1676" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="L1676" s="5" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1677" spans="1:12" x14ac:dyDescent="0.4">
@@ -32832,7 +32861,7 @@
         <v>984</v>
       </c>
       <c r="E1689" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1690" spans="1:5" x14ac:dyDescent="0.4">
@@ -33423,7 +33452,7 @@
         <v>984</v>
       </c>
       <c r="E1731" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1732" spans="1:5" x14ac:dyDescent="0.4">
@@ -33636,13 +33665,13 @@
         <v>984</v>
       </c>
       <c r="E1746" s="4" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F1746" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G1746" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -33673,168 +33702,168 @@
   <sheetData>
     <row r="2" spans="1:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3" s="9" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="11" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C14" s="11" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C16" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>1799</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="14" t="s">
         <v>1800</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="17" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C22" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>1806</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>1812</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C27" s="18"/>
       <c r="D27" s="19"/>
       <c r="E27" s="20" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="29" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C29" s="12" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E29" s="22">
         <v>44151</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.4">
@@ -33842,7 +33871,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="17" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.4">
@@ -33850,7 +33879,7 @@
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="17" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.4">
@@ -33858,7 +33887,7 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="17" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.4">
@@ -33866,7 +33895,7 @@
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="17" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
@@ -33874,7 +33903,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="20" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
   </sheetData>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB5F025-F291-4359-B5A3-17A4820E98D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577C7875-A950-434E-A23C-85E6092727EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7311,8 +7311,8 @@
   <dimension ref="A1:M1746"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1617" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1629" sqref="G1629"/>
+      <pane ySplit="1" topLeftCell="A1099" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1112" sqref="K1112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24260,7 +24260,7 @@
         <v>215</v>
       </c>
       <c r="I1108" s="2">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="1109" spans="1:13" x14ac:dyDescent="0.25">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44916618-33CF-4D55-BD0A-450C102612AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4E0DF2-63DB-43A4-8FFB-38909A24EFE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5753" uniqueCount="2036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5757" uniqueCount="2039">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6622,6 +6622,19 @@
   </si>
   <si>
     <t>1點影響力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦選</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>個股報告 URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像感測器（CIS）廠
+2020 EPS 5.16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7155,11 +7168,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1720"/>
+  <dimension ref="A1:N1720"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G347" sqref="G347"/>
+      <pane ySplit="1" topLeftCell="A1292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1303" sqref="M1303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7176,10 +7189,11 @@
     <col min="11" max="11" width="13.140625" style="7" customWidth="1"/>
     <col min="12" max="12" width="13.140625" style="6" customWidth="1"/>
     <col min="13" max="13" width="58" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7219,8 +7233,11 @@
       <c r="M1" s="5" t="s">
         <v>1710</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1101</v>
       </c>
@@ -7246,7 +7263,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1102</v>
       </c>
@@ -7260,7 +7277,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1103</v>
       </c>
@@ -7274,7 +7291,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1104</v>
       </c>
@@ -7288,7 +7305,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1108</v>
       </c>
@@ -7302,7 +7319,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1109</v>
       </c>
@@ -7316,7 +7333,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1110</v>
       </c>
@@ -7330,7 +7347,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1201</v>
       </c>
@@ -7344,7 +7361,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1203</v>
       </c>
@@ -7358,7 +7375,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1210</v>
       </c>
@@ -7372,7 +7389,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1213</v>
       </c>
@@ -7386,7 +7403,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1215</v>
       </c>
@@ -7400,7 +7417,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1216</v>
       </c>
@@ -7414,7 +7431,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1217</v>
       </c>
@@ -7428,7 +7445,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1218</v>
       </c>
@@ -19845,6 +19862,9 @@
       <c r="D827" s="2" t="s">
         <v>945</v>
       </c>
+      <c r="E827" s="2" t="s">
+        <v>2036</v>
+      </c>
     </row>
     <row r="828" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A828" s="3">
@@ -26989,7 +27009,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1302" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1302" s="3">
         <v>4974</v>
       </c>
@@ -27001,6 +27021,12 @@
       </c>
       <c r="D1302" s="2" t="s">
         <v>945</v>
+      </c>
+      <c r="E1302" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="M1302" s="5" t="s">
+        <v>2038</v>
       </c>
     </row>
     <row r="1303" spans="1:13" x14ac:dyDescent="0.25">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4E0DF2-63DB-43A4-8FFB-38909A24EFE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E745990D-BCCC-4614-A696-4E163AC19252}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5757" uniqueCount="2039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5758" uniqueCount="2040">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6635,6 +6635,10 @@
   <si>
     <t>影像感測器（CIS）廠
 2020 EPS 5.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apple</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7171,8 +7175,8 @@
   <dimension ref="A1:N1720"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1303" sqref="M1303"/>
+      <pane ySplit="1" topLeftCell="A1049" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1059" sqref="G1059"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9424,9 +9428,6 @@
       <c r="G146" s="2">
         <v>15</v>
       </c>
-      <c r="I146" s="2">
-        <v>18.55</v>
-      </c>
       <c r="M146" s="5" t="s">
         <v>1884</v>
       </c>
@@ -17690,6 +17691,12 @@
       <c r="D686" s="2" t="s">
         <v>945</v>
       </c>
+      <c r="E686" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="I686" s="2">
+        <v>54.6</v>
+      </c>
     </row>
     <row r="687" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A687" s="3">
@@ -23402,10 +23409,7 @@
         <v>1875</v>
       </c>
       <c r="G1059" s="2">
-        <v>200</v>
-      </c>
-      <c r="I1059" s="2">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="1060" spans="1:13" x14ac:dyDescent="0.25">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E745990D-BCCC-4614-A696-4E163AC19252}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9DBB60-8A9B-4E66-B7FA-EEC3035B63F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5758" uniqueCount="2040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="2048">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6641,6 +6641,40 @@
     <t xml:space="preserve"> Apple</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>半導體封裝材料</t>
+  </si>
+  <si>
+    <t>股票面額變更 「10元變1元」長華：股東權益不受損 流通性更好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不投資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>導電漿料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 EPS 估 4.7
+被動元件客戶訂單成長以及新產品與新客戶的加入
+太陽能背銀導電漿量產
+九成仍為被動元件客戶，太陽能占比約一成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.notion.so/3293-7-05-57f45e92184d4195aa62fd43d9609609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老師說</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.notion.so/4123-45-93-9b3bf65775564cbea8499cd2eb335c68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -6651,7 +6685,7 @@
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.0000_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6678,6 +6712,14 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6814,10 +6856,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6892,9 +6935,13 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7175,8 +7222,8 @@
   <dimension ref="A1:N1720"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1049" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1059" sqref="G1059"/>
+      <pane ySplit="1" topLeftCell="A525" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G536" sqref="G536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7185,7 +7232,7 @@
     <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.140625" style="2" customWidth="1"/>
@@ -15380,6 +15427,9 @@
       <c r="D534" s="2" t="s">
         <v>945</v>
       </c>
+      <c r="E534" s="2" t="s">
+        <v>2046</v>
+      </c>
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535" s="3">
@@ -20294,7 +20344,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="854" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A854" s="3">
         <v>8070</v>
       </c>
@@ -20306,6 +20356,15 @@
       </c>
       <c r="D854" s="2" t="s">
         <v>945</v>
+      </c>
+      <c r="E854" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F854" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="M854" s="5" t="s">
+        <v>2041</v>
       </c>
     </row>
     <row r="855" spans="1:13" x14ac:dyDescent="0.25">
@@ -23612,7 +23671,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1073" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1073" s="3">
         <v>3285</v>
       </c>
@@ -23626,7 +23685,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1074" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1074" s="3">
         <v>3287</v>
       </c>
@@ -23640,7 +23699,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1075" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1075" s="3">
         <v>3288</v>
       </c>
@@ -23654,7 +23713,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1076" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1076" s="3">
         <v>3289</v>
       </c>
@@ -23668,7 +23727,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1077" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1077" s="3">
         <v>3290</v>
       </c>
@@ -23682,7 +23741,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1078" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A1078" s="3">
         <v>3293</v>
       </c>
@@ -23707,8 +23766,11 @@
       <c r="M1078" s="7" t="s">
         <v>1842</v>
       </c>
-    </row>
-    <row r="1079" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1078" s="26" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1079" s="3">
         <v>3294</v>
       </c>
@@ -23722,7 +23784,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1080" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1080" s="3">
         <v>3297</v>
       </c>
@@ -23736,7 +23798,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1081" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1081" s="3">
         <v>3303</v>
       </c>
@@ -23750,7 +23812,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1082" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1082" s="3">
         <v>3306</v>
       </c>
@@ -23764,7 +23826,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1083" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1083" s="3">
         <v>3310</v>
       </c>
@@ -23778,7 +23840,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1084" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1084" s="3">
         <v>3313</v>
       </c>
@@ -23792,7 +23854,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1085" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1085" s="3">
         <v>3317</v>
       </c>
@@ -23806,7 +23868,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1086" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1086" s="3">
         <v>3322</v>
       </c>
@@ -23820,7 +23882,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1087" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1087" s="3">
         <v>3323</v>
       </c>
@@ -23834,7 +23896,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1088" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1088" s="3">
         <v>3324</v>
       </c>
@@ -25306,7 +25368,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1185" s="3">
         <v>4111</v>
       </c>
@@ -25320,7 +25382,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1186" s="3">
         <v>4113</v>
       </c>
@@ -25334,7 +25396,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1187" s="3">
         <v>4114</v>
       </c>
@@ -25348,7 +25410,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1188" s="3">
         <v>4116</v>
       </c>
@@ -25362,7 +25424,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1189" s="3">
         <v>4120</v>
       </c>
@@ -25376,7 +25438,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1190" s="3">
         <v>4121</v>
       </c>
@@ -25390,7 +25452,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1191" s="3">
         <v>4123</v>
       </c>
@@ -25415,8 +25477,11 @@
       <c r="M1191" s="5" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="1192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1191" s="26" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1192" s="3">
         <v>4126</v>
       </c>
@@ -25430,7 +25495,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1193" s="3">
         <v>4127</v>
       </c>
@@ -25444,7 +25509,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1194" s="3">
         <v>4128</v>
       </c>
@@ -25461,7 +25526,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="1195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1195" s="3">
         <v>4129</v>
       </c>
@@ -25475,7 +25540,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1196" s="3">
         <v>4130</v>
       </c>
@@ -25489,7 +25554,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1197" s="3">
         <v>4131</v>
       </c>
@@ -25503,7 +25568,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1198" s="3">
         <v>4138</v>
       </c>
@@ -25517,7 +25582,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1199" s="3">
         <v>4139</v>
       </c>
@@ -25531,7 +25596,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1200" s="3">
         <v>4147</v>
       </c>
@@ -26675,7 +26740,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1280" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A1280" s="3">
         <v>4760</v>
       </c>
@@ -26687,6 +26752,12 @@
       </c>
       <c r="D1280" s="2" t="s">
         <v>945</v>
+      </c>
+      <c r="E1280" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="M1280" s="5" t="s">
+        <v>2044</v>
       </c>
     </row>
     <row r="1281" spans="1:13" x14ac:dyDescent="0.25">
@@ -33281,8 +33352,12 @@
   </sheetData>
   <autoFilter ref="E1:F1720" xr:uid="{09BABC13-759D-4A5F-93EC-FFF7D0AB2244}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N1078" r:id="rId1" xr:uid="{383C5809-0EBA-460F-96C7-1CCC7D4C612C}"/>
+    <hyperlink ref="N1191" r:id="rId2" xr:uid="{3CF023B0-53A4-40C3-80B2-572834BD27FD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9DBB60-8A9B-4E66-B7FA-EEC3035B63F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E40BFF-8683-4A9B-87F8-1CC8EFC99F12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7222,8 +7222,8 @@
   <dimension ref="A1:N1720"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A525" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G536" sqref="G536"/>
+      <pane ySplit="1" topLeftCell="A929" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I942" sqref="I942"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21658,6 +21658,9 @@
       </c>
       <c r="G941" s="2">
         <v>80</v>
+      </c>
+      <c r="I941" s="2">
+        <v>79.2</v>
       </c>
       <c r="M941" s="5" t="s">
         <v>2013</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E40BFF-8683-4A9B-87F8-1CC8EFC99F12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAC04E8-8C96-4079-8D11-82C168B81381}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7222,8 +7222,8 @@
   <dimension ref="A1:N1720"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A929" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I942" sqref="I942"/>
+      <pane ySplit="1" topLeftCell="A674" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I686" sqref="I686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17744,8 +17744,8 @@
       <c r="E686" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="I686" s="2">
-        <v>54.6</v>
+      <c r="G686" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="687" spans="1:13" x14ac:dyDescent="0.25">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAC04E8-8C96-4079-8D11-82C168B81381}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F5DEFA-67A6-4EA1-9E17-C9EDC1B78C77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7222,8 +7222,8 @@
   <dimension ref="A1:N1720"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A674" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I686" sqref="I686"/>
+      <pane ySplit="1" topLeftCell="A1435" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1447" sqref="I1447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29270,7 +29270,7 @@
         <v>1995</v>
       </c>
       <c r="I1446" s="2">
-        <v>74.2</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="1447" spans="1:9" x14ac:dyDescent="0.25">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F5DEFA-67A6-4EA1-9E17-C9EDC1B78C77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79ABBEB-4FA6-4617-B533-749519E3F436}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="300" windowWidth="23670" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_stock" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="2048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="2049">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6673,6 +6673,10 @@
   </si>
   <si>
     <t>https://www.notion.so/4123-45-93-9b3bf65775564cbea8499cd2eb335c68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦選</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7222,8 +7226,8 @@
   <dimension ref="A1:N1720"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1435" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1447" sqref="I1447"/>
+      <pane ySplit="1" topLeftCell="A1503" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1515" sqref="I1515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15022,6 +15026,9 @@
       <c r="G509" s="2">
         <v>60</v>
       </c>
+      <c r="I509" s="2">
+        <v>64.5</v>
+      </c>
       <c r="M509" s="7"/>
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.25">
@@ -19939,9 +19946,6 @@
       <c r="E828" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="F828" s="2" t="s">
-        <v>1924</v>
-      </c>
       <c r="H828" s="2">
         <v>130</v>
       </c>
@@ -21659,9 +21663,6 @@
       <c r="G941" s="2">
         <v>80</v>
       </c>
-      <c r="I941" s="2">
-        <v>79.2</v>
-      </c>
       <c r="M941" s="5" t="s">
         <v>2013</v>
       </c>
@@ -23639,9 +23640,6 @@
       <c r="H1070" s="2">
         <v>55</v>
       </c>
-      <c r="I1070" s="2">
-        <v>50</v>
-      </c>
       <c r="M1070" s="7" t="s">
         <v>1773</v>
       </c>
@@ -30145,7 +30143,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1505" s="3">
         <v>6263</v>
       </c>
@@ -30159,7 +30157,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1506" s="3">
         <v>6264</v>
       </c>
@@ -30173,7 +30171,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1507" s="3">
         <v>6265</v>
       </c>
@@ -30187,7 +30185,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1508" s="3">
         <v>6266</v>
       </c>
@@ -30201,7 +30199,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1509" s="3">
         <v>6270</v>
       </c>
@@ -30215,7 +30213,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1510" s="3">
         <v>6274</v>
       </c>
@@ -30229,7 +30227,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1511" s="3">
         <v>6275</v>
       </c>
@@ -30243,7 +30241,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1512" s="3">
         <v>6276</v>
       </c>
@@ -30257,7 +30255,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1513" s="3">
         <v>6279</v>
       </c>
@@ -30271,7 +30269,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1514" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1514" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1514" s="3">
         <v>6284</v>
       </c>
@@ -30293,8 +30291,11 @@
       <c r="G1514" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="1515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1514" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1515" s="3">
         <v>6287</v>
       </c>
@@ -30308,7 +30309,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1516" s="3">
         <v>6290</v>
       </c>
@@ -30322,7 +30323,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1517" s="3">
         <v>6291</v>
       </c>
@@ -30336,7 +30337,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1518" s="3">
         <v>6292</v>
       </c>
@@ -30350,7 +30351,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1519" s="3">
         <v>6294</v>
       </c>
@@ -30364,7 +30365,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1520" s="3">
         <v>6404</v>
       </c>
@@ -32537,6 +32538,12 @@
       </c>
       <c r="D1663" s="2" t="s">
         <v>945</v>
+      </c>
+      <c r="E1663" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="I1663" s="2">
+        <v>56.5</v>
       </c>
     </row>
     <row r="1664" spans="1:13" x14ac:dyDescent="0.25">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79ABBEB-4FA6-4617-B533-749519E3F436}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08108914-1AE3-4D95-9CFF-89932294BEA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4845" yWindow="300" windowWidth="23670" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7226,8 +7226,8 @@
   <dimension ref="A1:N1720"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1503" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1515" sqref="I1515"/>
+      <pane ySplit="1" topLeftCell="A1653" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1663" sqref="I1663"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -32541,9 +32541,6 @@
       </c>
       <c r="E1663" s="2" t="s">
         <v>2048</v>
-      </c>
-      <c r="I1663" s="2">
-        <v>56.5</v>
       </c>
     </row>
     <row r="1664" spans="1:13" x14ac:dyDescent="0.25">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DED0429-5688-4323-A555-2FCAE5217459}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F145C47A-EF8A-49FC-BB9E-A7B189618156}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_stock" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5745" uniqueCount="2042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5748" uniqueCount="2045">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6655,6 +6655,18 @@
   </si>
   <si>
     <t>電腦選</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前的展旺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020估 4塊，配息3塊。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7204,8 +7216,8 @@
   <dimension ref="A1:N1713"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1015" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1018" sqref="A1018:XFD1018"/>
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G390" sqref="G390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7290,7 +7302,7 @@
         <v>1899</v>
       </c>
       <c r="G2" s="2">
-        <v>41</v>
+        <v>40.5</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>1835</v>
@@ -7938,9 +7950,6 @@
       <c r="E46" s="2" t="s">
         <v>1824</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>1900</v>
-      </c>
       <c r="H46" s="2">
         <v>90</v>
       </c>
@@ -8804,7 +8813,7 @@
         <v>1833</v>
       </c>
       <c r="G105" s="2">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M105" s="5" t="s">
         <v>1830</v>
@@ -8844,7 +8853,7 @@
         <v>2018</v>
       </c>
       <c r="G107" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K107" s="5"/>
       <c r="L107" s="4"/>
@@ -9376,7 +9385,7 @@
         <v>1768</v>
       </c>
       <c r="G141" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M141" s="5" t="s">
         <v>1802</v>
@@ -10991,7 +11000,7 @@
         <v>1770</v>
       </c>
       <c r="H251" s="2">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="M251" s="5" t="s">
         <v>2007</v>
@@ -11115,7 +11124,7 @@
         <v>2021</v>
       </c>
       <c r="G259" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L259" s="25">
         <v>3.9527738679245283</v>
@@ -11770,7 +11779,7 @@
         <v>1936</v>
       </c>
       <c r="G300" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
@@ -11858,7 +11867,7 @@
         <v>1771</v>
       </c>
       <c r="G305" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M305" s="5" t="s">
         <v>1957</v>
@@ -12660,7 +12669,7 @@
         <v>1936</v>
       </c>
       <c r="G355" s="2">
-        <v>35.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.3">
@@ -12758,8 +12767,8 @@
       <c r="E361" s="2" t="s">
         <v>1775</v>
       </c>
-      <c r="H361" s="2">
-        <v>115</v>
+      <c r="G361" s="2">
+        <v>70</v>
       </c>
       <c r="M361" s="5" t="s">
         <v>2008</v>
@@ -12799,7 +12808,7 @@
         <v>1918</v>
       </c>
       <c r="G363" s="2">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="M363" s="5" t="s">
         <v>2009</v>
@@ -12971,7 +12980,7 @@
         <v>1988</v>
       </c>
       <c r="G374" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.3">
@@ -13070,7 +13079,7 @@
         <v>1901</v>
       </c>
       <c r="G380" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M380" s="5" t="s">
         <v>2010</v>
@@ -13208,7 +13217,7 @@
         <v>1925</v>
       </c>
       <c r="G389" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.3">
@@ -25592,7 +25601,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1201" s="3">
         <v>4167</v>
       </c>
@@ -25605,8 +25614,11 @@
       <c r="D1201" s="2" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="1202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M1201" s="5" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1202" s="3">
         <v>4168</v>
       </c>
@@ -25620,7 +25632,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1203" s="3">
         <v>4171</v>
       </c>
@@ -25637,7 +25649,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="1204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1204" s="3">
         <v>4173</v>
       </c>
@@ -25651,7 +25663,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1205" s="3">
         <v>4174</v>
       </c>
@@ -25665,7 +25677,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1206" s="3">
         <v>4175</v>
       </c>
@@ -25679,7 +25691,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1207" s="3">
         <v>4183</v>
       </c>
@@ -25693,7 +25705,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1208" s="3">
         <v>4188</v>
       </c>
@@ -25707,7 +25719,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1209" s="3">
         <v>4192</v>
       </c>
@@ -25724,7 +25736,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="1210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1210" s="3">
         <v>4198</v>
       </c>
@@ -25738,7 +25750,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1211" s="3">
         <v>4205</v>
       </c>
@@ -25752,7 +25764,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1212" s="3">
         <v>4207</v>
       </c>
@@ -25766,7 +25778,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1213" s="3">
         <v>4303</v>
       </c>
@@ -25780,7 +25792,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1214" s="3">
         <v>4304</v>
       </c>
@@ -25794,7 +25806,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1215" s="3">
         <v>4305</v>
       </c>
@@ -25808,7 +25820,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1216" s="3">
         <v>4401</v>
       </c>
@@ -27820,6 +27832,18 @@
       </c>
       <c r="D1352" s="2" t="s">
         <v>941</v>
+      </c>
+      <c r="E1352" s="2" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F1352" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="G1352" s="2">
+        <v>34</v>
+      </c>
+      <c r="M1352" s="5" t="s">
+        <v>2044</v>
       </c>
     </row>
     <row r="1353" spans="1:13" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F145C47A-EF8A-49FC-BB9E-A7B189618156}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D963C0D-F6C7-416D-BB28-83BC647BF6D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5748" uniqueCount="2045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5751" uniqueCount="2047">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6667,6 +6667,14 @@
   </si>
   <si>
     <t>2020估 4塊，配息3塊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半導體</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7216,8 +7224,8 @@
   <dimension ref="A1:N1713"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G390" sqref="G390"/>
+      <pane ySplit="1" topLeftCell="A1014" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1022" sqref="F1022"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -20264,6 +20272,9 @@
       <c r="E848" s="2" t="s">
         <v>1776</v>
       </c>
+      <c r="F848" s="2" t="s">
+        <v>2045</v>
+      </c>
     </row>
     <row r="849" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A849" s="3">
@@ -22887,6 +22898,12 @@
       <c r="D1021" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="E1021" s="2" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F1021" s="2" t="s">
+        <v>2045</v>
+      </c>
     </row>
     <row r="1022" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1022" s="3">
@@ -23820,10 +23837,7 @@
         <v>1918</v>
       </c>
       <c r="G1082" s="2">
-        <v>215</v>
-      </c>
-      <c r="I1082" s="2">
-        <v>238</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1083" spans="1:13" x14ac:dyDescent="0.3">
@@ -24533,6 +24547,9 @@
       </c>
       <c r="G1129" s="2">
         <v>90</v>
+      </c>
+      <c r="H1129" s="2">
+        <v>93.5</v>
       </c>
       <c r="M1129" s="5" t="s">
         <v>1931</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4549D7DB-61DF-48AA-B393-07DB3C38D95F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3BBCE9-EB35-428E-8E1D-7EB3333E2706}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7233,8 +7233,8 @@
   <dimension ref="A1:N1713"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A841" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B848" sqref="B848"/>
+      <pane ySplit="1" topLeftCell="A1122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1129" sqref="I1129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -24557,7 +24557,7 @@
       <c r="G1129" s="2">
         <v>90</v>
       </c>
-      <c r="H1129" s="2">
+      <c r="I1129" s="2">
         <v>93.5</v>
       </c>
       <c r="M1129" s="5" t="s">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3BBCE9-EB35-428E-8E1D-7EB3333E2706}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CA8BE0-67BE-42E3-BB54-7D9EC45936BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_stock!$E$1:$F$1713</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7234,7 +7234,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1129" sqref="I1129"/>
+      <selection pane="bottomLeft" activeCell="G1130" sqref="G1130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -24555,10 +24555,7 @@
         <v>1917</v>
       </c>
       <c r="G1129" s="2">
-        <v>90</v>
-      </c>
-      <c r="I1129" s="2">
-        <v>93.5</v>
+        <v>91</v>
       </c>
       <c r="M1129" s="5" t="s">
         <v>1930</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CA8BE0-67BE-42E3-BB54-7D9EC45936BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150D1748-A78C-4D5B-B7B7-9E28401BC2D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5753" uniqueCount="2049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11459" uniqueCount="2049">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7233,8 +7233,8 @@
   <dimension ref="A1:N1713"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1130" sqref="G1130"/>
+      <pane ySplit="1" topLeftCell="A961" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G970" sqref="G970"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -20284,6 +20284,9 @@
       <c r="F848" s="2" t="s">
         <v>2044</v>
       </c>
+      <c r="I848" s="2">
+        <v>246</v>
+      </c>
     </row>
     <row r="849" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A849" s="3">
@@ -22123,7 +22126,7 @@
         <v>1770</v>
       </c>
       <c r="G969" s="2">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="970" spans="1:13" ht="105" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150D1748-A78C-4D5B-B7B7-9E28401BC2D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD28D341-A9D2-4CAA-AE81-7A7B44072EA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11459" uniqueCount="2049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5753" uniqueCount="2049">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7233,8 +7233,8 @@
   <dimension ref="A1:N1713"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A961" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G970" sqref="G970"/>
+      <pane ySplit="1" topLeftCell="A1064" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1072" sqref="I1072"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -20285,7 +20285,7 @@
         <v>2044</v>
       </c>
       <c r="I848" s="2">
-        <v>246</v>
+        <v>259.5</v>
       </c>
     </row>
     <row r="849" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -23694,7 +23694,10 @@
         <v>1916</v>
       </c>
       <c r="G1072" s="2">
-        <v>750</v>
+        <v>800</v>
+      </c>
+      <c r="I1072" s="2">
+        <v>808</v>
       </c>
       <c r="M1072" s="7" t="s">
         <v>1835</v>
@@ -29204,10 +29207,7 @@
         <v>1987</v>
       </c>
       <c r="G1439" s="2">
-        <v>71</v>
-      </c>
-      <c r="I1439" s="2">
-        <v>76.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1440" spans="1:13" x14ac:dyDescent="0.3">
@@ -30229,9 +30229,6 @@
       </c>
       <c r="G1507" s="2">
         <v>70</v>
-      </c>
-      <c r="I1507" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="1508" spans="1:13" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD28D341-A9D2-4CAA-AE81-7A7B44072EA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E79BBF-FCB2-4F42-8BCE-718A57F42D8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5753" uniqueCount="2049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5756" uniqueCount="2052">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6684,6 +6684,18 @@
   </si>
   <si>
     <t>閎康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球第三大的高爾夫頭製造商</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7233,8 +7245,8 @@
   <dimension ref="A1:N1713"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1064" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1072" sqref="I1072"/>
+      <pane ySplit="1" topLeftCell="A1686" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1695" sqref="M1695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -32818,7 +32830,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1681" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1681" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1681" s="3">
         <v>8450</v>
       </c>
@@ -32832,7 +32844,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1682" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1682" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1682" s="3">
         <v>8455</v>
       </c>
@@ -32846,7 +32858,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1683" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1683" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1683" s="3">
         <v>8472</v>
       </c>
@@ -32860,7 +32872,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1684" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1684" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1684" s="3">
         <v>8476</v>
       </c>
@@ -32874,7 +32886,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1685" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1685" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1685" s="3">
         <v>8477</v>
       </c>
@@ -32888,7 +32900,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1686" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1686" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1686" s="3">
         <v>8489</v>
       </c>
@@ -32902,7 +32914,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1687" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1687" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1687" s="3">
         <v>8905</v>
       </c>
@@ -32916,7 +32928,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1688" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1688" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1688" s="3">
         <v>8906</v>
       </c>
@@ -32930,7 +32942,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1689" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1689" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1689" s="3">
         <v>8908</v>
       </c>
@@ -32944,7 +32956,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1690" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1690" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1690" s="3">
         <v>8916</v>
       </c>
@@ -32958,7 +32970,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1691" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1691" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1691" s="3">
         <v>8917</v>
       </c>
@@ -32972,7 +32984,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1692" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1692" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1692" s="3">
         <v>8921</v>
       </c>
@@ -32986,7 +32998,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1693" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1693" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1693" s="3">
         <v>8923</v>
       </c>
@@ -33000,7 +33012,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1694" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1694" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1694" s="3">
         <v>8924</v>
       </c>
@@ -33013,8 +33025,17 @@
       <c r="D1694" s="2" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="1695" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1694" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F1694" s="2" t="s">
+        <v>2050</v>
+      </c>
+      <c r="M1694" s="5" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1695" s="3">
         <v>8927</v>
       </c>
@@ -33028,7 +33049,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1696" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1696" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1696" s="3">
         <v>8928</v>
       </c>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06701EC4-E66B-4C7D-AC42-770820C9287F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D45683-ED7B-4E7F-BE82-4872C47155B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7249,8 +7249,8 @@
   <dimension ref="A1:N1713"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1084" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1093" sqref="I1093"/>
+      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I288" sqref="I288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11626,6 +11626,9 @@
       <c r="E287" s="2" t="s">
         <v>1763</v>
       </c>
+      <c r="I287" s="2">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
@@ -15056,10 +15059,7 @@
         <v>1833</v>
       </c>
       <c r="G509" s="2">
-        <v>60</v>
-      </c>
-      <c r="I509" s="2">
-        <v>64.5</v>
+        <v>71</v>
       </c>
       <c r="M509" s="7"/>
     </row>
@@ -23721,9 +23721,6 @@
       <c r="G1072" s="2">
         <v>800</v>
       </c>
-      <c r="I1072" s="2">
-        <v>808</v>
-      </c>
       <c r="M1072" s="7" t="s">
         <v>1835</v>
       </c>
@@ -23976,7 +23973,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="1089" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1089" s="3">
         <v>3363</v>
       </c>
@@ -23990,7 +23987,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1090" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1090" s="3">
         <v>3372</v>
       </c>
@@ -24004,7 +24001,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1091" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1091" s="3">
         <v>3373</v>
       </c>
@@ -24018,7 +24015,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1092" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1092" s="3">
         <v>3374</v>
       </c>
@@ -24037,11 +24034,8 @@
       <c r="G1092" s="2">
         <v>180</v>
       </c>
-      <c r="I1092" s="2">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1093" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1093" s="3">
         <v>3379</v>
       </c>
@@ -24055,7 +24049,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1094" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1094" s="3">
         <v>3388</v>
       </c>
@@ -24069,7 +24063,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1095" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1095" s="3">
         <v>3390</v>
       </c>
@@ -24083,7 +24077,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1096" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1096" s="3">
         <v>3402</v>
       </c>
@@ -24097,7 +24091,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1097" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1097" s="3">
         <v>3426</v>
       </c>
@@ -24111,7 +24105,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1098" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1098" s="3">
         <v>3434</v>
       </c>
@@ -24125,7 +24119,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1099" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1099" s="3">
         <v>3438</v>
       </c>
@@ -24139,7 +24133,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1100" s="3">
         <v>3441</v>
       </c>
@@ -24153,7 +24147,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1101" s="3">
         <v>3444</v>
       </c>
@@ -24167,7 +24161,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1102" s="3">
         <v>3455</v>
       </c>
@@ -24181,7 +24175,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1103" s="3">
         <v>3465</v>
       </c>
@@ -24198,7 +24192,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="1104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1104" s="3">
         <v>3466</v>
       </c>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ADBDD4-5CE3-46D5-B7C6-322FCE93EC49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287ECBBF-631B-42F2-A544-171FA55C3DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7249,8 +7249,8 @@
   <dimension ref="A1:N1713"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I276" sqref="I276"/>
+      <pane ySplit="1" topLeftCell="A1074" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1083" sqref="I1083"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -11623,9 +11623,6 @@
       <c r="E287" s="2" t="s">
         <v>1763</v>
       </c>
-      <c r="I287" s="2">
-        <v>27.5</v>
-      </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
@@ -11686,7 +11683,7 @@
         <v>1763</v>
       </c>
       <c r="I291" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -12171,9 +12168,6 @@
       <c r="E321" s="2" t="s">
         <v>1868</v>
       </c>
-      <c r="I321" s="2">
-        <v>26.05</v>
-      </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
@@ -23873,8 +23867,8 @@
       <c r="F1082" s="2" t="s">
         <v>1917</v>
       </c>
-      <c r="G1082" s="2">
-        <v>200</v>
+      <c r="I1082" s="2">
+        <v>226</v>
       </c>
     </row>
     <row r="1083" spans="1:13" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F225C65-D118-4D92-A964-B43556251491}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64222810-3CCC-4241-B49C-010E39C10626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5832" uniqueCount="2128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5834" uniqueCount="2130">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5560,11 +5560,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老師選
-台積電</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5756,12 +5751,6 @@
 導光版
 車載巿場獨家 (占比3~5)
 面版 (OLED、MiniLED、MicroLED) 認證中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Server 打入緯穎供應鏈
-Tesla 電池
-NB 打進 HP / Dell</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6283,11 +6272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>油壓碟煞、把手、座立管及輪圈花鼓
-前3季EPS轉正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6338,10 +6322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>短期注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>封裝測試</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6388,11 +6368,6 @@
   </si>
   <si>
     <t>GZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衛星
-短期注意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6441,10 +6416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>短期注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電源供應器
 PC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6454,19 +6425,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>短期注意</t>
-  </si>
-  <si>
     <t>貿聯-KY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>和勤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心
-短期注意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6561,30 +6524,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>短期注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020估 4塊，配息3塊。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>短期注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>半導體</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老師選</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短期注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>閎康</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6594,10 +6541,6 @@
   </si>
   <si>
     <t>衛星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球第三大的高爾夫頭製造商</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6644,10 +6587,6 @@
   </si>
   <si>
     <t>[2020 EPS] 0.36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 2.59</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6907,26 +6846,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>快充電頭
-ADAS
-拉回40看看
-[2020 EPS] 1.86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[2020 EPS] 1.42</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[2020 EPS] 2.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博奕
-長線
-月營收 7.5E
-單月EPS 5塊
-[2020 EPS] 57.68</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6976,10 +6900,6 @@
   </si>
   <si>
     <t>昇銳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短期注意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7059,6 +6979,97 @@
   </si>
   <si>
     <t>[2020 EPS] 28.48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真錢博奕
+月營收要守穩 8億
+單月 EPS 要有 5.5塊
+[2020 EPS] 57.68</t>
+  </si>
+  <si>
+    <t>[庫藏股] 3000張, 218 ~ 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油壓碟煞、把手、座立管及輪圈花鼓
+前3季EPS轉正
+[法人推估] 利奇今年單季營收若能維持10億元的水準，推估單季EPS約在0.3～0.4元，由此推估，利奇2021年整體營收力拚40億元，EPS有機會挑戰1.5元的新高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021Q1 燁輝將再認列處分屏南工業區土地利益約5.38億元
+推出高耐腐蝕鋼材「光支彩」，受惠全球各地太陽能光電系統建置量逐步攀升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍍鋅鋼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快充電頭
+ADAS
+[2020 EPS] 1.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC 測試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server 打入緯穎供應鏈
+Tesla 電池
+NB 打進 HP / Dell
+車用、網通/伺服器高頻高速及PC三箭齊發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和凱美做一樣，賺比較多，但價格比較便宜
+打進車用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太陽能股中營收比較好，也有在擴廠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 2.59
+天線產品很有競爭力
+營收年增很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台積電</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機構件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 11.57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球第三大的高爾夫頭製造商
+[2020 EPS] 6.5
+[2021 股息] 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7609,9 +7620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1713"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1536" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1543" sqref="M1543"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1686" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1695" sqref="G1695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7646,10 +7657,10 @@
         <v>1706</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1722</v>
@@ -7667,13 +7678,13 @@
         <v>1703</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>1702</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>2013</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.3">
@@ -7690,16 +7701,16 @@
         <v>941</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="G2" s="2">
         <v>40.5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -7898,7 +7909,7 @@
         <v>941</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -7929,7 +7940,7 @@
         <v>941</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1768</v>
@@ -8008,7 +8019,7 @@
         <v>941</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>1768</v>
@@ -8101,10 +8112,10 @@
         <v>941</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>2083</v>
+        <v>2069</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>2087</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -8348,7 +8359,7 @@
         <v>941</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="H46" s="2">
         <v>90</v>
@@ -8368,10 +8379,10 @@
         <v>941</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>2083</v>
+        <v>2069</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>2084</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -8472,7 +8483,7 @@
         <v>941</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>1768</v>
@@ -9002,10 +9013,10 @@
         <v>941</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="H91" s="2">
         <v>20</v>
@@ -9168,7 +9179,7 @@
         <v>941</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
@@ -9185,7 +9196,7 @@
         <v>941</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
@@ -9216,13 +9227,13 @@
         <v>941</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="G105" s="2">
         <v>51</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
@@ -9253,18 +9264,18 @@
         <v>941</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>2001</v>
+        <v>1903</v>
       </c>
       <c r="G107" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K107" s="5"/>
       <c r="L107" s="4"/>
       <c r="M107" s="5" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -9284,7 +9295,7 @@
         <v>1760</v>
       </c>
       <c r="M108" s="5" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
@@ -9318,7 +9329,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>1517</v>
       </c>
@@ -9332,13 +9343,16 @@
         <v>941</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>1985</v>
+        <v>1887</v>
+      </c>
+      <c r="G111" s="2">
+        <v>13.5</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>1961</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -9425,7 +9439,7 @@
         <v>941</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -9557,7 +9571,7 @@
         <v>941</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -9686,10 +9700,10 @@
         <v>941</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
@@ -9737,10 +9751,10 @@
         <v>1760</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="M138" s="5" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
@@ -9757,7 +9771,7 @@
         <v>941</v>
       </c>
       <c r="M139" s="5" t="s">
-        <v>2110</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
@@ -9842,10 +9856,10 @@
         <v>941</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>2058</v>
+        <v>2044</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>2068</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -9882,7 +9896,7 @@
         <v>15</v>
       </c>
       <c r="M146" s="5" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
@@ -10025,7 +10039,7 @@
         <v>941</v>
       </c>
       <c r="M156" s="5" t="s">
-        <v>2108</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
@@ -10182,10 +10196,10 @@
         <v>941</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="M167" s="5" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
@@ -10356,7 +10370,7 @@
         <v>941</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
@@ -10390,10 +10404,10 @@
         <v>1771</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="M181" s="5" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
@@ -10424,7 +10438,7 @@
         <v>941</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
@@ -10777,7 +10791,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>2010</v>
       </c>
@@ -10791,7 +10805,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>2012</v>
       </c>
@@ -10805,7 +10819,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>2013</v>
       </c>
@@ -10819,7 +10833,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>2014</v>
       </c>
@@ -10833,7 +10847,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>2015</v>
       </c>
@@ -10847,7 +10861,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>2017</v>
       </c>
@@ -10861,7 +10875,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>2020</v>
       </c>
@@ -10875,7 +10889,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>2022</v>
       </c>
@@ -10889,7 +10903,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>2023</v>
       </c>
@@ -10902,14 +10916,20 @@
       <c r="D217" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="E217" s="2" t="s">
+        <v>2115</v>
+      </c>
       <c r="F217" s="2" t="s">
-        <v>2119</v>
+        <v>1887</v>
       </c>
       <c r="G217" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M217" s="5" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>2024</v>
       </c>
@@ -10923,7 +10943,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>2025</v>
       </c>
@@ -10937,7 +10957,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>2027</v>
       </c>
@@ -10951,7 +10971,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>2028</v>
       </c>
@@ -10965,7 +10985,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>2029</v>
       </c>
@@ -10979,7 +10999,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>2030</v>
       </c>
@@ -10993,7 +11013,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>2031</v>
       </c>
@@ -11136,7 +11156,7 @@
         <v>941</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -11153,7 +11173,7 @@
         <v>941</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -11198,7 +11218,7 @@
         <v>941</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -11215,7 +11235,7 @@
         <v>941</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -11246,7 +11266,7 @@
         <v>941</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.3">
@@ -11263,7 +11283,7 @@
         <v>941</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.3">
@@ -11427,7 +11447,7 @@
         <v>110</v>
       </c>
       <c r="M251" s="5" t="s">
-        <v>1991</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
@@ -11545,16 +11565,16 @@
         <v>1802</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="G259" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L259" s="24">
         <v>3.9527738679245283</v>
       </c>
       <c r="M259" s="5" t="s">
-        <v>2078</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
@@ -11588,13 +11608,13 @@
         <v>1760</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="G261" s="2">
         <v>130</v>
       </c>
       <c r="M261" s="5" t="s">
-        <v>2053</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
@@ -11670,16 +11690,19 @@
         <v>941</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>2003</v>
+        <v>1995</v>
+      </c>
+      <c r="G266" s="2">
+        <v>101</v>
       </c>
       <c r="L266" s="24">
         <v>3.9667649043478264</v>
       </c>
       <c r="M266" s="5" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.3">
@@ -11758,10 +11781,10 @@
         <v>941</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="M271" s="5" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
@@ -11795,13 +11818,16 @@
         <v>1801</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>2003</v>
+        <v>1995</v>
+      </c>
+      <c r="G273" s="2">
+        <v>580</v>
       </c>
       <c r="L273" s="24">
         <v>7.8397182185007974</v>
       </c>
       <c r="M273" s="5" t="s">
-        <v>2079</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
@@ -11846,10 +11872,10 @@
         <v>941</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>2035</v>
+        <v>2022</v>
       </c>
       <c r="M276" s="5" t="s">
-        <v>2109</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.3">
@@ -11908,10 +11934,10 @@
         <v>941</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="M280" s="5" t="s">
-        <v>2040</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
@@ -11928,7 +11954,7 @@
         <v>941</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.3">
@@ -11945,7 +11971,7 @@
         <v>941</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.3">
@@ -11990,10 +12016,10 @@
         <v>941</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="M285" s="5" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.3">
@@ -12218,10 +12244,10 @@
         <v>1770</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="G300" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12252,13 +12278,13 @@
         <v>941</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="G302" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12312,7 +12338,7 @@
         <v>75</v>
       </c>
       <c r="M305" s="5" t="s">
-        <v>2102</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
@@ -12332,10 +12358,10 @@
         <v>1758</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="M306" s="5" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.3">
@@ -12355,10 +12381,10 @@
         <v>1758</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="M307" s="5" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="308" spans="1:13" ht="75" x14ac:dyDescent="0.3">
@@ -12375,13 +12401,13 @@
         <v>941</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="G308" s="2">
         <v>280</v>
       </c>
       <c r="M308" s="5" t="s">
-        <v>2075</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
@@ -12426,7 +12452,7 @@
         <v>941</v>
       </c>
       <c r="M311" s="5" t="s">
-        <v>2070</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
@@ -12443,7 +12469,7 @@
         <v>941</v>
       </c>
       <c r="M312" s="5" t="s">
-        <v>2112</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.3">
@@ -12575,7 +12601,7 @@
         <v>941</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.3">
@@ -12651,10 +12677,10 @@
         <v>941</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>2085</v>
+        <v>2071</v>
       </c>
       <c r="M326" s="5" t="s">
-        <v>2086</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
@@ -12671,10 +12697,10 @@
         <v>941</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="M327" s="5" t="s">
-        <v>2045</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
@@ -12691,13 +12717,13 @@
         <v>941</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="M328" s="5" t="s">
-        <v>2057</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
@@ -12771,13 +12797,13 @@
         <v>1758</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="H332" s="2">
         <v>48</v>
       </c>
       <c r="M332" s="5" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.3">
@@ -12937,7 +12963,7 @@
         <v>941</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.3">
@@ -12982,7 +13008,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="60" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A347" s="3">
         <v>2436</v>
       </c>
@@ -12996,16 +13022,16 @@
         <v>941</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="F347" s="4" t="s">
-        <v>1985</v>
+        <v>1887</v>
       </c>
       <c r="G347" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M347" s="5" t="s">
-        <v>2104</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
@@ -13123,13 +13149,13 @@
         <v>941</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>1772</v>
+        <v>2117</v>
       </c>
       <c r="F355" s="4" t="s">
-        <v>1923</v>
+        <v>1903</v>
       </c>
       <c r="G355" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.3">
@@ -13188,16 +13214,16 @@
         <v>941</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="L359" s="24">
         <v>0.48331827758816837</v>
       </c>
       <c r="M359" s="5" t="s">
-        <v>2111</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.3">
@@ -13234,7 +13260,7 @@
         <v>70</v>
       </c>
       <c r="M361" s="5" t="s">
-        <v>1992</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.3">
@@ -13265,16 +13291,16 @@
         <v>941</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="G363" s="2">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="M363" s="5" t="s">
-        <v>2124</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.3">
@@ -13291,7 +13317,7 @@
         <v>941</v>
       </c>
       <c r="M364" s="5" t="s">
-        <v>2055</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.3">
@@ -13392,10 +13418,10 @@
         <v>941</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="M371" s="5" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.3">
@@ -13426,12 +13452,12 @@
         <v>941</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
         <v>2472</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>3</v>
@@ -13440,13 +13466,16 @@
         <v>941</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>1789</v>
+        <v>1769</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>1972</v>
+        <v>1903</v>
       </c>
       <c r="G374" s="2">
-        <v>61</v>
+        <v>76</v>
+      </c>
+      <c r="M374" s="5" t="s">
+        <v>2121</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.3">
@@ -13508,7 +13537,7 @@
         <v>1769</v>
       </c>
       <c r="M378" s="5" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.3">
@@ -13542,13 +13571,13 @@
         <v>1769</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="G380" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M380" s="5" t="s">
-        <v>1993</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.3">
@@ -13621,7 +13650,7 @@
         <v>941</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
@@ -13680,7 +13709,7 @@
         <v>941</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="G389" s="2">
         <v>205</v>
@@ -13899,7 +13928,7 @@
         <v>941</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
@@ -13986,7 +14015,7 @@
         <v>941</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
@@ -14115,10 +14144,10 @@
         <v>941</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="G419" s="2">
         <v>46</v>
@@ -14152,7 +14181,7 @@
         <v>941</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.3">
@@ -14696,7 +14725,7 @@
         <v>32</v>
       </c>
       <c r="M459" s="5" t="s">
-        <v>2097</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.3">
@@ -14755,7 +14784,7 @@
         <v>941</v>
       </c>
       <c r="M463" s="5" t="s">
-        <v>2098</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.3">
@@ -14969,7 +14998,7 @@
         <v>1791</v>
       </c>
       <c r="M477" s="5" t="s">
-        <v>2082</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="478" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -14995,7 +15024,7 @@
         <v>30</v>
       </c>
       <c r="M478" s="5" t="s">
-        <v>2094</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.3">
@@ -15035,7 +15064,7 @@
         <v>20</v>
       </c>
       <c r="M480" s="5" t="s">
-        <v>2126</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="481" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -15061,7 +15090,7 @@
         <v>14</v>
       </c>
       <c r="M481" s="5" t="s">
-        <v>2093</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.3">
@@ -15132,7 +15161,7 @@
         <v>941</v>
       </c>
       <c r="M485" s="5" t="s">
-        <v>2089</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.3">
@@ -15163,7 +15192,7 @@
         <v>941</v>
       </c>
       <c r="M487" s="5" t="s">
-        <v>2043</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.3">
@@ -15180,7 +15209,7 @@
         <v>941</v>
       </c>
       <c r="M488" s="5" t="s">
-        <v>2049</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.3">
@@ -15239,7 +15268,7 @@
         <v>941</v>
       </c>
       <c r="E492" s="4" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>1768</v>
@@ -15338,7 +15367,7 @@
         <v>1783</v>
       </c>
       <c r="M498" s="5" t="s">
-        <v>2044</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.3">
@@ -15453,7 +15482,7 @@
         <v>941</v>
       </c>
       <c r="M506" s="5" t="s">
-        <v>2122</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.3">
@@ -15498,7 +15527,7 @@
         <v>941</v>
       </c>
       <c r="E509" s="4" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G509" s="2">
         <v>71</v>
@@ -15519,10 +15548,10 @@
         <v>941</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="M510" s="5" t="s">
-        <v>2080</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.3">
@@ -15584,7 +15613,7 @@
         <v>1758</v>
       </c>
       <c r="M514" s="5" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.3">
@@ -15604,7 +15633,7 @@
         <v>1775</v>
       </c>
       <c r="M515" s="5" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.3">
@@ -15638,7 +15667,7 @@
         <v>1713</v>
       </c>
       <c r="M517" s="5" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.3">
@@ -15672,7 +15701,7 @@
         <v>1777</v>
       </c>
       <c r="M519" s="5" t="s">
-        <v>2105</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.3">
@@ -15717,16 +15746,13 @@
         <v>941</v>
       </c>
       <c r="E522" s="4" t="s">
-        <v>1860</v>
-      </c>
-      <c r="F522" s="2" t="s">
-        <v>1972</v>
+        <v>1858</v>
       </c>
       <c r="G522" s="2">
         <v>160</v>
       </c>
       <c r="M522" s="5" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.3">
@@ -15816,7 +15842,7 @@
         <v>941</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="G528" s="2">
         <v>36</v>
@@ -15892,13 +15918,13 @@
         <v>941</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="G533" s="2">
         <v>260</v>
       </c>
       <c r="M533" s="5" t="s">
-        <v>2061</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.3">
@@ -15915,10 +15941,10 @@
         <v>941</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="M534" s="5" t="s">
-        <v>2081</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.3">
@@ -15935,7 +15961,7 @@
         <v>941</v>
       </c>
       <c r="M535" s="5" t="s">
-        <v>2113</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.3">
@@ -15961,7 +15987,7 @@
         <v>90</v>
       </c>
       <c r="M536" s="5" t="s">
-        <v>2048</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="537" spans="1:13" x14ac:dyDescent="0.3">
@@ -16006,13 +16032,13 @@
         <v>941</v>
       </c>
       <c r="E539" s="4" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="M539" s="5" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="540" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A540" s="3">
         <v>3042</v>
       </c>
@@ -16029,10 +16055,10 @@
         <v>1769</v>
       </c>
       <c r="F540" s="4" t="s">
-        <v>2001</v>
+        <v>1903</v>
       </c>
       <c r="G540" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="541" spans="1:13" x14ac:dyDescent="0.3">
@@ -16063,10 +16089,10 @@
         <v>941</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>2050</v>
+        <v>2036</v>
       </c>
       <c r="M542" s="5" t="s">
-        <v>2051</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.3">
@@ -16083,13 +16109,13 @@
         <v>941</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="M543" s="5" t="s">
-        <v>2076</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.3">
@@ -16232,7 +16258,7 @@
         <v>941</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.3">
@@ -16392,7 +16418,7 @@
         <v>1770</v>
       </c>
       <c r="M564" s="5" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="565" spans="1:13" x14ac:dyDescent="0.3">
@@ -16437,7 +16463,7 @@
         <v>941</v>
       </c>
       <c r="M567" s="5" t="s">
-        <v>2092</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="568" spans="1:13" x14ac:dyDescent="0.3">
@@ -16608,10 +16634,10 @@
         <v>941</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="580" spans="1:13" x14ac:dyDescent="0.3">
@@ -16656,7 +16682,7 @@
         <v>941</v>
       </c>
       <c r="E582" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="583" spans="1:13" x14ac:dyDescent="0.3">
@@ -16687,7 +16713,7 @@
         <v>941</v>
       </c>
       <c r="M584" s="5" t="s">
-        <v>2063</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="585" spans="1:13" x14ac:dyDescent="0.3">
@@ -16746,10 +16772,7 @@
         <v>941</v>
       </c>
       <c r="E588" s="2" t="s">
-        <v>1789</v>
-      </c>
-      <c r="F588" s="2" t="s">
-        <v>1972</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="589" spans="1:13" x14ac:dyDescent="0.3">
@@ -16794,10 +16817,10 @@
         <v>941</v>
       </c>
       <c r="E591" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="M591" s="5" t="s">
-        <v>2047</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="592" spans="1:13" x14ac:dyDescent="0.3">
@@ -16859,7 +16882,7 @@
         <v>1758</v>
       </c>
       <c r="M595" s="5" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="596" spans="1:13" x14ac:dyDescent="0.3">
@@ -16941,7 +16964,7 @@
         <v>300</v>
       </c>
       <c r="M600" s="5" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="601" spans="1:13" x14ac:dyDescent="0.3">
@@ -17042,7 +17065,7 @@
         <v>941</v>
       </c>
       <c r="M607" s="5" t="s">
-        <v>2125</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.3">
@@ -17093,7 +17116,7 @@
         <v>1789</v>
       </c>
       <c r="M610" s="5" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="611" spans="1:13" x14ac:dyDescent="0.3">
@@ -17152,10 +17175,10 @@
         <v>941</v>
       </c>
       <c r="E614" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="M614" s="5" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="615" spans="1:13" x14ac:dyDescent="0.3">
@@ -17228,7 +17251,7 @@
         <v>941</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="G619" s="2">
         <v>160</v>
@@ -17256,7 +17279,7 @@
         <v>3665</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>3</v>
@@ -17265,10 +17288,10 @@
         <v>941</v>
       </c>
       <c r="E621" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="M621" s="5" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="622" spans="1:13" x14ac:dyDescent="0.3">
@@ -17288,7 +17311,7 @@
         <v>1758</v>
       </c>
       <c r="F622" s="2" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="H622" s="2">
         <v>70</v>
@@ -17308,10 +17331,10 @@
         <v>941</v>
       </c>
       <c r="E623" s="2" t="s">
-        <v>2038</v>
+        <v>2025</v>
       </c>
       <c r="M623" s="5" t="s">
-        <v>2039</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="624" spans="1:13" x14ac:dyDescent="0.3">
@@ -17327,6 +17350,15 @@
       <c r="D624" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="E624" s="2" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F624" s="2" t="s">
+        <v>2128</v>
+      </c>
+      <c r="M624" s="5" t="s">
+        <v>2127</v>
+      </c>
     </row>
     <row r="625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A625" s="3">
@@ -17342,7 +17374,7 @@
         <v>941</v>
       </c>
       <c r="E625" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="626" spans="1:13" x14ac:dyDescent="0.3">
@@ -17401,7 +17433,7 @@
         <v>941</v>
       </c>
       <c r="E629" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="630" spans="1:13" x14ac:dyDescent="0.3">
@@ -17432,16 +17464,13 @@
         <v>941</v>
       </c>
       <c r="E631" s="2" t="s">
-        <v>1812</v>
-      </c>
-      <c r="F631" s="2" t="s">
-        <v>1923</v>
+        <v>2118</v>
       </c>
       <c r="G631" s="2">
         <v>37</v>
       </c>
       <c r="M631" s="5" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="632" spans="1:13" x14ac:dyDescent="0.3">
@@ -17506,7 +17535,7 @@
         <v>1793</v>
       </c>
       <c r="M635" s="5" t="s">
-        <v>2042</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="636" spans="1:13" x14ac:dyDescent="0.3">
@@ -17537,16 +17566,16 @@
         <v>941</v>
       </c>
       <c r="E637" s="4" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="G637" s="2">
         <v>48</v>
       </c>
       <c r="M637" s="5" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="638" spans="1:13" x14ac:dyDescent="0.3">
@@ -17591,7 +17620,7 @@
         <v>941</v>
       </c>
       <c r="E640" s="4" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="G640" s="2">
         <v>80</v>
@@ -17653,10 +17682,10 @@
         <v>941</v>
       </c>
       <c r="E644" s="4" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="M644" s="5" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="645" spans="1:13" x14ac:dyDescent="0.3">
@@ -17987,10 +18016,10 @@
         <v>941</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>2052</v>
+        <v>2038</v>
       </c>
       <c r="M667" s="5" t="s">
-        <v>2117</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="668" spans="1:13" x14ac:dyDescent="0.3">
@@ -18021,7 +18050,7 @@
         <v>941</v>
       </c>
       <c r="E669" s="2" t="s">
-        <v>1987</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="670" spans="1:13" x14ac:dyDescent="0.3">
@@ -18178,13 +18207,13 @@
         <v>941</v>
       </c>
       <c r="E680" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="F680" s="2" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="M680" s="5" t="s">
-        <v>2077</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="681" spans="1:13" x14ac:dyDescent="0.3">
@@ -18229,7 +18258,7 @@
         <v>941</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="G683" s="2">
         <v>54</v>
@@ -18325,7 +18354,7 @@
         <v>1758</v>
       </c>
       <c r="M689" s="5" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="690" spans="1:13" x14ac:dyDescent="0.3">
@@ -18440,10 +18469,10 @@
         <v>941</v>
       </c>
       <c r="E697" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="M697" s="5" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="698" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -18460,10 +18489,10 @@
         <v>941</v>
       </c>
       <c r="E698" s="4" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="M698" s="5" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="699" spans="1:13" ht="60" x14ac:dyDescent="0.3">
@@ -18480,13 +18509,13 @@
         <v>941</v>
       </c>
       <c r="E699" s="2" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="G699" s="2">
         <v>200</v>
       </c>
       <c r="M699" s="5" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="700" spans="1:13" x14ac:dyDescent="0.3">
@@ -18503,7 +18532,7 @@
         <v>941</v>
       </c>
       <c r="E700" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="701" spans="1:13" x14ac:dyDescent="0.3">
@@ -18565,10 +18594,10 @@
         <v>941</v>
       </c>
       <c r="E704" s="2" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="M704" s="5" t="s">
-        <v>2036</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="705" spans="1:13" x14ac:dyDescent="0.3">
@@ -18625,7 +18654,7 @@
         <v>145</v>
       </c>
       <c r="M707" s="5" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="708" spans="1:13" x14ac:dyDescent="0.3">
@@ -18698,7 +18727,7 @@
         <v>941</v>
       </c>
       <c r="E712" s="2" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="713" spans="1:13" x14ac:dyDescent="0.3">
@@ -18743,10 +18772,10 @@
         <v>941</v>
       </c>
       <c r="E715" s="2" t="s">
+        <v>1837</v>
+      </c>
+      <c r="M715" s="5" t="s">
         <v>1838</v>
-      </c>
-      <c r="M715" s="5" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="716" spans="1:13" x14ac:dyDescent="0.3">
@@ -18948,7 +18977,7 @@
         <v>941</v>
       </c>
       <c r="E729" s="2" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="730" spans="1:13" x14ac:dyDescent="0.3">
@@ -19021,16 +19050,16 @@
         <v>941</v>
       </c>
       <c r="E734" s="4" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="F734" s="2" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="G734" s="2">
         <v>110</v>
       </c>
       <c r="M734" s="5" t="s">
-        <v>2095</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="735" spans="1:13" x14ac:dyDescent="0.3">
@@ -19145,16 +19174,16 @@
         <v>941</v>
       </c>
       <c r="E742" s="2" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="F742" s="2" t="s">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="G742" s="2">
         <v>41</v>
       </c>
       <c r="M742" s="5" t="s">
-        <v>2071</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="743" spans="1:13" x14ac:dyDescent="0.3">
@@ -19185,7 +19214,7 @@
         <v>941</v>
       </c>
       <c r="E744" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="G744" s="2">
         <v>11</v>
@@ -19331,7 +19360,7 @@
         <v>941</v>
       </c>
       <c r="E754" s="4" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="F754" s="2" t="s">
         <v>1765</v>
@@ -19340,7 +19369,7 @@
         <v>33</v>
       </c>
       <c r="M754" s="5" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="755" spans="1:13" x14ac:dyDescent="0.3">
@@ -19469,7 +19498,7 @@
         <v>941</v>
       </c>
       <c r="E763" s="2" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="F763" s="2" t="s">
         <v>1768</v>
@@ -19582,7 +19611,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="771" spans="1:13" ht="45" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:13" ht="60" x14ac:dyDescent="0.3">
       <c r="A771" s="3">
         <v>6205</v>
       </c>
@@ -19596,16 +19625,16 @@
         <v>941</v>
       </c>
       <c r="E771" s="4" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="F771" s="2" t="s">
-        <v>1995</v>
+        <v>1903</v>
       </c>
       <c r="G771" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M771" s="5" t="s">
-        <v>1848</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="772" spans="1:13" x14ac:dyDescent="0.3">
@@ -19636,7 +19665,7 @@
         <v>941</v>
       </c>
       <c r="E773" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="774" spans="1:13" x14ac:dyDescent="0.3">
@@ -19667,7 +19696,7 @@
         <v>941</v>
       </c>
       <c r="M775" s="5" t="s">
-        <v>2062</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="776" spans="1:13" x14ac:dyDescent="0.3">
@@ -19712,13 +19741,13 @@
         <v>941</v>
       </c>
       <c r="E778" s="2" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="F778" s="2" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="M778" s="5" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="779" spans="1:13" x14ac:dyDescent="0.3">
@@ -19766,7 +19795,7 @@
         <v>1713</v>
       </c>
       <c r="M781" s="5" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="782" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -19783,7 +19812,7 @@
         <v>941</v>
       </c>
       <c r="M782" s="5" t="s">
-        <v>2069</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="783" spans="1:13" x14ac:dyDescent="0.3">
@@ -19865,7 +19894,7 @@
         <v>941</v>
       </c>
       <c r="M787" s="5" t="s">
-        <v>2101</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="788" spans="1:13" ht="90" x14ac:dyDescent="0.3">
@@ -19933,7 +19962,7 @@
         <v>941</v>
       </c>
       <c r="E791" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="792" spans="1:13" x14ac:dyDescent="0.3">
@@ -20065,7 +20094,7 @@
         <v>941</v>
       </c>
       <c r="E800" s="2" t="s">
-        <v>1986</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.3">
@@ -20082,7 +20111,7 @@
         <v>941</v>
       </c>
       <c r="E801" s="2" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="802" spans="1:13" x14ac:dyDescent="0.3">
@@ -20099,7 +20128,7 @@
         <v>941</v>
       </c>
       <c r="E802" s="2" t="s">
-        <v>1986</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.3">
@@ -20147,10 +20176,13 @@
         <v>1711</v>
       </c>
       <c r="F805" s="2" t="s">
-        <v>1923</v>
+        <v>1903</v>
       </c>
       <c r="G805" s="2">
         <v>32</v>
+      </c>
+      <c r="M805" s="5" t="s">
+        <v>2122</v>
       </c>
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.3">
@@ -20170,7 +20202,7 @@
         <v>1789</v>
       </c>
       <c r="M806" s="5" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.3">
@@ -20243,10 +20275,10 @@
         <v>941</v>
       </c>
       <c r="E811" s="2" t="s">
-        <v>2073</v>
+        <v>2059</v>
       </c>
       <c r="M811" s="5" t="s">
-        <v>2074</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.3">
@@ -20277,10 +20309,10 @@
         <v>941</v>
       </c>
       <c r="E813" s="2" t="s">
-        <v>2083</v>
+        <v>2069</v>
       </c>
       <c r="M813" s="5" t="s">
-        <v>2088</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.3">
@@ -20352,6 +20384,9 @@
       <c r="D818" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="I818" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="819" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A819" s="3">
@@ -20409,10 +20444,10 @@
         <v>941</v>
       </c>
       <c r="E822" s="2" t="s">
-        <v>2054</v>
+        <v>2040</v>
       </c>
       <c r="M822" s="5" t="s">
-        <v>2064</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="823" spans="1:13" x14ac:dyDescent="0.3">
@@ -20429,7 +20464,7 @@
         <v>941</v>
       </c>
       <c r="E823" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="H823" s="2">
         <v>130</v>
@@ -20466,7 +20501,7 @@
         <v>941</v>
       </c>
       <c r="E825" s="4" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="G825" s="2">
         <v>50</v>
@@ -20486,7 +20521,7 @@
         <v>941</v>
       </c>
       <c r="E826" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="827" spans="1:13" x14ac:dyDescent="0.3">
@@ -20590,7 +20625,7 @@
         <v>1795</v>
       </c>
       <c r="M833" s="5" t="s">
-        <v>2099</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="834" spans="1:13" x14ac:dyDescent="0.3">
@@ -20686,7 +20721,7 @@
         <v>140</v>
       </c>
       <c r="M839" s="5" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="840" spans="1:13" x14ac:dyDescent="0.3">
@@ -20759,16 +20794,16 @@
         <v>941</v>
       </c>
       <c r="E844" s="4" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="F844" s="2" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="G844" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M844" s="26" t="s">
-        <v>2121</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="845" spans="1:13" x14ac:dyDescent="0.3">
@@ -20776,7 +20811,7 @@
         <v>8028</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="C845" s="2" t="s">
         <v>3</v>
@@ -20785,10 +20820,10 @@
         <v>941</v>
       </c>
       <c r="E845" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M845" s="5" t="s">
         <v>1812</v>
-      </c>
-      <c r="M845" s="5" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="846" spans="1:13" x14ac:dyDescent="0.3">
@@ -20835,11 +20870,8 @@
       <c r="E848" s="2" t="s">
         <v>1770</v>
       </c>
-      <c r="F848" s="2" t="s">
-        <v>2027</v>
-      </c>
       <c r="M848" s="5" t="s">
-        <v>2072</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="849" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -20856,13 +20888,13 @@
         <v>941</v>
       </c>
       <c r="E849" s="2" t="s">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="F849" s="2" t="s">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="M849" s="5" t="s">
-        <v>2017</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="850" spans="1:13" x14ac:dyDescent="0.3">
@@ -20893,10 +20925,10 @@
         <v>941</v>
       </c>
       <c r="E851" s="2" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="M851" s="5" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="852" spans="1:13" x14ac:dyDescent="0.3">
@@ -20918,7 +20950,7 @@
         <v>8103</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C853" s="2" t="s">
         <v>3</v>
@@ -21182,13 +21214,13 @@
         <v>941</v>
       </c>
       <c r="E871" s="2" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F871" s="2" t="s">
         <v>1871</v>
       </c>
-      <c r="F871" s="2" t="s">
-        <v>1873</v>
-      </c>
       <c r="M871" s="5" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="872" spans="1:13" x14ac:dyDescent="0.3">
@@ -21317,16 +21349,16 @@
         <v>941</v>
       </c>
       <c r="E880" s="2" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="F880" s="2" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="G880" s="2">
         <v>320</v>
       </c>
       <c r="M880" s="5" t="s">
-        <v>2103</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="881" spans="1:13" x14ac:dyDescent="0.3">
@@ -21500,7 +21532,7 @@
         <v>1758</v>
       </c>
       <c r="M892" s="5" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="893" spans="1:13" x14ac:dyDescent="0.3">
@@ -21741,10 +21773,10 @@
         <v>941</v>
       </c>
       <c r="E909" s="2" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="M909" s="5" t="s">
-        <v>2065</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="910" spans="1:13" x14ac:dyDescent="0.3">
@@ -21887,7 +21919,7 @@
         <v>941</v>
       </c>
       <c r="E919" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="920" spans="1:13" x14ac:dyDescent="0.3">
@@ -21932,13 +21964,13 @@
         <v>941</v>
       </c>
       <c r="E922" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="F922" s="2" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="M922" s="5" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="923" spans="1:13" x14ac:dyDescent="0.3">
@@ -21955,7 +21987,7 @@
         <v>941</v>
       </c>
       <c r="E923" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="924" spans="1:13" x14ac:dyDescent="0.3">
@@ -21972,7 +22004,7 @@
         <v>941</v>
       </c>
       <c r="E924" s="2" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="F924" s="2" t="s">
         <v>1768</v>
@@ -21981,7 +22013,7 @@
         <v>40</v>
       </c>
       <c r="M924" s="5" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="925" spans="1:13" x14ac:dyDescent="0.3">
@@ -22152,16 +22184,16 @@
         <v>941</v>
       </c>
       <c r="E936" s="2" t="s">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="F936" s="2" t="s">
-        <v>1998</v>
+        <v>2123</v>
       </c>
       <c r="G936" s="2">
         <v>80</v>
       </c>
       <c r="M936" s="5" t="s">
-        <v>1990</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="937" spans="1:13" x14ac:dyDescent="0.3">
@@ -22206,10 +22238,10 @@
         <v>941</v>
       </c>
       <c r="E939" s="4" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="F939" s="2" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="G939" s="2">
         <v>95</v>
@@ -22243,16 +22275,16 @@
         <v>941</v>
       </c>
       <c r="E941" s="4" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="F941" s="2" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="G941" s="2">
         <v>55</v>
       </c>
       <c r="M941" s="5" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="942" spans="1:13" x14ac:dyDescent="0.3">
@@ -22331,7 +22363,7 @@
         <v>90</v>
       </c>
       <c r="M946" s="5" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="947" spans="1:13" x14ac:dyDescent="0.3">
@@ -22488,7 +22520,7 @@
         <v>941</v>
       </c>
       <c r="M957" s="5" t="s">
-        <v>2096</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="958" spans="1:13" ht="45" x14ac:dyDescent="0.3">
@@ -22496,7 +22528,7 @@
         <v>1586</v>
       </c>
       <c r="B958" s="1" t="s">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="C958" s="2" t="s">
         <v>1701</v>
@@ -22505,13 +22537,16 @@
         <v>941</v>
       </c>
       <c r="E958" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="F958" s="2" t="s">
-        <v>1923</v>
+        <v>2120</v>
+      </c>
+      <c r="G958" s="2">
+        <v>41</v>
       </c>
       <c r="M958" s="5" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="959" spans="1:13" x14ac:dyDescent="0.3">
@@ -22573,7 +22608,7 @@
         <v>1773</v>
       </c>
       <c r="M962" s="5" t="s">
-        <v>2066</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="963" spans="1:13" x14ac:dyDescent="0.3">
@@ -22632,13 +22667,13 @@
         <v>941</v>
       </c>
       <c r="E966" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="G966" s="2">
         <v>70</v>
       </c>
       <c r="M966" s="5" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="967" spans="1:13" x14ac:dyDescent="0.3">
@@ -22706,7 +22741,7 @@
         <v>941</v>
       </c>
       <c r="E970" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="F970" s="2" t="s">
         <v>1768</v>
@@ -22715,7 +22750,7 @@
         <v>110</v>
       </c>
       <c r="M970" s="5" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="971" spans="1:13" x14ac:dyDescent="0.3">
@@ -22844,16 +22879,16 @@
         <v>941</v>
       </c>
       <c r="E979" s="2" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="F979" s="2" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="G979" s="2">
         <v>42</v>
       </c>
       <c r="M979" s="5" t="s">
-        <v>2067</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="980" spans="1:13" x14ac:dyDescent="0.3">
@@ -22996,10 +23031,10 @@
         <v>941</v>
       </c>
       <c r="E989" s="2" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="M989" s="5" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="990" spans="1:13" x14ac:dyDescent="0.3">
@@ -23330,7 +23365,7 @@
         <v>941</v>
       </c>
       <c r="E1012" s="4" t="s">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="H1012" s="2">
         <v>50</v>
@@ -23426,10 +23461,10 @@
         <v>941</v>
       </c>
       <c r="E1018" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="M1018" s="5" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1019" spans="1:13" x14ac:dyDescent="0.3">
@@ -23477,10 +23512,10 @@
         <v>941</v>
       </c>
       <c r="E1021" s="2" t="s">
-        <v>2028</v>
+        <v>2018</v>
       </c>
       <c r="M1021" s="5" t="s">
-        <v>2060</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1022" spans="1:13" x14ac:dyDescent="0.3">
@@ -23539,10 +23574,10 @@
         <v>941</v>
       </c>
       <c r="E1025" s="4" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="M1025" s="5" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1026" spans="1:13" x14ac:dyDescent="0.3">
@@ -23550,7 +23585,7 @@
         <v>3128</v>
       </c>
       <c r="B1026" s="1" t="s">
-        <v>2118</v>
+        <v>2102</v>
       </c>
       <c r="C1026" s="2" t="s">
         <v>1701</v>
@@ -23699,7 +23734,7 @@
         <v>941</v>
       </c>
       <c r="E1036" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1037" spans="1:13" x14ac:dyDescent="0.3">
@@ -23792,10 +23827,10 @@
         <v>941</v>
       </c>
       <c r="E1042" s="4" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="M1042" s="5" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1043" spans="1:13" x14ac:dyDescent="0.3">
@@ -23876,11 +23911,8 @@
       <c r="F1047" s="2" t="s">
         <v>1764</v>
       </c>
-      <c r="H1047" s="2">
-        <v>250</v>
-      </c>
       <c r="M1047" s="5" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1048" spans="1:13" x14ac:dyDescent="0.3">
@@ -23967,7 +23999,7 @@
         <v>941</v>
       </c>
       <c r="E1053" s="2" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="G1053" s="2">
         <v>240</v>
@@ -24071,10 +24103,13 @@
         <v>941</v>
       </c>
       <c r="E1060" s="4" t="s">
-        <v>1828</v>
+        <v>1827</v>
+      </c>
+      <c r="F1060" s="2" t="s">
+        <v>2120</v>
       </c>
       <c r="M1060" s="5" t="s">
-        <v>2041</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1061" spans="1:14" x14ac:dyDescent="0.3">
@@ -24136,10 +24171,7 @@
         <v>1758</v>
       </c>
       <c r="F1064" s="2" t="s">
-        <v>1888</v>
-      </c>
-      <c r="H1064" s="2">
-        <v>55</v>
+        <v>1886</v>
       </c>
       <c r="M1064" s="7" t="s">
         <v>1761</v>
@@ -24229,7 +24261,7 @@
         <v>941</v>
       </c>
       <c r="M1070" s="5" t="s">
-        <v>2115</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="1071" spans="1:14" x14ac:dyDescent="0.3">
@@ -24246,7 +24278,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1072" spans="1:14" ht="75" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:14" ht="60" x14ac:dyDescent="0.3">
       <c r="A1072" s="3">
         <v>3293</v>
       </c>
@@ -24263,16 +24295,19 @@
         <v>1781</v>
       </c>
       <c r="F1072" s="2" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="G1072" s="2">
-        <v>800</v>
+        <v>750</v>
+      </c>
+      <c r="I1072" s="2">
+        <v>750</v>
       </c>
       <c r="M1072" s="7" t="s">
-        <v>2107</v>
+        <v>2111</v>
       </c>
       <c r="N1072" s="25" t="s">
-        <v>2020</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1073" spans="1:13" x14ac:dyDescent="0.3">
@@ -24418,10 +24453,13 @@
         <v>1713</v>
       </c>
       <c r="F1082" s="2" t="s">
-        <v>1905</v>
+        <v>1887</v>
       </c>
       <c r="I1082" s="2">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="M1082" s="5" t="s">
+        <v>2112</v>
       </c>
     </row>
     <row r="1083" spans="1:13" x14ac:dyDescent="0.3">
@@ -24494,13 +24532,13 @@
         <v>941</v>
       </c>
       <c r="E1087" s="4" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="F1087" s="2" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="M1087" s="5" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1088" spans="1:13" x14ac:dyDescent="0.3">
@@ -24517,7 +24555,7 @@
         <v>941</v>
       </c>
       <c r="E1088" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1089" spans="1:7" x14ac:dyDescent="0.3">
@@ -24843,7 +24881,7 @@
         <v>941</v>
       </c>
       <c r="M1110" s="5" t="s">
-        <v>2100</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1111" spans="1:13" x14ac:dyDescent="0.3">
@@ -25014,7 +25052,7 @@
         <v>941</v>
       </c>
       <c r="E1122" s="2" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="F1122" s="2" t="s">
         <v>1768</v>
@@ -25023,7 +25061,7 @@
         <v>80</v>
       </c>
       <c r="M1122" s="5" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1123" spans="1:13" x14ac:dyDescent="0.3">
@@ -25130,13 +25168,13 @@
         <v>1781</v>
       </c>
       <c r="F1129" s="2" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="G1129" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="M1129" s="5" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1130" spans="1:13" x14ac:dyDescent="0.3">
@@ -25181,16 +25219,16 @@
         <v>941</v>
       </c>
       <c r="E1132" s="4" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="F1132" s="2" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="G1132" s="2">
         <v>250</v>
       </c>
       <c r="M1132" s="7" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1133" spans="1:13" x14ac:dyDescent="0.3">
@@ -25249,7 +25287,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1137" s="3">
         <v>3567</v>
       </c>
@@ -25263,7 +25301,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1138" s="3">
         <v>3570</v>
       </c>
@@ -25277,7 +25315,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1139" s="3">
         <v>3577</v>
       </c>
@@ -25291,7 +25329,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1140" s="3">
         <v>3580</v>
       </c>
@@ -25305,7 +25343,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1141" s="3">
         <v>3581</v>
       </c>
@@ -25319,12 +25357,12 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1142" s="3">
         <v>3587</v>
       </c>
       <c r="B1142" s="1" t="s">
-        <v>2031</v>
+        <v>2019</v>
       </c>
       <c r="C1142" s="2" t="s">
         <v>1701</v>
@@ -25332,14 +25370,8 @@
       <c r="D1142" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="E1142" s="2" t="s">
-        <v>2029</v>
-      </c>
-      <c r="F1142" s="2" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1143" s="3">
         <v>3594</v>
       </c>
@@ -25353,7 +25385,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1144" s="3">
         <v>3597</v>
       </c>
@@ -25367,7 +25399,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1145" s="3">
         <v>3609</v>
       </c>
@@ -25381,7 +25413,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1146" s="3">
         <v>3611</v>
       </c>
@@ -25395,7 +25427,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1147" s="3">
         <v>3615</v>
       </c>
@@ -25409,7 +25441,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1148" s="3">
         <v>3623</v>
       </c>
@@ -25423,7 +25455,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1149" s="3">
         <v>3624</v>
       </c>
@@ -25437,7 +25469,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1150" s="3">
         <v>3625</v>
       </c>
@@ -25451,7 +25483,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1151" s="3">
         <v>3628</v>
       </c>
@@ -25465,7 +25497,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1152" s="3">
         <v>3629</v>
       </c>
@@ -25493,7 +25525,7 @@
         <v>941</v>
       </c>
       <c r="E1153" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1154" spans="1:7" x14ac:dyDescent="0.3">
@@ -25763,7 +25795,7 @@
         <v>941</v>
       </c>
       <c r="E1171" s="2" t="s">
-        <v>1988</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1172" spans="1:14" x14ac:dyDescent="0.3">
@@ -25822,13 +25854,13 @@
         <v>941</v>
       </c>
       <c r="E1175" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="F1175" s="2" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="M1175" s="5" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1176" spans="1:14" x14ac:dyDescent="0.3">
@@ -25845,10 +25877,10 @@
         <v>941</v>
       </c>
       <c r="E1176" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="M1176" s="5" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1177" spans="1:14" x14ac:dyDescent="0.3">
@@ -25963,19 +25995,19 @@
         <v>941</v>
       </c>
       <c r="E1184" s="4" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="F1184" s="2" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="G1184" s="2">
         <v>61</v>
       </c>
       <c r="M1184" s="5" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="N1184" s="25" t="s">
-        <v>2022</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1185" spans="1:13" x14ac:dyDescent="0.3">
@@ -26020,7 +26052,7 @@
         <v>941</v>
       </c>
       <c r="E1187" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1188" spans="1:13" x14ac:dyDescent="0.3">
@@ -26093,10 +26125,10 @@
         <v>941</v>
       </c>
       <c r="E1192" s="2" t="s">
-        <v>2090</v>
+        <v>2076</v>
       </c>
       <c r="M1192" s="5" t="s">
-        <v>2091</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1193" spans="1:13" x14ac:dyDescent="0.3">
@@ -26197,7 +26229,7 @@
         <v>941</v>
       </c>
       <c r="E1199" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1200" spans="1:13" x14ac:dyDescent="0.3">
@@ -26228,7 +26260,7 @@
         <v>941</v>
       </c>
       <c r="M1201" s="5" t="s">
-        <v>2024</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1202" spans="1:13" x14ac:dyDescent="0.3">
@@ -26259,7 +26291,7 @@
         <v>941</v>
       </c>
       <c r="E1203" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1204" spans="1:13" x14ac:dyDescent="0.3">
@@ -26346,7 +26378,7 @@
         <v>941</v>
       </c>
       <c r="E1209" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1210" spans="1:13" x14ac:dyDescent="0.3">
@@ -26867,7 +26899,7 @@
         <v>941</v>
       </c>
       <c r="E1246" s="2" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1247" spans="1:5" x14ac:dyDescent="0.3">
@@ -27094,10 +27126,10 @@
         <v>941</v>
       </c>
       <c r="E1262" s="4" t="s">
+        <v>1923</v>
+      </c>
+      <c r="M1262" s="5" t="s">
         <v>1925</v>
-      </c>
-      <c r="M1262" s="5" t="s">
-        <v>1927</v>
       </c>
     </row>
     <row r="1263" spans="1:13" x14ac:dyDescent="0.3">
@@ -27156,7 +27188,7 @@
         <v>941</v>
       </c>
       <c r="E1266" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1267" spans="1:13" x14ac:dyDescent="0.3">
@@ -27187,7 +27219,7 @@
         <v>941</v>
       </c>
       <c r="E1268" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1269" spans="1:13" x14ac:dyDescent="0.3">
@@ -27260,10 +27292,10 @@
         <v>941</v>
       </c>
       <c r="E1273" s="2" t="s">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="M1273" s="5" t="s">
-        <v>2116</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1274" spans="1:13" x14ac:dyDescent="0.3">
@@ -27448,10 +27480,10 @@
         <v>941</v>
       </c>
       <c r="E1286" s="4" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="F1286" s="2" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="G1286" s="2">
         <v>25</v>
@@ -27519,13 +27551,13 @@
         <v>941</v>
       </c>
       <c r="E1290" s="2" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="G1290" s="2">
         <v>80</v>
       </c>
       <c r="M1290" s="5" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1291" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -27542,10 +27574,10 @@
         <v>941</v>
       </c>
       <c r="E1291" s="2" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="M1291" s="5" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1292" spans="1:13" x14ac:dyDescent="0.3">
@@ -27604,10 +27636,10 @@
         <v>941</v>
       </c>
       <c r="E1295" s="2" t="s">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="M1295" s="5" t="s">
-        <v>2014</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1296" spans="1:13" x14ac:dyDescent="0.3">
@@ -27694,10 +27726,10 @@
         <v>941</v>
       </c>
       <c r="E1301" s="2" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="M1301" s="5" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1302" spans="1:13" x14ac:dyDescent="0.3">
@@ -27826,7 +27858,7 @@
         <v>941</v>
       </c>
       <c r="E1310" s="2" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1311" spans="1:13" x14ac:dyDescent="0.3">
@@ -27930,7 +27962,7 @@
         <v>941</v>
       </c>
       <c r="M1317" s="5" t="s">
-        <v>2114</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="1318" spans="1:13" x14ac:dyDescent="0.3">
@@ -28174,7 +28206,7 @@
         <v>941</v>
       </c>
       <c r="E1334" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1335" spans="1:13" ht="45" x14ac:dyDescent="0.3">
@@ -28191,10 +28223,10 @@
         <v>941</v>
       </c>
       <c r="E1335" s="4" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="F1335" s="2" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="G1335" s="2">
         <v>38</v>
@@ -28203,7 +28235,7 @@
         <v>48.2</v>
       </c>
       <c r="M1335" s="5" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1336" spans="1:13" x14ac:dyDescent="0.3">
@@ -28366,7 +28398,7 @@
         <v>85</v>
       </c>
       <c r="M1346" s="5" t="s">
-        <v>2059</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1347" spans="1:13" x14ac:dyDescent="0.3">
@@ -28453,16 +28485,16 @@
         <v>941</v>
       </c>
       <c r="E1352" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="F1352" s="2" t="s">
-        <v>2025</v>
+        <v>2123</v>
       </c>
       <c r="G1352" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1352" s="5" t="s">
-        <v>2026</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1353" spans="1:13" x14ac:dyDescent="0.3">
@@ -28580,7 +28612,7 @@
         <v>1769</v>
       </c>
       <c r="M1360" s="5" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1361" spans="1:13" x14ac:dyDescent="0.3">
@@ -28645,7 +28677,7 @@
         <v>50</v>
       </c>
       <c r="M1364" s="5" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1365" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -28662,16 +28694,16 @@
         <v>941</v>
       </c>
       <c r="E1365" s="4" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="F1365" s="2" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="G1365" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M1365" s="5" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1366" spans="1:13" x14ac:dyDescent="0.3">
@@ -28711,7 +28743,7 @@
         <v>10</v>
       </c>
       <c r="M1367" s="5" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1368" spans="1:13" x14ac:dyDescent="0.3">
@@ -28877,10 +28909,10 @@
         <v>941</v>
       </c>
       <c r="E1378" s="4" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="M1378" s="5" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1379" spans="1:13" x14ac:dyDescent="0.3">
@@ -28897,7 +28929,7 @@
         <v>941</v>
       </c>
       <c r="M1379" s="5" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1380" spans="1:13" x14ac:dyDescent="0.3">
@@ -28970,7 +29002,7 @@
         <v>941</v>
       </c>
       <c r="E1384" s="2" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="G1384" s="2">
         <v>12</v>
@@ -29186,10 +29218,10 @@
         <v>941</v>
       </c>
       <c r="E1399" s="2" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="F1399" s="2" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="G1399" s="2">
         <v>50</v>
@@ -29307,7 +29339,7 @@
         <v>941</v>
       </c>
       <c r="E1407" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1408" spans="1:13" x14ac:dyDescent="0.3">
@@ -29330,7 +29362,7 @@
         <v>430</v>
       </c>
       <c r="M1408" s="5" t="s">
-        <v>2037</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1409" spans="1:13" x14ac:dyDescent="0.3">
@@ -29664,13 +29696,13 @@
         <v>941</v>
       </c>
       <c r="E1431" s="4" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="F1431" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="M1431" s="5" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1432" spans="1:13" x14ac:dyDescent="0.3">
@@ -29715,7 +29747,7 @@
         <v>941</v>
       </c>
       <c r="E1434" s="4" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1435" spans="1:13" x14ac:dyDescent="0.3">
@@ -29788,13 +29820,13 @@
         <v>941</v>
       </c>
       <c r="E1439" s="2" t="s">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="F1439" s="2" t="s">
-        <v>1972</v>
+        <v>1903</v>
       </c>
       <c r="G1439" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1440" spans="1:13" x14ac:dyDescent="0.3">
@@ -29996,13 +30028,13 @@
         <v>941</v>
       </c>
       <c r="E1453" s="4" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G1453" s="2">
         <v>60</v>
       </c>
       <c r="M1453" s="5" t="s">
-        <v>2056</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="1454" spans="1:13" x14ac:dyDescent="0.3">
@@ -30078,7 +30110,7 @@
         <v>941</v>
       </c>
       <c r="E1458" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1459" spans="1:13" x14ac:dyDescent="0.3">
@@ -30345,7 +30377,7 @@
         <v>941</v>
       </c>
       <c r="M1476" s="5" t="s">
-        <v>2123</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="1477" spans="1:13" x14ac:dyDescent="0.3">
@@ -30376,7 +30408,7 @@
         <v>941</v>
       </c>
       <c r="E1478" s="2" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1479" spans="1:13" x14ac:dyDescent="0.3">
@@ -30407,16 +30439,16 @@
         <v>941</v>
       </c>
       <c r="E1480" s="4" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="F1480" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="G1480" s="2">
         <v>100</v>
       </c>
       <c r="M1480" s="5" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1481" spans="1:13" x14ac:dyDescent="0.3">
@@ -30798,7 +30830,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1507" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="1507" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A1507" s="3">
         <v>6284</v>
       </c>
@@ -30812,16 +30844,16 @@
         <v>941</v>
       </c>
       <c r="E1507" s="4" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="F1507" s="2" t="s">
-        <v>2002</v>
+        <v>2120</v>
       </c>
       <c r="G1507" s="2">
         <v>70</v>
       </c>
       <c r="M1507" s="5" t="s">
-        <v>2046</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1508" spans="1:13" x14ac:dyDescent="0.3">
@@ -30922,10 +30954,10 @@
         <v>941</v>
       </c>
       <c r="E1514" s="2" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="M1514" s="5" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1515" spans="1:13" x14ac:dyDescent="0.3">
@@ -31057,16 +31089,16 @@
         <v>941</v>
       </c>
       <c r="E1523" s="4" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="F1523" s="2" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="G1523" s="2">
         <v>120</v>
       </c>
       <c r="M1523" s="5" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1524" spans="1:13" x14ac:dyDescent="0.3">
@@ -31083,7 +31115,7 @@
         <v>941</v>
       </c>
       <c r="E1524" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1525" spans="1:13" x14ac:dyDescent="0.3">
@@ -31240,10 +31272,10 @@
         <v>941</v>
       </c>
       <c r="E1535" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="M1535" s="5" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1536" spans="1:13" x14ac:dyDescent="0.3">
@@ -31302,10 +31334,10 @@
         <v>941</v>
       </c>
       <c r="E1539" s="4" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="M1539" s="5" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1540" spans="1:13" x14ac:dyDescent="0.3">
@@ -31367,10 +31399,10 @@
         <v>941</v>
       </c>
       <c r="E1543" s="2" t="s">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="M1543" s="5" t="s">
-        <v>2127</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1544" spans="1:13" x14ac:dyDescent="0.3">
@@ -31485,10 +31517,10 @@
         <v>941</v>
       </c>
       <c r="E1551" s="4" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="M1551" s="5" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1552" spans="1:13" x14ac:dyDescent="0.3">
@@ -31553,19 +31585,19 @@
         <v>6548</v>
       </c>
       <c r="B1555" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C1555" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D1555" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="E1555" s="2" t="s">
         <v>1837</v>
       </c>
-      <c r="C1555" s="2" t="s">
-        <v>1701</v>
-      </c>
-      <c r="D1555" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="E1555" s="2" t="s">
-        <v>1838</v>
-      </c>
       <c r="M1555" s="5" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1556" spans="1:13" x14ac:dyDescent="0.3">
@@ -31610,7 +31642,7 @@
         <v>941</v>
       </c>
       <c r="M1558" s="5" t="s">
-        <v>2120</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="1559" spans="1:13" x14ac:dyDescent="0.3">
@@ -31683,7 +31715,7 @@
         <v>941</v>
       </c>
       <c r="E1563" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1564" spans="1:13" x14ac:dyDescent="0.3">
@@ -31742,7 +31774,7 @@
         <v>941</v>
       </c>
       <c r="E1567" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1568" spans="1:13" x14ac:dyDescent="0.3">
@@ -31930,10 +31962,10 @@
         <v>941</v>
       </c>
       <c r="E1580" s="4" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="M1580" s="5" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1581" spans="1:13" x14ac:dyDescent="0.3">
@@ -32079,16 +32111,16 @@
         <v>941</v>
       </c>
       <c r="E1590" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="F1590" s="2" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="G1590" s="2">
         <v>103</v>
       </c>
       <c r="M1590" s="5" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1591" spans="1:13" x14ac:dyDescent="0.3">
@@ -32189,7 +32221,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1598" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="1598" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1598" s="3">
         <v>8027</v>
       </c>
@@ -32203,10 +32235,7 @@
         <v>941</v>
       </c>
       <c r="E1598" s="4" t="s">
-        <v>1803</v>
-      </c>
-      <c r="F1598" s="2" t="s">
-        <v>1995</v>
+        <v>2125</v>
       </c>
       <c r="G1598" s="2">
         <v>81</v>
@@ -32285,7 +32314,7 @@
         <v>1769</v>
       </c>
       <c r="M1603" s="5" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1604" spans="1:13" x14ac:dyDescent="0.3">
@@ -32316,7 +32345,7 @@
         <v>941</v>
       </c>
       <c r="M1605" s="5" t="s">
-        <v>2106</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1606" spans="1:13" x14ac:dyDescent="0.3">
@@ -32473,7 +32502,7 @@
         <v>941</v>
       </c>
       <c r="E1616" s="2" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="F1616" s="2" t="s">
         <v>1768</v>
@@ -32482,7 +32511,7 @@
         <v>40</v>
       </c>
       <c r="M1616" s="5" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1617" spans="1:7" x14ac:dyDescent="0.3">
@@ -32614,7 +32643,7 @@
         <v>941</v>
       </c>
       <c r="E1625" s="2" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1626" spans="1:7" x14ac:dyDescent="0.3">
@@ -32645,7 +32674,7 @@
         <v>941</v>
       </c>
       <c r="E1627" s="4" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="F1627" s="2" t="s">
         <v>1759</v>
@@ -32878,16 +32907,16 @@
         <v>941</v>
       </c>
       <c r="E1643" s="4" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="F1643" s="4" t="s">
-        <v>1985</v>
+        <v>1887</v>
       </c>
       <c r="G1643" s="2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M1643" s="5" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1644" spans="1:13" x14ac:dyDescent="0.3">
@@ -32935,7 +32964,7 @@
         <v>1769</v>
       </c>
       <c r="M1646" s="5" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1647" spans="1:13" x14ac:dyDescent="0.3">
@@ -32966,7 +32995,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1649" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1649" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1649" s="3">
         <v>8284</v>
       </c>
@@ -32980,7 +33009,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1650" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1650" s="3">
         <v>8289</v>
       </c>
@@ -32994,7 +33023,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1651" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1651" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1651" s="3">
         <v>8291</v>
       </c>
@@ -33008,7 +33037,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1652" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1652" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1652" s="3">
         <v>8299</v>
       </c>
@@ -33021,8 +33050,11 @@
       <c r="D1652" s="2" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="1653" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I1652" s="2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1653" s="3">
         <v>8342</v>
       </c>
@@ -33036,7 +33068,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1654" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1654" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1654" s="3">
         <v>8349</v>
       </c>
@@ -33050,7 +33082,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1655" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1655" s="3">
         <v>8354</v>
       </c>
@@ -33064,7 +33096,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1656" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1656" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1656" s="3">
         <v>8358</v>
       </c>
@@ -33078,10 +33110,10 @@
         <v>941</v>
       </c>
       <c r="E1656" s="2" t="s">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1657" s="3">
         <v>8383</v>
       </c>
@@ -33095,7 +33127,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1658" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1658" s="3">
         <v>8390</v>
       </c>
@@ -33112,7 +33144,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="1659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1659" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1659" s="3">
         <v>8401</v>
       </c>
@@ -33126,7 +33158,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1660" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1660" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1660" s="3">
         <v>8403</v>
       </c>
@@ -33140,7 +33172,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1661" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1661" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1661" s="3">
         <v>8406</v>
       </c>
@@ -33154,7 +33186,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1662" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1662" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1662" s="3">
         <v>8409</v>
       </c>
@@ -33168,7 +33200,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1663" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1663" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1663" s="3">
         <v>8410</v>
       </c>
@@ -33182,7 +33214,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1664" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1664" s="3">
         <v>8415</v>
       </c>
@@ -33602,7 +33634,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1694" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1694" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A1694" s="3">
         <v>8924</v>
       </c>
@@ -33616,13 +33648,16 @@
         <v>941</v>
       </c>
       <c r="E1694" s="2" t="s">
-        <v>2032</v>
+        <v>2020</v>
       </c>
       <c r="F1694" s="2" t="s">
-        <v>2033</v>
+        <v>2021</v>
+      </c>
+      <c r="G1694" s="2">
+        <v>80</v>
       </c>
       <c r="M1694" s="5" t="s">
-        <v>2034</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="1695" spans="1:13" x14ac:dyDescent="0.3">
@@ -33894,7 +33929,7 @@
         <v>941</v>
       </c>
       <c r="E1713" s="4" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="F1713" s="2" t="s">
         <v>1759</v>
@@ -34163,7 +34198,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="E2" s="2">
         <v>15877</v>
@@ -34171,22 +34206,22 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>2011</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64222810-3CCC-4241-B49C-010E39C10626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC11A14B-F0DF-4397-8E92-78177955EC20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5834" uniqueCount="2130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5844" uniqueCount="2140">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5931,11 +5931,6 @@
   <si>
     <t>軟板
 Apple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021 重回 Apple 概念股
-2021 估 EPS 4塊。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6251,12 +6246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>磷酸鋼理電池
-寧德時代
-TESLA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電池
 Tesla</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6333,10 +6322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>偏空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6364,10 +6349,6 @@
   </si>
   <si>
     <t>輪胎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6805,10 +6786,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2020 EPS] 12.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[2020 EPS] 0.41</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6850,10 +6827,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2020 EPS] 2.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[2020 EPS] 3.87</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6875,10 +6848,6 @@
   </si>
   <si>
     <t>[2020 EPS] 5.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 6.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6891,11 +6860,6 @@
 太陽能背銀導電漿量產
 九成仍為被動元件客戶，太陽能占比約一成
 [2020 EPS] 4.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 5.76
-2021/01 EPS 1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7070,6 +7034,93 @@
     <t>全球第三大的高爾夫頭製造商
 [2020 EPS] 6.5
 [2021 股息] 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB
+華新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 3.42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磷酸鋼理電池
+寧德時代
+TESLA
+[2020 EPS] 1.73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配息低的小氣公司
+[2020 EPS] 6.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 6.25
+2021/01 EPS 0.84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半導體通路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要代理瑞昱 (2379-TW)、友達 (2409-TW)、華邦電 (2344-TW) 等大廠產品
+2021/01 0.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製鞋廠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 5.76
+2021/01 EPS 1.1
+鈞興生產齒輪箱、粉末冶金齒輪及精密五金件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 重回 Apple 概念股
+2021 估 EPS 4塊。
+[2020 EPS] 1.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 2.16
+PChome 網路家庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 0.37
+[2021 股息] 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 4.36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 4.31
+[2021 股息] 3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 12.2
+2021/01 1.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高爾夫球具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7620,9 +7671,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1686" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1695" sqref="G1695"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1697" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1706" sqref="G1706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7660,7 +7711,7 @@
         <v>1822</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1722</v>
@@ -7678,13 +7729,13 @@
         <v>1703</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>1702</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.3">
@@ -8112,10 +8163,10 @@
         <v>941</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="M29" s="5" t="s">
         <v>2069</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>2073</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -8330,6 +8381,9 @@
       <c r="D44" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="M44" s="5" t="s">
+        <v>2127</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
@@ -8361,9 +8415,6 @@
       <c r="E46" s="2" t="s">
         <v>1817</v>
       </c>
-      <c r="H46" s="2">
-        <v>90</v>
-      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
@@ -8379,10 +8430,10 @@
         <v>941</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -8489,7 +8540,7 @@
         <v>1768</v>
       </c>
       <c r="G54" s="2">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>1709</v>
@@ -9015,12 +9066,6 @@
       <c r="E91" s="2" t="s">
         <v>1814</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>1886</v>
-      </c>
-      <c r="H91" s="2">
-        <v>20</v>
-      </c>
       <c r="M91" s="7" t="s">
         <v>1763</v>
       </c>
@@ -9230,7 +9275,7 @@
         <v>1826</v>
       </c>
       <c r="G105" s="2">
-        <v>51</v>
+        <v>51.5</v>
       </c>
       <c r="M105" s="5" t="s">
         <v>1823</v>
@@ -9267,7 +9312,7 @@
         <v>1826</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G107" s="2">
         <v>47</v>
@@ -9275,7 +9320,7 @@
       <c r="K107" s="5"/>
       <c r="L107" s="4"/>
       <c r="M107" s="5" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -9349,10 +9394,10 @@
         <v>1887</v>
       </c>
       <c r="G111" s="2">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>2113</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -9700,10 +9745,10 @@
         <v>941</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>1970</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>1973</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
@@ -9771,7 +9816,7 @@
         <v>941</v>
       </c>
       <c r="M139" s="5" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
@@ -9856,10 +9901,10 @@
         <v>941</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -10039,7 +10084,7 @@
         <v>941</v>
       </c>
       <c r="M156" s="5" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
@@ -10833,7 +10878,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>2014</v>
       </c>
@@ -10845,6 +10890,9 @@
       </c>
       <c r="D212" s="2" t="s">
         <v>941</v>
+      </c>
+      <c r="M212" s="5" t="s">
+        <v>2135</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
@@ -10917,7 +10965,7 @@
         <v>941</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>2115</v>
+        <v>2107</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>1887</v>
@@ -10926,7 +10974,7 @@
         <v>13</v>
       </c>
       <c r="M217" s="5" t="s">
-        <v>2114</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
@@ -11156,7 +11204,7 @@
         <v>941</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -11173,7 +11221,7 @@
         <v>941</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -11218,7 +11266,7 @@
         <v>941</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -11235,7 +11283,7 @@
         <v>941</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -11283,7 +11331,7 @@
         <v>941</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.3">
@@ -11443,11 +11491,8 @@
       <c r="F251" s="4" t="s">
         <v>1764</v>
       </c>
-      <c r="H251" s="2">
-        <v>110</v>
-      </c>
       <c r="M251" s="5" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
@@ -11520,7 +11565,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>2301</v>
       </c>
@@ -11532,6 +11577,9 @@
       </c>
       <c r="D257" s="2" t="s">
         <v>941</v>
+      </c>
+      <c r="M257" s="5" t="s">
+        <v>2137</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
@@ -11565,7 +11613,7 @@
         <v>1802</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="G259" s="2">
         <v>51</v>
@@ -11574,7 +11622,7 @@
         <v>3.9527738679245283</v>
       </c>
       <c r="M259" s="5" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
@@ -11614,7 +11662,7 @@
         <v>130</v>
       </c>
       <c r="M261" s="5" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
@@ -11693,7 +11741,7 @@
         <v>1805</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="G266" s="2">
         <v>101</v>
@@ -11784,7 +11832,7 @@
         <v>1829</v>
       </c>
       <c r="M271" s="5" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
@@ -11818,7 +11866,7 @@
         <v>1801</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="G273" s="2">
         <v>580</v>
@@ -11827,7 +11875,7 @@
         <v>7.8397182185007974</v>
       </c>
       <c r="M273" s="5" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
@@ -11872,10 +11920,10 @@
         <v>941</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="M276" s="5" t="s">
-        <v>2093</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.3">
@@ -11937,7 +11985,7 @@
         <v>1827</v>
       </c>
       <c r="M280" s="5" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
@@ -12244,7 +12292,7 @@
         <v>1770</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="G300" s="2">
         <v>51</v>
@@ -12281,7 +12329,7 @@
         <v>1810</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="G302" s="2">
         <v>25</v>
@@ -12338,7 +12386,7 @@
         <v>75</v>
       </c>
       <c r="M305" s="5" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
@@ -12407,7 +12455,7 @@
         <v>280</v>
       </c>
       <c r="M308" s="5" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
@@ -12452,7 +12500,7 @@
         <v>941</v>
       </c>
       <c r="M311" s="5" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
@@ -12469,7 +12517,7 @@
         <v>941</v>
       </c>
       <c r="M312" s="5" t="s">
-        <v>2096</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.3">
@@ -12677,10 +12725,10 @@
         <v>941</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="M326" s="5" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
@@ -12700,7 +12748,7 @@
         <v>1806</v>
       </c>
       <c r="M327" s="5" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
@@ -12723,7 +12771,7 @@
         <v>1871</v>
       </c>
       <c r="M328" s="5" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
@@ -13031,7 +13079,7 @@
         <v>41</v>
       </c>
       <c r="M347" s="5" t="s">
-        <v>2116</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
@@ -13149,10 +13197,10 @@
         <v>941</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>2117</v>
+        <v>2109</v>
       </c>
       <c r="F355" s="4" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G355" s="2">
         <v>38</v>
@@ -13217,13 +13265,13 @@
         <v>1821</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="L359" s="24">
         <v>0.48331827758816837</v>
       </c>
       <c r="M359" s="5" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.3">
@@ -13260,7 +13308,7 @@
         <v>70</v>
       </c>
       <c r="M361" s="5" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.3">
@@ -13294,13 +13342,13 @@
         <v>1860</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G363" s="2">
         <v>160</v>
       </c>
       <c r="M363" s="5" t="s">
-        <v>2107</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.3">
@@ -13317,7 +13365,7 @@
         <v>941</v>
       </c>
       <c r="M364" s="5" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.3">
@@ -13418,10 +13466,10 @@
         <v>941</v>
       </c>
       <c r="E371" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="M371" s="5" t="s">
         <v>1935</v>
-      </c>
-      <c r="M371" s="5" t="s">
-        <v>1936</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.3">
@@ -13457,7 +13505,7 @@
         <v>2472</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>3</v>
@@ -13469,13 +13517,13 @@
         <v>1769</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G374" s="2">
         <v>76</v>
       </c>
       <c r="M374" s="5" t="s">
-        <v>2121</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.3">
@@ -13537,7 +13585,7 @@
         <v>1769</v>
       </c>
       <c r="M378" s="5" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.3">
@@ -13577,7 +13625,7 @@
         <v>50</v>
       </c>
       <c r="M380" s="5" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.3">
@@ -13709,7 +13757,7 @@
         <v>941</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="G389" s="2">
         <v>205</v>
@@ -14725,7 +14773,7 @@
         <v>32</v>
       </c>
       <c r="M459" s="5" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.3">
@@ -14784,7 +14832,7 @@
         <v>941</v>
       </c>
       <c r="M463" s="5" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.3">
@@ -14998,7 +15046,7 @@
         <v>1791</v>
       </c>
       <c r="M477" s="5" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="478" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -15024,7 +15072,7 @@
         <v>30</v>
       </c>
       <c r="M478" s="5" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.3">
@@ -15064,7 +15112,7 @@
         <v>20</v>
       </c>
       <c r="M480" s="5" t="s">
-        <v>2109</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="481" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -15090,7 +15138,7 @@
         <v>14</v>
       </c>
       <c r="M481" s="5" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.3">
@@ -15161,7 +15209,7 @@
         <v>941</v>
       </c>
       <c r="M485" s="5" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.3">
@@ -15192,7 +15240,7 @@
         <v>941</v>
       </c>
       <c r="M487" s="5" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.3">
@@ -15209,7 +15257,7 @@
         <v>941</v>
       </c>
       <c r="M488" s="5" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.3">
@@ -15268,7 +15316,7 @@
         <v>941</v>
       </c>
       <c r="E492" s="4" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>1768</v>
@@ -15367,7 +15415,7 @@
         <v>1783</v>
       </c>
       <c r="M498" s="5" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.3">
@@ -15482,7 +15530,7 @@
         <v>941</v>
       </c>
       <c r="M506" s="5" t="s">
-        <v>2105</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.3">
@@ -15551,7 +15599,7 @@
         <v>1824</v>
       </c>
       <c r="M510" s="5" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.3">
@@ -15667,7 +15715,7 @@
         <v>1713</v>
       </c>
       <c r="M517" s="5" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.3">
@@ -15701,7 +15749,7 @@
         <v>1777</v>
       </c>
       <c r="M519" s="5" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.3">
@@ -15924,7 +15972,7 @@
         <v>260</v>
       </c>
       <c r="M533" s="5" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.3">
@@ -15941,10 +15989,10 @@
         <v>941</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="M534" s="5" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.3">
@@ -15961,7 +16009,7 @@
         <v>941</v>
       </c>
       <c r="M535" s="5" t="s">
-        <v>2097</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.3">
@@ -15987,7 +16035,7 @@
         <v>90</v>
       </c>
       <c r="M536" s="5" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="537" spans="1:13" x14ac:dyDescent="0.3">
@@ -16055,7 +16103,7 @@
         <v>1769</v>
       </c>
       <c r="F540" s="4" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G540" s="2">
         <v>90</v>
@@ -16089,10 +16137,10 @@
         <v>941</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="M542" s="5" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.3">
@@ -16115,7 +16163,7 @@
         <v>1871</v>
       </c>
       <c r="M543" s="5" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.3">
@@ -16418,7 +16466,7 @@
         <v>1770</v>
       </c>
       <c r="M564" s="5" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="565" spans="1:13" x14ac:dyDescent="0.3">
@@ -16463,7 +16511,7 @@
         <v>941</v>
       </c>
       <c r="M567" s="5" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="568" spans="1:13" x14ac:dyDescent="0.3">
@@ -16550,7 +16598,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A574" s="3">
         <v>3312</v>
       </c>
@@ -16562,6 +16610,12 @@
       </c>
       <c r="D574" s="2" t="s">
         <v>941</v>
+      </c>
+      <c r="E574" s="2" t="s">
+        <v>2129</v>
+      </c>
+      <c r="M574" s="5" t="s">
+        <v>2130</v>
       </c>
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.3">
@@ -16634,10 +16688,7 @@
         <v>941</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F579" s="2" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="580" spans="1:13" x14ac:dyDescent="0.3">
@@ -16713,7 +16764,7 @@
         <v>941</v>
       </c>
       <c r="M584" s="5" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="585" spans="1:13" x14ac:dyDescent="0.3">
@@ -16820,7 +16871,7 @@
         <v>1807</v>
       </c>
       <c r="M591" s="5" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="592" spans="1:13" x14ac:dyDescent="0.3">
@@ -17065,7 +17116,7 @@
         <v>941</v>
       </c>
       <c r="M607" s="5" t="s">
-        <v>2108</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.3">
@@ -17178,7 +17229,7 @@
         <v>1820</v>
       </c>
       <c r="M614" s="5" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="615" spans="1:13" x14ac:dyDescent="0.3">
@@ -17279,7 +17330,7 @@
         <v>3665</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>3</v>
@@ -17291,7 +17342,7 @@
         <v>1820</v>
       </c>
       <c r="M621" s="5" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="622" spans="1:13" x14ac:dyDescent="0.3">
@@ -17331,10 +17382,10 @@
         <v>941</v>
       </c>
       <c r="E623" s="2" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="M623" s="5" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="624" spans="1:13" x14ac:dyDescent="0.3">
@@ -17351,13 +17402,13 @@
         <v>941</v>
       </c>
       <c r="E624" s="2" t="s">
-        <v>2126</v>
+        <v>2118</v>
       </c>
       <c r="F624" s="2" t="s">
-        <v>2128</v>
+        <v>2120</v>
       </c>
       <c r="M624" s="5" t="s">
-        <v>2127</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="625" spans="1:13" x14ac:dyDescent="0.3">
@@ -17464,13 +17515,13 @@
         <v>941</v>
       </c>
       <c r="E631" s="2" t="s">
-        <v>2118</v>
+        <v>2110</v>
       </c>
       <c r="G631" s="2">
         <v>37</v>
       </c>
       <c r="M631" s="5" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="632" spans="1:13" x14ac:dyDescent="0.3">
@@ -17535,7 +17586,7 @@
         <v>1793</v>
       </c>
       <c r="M635" s="5" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="636" spans="1:13" x14ac:dyDescent="0.3">
@@ -17682,10 +17733,10 @@
         <v>941</v>
       </c>
       <c r="E644" s="4" t="s">
+        <v>1922</v>
+      </c>
+      <c r="M644" s="5" t="s">
         <v>1923</v>
-      </c>
-      <c r="M644" s="5" t="s">
-        <v>1924</v>
       </c>
     </row>
     <row r="645" spans="1:13" x14ac:dyDescent="0.3">
@@ -18002,7 +18053,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="667" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A667" s="3">
         <v>4571</v>
       </c>
@@ -18016,10 +18067,13 @@
         <v>941</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>2038</v>
+        <v>2034</v>
+      </c>
+      <c r="G667" s="2">
+        <v>80</v>
       </c>
       <c r="M667" s="5" t="s">
-        <v>2101</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="668" spans="1:13" x14ac:dyDescent="0.3">
@@ -18050,7 +18104,7 @@
         <v>941</v>
       </c>
       <c r="E669" s="2" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="670" spans="1:13" x14ac:dyDescent="0.3">
@@ -18136,6 +18190,9 @@
       <c r="D675" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="M675" s="5" t="s">
+        <v>2136</v>
+      </c>
     </row>
     <row r="676" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A676" s="3">
@@ -18213,7 +18270,7 @@
         <v>1871</v>
       </c>
       <c r="M680" s="5" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="681" spans="1:13" x14ac:dyDescent="0.3">
@@ -18258,7 +18315,7 @@
         <v>941</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="G683" s="2">
         <v>54</v>
@@ -18492,7 +18549,7 @@
         <v>1827</v>
       </c>
       <c r="M698" s="5" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="699" spans="1:13" ht="60" x14ac:dyDescent="0.3">
@@ -18515,7 +18572,7 @@
         <v>200</v>
       </c>
       <c r="M699" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="700" spans="1:13" x14ac:dyDescent="0.3">
@@ -18594,10 +18651,10 @@
         <v>941</v>
       </c>
       <c r="E704" s="2" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="M704" s="5" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="705" spans="1:13" x14ac:dyDescent="0.3">
@@ -18774,6 +18831,9 @@
       <c r="E715" s="2" t="s">
         <v>1837</v>
       </c>
+      <c r="G715" s="2">
+        <v>68</v>
+      </c>
       <c r="M715" s="5" t="s">
         <v>1838</v>
       </c>
@@ -18823,7 +18883,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A719" s="3">
         <v>5469</v>
       </c>
@@ -18835,6 +18895,15 @@
       </c>
       <c r="D719" s="2" t="s">
         <v>941</v>
+      </c>
+      <c r="E719" s="2" t="s">
+        <v>2124</v>
+      </c>
+      <c r="G719" s="2">
+        <v>40</v>
+      </c>
+      <c r="M719" s="5" t="s">
+        <v>2126</v>
       </c>
     </row>
     <row r="720" spans="1:13" x14ac:dyDescent="0.3">
@@ -19036,7 +19105,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A734" s="3">
         <v>5871</v>
       </c>
@@ -19059,7 +19128,7 @@
         <v>110</v>
       </c>
       <c r="M734" s="5" t="s">
-        <v>2081</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="735" spans="1:13" x14ac:dyDescent="0.3">
@@ -19174,16 +19243,16 @@
         <v>941</v>
       </c>
       <c r="E742" s="2" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="F742" s="2" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="G742" s="2">
         <v>41</v>
       </c>
       <c r="M742" s="5" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="743" spans="1:13" x14ac:dyDescent="0.3">
@@ -19346,7 +19415,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="754" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A754" s="3">
         <v>6153</v>
       </c>
@@ -19369,7 +19438,7 @@
         <v>33</v>
       </c>
       <c r="M754" s="5" t="s">
-        <v>1889</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="755" spans="1:13" x14ac:dyDescent="0.3">
@@ -19498,7 +19567,7 @@
         <v>941</v>
       </c>
       <c r="E763" s="2" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F763" s="2" t="s">
         <v>1768</v>
@@ -19538,7 +19607,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="766" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A766" s="3">
         <v>6191</v>
       </c>
@@ -19551,8 +19620,14 @@
       <c r="D766" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="E766" s="2" t="s">
-        <v>1770</v>
+      <c r="E766" s="4" t="s">
+        <v>2122</v>
+      </c>
+      <c r="G766" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="M766" s="5" t="s">
+        <v>2123</v>
       </c>
     </row>
     <row r="767" spans="1:13" x14ac:dyDescent="0.3">
@@ -19628,13 +19703,13 @@
         <v>1820</v>
       </c>
       <c r="F771" s="2" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G771" s="2">
         <v>41</v>
       </c>
       <c r="M771" s="5" t="s">
-        <v>2119</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="772" spans="1:13" x14ac:dyDescent="0.3">
@@ -19696,7 +19771,7 @@
         <v>941</v>
       </c>
       <c r="M775" s="5" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="776" spans="1:13" x14ac:dyDescent="0.3">
@@ -19741,13 +19816,13 @@
         <v>941</v>
       </c>
       <c r="E778" s="2" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="F778" s="2" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="M778" s="5" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="779" spans="1:13" x14ac:dyDescent="0.3">
@@ -19795,7 +19870,7 @@
         <v>1713</v>
       </c>
       <c r="M781" s="5" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="782" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -19812,7 +19887,7 @@
         <v>941</v>
       </c>
       <c r="M782" s="5" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="783" spans="1:13" x14ac:dyDescent="0.3">
@@ -19894,7 +19969,7 @@
         <v>941</v>
       </c>
       <c r="M787" s="5" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="788" spans="1:13" ht="90" x14ac:dyDescent="0.3">
@@ -20094,7 +20169,7 @@
         <v>941</v>
       </c>
       <c r="E800" s="2" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.3">
@@ -20128,7 +20203,7 @@
         <v>941</v>
       </c>
       <c r="E802" s="2" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.3">
@@ -20176,13 +20251,13 @@
         <v>1711</v>
       </c>
       <c r="F805" s="2" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G805" s="2">
         <v>32</v>
       </c>
       <c r="M805" s="5" t="s">
-        <v>2122</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.3">
@@ -20275,10 +20350,10 @@
         <v>941</v>
       </c>
       <c r="E811" s="2" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="M811" s="5" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.3">
@@ -20309,10 +20384,10 @@
         <v>941</v>
       </c>
       <c r="E813" s="2" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="M813" s="5" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.3">
@@ -20444,10 +20519,10 @@
         <v>941</v>
       </c>
       <c r="E822" s="2" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="M822" s="5" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="823" spans="1:13" x14ac:dyDescent="0.3">
@@ -20625,7 +20700,7 @@
         <v>1795</v>
       </c>
       <c r="M833" s="5" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="834" spans="1:13" x14ac:dyDescent="0.3">
@@ -20721,7 +20796,7 @@
         <v>140</v>
       </c>
       <c r="M839" s="5" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="840" spans="1:13" x14ac:dyDescent="0.3">
@@ -20797,13 +20872,13 @@
         <v>1847</v>
       </c>
       <c r="F844" s="2" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="G844" s="2">
         <v>28</v>
       </c>
       <c r="M844" s="26" t="s">
-        <v>2104</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="845" spans="1:13" x14ac:dyDescent="0.3">
@@ -20811,7 +20886,7 @@
         <v>8028</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="C845" s="2" t="s">
         <v>3</v>
@@ -20871,7 +20946,7 @@
         <v>1770</v>
       </c>
       <c r="M848" s="5" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="849" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -20888,13 +20963,13 @@
         <v>941</v>
       </c>
       <c r="E849" s="2" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="F849" s="2" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="M849" s="5" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="850" spans="1:13" x14ac:dyDescent="0.3">
@@ -20928,7 +21003,7 @@
         <v>1860</v>
       </c>
       <c r="M851" s="5" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="852" spans="1:13" x14ac:dyDescent="0.3">
@@ -21349,7 +21424,7 @@
         <v>941</v>
       </c>
       <c r="E880" s="2" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F880" s="2" t="s">
         <v>1886</v>
@@ -21358,7 +21433,7 @@
         <v>320</v>
       </c>
       <c r="M880" s="5" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="881" spans="1:13" x14ac:dyDescent="0.3">
@@ -21532,7 +21607,7 @@
         <v>1758</v>
       </c>
       <c r="M892" s="5" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="893" spans="1:13" x14ac:dyDescent="0.3">
@@ -21773,10 +21848,10 @@
         <v>941</v>
       </c>
       <c r="E909" s="2" t="s">
-        <v>1980</v>
+        <v>2131</v>
       </c>
       <c r="M909" s="5" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="910" spans="1:13" x14ac:dyDescent="0.3">
@@ -22004,7 +22079,7 @@
         <v>941</v>
       </c>
       <c r="E924" s="2" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F924" s="2" t="s">
         <v>1768</v>
@@ -22013,7 +22088,7 @@
         <v>40</v>
       </c>
       <c r="M924" s="5" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="925" spans="1:13" x14ac:dyDescent="0.3">
@@ -22184,16 +22259,16 @@
         <v>941</v>
       </c>
       <c r="E936" s="2" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="F936" s="2" t="s">
-        <v>2123</v>
+        <v>2115</v>
       </c>
       <c r="G936" s="2">
         <v>80</v>
       </c>
       <c r="M936" s="5" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="937" spans="1:13" x14ac:dyDescent="0.3">
@@ -22275,7 +22350,7 @@
         <v>941</v>
       </c>
       <c r="E941" s="4" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="F941" s="2" t="s">
         <v>1885</v>
@@ -22520,7 +22595,7 @@
         <v>941</v>
       </c>
       <c r="M957" s="5" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="958" spans="1:13" ht="45" x14ac:dyDescent="0.3">
@@ -22528,7 +22603,7 @@
         <v>1586</v>
       </c>
       <c r="B958" s="1" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="C958" s="2" t="s">
         <v>1701</v>
@@ -22540,13 +22615,13 @@
         <v>1820</v>
       </c>
       <c r="F958" s="2" t="s">
-        <v>2120</v>
+        <v>2112</v>
       </c>
       <c r="G958" s="2">
         <v>41</v>
       </c>
       <c r="M958" s="5" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="959" spans="1:13" x14ac:dyDescent="0.3">
@@ -22608,7 +22683,7 @@
         <v>1773</v>
       </c>
       <c r="M962" s="5" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="963" spans="1:13" x14ac:dyDescent="0.3">
@@ -22673,7 +22748,7 @@
         <v>70</v>
       </c>
       <c r="M966" s="5" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="967" spans="1:13" x14ac:dyDescent="0.3">
@@ -22750,7 +22825,7 @@
         <v>110</v>
       </c>
       <c r="M970" s="5" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="971" spans="1:13" x14ac:dyDescent="0.3">
@@ -22879,7 +22954,7 @@
         <v>941</v>
       </c>
       <c r="E979" s="2" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="F979" s="2" t="s">
         <v>1885</v>
@@ -22888,7 +22963,7 @@
         <v>42</v>
       </c>
       <c r="M979" s="5" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="980" spans="1:13" x14ac:dyDescent="0.3">
@@ -23034,7 +23109,7 @@
         <v>1869</v>
       </c>
       <c r="M989" s="5" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="990" spans="1:13" x14ac:dyDescent="0.3">
@@ -23365,7 +23440,7 @@
         <v>941</v>
       </c>
       <c r="E1012" s="4" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="H1012" s="2">
         <v>50</v>
@@ -23464,7 +23539,7 @@
         <v>1820</v>
       </c>
       <c r="M1018" s="5" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1019" spans="1:13" x14ac:dyDescent="0.3">
@@ -23512,10 +23587,10 @@
         <v>941</v>
       </c>
       <c r="E1021" s="2" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="M1021" s="5" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="1022" spans="1:13" x14ac:dyDescent="0.3">
@@ -23585,7 +23660,7 @@
         <v>3128</v>
       </c>
       <c r="B1026" s="1" t="s">
-        <v>2102</v>
+        <v>2094</v>
       </c>
       <c r="C1026" s="2" t="s">
         <v>1701</v>
@@ -23830,7 +23905,7 @@
         <v>1841</v>
       </c>
       <c r="M1042" s="5" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1043" spans="1:13" x14ac:dyDescent="0.3">
@@ -23912,7 +23987,7 @@
         <v>1764</v>
       </c>
       <c r="M1047" s="5" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1048" spans="1:13" x14ac:dyDescent="0.3">
@@ -24106,10 +24181,10 @@
         <v>1827</v>
       </c>
       <c r="F1060" s="2" t="s">
-        <v>2120</v>
+        <v>2112</v>
       </c>
       <c r="M1060" s="5" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1061" spans="1:14" x14ac:dyDescent="0.3">
@@ -24261,7 +24336,7 @@
         <v>941</v>
       </c>
       <c r="M1070" s="5" t="s">
-        <v>2099</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1071" spans="1:14" x14ac:dyDescent="0.3">
@@ -24295,7 +24370,7 @@
         <v>1781</v>
       </c>
       <c r="F1072" s="2" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="G1072" s="2">
         <v>750</v>
@@ -24304,10 +24379,10 @@
         <v>750</v>
       </c>
       <c r="M1072" s="7" t="s">
-        <v>2111</v>
+        <v>2103</v>
       </c>
       <c r="N1072" s="25" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1073" spans="1:13" x14ac:dyDescent="0.3">
@@ -24459,7 +24534,7 @@
         <v>225</v>
       </c>
       <c r="M1082" s="5" t="s">
-        <v>2112</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1083" spans="1:13" x14ac:dyDescent="0.3">
@@ -24532,13 +24607,13 @@
         <v>941</v>
       </c>
       <c r="E1087" s="4" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="F1087" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="M1087" s="5" t="s">
         <v>1894</v>
-      </c>
-      <c r="M1087" s="5" t="s">
-        <v>1895</v>
       </c>
     </row>
     <row r="1088" spans="1:13" x14ac:dyDescent="0.3">
@@ -24881,7 +24956,7 @@
         <v>941</v>
       </c>
       <c r="M1110" s="5" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1111" spans="1:13" x14ac:dyDescent="0.3">
@@ -25052,7 +25127,7 @@
         <v>941</v>
       </c>
       <c r="E1122" s="2" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="F1122" s="2" t="s">
         <v>1768</v>
@@ -25061,7 +25136,7 @@
         <v>80</v>
       </c>
       <c r="M1122" s="5" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1123" spans="1:13" x14ac:dyDescent="0.3">
@@ -25168,13 +25243,13 @@
         <v>1781</v>
       </c>
       <c r="F1129" s="2" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G1129" s="2">
         <v>81</v>
       </c>
       <c r="M1129" s="5" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1130" spans="1:13" x14ac:dyDescent="0.3">
@@ -25222,13 +25297,13 @@
         <v>1820</v>
       </c>
       <c r="F1132" s="2" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="G1132" s="2">
         <v>250</v>
       </c>
       <c r="M1132" s="7" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1133" spans="1:13" x14ac:dyDescent="0.3">
@@ -25362,7 +25437,7 @@
         <v>3587</v>
       </c>
       <c r="B1142" s="1" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C1142" s="2" t="s">
         <v>1701</v>
@@ -25795,7 +25870,7 @@
         <v>941</v>
       </c>
       <c r="E1171" s="2" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1172" spans="1:14" x14ac:dyDescent="0.3">
@@ -26007,7 +26082,7 @@
         <v>1853</v>
       </c>
       <c r="N1184" s="25" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1185" spans="1:13" x14ac:dyDescent="0.3">
@@ -26125,10 +26200,10 @@
         <v>941</v>
       </c>
       <c r="E1192" s="2" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="M1192" s="5" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1193" spans="1:13" x14ac:dyDescent="0.3">
@@ -26260,7 +26335,7 @@
         <v>941</v>
       </c>
       <c r="M1201" s="5" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1202" spans="1:13" x14ac:dyDescent="0.3">
@@ -26899,7 +26974,7 @@
         <v>941</v>
       </c>
       <c r="E1246" s="2" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1247" spans="1:5" x14ac:dyDescent="0.3">
@@ -27126,10 +27201,10 @@
         <v>941</v>
       </c>
       <c r="E1262" s="4" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="M1262" s="5" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1263" spans="1:13" x14ac:dyDescent="0.3">
@@ -27292,10 +27367,10 @@
         <v>941</v>
       </c>
       <c r="E1273" s="2" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="M1273" s="5" t="s">
-        <v>2100</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1274" spans="1:13" x14ac:dyDescent="0.3">
@@ -27480,7 +27555,7 @@
         <v>941</v>
       </c>
       <c r="E1286" s="4" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="F1286" s="2" t="s">
         <v>1885</v>
@@ -27551,13 +27626,13 @@
         <v>941</v>
       </c>
       <c r="E1290" s="2" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="G1290" s="2">
         <v>80</v>
       </c>
       <c r="M1290" s="5" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1291" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -27574,10 +27649,10 @@
         <v>941</v>
       </c>
       <c r="E1291" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="M1291" s="5" t="s">
         <v>1917</v>
-      </c>
-      <c r="M1291" s="5" t="s">
-        <v>1918</v>
       </c>
     </row>
     <row r="1292" spans="1:13" x14ac:dyDescent="0.3">
@@ -27636,10 +27711,10 @@
         <v>941</v>
       </c>
       <c r="E1295" s="2" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="M1295" s="5" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1296" spans="1:13" x14ac:dyDescent="0.3">
@@ -27726,10 +27801,10 @@
         <v>941</v>
       </c>
       <c r="E1301" s="2" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="M1301" s="5" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1302" spans="1:13" x14ac:dyDescent="0.3">
@@ -27948,7 +28023,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1317" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A1317" s="3">
         <v>5223</v>
       </c>
@@ -27961,8 +28036,14 @@
       <c r="D1317" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="E1317" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="G1317" s="2">
+        <v>85</v>
+      </c>
       <c r="M1317" s="5" t="s">
-        <v>2098</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1318" spans="1:13" x14ac:dyDescent="0.3">
@@ -28235,7 +28316,7 @@
         <v>48.2</v>
       </c>
       <c r="M1335" s="5" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1336" spans="1:13" x14ac:dyDescent="0.3">
@@ -28398,7 +28479,7 @@
         <v>85</v>
       </c>
       <c r="M1346" s="5" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1347" spans="1:13" x14ac:dyDescent="0.3">
@@ -28488,13 +28569,13 @@
         <v>1807</v>
       </c>
       <c r="F1352" s="2" t="s">
-        <v>2123</v>
+        <v>2115</v>
       </c>
       <c r="G1352" s="2">
         <v>36</v>
       </c>
       <c r="M1352" s="5" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1353" spans="1:13" x14ac:dyDescent="0.3">
@@ -28612,7 +28693,7 @@
         <v>1769</v>
       </c>
       <c r="M1360" s="5" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1361" spans="1:13" x14ac:dyDescent="0.3">
@@ -28694,16 +28775,16 @@
         <v>941</v>
       </c>
       <c r="E1365" s="4" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="F1365" s="2" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="G1365" s="2">
         <v>41</v>
       </c>
       <c r="M1365" s="5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1366" spans="1:13" x14ac:dyDescent="0.3">
@@ -28743,7 +28824,7 @@
         <v>10</v>
       </c>
       <c r="M1367" s="5" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1368" spans="1:13" x14ac:dyDescent="0.3">
@@ -28912,7 +28993,7 @@
         <v>1808</v>
       </c>
       <c r="M1378" s="5" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1379" spans="1:13" x14ac:dyDescent="0.3">
@@ -28929,7 +29010,7 @@
         <v>941</v>
       </c>
       <c r="M1379" s="5" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1380" spans="1:13" x14ac:dyDescent="0.3">
@@ -29362,7 +29443,7 @@
         <v>430</v>
       </c>
       <c r="M1408" s="5" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1409" spans="1:13" x14ac:dyDescent="0.3">
@@ -29696,13 +29777,13 @@
         <v>941</v>
       </c>
       <c r="E1431" s="4" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F1431" s="2" t="s">
         <v>1811</v>
       </c>
       <c r="M1431" s="5" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1432" spans="1:13" x14ac:dyDescent="0.3">
@@ -29747,7 +29828,7 @@
         <v>941</v>
       </c>
       <c r="E1434" s="4" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1435" spans="1:13" x14ac:dyDescent="0.3">
@@ -29820,10 +29901,10 @@
         <v>941</v>
       </c>
       <c r="E1439" s="2" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="F1439" s="2" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G1439" s="2">
         <v>71</v>
@@ -30034,7 +30115,7 @@
         <v>60</v>
       </c>
       <c r="M1453" s="5" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1454" spans="1:13" x14ac:dyDescent="0.3">
@@ -30377,7 +30458,7 @@
         <v>941</v>
       </c>
       <c r="M1476" s="5" t="s">
-        <v>2106</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="1477" spans="1:13" x14ac:dyDescent="0.3">
@@ -30408,7 +30489,7 @@
         <v>941</v>
       </c>
       <c r="E1478" s="2" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1479" spans="1:13" x14ac:dyDescent="0.3">
@@ -30439,7 +30520,7 @@
         <v>941</v>
       </c>
       <c r="E1480" s="4" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F1480" s="2" t="s">
         <v>1821</v>
@@ -30448,7 +30529,7 @@
         <v>100</v>
       </c>
       <c r="M1480" s="5" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1481" spans="1:13" x14ac:dyDescent="0.3">
@@ -30847,13 +30928,13 @@
         <v>1804</v>
       </c>
       <c r="F1507" s="2" t="s">
-        <v>2120</v>
+        <v>2112</v>
       </c>
       <c r="G1507" s="2">
         <v>70</v>
       </c>
       <c r="M1507" s="5" t="s">
-        <v>2124</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1508" spans="1:13" x14ac:dyDescent="0.3">
@@ -30957,7 +31038,7 @@
         <v>1860</v>
       </c>
       <c r="M1514" s="5" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1515" spans="1:13" x14ac:dyDescent="0.3">
@@ -31089,10 +31170,10 @@
         <v>941</v>
       </c>
       <c r="E1523" s="4" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="F1523" s="2" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="G1523" s="2">
         <v>120</v>
@@ -31275,7 +31356,7 @@
         <v>1808</v>
       </c>
       <c r="M1535" s="5" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1536" spans="1:13" x14ac:dyDescent="0.3">
@@ -31334,10 +31415,10 @@
         <v>941</v>
       </c>
       <c r="E1539" s="4" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="M1539" s="5" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1540" spans="1:13" x14ac:dyDescent="0.3">
@@ -31399,10 +31480,10 @@
         <v>941</v>
       </c>
       <c r="E1543" s="2" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="M1543" s="5" t="s">
-        <v>2110</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="1544" spans="1:13" x14ac:dyDescent="0.3">
@@ -31517,10 +31598,10 @@
         <v>941</v>
       </c>
       <c r="E1551" s="4" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="M1551" s="5" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1552" spans="1:13" x14ac:dyDescent="0.3">
@@ -31642,7 +31723,7 @@
         <v>941</v>
       </c>
       <c r="M1558" s="5" t="s">
-        <v>2103</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1559" spans="1:13" x14ac:dyDescent="0.3">
@@ -31962,10 +32043,10 @@
         <v>941</v>
       </c>
       <c r="E1580" s="4" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="M1580" s="5" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1581" spans="1:13" x14ac:dyDescent="0.3">
@@ -32235,7 +32316,7 @@
         <v>941</v>
       </c>
       <c r="E1598" s="4" t="s">
-        <v>2125</v>
+        <v>2117</v>
       </c>
       <c r="G1598" s="2">
         <v>81</v>
@@ -32331,7 +32412,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1605" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1605" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A1605" s="3">
         <v>8044</v>
       </c>
@@ -32344,8 +32425,11 @@
       <c r="D1605" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="E1605" s="2" t="s">
+        <v>1783</v>
+      </c>
       <c r="M1605" s="5" t="s">
-        <v>2091</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="1606" spans="1:13" x14ac:dyDescent="0.3">
@@ -32511,7 +32595,7 @@
         <v>40</v>
       </c>
       <c r="M1616" s="5" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1617" spans="1:7" x14ac:dyDescent="0.3">
@@ -32643,7 +32727,7 @@
         <v>941</v>
       </c>
       <c r="E1625" s="2" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1626" spans="1:7" x14ac:dyDescent="0.3">
@@ -32893,7 +32977,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1643" spans="1:13" ht="45" x14ac:dyDescent="0.3">
+    <row r="1643" spans="1:13" ht="60" x14ac:dyDescent="0.3">
       <c r="A1643" s="3">
         <v>8183</v>
       </c>
@@ -32907,16 +32991,16 @@
         <v>941</v>
       </c>
       <c r="E1643" s="4" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="F1643" s="4" t="s">
         <v>1887</v>
       </c>
       <c r="G1643" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M1643" s="5" t="s">
-        <v>1955</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1644" spans="1:13" x14ac:dyDescent="0.3">
@@ -32964,7 +33048,7 @@
         <v>1769</v>
       </c>
       <c r="M1646" s="5" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1647" spans="1:13" x14ac:dyDescent="0.3">
@@ -33110,7 +33194,7 @@
         <v>941</v>
       </c>
       <c r="E1656" s="2" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1657" spans="1:9" x14ac:dyDescent="0.3">
@@ -33648,16 +33732,16 @@
         <v>941</v>
       </c>
       <c r="E1694" s="2" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="F1694" s="2" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="G1694" s="2">
         <v>80</v>
       </c>
       <c r="M1694" s="5" t="s">
-        <v>2129</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1695" spans="1:13" x14ac:dyDescent="0.3">
@@ -33688,7 +33772,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1697" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1697" s="3">
         <v>8929</v>
       </c>
@@ -33702,7 +33786,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1698" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1698" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1698" s="3">
         <v>8930</v>
       </c>
@@ -33716,7 +33800,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1699" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1699" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1699" s="3">
         <v>8931</v>
       </c>
@@ -33733,7 +33817,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="1700" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1700" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1700" s="3">
         <v>8932</v>
       </c>
@@ -33747,7 +33831,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1701" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1701" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1701" s="3">
         <v>8933</v>
       </c>
@@ -33761,7 +33845,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1702" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1702" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1702" s="3">
         <v>8935</v>
       </c>
@@ -33775,7 +33859,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1703" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1703" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1703" s="3">
         <v>8936</v>
       </c>
@@ -33789,7 +33873,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1704" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1704" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1704" s="3">
         <v>8937</v>
       </c>
@@ -33803,7 +33887,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1705" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1705" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1705" s="3">
         <v>8938</v>
       </c>
@@ -33816,8 +33900,14 @@
       <c r="D1705" s="2" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="1706" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1705" s="2" t="s">
+        <v>2139</v>
+      </c>
+      <c r="G1705" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1706" s="3">
         <v>8941</v>
       </c>
@@ -33831,7 +33921,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1707" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1707" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1707" s="3">
         <v>8942</v>
       </c>
@@ -33845,7 +33935,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1708" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1708" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1708" s="3">
         <v>9949</v>
       </c>
@@ -33859,7 +33949,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1709" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1709" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1709" s="3">
         <v>9950</v>
       </c>
@@ -33873,7 +33963,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1710" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1710" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1710" s="3">
         <v>9951</v>
       </c>
@@ -33887,7 +33977,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1711" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1711" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1711" s="3">
         <v>9960</v>
       </c>
@@ -33901,7 +33991,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1712" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1712" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1712" s="3">
         <v>9962</v>
       </c>
@@ -34198,7 +34288,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="E2" s="2">
         <v>15877</v>
@@ -34206,22 +34296,22 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC11A14B-F0DF-4397-8E92-78177955EC20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DD5683-D20B-4734-804B-80215634216F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7062,10 +7062,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2020 EPS] 3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[2020 EPS] 6.25
 2021/01 EPS 0.84</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7121,6 +7117,11 @@
   </si>
   <si>
     <t>高爾夫球具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 3.2
+沒有什麼漲跌幅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7672,8 +7673,8 @@
   <dimension ref="A1:N1713"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1697" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1706" sqref="G1706"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8368,7 +8369,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>1323</v>
       </c>
@@ -8382,7 +8383,7 @@
         <v>941</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>2127</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -10892,7 +10893,7 @@
         <v>941</v>
       </c>
       <c r="M212" s="5" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
@@ -11579,7 +11580,7 @@
         <v>941</v>
       </c>
       <c r="M257" s="5" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
@@ -16612,10 +16613,10 @@
         <v>941</v>
       </c>
       <c r="E574" s="2" t="s">
+        <v>2128</v>
+      </c>
+      <c r="M574" s="5" t="s">
         <v>2129</v>
-      </c>
-      <c r="M574" s="5" t="s">
-        <v>2130</v>
       </c>
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.3">
@@ -18073,7 +18074,7 @@
         <v>80</v>
       </c>
       <c r="M667" s="5" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="668" spans="1:13" x14ac:dyDescent="0.3">
@@ -18191,7 +18192,7 @@
         <v>941</v>
       </c>
       <c r="M675" s="5" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="676" spans="1:13" x14ac:dyDescent="0.3">
@@ -19128,7 +19129,7 @@
         <v>110</v>
       </c>
       <c r="M734" s="5" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="735" spans="1:13" x14ac:dyDescent="0.3">
@@ -19438,7 +19439,7 @@
         <v>33</v>
       </c>
       <c r="M754" s="5" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="755" spans="1:13" x14ac:dyDescent="0.3">
@@ -21848,7 +21849,7 @@
         <v>941</v>
       </c>
       <c r="E909" s="2" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="M909" s="5" t="s">
         <v>2047</v>
@@ -28043,7 +28044,7 @@
         <v>85</v>
       </c>
       <c r="M1317" s="5" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1318" spans="1:13" x14ac:dyDescent="0.3">
@@ -32429,7 +32430,7 @@
         <v>1783</v>
       </c>
       <c r="M1605" s="5" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1606" spans="1:13" x14ac:dyDescent="0.3">
@@ -33901,7 +33902,7 @@
         <v>941</v>
       </c>
       <c r="E1705" s="2" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="G1705" s="2">
         <v>48</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DD5683-D20B-4734-804B-80215634216F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54B2723-3473-40F3-B056-DBF0932AE517}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5844" uniqueCount="2140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5847" uniqueCount="2143">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6072,10 +6072,6 @@
   </si>
   <si>
     <t>資訊服務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短期注意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6411,10 +6407,6 @@
   </si>
   <si>
     <t>和勤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短期注意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7122,6 +7114,28 @@
   <si>
     <t>[2020 EPS] 3.2
 沒有什麼漲跌幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同欣電老闆進駐
+切入電動車巿場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nand Flash、PCIe SSD 控制器(2025全球最大)
+2020 EPS 上看 48塊。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7673,8 +7687,8 @@
   <dimension ref="A1:N1713"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M45" sqref="M45"/>
+      <pane ySplit="1" topLeftCell="A624" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G631" sqref="G631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7712,7 +7726,7 @@
         <v>1822</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1722</v>
@@ -7730,13 +7744,13 @@
         <v>1703</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>1702</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.3">
@@ -8164,10 +8178,10 @@
         <v>941</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -8383,7 +8397,7 @@
         <v>941</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -8431,10 +8445,10 @@
         <v>941</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -9275,6 +9289,9 @@
       <c r="E105" s="4" t="s">
         <v>1826</v>
       </c>
+      <c r="F105" s="2" t="s">
+        <v>2138</v>
+      </c>
       <c r="G105" s="2">
         <v>51.5</v>
       </c>
@@ -9321,7 +9338,7 @@
       <c r="K107" s="5"/>
       <c r="L107" s="4"/>
       <c r="M107" s="5" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -9398,7 +9415,7 @@
         <v>13</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -9746,10 +9763,10 @@
         <v>941</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
@@ -9817,7 +9834,7 @@
         <v>941</v>
       </c>
       <c r="M139" s="5" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
@@ -9902,10 +9919,10 @@
         <v>941</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -10085,7 +10102,7 @@
         <v>941</v>
       </c>
       <c r="M156" s="5" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
@@ -10893,7 +10910,7 @@
         <v>941</v>
       </c>
       <c r="M212" s="5" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
@@ -10966,7 +10983,7 @@
         <v>941</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>1887</v>
@@ -10975,7 +10992,7 @@
         <v>13</v>
       </c>
       <c r="M217" s="5" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
@@ -11205,7 +11222,7 @@
         <v>941</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -11222,7 +11239,7 @@
         <v>941</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -11267,7 +11284,7 @@
         <v>941</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -11284,7 +11301,7 @@
         <v>941</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -11332,7 +11349,7 @@
         <v>941</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.3">
@@ -11493,7 +11510,7 @@
         <v>1764</v>
       </c>
       <c r="M251" s="5" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
@@ -11580,7 +11597,7 @@
         <v>941</v>
       </c>
       <c r="M257" s="5" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
@@ -11614,7 +11631,7 @@
         <v>1802</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G259" s="2">
         <v>51</v>
@@ -11623,7 +11640,7 @@
         <v>3.9527738679245283</v>
       </c>
       <c r="M259" s="5" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
@@ -11663,7 +11680,7 @@
         <v>130</v>
       </c>
       <c r="M261" s="5" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
@@ -11742,7 +11759,7 @@
         <v>1805</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="G266" s="2">
         <v>101</v>
@@ -11833,7 +11850,7 @@
         <v>1829</v>
       </c>
       <c r="M271" s="5" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
@@ -11867,7 +11884,7 @@
         <v>1801</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="G273" s="2">
         <v>580</v>
@@ -11876,7 +11893,7 @@
         <v>7.8397182185007974</v>
       </c>
       <c r="M273" s="5" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
@@ -11921,10 +11938,10 @@
         <v>941</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="M276" s="5" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.3">
@@ -11986,7 +12003,7 @@
         <v>1827</v>
       </c>
       <c r="M280" s="5" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
@@ -12116,7 +12133,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>2355</v>
       </c>
@@ -12130,7 +12147,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>2356</v>
       </c>
@@ -12144,7 +12161,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>2357</v>
       </c>
@@ -12164,7 +12181,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>2358</v>
       </c>
@@ -12178,7 +12195,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>2359</v>
       </c>
@@ -12192,7 +12209,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>2360</v>
       </c>
@@ -12206,7 +12223,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>2362</v>
       </c>
@@ -12220,7 +12237,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>2363</v>
       </c>
@@ -12234,7 +12251,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>2364</v>
       </c>
@@ -12248,7 +12265,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>2365</v>
       </c>
@@ -12262,7 +12279,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>2367</v>
       </c>
@@ -12276,7 +12293,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>2368</v>
       </c>
@@ -12292,14 +12309,11 @@
       <c r="E300" s="2" t="s">
         <v>1770</v>
       </c>
-      <c r="F300" s="2" t="s">
-        <v>1920</v>
-      </c>
       <c r="G300" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
         <v>2369</v>
       </c>
@@ -12313,7 +12327,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
         <v>2371</v>
       </c>
@@ -12330,13 +12344,16 @@
         <v>1810</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>1990</v>
+        <v>2139</v>
       </c>
       <c r="G302" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M302" s="5" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
         <v>2373</v>
       </c>
@@ -12350,7 +12367,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>2374</v>
       </c>
@@ -12387,7 +12404,7 @@
         <v>75</v>
       </c>
       <c r="M305" s="5" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
@@ -12456,7 +12473,7 @@
         <v>280</v>
       </c>
       <c r="M308" s="5" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
@@ -12501,7 +12518,7 @@
         <v>941</v>
       </c>
       <c r="M311" s="5" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
@@ -12518,7 +12535,7 @@
         <v>941</v>
       </c>
       <c r="M312" s="5" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.3">
@@ -12726,10 +12743,10 @@
         <v>941</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="M326" s="5" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
@@ -12749,7 +12766,7 @@
         <v>1806</v>
       </c>
       <c r="M327" s="5" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
@@ -12772,7 +12789,7 @@
         <v>1871</v>
       </c>
       <c r="M328" s="5" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
@@ -13080,7 +13097,7 @@
         <v>41</v>
       </c>
       <c r="M347" s="5" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
@@ -13198,7 +13215,7 @@
         <v>941</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="F355" s="4" t="s">
         <v>1902</v>
@@ -13266,13 +13283,13 @@
         <v>1821</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="L359" s="24">
         <v>0.48331827758816837</v>
       </c>
       <c r="M359" s="5" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.3">
@@ -13309,7 +13326,7 @@
         <v>70</v>
       </c>
       <c r="M361" s="5" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.3">
@@ -13349,7 +13366,7 @@
         <v>160</v>
       </c>
       <c r="M363" s="5" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.3">
@@ -13366,7 +13383,7 @@
         <v>941</v>
       </c>
       <c r="M364" s="5" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.3">
@@ -13467,10 +13484,10 @@
         <v>941</v>
       </c>
       <c r="E371" s="2" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M371" s="5" t="s">
         <v>1934</v>
-      </c>
-      <c r="M371" s="5" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.3">
@@ -13506,7 +13523,7 @@
         <v>2472</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>3</v>
@@ -13524,7 +13541,7 @@
         <v>76</v>
       </c>
       <c r="M374" s="5" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.3">
@@ -13586,7 +13603,7 @@
         <v>1769</v>
       </c>
       <c r="M378" s="5" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.3">
@@ -13626,7 +13643,7 @@
         <v>50</v>
       </c>
       <c r="M380" s="5" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.3">
@@ -13761,7 +13778,7 @@
         <v>1909</v>
       </c>
       <c r="G389" s="2">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.3">
@@ -14774,7 +14791,7 @@
         <v>32</v>
       </c>
       <c r="M459" s="5" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.3">
@@ -14833,7 +14850,7 @@
         <v>941</v>
       </c>
       <c r="M463" s="5" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.3">
@@ -15047,7 +15064,7 @@
         <v>1791</v>
       </c>
       <c r="M477" s="5" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="478" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -15073,7 +15090,7 @@
         <v>30</v>
       </c>
       <c r="M478" s="5" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.3">
@@ -15113,7 +15130,7 @@
         <v>20</v>
       </c>
       <c r="M480" s="5" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="481" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -15139,7 +15156,7 @@
         <v>14</v>
       </c>
       <c r="M481" s="5" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.3">
@@ -15210,7 +15227,7 @@
         <v>941</v>
       </c>
       <c r="M485" s="5" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.3">
@@ -15241,7 +15258,7 @@
         <v>941</v>
       </c>
       <c r="M487" s="5" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.3">
@@ -15258,7 +15275,7 @@
         <v>941</v>
       </c>
       <c r="M488" s="5" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.3">
@@ -15416,7 +15433,7 @@
         <v>1783</v>
       </c>
       <c r="M498" s="5" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.3">
@@ -15531,7 +15548,7 @@
         <v>941</v>
       </c>
       <c r="M506" s="5" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.3">
@@ -15600,7 +15617,7 @@
         <v>1824</v>
       </c>
       <c r="M510" s="5" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.3">
@@ -15716,7 +15733,7 @@
         <v>1713</v>
       </c>
       <c r="M517" s="5" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.3">
@@ -15750,7 +15767,7 @@
         <v>1777</v>
       </c>
       <c r="M519" s="5" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.3">
@@ -15973,7 +15990,7 @@
         <v>260</v>
       </c>
       <c r="M533" s="5" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.3">
@@ -15990,10 +16007,10 @@
         <v>941</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="M534" s="5" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.3">
@@ -16010,7 +16027,7 @@
         <v>941</v>
       </c>
       <c r="M535" s="5" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.3">
@@ -16036,7 +16053,7 @@
         <v>90</v>
       </c>
       <c r="M536" s="5" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="537" spans="1:13" x14ac:dyDescent="0.3">
@@ -16138,10 +16155,10 @@
         <v>941</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="M542" s="5" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.3">
@@ -16164,7 +16181,7 @@
         <v>1871</v>
       </c>
       <c r="M543" s="5" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.3">
@@ -16467,7 +16484,7 @@
         <v>1770</v>
       </c>
       <c r="M564" s="5" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="565" spans="1:13" x14ac:dyDescent="0.3">
@@ -16512,7 +16529,7 @@
         <v>941</v>
       </c>
       <c r="M567" s="5" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="568" spans="1:13" x14ac:dyDescent="0.3">
@@ -16613,10 +16630,10 @@
         <v>941</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="M574" s="5" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.3">
@@ -16689,7 +16706,7 @@
         <v>941</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="580" spans="1:13" x14ac:dyDescent="0.3">
@@ -16765,7 +16782,7 @@
         <v>941</v>
       </c>
       <c r="M584" s="5" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="585" spans="1:13" x14ac:dyDescent="0.3">
@@ -16872,7 +16889,7 @@
         <v>1807</v>
       </c>
       <c r="M591" s="5" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="592" spans="1:13" x14ac:dyDescent="0.3">
@@ -17117,7 +17134,7 @@
         <v>941</v>
       </c>
       <c r="M607" s="5" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.3">
@@ -17230,7 +17247,7 @@
         <v>1820</v>
       </c>
       <c r="M614" s="5" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="615" spans="1:13" x14ac:dyDescent="0.3">
@@ -17331,7 +17348,7 @@
         <v>3665</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>3</v>
@@ -17343,7 +17360,7 @@
         <v>1820</v>
       </c>
       <c r="M621" s="5" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="622" spans="1:13" x14ac:dyDescent="0.3">
@@ -17383,10 +17400,10 @@
         <v>941</v>
       </c>
       <c r="E623" s="2" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M623" s="5" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="624" spans="1:13" x14ac:dyDescent="0.3">
@@ -17403,13 +17420,13 @@
         <v>941</v>
       </c>
       <c r="E624" s="2" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F624" s="2" t="s">
         <v>2118</v>
       </c>
-      <c r="F624" s="2" t="s">
-        <v>2120</v>
-      </c>
       <c r="M624" s="5" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="625" spans="1:13" x14ac:dyDescent="0.3">
@@ -17516,13 +17533,13 @@
         <v>941</v>
       </c>
       <c r="E631" s="2" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="G631" s="2">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M631" s="5" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="632" spans="1:13" x14ac:dyDescent="0.3">
@@ -17587,7 +17604,7 @@
         <v>1793</v>
       </c>
       <c r="M635" s="5" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="636" spans="1:13" x14ac:dyDescent="0.3">
@@ -17734,10 +17751,10 @@
         <v>941</v>
       </c>
       <c r="E644" s="4" t="s">
+        <v>1921</v>
+      </c>
+      <c r="M644" s="5" t="s">
         <v>1922</v>
-      </c>
-      <c r="M644" s="5" t="s">
-        <v>1923</v>
       </c>
     </row>
     <row r="645" spans="1:13" x14ac:dyDescent="0.3">
@@ -18068,13 +18085,13 @@
         <v>941</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="G667" s="2">
         <v>80</v>
       </c>
       <c r="M667" s="5" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="668" spans="1:13" x14ac:dyDescent="0.3">
@@ -18105,7 +18122,7 @@
         <v>941</v>
       </c>
       <c r="E669" s="2" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="670" spans="1:13" x14ac:dyDescent="0.3">
@@ -18192,7 +18209,7 @@
         <v>941</v>
       </c>
       <c r="M675" s="5" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="676" spans="1:13" x14ac:dyDescent="0.3">
@@ -18271,7 +18288,7 @@
         <v>1871</v>
       </c>
       <c r="M680" s="5" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="681" spans="1:13" x14ac:dyDescent="0.3">
@@ -18316,7 +18333,7 @@
         <v>941</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G683" s="2">
         <v>54</v>
@@ -18550,7 +18567,7 @@
         <v>1827</v>
       </c>
       <c r="M698" s="5" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="699" spans="1:13" ht="60" x14ac:dyDescent="0.3">
@@ -18652,10 +18669,10 @@
         <v>941</v>
       </c>
       <c r="E704" s="2" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="M704" s="5" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="705" spans="1:13" x14ac:dyDescent="0.3">
@@ -18898,13 +18915,13 @@
         <v>941</v>
       </c>
       <c r="E719" s="2" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="G719" s="2">
         <v>40</v>
       </c>
       <c r="M719" s="5" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="720" spans="1:13" x14ac:dyDescent="0.3">
@@ -19129,7 +19146,7 @@
         <v>110</v>
       </c>
       <c r="M734" s="5" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="735" spans="1:13" x14ac:dyDescent="0.3">
@@ -19247,13 +19264,13 @@
         <v>1911</v>
       </c>
       <c r="F742" s="2" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="G742" s="2">
         <v>41</v>
       </c>
       <c r="M742" s="5" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="743" spans="1:13" x14ac:dyDescent="0.3">
@@ -19439,7 +19456,7 @@
         <v>33</v>
       </c>
       <c r="M754" s="5" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="755" spans="1:13" x14ac:dyDescent="0.3">
@@ -19622,13 +19639,13 @@
         <v>941</v>
       </c>
       <c r="E766" s="4" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="G766" s="2">
         <v>24.1</v>
       </c>
       <c r="M766" s="5" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="767" spans="1:13" x14ac:dyDescent="0.3">
@@ -19710,7 +19727,7 @@
         <v>41</v>
       </c>
       <c r="M771" s="5" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="772" spans="1:13" x14ac:dyDescent="0.3">
@@ -19772,7 +19789,7 @@
         <v>941</v>
       </c>
       <c r="M775" s="5" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="776" spans="1:13" x14ac:dyDescent="0.3">
@@ -19817,13 +19834,13 @@
         <v>941</v>
       </c>
       <c r="E778" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="F778" s="2" t="s">
         <v>1971</v>
       </c>
-      <c r="F778" s="2" t="s">
+      <c r="M778" s="5" t="s">
         <v>1972</v>
-      </c>
-      <c r="M778" s="5" t="s">
-        <v>1973</v>
       </c>
     </row>
     <row r="779" spans="1:13" x14ac:dyDescent="0.3">
@@ -19871,7 +19888,7 @@
         <v>1713</v>
       </c>
       <c r="M781" s="5" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="782" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -19888,7 +19905,7 @@
         <v>941</v>
       </c>
       <c r="M782" s="5" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="783" spans="1:13" x14ac:dyDescent="0.3">
@@ -19970,7 +19987,7 @@
         <v>941</v>
       </c>
       <c r="M787" s="5" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="788" spans="1:13" ht="90" x14ac:dyDescent="0.3">
@@ -20170,7 +20187,7 @@
         <v>941</v>
       </c>
       <c r="E800" s="2" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.3">
@@ -20204,7 +20221,7 @@
         <v>941</v>
       </c>
       <c r="E802" s="2" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.3">
@@ -20258,7 +20275,7 @@
         <v>32</v>
       </c>
       <c r="M805" s="5" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.3">
@@ -20351,10 +20368,10 @@
         <v>941</v>
       </c>
       <c r="E811" s="2" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="M811" s="5" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.3">
@@ -20385,10 +20402,10 @@
         <v>941</v>
       </c>
       <c r="E813" s="2" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="M813" s="5" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.3">
@@ -20520,10 +20537,10 @@
         <v>941</v>
       </c>
       <c r="E822" s="2" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="M822" s="5" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="823" spans="1:13" x14ac:dyDescent="0.3">
@@ -20701,7 +20718,7 @@
         <v>1795</v>
       </c>
       <c r="M833" s="5" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="834" spans="1:13" x14ac:dyDescent="0.3">
@@ -20879,7 +20896,7 @@
         <v>28</v>
       </c>
       <c r="M844" s="26" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="845" spans="1:13" x14ac:dyDescent="0.3">
@@ -20887,7 +20904,7 @@
         <v>8028</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C845" s="2" t="s">
         <v>3</v>
@@ -20947,7 +20964,7 @@
         <v>1770</v>
       </c>
       <c r="M848" s="5" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="849" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -20964,13 +20981,13 @@
         <v>941</v>
       </c>
       <c r="E849" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F849" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="F849" s="2" t="s">
-        <v>2006</v>
-      </c>
       <c r="M849" s="5" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="850" spans="1:13" x14ac:dyDescent="0.3">
@@ -21434,7 +21451,7 @@
         <v>320</v>
       </c>
       <c r="M880" s="5" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="881" spans="1:13" x14ac:dyDescent="0.3">
@@ -21608,7 +21625,7 @@
         <v>1758</v>
       </c>
       <c r="M892" s="5" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="893" spans="1:13" x14ac:dyDescent="0.3">
@@ -21849,10 +21866,10 @@
         <v>941</v>
       </c>
       <c r="E909" s="2" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="M909" s="5" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="910" spans="1:13" x14ac:dyDescent="0.3">
@@ -22260,16 +22277,16 @@
         <v>941</v>
       </c>
       <c r="E936" s="2" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="F936" s="2" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="G936" s="2">
         <v>80</v>
       </c>
       <c r="M936" s="5" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="937" spans="1:13" x14ac:dyDescent="0.3">
@@ -22596,7 +22613,7 @@
         <v>941</v>
       </c>
       <c r="M957" s="5" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="958" spans="1:13" ht="45" x14ac:dyDescent="0.3">
@@ -22604,7 +22621,7 @@
         <v>1586</v>
       </c>
       <c r="B958" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C958" s="2" t="s">
         <v>1701</v>
@@ -22616,13 +22633,13 @@
         <v>1820</v>
       </c>
       <c r="F958" s="2" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="G958" s="2">
         <v>41</v>
       </c>
       <c r="M958" s="5" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="959" spans="1:13" x14ac:dyDescent="0.3">
@@ -22684,7 +22701,7 @@
         <v>1773</v>
       </c>
       <c r="M962" s="5" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="963" spans="1:13" x14ac:dyDescent="0.3">
@@ -22749,7 +22766,7 @@
         <v>70</v>
       </c>
       <c r="M966" s="5" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="967" spans="1:13" x14ac:dyDescent="0.3">
@@ -22826,7 +22843,7 @@
         <v>110</v>
       </c>
       <c r="M970" s="5" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="971" spans="1:13" x14ac:dyDescent="0.3">
@@ -22964,7 +22981,7 @@
         <v>42</v>
       </c>
       <c r="M979" s="5" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="980" spans="1:13" x14ac:dyDescent="0.3">
@@ -23110,7 +23127,7 @@
         <v>1869</v>
       </c>
       <c r="M989" s="5" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="990" spans="1:13" x14ac:dyDescent="0.3">
@@ -23441,7 +23458,7 @@
         <v>941</v>
       </c>
       <c r="E1012" s="4" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="H1012" s="2">
         <v>50</v>
@@ -23540,7 +23557,7 @@
         <v>1820</v>
       </c>
       <c r="M1018" s="5" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1019" spans="1:13" x14ac:dyDescent="0.3">
@@ -23588,10 +23605,10 @@
         <v>941</v>
       </c>
       <c r="E1021" s="2" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="M1021" s="5" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1022" spans="1:13" x14ac:dyDescent="0.3">
@@ -23661,7 +23678,7 @@
         <v>3128</v>
       </c>
       <c r="B1026" s="1" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="C1026" s="2" t="s">
         <v>1701</v>
@@ -23906,7 +23923,7 @@
         <v>1841</v>
       </c>
       <c r="M1042" s="5" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1043" spans="1:13" x14ac:dyDescent="0.3">
@@ -24182,10 +24199,10 @@
         <v>1827</v>
       </c>
       <c r="F1060" s="2" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="M1060" s="5" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1061" spans="1:14" x14ac:dyDescent="0.3">
@@ -24337,7 +24354,7 @@
         <v>941</v>
       </c>
       <c r="M1070" s="5" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1071" spans="1:14" x14ac:dyDescent="0.3">
@@ -24380,10 +24397,10 @@
         <v>750</v>
       </c>
       <c r="M1072" s="7" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="N1072" s="25" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1073" spans="1:13" x14ac:dyDescent="0.3">
@@ -24535,7 +24552,7 @@
         <v>225</v>
       </c>
       <c r="M1082" s="5" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="1083" spans="1:13" x14ac:dyDescent="0.3">
@@ -24693,7 +24710,7 @@
         <v>272</v>
       </c>
       <c r="G1092" s="2">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1093" spans="1:7" x14ac:dyDescent="0.3">
@@ -24957,7 +24974,7 @@
         <v>941</v>
       </c>
       <c r="M1110" s="5" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1111" spans="1:13" x14ac:dyDescent="0.3">
@@ -25304,7 +25321,7 @@
         <v>250</v>
       </c>
       <c r="M1132" s="7" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1133" spans="1:13" x14ac:dyDescent="0.3">
@@ -25438,7 +25455,7 @@
         <v>3587</v>
       </c>
       <c r="B1142" s="1" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C1142" s="2" t="s">
         <v>1701</v>
@@ -25871,7 +25888,7 @@
         <v>941</v>
       </c>
       <c r="E1171" s="2" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1172" spans="1:14" x14ac:dyDescent="0.3">
@@ -26083,7 +26100,7 @@
         <v>1853</v>
       </c>
       <c r="N1184" s="25" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1185" spans="1:13" x14ac:dyDescent="0.3">
@@ -26201,10 +26218,10 @@
         <v>941</v>
       </c>
       <c r="E1192" s="2" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="M1192" s="5" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1193" spans="1:13" x14ac:dyDescent="0.3">
@@ -26336,7 +26353,7 @@
         <v>941</v>
       </c>
       <c r="M1201" s="5" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1202" spans="1:13" x14ac:dyDescent="0.3">
@@ -26975,7 +26992,7 @@
         <v>941</v>
       </c>
       <c r="E1246" s="2" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1247" spans="1:5" x14ac:dyDescent="0.3">
@@ -27202,10 +27219,10 @@
         <v>941</v>
       </c>
       <c r="E1262" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="M1262" s="5" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1263" spans="1:13" x14ac:dyDescent="0.3">
@@ -27368,10 +27385,10 @@
         <v>941</v>
       </c>
       <c r="E1273" s="2" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="M1273" s="5" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1274" spans="1:13" x14ac:dyDescent="0.3">
@@ -27633,7 +27650,7 @@
         <v>80</v>
       </c>
       <c r="M1290" s="5" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1291" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -27712,10 +27729,10 @@
         <v>941</v>
       </c>
       <c r="E1295" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="M1295" s="5" t="s">
         <v>2000</v>
-      </c>
-      <c r="M1295" s="5" t="s">
-        <v>2002</v>
       </c>
     </row>
     <row r="1296" spans="1:13" x14ac:dyDescent="0.3">
@@ -27802,10 +27819,10 @@
         <v>941</v>
       </c>
       <c r="E1301" s="2" t="s">
+        <v>1956</v>
+      </c>
+      <c r="M1301" s="5" t="s">
         <v>1957</v>
-      </c>
-      <c r="M1301" s="5" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="1302" spans="1:13" x14ac:dyDescent="0.3">
@@ -28044,7 +28061,7 @@
         <v>85</v>
       </c>
       <c r="M1317" s="5" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1318" spans="1:13" x14ac:dyDescent="0.3">
@@ -28480,7 +28497,7 @@
         <v>85</v>
       </c>
       <c r="M1346" s="5" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1347" spans="1:13" x14ac:dyDescent="0.3">
@@ -28570,13 +28587,13 @@
         <v>1807</v>
       </c>
       <c r="F1352" s="2" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="G1352" s="2">
         <v>36</v>
       </c>
       <c r="M1352" s="5" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1353" spans="1:13" x14ac:dyDescent="0.3">
@@ -28694,7 +28711,7 @@
         <v>1769</v>
       </c>
       <c r="M1360" s="5" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1361" spans="1:13" x14ac:dyDescent="0.3">
@@ -28776,7 +28793,7 @@
         <v>941</v>
       </c>
       <c r="E1365" s="4" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F1365" s="2" t="s">
         <v>1907</v>
@@ -28785,7 +28802,7 @@
         <v>41</v>
       </c>
       <c r="M1365" s="5" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1366" spans="1:13" x14ac:dyDescent="0.3">
@@ -28994,7 +29011,7 @@
         <v>1808</v>
       </c>
       <c r="M1378" s="5" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1379" spans="1:13" x14ac:dyDescent="0.3">
@@ -29011,7 +29028,7 @@
         <v>941</v>
       </c>
       <c r="M1379" s="5" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1380" spans="1:13" x14ac:dyDescent="0.3">
@@ -29444,7 +29461,7 @@
         <v>430</v>
       </c>
       <c r="M1408" s="5" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1409" spans="1:13" x14ac:dyDescent="0.3">
@@ -29778,13 +29795,13 @@
         <v>941</v>
       </c>
       <c r="E1431" s="4" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F1431" s="2" t="s">
         <v>1811</v>
       </c>
       <c r="M1431" s="5" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1432" spans="1:13" x14ac:dyDescent="0.3">
@@ -29902,7 +29919,7 @@
         <v>941</v>
       </c>
       <c r="E1439" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="F1439" s="2" t="s">
         <v>1902</v>
@@ -30116,7 +30133,7 @@
         <v>60</v>
       </c>
       <c r="M1453" s="5" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1454" spans="1:13" x14ac:dyDescent="0.3">
@@ -30459,7 +30476,7 @@
         <v>941</v>
       </c>
       <c r="M1476" s="5" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1477" spans="1:13" x14ac:dyDescent="0.3">
@@ -30521,7 +30538,7 @@
         <v>941</v>
       </c>
       <c r="E1480" s="4" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="F1480" s="2" t="s">
         <v>1821</v>
@@ -30530,7 +30547,7 @@
         <v>100</v>
       </c>
       <c r="M1480" s="5" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1481" spans="1:13" x14ac:dyDescent="0.3">
@@ -30929,13 +30946,13 @@
         <v>1804</v>
       </c>
       <c r="F1507" s="2" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="G1507" s="2">
         <v>70</v>
       </c>
       <c r="M1507" s="5" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="1508" spans="1:13" x14ac:dyDescent="0.3">
@@ -31039,7 +31056,7 @@
         <v>1860</v>
       </c>
       <c r="M1514" s="5" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1515" spans="1:13" x14ac:dyDescent="0.3">
@@ -31357,7 +31374,7 @@
         <v>1808</v>
       </c>
       <c r="M1535" s="5" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1536" spans="1:13" x14ac:dyDescent="0.3">
@@ -31416,10 +31433,10 @@
         <v>941</v>
       </c>
       <c r="E1539" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="M1539" s="5" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1540" spans="1:13" x14ac:dyDescent="0.3">
@@ -31481,10 +31498,10 @@
         <v>941</v>
       </c>
       <c r="E1543" s="2" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="M1543" s="5" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1544" spans="1:13" x14ac:dyDescent="0.3">
@@ -31599,10 +31616,10 @@
         <v>941</v>
       </c>
       <c r="E1551" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="M1551" s="5" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1552" spans="1:13" x14ac:dyDescent="0.3">
@@ -31724,7 +31741,7 @@
         <v>941</v>
       </c>
       <c r="M1558" s="5" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1559" spans="1:13" x14ac:dyDescent="0.3">
@@ -32044,10 +32061,10 @@
         <v>941</v>
       </c>
       <c r="E1580" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="M1580" s="5" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1581" spans="1:13" x14ac:dyDescent="0.3">
@@ -32317,7 +32334,7 @@
         <v>941</v>
       </c>
       <c r="E1598" s="4" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="G1598" s="2">
         <v>81</v>
@@ -32430,7 +32447,7 @@
         <v>1783</v>
       </c>
       <c r="M1605" s="5" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="1606" spans="1:13" x14ac:dyDescent="0.3">
@@ -32728,7 +32745,7 @@
         <v>941</v>
       </c>
       <c r="E1625" s="2" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1626" spans="1:7" x14ac:dyDescent="0.3">
@@ -32992,7 +33009,7 @@
         <v>941</v>
       </c>
       <c r="E1643" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="F1643" s="4" t="s">
         <v>1887</v>
@@ -33001,7 +33018,7 @@
         <v>25</v>
       </c>
       <c r="M1643" s="5" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1644" spans="1:13" x14ac:dyDescent="0.3">
@@ -33049,7 +33066,7 @@
         <v>1769</v>
       </c>
       <c r="M1646" s="5" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1647" spans="1:13" x14ac:dyDescent="0.3">
@@ -33080,7 +33097,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1649" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1649" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1649" s="3">
         <v>8284</v>
       </c>
@@ -33094,7 +33111,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1650" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1650" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1650" s="3">
         <v>8289</v>
       </c>
@@ -33108,7 +33125,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1651" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1651" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1651" s="3">
         <v>8291</v>
       </c>
@@ -33122,7 +33139,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1652" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1652" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A1652" s="3">
         <v>8299</v>
       </c>
@@ -33135,11 +33152,17 @@
       <c r="D1652" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="I1652" s="2">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="1653" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E1652" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="G1652" s="2">
+        <v>451</v>
+      </c>
+      <c r="M1652" s="5" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1653" s="3">
         <v>8342</v>
       </c>
@@ -33153,7 +33176,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1654" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1654" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1654" s="3">
         <v>8349</v>
       </c>
@@ -33167,7 +33190,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1655" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1655" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1655" s="3">
         <v>8354</v>
       </c>
@@ -33181,7 +33204,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1656" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1656" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1656" s="3">
         <v>8358</v>
       </c>
@@ -33195,10 +33218,10 @@
         <v>941</v>
       </c>
       <c r="E1656" s="2" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1657" s="3">
         <v>8383</v>
       </c>
@@ -33212,7 +33235,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1658" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1658" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1658" s="3">
         <v>8390</v>
       </c>
@@ -33229,7 +33252,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="1659" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1659" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1659" s="3">
         <v>8401</v>
       </c>
@@ -33243,7 +33266,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1660" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1660" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1660" s="3">
         <v>8403</v>
       </c>
@@ -33257,7 +33280,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1661" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1661" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1661" s="3">
         <v>8406</v>
       </c>
@@ -33271,7 +33294,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1662" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1662" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1662" s="3">
         <v>8409</v>
       </c>
@@ -33285,7 +33308,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1663" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1663" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1663" s="3">
         <v>8410</v>
       </c>
@@ -33299,7 +33322,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="1664" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1664" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1664" s="3">
         <v>8415</v>
       </c>
@@ -33733,16 +33756,16 @@
         <v>941</v>
       </c>
       <c r="E1694" s="2" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F1694" s="2" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G1694" s="2">
         <v>80</v>
       </c>
       <c r="M1694" s="5" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="1695" spans="1:13" x14ac:dyDescent="0.3">
@@ -33902,7 +33925,7 @@
         <v>941</v>
       </c>
       <c r="E1705" s="2" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="G1705" s="2">
         <v>48</v>
@@ -34289,7 +34312,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E2" s="2">
         <v>15877</v>
@@ -34297,22 +34320,22 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>1997</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>1998</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>1999</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA38CB6-0634-4CB3-AC4D-E4ABBF1ADA28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F529621-9AFA-4D17-AA8D-A879415D450A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5851" uniqueCount="2144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5863" uniqueCount="2155">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6711,10 +6711,6 @@
   </si>
   <si>
     <t>[2020 EPS] 0.41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 4.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7104,6 +7100,55 @@
   </si>
   <si>
     <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商用置物設備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 5.63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 5.52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 4.9
+京城銀2月稅前盈餘5.72億元 稅前EPS 0.51元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 0.48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 6.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 10.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 7.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7657,9 +7702,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1064" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1072" sqref="K1072"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A552" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K561" sqref="K561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7712,7 +7757,7 @@
         <v>1715</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>1990</v>
@@ -8411,7 +8456,7 @@
       </c>
       <c r="K44" s="27"/>
       <c r="M44" s="5" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -9364,7 +9409,7 @@
         <v>1825</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="G105" s="2">
         <v>51.5</v>
@@ -9495,7 +9540,7 @@
       </c>
       <c r="K111" s="27"/>
       <c r="M111" s="5" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -9942,7 +9987,7 @@
       </c>
       <c r="K139" s="27"/>
       <c r="M139" s="5" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
@@ -10037,7 +10082,7 @@
         <v>0.9</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -10229,7 +10274,7 @@
       </c>
       <c r="K156" s="27"/>
       <c r="M156" s="5" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
@@ -11095,7 +11140,7 @@
         <v>0.3</v>
       </c>
       <c r="M212" s="5" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
@@ -11172,7 +11217,7 @@
         <v>941</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>1886</v>
@@ -11182,7 +11227,7 @@
       </c>
       <c r="K217" s="27"/>
       <c r="M217" s="5" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
@@ -11829,7 +11874,7 @@
         <v>3.4</v>
       </c>
       <c r="M257" s="5" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
@@ -12192,7 +12237,7 @@
       </c>
       <c r="K276" s="27"/>
       <c r="M276" s="5" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.3">
@@ -12620,14 +12665,14 @@
         <v>1809</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="G302" s="2">
         <v>25</v>
       </c>
       <c r="K302" s="27"/>
       <c r="M302" s="5" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.3">
@@ -12684,7 +12729,7 @@
       </c>
       <c r="K305" s="27"/>
       <c r="M305" s="5" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
@@ -12806,7 +12851,7 @@
         <v>7</v>
       </c>
       <c r="M311" s="5" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
@@ -12824,7 +12869,7 @@
       </c>
       <c r="K312" s="27"/>
       <c r="M312" s="5" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.3">
@@ -13421,7 +13466,7 @@
       </c>
       <c r="K347" s="27"/>
       <c r="M347" s="5" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
@@ -13546,7 +13591,7 @@
         <v>941</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="F355" s="4" t="s">
         <v>1901</v>
@@ -13625,7 +13670,7 @@
         <v>0.48331827758816837</v>
       </c>
       <c r="M359" s="5" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.3">
@@ -13706,7 +13751,7 @@
       </c>
       <c r="K363" s="27"/>
       <c r="M363" s="5" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.3">
@@ -13892,7 +13937,7 @@
       </c>
       <c r="K374" s="27"/>
       <c r="M374" s="5" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.3">
@@ -15203,7 +15248,7 @@
       </c>
       <c r="K458" s="27"/>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A459" s="3">
         <v>2809</v>
       </c>
@@ -15223,11 +15268,11 @@
         <v>1758</v>
       </c>
       <c r="G459" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K459" s="27"/>
       <c r="M459" s="5" t="s">
-        <v>2063</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.3">
@@ -15290,7 +15335,7 @@
       </c>
       <c r="K463" s="27"/>
       <c r="M463" s="5" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.3">
@@ -15587,7 +15632,7 @@
       </c>
       <c r="K480" s="27"/>
       <c r="M480" s="5" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="481" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -16031,7 +16076,7 @@
       </c>
       <c r="K506" s="27"/>
       <c r="M506" s="5" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.3">
@@ -16263,7 +16308,7 @@
       </c>
       <c r="K519" s="27"/>
       <c r="M519" s="5" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.3">
@@ -16539,7 +16584,7 @@
       </c>
       <c r="K535" s="27"/>
       <c r="M535" s="5" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.3">
@@ -16719,7 +16764,7 @@
       </c>
       <c r="K544" s="27"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A545" s="3">
         <v>3047</v>
       </c>
@@ -16734,7 +16779,7 @@
       </c>
       <c r="K545" s="27"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A546" s="3">
         <v>3048</v>
       </c>
@@ -16749,7 +16794,7 @@
       </c>
       <c r="K546" s="27"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A547" s="3">
         <v>3049</v>
       </c>
@@ -16764,7 +16809,7 @@
       </c>
       <c r="K547" s="27"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A548" s="3">
         <v>3050</v>
       </c>
@@ -16779,7 +16824,7 @@
       </c>
       <c r="K548" s="27"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A549" s="3">
         <v>3051</v>
       </c>
@@ -16794,7 +16839,7 @@
       </c>
       <c r="K549" s="27"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A550" s="3">
         <v>3052</v>
       </c>
@@ -16809,7 +16854,7 @@
       </c>
       <c r="K550" s="27"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A551" s="3">
         <v>3054</v>
       </c>
@@ -16824,7 +16869,7 @@
       </c>
       <c r="K551" s="27"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A552" s="3">
         <v>3055</v>
       </c>
@@ -16839,7 +16884,7 @@
       </c>
       <c r="K552" s="27"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A553" s="3">
         <v>3056</v>
       </c>
@@ -16857,7 +16902,7 @@
       </c>
       <c r="K553" s="27"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A554" s="3">
         <v>3058</v>
       </c>
@@ -16872,7 +16917,7 @@
       </c>
       <c r="K554" s="27"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A555" s="3">
         <v>3059</v>
       </c>
@@ -16887,7 +16932,7 @@
       </c>
       <c r="K555" s="27"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A556" s="3">
         <v>3060</v>
       </c>
@@ -16902,7 +16947,7 @@
       </c>
       <c r="K556" s="27"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A557" s="3">
         <v>3062</v>
       </c>
@@ -16917,7 +16962,7 @@
       </c>
       <c r="K557" s="27"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A558" s="3">
         <v>3090</v>
       </c>
@@ -16932,7 +16977,7 @@
       </c>
       <c r="K558" s="27"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A559" s="3">
         <v>3094</v>
       </c>
@@ -16947,7 +16992,7 @@
       </c>
       <c r="K559" s="27"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A560" s="3">
         <v>3130</v>
       </c>
@@ -16960,7 +17005,12 @@
       <c r="D560" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="K560" s="27"/>
+      <c r="K560" s="27" t="s">
+        <v>2154</v>
+      </c>
+      <c r="M560" s="5" t="s">
+        <v>2153</v>
+      </c>
     </row>
     <row r="561" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A561" s="3">
@@ -17180,11 +17230,11 @@
         <v>941</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="K574" s="27"/>
       <c r="M574" s="5" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.3">
@@ -17345,7 +17395,7 @@
         <v>4</v>
       </c>
       <c r="M584" s="5" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="585" spans="1:13" x14ac:dyDescent="0.3">
@@ -17720,7 +17770,7 @@
       </c>
       <c r="K607" s="27"/>
       <c r="M607" s="5" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.3">
@@ -18022,14 +18072,14 @@
         <v>941</v>
       </c>
       <c r="E624" s="2" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="F624" s="2" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="K624" s="27"/>
       <c r="M624" s="5" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="625" spans="1:13" x14ac:dyDescent="0.3">
@@ -18142,7 +18192,7 @@
         <v>941</v>
       </c>
       <c r="E631" s="2" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G631" s="2">
         <v>31</v>
@@ -18737,7 +18787,7 @@
       </c>
       <c r="K667" s="27"/>
       <c r="M667" s="5" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="668" spans="1:13" x14ac:dyDescent="0.3">
@@ -18863,7 +18913,7 @@
       </c>
       <c r="K675" s="27"/>
       <c r="M675" s="5" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="676" spans="1:13" x14ac:dyDescent="0.3">
@@ -19044,7 +19094,12 @@
       <c r="D686" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="K686" s="27"/>
+      <c r="K686" s="27" t="s">
+        <v>2151</v>
+      </c>
+      <c r="M686" s="5" t="s">
+        <v>2150</v>
+      </c>
     </row>
     <row r="687" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A687" s="3">
@@ -19612,14 +19667,14 @@
         <v>941</v>
       </c>
       <c r="E719" s="2" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="G719" s="2">
         <v>40</v>
       </c>
       <c r="K719" s="27"/>
       <c r="M719" s="5" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="720" spans="1:13" x14ac:dyDescent="0.3">
@@ -19859,7 +19914,7 @@
       </c>
       <c r="K734" s="27"/>
       <c r="M734" s="5" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="735" spans="1:13" x14ac:dyDescent="0.3">
@@ -19993,7 +20048,7 @@
         <v>2.5</v>
       </c>
       <c r="M742" s="5" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="743" spans="1:13" x14ac:dyDescent="0.3">
@@ -20191,7 +20246,7 @@
       </c>
       <c r="K754" s="27"/>
       <c r="M754" s="5" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="755" spans="1:13" x14ac:dyDescent="0.3">
@@ -20385,14 +20440,14 @@
         <v>941</v>
       </c>
       <c r="E766" s="4" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G766" s="2">
         <v>24.1</v>
       </c>
       <c r="K766" s="27"/>
       <c r="M766" s="5" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="767" spans="1:13" x14ac:dyDescent="0.3">
@@ -20479,7 +20534,7 @@
       </c>
       <c r="K771" s="27"/>
       <c r="M771" s="5" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="772" spans="1:13" x14ac:dyDescent="0.3">
@@ -20670,7 +20725,7 @@
         <v>0.6</v>
       </c>
       <c r="M782" s="5" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="783" spans="1:13" x14ac:dyDescent="0.3">
@@ -20757,7 +20812,7 @@
       </c>
       <c r="K787" s="27"/>
       <c r="M787" s="5" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="788" spans="1:13" ht="90" x14ac:dyDescent="0.3">
@@ -20953,7 +21008,12 @@
       <c r="D799" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="K799" s="27"/>
+      <c r="K799" s="27" t="s">
+        <v>2144</v>
+      </c>
+      <c r="M799" s="5" t="s">
+        <v>2146</v>
+      </c>
     </row>
     <row r="800" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A800" s="3">
@@ -21063,7 +21123,7 @@
       </c>
       <c r="K805" s="27"/>
       <c r="M805" s="5" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.3">
@@ -21167,7 +21227,7 @@
         <v>5</v>
       </c>
       <c r="M811" s="5" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.3">
@@ -21349,7 +21409,7 @@
         <v>3</v>
       </c>
       <c r="M822" s="5" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="823" spans="1:13" x14ac:dyDescent="0.3">
@@ -21538,7 +21598,7 @@
       </c>
       <c r="K833" s="27"/>
       <c r="M833" s="5" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="834" spans="1:13" x14ac:dyDescent="0.3">
@@ -21729,7 +21789,7 @@
         <v>1.58</v>
       </c>
       <c r="M844" s="26" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="845" spans="1:13" x14ac:dyDescent="0.3">
@@ -21803,7 +21863,7 @@
         <v>3.4</v>
       </c>
       <c r="M848" s="5" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="849" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -22322,7 +22382,7 @@
       </c>
       <c r="K880" s="27"/>
       <c r="M880" s="5" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="881" spans="1:13" x14ac:dyDescent="0.3">
@@ -22398,7 +22458,12 @@
       <c r="D885" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="K885" s="27"/>
+      <c r="K885" s="27" t="s">
+        <v>2149</v>
+      </c>
+      <c r="M885" s="5" t="s">
+        <v>2148</v>
+      </c>
     </row>
     <row r="886" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A886" s="3">
@@ -22765,13 +22830,13 @@
         <v>941</v>
       </c>
       <c r="E909" s="2" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="K909" s="27">
         <v>3.8</v>
       </c>
       <c r="M909" s="5" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="910" spans="1:13" x14ac:dyDescent="0.3">
@@ -23208,7 +23273,7 @@
         <v>1978</v>
       </c>
       <c r="F936" s="2" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="G936" s="2">
         <v>80</v>
@@ -23583,7 +23648,7 @@
         <v>1819</v>
       </c>
       <c r="F958" s="2" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="G958" s="2">
         <v>41</v>
@@ -23957,7 +24022,7 @@
         <v>3</v>
       </c>
       <c r="M979" s="5" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="980" spans="1:13" x14ac:dyDescent="0.3">
@@ -24161,7 +24226,7 @@
       </c>
       <c r="K992" s="27"/>
     </row>
-    <row r="993" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A993" s="3">
         <v>2726</v>
       </c>
@@ -24176,7 +24241,7 @@
       </c>
       <c r="K993" s="27"/>
     </row>
-    <row r="994" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A994" s="3">
         <v>2729</v>
       </c>
@@ -24191,7 +24256,7 @@
       </c>
       <c r="K994" s="27"/>
     </row>
-    <row r="995" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A995" s="3">
         <v>2732</v>
       </c>
@@ -24206,7 +24271,7 @@
       </c>
       <c r="K995" s="27"/>
     </row>
-    <row r="996" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A996" s="3">
         <v>2734</v>
       </c>
@@ -24221,7 +24286,7 @@
       </c>
       <c r="K996" s="27"/>
     </row>
-    <row r="997" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A997" s="3">
         <v>2736</v>
       </c>
@@ -24236,7 +24301,7 @@
       </c>
       <c r="K997" s="27"/>
     </row>
-    <row r="998" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A998" s="3">
         <v>2740</v>
       </c>
@@ -24251,7 +24316,7 @@
       </c>
       <c r="K998" s="27"/>
     </row>
-    <row r="999" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A999" s="3">
         <v>2743</v>
       </c>
@@ -24266,7 +24331,7 @@
       </c>
       <c r="K999" s="27"/>
     </row>
-    <row r="1000" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1000" s="3">
         <v>2745</v>
       </c>
@@ -24281,7 +24346,7 @@
       </c>
       <c r="K1000" s="27"/>
     </row>
-    <row r="1001" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1001" s="3">
         <v>2752</v>
       </c>
@@ -24295,8 +24360,11 @@
         <v>941</v>
       </c>
       <c r="K1001" s="27"/>
-    </row>
-    <row r="1002" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M1001" s="5" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1002" s="3">
         <v>2754</v>
       </c>
@@ -24311,7 +24379,7 @@
       </c>
       <c r="K1002" s="27"/>
     </row>
-    <row r="1003" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1003" s="3">
         <v>2916</v>
       </c>
@@ -24326,7 +24394,7 @@
       </c>
       <c r="K1003" s="27"/>
     </row>
-    <row r="1004" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1004" s="3">
         <v>2924</v>
       </c>
@@ -24341,7 +24409,7 @@
       </c>
       <c r="K1004" s="27"/>
     </row>
-    <row r="1005" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1005" s="3">
         <v>2926</v>
       </c>
@@ -24356,7 +24424,7 @@
       </c>
       <c r="K1005" s="27"/>
     </row>
-    <row r="1006" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1006" s="3">
         <v>2928</v>
       </c>
@@ -24371,7 +24439,7 @@
       </c>
       <c r="K1006" s="27"/>
     </row>
-    <row r="1007" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1007" s="3">
         <v>2937</v>
       </c>
@@ -24389,7 +24457,7 @@
       </c>
       <c r="K1007" s="27"/>
     </row>
-    <row r="1008" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1008" s="3">
         <v>3064</v>
       </c>
@@ -24700,7 +24768,7 @@
         <v>3128</v>
       </c>
       <c r="B1026" s="1" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C1026" s="2" t="s">
         <v>1701</v>
@@ -25255,7 +25323,7 @@
         <v>1826</v>
       </c>
       <c r="F1060" s="2" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="G1060" s="2">
         <v>80</v>
@@ -25424,7 +25492,7 @@
       </c>
       <c r="K1070" s="27"/>
       <c r="M1070" s="5" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="1071" spans="1:14" x14ac:dyDescent="0.3">
@@ -25468,10 +25536,10 @@
         <v>750</v>
       </c>
       <c r="K1072" s="27" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="M1072" s="7" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="N1072" s="25" t="s">
         <v>2005</v>
@@ -25636,7 +25704,7 @@
       </c>
       <c r="K1082" s="27"/>
       <c r="M1082" s="5" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1083" spans="1:13" x14ac:dyDescent="0.3">
@@ -26086,7 +26154,7 @@
       </c>
       <c r="K1110" s="27"/>
       <c r="M1110" s="5" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1111" spans="1:13" x14ac:dyDescent="0.3">
@@ -28663,7 +28731,7 @@
       </c>
       <c r="K1273" s="27"/>
       <c r="M1273" s="5" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1274" spans="1:13" x14ac:dyDescent="0.3">
@@ -29380,7 +29448,7 @@
       </c>
       <c r="K1317" s="27"/>
       <c r="M1317" s="5" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1318" spans="1:13" x14ac:dyDescent="0.3">
@@ -29847,7 +29915,7 @@
         <v>3.5</v>
       </c>
       <c r="M1346" s="5" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1347" spans="1:13" x14ac:dyDescent="0.3">
@@ -29942,7 +30010,7 @@
         <v>1806</v>
       </c>
       <c r="F1352" s="2" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="G1352" s="2">
         <v>36</v>
@@ -31955,10 +32023,10 @@
         <v>941</v>
       </c>
       <c r="K1476" s="27" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="M1476" s="5" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1477" spans="1:13" x14ac:dyDescent="0.3">
@@ -32458,14 +32526,14 @@
         <v>1803</v>
       </c>
       <c r="F1507" s="2" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="G1507" s="2">
         <v>70</v>
       </c>
       <c r="K1507" s="27"/>
       <c r="M1507" s="5" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1508" spans="1:13" x14ac:dyDescent="0.3">
@@ -33050,7 +33118,7 @@
       </c>
       <c r="K1543" s="27"/>
       <c r="M1543" s="5" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="1544" spans="1:13" x14ac:dyDescent="0.3">
@@ -33304,10 +33372,10 @@
         <v>941</v>
       </c>
       <c r="K1558" s="27" t="s">
+        <v>2138</v>
+      </c>
+      <c r="M1558" s="5" t="s">
         <v>2139</v>
-      </c>
-      <c r="M1558" s="5" t="s">
-        <v>2140</v>
       </c>
     </row>
     <row r="1559" spans="1:13" x14ac:dyDescent="0.3">
@@ -33939,7 +34007,7 @@
         <v>941</v>
       </c>
       <c r="E1598" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="G1598" s="2">
         <v>81</v>
@@ -34060,7 +34128,7 @@
       </c>
       <c r="K1605" s="27"/>
       <c r="M1605" s="5" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1606" spans="1:13" x14ac:dyDescent="0.3">
@@ -34669,7 +34737,7 @@
       </c>
       <c r="K1643" s="27"/>
       <c r="M1643" s="5" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1644" spans="1:13" x14ac:dyDescent="0.3">
@@ -34812,14 +34880,14 @@
         <v>941</v>
       </c>
       <c r="E1652" s="2" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="G1652" s="2">
         <v>451</v>
       </c>
       <c r="K1652" s="27"/>
       <c r="M1652" s="5" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1653" spans="1:13" x14ac:dyDescent="0.3">
@@ -34835,7 +34903,15 @@
       <c r="D1653" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="K1653" s="27"/>
+      <c r="E1653" s="2" t="s">
+        <v>2143</v>
+      </c>
+      <c r="K1653" s="27" t="s">
+        <v>2144</v>
+      </c>
+      <c r="M1653" s="5" t="s">
+        <v>2145</v>
+      </c>
     </row>
     <row r="1654" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1654" s="3">
@@ -35466,10 +35542,10 @@
         <v>80</v>
       </c>
       <c r="K1694" s="27" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="M1694" s="5" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1695" spans="1:13" x14ac:dyDescent="0.3">
@@ -35639,7 +35715,7 @@
         <v>941</v>
       </c>
       <c r="E1705" s="2" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="G1705" s="2">
         <v>48</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F529621-9AFA-4D17-AA8D-A879415D450A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3A3CC9-8D59-4DF3-96CE-778933A3083A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5863" uniqueCount="2155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5893" uniqueCount="2181">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7132,10 +7132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2020 EPS] 6.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7149,6 +7145,123 @@
   </si>
   <si>
     <t>7.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不投資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 虧損，2021 不配股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>區間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01 單月EPS 1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製紙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利很低，匯損很嚴重。
+短纖及長纖漿價大幅彈升，分別自去年底的每噸480美元、600美元跳升至3月的734美元、928元，後續期貨報價已炒翻天，預期至6月將上看850、1100美元，漲勢相當驚人。
+[2020 EPS] -0.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋁合金棒及皮件業務
+[2020 EPS] 0.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 1.44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐飲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強固型電腦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強固型電腦、汽車機構件、複合式機構件
+[2020 EPS] 4.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.43+0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 1.51
+2020Q2 寧波薄膜廠在過戶程序完成後，於第三季認列處分利益，每股獲利貢獻約1.5元。
+2021Q1 售出林口悠逸休閒旅館土地，獲利7.7億元，每股獲利貢獻約1.4元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠帶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽車零件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 3.78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季配，但配息率很差
+健身器材及手機零件出貨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 6.31
+泰鼎四大產品線包括HOME、通訊、PC、車用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 4.56
+盛群打入亞馬遜智慧貨架系統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期注意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7703,8 +7816,8 @@
   <dimension ref="A1:N1713"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A552" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K561" sqref="K561"/>
+      <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F771" sqref="F771"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8658,7 +8771,16 @@
       <c r="D56" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="E56" s="4" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>2154</v>
+      </c>
       <c r="K56" s="27"/>
+      <c r="M56" s="5" t="s">
+        <v>2155</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
@@ -9339,7 +9461,19 @@
       <c r="D101" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="E101" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>2157</v>
+      </c>
+      <c r="G101" s="2">
+        <v>150</v>
+      </c>
       <c r="K101" s="27"/>
+      <c r="M101" s="5" t="s">
+        <v>2158</v>
+      </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
@@ -10838,7 +10972,7 @@
       </c>
       <c r="K192" s="27"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>1806</v>
       </c>
@@ -10853,7 +10987,7 @@
       </c>
       <c r="K193" s="27"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>1808</v>
       </c>
@@ -10868,7 +11002,7 @@
       </c>
       <c r="K194" s="27"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>1809</v>
       </c>
@@ -10883,7 +11017,7 @@
       </c>
       <c r="K195" s="27"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>1810</v>
       </c>
@@ -10898,7 +11032,7 @@
       </c>
       <c r="K196" s="27"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>1817</v>
       </c>
@@ -10913,7 +11047,7 @@
       </c>
       <c r="K197" s="27"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>1903</v>
       </c>
@@ -10928,7 +11062,7 @@
       </c>
       <c r="K198" s="27"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>1904</v>
       </c>
@@ -10943,7 +11077,7 @@
       </c>
       <c r="K199" s="27"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>1905</v>
       </c>
@@ -10956,9 +11090,23 @@
       <c r="D200" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="K200" s="27"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E200" s="2" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>2161</v>
+      </c>
+      <c r="G200" s="2">
+        <v>11</v>
+      </c>
+      <c r="K200" s="27" t="s">
+        <v>2159</v>
+      </c>
+      <c r="M200" s="5" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>1906</v>
       </c>
@@ -10973,7 +11121,7 @@
       </c>
       <c r="K201" s="27"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>1907</v>
       </c>
@@ -10988,7 +11136,7 @@
       </c>
       <c r="K202" s="27"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>1909</v>
       </c>
@@ -11003,7 +11151,7 @@
       </c>
       <c r="K203" s="27"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>2002</v>
       </c>
@@ -11018,7 +11166,7 @@
       </c>
       <c r="K204" s="27"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>2006</v>
       </c>
@@ -11033,7 +11181,7 @@
       </c>
       <c r="K205" s="27"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>2007</v>
       </c>
@@ -11048,7 +11196,7 @@
       </c>
       <c r="K206" s="27"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>2008</v>
       </c>
@@ -11063,7 +11211,7 @@
       </c>
       <c r="K207" s="27"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>2009</v>
       </c>
@@ -12492,7 +12640,7 @@
       </c>
       <c r="K291" s="27"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>2358</v>
       </c>
@@ -12505,7 +12653,16 @@
       <c r="D292" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="E292" s="2" t="s">
+        <v>2163</v>
+      </c>
+      <c r="G292" s="2">
+        <v>13</v>
+      </c>
       <c r="K292" s="27"/>
+      <c r="M292" s="5" t="s">
+        <v>2164</v>
+      </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
@@ -15231,7 +15388,18 @@
       <c r="D457" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="K457" s="27"/>
+      <c r="E457" s="2" t="s">
+        <v>2167</v>
+      </c>
+      <c r="G457" s="2">
+        <v>30</v>
+      </c>
+      <c r="K457" s="27" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M457" s="5" t="s">
+        <v>2166</v>
+      </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A458" s="3">
@@ -16094,7 +16262,7 @@
       </c>
       <c r="K507" s="27"/>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A508" s="3">
         <v>3005</v>
       </c>
@@ -16107,7 +16275,18 @@
       <c r="D508" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="K508" s="27"/>
+      <c r="E508" s="2" t="s">
+        <v>2168</v>
+      </c>
+      <c r="G508" s="2">
+        <v>45</v>
+      </c>
+      <c r="K508" s="27" t="s">
+        <v>2170</v>
+      </c>
+      <c r="M508" s="5" t="s">
+        <v>2169</v>
+      </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A509" s="3">
@@ -17006,10 +17185,10 @@
         <v>941</v>
       </c>
       <c r="K560" s="27" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="M560" s="5" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="561" spans="1:13" x14ac:dyDescent="0.3">
@@ -18490,7 +18669,7 @@
       </c>
       <c r="K648" s="27"/>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A649" s="3">
         <v>4306</v>
       </c>
@@ -18503,7 +18682,18 @@
       <c r="D649" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="K649" s="27"/>
+      <c r="E649" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="F649" s="2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="K649" s="27" t="s">
+        <v>2171</v>
+      </c>
+      <c r="M649" s="5" t="s">
+        <v>2172</v>
+      </c>
     </row>
     <row r="650" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A650" s="3">
@@ -18659,6 +18849,9 @@
       <c r="D659" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="E659" s="2" t="s">
+        <v>2174</v>
+      </c>
       <c r="K659" s="27"/>
     </row>
     <row r="660" spans="1:13" x14ac:dyDescent="0.3">
@@ -18896,7 +19089,15 @@
       <c r="D674" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="K674" s="27"/>
+      <c r="E674" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="K674" s="27" t="s">
+        <v>2159</v>
+      </c>
+      <c r="M674" s="5" t="s">
+        <v>2175</v>
+      </c>
     </row>
     <row r="675" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A675" s="3">
@@ -19015,7 +19216,7 @@
       </c>
       <c r="K681" s="27"/>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A682" s="3">
         <v>4912</v>
       </c>
@@ -19028,7 +19229,13 @@
       <c r="D682" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="G682" s="2">
+        <v>120</v>
+      </c>
       <c r="K682" s="27"/>
+      <c r="M682" s="5" t="s">
+        <v>2176</v>
+      </c>
     </row>
     <row r="683" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A683" s="3">
@@ -19081,7 +19288,7 @@
       </c>
       <c r="K685" s="27"/>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A686" s="3">
         <v>4927</v>
       </c>
@@ -19094,11 +19301,14 @@
       <c r="D686" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="G686" s="2">
+        <v>45</v>
+      </c>
       <c r="K686" s="27" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="M686" s="5" t="s">
-        <v>2150</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="687" spans="1:13" x14ac:dyDescent="0.3">
@@ -20495,7 +20705,7 @@
       </c>
       <c r="K769" s="27"/>
     </row>
-    <row r="770" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A770" s="3">
         <v>6202</v>
       </c>
@@ -20508,7 +20718,18 @@
       <c r="D770" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="K770" s="27"/>
+      <c r="F770" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G770" s="2">
+        <v>80</v>
+      </c>
+      <c r="K770" s="27" t="s">
+        <v>2178</v>
+      </c>
+      <c r="M770" s="5" t="s">
+        <v>2179</v>
+      </c>
     </row>
     <row r="771" spans="1:13" ht="60" x14ac:dyDescent="0.3">
       <c r="A771" s="3">
@@ -24361,7 +24582,7 @@
       </c>
       <c r="K1001" s="27"/>
       <c r="M1001" s="5" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1002" spans="1:13" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3A3CC9-8D59-4DF3-96CE-778933A3083A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92725372-1774-4126-82D6-60687476DA74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7816,8 +7816,8 @@
   <dimension ref="A1:N1713"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F771" sqref="F771"/>
+      <pane ySplit="1" topLeftCell="A1052" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1060" sqref="G1060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -16305,7 +16305,7 @@
         <v>1826</v>
       </c>
       <c r="G509" s="2">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="K509" s="27"/>
       <c r="M509" s="7"/>
@@ -25547,7 +25547,7 @@
         <v>2093</v>
       </c>
       <c r="G1060" s="2">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K1060" s="27"/>
       <c r="M1060" s="5" t="s">
@@ -25754,7 +25754,7 @@
         <v>750</v>
       </c>
       <c r="I1072" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K1072" s="27" t="s">
         <v>2142</v>
@@ -31656,7 +31656,7 @@
         <v>1901</v>
       </c>
       <c r="G1439" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K1439" s="27"/>
     </row>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92725372-1774-4126-82D6-60687476DA74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A818ECF-C8C0-4302-8E29-E0579FAFC7BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5893" uniqueCount="2181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5909" uniqueCount="2189">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5731,11 +5731,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等到營收要起來才行
-目標營收 3E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電機機械</t>
   </si>
   <si>
@@ -6041,11 +6036,6 @@
   </si>
   <si>
     <t>連接器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伺服器，其次是筆電產品和車用產品
-凡甲主業為伺服器用線</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6132,10 +6122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自動化系統</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>設備廠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6218,13 +6204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9月 EPS 0.9
-10月 EPS 1.08
-11月營收新高
-2021 EPS上看15 ~ 18塊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>磊晶矽晶圓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6322,10 +6301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>短期注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全球第2大PPTC廠
 營收占比 77%
 合併德商，衝全球第一大散熱基板廠
@@ -6357,10 +6332,6 @@
   </si>
   <si>
     <t>鞋材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配息率太低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6493,10 +6464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020估 4塊，配息3塊。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>半導體</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6506,10 +6473,6 @@
   </si>
   <si>
     <t>運動</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衛星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6865,10 +6828,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>太陽能股中營收比較好，也有在擴廠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>衛星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6888,10 +6847,6 @@
   </si>
   <si>
     <t>[2020 EPS] 11.57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衛星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7001,10 +6956,6 @@
   </si>
   <si>
     <t>[2020 EPS] 4.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 11.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7066,10 +7017,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2020 EPS] 4.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[2020 EPS] 2.04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7247,11 +7194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2020 EPS] 6.31
-泰鼎四大產品線包括HOME、通訊、PC、車用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.56</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7261,7 +7203,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>短期注意</t>
+    <t>晶技1月稅前EPS為0.85元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太陽能股中營收比較好，也有在擴廠。
+不配股配息。不投資。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不投資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配息率太低
+百和1月EPS0.57元
+[2020 EPS] 5.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月 EPS 0.9
+10月 EPS 1.08
+同致1月獲利年增78倍 每股賺1.18元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 3.59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動化系統
+2021/01 營收大減。
+2020 EPS太少，2021 配息不高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] -1.24
+營收要上3E 才有看頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 4.04
+不賣的定存股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC(工業電腦)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 6.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 6.31
+泰鼎四大產品線包括HOME、通訊、PC、車用
+營收成長中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被動元件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 11.3
+銅箔基板(CCL)52.80%
+《電子零件》HDI板夯 台光電今年營運攀峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伺服器，其次是筆電產品和車用產品
+凡甲主業為伺服器用線
+[2020 EPS] 7.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.58</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7815,9 +7856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1713"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1052" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1060" sqref="G1060"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1123" sqref="K1123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7855,7 +7896,7 @@
         <v>1821</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1721</v>
@@ -7870,16 +7911,16 @@
         <v>1715</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>2123</v>
+        <v>2113</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>1702</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>1998</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.3">
@@ -7896,10 +7937,10 @@
         <v>941</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1883</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1884</v>
       </c>
       <c r="G2" s="2">
         <v>40.5</v>
@@ -8118,7 +8159,7 @@
         <v>941</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="K16" s="27"/>
     </row>
@@ -8151,7 +8192,7 @@
         <v>941</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1767</v>
@@ -8235,7 +8276,7 @@
         <v>941</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>1767</v>
@@ -8334,11 +8375,11 @@
         <v>941</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>2050</v>
+        <v>2042</v>
       </c>
       <c r="K29" s="27"/>
       <c r="M29" s="5" t="s">
-        <v>2054</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -8569,7 +8610,7 @@
       </c>
       <c r="K44" s="27"/>
       <c r="M44" s="5" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -8619,11 +8660,11 @@
         <v>941</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>2050</v>
+        <v>2042</v>
       </c>
       <c r="K47" s="27"/>
       <c r="M47" s="5" t="s">
-        <v>2051</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -8775,11 +8816,11 @@
         <v>1813</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>2154</v>
+        <v>2142</v>
       </c>
       <c r="K56" s="27"/>
       <c r="M56" s="5" t="s">
-        <v>2155</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -9462,17 +9503,17 @@
         <v>941</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>2156</v>
+        <v>2144</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>2157</v>
+        <v>2145</v>
       </c>
       <c r="G101" s="2">
         <v>150</v>
       </c>
       <c r="K101" s="27"/>
       <c r="M101" s="5" t="s">
-        <v>2158</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -9543,7 +9584,7 @@
         <v>1825</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>2118</v>
+        <v>2108</v>
       </c>
       <c r="G105" s="2">
         <v>51.5</v>
@@ -9585,7 +9626,7 @@
         <v>1825</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G107" s="2">
         <v>47</v>
@@ -9593,7 +9634,7 @@
       <c r="K107" s="27"/>
       <c r="L107" s="4"/>
       <c r="M107" s="5" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -9614,7 +9655,7 @@
       </c>
       <c r="K108" s="27"/>
       <c r="M108" s="5" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
@@ -9667,14 +9708,14 @@
         <v>1808</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G111" s="2">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="K111" s="27"/>
       <c r="M111" s="5" t="s">
-        <v>2086</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -10045,10 +10086,10 @@
         <v>941</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="K135" s="27"/>
     </row>
@@ -10099,11 +10140,11 @@
         <v>1759</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="K138" s="27"/>
       <c r="M138" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
@@ -10121,7 +10162,7 @@
       </c>
       <c r="K139" s="27"/>
       <c r="M139" s="5" t="s">
-        <v>2072</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
@@ -10210,13 +10251,19 @@
         <v>941</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>2037</v>
+        <v>2029</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G144" s="2">
+        <v>15</v>
       </c>
       <c r="K144" s="27">
         <v>0.9</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>2135</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -10255,7 +10302,7 @@
       </c>
       <c r="K146" s="27"/>
       <c r="M146" s="5" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
@@ -10408,7 +10455,7 @@
       </c>
       <c r="K156" s="27"/>
       <c r="M156" s="5" t="s">
-        <v>2070</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
@@ -10575,11 +10622,11 @@
         <v>941</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="K167" s="27"/>
       <c r="M167" s="5" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
@@ -10761,7 +10808,7 @@
         <v>941</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="K179" s="27"/>
     </row>
@@ -10797,11 +10844,11 @@
         <v>1770</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="K181" s="27"/>
       <c r="M181" s="5" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
@@ -10833,7 +10880,7 @@
         <v>941</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="K183" s="27"/>
     </row>
@@ -11091,19 +11138,19 @@
         <v>941</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>2160</v>
+        <v>2148</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>2161</v>
+        <v>2149</v>
       </c>
       <c r="G200" s="2">
         <v>11</v>
       </c>
       <c r="K200" s="27" t="s">
-        <v>2159</v>
+        <v>2147</v>
       </c>
       <c r="M200" s="5" t="s">
-        <v>2162</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
@@ -11288,7 +11335,7 @@
         <v>0.3</v>
       </c>
       <c r="M212" s="5" t="s">
-        <v>2136</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
@@ -11365,17 +11412,17 @@
         <v>941</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>2088</v>
+        <v>2080</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G217" s="2">
         <v>13</v>
       </c>
       <c r="K217" s="27"/>
       <c r="M217" s="5" t="s">
-        <v>2087</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
@@ -11620,7 +11667,7 @@
         <v>941</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="K233" s="27"/>
     </row>
@@ -11638,7 +11685,7 @@
         <v>941</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="K234" s="27"/>
     </row>
@@ -11686,7 +11733,7 @@
         <v>941</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="K237" s="27"/>
     </row>
@@ -11704,7 +11751,7 @@
         <v>941</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="K238" s="27"/>
     </row>
@@ -11755,7 +11802,7 @@
         <v>941</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="K241" s="27"/>
     </row>
@@ -11927,7 +11974,7 @@
       </c>
       <c r="K251" s="27"/>
       <c r="M251" s="5" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
@@ -12018,11 +12065,17 @@
       <c r="D257" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="F257" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G257" s="2">
+        <v>55</v>
+      </c>
       <c r="K257" s="27">
         <v>3.4</v>
       </c>
       <c r="M257" s="5" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
@@ -12057,7 +12110,7 @@
         <v>1801</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="G259" s="2">
         <v>51</v>
@@ -12067,7 +12120,7 @@
         <v>3.9527738679245283</v>
       </c>
       <c r="M259" s="5" t="s">
-        <v>2045</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
@@ -12102,14 +12155,14 @@
         <v>1759</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="G261" s="2">
         <v>130</v>
       </c>
       <c r="K261" s="27"/>
       <c r="M261" s="5" t="s">
-        <v>2032</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
@@ -12192,7 +12245,7 @@
         <v>1804</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="G266" s="2">
         <v>101</v>
@@ -12202,7 +12255,7 @@
         <v>3.9667649043478264</v>
       </c>
       <c r="M266" s="5" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.3">
@@ -12289,7 +12342,7 @@
       </c>
       <c r="K271" s="27"/>
       <c r="M271" s="5" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
@@ -12324,7 +12377,7 @@
         <v>1800</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="G273" s="2">
         <v>580</v>
@@ -12334,7 +12387,7 @@
         <v>7.8397182185007974</v>
       </c>
       <c r="M273" s="5" t="s">
-        <v>2046</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
@@ -12381,11 +12434,11 @@
         <v>941</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="K276" s="27"/>
       <c r="M276" s="5" t="s">
-        <v>2071</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.3">
@@ -12451,7 +12504,7 @@
       </c>
       <c r="K280" s="27"/>
       <c r="M280" s="5" t="s">
-        <v>2020</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
@@ -12654,14 +12707,14 @@
         <v>941</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>2163</v>
+        <v>2151</v>
       </c>
       <c r="G292" s="2">
         <v>13</v>
       </c>
       <c r="K292" s="27"/>
       <c r="M292" s="5" t="s">
-        <v>2164</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
@@ -12822,14 +12875,14 @@
         <v>1809</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="G302" s="2">
         <v>25</v>
       </c>
       <c r="K302" s="27"/>
       <c r="M302" s="5" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.3">
@@ -12886,7 +12939,7 @@
       </c>
       <c r="K305" s="27"/>
       <c r="M305" s="5" t="s">
-        <v>2067</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
@@ -12906,11 +12959,11 @@
         <v>1757</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="K306" s="27"/>
       <c r="M306" s="5" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.3">
@@ -12930,11 +12983,11 @@
         <v>1757</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="K307" s="27"/>
       <c r="M307" s="5" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="308" spans="1:13" ht="75" x14ac:dyDescent="0.3">
@@ -12958,7 +13011,7 @@
       </c>
       <c r="K308" s="27"/>
       <c r="M308" s="5" t="s">
-        <v>2042</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
@@ -12991,7 +13044,7 @@
       </c>
       <c r="K310" s="27"/>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>2383</v>
       </c>
@@ -13004,11 +13057,17 @@
       <c r="D311" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="E311" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G311" s="2">
+        <v>140</v>
+      </c>
       <c r="K311" s="27">
         <v>7</v>
       </c>
       <c r="M311" s="5" t="s">
-        <v>2125</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
@@ -13026,7 +13085,7 @@
       </c>
       <c r="K312" s="27"/>
       <c r="M312" s="5" t="s">
-        <v>2074</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.3">
@@ -13166,7 +13225,7 @@
         <v>941</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="K321" s="27"/>
     </row>
@@ -13247,11 +13306,11 @@
         <v>941</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>2052</v>
+        <v>2044</v>
       </c>
       <c r="K326" s="27"/>
       <c r="M326" s="5" t="s">
-        <v>2053</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
@@ -13272,7 +13331,7 @@
       </c>
       <c r="K327" s="27"/>
       <c r="M327" s="5" t="s">
-        <v>2025</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
@@ -13292,11 +13351,11 @@
         <v>1802</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="K328" s="27"/>
       <c r="M328" s="5" t="s">
-        <v>2036</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
@@ -13373,14 +13432,14 @@
         <v>1757</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="H332" s="2">
         <v>48</v>
       </c>
       <c r="K332" s="27"/>
       <c r="M332" s="5" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.3">
@@ -13613,17 +13672,17 @@
         <v>941</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="F347" s="4" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G347" s="2">
         <v>41</v>
       </c>
       <c r="K347" s="27"/>
       <c r="M347" s="5" t="s">
-        <v>2089</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
@@ -13748,10 +13807,10 @@
         <v>941</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>2090</v>
+        <v>2082</v>
       </c>
       <c r="F355" s="4" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G355" s="2">
         <v>38</v>
@@ -13820,14 +13879,14 @@
         <v>1820</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="K359" s="27"/>
       <c r="L359" s="24">
         <v>0.48331827758816837</v>
       </c>
       <c r="M359" s="5" t="s">
-        <v>2073</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.3">
@@ -13866,7 +13925,7 @@
       </c>
       <c r="K361" s="27"/>
       <c r="M361" s="5" t="s">
-        <v>1981</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.3">
@@ -13898,17 +13957,17 @@
         <v>941</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G363" s="2">
         <v>160</v>
       </c>
       <c r="K363" s="27"/>
       <c r="M363" s="5" t="s">
-        <v>2080</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.3">
@@ -13926,7 +13985,7 @@
       </c>
       <c r="K364" s="27"/>
       <c r="M364" s="5" t="s">
-        <v>2034</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.3">
@@ -14033,11 +14092,11 @@
         <v>941</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="K371" s="27"/>
       <c r="M371" s="5" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.3">
@@ -14075,7 +14134,7 @@
         <v>2472</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>3</v>
@@ -14087,14 +14146,14 @@
         <v>1768</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G374" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K374" s="27"/>
       <c r="M374" s="5" t="s">
-        <v>2094</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.3">
@@ -14160,7 +14219,7 @@
       </c>
       <c r="K378" s="27"/>
       <c r="M378" s="5" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.3">
@@ -14195,14 +14254,14 @@
         <v>1768</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G380" s="2">
         <v>50</v>
       </c>
       <c r="K380" s="27"/>
       <c r="M380" s="5" t="s">
-        <v>1982</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.3">
@@ -14279,7 +14338,7 @@
         <v>941</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="K385" s="27"/>
     </row>
@@ -14342,7 +14401,7 @@
         <v>941</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="G389" s="2">
         <v>220</v>
@@ -14576,7 +14635,7 @@
         <v>941</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="K404" s="27"/>
     </row>
@@ -14669,7 +14728,7 @@
         <v>941</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K410" s="27"/>
     </row>
@@ -14807,10 +14866,10 @@
         <v>941</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G419" s="2">
         <v>46</v>
@@ -14846,7 +14905,7 @@
         <v>941</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K421" s="27"/>
     </row>
@@ -15389,16 +15448,16 @@
         <v>941</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>2167</v>
+        <v>2155</v>
       </c>
       <c r="G457" s="2">
         <v>30</v>
       </c>
       <c r="K457" s="27" t="s">
-        <v>2165</v>
+        <v>2153</v>
       </c>
       <c r="M457" s="5" t="s">
-        <v>2166</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.3">
@@ -15440,7 +15499,7 @@
       </c>
       <c r="K459" s="27"/>
       <c r="M459" s="5" t="s">
-        <v>2147</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.3">
@@ -15503,7 +15562,7 @@
       </c>
       <c r="K463" s="27"/>
       <c r="M463" s="5" t="s">
-        <v>2063</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.3">
@@ -15731,7 +15790,7 @@
       </c>
       <c r="K477" s="27"/>
       <c r="M477" s="5" t="s">
-        <v>2049</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="478" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -15758,7 +15817,7 @@
       </c>
       <c r="K478" s="27"/>
       <c r="M478" s="5" t="s">
-        <v>2061</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.3">
@@ -15800,7 +15859,7 @@
       </c>
       <c r="K480" s="27"/>
       <c r="M480" s="5" t="s">
-        <v>2082</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="481" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -15827,7 +15886,7 @@
       </c>
       <c r="K481" s="27"/>
       <c r="M481" s="5" t="s">
-        <v>2060</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.3">
@@ -15902,7 +15961,7 @@
       </c>
       <c r="K485" s="27"/>
       <c r="M485" s="5" t="s">
-        <v>2056</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.3">
@@ -15935,7 +15994,7 @@
       </c>
       <c r="K487" s="27"/>
       <c r="M487" s="5" t="s">
-        <v>2023</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.3">
@@ -15953,7 +16012,7 @@
       </c>
       <c r="K488" s="27"/>
       <c r="M488" s="5" t="s">
-        <v>2028</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.3">
@@ -16015,7 +16074,7 @@
         <v>941</v>
       </c>
       <c r="E492" s="4" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>1767</v>
@@ -16121,7 +16180,7 @@
       </c>
       <c r="K498" s="27"/>
       <c r="M498" s="5" t="s">
-        <v>2024</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.3">
@@ -16244,7 +16303,7 @@
       </c>
       <c r="K506" s="27"/>
       <c r="M506" s="5" t="s">
-        <v>2079</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.3">
@@ -16276,16 +16335,16 @@
         <v>941</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>2168</v>
+        <v>2156</v>
       </c>
       <c r="G508" s="2">
         <v>45</v>
       </c>
       <c r="K508" s="27" t="s">
-        <v>2170</v>
+        <v>2158</v>
       </c>
       <c r="M508" s="5" t="s">
-        <v>2169</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.3">
@@ -16328,7 +16387,7 @@
       </c>
       <c r="K510" s="27"/>
       <c r="M510" s="5" t="s">
-        <v>2047</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.3">
@@ -16394,7 +16453,7 @@
       </c>
       <c r="K514" s="27"/>
       <c r="M514" s="5" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.3">
@@ -16415,7 +16474,7 @@
       </c>
       <c r="K515" s="27"/>
       <c r="M515" s="5" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.3">
@@ -16451,7 +16510,7 @@
       </c>
       <c r="K517" s="27"/>
       <c r="M517" s="5" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.3">
@@ -16487,7 +16546,7 @@
       </c>
       <c r="K519" s="27"/>
       <c r="M519" s="5" t="s">
-        <v>2069</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.3">
@@ -16534,14 +16593,14 @@
         <v>941</v>
       </c>
       <c r="E522" s="4" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="G522" s="2">
         <v>160</v>
       </c>
       <c r="K522" s="27"/>
       <c r="M522" s="5" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.3">
@@ -16636,7 +16695,7 @@
         <v>941</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="G528" s="2">
         <v>36</v>
@@ -16717,14 +16776,14 @@
         <v>941</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="G533" s="2">
         <v>260</v>
       </c>
       <c r="K533" s="27"/>
       <c r="M533" s="5" t="s">
-        <v>2039</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.3">
@@ -16741,11 +16800,11 @@
         <v>941</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="K534" s="27"/>
       <c r="M534" s="5" t="s">
-        <v>2048</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.3">
@@ -16763,7 +16822,7 @@
       </c>
       <c r="K535" s="27"/>
       <c r="M535" s="5" t="s">
-        <v>2075</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.3">
@@ -16790,7 +16849,7 @@
       </c>
       <c r="K536" s="27"/>
       <c r="M536" s="5" t="s">
-        <v>2027</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="537" spans="1:13" x14ac:dyDescent="0.3">
@@ -16841,7 +16900,7 @@
       </c>
       <c r="K539" s="27"/>
       <c r="M539" s="5" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="540" spans="1:13" x14ac:dyDescent="0.3">
@@ -16861,12 +16920,15 @@
         <v>1768</v>
       </c>
       <c r="F540" s="4" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G540" s="2">
         <v>90</v>
       </c>
       <c r="K540" s="27"/>
+      <c r="M540" s="5" t="s">
+        <v>2167</v>
+      </c>
     </row>
     <row r="541" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A541" s="3">
@@ -16897,11 +16959,11 @@
         <v>941</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>2029</v>
+        <v>2021</v>
       </c>
       <c r="K542" s="27"/>
       <c r="M542" s="5" t="s">
-        <v>2030</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.3">
@@ -16921,11 +16983,11 @@
         <v>1802</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="K543" s="27"/>
       <c r="M543" s="5" t="s">
-        <v>2043</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.3">
@@ -17077,7 +17139,7 @@
         <v>941</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K553" s="27"/>
     </row>
@@ -17185,10 +17247,10 @@
         <v>941</v>
       </c>
       <c r="K560" s="27" t="s">
-        <v>2153</v>
+        <v>2141</v>
       </c>
       <c r="M560" s="5" t="s">
-        <v>2152</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="561" spans="1:13" x14ac:dyDescent="0.3">
@@ -17254,7 +17316,7 @@
       </c>
       <c r="K564" s="27"/>
       <c r="M564" s="5" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="565" spans="1:13" x14ac:dyDescent="0.3">
@@ -17302,7 +17364,7 @@
       </c>
       <c r="K567" s="27"/>
       <c r="M567" s="5" t="s">
-        <v>2059</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="568" spans="1:13" x14ac:dyDescent="0.3">
@@ -17409,11 +17471,11 @@
         <v>941</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>2108</v>
+        <v>2098</v>
       </c>
       <c r="K574" s="27"/>
       <c r="M574" s="5" t="s">
-        <v>2109</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.3">
@@ -17490,7 +17552,7 @@
         <v>941</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="K579" s="27"/>
     </row>
@@ -17570,11 +17632,20 @@
       <c r="D584" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="E584" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="F584" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G584" s="2">
+        <v>72</v>
+      </c>
       <c r="K584" s="27">
         <v>4</v>
       </c>
       <c r="M584" s="5" t="s">
-        <v>2126</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="585" spans="1:13" x14ac:dyDescent="0.3">
@@ -17688,7 +17759,7 @@
       </c>
       <c r="K591" s="27"/>
       <c r="M591" s="5" t="s">
-        <v>2026</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="592" spans="1:13" x14ac:dyDescent="0.3">
@@ -17754,7 +17825,7 @@
       </c>
       <c r="K595" s="27"/>
       <c r="M595" s="5" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="596" spans="1:13" x14ac:dyDescent="0.3">
@@ -17841,7 +17912,7 @@
       </c>
       <c r="K600" s="27"/>
       <c r="M600" s="5" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="601" spans="1:13" x14ac:dyDescent="0.3">
@@ -17949,7 +18020,7 @@
       </c>
       <c r="K607" s="27"/>
       <c r="M607" s="5" t="s">
-        <v>2081</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.3">
@@ -18069,7 +18140,7 @@
       </c>
       <c r="K614" s="27"/>
       <c r="M614" s="5" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="615" spans="1:13" x14ac:dyDescent="0.3">
@@ -18146,7 +18217,7 @@
         <v>941</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G619" s="2">
         <v>160</v>
@@ -18176,7 +18247,7 @@
         <v>3665</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>3</v>
@@ -18189,7 +18260,7 @@
       </c>
       <c r="K621" s="27"/>
       <c r="M621" s="5" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="622" spans="1:13" x14ac:dyDescent="0.3">
@@ -18209,7 +18280,7 @@
         <v>1757</v>
       </c>
       <c r="F622" s="2" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="H622" s="2">
         <v>70</v>
@@ -18230,11 +18301,11 @@
         <v>941</v>
       </c>
       <c r="E623" s="2" t="s">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="K623" s="27"/>
       <c r="M623" s="5" t="s">
-        <v>2019</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="624" spans="1:13" x14ac:dyDescent="0.3">
@@ -18251,14 +18322,17 @@
         <v>941</v>
       </c>
       <c r="E624" s="2" t="s">
-        <v>2099</v>
+        <v>2090</v>
       </c>
       <c r="F624" s="2" t="s">
-        <v>2101</v>
+        <v>1900</v>
+      </c>
+      <c r="H624" s="2">
+        <v>120</v>
       </c>
       <c r="K624" s="27"/>
       <c r="M624" s="5" t="s">
-        <v>2100</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="625" spans="1:13" x14ac:dyDescent="0.3">
@@ -18371,14 +18445,14 @@
         <v>941</v>
       </c>
       <c r="E631" s="2" t="s">
-        <v>2091</v>
+        <v>2083</v>
       </c>
       <c r="G631" s="2">
         <v>31</v>
       </c>
       <c r="K631" s="27"/>
       <c r="M631" s="5" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="632" spans="1:13" x14ac:dyDescent="0.3">
@@ -18447,7 +18521,7 @@
       </c>
       <c r="K635" s="27"/>
       <c r="M635" s="5" t="s">
-        <v>2022</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="636" spans="1:13" x14ac:dyDescent="0.3">
@@ -18479,17 +18553,17 @@
         <v>941</v>
       </c>
       <c r="E637" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G637" s="2">
         <v>48</v>
       </c>
       <c r="K637" s="27"/>
       <c r="M637" s="5" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="638" spans="1:13" x14ac:dyDescent="0.3">
@@ -18536,7 +18610,7 @@
         <v>941</v>
       </c>
       <c r="E640" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G640" s="2">
         <v>80</v>
@@ -18602,11 +18676,11 @@
         <v>941</v>
       </c>
       <c r="E644" s="4" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="K644" s="27"/>
       <c r="M644" s="5" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="645" spans="1:13" x14ac:dyDescent="0.3">
@@ -18683,16 +18757,16 @@
         <v>941</v>
       </c>
       <c r="E649" s="2" t="s">
-        <v>2173</v>
+        <v>2161</v>
       </c>
       <c r="F649" s="2" t="s">
-        <v>2154</v>
+        <v>2142</v>
       </c>
       <c r="K649" s="27" t="s">
-        <v>2171</v>
+        <v>2159</v>
       </c>
       <c r="M649" s="5" t="s">
-        <v>2172</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="650" spans="1:13" x14ac:dyDescent="0.3">
@@ -18850,7 +18924,7 @@
         <v>941</v>
       </c>
       <c r="E659" s="2" t="s">
-        <v>2174</v>
+        <v>2162</v>
       </c>
       <c r="K659" s="27"/>
     </row>
@@ -18973,14 +19047,14 @@
         <v>941</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>2031</v>
+        <v>2023</v>
       </c>
       <c r="G667" s="2">
         <v>80</v>
       </c>
       <c r="K667" s="27"/>
       <c r="M667" s="5" t="s">
-        <v>2111</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="668" spans="1:13" x14ac:dyDescent="0.3">
@@ -19012,7 +19086,7 @@
         <v>941</v>
       </c>
       <c r="E669" s="2" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="K669" s="27"/>
     </row>
@@ -19090,13 +19164,13 @@
         <v>941</v>
       </c>
       <c r="E674" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="K674" s="27" t="s">
-        <v>2159</v>
+        <v>2147</v>
       </c>
       <c r="M674" s="5" t="s">
-        <v>2175</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="675" spans="1:13" x14ac:dyDescent="0.3">
@@ -19114,7 +19188,7 @@
       </c>
       <c r="K675" s="27"/>
       <c r="M675" s="5" t="s">
-        <v>2114</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="676" spans="1:13" x14ac:dyDescent="0.3">
@@ -19194,11 +19268,11 @@
         <v>1802</v>
       </c>
       <c r="F680" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="K680" s="27"/>
       <c r="M680" s="5" t="s">
-        <v>2044</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="681" spans="1:13" x14ac:dyDescent="0.3">
@@ -19234,7 +19308,7 @@
       </c>
       <c r="K682" s="27"/>
       <c r="M682" s="5" t="s">
-        <v>2176</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="683" spans="1:13" x14ac:dyDescent="0.3">
@@ -19251,7 +19325,7 @@
         <v>941</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="G683" s="2">
         <v>54</v>
@@ -19288,7 +19362,7 @@
       </c>
       <c r="K685" s="27"/>
     </row>
-    <row r="686" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A686" s="3">
         <v>4927</v>
       </c>
@@ -19301,14 +19375,17 @@
       <c r="D686" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="E686" s="2" t="s">
+        <v>2183</v>
+      </c>
       <c r="G686" s="2">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="K686" s="27" t="s">
-        <v>2150</v>
+        <v>2138</v>
       </c>
       <c r="M686" s="5" t="s">
-        <v>2177</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="687" spans="1:13" x14ac:dyDescent="0.3">
@@ -19362,7 +19439,7 @@
       </c>
       <c r="K689" s="27"/>
       <c r="M689" s="5" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="690" spans="1:13" x14ac:dyDescent="0.3">
@@ -19509,7 +19586,7 @@
       </c>
       <c r="K698" s="27"/>
       <c r="M698" s="5" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="699" spans="1:13" ht="60" x14ac:dyDescent="0.3">
@@ -19526,14 +19603,14 @@
         <v>941</v>
       </c>
       <c r="E699" s="2" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="G699" s="2">
         <v>200</v>
       </c>
       <c r="K699" s="27"/>
       <c r="M699" s="5" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="700" spans="1:13" x14ac:dyDescent="0.3">
@@ -19616,11 +19693,11 @@
         <v>941</v>
       </c>
       <c r="E704" s="2" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="K704" s="27"/>
       <c r="M704" s="5" t="s">
-        <v>2016</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="705" spans="1:13" x14ac:dyDescent="0.3">
@@ -19757,7 +19834,7 @@
         <v>941</v>
       </c>
       <c r="E712" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="K712" s="27"/>
     </row>
@@ -19877,14 +19954,14 @@
         <v>941</v>
       </c>
       <c r="E719" s="2" t="s">
-        <v>2104</v>
+        <v>2094</v>
       </c>
       <c r="G719" s="2">
         <v>40</v>
       </c>
       <c r="K719" s="27"/>
       <c r="M719" s="5" t="s">
-        <v>2106</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="720" spans="1:13" x14ac:dyDescent="0.3">
@@ -20036,7 +20113,7 @@
         <v>941</v>
       </c>
       <c r="E729" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="K729" s="27"/>
     </row>
@@ -20114,17 +20191,17 @@
         <v>941</v>
       </c>
       <c r="E734" s="4" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="F734" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G734" s="2">
         <v>110</v>
       </c>
       <c r="K734" s="27"/>
       <c r="M734" s="5" t="s">
-        <v>2115</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="735" spans="1:13" x14ac:dyDescent="0.3">
@@ -20246,10 +20323,10 @@
         <v>941</v>
       </c>
       <c r="E742" s="2" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="F742" s="2" t="s">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="G742" s="2">
         <v>41</v>
@@ -20258,7 +20335,7 @@
         <v>2.5</v>
       </c>
       <c r="M742" s="5" t="s">
-        <v>2127</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="743" spans="1:13" x14ac:dyDescent="0.3">
@@ -20446,7 +20523,7 @@
         <v>941</v>
       </c>
       <c r="E754" s="4" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="F754" s="2" t="s">
         <v>1764</v>
@@ -20456,7 +20533,7 @@
       </c>
       <c r="K754" s="27"/>
       <c r="M754" s="5" t="s">
-        <v>2112</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="755" spans="1:13" x14ac:dyDescent="0.3">
@@ -20593,7 +20670,7 @@
         <v>941</v>
       </c>
       <c r="E763" s="2" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="F763" s="2" t="s">
         <v>1767</v>
@@ -20650,14 +20727,14 @@
         <v>941</v>
       </c>
       <c r="E766" s="4" t="s">
-        <v>2102</v>
+        <v>2092</v>
       </c>
       <c r="G766" s="2">
         <v>24.1</v>
       </c>
       <c r="K766" s="27"/>
       <c r="M766" s="5" t="s">
-        <v>2103</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="767" spans="1:13" x14ac:dyDescent="0.3">
@@ -20718,17 +20795,17 @@
       <c r="D770" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="F770" s="2" t="s">
-        <v>2180</v>
+      <c r="E770" s="2" t="s">
+        <v>1858</v>
       </c>
       <c r="G770" s="2">
         <v>80</v>
       </c>
       <c r="K770" s="27" t="s">
-        <v>2178</v>
+        <v>2165</v>
       </c>
       <c r="M770" s="5" t="s">
-        <v>2179</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="771" spans="1:13" ht="60" x14ac:dyDescent="0.3">
@@ -20748,14 +20825,14 @@
         <v>1819</v>
       </c>
       <c r="F771" s="2" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G771" s="2">
         <v>41</v>
       </c>
       <c r="K771" s="27"/>
       <c r="M771" s="5" t="s">
-        <v>2092</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="772" spans="1:13" x14ac:dyDescent="0.3">
@@ -20821,7 +20898,7 @@
       </c>
       <c r="K775" s="27"/>
       <c r="M775" s="5" t="s">
-        <v>2040</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="776" spans="1:13" x14ac:dyDescent="0.3">
@@ -20868,14 +20945,14 @@
         <v>941</v>
       </c>
       <c r="E778" s="2" t="s">
-        <v>1969</v>
-      </c>
-      <c r="F778" s="2" t="s">
-        <v>1970</v>
+        <v>1965</v>
+      </c>
+      <c r="G778" s="2">
+        <v>75</v>
       </c>
       <c r="K778" s="27"/>
       <c r="M778" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="779" spans="1:13" x14ac:dyDescent="0.3">
@@ -20926,7 +21003,7 @@
       </c>
       <c r="K781" s="27"/>
       <c r="M781" s="5" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="782" spans="1:13" x14ac:dyDescent="0.3">
@@ -20946,7 +21023,7 @@
         <v>0.6</v>
       </c>
       <c r="M782" s="5" t="s">
-        <v>2128</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="783" spans="1:13" x14ac:dyDescent="0.3">
@@ -21033,7 +21110,7 @@
       </c>
       <c r="K787" s="27"/>
       <c r="M787" s="5" t="s">
-        <v>2066</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="788" spans="1:13" ht="90" x14ac:dyDescent="0.3">
@@ -21230,10 +21307,10 @@
         <v>941</v>
       </c>
       <c r="K799" s="27" t="s">
-        <v>2144</v>
+        <v>2132</v>
       </c>
       <c r="M799" s="5" t="s">
-        <v>2146</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="800" spans="1:13" x14ac:dyDescent="0.3">
@@ -21250,7 +21327,7 @@
         <v>941</v>
       </c>
       <c r="E800" s="2" t="s">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="K800" s="27"/>
     </row>
@@ -21268,7 +21345,7 @@
         <v>941</v>
       </c>
       <c r="E801" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="K801" s="27"/>
     </row>
@@ -21286,7 +21363,7 @@
         <v>941</v>
       </c>
       <c r="E802" s="2" t="s">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="K802" s="27"/>
     </row>
@@ -21320,7 +21397,7 @@
       </c>
       <c r="K804" s="27"/>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A805" s="3">
         <v>6443</v>
       </c>
@@ -21337,14 +21414,13 @@
         <v>1710</v>
       </c>
       <c r="F805" s="2" t="s">
-        <v>1901</v>
-      </c>
-      <c r="G805" s="2">
-        <v>32</v>
-      </c>
-      <c r="K805" s="27"/>
+        <v>2170</v>
+      </c>
+      <c r="K805" s="27" t="s">
+        <v>2168</v>
+      </c>
       <c r="M805" s="5" t="s">
-        <v>2095</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.3">
@@ -21442,13 +21518,13 @@
         <v>941</v>
       </c>
       <c r="E811" s="2" t="s">
-        <v>2041</v>
+        <v>2033</v>
       </c>
       <c r="K811" s="27">
         <v>5</v>
       </c>
       <c r="M811" s="5" t="s">
-        <v>2129</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.3">
@@ -21480,11 +21556,11 @@
         <v>941</v>
       </c>
       <c r="E813" s="2" t="s">
-        <v>2050</v>
+        <v>2042</v>
       </c>
       <c r="K813" s="27"/>
       <c r="M813" s="5" t="s">
-        <v>2055</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.3">
@@ -21608,6 +21684,9 @@
       <c r="D821" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="E821" s="2" t="s">
+        <v>2180</v>
+      </c>
       <c r="K821" s="27"/>
     </row>
     <row r="822" spans="1:13" x14ac:dyDescent="0.3">
@@ -21624,13 +21703,13 @@
         <v>941</v>
       </c>
       <c r="E822" s="2" t="s">
-        <v>2033</v>
+        <v>2025</v>
       </c>
       <c r="K822" s="27">
         <v>3</v>
       </c>
       <c r="M822" s="5" t="s">
-        <v>2130</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="823" spans="1:13" x14ac:dyDescent="0.3">
@@ -21686,7 +21765,7 @@
         <v>941</v>
       </c>
       <c r="E825" s="4" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G825" s="2">
         <v>50</v>
@@ -21707,7 +21786,7 @@
         <v>941</v>
       </c>
       <c r="E826" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="K826" s="27"/>
     </row>
@@ -21819,7 +21898,7 @@
       </c>
       <c r="K833" s="27"/>
       <c r="M833" s="5" t="s">
-        <v>2064</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="834" spans="1:13" x14ac:dyDescent="0.3">
@@ -21921,7 +22000,7 @@
       </c>
       <c r="K839" s="27"/>
       <c r="M839" s="5" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="840" spans="1:13" x14ac:dyDescent="0.3">
@@ -21998,10 +22077,10 @@
         <v>941</v>
       </c>
       <c r="E844" s="4" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="F844" s="2" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="G844" s="2">
         <v>28</v>
@@ -22010,7 +22089,7 @@
         <v>1.58</v>
       </c>
       <c r="M844" s="26" t="s">
-        <v>2131</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="845" spans="1:13" x14ac:dyDescent="0.3">
@@ -22018,7 +22097,7 @@
         <v>8028</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
       <c r="C845" s="2" t="s">
         <v>3</v>
@@ -22084,7 +22163,7 @@
         <v>3.4</v>
       </c>
       <c r="M848" s="5" t="s">
-        <v>2132</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="849" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -22101,14 +22180,14 @@
         <v>941</v>
       </c>
       <c r="E849" s="2" t="s">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="F849" s="2" t="s">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="K849" s="27"/>
       <c r="M849" s="5" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="850" spans="1:13" x14ac:dyDescent="0.3">
@@ -22140,11 +22219,11 @@
         <v>941</v>
       </c>
       <c r="E851" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="K851" s="27"/>
       <c r="M851" s="5" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="852" spans="1:13" x14ac:dyDescent="0.3">
@@ -22449,14 +22528,14 @@
         <v>941</v>
       </c>
       <c r="E871" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="F871" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="K871" s="27"/>
       <c r="M871" s="5" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="872" spans="1:13" x14ac:dyDescent="0.3">
@@ -22593,17 +22672,17 @@
         <v>941</v>
       </c>
       <c r="E880" s="2" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="F880" s="2" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="G880" s="2">
         <v>320</v>
       </c>
       <c r="K880" s="27"/>
       <c r="M880" s="5" t="s">
-        <v>2068</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="881" spans="1:13" x14ac:dyDescent="0.3">
@@ -22680,10 +22759,10 @@
         <v>941</v>
       </c>
       <c r="K885" s="27" t="s">
-        <v>2149</v>
+        <v>2137</v>
       </c>
       <c r="M885" s="5" t="s">
-        <v>2148</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="886" spans="1:13" x14ac:dyDescent="0.3">
@@ -22794,7 +22873,7 @@
       </c>
       <c r="K892" s="27"/>
       <c r="M892" s="5" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="893" spans="1:13" x14ac:dyDescent="0.3">
@@ -23051,13 +23130,16 @@
         <v>941</v>
       </c>
       <c r="E909" s="2" t="s">
-        <v>2110</v>
+        <v>2100</v>
+      </c>
+      <c r="G909" s="2">
+        <v>72</v>
       </c>
       <c r="K909" s="27">
         <v>3.8</v>
       </c>
       <c r="M909" s="5" t="s">
-        <v>2133</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="910" spans="1:13" x14ac:dyDescent="0.3">
@@ -23260,11 +23342,11 @@
         <v>1815</v>
       </c>
       <c r="F922" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="K922" s="27"/>
       <c r="M922" s="5" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="923" spans="1:13" x14ac:dyDescent="0.3">
@@ -23299,7 +23381,7 @@
         <v>941</v>
       </c>
       <c r="E924" s="2" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F924" s="2" t="s">
         <v>1767</v>
@@ -23309,7 +23391,7 @@
       </c>
       <c r="K924" s="27"/>
       <c r="M924" s="5" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="925" spans="1:13" x14ac:dyDescent="0.3">
@@ -23477,7 +23559,7 @@
       </c>
       <c r="K935" s="27"/>
     </row>
-    <row r="936" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A936" s="3">
         <v>9938</v>
       </c>
@@ -23491,17 +23573,17 @@
         <v>941</v>
       </c>
       <c r="E936" s="2" t="s">
-        <v>1978</v>
+        <v>1973</v>
       </c>
       <c r="F936" s="2" t="s">
-        <v>2096</v>
+        <v>2087</v>
       </c>
       <c r="G936" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K936" s="27"/>
       <c r="M936" s="5" t="s">
-        <v>1979</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="937" spans="1:13" x14ac:dyDescent="0.3">
@@ -23548,10 +23630,10 @@
         <v>941</v>
       </c>
       <c r="E939" s="4" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="F939" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G939" s="2">
         <v>95</v>
@@ -23587,17 +23669,17 @@
         <v>941</v>
       </c>
       <c r="E941" s="4" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="F941" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G941" s="2">
         <v>55</v>
       </c>
       <c r="K941" s="27"/>
       <c r="M941" s="5" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="942" spans="1:13" x14ac:dyDescent="0.3">
@@ -23681,7 +23763,7 @@
       </c>
       <c r="K946" s="27"/>
       <c r="M946" s="5" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="947" spans="1:13" x14ac:dyDescent="0.3">
@@ -23849,7 +23931,7 @@
       </c>
       <c r="K957" s="27"/>
       <c r="M957" s="5" t="s">
-        <v>2062</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="958" spans="1:13" ht="45" x14ac:dyDescent="0.3">
@@ -23857,7 +23939,7 @@
         <v>1586</v>
       </c>
       <c r="B958" s="1" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="C958" s="2" t="s">
         <v>1701</v>
@@ -23869,14 +23951,14 @@
         <v>1819</v>
       </c>
       <c r="F958" s="2" t="s">
-        <v>2093</v>
+        <v>2085</v>
       </c>
       <c r="G958" s="2">
         <v>41</v>
       </c>
       <c r="K958" s="27"/>
       <c r="M958" s="5" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="959" spans="1:13" x14ac:dyDescent="0.3">
@@ -23944,7 +24026,7 @@
         <v>1.5</v>
       </c>
       <c r="M962" s="5" t="s">
-        <v>2023</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="963" spans="1:13" x14ac:dyDescent="0.3">
@@ -24006,14 +24088,14 @@
         <v>941</v>
       </c>
       <c r="E966" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G966" s="2">
         <v>70</v>
       </c>
       <c r="K966" s="27"/>
       <c r="M966" s="5" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="967" spans="1:13" x14ac:dyDescent="0.3">
@@ -24084,7 +24166,7 @@
         <v>941</v>
       </c>
       <c r="E970" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="F970" s="2" t="s">
         <v>1767</v>
@@ -24094,7 +24176,7 @@
       </c>
       <c r="K970" s="27"/>
       <c r="M970" s="5" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="971" spans="1:13" x14ac:dyDescent="0.3">
@@ -24217,7 +24299,7 @@
       </c>
       <c r="K978" s="27"/>
     </row>
-    <row r="979" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A979" s="3">
         <v>2065</v>
       </c>
@@ -24231,19 +24313,19 @@
         <v>941</v>
       </c>
       <c r="E979" s="2" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="F979" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G979" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K979" s="27">
         <v>3</v>
       </c>
       <c r="M979" s="5" t="s">
-        <v>2134</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="980" spans="1:13" x14ac:dyDescent="0.3">
@@ -24395,11 +24477,11 @@
         <v>941</v>
       </c>
       <c r="E989" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="K989" s="27"/>
       <c r="M989" s="5" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="990" spans="1:13" x14ac:dyDescent="0.3">
@@ -24582,7 +24664,7 @@
       </c>
       <c r="K1001" s="27"/>
       <c r="M1001" s="5" t="s">
-        <v>2151</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1002" spans="1:13" x14ac:dyDescent="0.3">
@@ -24755,7 +24837,7 @@
         <v>941</v>
       </c>
       <c r="E1012" s="4" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="H1012" s="2">
         <v>50</v>
@@ -24861,7 +24943,7 @@
       </c>
       <c r="K1018" s="27"/>
       <c r="M1018" s="5" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1019" spans="1:13" x14ac:dyDescent="0.3">
@@ -24911,11 +24993,11 @@
         <v>941</v>
       </c>
       <c r="E1021" s="2" t="s">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="K1021" s="27"/>
       <c r="M1021" s="5" t="s">
-        <v>2038</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1022" spans="1:13" x14ac:dyDescent="0.3">
@@ -24989,7 +25071,7 @@
         <v>3128</v>
       </c>
       <c r="B1026" s="1" t="s">
-        <v>2078</v>
+        <v>2070</v>
       </c>
       <c r="C1026" s="2" t="s">
         <v>1701</v>
@@ -25148,7 +25230,7 @@
         <v>941</v>
       </c>
       <c r="E1036" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="K1036" s="27"/>
     </row>
@@ -25251,7 +25333,7 @@
       </c>
       <c r="K1042" s="27"/>
       <c r="M1042" s="5" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1043" spans="1:13" x14ac:dyDescent="0.3">
@@ -25338,7 +25420,7 @@
       </c>
       <c r="K1047" s="27"/>
       <c r="M1047" s="5" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1048" spans="1:13" x14ac:dyDescent="0.3">
@@ -25430,7 +25512,7 @@
         <v>941</v>
       </c>
       <c r="E1053" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="G1053" s="2">
         <v>240</v>
@@ -25544,14 +25626,14 @@
         <v>1826</v>
       </c>
       <c r="F1060" s="2" t="s">
-        <v>2093</v>
+        <v>2085</v>
       </c>
       <c r="G1060" s="2">
         <v>66</v>
       </c>
       <c r="K1060" s="27"/>
       <c r="M1060" s="5" t="s">
-        <v>2021</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1061" spans="1:14" x14ac:dyDescent="0.3">
@@ -25616,7 +25698,7 @@
         <v>1757</v>
       </c>
       <c r="F1064" s="2" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="K1064" s="27"/>
       <c r="M1064" s="7" t="s">
@@ -25713,7 +25795,7 @@
       </c>
       <c r="K1070" s="27"/>
       <c r="M1070" s="5" t="s">
-        <v>2076</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1071" spans="1:14" x14ac:dyDescent="0.3">
@@ -25748,7 +25830,7 @@
         <v>1780</v>
       </c>
       <c r="F1072" s="2" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="G1072" s="2">
         <v>750</v>
@@ -25757,13 +25839,13 @@
         <v>752</v>
       </c>
       <c r="K1072" s="27" t="s">
-        <v>2142</v>
+        <v>2130</v>
       </c>
       <c r="M1072" s="7" t="s">
-        <v>2084</v>
+        <v>2076</v>
       </c>
       <c r="N1072" s="25" t="s">
-        <v>2005</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1073" spans="1:13" x14ac:dyDescent="0.3">
@@ -25918,14 +26000,14 @@
         <v>1712</v>
       </c>
       <c r="F1082" s="2" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="I1082" s="2">
         <v>225</v>
       </c>
       <c r="K1082" s="27"/>
       <c r="M1082" s="5" t="s">
-        <v>2085</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1083" spans="1:13" x14ac:dyDescent="0.3">
@@ -26002,14 +26084,14 @@
         <v>941</v>
       </c>
       <c r="E1087" s="4" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="F1087" s="2" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="K1087" s="27"/>
       <c r="M1087" s="5" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1088" spans="1:13" x14ac:dyDescent="0.3">
@@ -26375,7 +26457,7 @@
       </c>
       <c r="K1110" s="27"/>
       <c r="M1110" s="5" t="s">
-        <v>2065</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1111" spans="1:13" x14ac:dyDescent="0.3">
@@ -26543,7 +26625,7 @@
       </c>
       <c r="K1121" s="27"/>
     </row>
-    <row r="1122" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="1122" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A1122" s="3">
         <v>3526</v>
       </c>
@@ -26557,7 +26639,7 @@
         <v>941</v>
       </c>
       <c r="E1122" s="2" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="F1122" s="2" t="s">
         <v>1767</v>
@@ -26565,9 +26647,11 @@
       <c r="G1122" s="2">
         <v>80</v>
       </c>
-      <c r="K1122" s="27"/>
+      <c r="K1122" s="27" t="s">
+        <v>2188</v>
+      </c>
       <c r="M1122" s="5" t="s">
-        <v>1913</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1123" spans="1:13" x14ac:dyDescent="0.3">
@@ -26680,14 +26764,14 @@
         <v>1780</v>
       </c>
       <c r="F1129" s="2" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G1129" s="2">
         <v>81</v>
       </c>
       <c r="K1129" s="27"/>
       <c r="M1129" s="5" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1130" spans="1:13" x14ac:dyDescent="0.3">
@@ -26720,7 +26804,7 @@
       </c>
       <c r="K1131" s="27"/>
     </row>
-    <row r="1132" spans="1:13" ht="60" x14ac:dyDescent="0.3">
+    <row r="1132" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A1132" s="3">
         <v>3552</v>
       </c>
@@ -26737,14 +26821,14 @@
         <v>1819</v>
       </c>
       <c r="F1132" s="2" t="s">
-        <v>1906</v>
+        <v>2173</v>
       </c>
       <c r="G1132" s="2">
         <v>250</v>
       </c>
       <c r="K1132" s="27"/>
       <c r="M1132" s="7" t="s">
-        <v>1948</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1133" spans="1:13" x14ac:dyDescent="0.3">
@@ -26887,7 +26971,7 @@
         <v>3587</v>
       </c>
       <c r="B1142" s="1" t="s">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="C1142" s="2" t="s">
         <v>1701</v>
@@ -27349,7 +27433,7 @@
         <v>941</v>
       </c>
       <c r="E1171" s="2" t="s">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="K1171" s="27"/>
     </row>
@@ -27412,14 +27496,14 @@
         <v>941</v>
       </c>
       <c r="E1175" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="F1175" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="K1175" s="27"/>
       <c r="M1175" s="5" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1176" spans="1:14" x14ac:dyDescent="0.3">
@@ -27436,11 +27520,11 @@
         <v>941</v>
       </c>
       <c r="E1176" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="K1176" s="27"/>
       <c r="M1176" s="5" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1177" spans="1:14" x14ac:dyDescent="0.3">
@@ -27562,20 +27646,20 @@
         <v>941</v>
       </c>
       <c r="E1184" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="F1184" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G1184" s="2">
         <v>61</v>
       </c>
       <c r="K1184" s="27"/>
       <c r="M1184" s="5" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="N1184" s="25" t="s">
-        <v>2007</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1185" spans="1:13" x14ac:dyDescent="0.3">
@@ -27622,7 +27706,7 @@
         <v>941</v>
       </c>
       <c r="E1187" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="K1187" s="27"/>
     </row>
@@ -27700,11 +27784,11 @@
         <v>941</v>
       </c>
       <c r="E1192" s="2" t="s">
-        <v>2057</v>
+        <v>2049</v>
       </c>
       <c r="K1192" s="27"/>
       <c r="M1192" s="5" t="s">
-        <v>2058</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1193" spans="1:13" x14ac:dyDescent="0.3">
@@ -27811,7 +27895,7 @@
         <v>941</v>
       </c>
       <c r="E1199" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="K1199" s="27"/>
     </row>
@@ -27845,7 +27929,7 @@
       </c>
       <c r="K1201" s="27"/>
       <c r="M1201" s="5" t="s">
-        <v>2009</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1202" spans="1:13" x14ac:dyDescent="0.3">
@@ -27877,7 +27961,7 @@
         <v>941</v>
       </c>
       <c r="E1203" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="K1203" s="27"/>
     </row>
@@ -27970,7 +28054,7 @@
         <v>941</v>
       </c>
       <c r="E1209" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="K1209" s="27"/>
     </row>
@@ -28528,7 +28612,7 @@
         <v>941</v>
       </c>
       <c r="E1246" s="2" t="s">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="K1246" s="27"/>
     </row>
@@ -28771,11 +28855,11 @@
         <v>941</v>
       </c>
       <c r="E1262" s="4" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="K1262" s="27"/>
       <c r="M1262" s="5" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1263" spans="1:13" x14ac:dyDescent="0.3">
@@ -28837,7 +28921,7 @@
         <v>941</v>
       </c>
       <c r="E1266" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="K1266" s="27"/>
     </row>
@@ -28870,7 +28954,7 @@
         <v>941</v>
       </c>
       <c r="E1268" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="K1268" s="27"/>
     </row>
@@ -28948,11 +29032,11 @@
         <v>941</v>
       </c>
       <c r="E1273" s="2" t="s">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="K1273" s="27"/>
       <c r="M1273" s="5" t="s">
-        <v>2077</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1274" spans="1:13" x14ac:dyDescent="0.3">
@@ -29149,10 +29233,10 @@
         <v>941</v>
       </c>
       <c r="E1286" s="4" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="F1286" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G1286" s="2">
         <v>25</v>
@@ -29224,14 +29308,14 @@
         <v>941</v>
       </c>
       <c r="E1290" s="2" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="G1290" s="2">
         <v>80</v>
       </c>
       <c r="K1290" s="27"/>
       <c r="M1290" s="5" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1291" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -29248,11 +29332,11 @@
         <v>941</v>
       </c>
       <c r="E1291" s="2" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="K1291" s="27"/>
       <c r="M1291" s="5" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1292" spans="1:13" x14ac:dyDescent="0.3">
@@ -29314,11 +29398,11 @@
         <v>941</v>
       </c>
       <c r="E1295" s="2" t="s">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="K1295" s="27"/>
       <c r="M1295" s="5" t="s">
-        <v>1999</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1296" spans="1:13" x14ac:dyDescent="0.3">
@@ -29410,11 +29494,11 @@
         <v>941</v>
       </c>
       <c r="E1301" s="2" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
       <c r="K1301" s="27"/>
       <c r="M1301" s="5" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1302" spans="1:13" x14ac:dyDescent="0.3">
@@ -29551,7 +29635,7 @@
         <v>941</v>
       </c>
       <c r="E1310" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="K1310" s="27"/>
     </row>
@@ -29669,7 +29753,7 @@
       </c>
       <c r="K1317" s="27"/>
       <c r="M1317" s="5" t="s">
-        <v>2107</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1318" spans="1:13" x14ac:dyDescent="0.3">
@@ -29950,7 +30034,7 @@
         <v>1819</v>
       </c>
       <c r="F1335" s="2" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G1335" s="2">
         <v>38</v>
@@ -29960,7 +30044,7 @@
       </c>
       <c r="K1335" s="27"/>
       <c r="M1335" s="5" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1336" spans="1:13" x14ac:dyDescent="0.3">
@@ -30136,7 +30220,7 @@
         <v>3.5</v>
       </c>
       <c r="M1346" s="5" t="s">
-        <v>2128</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1347" spans="1:13" x14ac:dyDescent="0.3">
@@ -30231,14 +30315,14 @@
         <v>1806</v>
       </c>
       <c r="F1352" s="2" t="s">
-        <v>2096</v>
+        <v>1900</v>
       </c>
       <c r="G1352" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K1352" s="27"/>
       <c r="M1352" s="5" t="s">
-        <v>2010</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="1353" spans="1:13" x14ac:dyDescent="0.3">
@@ -30364,7 +30448,7 @@
       </c>
       <c r="K1360" s="27"/>
       <c r="M1360" s="5" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1361" spans="1:13" x14ac:dyDescent="0.3">
@@ -30436,7 +30520,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="1365" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="1365" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A1365" s="3">
         <v>5443</v>
       </c>
@@ -30450,17 +30534,17 @@
         <v>941</v>
       </c>
       <c r="E1365" s="4" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="F1365" s="2" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="G1365" s="2">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K1365" s="27"/>
       <c r="M1365" s="5" t="s">
-        <v>1931</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1366" spans="1:13" x14ac:dyDescent="0.3">
@@ -30502,7 +30586,7 @@
       </c>
       <c r="K1367" s="27"/>
       <c r="M1367" s="5" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1368" spans="1:13" x14ac:dyDescent="0.3">
@@ -30682,7 +30766,7 @@
       </c>
       <c r="K1378" s="27"/>
       <c r="M1378" s="5" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1379" spans="1:13" x14ac:dyDescent="0.3">
@@ -30700,7 +30784,7 @@
       </c>
       <c r="K1379" s="27"/>
       <c r="M1379" s="5" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1380" spans="1:13" x14ac:dyDescent="0.3">
@@ -30777,7 +30861,7 @@
         <v>941</v>
       </c>
       <c r="E1384" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="G1384" s="2">
         <v>12</v>
@@ -31008,10 +31092,10 @@
         <v>941</v>
       </c>
       <c r="E1399" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="F1399" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G1399" s="2">
         <v>50</v>
@@ -31162,7 +31246,7 @@
       </c>
       <c r="K1408" s="27"/>
       <c r="M1408" s="5" t="s">
-        <v>2017</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1409" spans="1:13" x14ac:dyDescent="0.3">
@@ -31518,14 +31602,14 @@
         <v>941</v>
       </c>
       <c r="E1431" s="4" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="F1431" s="2" t="s">
         <v>1810</v>
       </c>
       <c r="K1431" s="27"/>
       <c r="M1431" s="5" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1432" spans="1:13" x14ac:dyDescent="0.3">
@@ -31572,7 +31656,7 @@
         <v>941</v>
       </c>
       <c r="E1434" s="4" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="K1434" s="27"/>
     </row>
@@ -31650,10 +31734,10 @@
         <v>941</v>
       </c>
       <c r="E1439" s="2" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="F1439" s="2" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G1439" s="2">
         <v>72</v>
@@ -31879,7 +31963,7 @@
       </c>
       <c r="K1453" s="27"/>
       <c r="M1453" s="5" t="s">
-        <v>2035</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1454" spans="1:13" x14ac:dyDescent="0.3">
@@ -32243,11 +32327,17 @@
       <c r="D1476" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="E1476" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G1476" s="2">
+        <v>19</v>
+      </c>
       <c r="K1476" s="27" t="s">
-        <v>2137</v>
+        <v>2125</v>
       </c>
       <c r="M1476" s="5" t="s">
-        <v>2079</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1477" spans="1:13" x14ac:dyDescent="0.3">
@@ -32279,7 +32369,7 @@
         <v>941</v>
       </c>
       <c r="E1478" s="2" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="K1478" s="27"/>
     </row>
@@ -32312,7 +32402,7 @@
         <v>941</v>
       </c>
       <c r="E1480" s="4" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="F1480" s="2" t="s">
         <v>1820</v>
@@ -32322,7 +32412,7 @@
       </c>
       <c r="K1480" s="27"/>
       <c r="M1480" s="5" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1481" spans="1:13" x14ac:dyDescent="0.3">
@@ -32747,14 +32837,14 @@
         <v>1803</v>
       </c>
       <c r="F1507" s="2" t="s">
-        <v>2093</v>
+        <v>2085</v>
       </c>
       <c r="G1507" s="2">
         <v>70</v>
       </c>
       <c r="K1507" s="27"/>
       <c r="M1507" s="5" t="s">
-        <v>2097</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1508" spans="1:13" x14ac:dyDescent="0.3">
@@ -32861,11 +32951,11 @@
         <v>941</v>
       </c>
       <c r="E1514" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="K1514" s="27"/>
       <c r="M1514" s="5" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1515" spans="1:13" x14ac:dyDescent="0.3">
@@ -33005,17 +33095,19 @@
         <v>941</v>
       </c>
       <c r="E1523" s="4" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="F1523" s="2" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="G1523" s="2">
         <v>120</v>
       </c>
-      <c r="K1523" s="27"/>
+      <c r="K1523" s="27" t="s">
+        <v>2176</v>
+      </c>
       <c r="M1523" s="5" t="s">
-        <v>1842</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1524" spans="1:13" x14ac:dyDescent="0.3">
@@ -33032,7 +33124,7 @@
         <v>941</v>
       </c>
       <c r="E1524" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="K1524" s="27"/>
     </row>
@@ -33204,7 +33296,7 @@
       </c>
       <c r="K1535" s="27"/>
       <c r="M1535" s="5" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1536" spans="1:13" x14ac:dyDescent="0.3">
@@ -33266,11 +33358,11 @@
         <v>941</v>
       </c>
       <c r="E1539" s="4" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="K1539" s="27"/>
       <c r="M1539" s="5" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1540" spans="1:13" x14ac:dyDescent="0.3">
@@ -33335,11 +33427,11 @@
         <v>941</v>
       </c>
       <c r="E1543" s="2" t="s">
-        <v>1985</v>
+        <v>1979</v>
       </c>
       <c r="K1543" s="27"/>
       <c r="M1543" s="5" t="s">
-        <v>2083</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="1544" spans="1:13" x14ac:dyDescent="0.3">
@@ -33461,11 +33553,11 @@
         <v>941</v>
       </c>
       <c r="E1551" s="4" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="K1551" s="27"/>
       <c r="M1551" s="5" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1552" spans="1:13" x14ac:dyDescent="0.3">
@@ -33593,10 +33685,10 @@
         <v>941</v>
       </c>
       <c r="K1558" s="27" t="s">
-        <v>2138</v>
+        <v>2126</v>
       </c>
       <c r="M1558" s="5" t="s">
-        <v>2139</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1559" spans="1:13" x14ac:dyDescent="0.3">
@@ -33627,7 +33719,15 @@
       <c r="D1560" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="K1560" s="27"/>
+      <c r="E1560" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="K1560" s="27" t="s">
+        <v>2182</v>
+      </c>
+      <c r="M1560" s="5" t="s">
+        <v>2181</v>
+      </c>
     </row>
     <row r="1561" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1561" s="3">
@@ -33673,7 +33773,7 @@
         <v>941</v>
       </c>
       <c r="E1563" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="K1563" s="27"/>
     </row>
@@ -33736,7 +33836,7 @@
         <v>941</v>
       </c>
       <c r="E1567" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="K1567" s="27"/>
     </row>
@@ -33937,11 +34037,11 @@
         <v>941</v>
       </c>
       <c r="E1580" s="4" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="K1580" s="27"/>
       <c r="M1580" s="5" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1581" spans="1:13" x14ac:dyDescent="0.3">
@@ -34099,14 +34199,14 @@
         <v>1824</v>
       </c>
       <c r="F1590" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="G1590" s="2">
         <v>103</v>
       </c>
       <c r="K1590" s="27"/>
       <c r="M1590" s="5" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1591" spans="1:13" x14ac:dyDescent="0.3">
@@ -34228,7 +34328,7 @@
         <v>941</v>
       </c>
       <c r="E1598" s="4" t="s">
-        <v>2098</v>
+        <v>2089</v>
       </c>
       <c r="G1598" s="2">
         <v>81</v>
@@ -34313,7 +34413,7 @@
       </c>
       <c r="K1603" s="27"/>
       <c r="M1603" s="5" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1604" spans="1:13" x14ac:dyDescent="0.3">
@@ -34349,7 +34449,7 @@
       </c>
       <c r="K1605" s="27"/>
       <c r="M1605" s="5" t="s">
-        <v>2113</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="1606" spans="1:13" x14ac:dyDescent="0.3">
@@ -34410,6 +34510,9 @@
       <c r="D1609" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="E1609" s="2" t="s">
+        <v>2180</v>
+      </c>
       <c r="K1609" s="27"/>
     </row>
     <row r="1610" spans="1:13" x14ac:dyDescent="0.3">
@@ -34516,7 +34619,7 @@
         <v>941</v>
       </c>
       <c r="E1616" s="2" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="F1616" s="2" t="s">
         <v>1767</v>
@@ -34526,7 +34629,7 @@
       </c>
       <c r="K1616" s="27"/>
       <c r="M1616" s="5" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1617" spans="1:11" x14ac:dyDescent="0.3">
@@ -34666,7 +34769,7 @@
         <v>941</v>
       </c>
       <c r="E1625" s="2" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="K1625" s="27"/>
     </row>
@@ -34948,17 +35051,17 @@
         <v>941</v>
       </c>
       <c r="E1643" s="4" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="F1643" s="4" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G1643" s="2">
         <v>25</v>
       </c>
       <c r="K1643" s="27"/>
       <c r="M1643" s="5" t="s">
-        <v>2105</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1644" spans="1:13" x14ac:dyDescent="0.3">
@@ -35009,7 +35112,7 @@
       </c>
       <c r="K1646" s="27"/>
       <c r="M1646" s="5" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1647" spans="1:13" x14ac:dyDescent="0.3">
@@ -35101,14 +35204,14 @@
         <v>941</v>
       </c>
       <c r="E1652" s="2" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="G1652" s="2">
         <v>451</v>
       </c>
       <c r="K1652" s="27"/>
       <c r="M1652" s="5" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="1653" spans="1:13" x14ac:dyDescent="0.3">
@@ -35125,13 +35228,19 @@
         <v>941</v>
       </c>
       <c r="E1653" s="2" t="s">
-        <v>2143</v>
+        <v>2131</v>
+      </c>
+      <c r="F1653" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G1653" s="2">
+        <v>55</v>
       </c>
       <c r="K1653" s="27" t="s">
-        <v>2144</v>
+        <v>2132</v>
       </c>
       <c r="M1653" s="5" t="s">
-        <v>2145</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1654" spans="1:13" x14ac:dyDescent="0.3">
@@ -35178,7 +35287,7 @@
         <v>941</v>
       </c>
       <c r="E1656" s="2" t="s">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="K1656" s="27"/>
     </row>
@@ -35754,19 +35863,19 @@
         <v>941</v>
       </c>
       <c r="E1694" s="2" t="s">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="F1694" s="2" t="s">
-        <v>2014</v>
+        <v>1900</v>
       </c>
       <c r="G1694" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K1694" s="27" t="s">
-        <v>2141</v>
+        <v>2129</v>
       </c>
       <c r="M1694" s="5" t="s">
-        <v>2140</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1695" spans="1:13" x14ac:dyDescent="0.3">
@@ -35936,7 +36045,7 @@
         <v>941</v>
       </c>
       <c r="E1705" s="2" t="s">
-        <v>2116</v>
+        <v>2106</v>
       </c>
       <c r="G1705" s="2">
         <v>48</v>
@@ -36332,7 +36441,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="E2" s="2">
         <v>15877</v>
@@ -36340,22 +36449,22 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1996</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A818ECF-C8C0-4302-8E29-E0579FAFC7BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A96878-7358-4668-9804-93C2182A316A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5909" uniqueCount="2189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5911" uniqueCount="2191">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7303,6 +7303,13 @@
   </si>
   <si>
     <t>9.58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡膠</t>
+  </si>
+  <si>
+    <t>短期注意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7857,8 +7864,8 @@
   <dimension ref="A1:N1713"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1123" sqref="K1123"/>
+      <pane ySplit="1" topLeftCell="A815" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H823" sqref="H823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -11768,6 +11775,15 @@
       <c r="D239" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="E239" s="2" t="s">
+        <v>2189</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="G239" s="2">
+        <v>25</v>
+      </c>
       <c r="K239" s="27"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
@@ -21728,7 +21744,7 @@
       <c r="E823" s="2" t="s">
         <v>1814</v>
       </c>
-      <c r="H823" s="2">
+      <c r="G823" s="2">
         <v>130</v>
       </c>
       <c r="K823" s="27"/>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B59DE8E-BD69-49CB-9CDC-DCEF12B97C98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4881759-08D3-4E62-8FE9-44FCEC463A9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5927" uniqueCount="2199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5932" uniqueCount="2204">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6763,12 +6763,6 @@
   <si>
     <t>[2020 EPS] 28.48</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真錢博奕
-月營收要守穩 8億
-單月 EPS 要有 5.5塊
-[2020 EPS] 57.68</t>
   </si>
   <si>
     <t>[庫藏股] 3000張, 218 ~ 300</t>
@@ -7344,6 +7338,34 @@
   </si>
   <si>
     <t>興能高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5+1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真錢博奕
+月營收要守穩 8億
+單月 EPS 要有 5.5塊
+[2020 EPS] 57.68
+鈊象2月稅前EPS為6.06元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2020 EPS] 2.95</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7898,8 +7920,8 @@
   <dimension ref="A1:N1713"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I239" sqref="I239"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7952,7 +7974,7 @@
         <v>1714</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>1982</v>
@@ -7988,7 +8010,7 @@
       </c>
       <c r="K2" s="27"/>
       <c r="M2" s="7" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -8023,11 +8045,11 @@
         <v>940</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="K4" s="27"/>
       <c r="M4" s="5" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -8044,11 +8066,11 @@
         <v>940</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="K5" s="27"/>
       <c r="M5" s="5" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -8065,11 +8087,11 @@
         <v>940</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="K6" s="27"/>
       <c r="M6" s="5" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -8086,11 +8108,11 @@
         <v>940</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="K7" s="27"/>
       <c r="M7" s="5" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -8107,11 +8129,11 @@
         <v>940</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="K8" s="27"/>
       <c r="M8" s="5" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -8418,7 +8440,15 @@
       <c r="D27" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="K27" s="27"/>
+      <c r="E27" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>2200</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>2199</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
@@ -8499,7 +8529,12 @@
       <c r="D32" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="K32" s="27"/>
+      <c r="K32" s="27" t="s">
+        <v>2201</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>2203</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
@@ -8514,7 +8549,6 @@
       <c r="D33" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="K33" s="27"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
@@ -8684,7 +8718,7 @@
       </c>
       <c r="K44" s="27"/>
       <c r="M44" s="5" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -8890,11 +8924,11 @@
         <v>1812</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="K56" s="27"/>
       <c r="M56" s="5" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -9577,17 +9611,17 @@
         <v>940</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>2142</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>2143</v>
       </c>
       <c r="G101" s="2">
         <v>150</v>
       </c>
       <c r="K101" s="27"/>
       <c r="M101" s="5" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -9658,7 +9692,7 @@
         <v>1824</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G105" s="2">
         <v>51.5</v>
@@ -9789,7 +9823,7 @@
       </c>
       <c r="K111" s="27"/>
       <c r="M111" s="5" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -10328,7 +10362,7 @@
         <v>2027</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="G144" s="2">
         <v>15</v>
@@ -10337,7 +10371,7 @@
         <v>0.9</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -11212,19 +11246,19 @@
         <v>940</v>
       </c>
       <c r="E200" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F200" s="2" t="s">
         <v>2146</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>2147</v>
       </c>
       <c r="G200" s="2">
         <v>11</v>
       </c>
       <c r="K200" s="27" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="M200" s="5" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
@@ -11409,7 +11443,7 @@
         <v>0.3</v>
       </c>
       <c r="M212" s="5" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
@@ -11486,7 +11520,7 @@
         <v>940</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>1883</v>
@@ -11496,7 +11530,7 @@
       </c>
       <c r="K217" s="27"/>
       <c r="M217" s="5" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
@@ -11843,10 +11877,10 @@
         <v>940</v>
       </c>
       <c r="E239" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F239" s="2" t="s">
         <v>2187</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>2188</v>
       </c>
       <c r="G239" s="2">
         <v>25</v>
@@ -12152,7 +12186,7 @@
         <v>940</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="G257" s="2">
         <v>55</v>
@@ -12161,7 +12195,7 @@
         <v>3.4</v>
       </c>
       <c r="M257" s="5" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
@@ -12775,7 +12809,7 @@
         <v>1756</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="I291" s="2">
         <v>305</v>
@@ -12796,14 +12830,14 @@
         <v>940</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="G292" s="2">
         <v>13</v>
       </c>
       <c r="K292" s="27"/>
       <c r="M292" s="5" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
@@ -12964,14 +12998,14 @@
         <v>1808</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G302" s="2">
         <v>25</v>
       </c>
       <c r="K302" s="27"/>
       <c r="M302" s="5" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.3">
@@ -13147,7 +13181,7 @@
         <v>940</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="G311" s="2">
         <v>140</v>
@@ -13156,7 +13190,7 @@
         <v>7</v>
       </c>
       <c r="M311" s="5" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
@@ -13771,7 +13805,7 @@
       </c>
       <c r="K347" s="27"/>
       <c r="M347" s="5" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
@@ -13896,7 +13930,7 @@
         <v>940</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="F355" s="4" t="s">
         <v>1898</v>
@@ -14242,7 +14276,7 @@
       </c>
       <c r="K374" s="27"/>
       <c r="M374" s="5" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.3">
@@ -15537,16 +15571,16 @@
         <v>940</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="G457" s="2">
         <v>30</v>
       </c>
       <c r="K457" s="27" t="s">
+        <v>2150</v>
+      </c>
+      <c r="M457" s="5" t="s">
         <v>2151</v>
-      </c>
-      <c r="M457" s="5" t="s">
-        <v>2152</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.3">
@@ -15588,7 +15622,7 @@
       </c>
       <c r="K459" s="27"/>
       <c r="M459" s="5" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.3">
@@ -16424,16 +16458,16 @@
         <v>940</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="G508" s="2">
         <v>45</v>
       </c>
       <c r="K508" s="27" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="M508" s="5" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.3">
@@ -17016,7 +17050,7 @@
       </c>
       <c r="K540" s="27"/>
       <c r="M540" s="5" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="541" spans="1:13" x14ac:dyDescent="0.3">
@@ -17336,10 +17370,10 @@
         <v>940</v>
       </c>
       <c r="K560" s="27" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="M560" s="5" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="561" spans="1:13" x14ac:dyDescent="0.3">
@@ -17560,11 +17594,11 @@
         <v>940</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="K574" s="27"/>
       <c r="M574" s="5" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.3">
@@ -17722,10 +17756,10 @@
         <v>940</v>
       </c>
       <c r="E584" s="2" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="G584" s="2">
         <v>72</v>
@@ -17734,7 +17768,7 @@
         <v>4</v>
       </c>
       <c r="M584" s="5" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="585" spans="1:13" x14ac:dyDescent="0.3">
@@ -18411,7 +18445,7 @@
         <v>940</v>
       </c>
       <c r="E624" s="2" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F624" s="2" t="s">
         <v>1898</v>
@@ -18421,7 +18455,7 @@
       </c>
       <c r="K624" s="27"/>
       <c r="M624" s="5" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="625" spans="1:13" x14ac:dyDescent="0.3">
@@ -18534,7 +18568,7 @@
         <v>940</v>
       </c>
       <c r="E631" s="2" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="G631" s="2">
         <v>31</v>
@@ -18846,16 +18880,16 @@
         <v>940</v>
       </c>
       <c r="E649" s="2" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="F649" s="2" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="K649" s="27" t="s">
+        <v>2156</v>
+      </c>
+      <c r="M649" s="5" t="s">
         <v>2157</v>
-      </c>
-      <c r="M649" s="5" t="s">
-        <v>2158</v>
       </c>
     </row>
     <row r="650" spans="1:13" x14ac:dyDescent="0.3">
@@ -19013,7 +19047,7 @@
         <v>940</v>
       </c>
       <c r="E659" s="2" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="K659" s="27"/>
     </row>
@@ -19143,7 +19177,7 @@
       </c>
       <c r="K667" s="27"/>
       <c r="M667" s="5" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="668" spans="1:13" x14ac:dyDescent="0.3">
@@ -19256,10 +19290,10 @@
         <v>1846</v>
       </c>
       <c r="K674" s="27" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="M674" s="5" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="675" spans="1:13" x14ac:dyDescent="0.3">
@@ -19277,7 +19311,7 @@
       </c>
       <c r="K675" s="27"/>
       <c r="M675" s="5" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="676" spans="1:13" x14ac:dyDescent="0.3">
@@ -19397,7 +19431,7 @@
       </c>
       <c r="K682" s="27"/>
       <c r="M682" s="5" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="683" spans="1:13" x14ac:dyDescent="0.3">
@@ -19465,16 +19499,16 @@
         <v>940</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="G686" s="2">
         <v>61</v>
       </c>
       <c r="K686" s="27" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="M686" s="5" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="687" spans="1:13" x14ac:dyDescent="0.3">
@@ -20043,14 +20077,14 @@
         <v>940</v>
       </c>
       <c r="E719" s="2" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G719" s="2">
         <v>40</v>
       </c>
       <c r="K719" s="27"/>
       <c r="M719" s="5" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="720" spans="1:13" x14ac:dyDescent="0.3">
@@ -20290,7 +20324,7 @@
       </c>
       <c r="K734" s="27"/>
       <c r="M734" s="5" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="735" spans="1:13" x14ac:dyDescent="0.3">
@@ -20424,7 +20458,7 @@
         <v>2.5</v>
       </c>
       <c r="M742" s="5" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="743" spans="1:13" x14ac:dyDescent="0.3">
@@ -20622,7 +20656,7 @@
       </c>
       <c r="K754" s="27"/>
       <c r="M754" s="5" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="755" spans="1:13" x14ac:dyDescent="0.3">
@@ -20816,14 +20850,14 @@
         <v>940</v>
       </c>
       <c r="E766" s="4" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="G766" s="2">
         <v>24.1</v>
       </c>
       <c r="K766" s="27"/>
       <c r="M766" s="5" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="767" spans="1:13" x14ac:dyDescent="0.3">
@@ -20891,10 +20925,10 @@
         <v>80</v>
       </c>
       <c r="K770" s="27" t="s">
+        <v>2162</v>
+      </c>
+      <c r="M770" s="5" t="s">
         <v>2163</v>
-      </c>
-      <c r="M770" s="5" t="s">
-        <v>2164</v>
       </c>
     </row>
     <row r="771" spans="1:13" ht="60" x14ac:dyDescent="0.3">
@@ -20921,7 +20955,7 @@
       </c>
       <c r="K771" s="27"/>
       <c r="M771" s="5" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="772" spans="1:13" x14ac:dyDescent="0.3">
@@ -21112,7 +21146,7 @@
         <v>0.6</v>
       </c>
       <c r="M782" s="5" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="783" spans="1:13" x14ac:dyDescent="0.3">
@@ -21396,10 +21430,10 @@
         <v>940</v>
       </c>
       <c r="K799" s="27" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="M799" s="5" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="800" spans="1:13" x14ac:dyDescent="0.3">
@@ -21503,13 +21537,13 @@
         <v>1709</v>
       </c>
       <c r="F805" s="2" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="K805" s="27" t="s">
+        <v>2165</v>
+      </c>
+      <c r="M805" s="5" t="s">
         <v>2166</v>
-      </c>
-      <c r="M805" s="5" t="s">
-        <v>2167</v>
       </c>
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.3">
@@ -21613,7 +21647,7 @@
         <v>5</v>
       </c>
       <c r="M811" s="5" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.3">
@@ -21726,17 +21760,17 @@
         <v>940</v>
       </c>
       <c r="E818" s="2" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="F818" s="2" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="I818" s="2">
         <v>78</v>
       </c>
       <c r="K818" s="27"/>
       <c r="M818" s="5" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="819" spans="1:13" x14ac:dyDescent="0.3">
@@ -21744,7 +21778,7 @@
         <v>6558</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>3</v>
@@ -21783,7 +21817,7 @@
         <v>940</v>
       </c>
       <c r="E821" s="2" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="K821" s="27"/>
     </row>
@@ -21807,7 +21841,7 @@
         <v>3</v>
       </c>
       <c r="M822" s="5" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="823" spans="1:13" x14ac:dyDescent="0.3">
@@ -22187,7 +22221,7 @@
         <v>1.58</v>
       </c>
       <c r="M844" s="26" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="845" spans="1:13" x14ac:dyDescent="0.3">
@@ -22261,7 +22295,7 @@
         <v>3.4</v>
       </c>
       <c r="M848" s="5" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="849" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -22857,10 +22891,10 @@
         <v>940</v>
       </c>
       <c r="K885" s="27" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="M885" s="5" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="886" spans="1:13" x14ac:dyDescent="0.3">
@@ -23228,7 +23262,7 @@
         <v>940</v>
       </c>
       <c r="E909" s="2" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="G909" s="2">
         <v>72</v>
@@ -23237,7 +23271,7 @@
         <v>3.8</v>
       </c>
       <c r="M909" s="5" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="910" spans="1:13" x14ac:dyDescent="0.3">
@@ -23674,14 +23708,14 @@
         <v>1971</v>
       </c>
       <c r="F936" s="2" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G936" s="2">
         <v>70</v>
       </c>
       <c r="K936" s="27"/>
       <c r="M936" s="5" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="937" spans="1:13" x14ac:dyDescent="0.3">
@@ -24049,7 +24083,7 @@
         <v>1818</v>
       </c>
       <c r="F958" s="2" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G958" s="2">
         <v>41</v>
@@ -24423,7 +24457,7 @@
         <v>3</v>
       </c>
       <c r="M979" s="5" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="980" spans="1:13" x14ac:dyDescent="0.3">
@@ -24762,7 +24796,7 @@
       </c>
       <c r="K1001" s="27"/>
       <c r="M1001" s="5" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1002" spans="1:13" x14ac:dyDescent="0.3">
@@ -25007,11 +25041,11 @@
         <v>1797</v>
       </c>
       <c r="F1016" s="2" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="K1016" s="27"/>
       <c r="M1016" s="5" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1017" spans="1:13" x14ac:dyDescent="0.3">
@@ -25730,7 +25764,7 @@
         <v>1825</v>
       </c>
       <c r="F1060" s="2" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G1060" s="2">
         <v>66</v>
@@ -25917,7 +25951,7 @@
       </c>
       <c r="K1071" s="27"/>
     </row>
-    <row r="1072" spans="1:14" ht="60" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:14" ht="75" x14ac:dyDescent="0.3">
       <c r="A1072" s="3">
         <v>3293</v>
       </c>
@@ -25934,7 +25968,7 @@
         <v>1779</v>
       </c>
       <c r="F1072" s="4" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="G1072" s="2">
         <v>750</v>
@@ -25943,10 +25977,10 @@
         <v>752</v>
       </c>
       <c r="K1072" s="27" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="M1072" s="7" t="s">
-        <v>2074</v>
+        <v>2202</v>
       </c>
       <c r="N1072" s="25" t="s">
         <v>1997</v>
@@ -26104,14 +26138,14 @@
         <v>1711</v>
       </c>
       <c r="F1082" s="4" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="I1082" s="2">
         <v>225</v>
       </c>
       <c r="K1082" s="27"/>
       <c r="M1082" s="5" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1083" spans="1:13" x14ac:dyDescent="0.3">
@@ -26752,10 +26786,10 @@
         <v>80</v>
       </c>
       <c r="K1122" s="27" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="M1122" s="5" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1123" spans="1:13" x14ac:dyDescent="0.3">
@@ -26925,14 +26959,14 @@
         <v>1818</v>
       </c>
       <c r="F1132" s="2" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="G1132" s="2">
         <v>250</v>
       </c>
       <c r="K1132" s="27"/>
       <c r="M1132" s="7" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1133" spans="1:13" x14ac:dyDescent="0.3">
@@ -29857,7 +29891,7 @@
       </c>
       <c r="K1317" s="27"/>
       <c r="M1317" s="5" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1318" spans="1:13" x14ac:dyDescent="0.3">
@@ -30324,7 +30358,7 @@
         <v>3.5</v>
       </c>
       <c r="M1346" s="5" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="1347" spans="1:13" x14ac:dyDescent="0.3">
@@ -30426,7 +30460,7 @@
       </c>
       <c r="K1352" s="27"/>
       <c r="M1352" s="5" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1353" spans="1:13" x14ac:dyDescent="0.3">
@@ -30648,7 +30682,7 @@
       </c>
       <c r="K1365" s="27"/>
       <c r="M1365" s="5" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1366" spans="1:13" x14ac:dyDescent="0.3">
@@ -32438,7 +32472,7 @@
         <v>19</v>
       </c>
       <c r="K1476" s="27" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="M1476" s="5" t="s">
         <v>2069</v>
@@ -32941,14 +32975,14 @@
         <v>1802</v>
       </c>
       <c r="F1507" s="2" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G1507" s="2">
         <v>70</v>
       </c>
       <c r="K1507" s="27"/>
       <c r="M1507" s="5" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1508" spans="1:13" x14ac:dyDescent="0.3">
@@ -33208,10 +33242,10 @@
         <v>120</v>
       </c>
       <c r="K1523" s="27" t="s">
+        <v>2173</v>
+      </c>
+      <c r="M1523" s="5" t="s">
         <v>2174</v>
-      </c>
-      <c r="M1523" s="5" t="s">
-        <v>2175</v>
       </c>
     </row>
     <row r="1524" spans="1:13" x14ac:dyDescent="0.3">
@@ -33789,10 +33823,10 @@
         <v>940</v>
       </c>
       <c r="K1558" s="27" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M1558" s="5" t="s">
         <v>2124</v>
-      </c>
-      <c r="M1558" s="5" t="s">
-        <v>2125</v>
       </c>
     </row>
     <row r="1559" spans="1:13" x14ac:dyDescent="0.3">
@@ -33824,13 +33858,13 @@
         <v>940</v>
       </c>
       <c r="E1560" s="2" t="s">
+        <v>2177</v>
+      </c>
+      <c r="K1560" s="27" t="s">
+        <v>2179</v>
+      </c>
+      <c r="M1560" s="5" t="s">
         <v>2178</v>
-      </c>
-      <c r="K1560" s="27" t="s">
-        <v>2180</v>
-      </c>
-      <c r="M1560" s="5" t="s">
-        <v>2179</v>
       </c>
     </row>
     <row r="1561" spans="1:13" x14ac:dyDescent="0.3">
@@ -34432,7 +34466,7 @@
         <v>940</v>
       </c>
       <c r="E1598" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="G1598" s="2">
         <v>81</v>
@@ -34553,7 +34587,7 @@
       </c>
       <c r="K1605" s="27"/>
       <c r="M1605" s="5" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1606" spans="1:13" x14ac:dyDescent="0.3">
@@ -34615,7 +34649,7 @@
         <v>940</v>
       </c>
       <c r="E1609" s="2" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="K1609" s="27"/>
     </row>
@@ -35165,7 +35199,7 @@
       </c>
       <c r="K1643" s="27"/>
       <c r="M1643" s="5" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1644" spans="1:13" x14ac:dyDescent="0.3">
@@ -35308,14 +35342,14 @@
         <v>940</v>
       </c>
       <c r="E1652" s="2" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="G1652" s="2">
         <v>451</v>
       </c>
       <c r="K1652" s="27"/>
       <c r="M1652" s="5" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="1653" spans="1:13" x14ac:dyDescent="0.3">
@@ -35332,19 +35366,19 @@
         <v>940</v>
       </c>
       <c r="E1653" s="2" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="F1653" s="2" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="G1653" s="2">
         <v>55</v>
       </c>
       <c r="K1653" s="27" t="s">
+        <v>2129</v>
+      </c>
+      <c r="M1653" s="5" t="s">
         <v>2130</v>
-      </c>
-      <c r="M1653" s="5" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1654" spans="1:13" x14ac:dyDescent="0.3">
@@ -35976,10 +36010,10 @@
         <v>81</v>
       </c>
       <c r="K1694" s="27" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="M1694" s="5" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1695" spans="1:13" x14ac:dyDescent="0.3">
@@ -36149,7 +36183,7 @@
         <v>940</v>
       </c>
       <c r="E1705" s="2" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="G1705" s="2">
         <v>48</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4881759-08D3-4E62-8FE9-44FCEC463A9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408419B8-2631-45F0-9D91-B2DC12CBB4C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7920,8 +7920,8 @@
   <dimension ref="A1:N1713"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <pane ySplit="1" topLeftCell="A1074" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1082" sqref="I1082"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8529,6 +8529,12 @@
       <c r="D32" s="2" t="s">
         <v>940</v>
       </c>
+      <c r="G32" s="2">
+        <v>31</v>
+      </c>
+      <c r="I32" s="2">
+        <v>33.1</v>
+      </c>
       <c r="K32" s="27" t="s">
         <v>2201</v>
       </c>
@@ -11885,9 +11891,6 @@
       <c r="G239" s="2">
         <v>25</v>
       </c>
-      <c r="I239" s="2">
-        <v>25.1</v>
-      </c>
       <c r="K239" s="27"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
@@ -12811,9 +12814,6 @@
       <c r="F291" s="2" t="s">
         <v>2191</v>
       </c>
-      <c r="I291" s="2">
-        <v>305</v>
-      </c>
       <c r="K291" s="27"/>
     </row>
     <row r="292" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -21764,9 +21764,6 @@
       </c>
       <c r="F818" s="2" t="s">
         <v>2191</v>
-      </c>
-      <c r="I818" s="2">
-        <v>78</v>
       </c>
       <c r="K818" s="27"/>
       <c r="M818" s="5" t="s">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408419B8-2631-45F0-9D91-B2DC12CBB4C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4855F44E-881F-4630-9E79-8FE138C62708}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7920,8 +7920,8 @@
   <dimension ref="A1:N1713"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1074" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1082" sqref="I1082"/>
+      <pane ySplit="1" topLeftCell="A1645" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1653" sqref="I1653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -35343,6 +35343,9 @@
       </c>
       <c r="G1652" s="2">
         <v>451</v>
+      </c>
+      <c r="I1652" s="2">
+        <v>450</v>
       </c>
       <c r="K1652" s="27"/>
       <c r="M1652" s="5" t="s">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4855F44E-881F-4630-9E79-8FE138C62708}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C2AC3F-EF71-40C9-B20E-87F12F146906}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5932" uniqueCount="2204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5933" uniqueCount="2205">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7366,6 +7366,10 @@
   </si>
   <si>
     <t>[2020 EPS] 2.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定存股</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7920,8 +7924,8 @@
   <dimension ref="A1:N1713"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1645" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1653" sqref="I1653"/>
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G292" sqref="G292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8529,11 +8533,11 @@
       <c r="D32" s="2" t="s">
         <v>940</v>
       </c>
+      <c r="F32" s="2" t="s">
+        <v>2204</v>
+      </c>
       <c r="G32" s="2">
         <v>31</v>
-      </c>
-      <c r="I32" s="2">
-        <v>33.1</v>
       </c>
       <c r="K32" s="27" t="s">
         <v>2201</v>
@@ -12814,6 +12818,9 @@
       <c r="F291" s="2" t="s">
         <v>2191</v>
       </c>
+      <c r="G291" s="2">
+        <v>310</v>
+      </c>
       <c r="K291" s="27"/>
     </row>
     <row r="292" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -25968,10 +25975,7 @@
         <v>2193</v>
       </c>
       <c r="G1072" s="2">
-        <v>750</v>
-      </c>
-      <c r="I1072" s="2">
-        <v>752</v>
+        <v>720</v>
       </c>
       <c r="K1072" s="27" t="s">
         <v>2127</v>
@@ -35342,10 +35346,10 @@
         <v>2108</v>
       </c>
       <c r="G1652" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I1652" s="2">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="K1652" s="27"/>
       <c r="M1652" s="5" t="s">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C2AC3F-EF71-40C9-B20E-87F12F146906}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE7078F-21CF-402F-8021-5B8F644CC237}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7299,10 +7299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《水泥股》台泥列注意股 1月每股盈餘0.24元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不投資</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7370,6 +7366,10 @@
   </si>
   <si>
     <t>定存股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長年穩定配股配息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7924,8 +7924,8 @@
   <dimension ref="A1:N1713"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G292" sqref="G292"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8013,8 +8013,8 @@
         <v>40.5</v>
       </c>
       <c r="K2" s="27"/>
-      <c r="M2" s="7" t="s">
-        <v>2188</v>
+      <c r="M2" s="5" t="s">
+        <v>2204</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -8049,11 +8049,11 @@
         <v>940</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="K4" s="27"/>
       <c r="M4" s="5" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -8070,11 +8070,11 @@
         <v>940</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="K5" s="27"/>
       <c r="M5" s="5" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -8091,11 +8091,11 @@
         <v>940</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="K6" s="27"/>
       <c r="M6" s="5" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -8112,11 +8112,11 @@
         <v>940</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="K7" s="27"/>
       <c r="M7" s="5" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -8133,11 +8133,11 @@
         <v>940</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="K8" s="27"/>
       <c r="M8" s="5" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -8445,13 +8445,13 @@
         <v>940</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>2197</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>2199</v>
+      </c>
+      <c r="M27" s="5" t="s">
         <v>2198</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>2200</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -8534,16 +8534,16 @@
         <v>940</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="G32" s="2">
         <v>31</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -12816,7 +12816,7 @@
         <v>1756</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="G291" s="2">
         <v>310</v>
@@ -21767,14 +21767,14 @@
         <v>940</v>
       </c>
       <c r="E818" s="2" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="F818" s="2" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="K818" s="27"/>
       <c r="M818" s="5" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="819" spans="1:13" x14ac:dyDescent="0.3">
@@ -21782,7 +21782,7 @@
         <v>6558</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>3</v>
@@ -25045,11 +25045,11 @@
         <v>1797</v>
       </c>
       <c r="F1016" s="2" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="K1016" s="27"/>
       <c r="M1016" s="5" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1017" spans="1:13" x14ac:dyDescent="0.3">
@@ -25972,7 +25972,7 @@
         <v>1779</v>
       </c>
       <c r="F1072" s="4" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="G1072" s="2">
         <v>720</v>
@@ -25981,7 +25981,7 @@
         <v>2127</v>
       </c>
       <c r="M1072" s="7" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="N1072" s="25" t="s">
         <v>1997</v>
@@ -26139,7 +26139,7 @@
         <v>1711</v>
       </c>
       <c r="F1082" s="4" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="I1082" s="2">
         <v>225</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3897148-DF12-4158-B2B6-EC5885F40E1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5845937D-B551-4B61-B839-2078D92DEEB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_stock" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5931" uniqueCount="2205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5930" uniqueCount="2204">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6006,12 +6006,6 @@
   <si>
     <t>被動元件
 華新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tesla藍牙胎壓偵測大訂單
-獨家訂單，又是標配。
-2020/12/23 或許可能止跌了?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6759,10 +6753,6 @@
   </si>
   <si>
     <t>[2020 EPS] 28.48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[庫藏股] 3000張, 218 ~ 300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7372,6 +7362,10 @@
   <si>
     <t>定存</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tesla藍牙胎壓偵測大訂單
+獨家訂單，又是標配。</t>
   </si>
 </sst>
 </file>
@@ -7924,9 +7918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1712"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1219" sqref="A1219:XFD1219"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1322" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1327" sqref="L1327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7964,7 +7958,7 @@
         <v>1819</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1719</v>
@@ -7979,16 +7973,16 @@
         <v>1713</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>1700</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -8015,7 +8009,7 @@
       </c>
       <c r="K2" s="27"/>
       <c r="M2" s="5" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -8032,7 +8026,7 @@
         <v>940</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="G3" s="2">
         <v>41</v>
@@ -8053,11 +8047,11 @@
         <v>940</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="K4" s="27"/>
       <c r="M4" s="5" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -8074,11 +8068,11 @@
         <v>940</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="K5" s="27"/>
       <c r="M5" s="5" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -8095,11 +8089,11 @@
         <v>940</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="K6" s="27"/>
       <c r="M6" s="5" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -8116,11 +8110,11 @@
         <v>940</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="K7" s="27"/>
       <c r="M7" s="5" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -8137,11 +8131,11 @@
         <v>940</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="K8" s="27"/>
       <c r="M8" s="5" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -8449,13 +8443,13 @@
         <v>940</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>2194</v>
+      </c>
+      <c r="K27" s="27" t="s">
         <v>2196</v>
       </c>
-      <c r="K27" s="27" t="s">
-        <v>2198</v>
-      </c>
       <c r="M27" s="5" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -8487,11 +8481,11 @@
         <v>940</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="K29" s="27"/>
       <c r="M29" s="5" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -8538,16 +8532,16 @@
         <v>940</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="G32" s="2">
         <v>31</v>
       </c>
       <c r="K32" s="27" t="s">
+        <v>2197</v>
+      </c>
+      <c r="M32" s="5" t="s">
         <v>2199</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>2201</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -8732,7 +8726,7 @@
       </c>
       <c r="K44" s="27"/>
       <c r="M44" s="5" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -8782,11 +8776,11 @@
         <v>940</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="K47" s="27"/>
       <c r="M47" s="5" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -8938,11 +8932,11 @@
         <v>1811</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="K56" s="27"/>
       <c r="M56" s="5" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -9625,17 +9619,17 @@
         <v>940</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="G101" s="2">
         <v>150</v>
       </c>
       <c r="K101" s="27"/>
       <c r="M101" s="5" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -9706,7 +9700,7 @@
         <v>1823</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="G105" s="2">
         <v>51.5</v>
@@ -9756,7 +9750,7 @@
       <c r="K107" s="27"/>
       <c r="L107" s="4"/>
       <c r="M107" s="5" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -9837,7 +9831,7 @@
       </c>
       <c r="K111" s="27"/>
       <c r="M111" s="5" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -10208,10 +10202,10 @@
         <v>940</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="K135" s="27"/>
     </row>
@@ -10284,7 +10278,7 @@
       </c>
       <c r="K139" s="27"/>
       <c r="M139" s="5" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
@@ -10373,10 +10367,10 @@
         <v>940</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="G144" s="2">
         <v>15</v>
@@ -10385,7 +10379,7 @@
         <v>0.9</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -10577,7 +10571,7 @@
       </c>
       <c r="K156" s="27"/>
       <c r="M156" s="5" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
@@ -11260,19 +11254,19 @@
         <v>940</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="G200" s="2">
         <v>11</v>
       </c>
       <c r="K200" s="27" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="M200" s="5" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
@@ -11457,7 +11451,7 @@
         <v>0.3</v>
       </c>
       <c r="M212" s="5" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
@@ -11534,7 +11528,7 @@
         <v>940</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>1882</v>
@@ -11544,7 +11538,7 @@
       </c>
       <c r="K217" s="27"/>
       <c r="M217" s="5" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
@@ -11789,7 +11783,7 @@
         <v>940</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="K233" s="27"/>
     </row>
@@ -11807,7 +11801,7 @@
         <v>940</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="K234" s="27"/>
     </row>
@@ -11855,7 +11849,7 @@
         <v>940</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="K237" s="27"/>
     </row>
@@ -11873,7 +11867,7 @@
         <v>940</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="K238" s="27"/>
     </row>
@@ -11891,10 +11885,10 @@
         <v>940</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="G239" s="2">
         <v>25</v>
@@ -11933,7 +11927,7 @@
         <v>940</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="K241" s="27"/>
     </row>
@@ -12105,7 +12099,7 @@
       </c>
       <c r="K251" s="27"/>
       <c r="M251" s="5" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
@@ -12197,7 +12191,7 @@
         <v>940</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="G257" s="2">
         <v>55</v>
@@ -12206,7 +12200,7 @@
         <v>3.4</v>
       </c>
       <c r="M257" s="5" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
@@ -12241,7 +12235,7 @@
         <v>1799</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G259" s="2">
         <v>51</v>
@@ -12251,7 +12245,7 @@
         <v>3.9527738679245283</v>
       </c>
       <c r="M259" s="5" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
@@ -12293,7 +12287,7 @@
       </c>
       <c r="K261" s="27"/>
       <c r="M261" s="5" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
@@ -12376,7 +12370,7 @@
         <v>1802</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="G266" s="2">
         <v>101</v>
@@ -12473,7 +12467,7 @@
       </c>
       <c r="K271" s="27"/>
       <c r="M271" s="5" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
@@ -12508,7 +12502,7 @@
         <v>1798</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="G273" s="2">
         <v>580</v>
@@ -12518,7 +12512,7 @@
         <v>7.8397182185007974</v>
       </c>
       <c r="M273" s="5" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
@@ -12565,11 +12559,11 @@
         <v>940</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="K276" s="27"/>
       <c r="M276" s="5" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.3">
@@ -12635,7 +12629,7 @@
       </c>
       <c r="K280" s="27"/>
       <c r="M280" s="5" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
@@ -12820,7 +12814,7 @@
         <v>1755</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="G291" s="2">
         <v>310</v>
@@ -12841,14 +12835,14 @@
         <v>940</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="G292" s="2">
         <v>13</v>
       </c>
       <c r="K292" s="27"/>
       <c r="M292" s="5" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
@@ -13009,14 +13003,14 @@
         <v>1807</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="G302" s="2">
         <v>25</v>
       </c>
       <c r="K302" s="27"/>
       <c r="M302" s="5" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.3">
@@ -13073,7 +13067,7 @@
       </c>
       <c r="K305" s="27"/>
       <c r="M305" s="5" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
@@ -13145,7 +13139,7 @@
       </c>
       <c r="K308" s="27"/>
       <c r="M308" s="5" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
@@ -13192,7 +13186,7 @@
         <v>940</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="G311" s="2">
         <v>140</v>
@@ -13201,7 +13195,7 @@
         <v>7</v>
       </c>
       <c r="M311" s="5" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
@@ -13219,7 +13213,7 @@
       </c>
       <c r="K312" s="27"/>
       <c r="M312" s="5" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.3">
@@ -13440,11 +13434,11 @@
         <v>940</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="K326" s="27"/>
       <c r="M326" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
@@ -13465,7 +13459,7 @@
       </c>
       <c r="K327" s="27"/>
       <c r="M327" s="5" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
@@ -13489,7 +13483,7 @@
       </c>
       <c r="K328" s="27"/>
       <c r="M328" s="5" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
@@ -13816,7 +13810,7 @@
       </c>
       <c r="K347" s="27"/>
       <c r="M347" s="5" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
@@ -13941,7 +13935,7 @@
         <v>940</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="F355" s="4" t="s">
         <v>1897</v>
@@ -14013,14 +14007,14 @@
         <v>1818</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="K359" s="27"/>
       <c r="L359" s="24">
         <v>0.48331827758816837</v>
       </c>
       <c r="M359" s="5" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.3">
@@ -14059,7 +14053,7 @@
       </c>
       <c r="K361" s="27"/>
       <c r="M361" s="5" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.3">
@@ -14101,7 +14095,7 @@
       </c>
       <c r="K363" s="27"/>
       <c r="M363" s="5" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.3">
@@ -14119,7 +14113,7 @@
       </c>
       <c r="K364" s="27"/>
       <c r="M364" s="5" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.3">
@@ -14226,11 +14220,11 @@
         <v>940</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="K371" s="27"/>
       <c r="M371" s="5" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.3">
@@ -14268,7 +14262,7 @@
         <v>2472</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>3</v>
@@ -14287,7 +14281,7 @@
       </c>
       <c r="K374" s="27"/>
       <c r="M374" s="5" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.3">
@@ -14353,7 +14347,7 @@
       </c>
       <c r="K378" s="27"/>
       <c r="M378" s="5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.3">
@@ -14395,7 +14389,7 @@
       </c>
       <c r="K380" s="27"/>
       <c r="M380" s="5" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.3">
@@ -15582,16 +15576,16 @@
         <v>940</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="G457" s="2">
         <v>30</v>
       </c>
       <c r="K457" s="27" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="M457" s="5" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.3">
@@ -15633,7 +15627,7 @@
       </c>
       <c r="K459" s="27"/>
       <c r="M459" s="5" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.3">
@@ -15696,7 +15690,7 @@
       </c>
       <c r="K463" s="27"/>
       <c r="M463" s="5" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.3">
@@ -15924,7 +15918,7 @@
       </c>
       <c r="K477" s="27"/>
       <c r="M477" s="5" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="478" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -15951,7 +15945,7 @@
       </c>
       <c r="K478" s="27"/>
       <c r="M478" s="5" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.3">
@@ -15993,7 +15987,7 @@
       </c>
       <c r="K480" s="27"/>
       <c r="M480" s="5" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="481" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -16020,7 +16014,7 @@
       </c>
       <c r="K481" s="27"/>
       <c r="M481" s="5" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.3">
@@ -16095,7 +16089,7 @@
       </c>
       <c r="K485" s="27"/>
       <c r="M485" s="5" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.3">
@@ -16128,7 +16122,7 @@
       </c>
       <c r="K487" s="27"/>
       <c r="M487" s="5" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.3">
@@ -16146,7 +16140,7 @@
       </c>
       <c r="K488" s="27"/>
       <c r="M488" s="5" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.3">
@@ -16314,7 +16308,7 @@
       </c>
       <c r="K498" s="27"/>
       <c r="M498" s="5" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.3">
@@ -16437,7 +16431,7 @@
       </c>
       <c r="K506" s="27"/>
       <c r="M506" s="5" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.3">
@@ -16469,16 +16463,16 @@
         <v>940</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="G508" s="2">
         <v>45</v>
       </c>
       <c r="K508" s="27" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="M508" s="5" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.3">
@@ -16521,7 +16515,7 @@
       </c>
       <c r="K510" s="27"/>
       <c r="M510" s="5" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.3">
@@ -16644,7 +16638,7 @@
       </c>
       <c r="K517" s="27"/>
       <c r="M517" s="5" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.3">
@@ -16680,7 +16674,7 @@
       </c>
       <c r="K519" s="27"/>
       <c r="M519" s="5" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.3">
@@ -16917,7 +16911,7 @@
       </c>
       <c r="K533" s="27"/>
       <c r="M533" s="5" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.3">
@@ -16934,11 +16928,11 @@
         <v>940</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="K534" s="27"/>
       <c r="M534" s="5" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.3">
@@ -16956,7 +16950,7 @@
       </c>
       <c r="K535" s="27"/>
       <c r="M535" s="5" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.3">
@@ -16983,7 +16977,7 @@
       </c>
       <c r="K536" s="27"/>
       <c r="M536" s="5" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="537" spans="1:13" x14ac:dyDescent="0.3">
@@ -17061,7 +17055,7 @@
       </c>
       <c r="K540" s="27"/>
       <c r="M540" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="541" spans="1:13" x14ac:dyDescent="0.3">
@@ -17093,11 +17087,11 @@
         <v>940</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K542" s="27"/>
       <c r="M542" s="5" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.3">
@@ -17121,7 +17115,7 @@
       </c>
       <c r="K543" s="27"/>
       <c r="M543" s="5" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.3">
@@ -17381,10 +17375,10 @@
         <v>940</v>
       </c>
       <c r="K560" s="27" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="M560" s="5" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="561" spans="1:13" x14ac:dyDescent="0.3">
@@ -17450,7 +17444,7 @@
       </c>
       <c r="K564" s="27"/>
       <c r="M564" s="5" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="565" spans="1:13" x14ac:dyDescent="0.3">
@@ -17498,7 +17492,7 @@
       </c>
       <c r="K567" s="27"/>
       <c r="M567" s="5" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="568" spans="1:13" x14ac:dyDescent="0.3">
@@ -17605,11 +17599,11 @@
         <v>940</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="K574" s="27"/>
       <c r="M574" s="5" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.3">
@@ -17686,7 +17680,7 @@
         <v>940</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="K579" s="27"/>
     </row>
@@ -17767,10 +17761,10 @@
         <v>940</v>
       </c>
       <c r="E584" s="2" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="G584" s="2">
         <v>72</v>
@@ -17779,7 +17773,7 @@
         <v>4</v>
       </c>
       <c r="M584" s="5" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="585" spans="1:13" x14ac:dyDescent="0.3">
@@ -17893,7 +17887,7 @@
       </c>
       <c r="K591" s="27"/>
       <c r="M591" s="5" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="592" spans="1:13" x14ac:dyDescent="0.3">
@@ -18154,7 +18148,7 @@
       </c>
       <c r="K607" s="27"/>
       <c r="M607" s="5" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.3">
@@ -18274,7 +18268,7 @@
       </c>
       <c r="K614" s="27"/>
       <c r="M614" s="5" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="615" spans="1:13" x14ac:dyDescent="0.3">
@@ -18381,7 +18375,7 @@
         <v>3665</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>3</v>
@@ -18394,7 +18388,7 @@
       </c>
       <c r="K621" s="27"/>
       <c r="M621" s="5" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="622" spans="1:13" x14ac:dyDescent="0.3">
@@ -18435,11 +18429,11 @@
         <v>940</v>
       </c>
       <c r="E623" s="2" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="K623" s="27"/>
       <c r="M623" s="5" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="624" spans="1:13" x14ac:dyDescent="0.3">
@@ -18456,7 +18450,7 @@
         <v>940</v>
       </c>
       <c r="E624" s="2" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="F624" s="2" t="s">
         <v>1897</v>
@@ -18466,7 +18460,7 @@
       </c>
       <c r="K624" s="27"/>
       <c r="M624" s="5" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="625" spans="1:13" x14ac:dyDescent="0.3">
@@ -18579,14 +18573,14 @@
         <v>940</v>
       </c>
       <c r="E631" s="2" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="G631" s="2">
         <v>31</v>
       </c>
       <c r="K631" s="27"/>
       <c r="M631" s="5" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="632" spans="1:13" x14ac:dyDescent="0.3">
@@ -18655,7 +18649,7 @@
       </c>
       <c r="K635" s="27"/>
       <c r="M635" s="5" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="636" spans="1:13" x14ac:dyDescent="0.3">
@@ -18810,11 +18804,11 @@
         <v>940</v>
       </c>
       <c r="E644" s="4" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="K644" s="27"/>
       <c r="M644" s="5" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="645" spans="1:13" x14ac:dyDescent="0.3">
@@ -18891,16 +18885,16 @@
         <v>940</v>
       </c>
       <c r="E649" s="2" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="F649" s="2" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="K649" s="27" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="M649" s="5" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="650" spans="1:13" x14ac:dyDescent="0.3">
@@ -19058,7 +19052,7 @@
         <v>940</v>
       </c>
       <c r="E659" s="2" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="K659" s="27"/>
     </row>
@@ -19181,14 +19175,14 @@
         <v>940</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G667" s="2">
         <v>80</v>
       </c>
       <c r="K667" s="27"/>
       <c r="M667" s="5" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="668" spans="1:13" x14ac:dyDescent="0.3">
@@ -19220,7 +19214,7 @@
         <v>940</v>
       </c>
       <c r="E669" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="K669" s="27"/>
     </row>
@@ -19301,10 +19295,10 @@
         <v>1845</v>
       </c>
       <c r="K674" s="27" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="M674" s="5" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="675" spans="1:13" x14ac:dyDescent="0.3">
@@ -19322,7 +19316,7 @@
       </c>
       <c r="K675" s="27"/>
       <c r="M675" s="5" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="676" spans="1:13" x14ac:dyDescent="0.3">
@@ -19406,7 +19400,7 @@
       </c>
       <c r="K680" s="27"/>
       <c r="M680" s="5" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="681" spans="1:13" x14ac:dyDescent="0.3">
@@ -19442,7 +19436,7 @@
       </c>
       <c r="K682" s="27"/>
       <c r="M682" s="5" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="683" spans="1:13" x14ac:dyDescent="0.3">
@@ -19459,7 +19453,7 @@
         <v>940</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G683" s="2">
         <v>54</v>
@@ -19510,16 +19504,16 @@
         <v>940</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="G686" s="2">
         <v>61</v>
       </c>
       <c r="K686" s="27" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="M686" s="5" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="687" spans="1:13" x14ac:dyDescent="0.3">
@@ -19720,7 +19714,7 @@
       </c>
       <c r="K698" s="27"/>
       <c r="M698" s="5" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="699" spans="1:13" ht="60" x14ac:dyDescent="0.3">
@@ -19827,11 +19821,11 @@
         <v>940</v>
       </c>
       <c r="E704" s="2" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="K704" s="27"/>
       <c r="M704" s="5" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="705" spans="1:13" x14ac:dyDescent="0.3">
@@ -20088,14 +20082,14 @@
         <v>940</v>
       </c>
       <c r="E719" s="2" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="G719" s="2">
         <v>40</v>
       </c>
       <c r="K719" s="27"/>
       <c r="M719" s="5" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="720" spans="1:13" x14ac:dyDescent="0.3">
@@ -20335,7 +20329,7 @@
       </c>
       <c r="K734" s="27"/>
       <c r="M734" s="5" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="735" spans="1:13" x14ac:dyDescent="0.3">
@@ -20457,10 +20451,10 @@
         <v>940</v>
       </c>
       <c r="E742" s="2" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="F742" s="2" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="G742" s="2">
         <v>41</v>
@@ -20469,7 +20463,7 @@
         <v>2.5</v>
       </c>
       <c r="M742" s="5" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="743" spans="1:13" x14ac:dyDescent="0.3">
@@ -20667,7 +20661,7 @@
       </c>
       <c r="K754" s="27"/>
       <c r="M754" s="5" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="755" spans="1:13" x14ac:dyDescent="0.3">
@@ -20861,14 +20855,14 @@
         <v>940</v>
       </c>
       <c r="E766" s="4" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="G766" s="2">
         <v>24.1</v>
       </c>
       <c r="K766" s="27"/>
       <c r="M766" s="5" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="767" spans="1:13" x14ac:dyDescent="0.3">
@@ -20936,10 +20930,10 @@
         <v>80</v>
       </c>
       <c r="K770" s="27" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="M770" s="5" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="771" spans="1:13" ht="60" x14ac:dyDescent="0.3">
@@ -20966,7 +20960,7 @@
       </c>
       <c r="K771" s="27"/>
       <c r="M771" s="5" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="772" spans="1:13" x14ac:dyDescent="0.3">
@@ -21032,7 +21026,7 @@
       </c>
       <c r="K775" s="27"/>
       <c r="M775" s="5" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="776" spans="1:13" x14ac:dyDescent="0.3">
@@ -21079,14 +21073,14 @@
         <v>940</v>
       </c>
       <c r="E778" s="2" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="G778" s="2">
         <v>75</v>
       </c>
       <c r="K778" s="27"/>
       <c r="M778" s="5" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="779" spans="1:13" x14ac:dyDescent="0.3">
@@ -21137,7 +21131,7 @@
       </c>
       <c r="K781" s="27"/>
       <c r="M781" s="5" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="782" spans="1:13" x14ac:dyDescent="0.3">
@@ -21157,7 +21151,7 @@
         <v>0.6</v>
       </c>
       <c r="M782" s="5" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="783" spans="1:13" x14ac:dyDescent="0.3">
@@ -21244,7 +21238,7 @@
       </c>
       <c r="K787" s="27"/>
       <c r="M787" s="5" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="788" spans="1:13" ht="90" x14ac:dyDescent="0.3">
@@ -21441,10 +21435,10 @@
         <v>940</v>
       </c>
       <c r="K799" s="27" t="s">
+        <v>2126</v>
+      </c>
+      <c r="M799" s="5" t="s">
         <v>2128</v>
-      </c>
-      <c r="M799" s="5" t="s">
-        <v>2130</v>
       </c>
     </row>
     <row r="800" spans="1:13" x14ac:dyDescent="0.3">
@@ -21461,7 +21455,7 @@
         <v>940</v>
       </c>
       <c r="E800" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="K800" s="27"/>
     </row>
@@ -21497,7 +21491,7 @@
         <v>940</v>
       </c>
       <c r="E802" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="K802" s="27"/>
     </row>
@@ -21548,13 +21542,13 @@
         <v>1708</v>
       </c>
       <c r="F805" s="2" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="K805" s="27" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="M805" s="5" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.3">
@@ -21652,13 +21646,13 @@
         <v>940</v>
       </c>
       <c r="E811" s="2" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="K811" s="27">
         <v>5</v>
       </c>
       <c r="M811" s="5" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.3">
@@ -21690,11 +21684,11 @@
         <v>940</v>
       </c>
       <c r="E813" s="2" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="K813" s="27"/>
       <c r="M813" s="5" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.3">
@@ -21771,14 +21765,14 @@
         <v>940</v>
       </c>
       <c r="E818" s="2" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="F818" s="2" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="K818" s="27"/>
       <c r="M818" s="5" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="819" spans="1:13" x14ac:dyDescent="0.3">
@@ -21786,7 +21780,7 @@
         <v>6558</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>3</v>
@@ -21825,7 +21819,7 @@
         <v>940</v>
       </c>
       <c r="E821" s="2" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="K821" s="27"/>
     </row>
@@ -21843,13 +21837,13 @@
         <v>940</v>
       </c>
       <c r="E822" s="2" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="K822" s="27">
         <v>3</v>
       </c>
       <c r="M822" s="5" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="823" spans="1:13" x14ac:dyDescent="0.3">
@@ -22038,7 +22032,7 @@
       </c>
       <c r="K833" s="27"/>
       <c r="M833" s="5" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="834" spans="1:13" x14ac:dyDescent="0.3">
@@ -22229,7 +22223,7 @@
         <v>1.58</v>
       </c>
       <c r="M844" s="26" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="845" spans="1:13" x14ac:dyDescent="0.3">
@@ -22237,7 +22231,7 @@
         <v>8028</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="C845" s="2" t="s">
         <v>3</v>
@@ -22303,7 +22297,7 @@
         <v>3.4</v>
       </c>
       <c r="M848" s="5" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="849" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -22320,14 +22314,14 @@
         <v>940</v>
       </c>
       <c r="E849" s="2" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="F849" s="2" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="K849" s="27"/>
       <c r="M849" s="5" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="850" spans="1:13" x14ac:dyDescent="0.3">
@@ -22363,7 +22357,7 @@
       </c>
       <c r="K851" s="27"/>
       <c r="M851" s="5" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="852" spans="1:13" x14ac:dyDescent="0.3">
@@ -22822,7 +22816,7 @@
       </c>
       <c r="K880" s="27"/>
       <c r="M880" s="5" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="881" spans="1:13" x14ac:dyDescent="0.3">
@@ -22899,10 +22893,10 @@
         <v>940</v>
       </c>
       <c r="K885" s="27" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="M885" s="5" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="886" spans="1:13" x14ac:dyDescent="0.3">
@@ -23013,7 +23007,7 @@
       </c>
       <c r="K892" s="27"/>
       <c r="M892" s="5" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="893" spans="1:13" x14ac:dyDescent="0.3">
@@ -23270,7 +23264,7 @@
         <v>940</v>
       </c>
       <c r="E909" s="2" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="G909" s="2">
         <v>72</v>
@@ -23279,7 +23273,7 @@
         <v>3.8</v>
       </c>
       <c r="M909" s="5" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="910" spans="1:13" x14ac:dyDescent="0.3">
@@ -23713,17 +23707,17 @@
         <v>940</v>
       </c>
       <c r="E936" s="2" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="F936" s="2" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="G936" s="2">
         <v>70</v>
       </c>
       <c r="K936" s="27"/>
       <c r="M936" s="5" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="937" spans="1:13" x14ac:dyDescent="0.3">
@@ -24071,7 +24065,7 @@
       </c>
       <c r="K957" s="27"/>
       <c r="M957" s="5" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="958" spans="1:13" ht="45" x14ac:dyDescent="0.3">
@@ -24079,7 +24073,7 @@
         <v>1586</v>
       </c>
       <c r="B958" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C958" s="2" t="s">
         <v>1699</v>
@@ -24091,14 +24085,14 @@
         <v>1817</v>
       </c>
       <c r="F958" s="2" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="G958" s="2">
         <v>41</v>
       </c>
       <c r="K958" s="27"/>
       <c r="M958" s="5" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="959" spans="1:13" x14ac:dyDescent="0.3">
@@ -24166,7 +24160,7 @@
         <v>1.5</v>
       </c>
       <c r="M962" s="5" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="963" spans="1:13" x14ac:dyDescent="0.3">
@@ -24235,7 +24229,7 @@
       </c>
       <c r="K966" s="27"/>
       <c r="M966" s="5" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="967" spans="1:13" x14ac:dyDescent="0.3">
@@ -24316,7 +24310,7 @@
       </c>
       <c r="K970" s="27"/>
       <c r="M970" s="5" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="971" spans="1:13" x14ac:dyDescent="0.3">
@@ -24465,7 +24459,7 @@
         <v>3</v>
       </c>
       <c r="M979" s="5" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="980" spans="1:13" x14ac:dyDescent="0.3">
@@ -24621,7 +24615,7 @@
       </c>
       <c r="K989" s="27"/>
       <c r="M989" s="5" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="990" spans="1:13" x14ac:dyDescent="0.3">
@@ -24804,7 +24798,7 @@
       </c>
       <c r="K1001" s="27"/>
       <c r="M1001" s="5" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1002" spans="1:13" x14ac:dyDescent="0.3">
@@ -24977,7 +24971,7 @@
         <v>940</v>
       </c>
       <c r="E1012" s="4" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="H1012" s="2">
         <v>50</v>
@@ -25049,11 +25043,11 @@
         <v>1796</v>
       </c>
       <c r="F1016" s="2" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="K1016" s="27"/>
       <c r="M1016" s="5" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1017" spans="1:13" x14ac:dyDescent="0.3">
@@ -25089,7 +25083,7 @@
       </c>
       <c r="K1018" s="27"/>
       <c r="M1018" s="5" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1019" spans="1:13" x14ac:dyDescent="0.3">
@@ -25139,11 +25133,11 @@
         <v>940</v>
       </c>
       <c r="E1021" s="2" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="K1021" s="27"/>
       <c r="M1021" s="5" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1022" spans="1:13" x14ac:dyDescent="0.3">
@@ -25217,7 +25211,7 @@
         <v>3128</v>
       </c>
       <c r="B1026" s="1" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C1026" s="2" t="s">
         <v>1699</v>
@@ -25479,7 +25473,7 @@
       </c>
       <c r="K1042" s="27"/>
       <c r="M1042" s="5" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1043" spans="1:13" x14ac:dyDescent="0.3">
@@ -25772,14 +25766,14 @@
         <v>1824</v>
       </c>
       <c r="F1060" s="2" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="G1060" s="2">
         <v>66</v>
       </c>
       <c r="K1060" s="27"/>
       <c r="M1060" s="5" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1061" spans="1:14" x14ac:dyDescent="0.3">
@@ -25941,7 +25935,7 @@
       </c>
       <c r="K1070" s="27"/>
       <c r="M1070" s="5" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1071" spans="1:14" x14ac:dyDescent="0.3">
@@ -25976,19 +25970,19 @@
         <v>1778</v>
       </c>
       <c r="F1072" s="4" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="G1072" s="2">
         <v>720</v>
       </c>
       <c r="K1072" s="27" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="M1072" s="7" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="N1072" s="25" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1073" spans="1:13" x14ac:dyDescent="0.3">
@@ -26143,15 +26137,15 @@
         <v>1710</v>
       </c>
       <c r="F1082" s="4" t="s">
-        <v>2192</v>
+        <v>2190</v>
+      </c>
+      <c r="G1082" s="2">
+        <v>144</v>
       </c>
       <c r="I1082" s="2">
         <v>225</v>
       </c>
       <c r="K1082" s="27"/>
-      <c r="M1082" s="5" t="s">
-        <v>2073</v>
-      </c>
     </row>
     <row r="1083" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1083" s="3">
@@ -26600,7 +26594,7 @@
       </c>
       <c r="K1110" s="27"/>
       <c r="M1110" s="5" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1111" spans="1:13" x14ac:dyDescent="0.3">
@@ -26782,7 +26776,7 @@
         <v>940</v>
       </c>
       <c r="E1122" s="2" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="F1122" s="2" t="s">
         <v>1765</v>
@@ -26791,10 +26785,10 @@
         <v>80</v>
       </c>
       <c r="K1122" s="27" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="M1122" s="5" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1123" spans="1:13" x14ac:dyDescent="0.3">
@@ -26914,7 +26908,7 @@
       </c>
       <c r="K1129" s="27"/>
       <c r="M1129" s="5" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1130" spans="1:13" x14ac:dyDescent="0.3">
@@ -26964,14 +26958,14 @@
         <v>1817</v>
       </c>
       <c r="F1132" s="2" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="G1132" s="2">
         <v>250</v>
       </c>
       <c r="K1132" s="27"/>
       <c r="M1132" s="7" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1133" spans="1:13" x14ac:dyDescent="0.3">
@@ -27114,7 +27108,7 @@
         <v>3587</v>
       </c>
       <c r="B1142" s="1" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C1142" s="2" t="s">
         <v>1699</v>
@@ -27576,7 +27570,7 @@
         <v>940</v>
       </c>
       <c r="E1171" s="2" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="K1171" s="27"/>
     </row>
@@ -27802,7 +27796,7 @@
         <v>1848</v>
       </c>
       <c r="N1184" s="25" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1185" spans="1:13" x14ac:dyDescent="0.3">
@@ -27927,11 +27921,11 @@
         <v>940</v>
       </c>
       <c r="E1192" s="2" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="K1192" s="27"/>
       <c r="M1192" s="5" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1193" spans="1:13" x14ac:dyDescent="0.3">
@@ -28072,7 +28066,7 @@
       </c>
       <c r="K1201" s="27"/>
       <c r="M1201" s="5" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1202" spans="1:13" x14ac:dyDescent="0.3">
@@ -28740,7 +28734,7 @@
         <v>940</v>
       </c>
       <c r="E1245" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="K1245" s="27"/>
     </row>
@@ -28983,11 +28977,11 @@
         <v>940</v>
       </c>
       <c r="E1261" s="4" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="K1261" s="27"/>
       <c r="M1261" s="5" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1262" spans="1:13" x14ac:dyDescent="0.3">
@@ -29160,11 +29154,11 @@
         <v>940</v>
       </c>
       <c r="E1272" s="2" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="K1272" s="27"/>
       <c r="M1272" s="5" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1273" spans="1:13" x14ac:dyDescent="0.3">
@@ -29443,7 +29437,7 @@
       </c>
       <c r="K1289" s="27"/>
       <c r="M1289" s="5" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1290" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -29460,11 +29454,11 @@
         <v>940</v>
       </c>
       <c r="E1290" s="2" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="K1290" s="27"/>
       <c r="M1290" s="5" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1291" spans="1:13" x14ac:dyDescent="0.3">
@@ -29526,11 +29520,11 @@
         <v>940</v>
       </c>
       <c r="E1294" s="2" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="K1294" s="27"/>
       <c r="M1294" s="5" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1295" spans="1:13" x14ac:dyDescent="0.3">
@@ -29622,11 +29616,11 @@
         <v>940</v>
       </c>
       <c r="E1300" s="2" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="K1300" s="27"/>
       <c r="M1300" s="5" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1301" spans="1:13" x14ac:dyDescent="0.3">
@@ -29881,7 +29875,7 @@
       </c>
       <c r="K1316" s="27"/>
       <c r="M1316" s="5" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1317" spans="1:13" x14ac:dyDescent="0.3">
@@ -30145,7 +30139,7 @@
       </c>
       <c r="K1333" s="27"/>
     </row>
-    <row r="1334" spans="1:13" ht="45" x14ac:dyDescent="0.3">
+    <row r="1334" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A1334" s="3">
         <v>5309</v>
       </c>
@@ -30172,7 +30166,7 @@
       </c>
       <c r="K1334" s="27"/>
       <c r="M1334" s="5" t="s">
-        <v>1905</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1335" spans="1:13" x14ac:dyDescent="0.3">
@@ -30348,7 +30342,7 @@
         <v>3.5</v>
       </c>
       <c r="M1345" s="5" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="1346" spans="1:13" x14ac:dyDescent="0.3">
@@ -30450,7 +30444,7 @@
       </c>
       <c r="K1351" s="27"/>
       <c r="M1351" s="5" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1352" spans="1:13" x14ac:dyDescent="0.3">
@@ -30576,7 +30570,7 @@
       </c>
       <c r="K1359" s="27"/>
       <c r="M1359" s="5" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1360" spans="1:13" x14ac:dyDescent="0.3">
@@ -30662,7 +30656,7 @@
         <v>940</v>
       </c>
       <c r="E1364" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="F1364" s="2" t="s">
         <v>1902</v>
@@ -30672,7 +30666,7 @@
       </c>
       <c r="K1364" s="27"/>
       <c r="M1364" s="5" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1365" spans="1:13" x14ac:dyDescent="0.3">
@@ -30894,7 +30888,7 @@
       </c>
       <c r="K1377" s="27"/>
       <c r="M1377" s="5" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1378" spans="1:13" x14ac:dyDescent="0.3">
@@ -30912,7 +30906,7 @@
       </c>
       <c r="K1378" s="27"/>
       <c r="M1378" s="5" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1379" spans="1:13" x14ac:dyDescent="0.3">
@@ -31374,7 +31368,7 @@
       </c>
       <c r="K1407" s="27"/>
       <c r="M1407" s="5" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1408" spans="1:13" x14ac:dyDescent="0.3">
@@ -31730,14 +31724,14 @@
         <v>940</v>
       </c>
       <c r="E1430" s="4" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F1430" s="2" t="s">
         <v>1808</v>
       </c>
       <c r="K1430" s="27"/>
       <c r="M1430" s="5" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1431" spans="1:13" x14ac:dyDescent="0.3">
@@ -31784,7 +31778,7 @@
         <v>940</v>
       </c>
       <c r="E1433" s="4" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="K1433" s="27"/>
     </row>
@@ -31862,7 +31856,7 @@
         <v>940</v>
       </c>
       <c r="E1438" s="2" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="F1438" s="2" t="s">
         <v>1897</v>
@@ -32091,7 +32085,7 @@
       </c>
       <c r="K1452" s="27"/>
       <c r="M1452" s="5" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1453" spans="1:13" x14ac:dyDescent="0.3">
@@ -32462,10 +32456,10 @@
         <v>19</v>
       </c>
       <c r="K1475" s="27" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="M1475" s="5" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1476" spans="1:13" x14ac:dyDescent="0.3">
@@ -32497,7 +32491,7 @@
         <v>940</v>
       </c>
       <c r="E1477" s="2" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="K1477" s="27"/>
     </row>
@@ -32530,7 +32524,7 @@
         <v>940</v>
       </c>
       <c r="E1479" s="4" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F1479" s="2" t="s">
         <v>1818</v>
@@ -32540,7 +32534,7 @@
       </c>
       <c r="K1479" s="27"/>
       <c r="M1479" s="5" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1480" spans="1:13" x14ac:dyDescent="0.3">
@@ -32965,14 +32959,14 @@
         <v>1801</v>
       </c>
       <c r="F1506" s="2" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="G1506" s="2">
         <v>70</v>
       </c>
       <c r="K1506" s="27"/>
       <c r="M1506" s="5" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1507" spans="1:13" x14ac:dyDescent="0.3">
@@ -33083,7 +33077,7 @@
       </c>
       <c r="K1513" s="27"/>
       <c r="M1513" s="5" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1514" spans="1:13" x14ac:dyDescent="0.3">
@@ -33232,10 +33226,10 @@
         <v>120</v>
       </c>
       <c r="K1522" s="27" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="M1522" s="5" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1523" spans="1:13" x14ac:dyDescent="0.3">
@@ -33424,7 +33418,7 @@
       </c>
       <c r="K1534" s="27"/>
       <c r="M1534" s="5" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1535" spans="1:13" x14ac:dyDescent="0.3">
@@ -33486,11 +33480,11 @@
         <v>940</v>
       </c>
       <c r="E1538" s="4" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="K1538" s="27"/>
       <c r="M1538" s="5" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1539" spans="1:13" x14ac:dyDescent="0.3">
@@ -33555,11 +33549,11 @@
         <v>940</v>
       </c>
       <c r="E1542" s="2" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="K1542" s="27"/>
       <c r="M1542" s="5" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1543" spans="1:13" x14ac:dyDescent="0.3">
@@ -33681,11 +33675,11 @@
         <v>940</v>
       </c>
       <c r="E1550" s="4" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="K1550" s="27"/>
       <c r="M1550" s="5" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1551" spans="1:13" x14ac:dyDescent="0.3">
@@ -33813,10 +33807,10 @@
         <v>940</v>
       </c>
       <c r="K1557" s="27" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="M1557" s="5" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1558" spans="1:13" x14ac:dyDescent="0.3">
@@ -33848,13 +33842,13 @@
         <v>940</v>
       </c>
       <c r="E1559" s="2" t="s">
+        <v>2174</v>
+      </c>
+      <c r="K1559" s="27" t="s">
         <v>2176</v>
       </c>
-      <c r="K1559" s="27" t="s">
-        <v>2178</v>
-      </c>
       <c r="M1559" s="5" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1560" spans="1:13" x14ac:dyDescent="0.3">
@@ -34165,11 +34159,11 @@
         <v>940</v>
       </c>
       <c r="E1579" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="K1579" s="27"/>
       <c r="M1579" s="5" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1580" spans="1:13" x14ac:dyDescent="0.3">
@@ -34456,7 +34450,7 @@
         <v>940</v>
       </c>
       <c r="E1597" s="4" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="G1597" s="2">
         <v>81</v>
@@ -34577,7 +34571,7 @@
       </c>
       <c r="K1604" s="27"/>
       <c r="M1604" s="5" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1605" spans="1:13" x14ac:dyDescent="0.3">
@@ -34639,7 +34633,7 @@
         <v>940</v>
       </c>
       <c r="E1608" s="2" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="K1608" s="27"/>
     </row>
@@ -34897,7 +34891,7 @@
         <v>940</v>
       </c>
       <c r="E1624" s="2" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="K1624" s="27"/>
     </row>
@@ -35179,7 +35173,7 @@
         <v>940</v>
       </c>
       <c r="E1642" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F1642" s="4" t="s">
         <v>1882</v>
@@ -35189,7 +35183,7 @@
       </c>
       <c r="K1642" s="27"/>
       <c r="M1642" s="5" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1643" spans="1:13" x14ac:dyDescent="0.3">
@@ -35240,7 +35234,7 @@
       </c>
       <c r="K1645" s="27"/>
       <c r="M1645" s="5" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1646" spans="1:13" x14ac:dyDescent="0.3">
@@ -35332,7 +35326,7 @@
         <v>940</v>
       </c>
       <c r="E1651" s="2" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="G1651" s="2">
         <v>450</v>
@@ -35342,7 +35336,7 @@
       </c>
       <c r="K1651" s="27"/>
       <c r="M1651" s="5" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="1652" spans="1:13" x14ac:dyDescent="0.3">
@@ -35359,19 +35353,19 @@
         <v>940</v>
       </c>
       <c r="E1652" s="2" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="F1652" s="2" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="G1652" s="2">
         <v>55</v>
       </c>
       <c r="K1652" s="27" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="M1652" s="5" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1653" spans="1:13" x14ac:dyDescent="0.3">
@@ -35418,7 +35412,7 @@
         <v>940</v>
       </c>
       <c r="E1655" s="2" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="K1655" s="27"/>
     </row>
@@ -35994,7 +35988,7 @@
         <v>940</v>
       </c>
       <c r="E1693" s="2" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="F1693" s="2" t="s">
         <v>1897</v>
@@ -36003,10 +35997,10 @@
         <v>81</v>
       </c>
       <c r="K1693" s="27" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="M1693" s="5" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1694" spans="1:13" x14ac:dyDescent="0.3">
@@ -36176,7 +36170,7 @@
         <v>940</v>
       </c>
       <c r="E1704" s="2" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="G1704" s="2">
         <v>48</v>
@@ -36572,7 +36566,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E2" s="2">
         <v>15877</v>
@@ -36580,22 +36574,22 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1983</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1984</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>1985</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>1986</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>1987</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5845937D-B551-4B61-B839-2078D92DEEB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98A2639-2804-4508-9C94-130ED0D29793}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_stock" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5930" uniqueCount="2204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5841" uniqueCount="2116">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5208,12 +5208,6 @@
   </si>
   <si>
     <t>近5年大概配 1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球第三大音效晶片控制廠商
-PC 題材, 短期利多
-H1 小賺, 8月 0.35, Q3 估 1.5? 還好而以</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5860,12 +5854,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/09 EPS 4.01 - 1.08 - 1.31 = 1.62
-2020 估 EPS 6~7.5 
-2021 還是不看好，東西不用一直換</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>學名藥
 老闆人不好
 公司營收在衰退</t>
@@ -5875,17 +5863,6 @@
     <t>聯發科團隊入駐
 Wifi6
 轉虧為營的題材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020 估 EPS 4.28 配 3.2
-2021 估 EPS 6 配 4.3
-滿能滿載，太貴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2020 估 EPS 4.35
-2021 估 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6078,14 +6055,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看來是最近才剛布倉，
-可能要等一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能要等一下</t>
-  </si>
-  <si>
     <t>二及體</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6167,14 +6136,6 @@
   </si>
   <si>
     <t>學名藥廠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>綠能、儲能
-外資投信出貨中
-2020 EPS 估2.5塊，配 2塊
-2021 EPS 估4塊，配3.2塊
-太陽光電、氫能、嘟嘟房以及正興機電</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6318,13 +6279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9月大陸新法規，要加裝防撞警示系統
-毫米波雷達拿下兩大車廠訂單
-市佔至少五成
-2021 EPS挑戰15元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鋁質電容廠
 Q4 可能匯損嚴重</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6403,11 +6357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影像感測器（CIS）廠
-2020 EPS 5.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> Apple</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6463,296 +6412,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hinge。
-[2020 EPS] 5.66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 21.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2020 EPS] 2.53
-面板觸控元件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 0.33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 6.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 6.47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 2.51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 9.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 0.36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 0.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 3.74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 1.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PCB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2020 EPS] 11.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>精密齒輪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配息小氣，都配5塊而以。
-[2020 EPS] 9.81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電弧爐集塵灰處理</t>
   </si>
   <si>
-    <t>[2020 EPS] 4.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 5.76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[2020 EPS] 4.31 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電纜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2020 EPS] 15.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整合觸控暨驅動 IC (TDDI)
-以及大尺寸面板驅動 IC （LDDIC）
-[2020 EPS] 19.42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 6.72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>隱形眼鏡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全球第一 音效晶片控制廠商
-網通晶片
-瑞昱的WiFi及藍牙晶片出貨強勁
-車用及網路基建相關訂單明顯回溫
-[2020 EPS] 17.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 4.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 2.56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 2.42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 19.97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 182.86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 1.08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 8.59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>台塑四寶</t>
   </si>
   <si>
-    <t>[2020 EPS] 3.34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>台塑四寶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2020 EPS] 3.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 3.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 0.79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 1.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保健</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2020 EPS] 1.81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 7.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以証券為主
-[2020 EPS] 1.99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>區間操作 27~54
-[2020 EPS] 5.39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 0.41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 3.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 49.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 2.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 8.63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鋁質電解電容
-電動車、太陽能都要用
-國巨集團就是要整合這一塊
-目前本益比己經偏高很多
-[2020 EPS] 4.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前股價炒做過頭
-[2020 EPS] 13.87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 1.42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 3.87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 25.63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 26.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 5.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 2.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020 EPS 估 4.7
-被動元件客戶訂單成長以及新產品與新客戶的加入
-太陽能背銀導電漿量產
-九成仍為被動元件客戶，太陽能占比約一成
-[2020 EPS] 4.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>昇銳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 2.33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外資、法人持續布局中
-[2020 EPS] 11.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 15.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穩定風險控管不錯的公司
-區間操作 20~28
-[2020 EPS] 1.43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 28.48</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6768,12 +6462,6 @@
   </si>
   <si>
     <t>鍍鋅鋼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快充電頭
-ADAS
-[2020 EPS] 1.86</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6805,30 +6493,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2020 EPS] 2.59
-天線產品很有競爭力
-營收年增很多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>台積電</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>機構件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 11.57</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PCB
 華新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 3.42</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6843,16 +6517,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配息低的小氣公司
-[2020 EPS] 6.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 6.25
-2021/01 EPS 0.84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>半導體通路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6866,38 +6530,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2020 EPS] 5.76
-2021/01 EPS 1.1
-鈞興生產齒輪箱、粉末冶金齒輪及精密五金件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021 重回 Apple 概念股
-2021 估 EPS 4塊。
-[2020 EPS] 1.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 2.16
-PChome 網路家庭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 4.36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 12.2
-2021/01 1.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高爾夫球具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 3.2
-沒有什麼漲跌幅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6918,41 +6551,306 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nand Flash、PCIe SSD 控制器(2025全球最大)
-2020 EPS 上看 48塊。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>全球商用置物設備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不投資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 虧損，2021 不配股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>區間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01 單月EPS 1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製紙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利很低，匯損很嚴重。
+短纖及長纖漿價大幅彈升，分別自去年底的每噸480美元、600美元跳升至3月的734美元、928元，後續期貨報價已炒翻天，預期至6月將上看850、1100美元，漲勢相當驚人。
+[2020 EPS] -0.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐飲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強固型電腦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠帶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽車零件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季配，但配息率很差
+健身器材及手機零件出貨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶技1月稅前EPS為0.85元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太陽能股中營收比較好，也有在擴廠。
+不配股配息。不投資。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不投資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月 EPS 0.9
+10月 EPS 1.08
+同致1月獲利年增78倍 每股賺1.18元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動化系統
+2021/01 營收大減。
+2020 EPS太少，2021 配息不高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC(工業電腦)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被動元件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡膠</t>
+  </si>
+  <si>
+    <t>不投資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往台泥 / 亞泥投資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>華義列警示股 10月每股虧損0.13元
+12月自結稅後純益1,100萬元，每股純益0.81元，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心
+短期注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星
+短期注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封裝測試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tape-COF98.29%</t>
+  </si>
+  <si>
+    <t>興能高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定存股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長年穩定配股配息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tesla藍牙胎壓偵測大訂單
+獨家訂單，又是標配。</t>
   </si>
   <si>
     <t>2021
-配息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 4.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 3.55</t>
+配息
+(可刪除)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒有什麼漲跌幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠能、儲能
+外資投信出貨中
+2021 EPS 估4塊，配3.2塊
+太陽光電、氫能、嘟嘟房以及正興機電</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配息小氣，都配5塊而以。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋁合金棒及皮件業務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋁質電解電容
+電動車、太陽能都要用
+國巨集團就是要整合這一塊
+目前本益比己經偏高很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球第一 音效晶片控制廠商
+網通晶片
+瑞昱的WiFi及藍牙晶片出貨強勁
+車用及網路基建相關訂單明顯回溫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銅箔基板(CCL)52.80%
+《電子零件》HDI板夯 台光電今年營運攀峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 還是不看好，東西不用一直換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快充電頭
+ADAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外資、法人持續布局中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京城銀2月稅前盈餘5.72億元 稅前EPS 0.51元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>區間操作 27~54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穩定風險控管不錯的公司
+區間操作 20~28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以証券為主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強固型電腦、汽車機構件、複合式機構件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合觸控暨驅動 IC (TDDI)
+以及大尺寸面板驅動 IC （LDDIC）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板觸控元件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020Q2 寧波薄膜廠在過戶程序完成後，於第三季認列處分利益，每股獲利貢獻約1.5元。
+2021Q1 售出林口悠逸休閒旅館土地，獲利7.7億元，每股獲利貢獻約1.4元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01 EPS 1.1
+鈞興生產齒輪箱、粉末冶金齒輪及精密五金件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰鼎四大產品線包括HOME、通訊、PC、車用
+營收成長中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hinge。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配息低的小氣公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01 1.12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>疫情影響帶動[遠距辦公]、[伺服器]
 代理國際網路通訊軟硬體產品
 Cisco、Citrix、Dell、IBM、Oracle、Redhat、VMware、SAP
-外資的布倉位不夠。
-[2020 EPS] 2.91</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 3.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 10.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 3.66</t>
+外資的布倉位不夠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 重回 Apple 概念股
+2021 估 EPS 4塊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛群打入亞馬遜智慧貨架系統</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6967,405 +6865,102 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">精密鑽針
-</t>
+      <t>精密鑽針</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4D5156"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[2020 EPS] 1.98</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 5.67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 5.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 2.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 0.37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 8.67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球第三大的高爾夫頭製造商
-[2020 EPS] 6.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商用置物設備</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 5.63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 5.52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 4.9
-京城銀2月稅前盈餘5.72億元 稅前EPS 0.51元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 0.48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 10.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 7.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不投資</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020 虧損，2021 不配股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>區間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/01 單月EPS 1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>製紙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛利很低，匯損很嚴重。
-短纖及長纖漿價大幅彈升，分別自去年底的每噸480美元、600美元跳升至3月的734美元、928元，後續期貨報價已炒翻天，預期至6月將上看850、1100美元，漲勢相當驚人。
-[2020 EPS] -0.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鋁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鋁合金棒及皮件業務
-[2020 EPS] 0.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 1.44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐飲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>強固型電腦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>強固型電腦、汽車機構件、複合式機構件
-[2020 EPS] 4.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.43+0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 1.51
-2020Q2 寧波薄膜廠在過戶程序完成後，於第三季認列處分利益，每股獲利貢獻約1.5元。
-2021Q1 售出林口悠逸休閒旅館土地，獲利7.7億元，每股獲利貢獻約1.4元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>膠帶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽車零件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 3.78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>季配，但配息率很差
-健身器材及手機零件出貨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 4.56
-盛群打入亞馬遜智慧貨架系統</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶技1月稅前EPS為0.85元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太陽能股中營收比較好，也有在擴廠。
-不配股配息。不投資。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不投資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前股價炒做過頭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>配息率太低
-百和1月EPS0.57元
-[2020 EPS] 5.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9月 EPS 0.9
-10月 EPS 1.08
-同致1月獲利年增78倍 每股賺1.18元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 3.59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自動化系統
-2021/01 營收大減。
-2020 EPS太少，2021 配息不高。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] -1.24
-營收要上3E 才有看頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 4.04
-不賣的定存股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPC(工業電腦)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 6.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 6.31
-泰鼎四大產品線包括HOME、通訊、PC、車用
-營收成長中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被動元件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 11.3
-銅箔基板(CCL)52.80%
-《電子零件》HDI板夯 台光電今年營運攀峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伺服器，其次是筆電產品和車用產品
-凡甲主業為伺服器用線
-[2020 EPS] 7.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橡膠</t>
-  </si>
-  <si>
-    <t>短期注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不投資</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往台泥 / 亞泥投資</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短期注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>華義列警示股 10月每股虧損0.13元
-12月自結稅後純益1,100萬元，每股純益0.81元，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心
-短期注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衛星
-短期注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封裝測試</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tape-COF98.29%</t>
-  </si>
-  <si>
-    <t>興能高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2020 EPS] 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5+1.8</t>
+百和1月EPS0.57元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 估 EPS 4.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 估 EPS 6 配 4.3
+滿能滿載，太貴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不賣的定存股</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>真錢博奕
 月營收要守穩 8億
 單月 EPS 要有 5.5塊
-[2020 EPS] 57.68
 鈊象2月稅前EPS為6.06元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2020 EPS] 2.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定存股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>長年穩定配股配息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tesla藍牙胎壓偵測大訂單
-獨家訂單，又是標配。</t>
+    <t>伺服器，其次是筆電產品和車用產品
+凡甲主業為伺服器用線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被動元件客戶訂單成長以及新產品與新客戶的加入
+太陽能背銀導電漿量產
+九成仍為被動元件客戶，太陽能占比約一成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像感測器（CIS）廠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01 EPS 0.84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球第三大音效晶片控制廠商
+PC 題材, 短期利多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天線產品很有競爭力
+營收年增很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營收要上3E 才有看頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PChome 網路家庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nand Flash、PCIe SSD 控制器(2025全球最大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球第三大的高爾夫頭製造商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不投資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月大陸新法規，要加裝防撞警示系統
+毫米波雷達拿下兩大車廠訂單
+市佔至少五成
+單月營收要站上 5億再說。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7919,8 +7514,8 @@
   <dimension ref="A1:N1712"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1322" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1327" sqref="L1327"/>
+      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F347" sqref="F347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7955,16 +7550,16 @@
         <v>1703</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>1714</v>
@@ -7973,16 +7568,16 @@
         <v>1713</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>2107</v>
+        <v>2068</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>1700</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>1988</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -7999,17 +7594,17 @@
         <v>940</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="G2" s="2">
         <v>40.5</v>
       </c>
       <c r="K2" s="27"/>
       <c r="M2" s="5" t="s">
-        <v>2201</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -8026,7 +7621,7 @@
         <v>940</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>2202</v>
+        <v>2066</v>
       </c>
       <c r="G3" s="2">
         <v>41</v>
@@ -8047,11 +7642,11 @@
         <v>940</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>2185</v>
+        <v>2054</v>
       </c>
       <c r="K4" s="27"/>
       <c r="M4" s="5" t="s">
-        <v>2186</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -8068,11 +7663,11 @@
         <v>940</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>2185</v>
+        <v>2054</v>
       </c>
       <c r="K5" s="27"/>
       <c r="M5" s="5" t="s">
-        <v>2186</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -8089,11 +7684,11 @@
         <v>940</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>2185</v>
+        <v>2054</v>
       </c>
       <c r="K6" s="27"/>
       <c r="M6" s="5" t="s">
-        <v>2186</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -8110,11 +7705,11 @@
         <v>940</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>2185</v>
+        <v>2054</v>
       </c>
       <c r="K7" s="27"/>
       <c r="M7" s="5" t="s">
-        <v>2186</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -8131,11 +7726,11 @@
         <v>940</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>2185</v>
+        <v>2054</v>
       </c>
       <c r="K8" s="27"/>
       <c r="M8" s="5" t="s">
-        <v>2186</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -8248,7 +7843,7 @@
         <v>1218</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -8257,11 +7852,11 @@
         <v>940</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="K16" s="27"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1219</v>
       </c>
@@ -8276,7 +7871,7 @@
       </c>
       <c r="K17" s="27"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1220</v>
       </c>
@@ -8290,17 +7885,17 @@
         <v>940</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G18" s="2">
         <v>11</v>
       </c>
       <c r="K18" s="27"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1225</v>
       </c>
@@ -8315,7 +7910,7 @@
       </c>
       <c r="K19" s="27"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1227</v>
       </c>
@@ -8330,7 +7925,7 @@
       </c>
       <c r="K20" s="27"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>1229</v>
       </c>
@@ -8345,7 +7940,7 @@
       </c>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1231</v>
       </c>
@@ -8360,7 +7955,7 @@
       </c>
       <c r="K22" s="27"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1232</v>
       </c>
@@ -8374,17 +7969,17 @@
         <v>940</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G23" s="2">
         <v>115</v>
       </c>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1233</v>
       </c>
@@ -8399,7 +7994,7 @@
       </c>
       <c r="K24" s="27"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>1234</v>
       </c>
@@ -8414,7 +8009,7 @@
       </c>
       <c r="K25" s="27"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1235</v>
       </c>
@@ -8429,7 +8024,7 @@
       </c>
       <c r="K26" s="27"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1236</v>
       </c>
@@ -8443,16 +8038,11 @@
         <v>940</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>2194</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>2196</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2063</v>
+      </c>
+      <c r="K27" s="27"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>1256</v>
       </c>
@@ -8467,7 +8057,7 @@
       </c>
       <c r="K28" s="27"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>1301</v>
       </c>
@@ -8481,14 +8071,11 @@
         <v>940</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>2038</v>
+        <v>2001</v>
       </c>
       <c r="K29" s="27"/>
-      <c r="M29" s="5" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>1303</v>
       </c>
@@ -8503,7 +8090,7 @@
       </c>
       <c r="K30" s="27"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>1304</v>
       </c>
@@ -8518,7 +8105,7 @@
       </c>
       <c r="K31" s="27"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>1305</v>
       </c>
@@ -8532,17 +8119,12 @@
         <v>940</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>2200</v>
+        <v>2064</v>
       </c>
       <c r="G32" s="2">
         <v>31</v>
       </c>
-      <c r="K32" s="27" t="s">
-        <v>2197</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>2199</v>
-      </c>
+      <c r="K32" s="27"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
@@ -8711,7 +8293,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>1323</v>
       </c>
@@ -8726,7 +8308,7 @@
       </c>
       <c r="K44" s="27"/>
       <c r="M44" s="5" t="s">
-        <v>2101</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -8758,7 +8340,7 @@
         <v>940</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="K46" s="27"/>
     </row>
@@ -8776,12 +8358,9 @@
         <v>940</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>2038</v>
+        <v>2001</v>
       </c>
       <c r="K47" s="27"/>
-      <c r="M47" s="5" t="s">
-        <v>2039</v>
-      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
@@ -8887,10 +8466,10 @@
         <v>940</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G54" s="2">
         <v>10.5</v>
@@ -8929,14 +8508,14 @@
         <v>940</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>2136</v>
+        <v>2028</v>
       </c>
       <c r="K56" s="27"/>
       <c r="M56" s="5" t="s">
-        <v>2137</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -9463,11 +9042,11 @@
         <v>940</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="K91" s="27"/>
       <c r="M91" s="7" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
@@ -9619,17 +9198,17 @@
         <v>940</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>2138</v>
+        <v>2030</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>2139</v>
+        <v>2031</v>
       </c>
       <c r="G101" s="2">
         <v>150</v>
       </c>
       <c r="K101" s="27"/>
       <c r="M101" s="5" t="s">
-        <v>2140</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -9646,7 +9225,7 @@
         <v>940</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="K102" s="27"/>
     </row>
@@ -9664,7 +9243,7 @@
         <v>940</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="K103" s="27"/>
     </row>
@@ -9697,17 +9276,17 @@
         <v>940</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>2102</v>
+        <v>2023</v>
       </c>
       <c r="G105" s="2">
         <v>51.5</v>
       </c>
       <c r="K105" s="27"/>
       <c r="M105" s="5" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
@@ -9725,7 +9304,7 @@
       </c>
       <c r="K106" s="27"/>
     </row>
-    <row r="107" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="60" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>1513</v>
       </c>
@@ -9739,10 +9318,10 @@
         <v>940</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="G107" s="2">
         <v>47</v>
@@ -9750,7 +9329,7 @@
       <c r="K107" s="27"/>
       <c r="L107" s="4"/>
       <c r="M107" s="5" t="s">
-        <v>1939</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -9767,11 +9346,11 @@
         <v>940</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="K108" s="27"/>
       <c r="M108" s="5" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
@@ -9788,7 +9367,7 @@
         <v>940</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="K109" s="27"/>
     </row>
@@ -9821,17 +9400,17 @@
         <v>940</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="G111" s="2">
         <v>13.5</v>
       </c>
       <c r="K111" s="27"/>
       <c r="M111" s="5" t="s">
-        <v>2072</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -9923,7 +9502,7 @@
         <v>940</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="K117" s="27"/>
     </row>
@@ -10031,7 +9610,7 @@
         <v>940</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="K124" s="27"/>
     </row>
@@ -10064,7 +9643,7 @@
         <v>940</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="K126" s="27"/>
     </row>
@@ -10202,10 +9781,10 @@
         <v>940</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>1958</v>
+        <v>1951</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1960</v>
+        <v>1953</v>
       </c>
       <c r="K135" s="27"/>
     </row>
@@ -10253,14 +9832,14 @@
         <v>940</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="K138" s="27"/>
       <c r="M138" s="5" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
@@ -10277,9 +9856,6 @@
         <v>940</v>
       </c>
       <c r="K139" s="27"/>
-      <c r="M139" s="5" t="s">
-        <v>2060</v>
-      </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
@@ -10310,17 +9886,17 @@
         <v>940</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="G141" s="2">
         <v>90</v>
       </c>
       <c r="K141" s="27"/>
       <c r="M141" s="5" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
@@ -10367,19 +9943,16 @@
         <v>940</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>2025</v>
+        <v>1999</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>2172</v>
+        <v>2049</v>
       </c>
       <c r="G144" s="2">
         <v>15</v>
       </c>
       <c r="K144" s="27">
         <v>0.9</v>
-      </c>
-      <c r="M144" s="5" t="s">
-        <v>2117</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -10418,7 +9991,7 @@
       </c>
       <c r="K146" s="27"/>
       <c r="M146" s="5" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
@@ -10570,9 +10143,6 @@
         <v>940</v>
       </c>
       <c r="K156" s="27"/>
-      <c r="M156" s="5" t="s">
-        <v>2058</v>
-      </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
@@ -10738,11 +10308,11 @@
         <v>940</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="K167" s="27"/>
       <c r="M167" s="5" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
@@ -10924,7 +10494,7 @@
         <v>940</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="K179" s="27"/>
     </row>
@@ -10957,14 +10527,14 @@
         <v>940</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="K181" s="27"/>
       <c r="M181" s="5" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
@@ -10996,7 +10566,7 @@
         <v>940</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="K183" s="27"/>
     </row>
@@ -11254,19 +10824,19 @@
         <v>940</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>2142</v>
+        <v>2034</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>2143</v>
+        <v>2035</v>
       </c>
       <c r="G200" s="2">
         <v>11</v>
       </c>
       <c r="K200" s="27" t="s">
-        <v>2141</v>
+        <v>2033</v>
       </c>
       <c r="M200" s="5" t="s">
-        <v>2144</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
@@ -11450,9 +11020,6 @@
       <c r="K212" s="27">
         <v>0.3</v>
       </c>
-      <c r="M212" s="5" t="s">
-        <v>2118</v>
-      </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
@@ -11528,17 +11095,17 @@
         <v>940</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>2074</v>
+        <v>2007</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="G217" s="2">
         <v>13</v>
       </c>
       <c r="K217" s="27"/>
       <c r="M217" s="5" t="s">
-        <v>2073</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
@@ -11720,7 +11287,7 @@
         <v>940</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="K229" s="27"/>
     </row>
@@ -11783,7 +11350,7 @@
         <v>940</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="K233" s="27"/>
     </row>
@@ -11801,7 +11368,7 @@
         <v>940</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="K234" s="27"/>
     </row>
@@ -11849,7 +11416,7 @@
         <v>940</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>1965</v>
+        <v>1958</v>
       </c>
       <c r="K237" s="27"/>
     </row>
@@ -11867,7 +11434,7 @@
         <v>940</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="K238" s="27"/>
     </row>
@@ -11885,13 +11452,10 @@
         <v>940</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>2183</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>2184</v>
+        <v>2053</v>
       </c>
       <c r="G239" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K239" s="27"/>
     </row>
@@ -11909,7 +11473,7 @@
         <v>940</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="K240" s="27"/>
     </row>
@@ -11927,7 +11491,7 @@
         <v>940</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="K241" s="27"/>
     </row>
@@ -11975,7 +11539,7 @@
         <v>940</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="K244" s="27"/>
     </row>
@@ -11993,7 +11557,7 @@
         <v>940</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="K245" s="27"/>
     </row>
@@ -12026,7 +11590,7 @@
         <v>940</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="K247" s="27"/>
     </row>
@@ -12059,7 +11623,7 @@
         <v>940</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="K249" s="27"/>
     </row>
@@ -12092,14 +11656,17 @@
         <v>940</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>1761</v>
+        <v>2112</v>
+      </c>
+      <c r="G251" s="2">
+        <v>100</v>
       </c>
       <c r="K251" s="27"/>
       <c r="M251" s="5" t="s">
-        <v>1970</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
@@ -12191,16 +11758,13 @@
         <v>940</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>2172</v>
+        <v>2049</v>
       </c>
       <c r="G257" s="2">
         <v>55</v>
       </c>
       <c r="K257" s="27">
         <v>3.4</v>
-      </c>
-      <c r="M257" s="5" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
@@ -12232,10 +11796,10 @@
         <v>940</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="G259" s="2">
         <v>51</v>
@@ -12244,9 +11808,6 @@
       <c r="L259" s="24">
         <v>3.9527738679245283</v>
       </c>
-      <c r="M259" s="5" t="s">
-        <v>2033</v>
-      </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
@@ -12263,7 +11824,7 @@
       </c>
       <c r="K260" s="27"/>
     </row>
-    <row r="261" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>2308</v>
       </c>
@@ -12277,17 +11838,17 @@
         <v>940</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="G261" s="2">
         <v>130</v>
       </c>
       <c r="K261" s="27"/>
       <c r="M261" s="5" t="s">
-        <v>2020</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
@@ -12319,7 +11880,7 @@
         <v>940</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="K263" s="27"/>
     </row>
@@ -12367,10 +11928,10 @@
         <v>940</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="G266" s="2">
         <v>101</v>
@@ -12380,7 +11941,7 @@
         <v>3.9667649043478264</v>
       </c>
       <c r="M266" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.3">
@@ -12442,7 +12003,10 @@
         <v>940</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>2114</v>
       </c>
       <c r="G270" s="2">
         <v>420</v>
@@ -12463,11 +12027,14 @@
         <v>940</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>1825</v>
+        <v>1824</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>1898</v>
       </c>
       <c r="K271" s="27"/>
       <c r="M271" s="5" t="s">
-        <v>1952</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
@@ -12499,10 +12066,10 @@
         <v>940</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="G273" s="2">
         <v>580</v>
@@ -12511,9 +12078,6 @@
       <c r="L273" s="24">
         <v>7.8397182185007974</v>
       </c>
-      <c r="M273" s="5" t="s">
-        <v>2034</v>
-      </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
@@ -12559,12 +12123,12 @@
         <v>940</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>2003</v>
+        <v>1994</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>1898</v>
       </c>
       <c r="K276" s="27"/>
-      <c r="M276" s="5" t="s">
-        <v>2059</v>
-      </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
@@ -12625,12 +12189,12 @@
         <v>940</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>1898</v>
       </c>
       <c r="K280" s="27"/>
-      <c r="M280" s="5" t="s">
-        <v>2008</v>
-      </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
@@ -12646,7 +12210,7 @@
         <v>940</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="K281" s="27"/>
     </row>
@@ -12664,7 +12228,7 @@
         <v>940</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="K282" s="27"/>
     </row>
@@ -12712,11 +12276,14 @@
         <v>940</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>1898</v>
       </c>
       <c r="K285" s="27"/>
       <c r="M285" s="5" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.3">
@@ -12732,6 +12299,9 @@
       <c r="D286" s="2" t="s">
         <v>940</v>
       </c>
+      <c r="F286" s="2" t="s">
+        <v>1898</v>
+      </c>
       <c r="K286" s="27"/>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.3">
@@ -12748,7 +12318,10 @@
         <v>940</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>1898</v>
       </c>
       <c r="K287" s="27"/>
     </row>
@@ -12811,17 +12384,17 @@
         <v>940</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>2187</v>
+        <v>1898</v>
       </c>
       <c r="G291" s="2">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="K291" s="27"/>
     </row>
-    <row r="292" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>2358</v>
       </c>
@@ -12835,14 +12408,14 @@
         <v>940</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>2145</v>
+        <v>2037</v>
       </c>
       <c r="G292" s="2">
         <v>13</v>
       </c>
       <c r="K292" s="27"/>
       <c r="M292" s="5" t="s">
-        <v>2146</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
@@ -12964,7 +12537,10 @@
         <v>940</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>1898</v>
       </c>
       <c r="G300" s="2">
         <v>51</v>
@@ -13000,17 +12576,17 @@
         <v>940</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>2103</v>
+        <v>2024</v>
       </c>
       <c r="G302" s="2">
         <v>25</v>
       </c>
       <c r="K302" s="27"/>
       <c r="M302" s="5" t="s">
-        <v>2104</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.3">
@@ -13043,7 +12619,7 @@
       </c>
       <c r="K304" s="27"/>
     </row>
-    <row r="305" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" ht="60" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
         <v>2375</v>
       </c>
@@ -13057,17 +12633,17 @@
         <v>940</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="G305" s="2">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K305" s="27"/>
       <c r="M305" s="5" t="s">
-        <v>2055</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
@@ -13084,14 +12660,14 @@
         <v>940</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="K306" s="27"/>
       <c r="M306" s="5" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.3">
@@ -13108,17 +12684,17 @@
         <v>940</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="K307" s="27"/>
       <c r="M307" s="5" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" ht="60" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
         <v>2379</v>
       </c>
@@ -13132,14 +12708,14 @@
         <v>940</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="G308" s="2">
         <v>280</v>
       </c>
       <c r="K308" s="27"/>
       <c r="M308" s="5" t="s">
-        <v>2030</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
@@ -13170,9 +12746,18 @@
       <c r="D310" s="2" t="s">
         <v>940</v>
       </c>
+      <c r="E310" s="2" t="s">
+        <v>2115</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>1898</v>
+      </c>
+      <c r="G310" s="2">
+        <v>91</v>
+      </c>
       <c r="K310" s="27"/>
     </row>
-    <row r="311" spans="1:13" ht="45" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>2383</v>
       </c>
@@ -13186,7 +12771,7 @@
         <v>940</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>2179</v>
+        <v>2052</v>
       </c>
       <c r="G311" s="2">
         <v>140</v>
@@ -13195,7 +12780,7 @@
         <v>7</v>
       </c>
       <c r="M311" s="5" t="s">
-        <v>2180</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
@@ -13212,9 +12797,6 @@
         <v>940</v>
       </c>
       <c r="K312" s="27"/>
-      <c r="M312" s="5" t="s">
-        <v>2062</v>
-      </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" s="3">
@@ -13230,7 +12812,7 @@
         <v>940</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="K313" s="27"/>
     </row>
@@ -13353,7 +12935,7 @@
         <v>940</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="K321" s="27"/>
     </row>
@@ -13434,12 +13016,9 @@
         <v>940</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>2040</v>
+        <v>2002</v>
       </c>
       <c r="K326" s="27"/>
-      <c r="M326" s="5" t="s">
-        <v>2041</v>
-      </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
@@ -13455,12 +13034,9 @@
         <v>940</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="K327" s="27"/>
-      <c r="M327" s="5" t="s">
-        <v>2013</v>
-      </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
@@ -13476,15 +13052,12 @@
         <v>940</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="K328" s="27"/>
-      <c r="M328" s="5" t="s">
-        <v>2024</v>
-      </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
@@ -13500,7 +13073,7 @@
         <v>940</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="K329" s="27"/>
     </row>
@@ -13518,14 +13091,14 @@
         <v>940</v>
       </c>
       <c r="E330" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F330" s="2" t="s">
         <v>1755</v>
-      </c>
-      <c r="F330" s="2" t="s">
-        <v>1756</v>
       </c>
       <c r="K330" s="27"/>
       <c r="M330" s="5" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.3">
@@ -13543,7 +13116,7 @@
       </c>
       <c r="K331" s="27"/>
     </row>
-    <row r="332" spans="1:13" ht="45" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
         <v>2417</v>
       </c>
@@ -13557,17 +13130,17 @@
         <v>940</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="H332" s="2">
         <v>48</v>
       </c>
       <c r="K332" s="27"/>
       <c r="M332" s="5" t="s">
-        <v>1873</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.3">
@@ -13614,7 +13187,7 @@
         <v>940</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="K335" s="27"/>
     </row>
@@ -13737,7 +13310,7 @@
         <v>940</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="K343" s="27"/>
     </row>
@@ -13786,7 +13359,7 @@
       </c>
       <c r="K346" s="27"/>
     </row>
-    <row r="347" spans="1:13" ht="45" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A347" s="3">
         <v>2436</v>
       </c>
@@ -13800,17 +13373,17 @@
         <v>940</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F347" s="4" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="G347" s="2">
         <v>41</v>
       </c>
       <c r="K347" s="27"/>
       <c r="M347" s="5" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
@@ -13872,7 +13445,7 @@
         <v>940</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="K351" s="27"/>
     </row>
@@ -13935,10 +13508,10 @@
         <v>940</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>2076</v>
+        <v>2008</v>
       </c>
       <c r="F355" s="4" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="G355" s="2">
         <v>38</v>
@@ -14004,18 +13577,15 @@
         <v>940</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="K359" s="27"/>
       <c r="L359" s="24">
         <v>0.48331827758816837</v>
       </c>
-      <c r="M359" s="5" t="s">
-        <v>2061</v>
-      </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" s="3">
@@ -14046,14 +13616,14 @@
         <v>940</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="G361" s="2">
         <v>70</v>
       </c>
       <c r="K361" s="27"/>
       <c r="M361" s="5" t="s">
-        <v>1971</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.3">
@@ -14071,7 +13641,7 @@
       </c>
       <c r="K362" s="27"/>
     </row>
-    <row r="363" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
         <v>2458</v>
       </c>
@@ -14085,17 +13655,17 @@
         <v>940</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="G363" s="2">
         <v>160</v>
       </c>
       <c r="K363" s="27"/>
       <c r="M363" s="5" t="s">
-        <v>2068</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.3">
@@ -14112,9 +13682,6 @@
         <v>940</v>
       </c>
       <c r="K364" s="27"/>
-      <c r="M364" s="5" t="s">
-        <v>2022</v>
-      </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365" s="3">
@@ -14220,11 +13787,11 @@
         <v>940</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="K371" s="27"/>
       <c r="M371" s="5" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.3">
@@ -14262,7 +13829,7 @@
         <v>2472</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>3</v>
@@ -14271,17 +13838,17 @@
         <v>940</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="G374" s="2">
         <v>71</v>
       </c>
       <c r="K374" s="27"/>
       <c r="M374" s="5" t="s">
-        <v>2080</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.3">
@@ -14343,11 +13910,11 @@
         <v>940</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="K378" s="27"/>
       <c r="M378" s="5" t="s">
-        <v>1933</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.3">
@@ -14379,17 +13946,17 @@
         <v>940</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="G380" s="2">
         <v>50</v>
       </c>
       <c r="K380" s="27"/>
       <c r="M380" s="5" t="s">
-        <v>1972</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.3">
@@ -14466,7 +14033,7 @@
         <v>940</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="K385" s="27"/>
     </row>
@@ -14529,7 +14096,7 @@
         <v>940</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="G389" s="2">
         <v>220</v>
@@ -14595,7 +14162,7 @@
         <v>940</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="K393" s="27"/>
     </row>
@@ -14763,7 +14330,7 @@
         <v>940</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="K404" s="27"/>
     </row>
@@ -14856,7 +14423,7 @@
         <v>940</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="K410" s="27"/>
     </row>
@@ -14994,10 +14561,10 @@
         <v>940</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="G419" s="2">
         <v>46</v>
@@ -15033,7 +14600,7 @@
         <v>940</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="K421" s="27"/>
     </row>
@@ -15576,17 +15143,12 @@
         <v>940</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>2149</v>
+        <v>2038</v>
       </c>
       <c r="G457" s="2">
         <v>30</v>
       </c>
-      <c r="K457" s="27" t="s">
-        <v>2147</v>
-      </c>
-      <c r="M457" s="5" t="s">
-        <v>2148</v>
-      </c>
+      <c r="K457" s="27"/>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A458" s="3">
@@ -15603,7 +15165,7 @@
       </c>
       <c r="K458" s="27"/>
     </row>
-    <row r="459" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A459" s="3">
         <v>2809</v>
       </c>
@@ -15617,17 +15179,17 @@
         <v>940</v>
       </c>
       <c r="E459" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="G459" s="2">
         <v>38</v>
       </c>
       <c r="K459" s="27"/>
       <c r="M459" s="5" t="s">
-        <v>2129</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.3">
@@ -15689,9 +15251,6 @@
         <v>940</v>
       </c>
       <c r="K463" s="27"/>
-      <c r="M463" s="5" t="s">
-        <v>2051</v>
-      </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A464" s="3">
@@ -15887,10 +15446,10 @@
         <v>940</v>
       </c>
       <c r="E476" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G476" s="2">
         <v>15.5</v>
@@ -15914,14 +15473,11 @@
         <v>940</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="K477" s="27"/>
-      <c r="M477" s="5" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="478" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A478" s="3">
         <v>2882</v>
       </c>
@@ -15935,17 +15491,17 @@
         <v>940</v>
       </c>
       <c r="E478" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="F478" s="2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G478" s="2">
         <v>30</v>
       </c>
       <c r="K478" s="27"/>
       <c r="M478" s="5" t="s">
-        <v>2049</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.3">
@@ -15963,7 +15519,7 @@
       </c>
       <c r="K479" s="27"/>
     </row>
-    <row r="480" spans="1:13" ht="45" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A480" s="3">
         <v>2884</v>
       </c>
@@ -15977,20 +15533,20 @@
         <v>940</v>
       </c>
       <c r="E480" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G480" s="2">
         <v>20</v>
       </c>
       <c r="K480" s="27"/>
       <c r="M480" s="5" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="481" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A481" s="3">
         <v>2885</v>
       </c>
@@ -16004,17 +15560,17 @@
         <v>940</v>
       </c>
       <c r="E481" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G481" s="2">
         <v>14</v>
       </c>
       <c r="K481" s="27"/>
       <c r="M481" s="5" t="s">
-        <v>2048</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.3">
@@ -16031,10 +15587,10 @@
         <v>940</v>
       </c>
       <c r="E482" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="F482" s="2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G482" s="2">
         <v>23.5</v>
@@ -16088,9 +15644,6 @@
         <v>940</v>
       </c>
       <c r="K485" s="27"/>
-      <c r="M485" s="5" t="s">
-        <v>2044</v>
-      </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A486" s="3">
@@ -16121,9 +15674,6 @@
         <v>940</v>
       </c>
       <c r="K487" s="27"/>
-      <c r="M487" s="5" t="s">
-        <v>2011</v>
-      </c>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A488" s="3">
@@ -16139,9 +15689,6 @@
         <v>940</v>
       </c>
       <c r="K488" s="27"/>
-      <c r="M488" s="5" t="s">
-        <v>2016</v>
-      </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A489" s="3">
@@ -16202,10 +15749,10 @@
         <v>940</v>
       </c>
       <c r="E492" s="4" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="F492" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G492" s="2">
         <v>24</v>
@@ -16286,7 +15833,7 @@
         <v>940</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="K497" s="27"/>
     </row>
@@ -16304,12 +15851,9 @@
         <v>940</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="K498" s="27"/>
-      <c r="M498" s="5" t="s">
-        <v>2012</v>
-      </c>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A499" s="3">
@@ -16430,9 +15974,6 @@
         <v>940</v>
       </c>
       <c r="K506" s="27"/>
-      <c r="M506" s="5" t="s">
-        <v>2067</v>
-      </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A507" s="3">
@@ -16449,7 +15990,7 @@
       </c>
       <c r="K507" s="27"/>
     </row>
-    <row r="508" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A508" s="3">
         <v>3005</v>
       </c>
@@ -16463,16 +16004,14 @@
         <v>940</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>2150</v>
+        <v>2039</v>
       </c>
       <c r="G508" s="2">
         <v>45</v>
       </c>
-      <c r="K508" s="27" t="s">
-        <v>2152</v>
-      </c>
+      <c r="K508" s="27"/>
       <c r="M508" s="5" t="s">
-        <v>2151</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.3">
@@ -16489,7 +16028,7 @@
         <v>940</v>
       </c>
       <c r="E509" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="G509" s="2">
         <v>61</v>
@@ -16511,12 +16050,9 @@
         <v>940</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="K510" s="27"/>
-      <c r="M510" s="5" t="s">
-        <v>2035</v>
-      </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A511" s="3">
@@ -16577,11 +16113,11 @@
         <v>940</v>
       </c>
       <c r="E514" s="4" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="K514" s="27"/>
       <c r="M514" s="5" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.3">
@@ -16598,11 +16134,11 @@
         <v>940</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="K515" s="27"/>
       <c r="M515" s="5" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.3">
@@ -16638,7 +16174,7 @@
       </c>
       <c r="K517" s="27"/>
       <c r="M517" s="5" t="s">
-        <v>1935</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.3">
@@ -16670,12 +16206,9 @@
         <v>940</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="K519" s="27"/>
-      <c r="M519" s="5" t="s">
-        <v>2057</v>
-      </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A520" s="3">
@@ -16721,14 +16254,14 @@
         <v>940</v>
       </c>
       <c r="E522" s="4" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G522" s="2">
         <v>160</v>
       </c>
       <c r="K522" s="27"/>
       <c r="M522" s="5" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.3">
@@ -16790,7 +16323,7 @@
         <v>940</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="K526" s="27"/>
     </row>
@@ -16823,7 +16356,7 @@
         <v>940</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="G528" s="2">
         <v>36</v>
@@ -16890,7 +16423,7 @@
       </c>
       <c r="K532" s="27"/>
     </row>
-    <row r="533" spans="1:13" ht="45" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A533" s="3">
         <v>3034</v>
       </c>
@@ -16904,14 +16437,14 @@
         <v>940</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G533" s="2">
         <v>260</v>
       </c>
       <c r="K533" s="27"/>
       <c r="M533" s="5" t="s">
-        <v>2027</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.3">
@@ -16928,12 +16461,9 @@
         <v>940</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="K534" s="27"/>
-      <c r="M534" s="5" t="s">
-        <v>2036</v>
-      </c>
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A535" s="3">
@@ -16949,9 +16479,6 @@
         <v>940</v>
       </c>
       <c r="K535" s="27"/>
-      <c r="M535" s="5" t="s">
-        <v>2063</v>
-      </c>
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A536" s="3">
@@ -16967,18 +16494,15 @@
         <v>940</v>
       </c>
       <c r="E536" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="G536" s="2">
         <v>90</v>
       </c>
       <c r="K536" s="27"/>
-      <c r="M536" s="5" t="s">
-        <v>2015</v>
-      </c>
     </row>
     <row r="537" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A537" s="3">
@@ -17024,11 +16548,11 @@
         <v>940</v>
       </c>
       <c r="E539" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="K539" s="27"/>
       <c r="M539" s="5" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="540" spans="1:13" x14ac:dyDescent="0.3">
@@ -17045,17 +16569,17 @@
         <v>940</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="F540" s="4" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="G540" s="2">
         <v>90</v>
       </c>
       <c r="K540" s="27"/>
       <c r="M540" s="5" t="s">
-        <v>2161</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="541" spans="1:13" x14ac:dyDescent="0.3">
@@ -17087,12 +16611,9 @@
         <v>940</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>2017</v>
+        <v>1996</v>
       </c>
       <c r="K542" s="27"/>
-      <c r="M542" s="5" t="s">
-        <v>2018</v>
-      </c>
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A543" s="3">
@@ -17108,15 +16629,12 @@
         <v>940</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="K543" s="27"/>
-      <c r="M543" s="5" t="s">
-        <v>2031</v>
-      </c>
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A544" s="3">
@@ -17133,7 +16651,7 @@
       </c>
       <c r="K544" s="27"/>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="3">
         <v>3047</v>
       </c>
@@ -17148,7 +16666,7 @@
       </c>
       <c r="K545" s="27"/>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="3">
         <v>3048</v>
       </c>
@@ -17163,7 +16681,7 @@
       </c>
       <c r="K546" s="27"/>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="3">
         <v>3049</v>
       </c>
@@ -17178,7 +16696,7 @@
       </c>
       <c r="K547" s="27"/>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="3">
         <v>3050</v>
       </c>
@@ -17193,7 +16711,7 @@
       </c>
       <c r="K548" s="27"/>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="3">
         <v>3051</v>
       </c>
@@ -17208,7 +16726,7 @@
       </c>
       <c r="K549" s="27"/>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="3">
         <v>3052</v>
       </c>
@@ -17223,7 +16741,7 @@
       </c>
       <c r="K550" s="27"/>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="3">
         <v>3054</v>
       </c>
@@ -17238,7 +16756,7 @@
       </c>
       <c r="K551" s="27"/>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="3">
         <v>3055</v>
       </c>
@@ -17253,7 +16771,7 @@
       </c>
       <c r="K552" s="27"/>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="3">
         <v>3056</v>
       </c>
@@ -17267,11 +16785,11 @@
         <v>940</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="K553" s="27"/>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="3">
         <v>3058</v>
       </c>
@@ -17286,7 +16804,7 @@
       </c>
       <c r="K554" s="27"/>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="3">
         <v>3059</v>
       </c>
@@ -17301,7 +16819,7 @@
       </c>
       <c r="K555" s="27"/>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="3">
         <v>3060</v>
       </c>
@@ -17316,7 +16834,7 @@
       </c>
       <c r="K556" s="27"/>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="3">
         <v>3062</v>
       </c>
@@ -17331,7 +16849,7 @@
       </c>
       <c r="K557" s="27"/>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="3">
         <v>3090</v>
       </c>
@@ -17346,7 +16864,7 @@
       </c>
       <c r="K558" s="27"/>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="3">
         <v>3094</v>
       </c>
@@ -17361,7 +16879,7 @@
       </c>
       <c r="K559" s="27"/>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="3">
         <v>3130</v>
       </c>
@@ -17374,12 +16892,7 @@
       <c r="D560" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="K560" s="27" t="s">
-        <v>2135</v>
-      </c>
-      <c r="M560" s="5" t="s">
-        <v>2134</v>
-      </c>
+      <c r="K560" s="27"/>
     </row>
     <row r="561" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A561" s="3">
@@ -17440,11 +16953,11 @@
         <v>940</v>
       </c>
       <c r="E564" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="K564" s="27"/>
       <c r="M564" s="5" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="565" spans="1:13" x14ac:dyDescent="0.3">
@@ -17491,9 +17004,6 @@
         <v>940</v>
       </c>
       <c r="K567" s="27"/>
-      <c r="M567" s="5" t="s">
-        <v>2047</v>
-      </c>
     </row>
     <row r="568" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A568" s="3">
@@ -17599,11 +17109,11 @@
         <v>940</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>2092</v>
+        <v>2019</v>
       </c>
       <c r="K574" s="27"/>
       <c r="M574" s="5" t="s">
-        <v>2093</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.3">
@@ -17636,7 +17146,7 @@
       </c>
       <c r="K576" s="27"/>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="3">
         <v>3346</v>
       </c>
@@ -17651,7 +17161,7 @@
       </c>
       <c r="K577" s="27"/>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="3">
         <v>3356</v>
       </c>
@@ -17666,7 +17176,7 @@
       </c>
       <c r="K578" s="27"/>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="3">
         <v>3376</v>
       </c>
@@ -17680,11 +17190,11 @@
         <v>940</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="K579" s="27"/>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="3">
         <v>3380</v>
       </c>
@@ -17699,7 +17209,7 @@
       </c>
       <c r="K580" s="27"/>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="3">
         <v>3383</v>
       </c>
@@ -17714,7 +17224,7 @@
       </c>
       <c r="K581" s="27"/>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="3">
         <v>3406</v>
       </c>
@@ -17728,11 +17238,11 @@
         <v>940</v>
       </c>
       <c r="E582" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="K582" s="27"/>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="3">
         <v>3413</v>
       </c>
@@ -17747,7 +17257,7 @@
       </c>
       <c r="K583" s="27"/>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="3">
         <v>3416</v>
       </c>
@@ -17761,22 +17271,17 @@
         <v>940</v>
       </c>
       <c r="E584" s="2" t="s">
-        <v>2174</v>
+        <v>2050</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>2172</v>
+        <v>2049</v>
       </c>
       <c r="G584" s="2">
         <v>72</v>
       </c>
-      <c r="K584" s="27">
-        <v>4</v>
-      </c>
-      <c r="M584" s="5" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K584" s="27"/>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="3">
         <v>3419</v>
       </c>
@@ -17791,7 +17296,7 @@
       </c>
       <c r="K585" s="27"/>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="3">
         <v>3432</v>
       </c>
@@ -17806,7 +17311,7 @@
       </c>
       <c r="K586" s="27"/>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="3">
         <v>3437</v>
       </c>
@@ -17821,7 +17326,7 @@
       </c>
       <c r="K587" s="27"/>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="3">
         <v>3443</v>
       </c>
@@ -17835,11 +17340,11 @@
         <v>940</v>
       </c>
       <c r="E588" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="K588" s="27"/>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="3">
         <v>3450</v>
       </c>
@@ -17854,7 +17359,7 @@
       </c>
       <c r="K589" s="27"/>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="3">
         <v>3454</v>
       </c>
@@ -17869,7 +17374,7 @@
       </c>
       <c r="K590" s="27"/>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="3">
         <v>3481</v>
       </c>
@@ -17883,14 +17388,11 @@
         <v>940</v>
       </c>
       <c r="E591" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="K591" s="27"/>
-      <c r="M591" s="5" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="3">
         <v>3494</v>
       </c>
@@ -17949,11 +17451,11 @@
         <v>940</v>
       </c>
       <c r="E595" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="K595" s="27"/>
       <c r="M595" s="5" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="596" spans="1:13" x14ac:dyDescent="0.3">
@@ -18033,14 +17535,14 @@
         <v>940</v>
       </c>
       <c r="E600" s="4" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="G600" s="2">
         <v>300</v>
       </c>
       <c r="K600" s="27"/>
       <c r="M600" s="5" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="601" spans="1:13" x14ac:dyDescent="0.3">
@@ -18147,9 +17649,6 @@
         <v>940</v>
       </c>
       <c r="K607" s="27"/>
-      <c r="M607" s="5" t="s">
-        <v>2069</v>
-      </c>
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A608" s="3">
@@ -18198,11 +17697,11 @@
         <v>940</v>
       </c>
       <c r="E610" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="K610" s="27"/>
       <c r="M610" s="5" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="611" spans="1:13" x14ac:dyDescent="0.3">
@@ -18264,11 +17763,11 @@
         <v>940</v>
       </c>
       <c r="E614" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="K614" s="27"/>
       <c r="M614" s="5" t="s">
-        <v>1951</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="615" spans="1:13" x14ac:dyDescent="0.3">
@@ -18345,7 +17844,7 @@
         <v>940</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="G619" s="2">
         <v>160</v>
@@ -18366,7 +17865,7 @@
         <v>940</v>
       </c>
       <c r="E620" s="2" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="K620" s="27"/>
     </row>
@@ -18375,7 +17874,7 @@
         <v>3665</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>3</v>
@@ -18384,11 +17883,11 @@
         <v>940</v>
       </c>
       <c r="E621" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="K621" s="27"/>
       <c r="M621" s="5" t="s">
-        <v>1945</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="622" spans="1:13" x14ac:dyDescent="0.3">
@@ -18405,17 +17904,17 @@
         <v>940</v>
       </c>
       <c r="E622" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="F622" s="2" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="H622" s="2">
         <v>70</v>
       </c>
       <c r="K622" s="27"/>
     </row>
-    <row r="623" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A623" s="3">
         <v>3673</v>
       </c>
@@ -18429,11 +17928,11 @@
         <v>940</v>
       </c>
       <c r="E623" s="2" t="s">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="K623" s="27"/>
       <c r="M623" s="5" t="s">
-        <v>2007</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="624" spans="1:13" x14ac:dyDescent="0.3">
@@ -18450,18 +17949,15 @@
         <v>940</v>
       </c>
       <c r="E624" s="2" t="s">
-        <v>2084</v>
+        <v>2015</v>
       </c>
       <c r="F624" s="2" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="H624" s="2">
         <v>120</v>
       </c>
       <c r="K624" s="27"/>
-      <c r="M624" s="5" t="s">
-        <v>2085</v>
-      </c>
     </row>
     <row r="625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A625" s="3">
@@ -18477,7 +17973,7 @@
         <v>940</v>
       </c>
       <c r="E625" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="K625" s="27"/>
     </row>
@@ -18540,7 +18036,7 @@
         <v>940</v>
       </c>
       <c r="E629" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="K629" s="27"/>
     </row>
@@ -18573,14 +18069,14 @@
         <v>940</v>
       </c>
       <c r="E631" s="2" t="s">
-        <v>2077</v>
+        <v>2009</v>
       </c>
       <c r="G631" s="2">
         <v>31</v>
       </c>
       <c r="K631" s="27"/>
       <c r="M631" s="5" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="632" spans="1:13" x14ac:dyDescent="0.3">
@@ -18627,7 +18123,7 @@
         <v>940</v>
       </c>
       <c r="E634" s="2" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="K634" s="27"/>
     </row>
@@ -18645,12 +18141,9 @@
         <v>940</v>
       </c>
       <c r="E635" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="K635" s="27"/>
-      <c r="M635" s="5" t="s">
-        <v>2010</v>
-      </c>
     </row>
     <row r="636" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A636" s="3">
@@ -18681,17 +18174,17 @@
         <v>940</v>
       </c>
       <c r="E637" s="4" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="G637" s="2">
         <v>48</v>
       </c>
       <c r="K637" s="27"/>
       <c r="M637" s="5" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="638" spans="1:13" x14ac:dyDescent="0.3">
@@ -18738,7 +18231,7 @@
         <v>940</v>
       </c>
       <c r="E640" s="4" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="G640" s="2">
         <v>80</v>
@@ -18804,11 +18297,11 @@
         <v>940</v>
       </c>
       <c r="E644" s="4" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="K644" s="27"/>
       <c r="M644" s="5" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="645" spans="1:13" x14ac:dyDescent="0.3">
@@ -18871,7 +18364,7 @@
       </c>
       <c r="K648" s="27"/>
     </row>
-    <row r="649" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:13" ht="60" x14ac:dyDescent="0.3">
       <c r="A649" s="3">
         <v>4306</v>
       </c>
@@ -18885,16 +18378,14 @@
         <v>940</v>
       </c>
       <c r="E649" s="2" t="s">
-        <v>2155</v>
+        <v>2040</v>
       </c>
       <c r="F649" s="2" t="s">
-        <v>2136</v>
-      </c>
-      <c r="K649" s="27" t="s">
-        <v>2153</v>
-      </c>
+        <v>2028</v>
+      </c>
+      <c r="K649" s="27"/>
       <c r="M649" s="5" t="s">
-        <v>2154</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="650" spans="1:13" x14ac:dyDescent="0.3">
@@ -19016,7 +18507,7 @@
         <v>940</v>
       </c>
       <c r="E657" s="4" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="G657" s="2">
         <v>45</v>
@@ -19052,7 +18543,7 @@
         <v>940</v>
       </c>
       <c r="E659" s="2" t="s">
-        <v>2156</v>
+        <v>2041</v>
       </c>
       <c r="K659" s="27"/>
     </row>
@@ -19161,7 +18652,7 @@
       </c>
       <c r="K666" s="27"/>
     </row>
-    <row r="667" spans="1:13" ht="45" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A667" s="3">
         <v>4571</v>
       </c>
@@ -19175,14 +18666,14 @@
         <v>940</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>2019</v>
+        <v>1997</v>
       </c>
       <c r="G667" s="2">
         <v>80</v>
       </c>
       <c r="K667" s="27"/>
       <c r="M667" s="5" t="s">
-        <v>2095</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="668" spans="1:13" x14ac:dyDescent="0.3">
@@ -19214,7 +18705,7 @@
         <v>940</v>
       </c>
       <c r="E669" s="2" t="s">
-        <v>1967</v>
+        <v>1960</v>
       </c>
       <c r="K669" s="27"/>
     </row>
@@ -19292,14 +18783,9 @@
         <v>940</v>
       </c>
       <c r="E674" s="2" t="s">
-        <v>1845</v>
-      </c>
-      <c r="K674" s="27" t="s">
-        <v>2141</v>
-      </c>
-      <c r="M674" s="5" t="s">
-        <v>2157</v>
-      </c>
+        <v>1844</v>
+      </c>
+      <c r="K674" s="27"/>
     </row>
     <row r="675" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A675" s="3">
@@ -19315,9 +18801,6 @@
         <v>940</v>
       </c>
       <c r="K675" s="27"/>
-      <c r="M675" s="5" t="s">
-        <v>2098</v>
-      </c>
     </row>
     <row r="676" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A676" s="3">
@@ -19393,15 +18876,12 @@
         <v>940</v>
       </c>
       <c r="E680" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="F680" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="K680" s="27"/>
-      <c r="M680" s="5" t="s">
-        <v>2032</v>
-      </c>
     </row>
     <row r="681" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A681" s="3">
@@ -19436,7 +18916,7 @@
       </c>
       <c r="K682" s="27"/>
       <c r="M682" s="5" t="s">
-        <v>2158</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="683" spans="1:13" x14ac:dyDescent="0.3">
@@ -19453,7 +18933,7 @@
         <v>940</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
       <c r="G683" s="2">
         <v>54</v>
@@ -19490,7 +18970,7 @@
       </c>
       <c r="K685" s="27"/>
     </row>
-    <row r="686" spans="1:13" ht="45" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A686" s="3">
         <v>4927</v>
       </c>
@@ -19504,16 +18984,14 @@
         <v>940</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>2177</v>
+        <v>2051</v>
       </c>
       <c r="G686" s="2">
         <v>61</v>
       </c>
-      <c r="K686" s="27" t="s">
-        <v>2132</v>
-      </c>
+      <c r="K686" s="27"/>
       <c r="M686" s="5" t="s">
-        <v>2178</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="687" spans="1:13" x14ac:dyDescent="0.3">
@@ -19563,11 +19041,11 @@
         <v>940</v>
       </c>
       <c r="E689" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="K689" s="27"/>
       <c r="M689" s="5" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="690" spans="1:13" x14ac:dyDescent="0.3">
@@ -19689,11 +19167,11 @@
         <v>940</v>
       </c>
       <c r="E697" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="K697" s="27"/>
       <c r="M697" s="5" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="698" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -19710,11 +19188,11 @@
         <v>940</v>
       </c>
       <c r="E698" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="K698" s="27"/>
       <c r="M698" s="5" t="s">
-        <v>1946</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="699" spans="1:13" ht="60" x14ac:dyDescent="0.3">
@@ -19731,14 +19209,14 @@
         <v>940</v>
       </c>
       <c r="E699" s="2" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G699" s="2">
         <v>200</v>
       </c>
       <c r="K699" s="27"/>
       <c r="M699" s="5" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="700" spans="1:13" x14ac:dyDescent="0.3">
@@ -19755,7 +19233,7 @@
         <v>940</v>
       </c>
       <c r="E700" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="K700" s="27"/>
     </row>
@@ -19803,11 +19281,11 @@
         <v>940</v>
       </c>
       <c r="E703" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="K703" s="27"/>
     </row>
-    <row r="704" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A704" s="3">
         <v>4999</v>
       </c>
@@ -19821,11 +19299,11 @@
         <v>940</v>
       </c>
       <c r="E704" s="2" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="K704" s="27"/>
       <c r="M704" s="5" t="s">
-        <v>2004</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="705" spans="1:13" x14ac:dyDescent="0.3">
@@ -19872,20 +19350,14 @@
         <v>940</v>
       </c>
       <c r="E707" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="F707" s="2" t="s">
-        <v>1759</v>
-      </c>
-      <c r="H707" s="2">
-        <v>140</v>
-      </c>
-      <c r="J707" s="2">
-        <v>145</v>
+        <v>1758</v>
       </c>
       <c r="K707" s="27"/>
       <c r="M707" s="5" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="708" spans="1:13" x14ac:dyDescent="0.3">
@@ -19962,7 +19434,7 @@
         <v>940</v>
       </c>
       <c r="E712" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="K712" s="27"/>
     </row>
@@ -20010,14 +19482,14 @@
         <v>940</v>
       </c>
       <c r="E715" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G715" s="2">
         <v>68</v>
       </c>
       <c r="K715" s="27"/>
       <c r="M715" s="5" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="716" spans="1:13" x14ac:dyDescent="0.3">
@@ -20068,7 +19540,7 @@
       </c>
       <c r="K718" s="27"/>
     </row>
-    <row r="719" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A719" s="3">
         <v>5469</v>
       </c>
@@ -20082,7 +19554,7 @@
         <v>940</v>
       </c>
       <c r="E719" s="2" t="s">
-        <v>2088</v>
+        <v>2017</v>
       </c>
       <c r="G719" s="2">
         <v>40</v>
@@ -20241,7 +19713,7 @@
         <v>940</v>
       </c>
       <c r="E729" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="K729" s="27"/>
     </row>
@@ -20305,7 +19777,7 @@
       </c>
       <c r="K733" s="27"/>
     </row>
-    <row r="734" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A734" s="3">
         <v>5871</v>
       </c>
@@ -20319,17 +19791,17 @@
         <v>940</v>
       </c>
       <c r="E734" s="4" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="F734" s="2" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="G734" s="2">
         <v>110</v>
       </c>
       <c r="K734" s="27"/>
       <c r="M734" s="5" t="s">
-        <v>2099</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="735" spans="1:13" x14ac:dyDescent="0.3">
@@ -20437,7 +19909,7 @@
       </c>
       <c r="K741" s="27"/>
     </row>
-    <row r="742" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:13" ht="60" x14ac:dyDescent="0.3">
       <c r="A742" s="3">
         <v>6112</v>
       </c>
@@ -20451,19 +19923,17 @@
         <v>940</v>
       </c>
       <c r="E742" s="2" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="F742" s="2" t="s">
-        <v>1973</v>
+        <v>1965</v>
       </c>
       <c r="G742" s="2">
         <v>41</v>
       </c>
-      <c r="K742" s="27">
-        <v>2.5</v>
-      </c>
+      <c r="K742" s="27"/>
       <c r="M742" s="5" t="s">
-        <v>2110</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="743" spans="1:13" x14ac:dyDescent="0.3">
@@ -20495,7 +19965,7 @@
         <v>940</v>
       </c>
       <c r="E744" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G744" s="2">
         <v>11</v>
@@ -20637,7 +20107,7 @@
       </c>
       <c r="K753" s="27"/>
     </row>
-    <row r="754" spans="1:13" ht="45" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A754" s="3">
         <v>6153</v>
       </c>
@@ -20651,17 +20121,17 @@
         <v>940</v>
       </c>
       <c r="E754" s="4" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="F754" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="G754" s="2">
         <v>33</v>
       </c>
       <c r="K754" s="27"/>
       <c r="M754" s="5" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="755" spans="1:13" x14ac:dyDescent="0.3">
@@ -20798,17 +20268,17 @@
         <v>940</v>
       </c>
       <c r="E763" s="2" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="F763" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G763" s="2">
         <v>42</v>
       </c>
       <c r="K763" s="27"/>
       <c r="M763" s="5" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="764" spans="1:13" x14ac:dyDescent="0.3">
@@ -20855,15 +20325,12 @@
         <v>940</v>
       </c>
       <c r="E766" s="4" t="s">
-        <v>2086</v>
+        <v>2016</v>
       </c>
       <c r="G766" s="2">
         <v>24.1</v>
       </c>
       <c r="K766" s="27"/>
-      <c r="M766" s="5" t="s">
-        <v>2087</v>
-      </c>
     </row>
     <row r="767" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A767" s="3">
@@ -20910,7 +20377,7 @@
       </c>
       <c r="K769" s="27"/>
     </row>
-    <row r="770" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A770" s="3">
         <v>6202</v>
       </c>
@@ -20924,16 +20391,14 @@
         <v>940</v>
       </c>
       <c r="E770" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G770" s="2">
         <v>80</v>
       </c>
-      <c r="K770" s="27" t="s">
-        <v>2159</v>
-      </c>
+      <c r="K770" s="27"/>
       <c r="M770" s="5" t="s">
-        <v>2160</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="771" spans="1:13" ht="60" x14ac:dyDescent="0.3">
@@ -20950,17 +20415,17 @@
         <v>940</v>
       </c>
       <c r="E771" s="4" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="F771" s="2" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="G771" s="2">
         <v>41</v>
       </c>
       <c r="K771" s="27"/>
       <c r="M771" s="5" t="s">
-        <v>2078</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="772" spans="1:13" x14ac:dyDescent="0.3">
@@ -20992,7 +20457,7 @@
         <v>940</v>
       </c>
       <c r="E773" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="K773" s="27"/>
     </row>
@@ -21025,9 +20490,6 @@
         <v>940</v>
       </c>
       <c r="K775" s="27"/>
-      <c r="M775" s="5" t="s">
-        <v>2028</v>
-      </c>
     </row>
     <row r="776" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A776" s="3">
@@ -21073,14 +20535,14 @@
         <v>940</v>
       </c>
       <c r="E778" s="2" t="s">
-        <v>1961</v>
+        <v>1954</v>
       </c>
       <c r="G778" s="2">
         <v>75</v>
       </c>
       <c r="K778" s="27"/>
       <c r="M778" s="5" t="s">
-        <v>1962</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="779" spans="1:13" x14ac:dyDescent="0.3">
@@ -21131,7 +20593,7 @@
       </c>
       <c r="K781" s="27"/>
       <c r="M781" s="5" t="s">
-        <v>1936</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="782" spans="1:13" x14ac:dyDescent="0.3">
@@ -21147,12 +20609,7 @@
       <c r="D782" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="K782" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="M782" s="5" t="s">
-        <v>2111</v>
-      </c>
+      <c r="K782" s="27"/>
     </row>
     <row r="783" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A783" s="3">
@@ -21168,7 +20625,7 @@
         <v>940</v>
       </c>
       <c r="E783" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="K783" s="27"/>
     </row>
@@ -21216,10 +20673,10 @@
         <v>940</v>
       </c>
       <c r="E786" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="F786" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="K786" s="27"/>
     </row>
@@ -21237,9 +20694,6 @@
         <v>940</v>
       </c>
       <c r="K787" s="27"/>
-      <c r="M787" s="5" t="s">
-        <v>2054</v>
-      </c>
     </row>
     <row r="788" spans="1:13" ht="90" x14ac:dyDescent="0.3">
       <c r="A788" s="3">
@@ -21255,11 +20709,11 @@
         <v>940</v>
       </c>
       <c r="E788" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="K788" s="27"/>
       <c r="M788" s="5" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="789" spans="1:13" x14ac:dyDescent="0.3">
@@ -21291,7 +20745,7 @@
         <v>940</v>
       </c>
       <c r="E790" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="K790" s="27"/>
     </row>
@@ -21309,7 +20763,7 @@
         <v>940</v>
       </c>
       <c r="E791" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="K791" s="27"/>
     </row>
@@ -21357,7 +20811,7 @@
         <v>940</v>
       </c>
       <c r="E794" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="K794" s="27"/>
     </row>
@@ -21434,12 +20888,7 @@
       <c r="D799" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="K799" s="27" t="s">
-        <v>2126</v>
-      </c>
-      <c r="M799" s="5" t="s">
-        <v>2128</v>
-      </c>
+      <c r="K799" s="27"/>
     </row>
     <row r="800" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A800" s="3">
@@ -21455,7 +20904,7 @@
         <v>940</v>
       </c>
       <c r="E800" s="2" t="s">
-        <v>1966</v>
+        <v>1959</v>
       </c>
       <c r="K800" s="27"/>
     </row>
@@ -21473,7 +20922,7 @@
         <v>940</v>
       </c>
       <c r="E801" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="K801" s="27"/>
     </row>
@@ -21491,7 +20940,7 @@
         <v>940</v>
       </c>
       <c r="E802" s="2" t="s">
-        <v>1966</v>
+        <v>1959</v>
       </c>
       <c r="K802" s="27"/>
     </row>
@@ -21542,13 +20991,11 @@
         <v>1708</v>
       </c>
       <c r="F805" s="2" t="s">
-        <v>2164</v>
-      </c>
-      <c r="K805" s="27" t="s">
-        <v>2162</v>
-      </c>
+        <v>2045</v>
+      </c>
+      <c r="K805" s="27"/>
       <c r="M805" s="5" t="s">
-        <v>2163</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.3">
@@ -21565,11 +21012,11 @@
         <v>940</v>
       </c>
       <c r="E806" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="K806" s="27"/>
       <c r="M806" s="5" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.3">
@@ -21646,14 +21093,9 @@
         <v>940</v>
       </c>
       <c r="E811" s="2" t="s">
-        <v>2029</v>
-      </c>
-      <c r="K811" s="27">
-        <v>5</v>
-      </c>
-      <c r="M811" s="5" t="s">
-        <v>2112</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="K811" s="27"/>
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A812" s="3">
@@ -21684,12 +21126,9 @@
         <v>940</v>
       </c>
       <c r="E813" s="2" t="s">
-        <v>2038</v>
+        <v>2001</v>
       </c>
       <c r="K813" s="27"/>
-      <c r="M813" s="5" t="s">
-        <v>2043</v>
-      </c>
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A814" s="3">
@@ -21765,14 +21204,11 @@
         <v>940</v>
       </c>
       <c r="E818" s="2" t="s">
-        <v>2191</v>
-      </c>
-      <c r="F818" s="2" t="s">
-        <v>2187</v>
+        <v>2060</v>
       </c>
       <c r="K818" s="27"/>
       <c r="M818" s="5" t="s">
-        <v>2192</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="819" spans="1:13" x14ac:dyDescent="0.3">
@@ -21780,7 +21216,7 @@
         <v>6558</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>2193</v>
+        <v>2062</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>3</v>
@@ -21819,7 +21255,7 @@
         <v>940</v>
       </c>
       <c r="E821" s="2" t="s">
-        <v>2174</v>
+        <v>2050</v>
       </c>
       <c r="K821" s="27"/>
     </row>
@@ -21837,14 +21273,9 @@
         <v>940</v>
       </c>
       <c r="E822" s="2" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K822" s="27">
-        <v>3</v>
-      </c>
-      <c r="M822" s="5" t="s">
-        <v>2113</v>
-      </c>
+        <v>1998</v>
+      </c>
+      <c r="K822" s="27"/>
     </row>
     <row r="823" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A823" s="3">
@@ -21860,7 +21291,7 @@
         <v>940</v>
       </c>
       <c r="E823" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="G823" s="2">
         <v>130</v>
@@ -21899,7 +21330,7 @@
         <v>940</v>
       </c>
       <c r="E825" s="4" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="G825" s="2">
         <v>50</v>
@@ -21920,7 +21351,7 @@
         <v>940</v>
       </c>
       <c r="E826" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="K826" s="27"/>
     </row>
@@ -22028,12 +21459,9 @@
         <v>940</v>
       </c>
       <c r="E833" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="K833" s="27"/>
-      <c r="M833" s="5" t="s">
-        <v>2052</v>
-      </c>
     </row>
     <row r="834" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A834" s="3">
@@ -22124,17 +21552,17 @@
         <v>940</v>
       </c>
       <c r="E839" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="F839" s="2" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="G839" s="2">
         <v>140</v>
       </c>
       <c r="K839" s="27"/>
       <c r="M839" s="5" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="840" spans="1:13" x14ac:dyDescent="0.3">
@@ -22197,7 +21625,7 @@
       </c>
       <c r="K843" s="27"/>
     </row>
-    <row r="844" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A844" s="3">
         <v>8021</v>
       </c>
@@ -22211,19 +21639,17 @@
         <v>940</v>
       </c>
       <c r="E844" s="4" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="F844" s="2" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="G844" s="2">
         <v>28</v>
       </c>
-      <c r="K844" s="27">
-        <v>1.58</v>
-      </c>
+      <c r="K844" s="27"/>
       <c r="M844" s="26" t="s">
-        <v>2114</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="845" spans="1:13" x14ac:dyDescent="0.3">
@@ -22231,7 +21657,7 @@
         <v>8028</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="C845" s="2" t="s">
         <v>3</v>
@@ -22240,11 +21666,11 @@
         <v>940</v>
       </c>
       <c r="E845" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="K845" s="27"/>
       <c r="M845" s="5" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="846" spans="1:13" x14ac:dyDescent="0.3">
@@ -22291,14 +21717,9 @@
         <v>940</v>
       </c>
       <c r="E848" s="2" t="s">
-        <v>1767</v>
-      </c>
-      <c r="K848" s="27">
-        <v>3.4</v>
-      </c>
-      <c r="M848" s="5" t="s">
-        <v>2115</v>
-      </c>
+        <v>1766</v>
+      </c>
+      <c r="K848" s="27"/>
     </row>
     <row r="849" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A849" s="3">
@@ -22314,14 +21735,14 @@
         <v>940</v>
       </c>
       <c r="E849" s="2" t="s">
-        <v>1991</v>
+        <v>1982</v>
       </c>
       <c r="F849" s="2" t="s">
-        <v>1993</v>
+        <v>1984</v>
       </c>
       <c r="K849" s="27"/>
       <c r="M849" s="5" t="s">
-        <v>1992</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="850" spans="1:13" x14ac:dyDescent="0.3">
@@ -22353,11 +21774,11 @@
         <v>940</v>
       </c>
       <c r="E851" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="K851" s="27"/>
       <c r="M851" s="5" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="852" spans="1:13" x14ac:dyDescent="0.3">
@@ -22380,7 +21801,7 @@
         <v>8103</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C853" s="2" t="s">
         <v>3</v>
@@ -22389,7 +21810,7 @@
         <v>940</v>
       </c>
       <c r="E853" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="K853" s="27"/>
     </row>
@@ -22662,14 +22083,14 @@
         <v>940</v>
       </c>
       <c r="E871" s="2" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="F871" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="K871" s="27"/>
       <c r="M871" s="5" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="872" spans="1:13" x14ac:dyDescent="0.3">
@@ -22792,7 +22213,7 @@
       </c>
       <c r="K879" s="27"/>
     </row>
-    <row r="880" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A880" s="3">
         <v>8454</v>
       </c>
@@ -22806,17 +22227,17 @@
         <v>940</v>
       </c>
       <c r="E880" s="2" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="F880" s="2" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="G880" s="2">
         <v>320</v>
       </c>
       <c r="K880" s="27"/>
       <c r="M880" s="5" t="s">
-        <v>2056</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="881" spans="1:13" x14ac:dyDescent="0.3">
@@ -22892,12 +22313,7 @@
       <c r="D885" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="K885" s="27" t="s">
-        <v>2131</v>
-      </c>
-      <c r="M885" s="5" t="s">
-        <v>2130</v>
-      </c>
+      <c r="K885" s="27"/>
     </row>
     <row r="886" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A886" s="3">
@@ -23003,11 +22419,11 @@
         <v>940</v>
       </c>
       <c r="E892" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="K892" s="27"/>
       <c r="M892" s="5" t="s">
-        <v>1937</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="893" spans="1:13" x14ac:dyDescent="0.3">
@@ -23070,7 +22486,7 @@
       </c>
       <c r="K896" s="27"/>
     </row>
-    <row r="897" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A897" s="3">
         <v>910322</v>
       </c>
@@ -23085,7 +22501,7 @@
       </c>
       <c r="K897" s="27"/>
     </row>
-    <row r="898" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A898" s="3">
         <v>9105</v>
       </c>
@@ -23100,7 +22516,7 @@
       </c>
       <c r="K898" s="27"/>
     </row>
-    <row r="899" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A899" s="3">
         <v>910861</v>
       </c>
@@ -23115,7 +22531,7 @@
       </c>
       <c r="K899" s="27"/>
     </row>
-    <row r="900" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A900" s="3">
         <v>9110</v>
       </c>
@@ -23130,7 +22546,7 @@
       </c>
       <c r="K900" s="27"/>
     </row>
-    <row r="901" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A901" s="3">
         <v>911608</v>
       </c>
@@ -23145,7 +22561,7 @@
       </c>
       <c r="K901" s="27"/>
     </row>
-    <row r="902" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A902" s="3">
         <v>911616</v>
       </c>
@@ -23160,7 +22576,7 @@
       </c>
       <c r="K902" s="27"/>
     </row>
-    <row r="903" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A903" s="3">
         <v>911622</v>
       </c>
@@ -23175,7 +22591,7 @@
       </c>
       <c r="K903" s="27"/>
     </row>
-    <row r="904" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A904" s="3">
         <v>911868</v>
       </c>
@@ -23190,7 +22606,7 @@
       </c>
       <c r="K904" s="27"/>
     </row>
-    <row r="905" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A905" s="3">
         <v>912000</v>
       </c>
@@ -23205,7 +22621,7 @@
       </c>
       <c r="K905" s="27"/>
     </row>
-    <row r="906" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A906" s="3">
         <v>912398</v>
       </c>
@@ -23220,7 +22636,7 @@
       </c>
       <c r="K906" s="27"/>
     </row>
-    <row r="907" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A907" s="3">
         <v>9136</v>
       </c>
@@ -23235,7 +22651,7 @@
       </c>
       <c r="K907" s="27"/>
     </row>
-    <row r="908" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A908" s="3">
         <v>9188</v>
       </c>
@@ -23250,7 +22666,7 @@
       </c>
       <c r="K908" s="27"/>
     </row>
-    <row r="909" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A909" s="3">
         <v>9802</v>
       </c>
@@ -23264,19 +22680,14 @@
         <v>940</v>
       </c>
       <c r="E909" s="2" t="s">
-        <v>2094</v>
+        <v>2021</v>
       </c>
       <c r="G909" s="2">
         <v>72</v>
       </c>
-      <c r="K909" s="27">
-        <v>3.8</v>
-      </c>
-      <c r="M909" s="5" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="910" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K909" s="27"/>
+    </row>
+    <row r="910" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A910" s="3">
         <v>9902</v>
       </c>
@@ -23291,7 +22702,7 @@
       </c>
       <c r="K910" s="27"/>
     </row>
-    <row r="911" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A911" s="3">
         <v>9904</v>
       </c>
@@ -23306,7 +22717,7 @@
       </c>
       <c r="K911" s="27"/>
     </row>
-    <row r="912" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A912" s="3">
         <v>9905</v>
       </c>
@@ -23425,7 +22836,7 @@
         <v>940</v>
       </c>
       <c r="E919" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="K919" s="27"/>
     </row>
@@ -23473,14 +22884,14 @@
         <v>940</v>
       </c>
       <c r="E922" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="F922" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="K922" s="27"/>
       <c r="M922" s="5" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="923" spans="1:13" x14ac:dyDescent="0.3">
@@ -23497,7 +22908,7 @@
         <v>940</v>
       </c>
       <c r="E923" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="K923" s="27"/>
     </row>
@@ -23515,17 +22926,17 @@
         <v>940</v>
       </c>
       <c r="E924" s="2" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="F924" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G924" s="2">
         <v>40</v>
       </c>
       <c r="K924" s="27"/>
       <c r="M924" s="5" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="925" spans="1:13" x14ac:dyDescent="0.3">
@@ -23693,7 +23104,7 @@
       </c>
       <c r="K935" s="27"/>
     </row>
-    <row r="936" spans="1:13" ht="45" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A936" s="3">
         <v>9938</v>
       </c>
@@ -23707,17 +23118,17 @@
         <v>940</v>
       </c>
       <c r="E936" s="2" t="s">
-        <v>1969</v>
+        <v>1962</v>
       </c>
       <c r="F936" s="2" t="s">
-        <v>2081</v>
+        <v>2013</v>
       </c>
       <c r="G936" s="2">
         <v>70</v>
       </c>
       <c r="K936" s="27"/>
       <c r="M936" s="5" t="s">
-        <v>2165</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="937" spans="1:13" x14ac:dyDescent="0.3">
@@ -23764,10 +23175,10 @@
         <v>940</v>
       </c>
       <c r="E939" s="4" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="F939" s="2" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="G939" s="2">
         <v>95</v>
@@ -23789,7 +23200,7 @@
       </c>
       <c r="K940" s="27"/>
     </row>
-    <row r="941" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A941" s="3">
         <v>9943</v>
       </c>
@@ -23803,17 +23214,17 @@
         <v>940</v>
       </c>
       <c r="E941" s="4" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="F941" s="2" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="G941" s="2">
         <v>55</v>
       </c>
       <c r="K941" s="27"/>
       <c r="M941" s="5" t="s">
-        <v>1877</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="942" spans="1:13" x14ac:dyDescent="0.3">
@@ -23876,7 +23287,7 @@
       </c>
       <c r="K945" s="27"/>
     </row>
-    <row r="946" spans="1:13" ht="45" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A946" s="3">
         <v>9958</v>
       </c>
@@ -23890,14 +23301,14 @@
         <v>940</v>
       </c>
       <c r="E946" s="2" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G946" s="2">
         <v>90</v>
       </c>
       <c r="K946" s="27"/>
       <c r="M946" s="5" t="s">
-        <v>1876</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="947" spans="1:13" x14ac:dyDescent="0.3">
@@ -24064,16 +23475,13 @@
         <v>940</v>
       </c>
       <c r="K957" s="27"/>
-      <c r="M957" s="5" t="s">
-        <v>2050</v>
-      </c>
     </row>
     <row r="958" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A958" s="3">
         <v>1586</v>
       </c>
       <c r="B958" s="1" t="s">
-        <v>1977</v>
+        <v>1969</v>
       </c>
       <c r="C958" s="2" t="s">
         <v>1699</v>
@@ -24082,17 +23490,17 @@
         <v>940</v>
       </c>
       <c r="E958" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="F958" s="2" t="s">
-        <v>2079</v>
+        <v>2011</v>
       </c>
       <c r="G958" s="2">
         <v>41</v>
       </c>
       <c r="K958" s="27"/>
       <c r="M958" s="5" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="959" spans="1:13" x14ac:dyDescent="0.3">
@@ -24154,14 +23562,9 @@
         <v>940</v>
       </c>
       <c r="E962" s="2" t="s">
-        <v>1770</v>
-      </c>
-      <c r="K962" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="M962" s="5" t="s">
-        <v>2011</v>
-      </c>
+        <v>1769</v>
+      </c>
+      <c r="K962" s="27"/>
     </row>
     <row r="963" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A963" s="3">
@@ -24222,14 +23625,14 @@
         <v>940</v>
       </c>
       <c r="E966" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="G966" s="2">
         <v>70</v>
       </c>
       <c r="K966" s="27"/>
       <c r="M966" s="5" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="967" spans="1:13" x14ac:dyDescent="0.3">
@@ -24279,7 +23682,7 @@
         <v>272</v>
       </c>
       <c r="F969" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="G969" s="2">
         <v>42</v>
@@ -24300,17 +23703,17 @@
         <v>940</v>
       </c>
       <c r="E970" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="F970" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G970" s="2">
         <v>110</v>
       </c>
       <c r="K970" s="27"/>
       <c r="M970" s="5" t="s">
-        <v>1940</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="971" spans="1:13" x14ac:dyDescent="0.3">
@@ -24433,7 +23836,7 @@
       </c>
       <c r="K978" s="27"/>
     </row>
-    <row r="979" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A979" s="3">
         <v>2065</v>
       </c>
@@ -24447,19 +23850,17 @@
         <v>940</v>
       </c>
       <c r="E979" s="2" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="F979" s="2" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="G979" s="2">
         <v>44</v>
       </c>
-      <c r="K979" s="27">
-        <v>3</v>
-      </c>
+      <c r="K979" s="27"/>
       <c r="M979" s="5" t="s">
-        <v>2173</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="980" spans="1:13" x14ac:dyDescent="0.3">
@@ -24597,7 +23998,7 @@
       </c>
       <c r="K988" s="27"/>
     </row>
-    <row r="989" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A989" s="3">
         <v>2643</v>
       </c>
@@ -24611,12 +24012,9 @@
         <v>940</v>
       </c>
       <c r="E989" s="2" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="K989" s="27"/>
-      <c r="M989" s="5" t="s">
-        <v>1919</v>
-      </c>
     </row>
     <row r="990" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A990" s="3">
@@ -24663,7 +24061,7 @@
       </c>
       <c r="K992" s="27"/>
     </row>
-    <row r="993" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A993" s="3">
         <v>2726</v>
       </c>
@@ -24678,7 +24076,7 @@
       </c>
       <c r="K993" s="27"/>
     </row>
-    <row r="994" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A994" s="3">
         <v>2729</v>
       </c>
@@ -24693,7 +24091,7 @@
       </c>
       <c r="K994" s="27"/>
     </row>
-    <row r="995" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A995" s="3">
         <v>2732</v>
       </c>
@@ -24708,7 +24106,7 @@
       </c>
       <c r="K995" s="27"/>
     </row>
-    <row r="996" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A996" s="3">
         <v>2734</v>
       </c>
@@ -24723,7 +24121,7 @@
       </c>
       <c r="K996" s="27"/>
     </row>
-    <row r="997" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A997" s="3">
         <v>2736</v>
       </c>
@@ -24738,7 +24136,7 @@
       </c>
       <c r="K997" s="27"/>
     </row>
-    <row r="998" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A998" s="3">
         <v>2740</v>
       </c>
@@ -24753,7 +24151,7 @@
       </c>
       <c r="K998" s="27"/>
     </row>
-    <row r="999" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A999" s="3">
         <v>2743</v>
       </c>
@@ -24768,7 +24166,7 @@
       </c>
       <c r="K999" s="27"/>
     </row>
-    <row r="1000" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1000" s="3">
         <v>2745</v>
       </c>
@@ -24783,7 +24181,7 @@
       </c>
       <c r="K1000" s="27"/>
     </row>
-    <row r="1001" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1001" s="3">
         <v>2752</v>
       </c>
@@ -24797,11 +24195,8 @@
         <v>940</v>
       </c>
       <c r="K1001" s="27"/>
-      <c r="M1001" s="5" t="s">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1002" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1002" s="3">
         <v>2754</v>
       </c>
@@ -24816,7 +24211,7 @@
       </c>
       <c r="K1002" s="27"/>
     </row>
-    <row r="1003" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1003" s="3">
         <v>2916</v>
       </c>
@@ -24831,7 +24226,7 @@
       </c>
       <c r="K1003" s="27"/>
     </row>
-    <row r="1004" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1004" s="3">
         <v>2924</v>
       </c>
@@ -24846,7 +24241,7 @@
       </c>
       <c r="K1004" s="27"/>
     </row>
-    <row r="1005" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1005" s="3">
         <v>2926</v>
       </c>
@@ -24861,7 +24256,7 @@
       </c>
       <c r="K1005" s="27"/>
     </row>
-    <row r="1006" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1006" s="3">
         <v>2928</v>
       </c>
@@ -24876,7 +24271,7 @@
       </c>
       <c r="K1006" s="27"/>
     </row>
-    <row r="1007" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1007" s="3">
         <v>2937</v>
       </c>
@@ -24890,11 +24285,11 @@
         <v>940</v>
       </c>
       <c r="E1007" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="K1007" s="27"/>
     </row>
-    <row r="1008" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1008" s="3">
         <v>3064</v>
       </c>
@@ -24908,7 +24303,7 @@
         <v>940</v>
       </c>
       <c r="E1008" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="K1008" s="27"/>
     </row>
@@ -24971,7 +24366,7 @@
         <v>940</v>
       </c>
       <c r="E1012" s="4" t="s">
-        <v>1974</v>
+        <v>1966</v>
       </c>
       <c r="H1012" s="2">
         <v>50</v>
@@ -25007,7 +24402,7 @@
         <v>940</v>
       </c>
       <c r="E1014" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="K1014" s="27"/>
     </row>
@@ -25040,14 +24435,14 @@
         <v>940</v>
       </c>
       <c r="E1016" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="F1016" s="2" t="s">
-        <v>2187</v>
+        <v>2056</v>
       </c>
       <c r="K1016" s="27"/>
       <c r="M1016" s="5" t="s">
-        <v>2188</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1017" spans="1:13" x14ac:dyDescent="0.3">
@@ -25079,11 +24474,11 @@
         <v>940</v>
       </c>
       <c r="E1018" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="K1018" s="27"/>
       <c r="M1018" s="5" t="s">
-        <v>1950</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1019" spans="1:13" x14ac:dyDescent="0.3">
@@ -25100,7 +24495,7 @@
         <v>940</v>
       </c>
       <c r="E1019" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="K1019" s="27"/>
     </row>
@@ -25133,12 +24528,9 @@
         <v>940</v>
       </c>
       <c r="E1021" s="2" t="s">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="K1021" s="27"/>
-      <c r="M1021" s="5" t="s">
-        <v>2026</v>
-      </c>
     </row>
     <row r="1022" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1022" s="3">
@@ -25199,11 +24591,11 @@
         <v>940</v>
       </c>
       <c r="E1025" s="4" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="K1025" s="27"/>
       <c r="M1025" s="5" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1026" spans="1:13" x14ac:dyDescent="0.3">
@@ -25211,7 +24603,7 @@
         <v>3128</v>
       </c>
       <c r="B1026" s="1" t="s">
-        <v>2066</v>
+        <v>2004</v>
       </c>
       <c r="C1026" s="2" t="s">
         <v>1699</v>
@@ -25370,7 +24762,7 @@
         <v>940</v>
       </c>
       <c r="E1036" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="K1036" s="27"/>
     </row>
@@ -25433,10 +24825,10 @@
         <v>940</v>
       </c>
       <c r="E1040" s="2" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="F1040" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="K1040" s="27"/>
     </row>
@@ -25469,11 +24861,11 @@
         <v>940</v>
       </c>
       <c r="E1042" s="4" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="K1042" s="27"/>
       <c r="M1042" s="5" t="s">
-        <v>1955</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1043" spans="1:13" x14ac:dyDescent="0.3">
@@ -25535,7 +24927,7 @@
         <v>940</v>
       </c>
       <c r="E1046" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="K1046" s="27"/>
     </row>
@@ -25553,14 +24945,14 @@
         <v>940</v>
       </c>
       <c r="E1047" s="2" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="F1047" s="2" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="K1047" s="27"/>
       <c r="M1047" s="5" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1048" spans="1:13" x14ac:dyDescent="0.3">
@@ -25652,7 +25044,7 @@
         <v>940</v>
       </c>
       <c r="E1053" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G1053" s="2">
         <v>240</v>
@@ -25763,18 +25155,15 @@
         <v>940</v>
       </c>
       <c r="E1060" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F1060" s="2" t="s">
-        <v>2079</v>
+        <v>2011</v>
       </c>
       <c r="G1060" s="2">
         <v>66</v>
       </c>
       <c r="K1060" s="27"/>
-      <c r="M1060" s="5" t="s">
-        <v>2009</v>
-      </c>
     </row>
     <row r="1061" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1061" s="3">
@@ -25835,14 +25224,11 @@
         <v>940</v>
       </c>
       <c r="E1064" s="4" t="s">
-        <v>1755</v>
-      </c>
-      <c r="F1064" s="2" t="s">
-        <v>1881</v>
+        <v>1754</v>
       </c>
       <c r="K1064" s="27"/>
       <c r="M1064" s="7" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1065" spans="1:14" x14ac:dyDescent="0.3">
@@ -25934,9 +25320,6 @@
         <v>940</v>
       </c>
       <c r="K1070" s="27"/>
-      <c r="M1070" s="5" t="s">
-        <v>2064</v>
-      </c>
     </row>
     <row r="1071" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1071" s="3">
@@ -25953,7 +25336,7 @@
       </c>
       <c r="K1071" s="27"/>
     </row>
-    <row r="1072" spans="1:14" ht="75" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:14" ht="60" x14ac:dyDescent="0.3">
       <c r="A1072" s="3">
         <v>3293</v>
       </c>
@@ -25967,22 +25350,20 @@
         <v>940</v>
       </c>
       <c r="E1072" s="4" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="F1072" s="4" t="s">
-        <v>2189</v>
+        <v>2058</v>
       </c>
       <c r="G1072" s="2">
         <v>720</v>
       </c>
-      <c r="K1072" s="27" t="s">
-        <v>2124</v>
-      </c>
+      <c r="K1072" s="27"/>
       <c r="M1072" s="7" t="s">
-        <v>2198</v>
+        <v>2101</v>
       </c>
       <c r="N1072" s="25" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1073" spans="1:13" x14ac:dyDescent="0.3">
@@ -26137,7 +25518,7 @@
         <v>1710</v>
       </c>
       <c r="F1082" s="4" t="s">
-        <v>2190</v>
+        <v>2059</v>
       </c>
       <c r="G1082" s="2">
         <v>144</v>
@@ -26221,14 +25602,14 @@
         <v>940</v>
       </c>
       <c r="E1087" s="4" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="F1087" s="2" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="K1087" s="27"/>
       <c r="M1087" s="5" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1088" spans="1:13" x14ac:dyDescent="0.3">
@@ -26245,7 +25626,7 @@
         <v>940</v>
       </c>
       <c r="E1088" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="K1088" s="27"/>
     </row>
@@ -26479,7 +25860,7 @@
         <v>940</v>
       </c>
       <c r="E1103" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="K1103" s="27"/>
     </row>
@@ -26498,7 +25879,7 @@
       </c>
       <c r="K1104" s="27"/>
     </row>
-    <row r="1105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1105" s="3">
         <v>3479</v>
       </c>
@@ -26513,7 +25894,7 @@
       </c>
       <c r="K1105" s="27"/>
     </row>
-    <row r="1106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1106" s="3">
         <v>3483</v>
       </c>
@@ -26534,7 +25915,7 @@
       </c>
       <c r="K1106" s="27"/>
     </row>
-    <row r="1107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1107" s="3">
         <v>3484</v>
       </c>
@@ -26549,7 +25930,7 @@
       </c>
       <c r="K1107" s="27"/>
     </row>
-    <row r="1108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1108" s="3">
         <v>3489</v>
       </c>
@@ -26564,7 +25945,7 @@
       </c>
       <c r="K1108" s="27"/>
     </row>
-    <row r="1109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1109" s="3">
         <v>3490</v>
       </c>
@@ -26579,7 +25960,7 @@
       </c>
       <c r="K1109" s="27"/>
     </row>
-    <row r="1110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1110" s="3">
         <v>3491</v>
       </c>
@@ -26593,11 +25974,8 @@
         <v>940</v>
       </c>
       <c r="K1110" s="27"/>
-      <c r="M1110" s="5" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1111" s="3">
         <v>3492</v>
       </c>
@@ -26612,7 +25990,7 @@
       </c>
       <c r="K1111" s="27"/>
     </row>
-    <row r="1112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1112" s="3">
         <v>3498</v>
       </c>
@@ -26627,7 +26005,7 @@
       </c>
       <c r="K1112" s="27"/>
     </row>
-    <row r="1113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1113" s="3">
         <v>3499</v>
       </c>
@@ -26642,7 +26020,7 @@
       </c>
       <c r="K1113" s="27"/>
     </row>
-    <row r="1114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1114" s="3">
         <v>3508</v>
       </c>
@@ -26657,7 +26035,7 @@
       </c>
       <c r="K1114" s="27"/>
     </row>
-    <row r="1115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1115" s="3">
         <v>3511</v>
       </c>
@@ -26672,7 +26050,7 @@
       </c>
       <c r="K1115" s="27"/>
     </row>
-    <row r="1116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1116" s="3">
         <v>3512</v>
       </c>
@@ -26687,7 +26065,7 @@
       </c>
       <c r="K1116" s="27"/>
     </row>
-    <row r="1117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1117" s="3">
         <v>3516</v>
       </c>
@@ -26702,7 +26080,7 @@
       </c>
       <c r="K1117" s="27"/>
     </row>
-    <row r="1118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1118" s="3">
         <v>3520</v>
       </c>
@@ -26717,7 +26095,7 @@
       </c>
       <c r="K1118" s="27"/>
     </row>
-    <row r="1119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1119" s="3">
         <v>3521</v>
       </c>
@@ -26732,7 +26110,7 @@
       </c>
       <c r="K1119" s="27"/>
     </row>
-    <row r="1120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1120" s="3">
         <v>3522</v>
       </c>
@@ -26762,7 +26140,7 @@
       </c>
       <c r="K1121" s="27"/>
     </row>
-    <row r="1122" spans="1:13" ht="45" x14ac:dyDescent="0.3">
+    <row r="1122" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A1122" s="3">
         <v>3526</v>
       </c>
@@ -26776,19 +26154,17 @@
         <v>940</v>
       </c>
       <c r="E1122" s="2" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="F1122" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G1122" s="2">
         <v>80</v>
       </c>
-      <c r="K1122" s="27" t="s">
-        <v>2182</v>
-      </c>
+      <c r="K1122" s="27"/>
       <c r="M1122" s="5" t="s">
-        <v>2181</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="1123" spans="1:13" x14ac:dyDescent="0.3">
@@ -26865,7 +26241,7 @@
         <v>940</v>
       </c>
       <c r="E1127" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="K1127" s="27"/>
     </row>
@@ -26898,17 +26274,17 @@
         <v>940</v>
       </c>
       <c r="E1129" s="4" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="F1129" s="2" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="G1129" s="2">
         <v>81</v>
       </c>
       <c r="K1129" s="27"/>
       <c r="M1129" s="5" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1130" spans="1:13" x14ac:dyDescent="0.3">
@@ -26955,17 +26331,17 @@
         <v>940</v>
       </c>
       <c r="E1132" s="4" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="F1132" s="2" t="s">
-        <v>2167</v>
+        <v>2047</v>
       </c>
       <c r="G1132" s="2">
         <v>250</v>
       </c>
       <c r="K1132" s="27"/>
       <c r="M1132" s="7" t="s">
-        <v>2166</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1133" spans="1:13" x14ac:dyDescent="0.3">
@@ -27108,7 +26484,7 @@
         <v>3587</v>
       </c>
       <c r="B1142" s="1" t="s">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="C1142" s="2" t="s">
         <v>1699</v>
@@ -27282,7 +26658,7 @@
         <v>940</v>
       </c>
       <c r="E1153" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="K1153" s="27"/>
     </row>
@@ -27501,7 +26877,7 @@
         <v>940</v>
       </c>
       <c r="E1167" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="K1167" s="27"/>
     </row>
@@ -27570,7 +26946,7 @@
         <v>940</v>
       </c>
       <c r="E1171" s="2" t="s">
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="K1171" s="27"/>
     </row>
@@ -27633,14 +27009,14 @@
         <v>940</v>
       </c>
       <c r="E1175" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="F1175" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="K1175" s="27"/>
       <c r="M1175" s="5" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1176" spans="1:14" x14ac:dyDescent="0.3">
@@ -27657,11 +27033,11 @@
         <v>940</v>
       </c>
       <c r="E1176" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="K1176" s="27"/>
       <c r="M1176" s="5" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1177" spans="1:14" x14ac:dyDescent="0.3">
@@ -27783,23 +27159,23 @@
         <v>940</v>
       </c>
       <c r="E1184" s="4" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="F1184" s="2" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="G1184" s="2">
         <v>61</v>
       </c>
       <c r="K1184" s="27"/>
       <c r="M1184" s="5" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="N1184" s="25" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1185" s="3">
         <v>4126</v>
       </c>
@@ -27814,7 +27190,7 @@
       </c>
       <c r="K1185" s="27"/>
     </row>
-    <row r="1186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1186" s="3">
         <v>4127</v>
       </c>
@@ -27829,7 +27205,7 @@
       </c>
       <c r="K1186" s="27"/>
     </row>
-    <row r="1187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1187" s="3">
         <v>4128</v>
       </c>
@@ -27843,11 +27219,11 @@
         <v>940</v>
       </c>
       <c r="E1187" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="K1187" s="27"/>
     </row>
-    <row r="1188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1188" s="3">
         <v>4129</v>
       </c>
@@ -27862,7 +27238,7 @@
       </c>
       <c r="K1188" s="27"/>
     </row>
-    <row r="1189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1189" s="3">
         <v>4130</v>
       </c>
@@ -27877,7 +27253,7 @@
       </c>
       <c r="K1189" s="27"/>
     </row>
-    <row r="1190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1190" s="3">
         <v>4131</v>
       </c>
@@ -27892,7 +27268,7 @@
       </c>
       <c r="K1190" s="27"/>
     </row>
-    <row r="1191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1191" s="3">
         <v>4138</v>
       </c>
@@ -27907,7 +27283,7 @@
       </c>
       <c r="K1191" s="27"/>
     </row>
-    <row r="1192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1192" s="3">
         <v>4139</v>
       </c>
@@ -27921,14 +27297,11 @@
         <v>940</v>
       </c>
       <c r="E1192" s="2" t="s">
-        <v>2045</v>
+        <v>2003</v>
       </c>
       <c r="K1192" s="27"/>
-      <c r="M1192" s="5" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1193" s="3">
         <v>4147</v>
       </c>
@@ -27943,7 +27316,7 @@
       </c>
       <c r="K1193" s="27"/>
     </row>
-    <row r="1194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1194" s="3">
         <v>4152</v>
       </c>
@@ -27958,7 +27331,7 @@
       </c>
       <c r="K1194" s="27"/>
     </row>
-    <row r="1195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1195" s="3">
         <v>4153</v>
       </c>
@@ -27973,7 +27346,7 @@
       </c>
       <c r="K1195" s="27"/>
     </row>
-    <row r="1196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1196" s="3">
         <v>4154</v>
       </c>
@@ -27988,7 +27361,7 @@
       </c>
       <c r="K1196" s="27"/>
     </row>
-    <row r="1197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1197" s="3">
         <v>4160</v>
       </c>
@@ -28003,7 +27376,7 @@
       </c>
       <c r="K1197" s="27"/>
     </row>
-    <row r="1198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1198" s="3">
         <v>4161</v>
       </c>
@@ -28018,7 +27391,7 @@
       </c>
       <c r="K1198" s="27"/>
     </row>
-    <row r="1199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1199" s="3">
         <v>4162</v>
       </c>
@@ -28032,11 +27405,11 @@
         <v>940</v>
       </c>
       <c r="E1199" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="K1199" s="27"/>
     </row>
-    <row r="1200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1200" s="3">
         <v>4163</v>
       </c>
@@ -28066,7 +27439,7 @@
       </c>
       <c r="K1201" s="27"/>
       <c r="M1201" s="5" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1202" spans="1:13" x14ac:dyDescent="0.3">
@@ -28098,7 +27471,7 @@
         <v>940</v>
       </c>
       <c r="E1203" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="K1203" s="27"/>
     </row>
@@ -28191,7 +27564,7 @@
         <v>940</v>
       </c>
       <c r="E1209" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="K1209" s="27"/>
     </row>
@@ -28734,7 +28107,7 @@
         <v>940</v>
       </c>
       <c r="E1245" s="2" t="s">
-        <v>1963</v>
+        <v>1956</v>
       </c>
       <c r="K1245" s="27"/>
     </row>
@@ -28977,11 +28350,11 @@
         <v>940</v>
       </c>
       <c r="E1261" s="4" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="K1261" s="27"/>
       <c r="M1261" s="5" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1262" spans="1:13" x14ac:dyDescent="0.3">
@@ -29043,7 +28416,7 @@
         <v>940</v>
       </c>
       <c r="E1265" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="K1265" s="27"/>
     </row>
@@ -29076,7 +28449,7 @@
         <v>940</v>
       </c>
       <c r="E1267" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="K1267" s="27"/>
     </row>
@@ -29140,7 +28513,7 @@
       </c>
       <c r="K1271" s="27"/>
     </row>
-    <row r="1272" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="1272" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A1272" s="3">
         <v>4760</v>
       </c>
@@ -29154,11 +28527,11 @@
         <v>940</v>
       </c>
       <c r="E1272" s="2" t="s">
-        <v>1994</v>
+        <v>1985</v>
       </c>
       <c r="K1272" s="27"/>
       <c r="M1272" s="5" t="s">
-        <v>2065</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="1273" spans="1:13" x14ac:dyDescent="0.3">
@@ -29355,17 +28728,17 @@
         <v>940</v>
       </c>
       <c r="E1285" s="4" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="F1285" s="2" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="G1285" s="2">
         <v>25</v>
       </c>
       <c r="K1285" s="27"/>
       <c r="M1285" s="7" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1286" spans="1:13" x14ac:dyDescent="0.3">
@@ -29397,7 +28770,7 @@
         <v>940</v>
       </c>
       <c r="E1287" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="K1287" s="27"/>
     </row>
@@ -29430,14 +28803,14 @@
         <v>940</v>
       </c>
       <c r="E1289" s="2" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="G1289" s="2">
         <v>80</v>
       </c>
       <c r="K1289" s="27"/>
       <c r="M1289" s="5" t="s">
-        <v>1934</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1290" spans="1:13" ht="30" x14ac:dyDescent="0.3">
@@ -29454,11 +28827,11 @@
         <v>940</v>
       </c>
       <c r="E1290" s="2" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="K1290" s="27"/>
       <c r="M1290" s="5" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1291" spans="1:13" x14ac:dyDescent="0.3">
@@ -29506,7 +28879,7 @@
       </c>
       <c r="K1293" s="27"/>
     </row>
-    <row r="1294" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="1294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1294" s="3">
         <v>4974</v>
       </c>
@@ -29520,11 +28893,11 @@
         <v>940</v>
       </c>
       <c r="E1294" s="2" t="s">
-        <v>1987</v>
+        <v>1979</v>
       </c>
       <c r="K1294" s="27"/>
       <c r="M1294" s="5" t="s">
-        <v>1989</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1295" spans="1:13" x14ac:dyDescent="0.3">
@@ -29616,11 +28989,11 @@
         <v>940</v>
       </c>
       <c r="E1300" s="2" t="s">
-        <v>1947</v>
+        <v>1940</v>
       </c>
       <c r="K1300" s="27"/>
       <c r="M1300" s="5" t="s">
-        <v>1948</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1301" spans="1:13" x14ac:dyDescent="0.3">
@@ -29757,7 +29130,7 @@
         <v>940</v>
       </c>
       <c r="E1309" s="2" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="K1309" s="27"/>
     </row>
@@ -29775,7 +29148,7 @@
         <v>940</v>
       </c>
       <c r="E1310" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="K1310" s="27"/>
     </row>
@@ -29854,7 +29227,7 @@
       </c>
       <c r="K1315" s="27"/>
     </row>
-    <row r="1316" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="1316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1316" s="3">
         <v>5223</v>
       </c>
@@ -29875,7 +29248,7 @@
       </c>
       <c r="K1316" s="27"/>
       <c r="M1316" s="5" t="s">
-        <v>2091</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1317" spans="1:13" x14ac:dyDescent="0.3">
@@ -29982,7 +29355,7 @@
         <v>940</v>
       </c>
       <c r="E1323" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="K1323" s="27"/>
     </row>
@@ -30135,7 +29508,7 @@
         <v>940</v>
       </c>
       <c r="E1333" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="K1333" s="27"/>
     </row>
@@ -30153,20 +29526,20 @@
         <v>940</v>
       </c>
       <c r="E1334" s="4" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="F1334" s="2" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="G1334" s="2">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I1334" s="2">
         <v>48.2</v>
       </c>
       <c r="K1334" s="27"/>
       <c r="M1334" s="5" t="s">
-        <v>2203</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1335" spans="1:13" x14ac:dyDescent="0.3">
@@ -30333,17 +29706,12 @@
         <v>940</v>
       </c>
       <c r="E1345" s="4" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G1345" s="2">
         <v>85</v>
       </c>
-      <c r="K1345" s="27">
-        <v>3.5</v>
-      </c>
-      <c r="M1345" s="5" t="s">
-        <v>2111</v>
-      </c>
+      <c r="K1345" s="27"/>
     </row>
     <row r="1346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1346" s="3">
@@ -30434,18 +29802,15 @@
         <v>940</v>
       </c>
       <c r="E1351" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="F1351" s="2" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="G1351" s="2">
         <v>45</v>
       </c>
       <c r="K1351" s="27"/>
-      <c r="M1351" s="5" t="s">
-        <v>2168</v>
-      </c>
     </row>
     <row r="1352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1352" s="3">
@@ -30566,11 +29931,11 @@
         <v>940</v>
       </c>
       <c r="E1359" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="K1359" s="27"/>
       <c r="M1359" s="5" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1360" spans="1:13" x14ac:dyDescent="0.3">
@@ -30632,14 +29997,14 @@
         <v>940</v>
       </c>
       <c r="E1363" s="4" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="G1363" s="2">
         <v>50</v>
       </c>
       <c r="K1363" s="27"/>
       <c r="M1363" s="5" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1364" spans="1:13" ht="45" x14ac:dyDescent="0.3">
@@ -30656,17 +30021,17 @@
         <v>940</v>
       </c>
       <c r="E1364" s="4" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="F1364" s="2" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="G1364" s="2">
         <v>31</v>
       </c>
       <c r="K1364" s="27"/>
       <c r="M1364" s="5" t="s">
-        <v>2169</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1365" spans="1:13" x14ac:dyDescent="0.3">
@@ -30698,17 +30063,17 @@
         <v>940</v>
       </c>
       <c r="E1366" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="F1366" s="2" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="G1366" s="2">
         <v>10</v>
       </c>
       <c r="K1366" s="27"/>
       <c r="M1366" s="5" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1367" spans="1:13" x14ac:dyDescent="0.3">
@@ -30740,7 +30105,7 @@
         <v>940</v>
       </c>
       <c r="E1368" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="K1368" s="27"/>
     </row>
@@ -30818,7 +30183,7 @@
         <v>940</v>
       </c>
       <c r="E1373" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="K1373" s="27"/>
     </row>
@@ -30851,7 +30216,7 @@
         <v>940</v>
       </c>
       <c r="E1375" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="K1375" s="27"/>
     </row>
@@ -30870,7 +30235,7 @@
       </c>
       <c r="K1376" s="27"/>
     </row>
-    <row r="1377" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="1377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1377" s="3">
         <v>5483</v>
       </c>
@@ -30884,14 +30249,11 @@
         <v>940</v>
       </c>
       <c r="E1377" s="4" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="K1377" s="27"/>
-      <c r="M1377" s="5" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1378" s="3">
         <v>5487</v>
       </c>
@@ -30905,11 +30267,8 @@
         <v>940</v>
       </c>
       <c r="K1378" s="27"/>
-      <c r="M1378" s="5" t="s">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1379" s="3">
         <v>5488</v>
       </c>
@@ -30924,7 +30283,7 @@
       </c>
       <c r="K1379" s="27"/>
     </row>
-    <row r="1380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1380" s="3">
         <v>5489</v>
       </c>
@@ -30939,7 +30298,7 @@
       </c>
       <c r="K1380" s="27"/>
     </row>
-    <row r="1381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1381" s="3">
         <v>5490</v>
       </c>
@@ -30954,7 +30313,7 @@
       </c>
       <c r="K1381" s="27"/>
     </row>
-    <row r="1382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1382" s="3">
         <v>5493</v>
       </c>
@@ -30969,7 +30328,7 @@
       </c>
       <c r="K1382" s="27"/>
     </row>
-    <row r="1383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1383" s="3">
         <v>5498</v>
       </c>
@@ -30983,14 +30342,14 @@
         <v>940</v>
       </c>
       <c r="E1383" s="2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="G1383" s="2">
         <v>12</v>
       </c>
       <c r="K1383" s="27"/>
     </row>
-    <row r="1384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1384" s="3">
         <v>5508</v>
       </c>
@@ -31005,7 +30364,7 @@
       </c>
       <c r="K1384" s="27"/>
     </row>
-    <row r="1385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1385" s="3">
         <v>5511</v>
       </c>
@@ -31020,7 +30379,7 @@
       </c>
       <c r="K1385" s="27"/>
     </row>
-    <row r="1386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1386" s="3">
         <v>5512</v>
       </c>
@@ -31035,7 +30394,7 @@
       </c>
       <c r="K1386" s="27"/>
     </row>
-    <row r="1387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1387" s="3">
         <v>5514</v>
       </c>
@@ -31050,7 +30409,7 @@
       </c>
       <c r="K1387" s="27"/>
     </row>
-    <row r="1388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1388" s="3">
         <v>5516</v>
       </c>
@@ -31065,7 +30424,7 @@
       </c>
       <c r="K1388" s="27"/>
     </row>
-    <row r="1389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1389" s="3">
         <v>5520</v>
       </c>
@@ -31080,7 +30439,7 @@
       </c>
       <c r="K1389" s="27"/>
     </row>
-    <row r="1390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1390" s="3">
         <v>5523</v>
       </c>
@@ -31095,7 +30454,7 @@
       </c>
       <c r="K1390" s="27"/>
     </row>
-    <row r="1391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1391" s="3">
         <v>5529</v>
       </c>
@@ -31110,7 +30469,7 @@
       </c>
       <c r="K1391" s="27"/>
     </row>
-    <row r="1392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1392" s="3">
         <v>5530</v>
       </c>
@@ -31125,7 +30484,7 @@
       </c>
       <c r="K1392" s="27"/>
     </row>
-    <row r="1393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1393" s="3">
         <v>5536</v>
       </c>
@@ -31140,7 +30499,7 @@
       </c>
       <c r="K1393" s="27"/>
     </row>
-    <row r="1394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1394" s="3">
         <v>5543</v>
       </c>
@@ -31155,7 +30514,7 @@
       </c>
       <c r="K1394" s="27"/>
     </row>
-    <row r="1395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1395" s="3">
         <v>5601</v>
       </c>
@@ -31170,7 +30529,7 @@
       </c>
       <c r="K1395" s="27"/>
     </row>
-    <row r="1396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1396" s="3">
         <v>5603</v>
       </c>
@@ -31185,7 +30544,7 @@
       </c>
       <c r="K1396" s="27"/>
     </row>
-    <row r="1397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1397" s="3">
         <v>5604</v>
       </c>
@@ -31200,7 +30559,7 @@
       </c>
       <c r="K1397" s="27"/>
     </row>
-    <row r="1398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1398" s="3">
         <v>5609</v>
       </c>
@@ -31214,17 +30573,17 @@
         <v>940</v>
       </c>
       <c r="E1398" s="2" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="F1398" s="2" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="G1398" s="2">
         <v>50</v>
       </c>
       <c r="K1398" s="27"/>
     </row>
-    <row r="1399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1399" s="3">
         <v>5701</v>
       </c>
@@ -31239,7 +30598,7 @@
       </c>
       <c r="K1399" s="27"/>
     </row>
-    <row r="1400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1400" s="3">
         <v>5703</v>
       </c>
@@ -31254,7 +30613,7 @@
       </c>
       <c r="K1400" s="27"/>
     </row>
-    <row r="1401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1401" s="3">
         <v>5704</v>
       </c>
@@ -31269,7 +30628,7 @@
       </c>
       <c r="K1401" s="27"/>
     </row>
-    <row r="1402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1402" s="3">
         <v>5820</v>
       </c>
@@ -31284,7 +30643,7 @@
       </c>
       <c r="K1402" s="27"/>
     </row>
-    <row r="1403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1403" s="3">
         <v>5864</v>
       </c>
@@ -31299,7 +30658,7 @@
       </c>
       <c r="K1403" s="27"/>
     </row>
-    <row r="1404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1404" s="3">
         <v>5878</v>
       </c>
@@ -31314,7 +30673,7 @@
       </c>
       <c r="K1404" s="27"/>
     </row>
-    <row r="1405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1405" s="3">
         <v>5902</v>
       </c>
@@ -31329,7 +30688,7 @@
       </c>
       <c r="K1405" s="27"/>
     </row>
-    <row r="1406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1406" s="3">
         <v>5903</v>
       </c>
@@ -31343,11 +30702,11 @@
         <v>940</v>
       </c>
       <c r="E1406" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="K1406" s="27"/>
     </row>
-    <row r="1407" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1407" s="3">
         <v>5904</v>
       </c>
@@ -31361,17 +30720,14 @@
         <v>940</v>
       </c>
       <c r="E1407" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G1407" s="2">
         <v>430</v>
       </c>
       <c r="K1407" s="27"/>
-      <c r="M1407" s="5" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="1408" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1408" s="3">
         <v>5905</v>
       </c>
@@ -31511,16 +30867,16 @@
         <v>6104</v>
       </c>
       <c r="B1417" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C1417" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D1417" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="E1417" s="2" t="s">
         <v>1781</v>
-      </c>
-      <c r="C1417" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D1417" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="E1417" s="2" t="s">
-        <v>1782</v>
       </c>
       <c r="K1417" s="27"/>
       <c r="M1417" s="5" t="s">
@@ -31706,7 +31062,7 @@
         <v>940</v>
       </c>
       <c r="E1429" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="K1429" s="27"/>
     </row>
@@ -31724,14 +31080,14 @@
         <v>940</v>
       </c>
       <c r="E1430" s="4" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
       <c r="F1430" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="K1430" s="27"/>
       <c r="M1430" s="5" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1431" spans="1:13" x14ac:dyDescent="0.3">
@@ -31778,7 +31134,7 @@
         <v>940</v>
       </c>
       <c r="E1433" s="4" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="K1433" s="27"/>
     </row>
@@ -31856,10 +31212,10 @@
         <v>940</v>
       </c>
       <c r="E1438" s="2" t="s">
-        <v>1957</v>
+        <v>1950</v>
       </c>
       <c r="F1438" s="2" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="G1438" s="2">
         <v>72</v>
@@ -31896,7 +31252,7 @@
       </c>
       <c r="K1440" s="27"/>
     </row>
-    <row r="1441" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1441" s="3">
         <v>6151</v>
       </c>
@@ -31911,7 +31267,7 @@
       </c>
       <c r="K1441" s="27"/>
     </row>
-    <row r="1442" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1442" s="3">
         <v>6154</v>
       </c>
@@ -31926,7 +31282,7 @@
       </c>
       <c r="K1442" s="27"/>
     </row>
-    <row r="1443" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1443" s="3">
         <v>6156</v>
       </c>
@@ -31941,7 +31297,7 @@
       </c>
       <c r="K1443" s="27"/>
     </row>
-    <row r="1444" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1444" s="3">
         <v>6158</v>
       </c>
@@ -31956,7 +31312,7 @@
       </c>
       <c r="K1444" s="27"/>
     </row>
-    <row r="1445" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1445" s="3">
         <v>6160</v>
       </c>
@@ -31971,7 +31327,7 @@
       </c>
       <c r="K1445" s="27"/>
     </row>
-    <row r="1446" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1446" s="3">
         <v>6161</v>
       </c>
@@ -31986,7 +31342,7 @@
       </c>
       <c r="K1446" s="27"/>
     </row>
-    <row r="1447" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1447" s="3">
         <v>6163</v>
       </c>
@@ -32001,7 +31357,7 @@
       </c>
       <c r="K1447" s="27"/>
     </row>
-    <row r="1448" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1448" s="3">
         <v>6167</v>
       </c>
@@ -32016,7 +31372,7 @@
       </c>
       <c r="K1448" s="27"/>
     </row>
-    <row r="1449" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1449" s="3">
         <v>6169</v>
       </c>
@@ -32030,11 +31386,11 @@
         <v>940</v>
       </c>
       <c r="E1449" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="K1449" s="27"/>
     </row>
-    <row r="1450" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1450" s="3">
         <v>6170</v>
       </c>
@@ -32049,7 +31405,7 @@
       </c>
       <c r="K1450" s="27"/>
     </row>
-    <row r="1451" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1451" s="3">
         <v>6171</v>
       </c>
@@ -32064,7 +31420,7 @@
       </c>
       <c r="K1451" s="27"/>
     </row>
-    <row r="1452" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="1452" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A1452" s="3">
         <v>6173</v>
       </c>
@@ -32078,17 +31434,14 @@
         <v>940</v>
       </c>
       <c r="E1452" s="4" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="G1452" s="2">
         <v>60</v>
       </c>
       <c r="K1452" s="27"/>
-      <c r="M1452" s="5" t="s">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="1453" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1453" s="3">
         <v>6174</v>
       </c>
@@ -32103,7 +31456,7 @@
       </c>
       <c r="K1453" s="27"/>
     </row>
-    <row r="1454" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1454" s="3">
         <v>6175</v>
       </c>
@@ -32118,7 +31471,7 @@
       </c>
       <c r="K1454" s="27"/>
     </row>
-    <row r="1455" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1455" s="3">
         <v>6179</v>
       </c>
@@ -32133,7 +31486,7 @@
       </c>
       <c r="K1455" s="27"/>
     </row>
-    <row r="1456" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1456" s="3">
         <v>6180</v>
       </c>
@@ -32147,7 +31500,7 @@
         <v>940</v>
       </c>
       <c r="E1456" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="K1456" s="27"/>
     </row>
@@ -32165,7 +31518,7 @@
         <v>940</v>
       </c>
       <c r="E1457" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="K1457" s="27"/>
     </row>
@@ -32327,7 +31680,7 @@
         <v>940</v>
       </c>
       <c r="E1467" s="4" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="K1467" s="27"/>
     </row>
@@ -32450,17 +31803,12 @@
         <v>940</v>
       </c>
       <c r="E1475" s="2" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="G1475" s="2">
         <v>19</v>
       </c>
-      <c r="K1475" s="27" t="s">
-        <v>2119</v>
-      </c>
-      <c r="M1475" s="5" t="s">
-        <v>2067</v>
-      </c>
+      <c r="K1475" s="27"/>
     </row>
     <row r="1476" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1476" s="3">
@@ -32491,7 +31839,7 @@
         <v>940</v>
       </c>
       <c r="E1477" s="2" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="K1477" s="27"/>
     </row>
@@ -32524,17 +31872,17 @@
         <v>940</v>
       </c>
       <c r="E1479" s="4" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
       <c r="F1479" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G1479" s="2">
         <v>100</v>
       </c>
       <c r="K1479" s="27"/>
       <c r="M1479" s="5" t="s">
-        <v>1932</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1480" spans="1:13" x14ac:dyDescent="0.3">
@@ -32596,7 +31944,7 @@
         <v>940</v>
       </c>
       <c r="E1483" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="K1483" s="27"/>
     </row>
@@ -32614,7 +31962,7 @@
         <v>940</v>
       </c>
       <c r="E1484" s="4" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="K1484" s="27"/>
     </row>
@@ -32648,12 +31996,12 @@
       </c>
       <c r="K1486" s="27"/>
     </row>
-    <row r="1487" spans="1:13" ht="45" x14ac:dyDescent="0.3">
+    <row r="1487" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A1487" s="3">
         <v>6237</v>
       </c>
       <c r="B1487" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C1487" s="2" t="s">
         <v>1699</v>
@@ -32662,14 +32010,14 @@
         <v>940</v>
       </c>
       <c r="E1487" s="4" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="F1487" s="2" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="K1487" s="27"/>
       <c r="M1487" s="5" t="s">
-        <v>1717</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="1488" spans="1:13" x14ac:dyDescent="0.3">
@@ -32942,7 +32290,7 @@
       </c>
       <c r="K1505" s="27"/>
     </row>
-    <row r="1506" spans="1:13" ht="45" x14ac:dyDescent="0.3">
+    <row r="1506" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A1506" s="3">
         <v>6284</v>
       </c>
@@ -32956,17 +32304,17 @@
         <v>940</v>
       </c>
       <c r="E1506" s="4" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="F1506" s="2" t="s">
-        <v>2079</v>
+        <v>2011</v>
       </c>
       <c r="G1506" s="2">
         <v>70</v>
       </c>
       <c r="K1506" s="27"/>
       <c r="M1506" s="5" t="s">
-        <v>2082</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1507" spans="1:13" x14ac:dyDescent="0.3">
@@ -33073,11 +32421,11 @@
         <v>940</v>
       </c>
       <c r="E1513" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="K1513" s="27"/>
       <c r="M1513" s="5" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1514" spans="1:13" x14ac:dyDescent="0.3">
@@ -33154,7 +32502,7 @@
         <v>940</v>
       </c>
       <c r="E1518" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="K1518" s="27"/>
     </row>
@@ -33203,7 +32551,7 @@
       </c>
       <c r="K1521" s="27"/>
     </row>
-    <row r="1522" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="1522" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1522" s="3">
         <v>6441</v>
       </c>
@@ -33217,19 +32565,17 @@
         <v>940</v>
       </c>
       <c r="E1522" s="4" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F1522" s="2" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="G1522" s="2">
         <v>120</v>
       </c>
-      <c r="K1522" s="27" t="s">
-        <v>2170</v>
-      </c>
+      <c r="K1522" s="27"/>
       <c r="M1522" s="5" t="s">
-        <v>2171</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="1523" spans="1:13" x14ac:dyDescent="0.3">
@@ -33246,7 +32592,7 @@
         <v>940</v>
       </c>
       <c r="E1523" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="K1523" s="27"/>
     </row>
@@ -33414,11 +32760,11 @@
         <v>940</v>
       </c>
       <c r="E1534" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="K1534" s="27"/>
       <c r="M1534" s="5" t="s">
-        <v>1941</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1535" spans="1:13" x14ac:dyDescent="0.3">
@@ -33480,11 +32826,11 @@
         <v>940</v>
       </c>
       <c r="E1538" s="4" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="K1538" s="27"/>
       <c r="M1538" s="5" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1539" spans="1:13" x14ac:dyDescent="0.3">
@@ -33531,7 +32877,7 @@
         <v>940</v>
       </c>
       <c r="E1541" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="K1541" s="27"/>
     </row>
@@ -33549,12 +32895,9 @@
         <v>940</v>
       </c>
       <c r="E1542" s="2" t="s">
-        <v>1975</v>
+        <v>1967</v>
       </c>
       <c r="K1542" s="27"/>
-      <c r="M1542" s="5" t="s">
-        <v>2071</v>
-      </c>
     </row>
     <row r="1543" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1543" s="3">
@@ -33675,11 +33018,11 @@
         <v>940</v>
       </c>
       <c r="E1550" s="4" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="K1550" s="27"/>
       <c r="M1550" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1551" spans="1:13" x14ac:dyDescent="0.3">
@@ -33699,7 +33042,7 @@
         <v>1708</v>
       </c>
       <c r="F1551" s="2" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="H1551" s="2">
         <v>220</v>
@@ -33714,7 +33057,7 @@
         <v>6542</v>
       </c>
       <c r="B1552" s="1" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C1552" s="2" t="s">
         <v>1699</v>
@@ -33723,7 +33066,7 @@
         <v>940</v>
       </c>
       <c r="E1552" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="K1552" s="27"/>
     </row>
@@ -33747,20 +33090,20 @@
         <v>6548</v>
       </c>
       <c r="B1554" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C1554" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D1554" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="E1554" s="2" t="s">
         <v>1832</v>
-      </c>
-      <c r="C1554" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D1554" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="E1554" s="2" t="s">
-        <v>1833</v>
       </c>
       <c r="K1554" s="27"/>
       <c r="M1554" s="5" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1555" spans="1:13" x14ac:dyDescent="0.3">
@@ -33806,12 +33149,7 @@
       <c r="D1557" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="K1557" s="27" t="s">
-        <v>2120</v>
-      </c>
-      <c r="M1557" s="5" t="s">
-        <v>2121</v>
-      </c>
+      <c r="K1557" s="27"/>
     </row>
     <row r="1558" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1558" s="3">
@@ -33842,14 +33180,9 @@
         <v>940</v>
       </c>
       <c r="E1559" s="2" t="s">
-        <v>2174</v>
-      </c>
-      <c r="K1559" s="27" t="s">
-        <v>2176</v>
-      </c>
-      <c r="M1559" s="5" t="s">
-        <v>2175</v>
-      </c>
+        <v>2050</v>
+      </c>
+      <c r="K1559" s="27"/>
     </row>
     <row r="1560" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1560" s="3">
@@ -33895,7 +33228,7 @@
         <v>940</v>
       </c>
       <c r="E1562" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="K1562" s="27"/>
     </row>
@@ -33958,7 +33291,7 @@
         <v>940</v>
       </c>
       <c r="E1566" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="K1566" s="27"/>
     </row>
@@ -33976,7 +33309,7 @@
         <v>940</v>
       </c>
       <c r="E1567" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="K1567" s="27"/>
     </row>
@@ -34159,11 +33492,11 @@
         <v>940</v>
       </c>
       <c r="E1579" s="4" t="s">
-        <v>1954</v>
+        <v>1947</v>
       </c>
       <c r="K1579" s="27"/>
       <c r="M1579" s="5" t="s">
-        <v>1953</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1580" spans="1:13" x14ac:dyDescent="0.3">
@@ -34285,7 +33618,7 @@
         <v>940</v>
       </c>
       <c r="E1587" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="K1587" s="27"/>
     </row>
@@ -34318,17 +33651,17 @@
         <v>940</v>
       </c>
       <c r="E1589" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F1589" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="G1589" s="2">
         <v>103</v>
       </c>
       <c r="K1589" s="27"/>
       <c r="M1589" s="5" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1590" spans="1:13" x14ac:dyDescent="0.3">
@@ -34450,7 +33783,7 @@
         <v>940</v>
       </c>
       <c r="E1597" s="4" t="s">
-        <v>2083</v>
+        <v>2014</v>
       </c>
       <c r="G1597" s="2">
         <v>81</v>
@@ -34531,11 +33864,11 @@
         <v>940</v>
       </c>
       <c r="E1602" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="K1602" s="27"/>
       <c r="M1602" s="5" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1603" spans="1:13" x14ac:dyDescent="0.3">
@@ -34553,7 +33886,7 @@
       </c>
       <c r="K1603" s="27"/>
     </row>
-    <row r="1604" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="1604" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1604" s="3">
         <v>8044</v>
       </c>
@@ -34567,11 +33900,11 @@
         <v>940</v>
       </c>
       <c r="E1604" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="K1604" s="27"/>
       <c r="M1604" s="5" t="s">
-        <v>2097</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="1605" spans="1:13" x14ac:dyDescent="0.3">
@@ -34633,7 +33966,7 @@
         <v>940</v>
       </c>
       <c r="E1608" s="2" t="s">
-        <v>2174</v>
+        <v>2050</v>
       </c>
       <c r="K1608" s="27"/>
     </row>
@@ -34741,17 +34074,17 @@
         <v>940</v>
       </c>
       <c r="E1615" s="2" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="F1615" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G1615" s="2">
         <v>40</v>
       </c>
       <c r="K1615" s="27"/>
       <c r="M1615" s="5" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1616" spans="1:13" x14ac:dyDescent="0.3">
@@ -34843,7 +34176,7 @@
         <v>940</v>
       </c>
       <c r="E1621" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="K1621" s="27"/>
     </row>
@@ -34891,7 +34224,7 @@
         <v>940</v>
       </c>
       <c r="E1624" s="2" t="s">
-        <v>1942</v>
+        <v>1935</v>
       </c>
       <c r="K1624" s="27"/>
     </row>
@@ -34924,10 +34257,10 @@
         <v>940</v>
       </c>
       <c r="E1626" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F1626" s="2" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="G1626" s="2">
         <v>26</v>
@@ -35173,17 +34506,17 @@
         <v>940</v>
       </c>
       <c r="E1642" s="4" t="s">
-        <v>1944</v>
+        <v>1937</v>
       </c>
       <c r="F1642" s="4" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="G1642" s="2">
         <v>25</v>
       </c>
       <c r="K1642" s="27"/>
       <c r="M1642" s="5" t="s">
-        <v>2089</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1643" spans="1:13" x14ac:dyDescent="0.3">
@@ -35230,11 +34563,11 @@
         <v>940</v>
       </c>
       <c r="E1645" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="K1645" s="27"/>
       <c r="M1645" s="5" t="s">
-        <v>1943</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1646" spans="1:13" x14ac:dyDescent="0.3">
@@ -35312,7 +34645,7 @@
       </c>
       <c r="K1650" s="27"/>
     </row>
-    <row r="1651" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="1651" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1651" s="3">
         <v>8299</v>
       </c>
@@ -35326,7 +34659,7 @@
         <v>940</v>
       </c>
       <c r="E1651" s="2" t="s">
-        <v>2105</v>
+        <v>2026</v>
       </c>
       <c r="G1651" s="2">
         <v>450</v>
@@ -35336,7 +34669,7 @@
       </c>
       <c r="K1651" s="27"/>
       <c r="M1651" s="5" t="s">
-        <v>2106</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1652" spans="1:13" x14ac:dyDescent="0.3">
@@ -35353,20 +34686,15 @@
         <v>940</v>
       </c>
       <c r="E1652" s="2" t="s">
-        <v>2125</v>
+        <v>2027</v>
       </c>
       <c r="F1652" s="2" t="s">
-        <v>2172</v>
+        <v>2049</v>
       </c>
       <c r="G1652" s="2">
         <v>55</v>
       </c>
-      <c r="K1652" s="27" t="s">
-        <v>2126</v>
-      </c>
-      <c r="M1652" s="5" t="s">
-        <v>2127</v>
-      </c>
+      <c r="K1652" s="27"/>
     </row>
     <row r="1653" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1653" s="3">
@@ -35412,7 +34740,7 @@
         <v>940</v>
       </c>
       <c r="E1655" s="2" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="K1655" s="27"/>
     </row>
@@ -35445,7 +34773,7 @@
         <v>940</v>
       </c>
       <c r="E1657" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="K1657" s="27"/>
     </row>
@@ -35974,7 +35302,7 @@
       </c>
       <c r="K1692" s="27"/>
     </row>
-    <row r="1693" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="1693" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1693" s="3">
         <v>8924</v>
       </c>
@@ -35988,19 +35316,17 @@
         <v>940</v>
       </c>
       <c r="E1693" s="2" t="s">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="F1693" s="2" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="G1693" s="2">
         <v>81</v>
       </c>
-      <c r="K1693" s="27" t="s">
-        <v>2123</v>
-      </c>
+      <c r="K1693" s="27"/>
       <c r="M1693" s="5" t="s">
-        <v>2122</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="1694" spans="1:13" x14ac:dyDescent="0.3">
@@ -36077,7 +35403,7 @@
         <v>940</v>
       </c>
       <c r="E1698" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="K1698" s="27"/>
     </row>
@@ -36170,7 +35496,7 @@
         <v>940</v>
       </c>
       <c r="E1704" s="2" t="s">
-        <v>2100</v>
+        <v>2022</v>
       </c>
       <c r="G1704" s="2">
         <v>48</v>
@@ -36296,10 +35622,10 @@
         <v>940</v>
       </c>
       <c r="E1712" s="4" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F1712" s="2" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="G1712" s="2">
         <v>35</v>
@@ -36338,168 +35664,168 @@
   <sheetData>
     <row r="2" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="10" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C16" s="11" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>1732</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="13" t="s">
         <v>1733</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
       <c r="E17" s="16" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="16" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
       <c r="E19" s="16" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
       <c r="E20" s="19" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22" s="11" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>1739</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>1745</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
       <c r="E23" s="16" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="16" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="E25" s="16" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
       <c r="E26" s="16" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
       <c r="E27" s="19" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C29" s="11" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E29" s="21">
         <v>44151</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.3">
@@ -36507,7 +35833,7 @@
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.3">
@@ -36515,7 +35841,7 @@
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="16" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.3">
@@ -36523,7 +35849,7 @@
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="16" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.3">
@@ -36531,7 +35857,7 @@
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="16" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -36539,7 +35865,7 @@
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="19" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
   </sheetData>
@@ -36566,7 +35892,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
-        <v>1981</v>
+        <v>1973</v>
       </c>
       <c r="E2" s="2">
         <v>15877</v>
@@ -36574,22 +35900,22 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>1982</v>
+        <v>1974</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1983</v>
+        <v>1975</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1984</v>
+        <v>1976</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1985</v>
+        <v>1977</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1986</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98A2639-2804-4508-9C94-130ED0D29793}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA71B6E-5671-47F2-850D-4B4107DC6F0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5841" uniqueCount="2116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5842" uniqueCount="2117">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6671,10 +6671,6 @@
   </si>
   <si>
     <t>往台泥 / 亞泥投資</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短期注意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6960,6 +6956,14 @@
   </si>
   <si>
     <t>代工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代工廠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7514,8 +7518,8 @@
   <dimension ref="A1:N1712"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F347" sqref="F347"/>
+      <pane ySplit="1" topLeftCell="A1009" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1017" sqref="I1017"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7568,7 +7572,7 @@
         <v>1713</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>1972</v>
@@ -7604,7 +7608,7 @@
       </c>
       <c r="K2" s="27"/>
       <c r="M2" s="5" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -7621,7 +7625,7 @@
         <v>940</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="G3" s="2">
         <v>41</v>
@@ -8038,7 +8042,7 @@
         <v>940</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="K27" s="27"/>
     </row>
@@ -8119,7 +8123,7 @@
         <v>940</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="G32" s="2">
         <v>31</v>
@@ -8308,7 +8312,7 @@
       </c>
       <c r="K44" s="27"/>
       <c r="M44" s="5" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -9329,7 +9333,7 @@
       <c r="K107" s="27"/>
       <c r="L107" s="4"/>
       <c r="M107" s="5" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -11659,14 +11663,14 @@
         <v>1796</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="G251" s="2">
         <v>100</v>
       </c>
       <c r="K251" s="27"/>
       <c r="M251" s="5" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
@@ -11848,7 +11852,7 @@
       </c>
       <c r="K261" s="27"/>
       <c r="M261" s="5" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
@@ -11987,6 +11991,12 @@
       <c r="D269" s="2" t="s">
         <v>940</v>
       </c>
+      <c r="E269" s="2" t="s">
+        <v>2115</v>
+      </c>
+      <c r="I269" s="2">
+        <v>27.3</v>
+      </c>
       <c r="K269" s="27"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.3">
@@ -12006,7 +12016,7 @@
         <v>1765</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="G270" s="2">
         <v>420</v>
@@ -12415,7 +12425,7 @@
       </c>
       <c r="K292" s="27"/>
       <c r="M292" s="5" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
@@ -12643,7 +12653,7 @@
       </c>
       <c r="K305" s="27"/>
       <c r="M305" s="5" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
@@ -12715,7 +12725,7 @@
       </c>
       <c r="K308" s="27"/>
       <c r="M308" s="5" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
@@ -12747,7 +12757,7 @@
         <v>940</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>1898</v>
@@ -12780,7 +12790,7 @@
         <v>7</v>
       </c>
       <c r="M311" s="5" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
@@ -13140,7 +13150,7 @@
       </c>
       <c r="K332" s="27"/>
       <c r="M332" s="5" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.3">
@@ -13383,7 +13393,7 @@
       </c>
       <c r="K347" s="27"/>
       <c r="M347" s="5" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
@@ -13665,7 +13675,7 @@
       </c>
       <c r="K363" s="27"/>
       <c r="M363" s="5" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.3">
@@ -15189,7 +15199,7 @@
       </c>
       <c r="K459" s="27"/>
       <c r="M459" s="5" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.3">
@@ -15501,7 +15511,7 @@
       </c>
       <c r="K478" s="27"/>
       <c r="M478" s="5" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.3">
@@ -15543,7 +15553,7 @@
       </c>
       <c r="K480" s="27"/>
       <c r="M480" s="5" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.3">
@@ -15570,7 +15580,7 @@
       </c>
       <c r="K481" s="27"/>
       <c r="M481" s="5" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.3">
@@ -16011,7 +16021,7 @@
       </c>
       <c r="K508" s="27"/>
       <c r="M508" s="5" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.3">
@@ -16444,7 +16454,7 @@
       </c>
       <c r="K533" s="27"/>
       <c r="M533" s="5" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.3">
@@ -17932,7 +17942,7 @@
       </c>
       <c r="K623" s="27"/>
       <c r="M623" s="5" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="624" spans="1:13" x14ac:dyDescent="0.3">
@@ -18385,7 +18395,7 @@
       </c>
       <c r="K649" s="27"/>
       <c r="M649" s="5" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="650" spans="1:13" x14ac:dyDescent="0.3">
@@ -18673,7 +18683,7 @@
       </c>
       <c r="K667" s="27"/>
       <c r="M667" s="5" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="668" spans="1:13" x14ac:dyDescent="0.3">
@@ -18991,7 +19001,7 @@
       </c>
       <c r="K686" s="27"/>
       <c r="M686" s="5" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="687" spans="1:13" x14ac:dyDescent="0.3">
@@ -19303,7 +19313,7 @@
       </c>
       <c r="K704" s="27"/>
       <c r="M704" s="5" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="705" spans="1:13" x14ac:dyDescent="0.3">
@@ -19561,7 +19571,7 @@
       </c>
       <c r="K719" s="27"/>
       <c r="M719" s="5" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="720" spans="1:13" x14ac:dyDescent="0.3">
@@ -19801,7 +19811,7 @@
       </c>
       <c r="K734" s="27"/>
       <c r="M734" s="5" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="735" spans="1:13" x14ac:dyDescent="0.3">
@@ -19933,7 +19943,7 @@
       </c>
       <c r="K742" s="27"/>
       <c r="M742" s="5" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="743" spans="1:13" x14ac:dyDescent="0.3">
@@ -20131,7 +20141,7 @@
       </c>
       <c r="K754" s="27"/>
       <c r="M754" s="5" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="755" spans="1:13" x14ac:dyDescent="0.3">
@@ -20398,7 +20408,7 @@
       </c>
       <c r="K770" s="27"/>
       <c r="M770" s="5" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="771" spans="1:13" ht="60" x14ac:dyDescent="0.3">
@@ -21204,11 +21214,11 @@
         <v>940</v>
       </c>
       <c r="E818" s="2" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="K818" s="27"/>
       <c r="M818" s="5" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="819" spans="1:13" x14ac:dyDescent="0.3">
@@ -21216,7 +21226,7 @@
         <v>6558</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>3</v>
@@ -21649,7 +21659,7 @@
       </c>
       <c r="K844" s="27"/>
       <c r="M844" s="26" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="845" spans="1:13" x14ac:dyDescent="0.3">
@@ -22237,7 +22247,7 @@
       </c>
       <c r="K880" s="27"/>
       <c r="M880" s="5" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="881" spans="1:13" x14ac:dyDescent="0.3">
@@ -23128,7 +23138,7 @@
       </c>
       <c r="K936" s="27"/>
       <c r="M936" s="5" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="937" spans="1:13" x14ac:dyDescent="0.3">
@@ -23224,7 +23234,7 @@
       </c>
       <c r="K941" s="27"/>
       <c r="M941" s="5" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="942" spans="1:13" x14ac:dyDescent="0.3">
@@ -23308,7 +23318,7 @@
       </c>
       <c r="K946" s="27"/>
       <c r="M946" s="5" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="947" spans="1:13" x14ac:dyDescent="0.3">
@@ -23860,7 +23870,7 @@
       </c>
       <c r="K979" s="27"/>
       <c r="M979" s="5" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="980" spans="1:13" x14ac:dyDescent="0.3">
@@ -24437,12 +24447,12 @@
       <c r="E1016" s="2" t="s">
         <v>1795</v>
       </c>
-      <c r="F1016" s="2" t="s">
-        <v>2056</v>
+      <c r="I1016" s="2">
+        <v>170</v>
       </c>
       <c r="K1016" s="27"/>
       <c r="M1016" s="5" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1017" spans="1:13" x14ac:dyDescent="0.3">
@@ -25353,14 +25363,14 @@
         <v>1777</v>
       </c>
       <c r="F1072" s="4" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="G1072" s="2">
         <v>720</v>
       </c>
       <c r="K1072" s="27"/>
       <c r="M1072" s="7" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="N1072" s="25" t="s">
         <v>1986</v>
@@ -25518,7 +25528,7 @@
         <v>1710</v>
       </c>
       <c r="F1082" s="4" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="G1082" s="2">
         <v>144</v>
@@ -26164,7 +26174,7 @@
       </c>
       <c r="K1122" s="27"/>
       <c r="M1122" s="5" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="1123" spans="1:13" x14ac:dyDescent="0.3">
@@ -28531,7 +28541,7 @@
       </c>
       <c r="K1272" s="27"/>
       <c r="M1272" s="5" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="1273" spans="1:13" x14ac:dyDescent="0.3">
@@ -28897,7 +28907,7 @@
       </c>
       <c r="K1294" s="27"/>
       <c r="M1294" s="5" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="1295" spans="1:13" x14ac:dyDescent="0.3">
@@ -29248,7 +29258,7 @@
       </c>
       <c r="K1316" s="27"/>
       <c r="M1316" s="5" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1317" spans="1:13" x14ac:dyDescent="0.3">
@@ -29539,7 +29549,7 @@
       </c>
       <c r="K1334" s="27"/>
       <c r="M1334" s="5" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1335" spans="1:13" x14ac:dyDescent="0.3">
@@ -32017,7 +32027,7 @@
       </c>
       <c r="K1487" s="27"/>
       <c r="M1487" s="5" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1488" spans="1:13" x14ac:dyDescent="0.3">
@@ -32314,7 +32324,7 @@
       </c>
       <c r="K1506" s="27"/>
       <c r="M1506" s="5" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="1507" spans="1:13" x14ac:dyDescent="0.3">
@@ -32575,7 +32585,7 @@
       </c>
       <c r="K1522" s="27"/>
       <c r="M1522" s="5" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1523" spans="1:13" x14ac:dyDescent="0.3">
@@ -33904,7 +33914,7 @@
       </c>
       <c r="K1604" s="27"/>
       <c r="M1604" s="5" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="1605" spans="1:13" x14ac:dyDescent="0.3">
@@ -34661,15 +34671,15 @@
       <c r="E1651" s="2" t="s">
         <v>2026</v>
       </c>
+      <c r="F1651" s="2" t="s">
+        <v>2116</v>
+      </c>
       <c r="G1651" s="2">
         <v>450</v>
       </c>
-      <c r="I1651" s="2">
-        <v>470</v>
-      </c>
       <c r="K1651" s="27"/>
       <c r="M1651" s="5" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="1652" spans="1:13" x14ac:dyDescent="0.3">
@@ -35326,7 +35336,7 @@
       </c>
       <c r="K1693" s="27"/>
       <c r="M1693" s="5" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1694" spans="1:13" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2910001-B1BD-4F49-A249-699850CF9404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A7B6FE-E855-4289-86D3-C85663509410}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5839" uniqueCount="2116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5838" uniqueCount="2115">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6671,17 +6671,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>華義列警示股 10月每股虧損0.13元
-12月自結稅後純益1,100萬元，每股純益0.81元，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>核心
-短期注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衛星
 短期注意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6961,6 +6951,10 @@
   </si>
   <si>
     <t>核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12月自結稅後純益1,100萬元，每股純益0.81元，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7515,8 +7509,8 @@
   <dimension ref="A1:N1711"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A502" sqref="A502:XFD502"/>
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I281" sqref="I281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7569,7 +7563,7 @@
         <v>1712</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>1971</v>
@@ -7605,7 +7599,7 @@
       </c>
       <c r="K2" s="27"/>
       <c r="M2" s="5" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -7622,7 +7616,7 @@
         <v>939</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="G3" s="2">
         <v>41</v>
@@ -8039,7 +8033,7 @@
         <v>939</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="K27" s="27"/>
     </row>
@@ -8120,7 +8114,7 @@
         <v>939</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="G32" s="2">
         <v>31</v>
@@ -8309,7 +8303,7 @@
       </c>
       <c r="K44" s="27"/>
       <c r="M44" s="5" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -9330,7 +9324,7 @@
       <c r="K107" s="27"/>
       <c r="L107" s="4"/>
       <c r="M107" s="5" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -11660,14 +11654,14 @@
         <v>1795</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="G251" s="2">
         <v>100</v>
       </c>
       <c r="K251" s="27"/>
       <c r="M251" s="5" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
@@ -11849,7 +11843,7 @@
       </c>
       <c r="K261" s="27"/>
       <c r="M261" s="5" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
@@ -11989,10 +11983,7 @@
         <v>939</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>2114</v>
-      </c>
-      <c r="I269" s="2">
-        <v>27.3</v>
+        <v>2112</v>
       </c>
       <c r="K269" s="27"/>
     </row>
@@ -12013,7 +12004,7 @@
         <v>1764</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="G270" s="2">
         <v>420</v>
@@ -12201,6 +12192,9 @@
       <c r="F280" s="2" t="s">
         <v>1897</v>
       </c>
+      <c r="I280" s="2">
+        <v>35.200000000000003</v>
+      </c>
       <c r="K280" s="27"/>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
@@ -12422,7 +12416,7 @@
       </c>
       <c r="K292" s="27"/>
       <c r="M292" s="5" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
@@ -12650,7 +12644,7 @@
       </c>
       <c r="K305" s="27"/>
       <c r="M305" s="5" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
@@ -12722,7 +12716,7 @@
       </c>
       <c r="K308" s="27"/>
       <c r="M308" s="5" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
@@ -12754,7 +12748,7 @@
         <v>939</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>1897</v>
@@ -12787,7 +12781,7 @@
         <v>7</v>
       </c>
       <c r="M311" s="5" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
@@ -13147,7 +13141,7 @@
       </c>
       <c r="K332" s="27"/>
       <c r="M332" s="5" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.3">
@@ -13390,7 +13384,7 @@
       </c>
       <c r="K347" s="27"/>
       <c r="M347" s="5" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
@@ -13672,7 +13666,7 @@
       </c>
       <c r="K363" s="27"/>
       <c r="M363" s="5" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.3">
@@ -15196,7 +15190,7 @@
       </c>
       <c r="K459" s="27"/>
       <c r="M459" s="5" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.3">
@@ -15508,7 +15502,7 @@
       </c>
       <c r="K478" s="27"/>
       <c r="M478" s="5" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.3">
@@ -15550,7 +15544,7 @@
       </c>
       <c r="K480" s="27"/>
       <c r="M480" s="5" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.3">
@@ -15577,7 +15571,7 @@
       </c>
       <c r="K481" s="27"/>
       <c r="M481" s="5" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.3">
@@ -16003,7 +15997,7 @@
       </c>
       <c r="K507" s="27"/>
       <c r="M507" s="5" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.3">
@@ -16436,7 +16430,7 @@
       </c>
       <c r="K532" s="27"/>
       <c r="M532" s="5" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.3">
@@ -17924,7 +17918,7 @@
       </c>
       <c r="K622" s="27"/>
       <c r="M622" s="5" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="623" spans="1:13" x14ac:dyDescent="0.3">
@@ -18377,7 +18371,7 @@
       </c>
       <c r="K648" s="27"/>
       <c r="M648" s="5" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="649" spans="1:13" x14ac:dyDescent="0.3">
@@ -18665,7 +18659,7 @@
       </c>
       <c r="K666" s="27"/>
       <c r="M666" s="5" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="667" spans="1:13" x14ac:dyDescent="0.3">
@@ -18983,7 +18977,7 @@
       </c>
       <c r="K685" s="27"/>
       <c r="M685" s="5" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="686" spans="1:13" x14ac:dyDescent="0.3">
@@ -19295,7 +19289,7 @@
       </c>
       <c r="K703" s="27"/>
       <c r="M703" s="5" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="704" spans="1:13" x14ac:dyDescent="0.3">
@@ -19553,7 +19547,7 @@
       </c>
       <c r="K718" s="27"/>
       <c r="M718" s="5" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="719" spans="1:13" x14ac:dyDescent="0.3">
@@ -19793,7 +19787,7 @@
       </c>
       <c r="K733" s="27"/>
       <c r="M733" s="5" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="734" spans="1:13" x14ac:dyDescent="0.3">
@@ -19925,7 +19919,7 @@
       </c>
       <c r="K741" s="27"/>
       <c r="M741" s="5" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="742" spans="1:13" x14ac:dyDescent="0.3">
@@ -20123,7 +20117,7 @@
       </c>
       <c r="K753" s="27"/>
       <c r="M753" s="5" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="754" spans="1:13" x14ac:dyDescent="0.3">
@@ -20390,7 +20384,7 @@
       </c>
       <c r="K769" s="27"/>
       <c r="M769" s="5" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="770" spans="1:13" ht="60" x14ac:dyDescent="0.3">
@@ -21196,11 +21190,11 @@
         <v>939</v>
       </c>
       <c r="E817" s="2" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="K817" s="27"/>
       <c r="M817" s="5" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="818" spans="1:13" x14ac:dyDescent="0.3">
@@ -21208,7 +21202,7 @@
         <v>6558</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="C818" s="2" t="s">
         <v>3</v>
@@ -21641,7 +21635,7 @@
       </c>
       <c r="K843" s="27"/>
       <c r="M843" s="26" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="844" spans="1:13" x14ac:dyDescent="0.3">
@@ -22229,7 +22223,7 @@
       </c>
       <c r="K879" s="27"/>
       <c r="M879" s="5" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="880" spans="1:13" x14ac:dyDescent="0.3">
@@ -23120,7 +23114,7 @@
       </c>
       <c r="K935" s="27"/>
       <c r="M935" s="5" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="936" spans="1:13" x14ac:dyDescent="0.3">
@@ -23216,7 +23210,7 @@
       </c>
       <c r="K940" s="27"/>
       <c r="M940" s="5" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="941" spans="1:13" x14ac:dyDescent="0.3">
@@ -23300,7 +23294,7 @@
       </c>
       <c r="K945" s="27"/>
       <c r="M945" s="5" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="946" spans="1:13" x14ac:dyDescent="0.3">
@@ -23852,7 +23846,7 @@
       </c>
       <c r="K978" s="27"/>
       <c r="M978" s="5" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="979" spans="1:13" x14ac:dyDescent="0.3">
@@ -24413,7 +24407,7 @@
       </c>
       <c r="K1014" s="27"/>
     </row>
-    <row r="1015" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1015" s="3">
         <v>3086</v>
       </c>
@@ -24434,7 +24428,7 @@
       </c>
       <c r="K1015" s="27"/>
       <c r="M1015" s="5" t="s">
-        <v>2055</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="1016" spans="1:13" x14ac:dyDescent="0.3">
@@ -25345,14 +25339,17 @@
         <v>1776</v>
       </c>
       <c r="F1071" s="4" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="G1071" s="2">
         <v>720</v>
       </c>
+      <c r="I1071" s="2">
+        <v>790</v>
+      </c>
       <c r="K1071" s="27"/>
       <c r="M1071" s="7" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="N1071" s="25" t="s">
         <v>1985</v>
@@ -25493,7 +25490,7 @@
       </c>
       <c r="K1080" s="27"/>
     </row>
-    <row r="1081" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="1081" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1081" s="3">
         <v>3324</v>
       </c>
@@ -25509,14 +25506,9 @@
       <c r="E1081" s="2" t="s">
         <v>1709</v>
       </c>
-      <c r="F1081" s="4" t="s">
-        <v>2057</v>
-      </c>
+      <c r="F1081" s="4"/>
       <c r="G1081" s="2">
         <v>144</v>
-      </c>
-      <c r="I1081" s="2">
-        <v>225</v>
       </c>
       <c r="K1081" s="27"/>
     </row>
@@ -26156,7 +26148,7 @@
       </c>
       <c r="K1121" s="27"/>
       <c r="M1121" s="5" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="1122" spans="1:13" x14ac:dyDescent="0.3">
@@ -28523,7 +28515,7 @@
       </c>
       <c r="K1271" s="27"/>
       <c r="M1271" s="5" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="1272" spans="1:13" x14ac:dyDescent="0.3">
@@ -28889,7 +28881,7 @@
       </c>
       <c r="K1293" s="27"/>
       <c r="M1293" s="5" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1294" spans="1:13" x14ac:dyDescent="0.3">
@@ -29240,7 +29232,7 @@
       </c>
       <c r="K1315" s="27"/>
       <c r="M1315" s="5" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="1316" spans="1:13" x14ac:dyDescent="0.3">
@@ -29531,7 +29523,7 @@
       </c>
       <c r="K1333" s="27"/>
       <c r="M1333" s="5" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="1334" spans="1:13" x14ac:dyDescent="0.3">
@@ -32009,7 +32001,7 @@
       </c>
       <c r="K1486" s="27"/>
       <c r="M1486" s="5" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="1487" spans="1:13" x14ac:dyDescent="0.3">
@@ -32306,7 +32298,7 @@
       </c>
       <c r="K1505" s="27"/>
       <c r="M1505" s="5" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="1506" spans="1:13" x14ac:dyDescent="0.3">
@@ -32567,7 +32559,7 @@
       </c>
       <c r="K1521" s="27"/>
       <c r="M1521" s="5" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1522" spans="1:13" x14ac:dyDescent="0.3">
@@ -33896,7 +33888,7 @@
       </c>
       <c r="K1603" s="27"/>
       <c r="M1603" s="5" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1604" spans="1:13" x14ac:dyDescent="0.3">
@@ -34654,14 +34646,14 @@
         <v>2025</v>
       </c>
       <c r="F1650" s="2" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="G1650" s="2">
         <v>450</v>
       </c>
       <c r="K1650" s="27"/>
       <c r="M1650" s="5" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="1651" spans="1:13" x14ac:dyDescent="0.3">
@@ -35318,7 +35310,7 @@
       </c>
       <c r="K1692" s="27"/>
       <c r="M1692" s="5" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1693" spans="1:13" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A7B6FE-E855-4289-86D3-C85663509410}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C7A5F2-0D8D-43BD-99F5-65BECBCA0450}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7509,8 +7509,8 @@
   <dimension ref="A1:N1711"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I281" sqref="I281"/>
+      <pane ySplit="1" topLeftCell="A1325" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1333" sqref="E1333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -12192,9 +12192,6 @@
       <c r="F280" s="2" t="s">
         <v>1897</v>
       </c>
-      <c r="I280" s="2">
-        <v>35.200000000000003</v>
-      </c>
       <c r="K280" s="27"/>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
@@ -24424,7 +24421,7 @@
         <v>1794</v>
       </c>
       <c r="I1015" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K1015" s="27"/>
       <c r="M1015" s="5" t="s">
@@ -25345,7 +25342,7 @@
         <v>720</v>
       </c>
       <c r="I1071" s="2">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="K1071" s="27"/>
       <c r="M1071" s="7" t="s">
@@ -32745,6 +32742,9 @@
       </c>
       <c r="E1533" s="2" t="s">
         <v>1803</v>
+      </c>
+      <c r="I1533" s="2">
+        <v>856</v>
       </c>
       <c r="K1533" s="27"/>
       <c r="M1533" s="5" t="s">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C7A5F2-0D8D-43BD-99F5-65BECBCA0450}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80480736-7FBE-4164-8BFE-05CEAED01B76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6875,13 +6875,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>真錢博奕
-月營收要守穩 8億
-單月 EPS 要有 5.5塊
-鈊象2月稅前EPS為6.06元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>伺服器，其次是筆電產品和車用產品
 凡甲主業為伺服器用線</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6955,6 +6948,13 @@
   </si>
   <si>
     <t>2020/12月自結稅後純益1,100萬元，每股純益0.81元，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真錢博奕
+月營收要守穩 10億
+單月 EPS 要有 8 塊
+鈊象2月稅前EPS為6.06元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7509,8 +7509,8 @@
   <dimension ref="A1:N1711"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1325" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1333" sqref="E1333"/>
+      <pane ySplit="1" topLeftCell="A1064" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1072" sqref="M1072"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -11654,14 +11654,14 @@
         <v>1795</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="G251" s="2">
         <v>100</v>
       </c>
       <c r="K251" s="27"/>
       <c r="M251" s="5" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
@@ -11983,7 +11983,7 @@
         <v>939</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="K269" s="27"/>
     </row>
@@ -12004,7 +12004,7 @@
         <v>1764</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="G270" s="2">
         <v>420</v>
@@ -12745,7 +12745,7 @@
         <v>939</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>1897</v>
@@ -24425,7 +24425,7 @@
       </c>
       <c r="K1015" s="27"/>
       <c r="M1015" s="5" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1016" spans="1:13" x14ac:dyDescent="0.3">
@@ -25346,7 +25346,7 @@
       </c>
       <c r="K1071" s="27"/>
       <c r="M1071" s="7" t="s">
-        <v>2097</v>
+        <v>2114</v>
       </c>
       <c r="N1071" s="25" t="s">
         <v>1985</v>
@@ -26145,7 +26145,7 @@
       </c>
       <c r="K1121" s="27"/>
       <c r="M1121" s="5" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1122" spans="1:13" x14ac:dyDescent="0.3">
@@ -28512,7 +28512,7 @@
       </c>
       <c r="K1271" s="27"/>
       <c r="M1271" s="5" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="1272" spans="1:13" x14ac:dyDescent="0.3">
@@ -28878,7 +28878,7 @@
       </c>
       <c r="K1293" s="27"/>
       <c r="M1293" s="5" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="1294" spans="1:13" x14ac:dyDescent="0.3">
@@ -29229,7 +29229,7 @@
       </c>
       <c r="K1315" s="27"/>
       <c r="M1315" s="5" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1316" spans="1:13" x14ac:dyDescent="0.3">
@@ -31998,7 +31998,7 @@
       </c>
       <c r="K1486" s="27"/>
       <c r="M1486" s="5" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="1487" spans="1:13" x14ac:dyDescent="0.3">
@@ -32295,7 +32295,7 @@
       </c>
       <c r="K1505" s="27"/>
       <c r="M1505" s="5" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="1506" spans="1:13" x14ac:dyDescent="0.3">
@@ -32556,7 +32556,7 @@
       </c>
       <c r="K1521" s="27"/>
       <c r="M1521" s="5" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="1522" spans="1:13" x14ac:dyDescent="0.3">
@@ -33888,7 +33888,7 @@
       </c>
       <c r="K1603" s="27"/>
       <c r="M1603" s="5" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1604" spans="1:13" x14ac:dyDescent="0.3">
@@ -34646,14 +34646,14 @@
         <v>2025</v>
       </c>
       <c r="F1650" s="2" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="G1650" s="2">
         <v>450</v>
       </c>
       <c r="K1650" s="27"/>
       <c r="M1650" s="5" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1651" spans="1:13" x14ac:dyDescent="0.3">
@@ -35310,7 +35310,7 @@
       </c>
       <c r="K1692" s="27"/>
       <c r="M1692" s="5" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="1693" spans="1:13" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB545EE-85DB-4EA6-8007-5C561C795D0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3826956-9EA7-43D8-BCB6-4181BB59F7FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5846" uniqueCount="2109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2111">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6934,6 +6934,13 @@
   <si>
     <t>磊晶廠
 砷化鎵磊晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽車遮陽簾</t>
+  </si>
+  <si>
+    <t>核心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7488,8 +7495,8 @@
   <dimension ref="A1:N1711"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F386" sqref="F386"/>
+      <pane ySplit="1" topLeftCell="A1701" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1709" sqref="F1709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -35555,6 +35562,15 @@
       </c>
       <c r="D1708" s="2" t="s">
         <v>938</v>
+      </c>
+      <c r="E1708" s="2" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F1708" s="2" t="s">
+        <v>2110</v>
+      </c>
+      <c r="G1708" s="2">
+        <v>90</v>
       </c>
       <c r="K1708" s="27"/>
     </row>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77602781-8B02-47B6-9102-9AFC2E0D0B64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4826DC13-E105-4EAC-B216-FADB56400FF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5807" uniqueCount="2097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5819" uniqueCount="2105">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6902,6 +6902,39 @@
   <si>
     <t>衛星
 短期注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年年都配股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星
+短期注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生醫股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大樹藥局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高殖利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國碳科主生產防火材料、防火塗料、防火工程、阻燃劑等，外銷比重約68％。國碳科持續推展北美、大陸及中東市場；占地約二千坪蘆竹廠辦合一新廠加入量產行列，搭配原有一廠生產支應未來三年接單成長。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7453,8 +7486,8 @@
   <dimension ref="A1:M1697"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A841" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A848" sqref="A848:XFD848"/>
+      <pane ySplit="1" topLeftCell="A1481" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1489" sqref="G1489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -12826,6 +12859,9 @@
       <c r="D339" s="2" t="s">
         <v>924</v>
       </c>
+      <c r="F339" s="2" t="s">
+        <v>2103</v>
+      </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
@@ -26963,7 +26999,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1256" spans="1:12" ht="60" x14ac:dyDescent="0.3">
       <c r="A1256" s="3">
         <v>4754</v>
       </c>
@@ -26975,6 +27011,15 @@
       </c>
       <c r="D1256" s="2" t="s">
         <v>924</v>
+      </c>
+      <c r="F1256" s="2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="G1256" s="2">
+        <v>42</v>
+      </c>
+      <c r="L1256" s="5" t="s">
+        <v>2102</v>
       </c>
     </row>
     <row r="1257" spans="1:12" ht="45" x14ac:dyDescent="0.3">
@@ -27826,6 +27871,9 @@
       <c r="D1312" s="2" t="s">
         <v>924</v>
       </c>
+      <c r="F1312" s="2" t="s">
+        <v>2101</v>
+      </c>
     </row>
     <row r="1313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1313" s="3">
@@ -30090,7 +30138,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1462" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1462" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A1462" s="3">
         <v>6221</v>
       </c>
@@ -30105,6 +30153,15 @@
       </c>
       <c r="E1462" s="2" t="s">
         <v>1884</v>
+      </c>
+      <c r="F1462" s="4" t="s">
+        <v>2098</v>
+      </c>
+      <c r="G1462" s="2">
+        <v>65</v>
+      </c>
+      <c r="L1462" s="5" t="s">
+        <v>2097</v>
       </c>
     </row>
     <row r="1463" spans="1:12" x14ac:dyDescent="0.3">
@@ -30274,7 +30331,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="1473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1473" s="3">
         <v>6240</v>
       </c>
@@ -30288,7 +30345,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1474" s="3">
         <v>6241</v>
       </c>
@@ -30302,7 +30359,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1475" s="3">
         <v>6242</v>
       </c>
@@ -30316,7 +30373,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1476" s="3">
         <v>6245</v>
       </c>
@@ -30330,7 +30387,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1477" s="3">
         <v>6246</v>
       </c>
@@ -30344,7 +30401,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1478" s="3">
         <v>6247</v>
       </c>
@@ -30358,7 +30415,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1479" s="3">
         <v>6248</v>
       </c>
@@ -30372,7 +30429,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1480" s="3">
         <v>6259</v>
       </c>
@@ -30386,7 +30443,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1481" s="3">
         <v>6261</v>
       </c>
@@ -30400,7 +30457,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1482" s="3">
         <v>6263</v>
       </c>
@@ -30414,7 +30471,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1483" s="3">
         <v>6264</v>
       </c>
@@ -30428,7 +30485,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1484" s="3">
         <v>6265</v>
       </c>
@@ -30442,7 +30499,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1485" s="3">
         <v>6266</v>
       </c>
@@ -30456,7 +30513,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1486" s="3">
         <v>6270</v>
       </c>
@@ -30470,7 +30527,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1487" s="3">
         <v>6274</v>
       </c>
@@ -30484,7 +30541,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1488" s="3">
         <v>6275</v>
       </c>
@@ -30496,6 +30553,15 @@
       </c>
       <c r="D1488" s="2" t="s">
         <v>924</v>
+      </c>
+      <c r="E1488" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F1488" s="2" t="s">
+        <v>2104</v>
+      </c>
+      <c r="G1488" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="1489" spans="1:12" x14ac:dyDescent="0.3">
@@ -30883,6 +30949,18 @@
       <c r="D1513" s="2" t="s">
         <v>924</v>
       </c>
+      <c r="E1513" s="2" t="s">
+        <v>2099</v>
+      </c>
+      <c r="F1513" s="2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="G1513" s="2">
+        <v>100</v>
+      </c>
+      <c r="L1513" s="5" t="s">
+        <v>2100</v>
+      </c>
     </row>
     <row r="1514" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1514" s="3">
@@ -31353,6 +31431,9 @@
       </c>
       <c r="D1543" s="2" t="s">
         <v>924</v>
+      </c>
+      <c r="F1543" s="2" t="s">
+        <v>2101</v>
       </c>
     </row>
     <row r="1544" spans="1:12" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4826DC13-E105-4EAC-B216-FADB56400FF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76057DB1-4DDA-4B40-AA5B-568608AB3ACF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5819" uniqueCount="2105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5820" uniqueCount="2106">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6931,6 +6931,10 @@
   </si>
   <si>
     <t>短期注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7486,8 +7490,8 @@
   <dimension ref="A1:M1697"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1481" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1489" sqref="G1489"/>
+      <pane ySplit="1" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I582" sqref="I582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -16545,7 +16549,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A577" s="3">
         <v>3356</v>
       </c>
@@ -16559,7 +16563,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578" s="3">
         <v>3376</v>
       </c>
@@ -16576,7 +16580,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A579" s="3">
         <v>3380</v>
       </c>
@@ -16590,7 +16594,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A580" s="3">
         <v>3383</v>
       </c>
@@ -16604,7 +16608,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A581" s="3">
         <v>3406</v>
       </c>
@@ -16620,8 +16624,14 @@
       <c r="E581" s="2" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F581" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I581" s="2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A582" s="3">
         <v>3413</v>
       </c>
@@ -16635,7 +16645,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A583" s="3">
         <v>3416</v>
       </c>
@@ -16658,7 +16668,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A584" s="3">
         <v>3419</v>
       </c>
@@ -16672,7 +16682,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A585" s="3">
         <v>3432</v>
       </c>
@@ -16686,7 +16696,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A586" s="3">
         <v>3437</v>
       </c>
@@ -16700,7 +16710,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A587" s="3">
         <v>3443</v>
       </c>
@@ -16717,7 +16727,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A588" s="3">
         <v>3450</v>
       </c>
@@ -16731,7 +16741,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A589" s="3">
         <v>3454</v>
       </c>
@@ -16745,7 +16755,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A590" s="3">
         <v>3481</v>
       </c>
@@ -16762,7 +16772,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A591" s="3">
         <v>3494</v>
       </c>
@@ -16776,7 +16786,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A592" s="3">
         <v>3501</v>
       </c>
@@ -24042,9 +24052,6 @@
       </c>
       <c r="G1057" s="2">
         <v>720</v>
-      </c>
-      <c r="I1057" s="2">
-        <v>787</v>
       </c>
       <c r="L1057" s="7" t="s">
         <v>2075</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76057DB1-4DDA-4B40-AA5B-568608AB3ACF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61691CFA-566F-40FE-902A-8821AFE7A267}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5820" uniqueCount="2106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5823" uniqueCount="2108">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6070,10 +6070,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>半導體</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二及體
 IGBT 模組</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6190,11 +6186,6 @@
   </si>
   <si>
     <t>鞋材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鋁質電容廠
-Q4 可能匯損嚴重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6292,10 +6283,6 @@
   </si>
   <si>
     <t>之前的展旺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半導體</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6857,15 +6844,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5G及WiFi 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磊晶廠
-砷化鎵磊晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汽車遮陽簾</t>
   </si>
   <si>
@@ -6939,6 +6917,37 @@
   </si>
   <si>
     <t>衛星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5G及WiFi 6
+2021Q1 是賺1.22，全年預5塊左右，配息 4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA三雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砷化鎵
+PA三雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB
+ABF三雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 EPS 估 16塊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7490,8 +7499,8 @@
   <dimension ref="A1:M1697"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I582" sqref="I582"/>
+      <pane ySplit="1" topLeftCell="A804" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L811" sqref="L811"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7543,13 +7552,13 @@
         <v>1696</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>1683</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -7575,7 +7584,7 @@
         <v>40.5</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -7592,7 +7601,7 @@
         <v>924</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="G3" s="2">
         <v>41</v>
@@ -7612,10 +7621,10 @@
         <v>924</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -7632,10 +7641,10 @@
         <v>924</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -7652,10 +7661,10 @@
         <v>924</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -7672,10 +7681,10 @@
         <v>924</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -7692,10 +7701,10 @@
         <v>924</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -7985,7 +7994,7 @@
         <v>924</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -8016,7 +8025,7 @@
         <v>924</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -8238,7 +8247,7 @@
         <v>924</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -8286,7 +8295,7 @@
         <v>924</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -8430,10 +8439,10 @@
         <v>1788</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -9072,7 +9081,7 @@
         <v>924</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>1742</v>
@@ -9081,7 +9090,7 @@
         <v>150</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -9149,7 +9158,7 @@
         <v>1800</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="G105" s="2">
         <v>51.5</v>
@@ -9196,7 +9205,7 @@
       </c>
       <c r="K107" s="4"/>
       <c r="L107" s="5" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -9270,7 +9279,7 @@
         <v>1855</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -9618,7 +9627,7 @@
         <v>924</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -9768,10 +9777,10 @@
         <v>924</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="G144" s="2">
         <v>15</v>
@@ -10110,6 +10119,12 @@
       <c r="E167" s="2" t="s">
         <v>1822</v>
       </c>
+      <c r="F167" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="G167" s="2">
+        <v>36</v>
+      </c>
       <c r="L167" s="5" t="s">
         <v>1823</v>
       </c>
@@ -10582,7 +10597,7 @@
         <v>1905</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>3</v>
@@ -10591,13 +10606,13 @@
         <v>924</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>1855</v>
       </c>
       <c r="L200" s="5" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -10838,13 +10853,13 @@
         <v>924</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>1855</v>
       </c>
       <c r="L217" s="5" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
@@ -10945,10 +10960,10 @@
         <v>924</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="L224" s="5" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -11080,7 +11095,7 @@
         <v>924</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -11097,7 +11112,7 @@
         <v>924</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -11142,7 +11157,7 @@
         <v>924</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -11159,7 +11174,7 @@
         <v>924</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -11176,7 +11191,7 @@
         <v>924</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="G239" s="2">
         <v>21</v>
@@ -11213,7 +11228,7 @@
         <v>924</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
@@ -11371,13 +11386,13 @@
         <v>1774</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="G251" s="2">
         <v>100</v>
       </c>
       <c r="L251" s="5" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
@@ -11464,7 +11479,7 @@
         <v>924</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="G257" s="2">
         <v>55</v>
@@ -11501,7 +11516,7 @@
         <v>1776</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="G259" s="2">
         <v>51</v>
@@ -11547,7 +11562,7 @@
         <v>130</v>
       </c>
       <c r="L261" s="5" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
@@ -11626,7 +11641,7 @@
         <v>1779</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="G266" s="2">
         <v>101</v>
@@ -11680,7 +11695,7 @@
         <v>924</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
@@ -11700,7 +11715,7 @@
         <v>1743</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="G270" s="2">
         <v>540</v>
@@ -11726,7 +11741,7 @@
         <v>1874</v>
       </c>
       <c r="L271" s="5" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
@@ -11760,7 +11775,7 @@
         <v>1775</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="G273" s="2">
         <v>585</v>
@@ -11811,7 +11826,7 @@
         <v>924</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>1874</v>
@@ -12060,7 +12075,7 @@
         <v>1737</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="G291" s="2">
         <v>330</v>
@@ -12080,13 +12095,13 @@
         <v>924</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="G292" s="2">
         <v>13</v>
       </c>
       <c r="L292" s="5" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
@@ -12247,7 +12262,7 @@
         <v>25</v>
       </c>
       <c r="L302" s="5" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
@@ -12298,7 +12313,7 @@
         <v>1855</v>
       </c>
       <c r="L305" s="5" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
@@ -12318,7 +12333,7 @@
         <v>1737</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="L306" s="5" t="s">
         <v>1847</v>
@@ -12341,7 +12356,7 @@
         <v>1737</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="L307" s="5" t="s">
         <v>1847</v>
@@ -12367,7 +12382,7 @@
         <v>280</v>
       </c>
       <c r="L308" s="5" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
@@ -12398,7 +12413,7 @@
         <v>924</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>1874</v>
@@ -12421,13 +12436,13 @@
         <v>924</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="G311" s="2">
         <v>140</v>
       </c>
       <c r="L311" s="5" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
@@ -12646,7 +12661,7 @@
         <v>924</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.3">
@@ -12760,7 +12775,7 @@
         <v>48</v>
       </c>
       <c r="L332" s="5" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.3">
@@ -12864,7 +12879,7 @@
         <v>924</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.3">
@@ -12991,7 +13006,7 @@
         <v>75</v>
       </c>
       <c r="L347" s="5" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.3">
@@ -13109,7 +13124,7 @@
         <v>924</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="F355" s="4" t="s">
         <v>1869</v>
@@ -13118,7 +13133,7 @@
         <v>45</v>
       </c>
       <c r="L355" s="5" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -13180,7 +13195,7 @@
         <v>1795</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="K359" s="24">
         <v>0.48331827758816837</v>
@@ -13200,10 +13215,10 @@
         <v>924</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>2087</v>
+        <v>2103</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="G360" s="2">
         <v>110</v>
@@ -13212,10 +13227,10 @@
         <v>121</v>
       </c>
       <c r="L360" s="5" t="s">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="361" spans="1:12" ht="30" x14ac:dyDescent="0.3">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
         <v>2456</v>
       </c>
@@ -13232,13 +13247,13 @@
         <v>1743</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="G361" s="2">
         <v>70</v>
       </c>
       <c r="L361" s="5" t="s">
-        <v>1937</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -13272,13 +13287,13 @@
         <v>1832</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="G363" s="2">
         <v>170</v>
       </c>
       <c r="L363" s="5" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -13450,7 +13465,7 @@
         <v>71</v>
       </c>
       <c r="L374" s="5" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
@@ -13552,7 +13567,7 @@
         <v>50</v>
       </c>
       <c r="L380" s="5" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.3">
@@ -13628,7 +13643,7 @@
         <v>1835</v>
       </c>
       <c r="F385" s="4" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
@@ -14666,7 +14681,7 @@
         <v>924</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="G457" s="2">
         <v>30</v>
@@ -14709,7 +14724,7 @@
         <v>38</v>
       </c>
       <c r="L459" s="5" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.3">
@@ -15002,7 +15017,7 @@
         <v>30</v>
       </c>
       <c r="L478" s="5" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.3">
@@ -15042,7 +15057,7 @@
         <v>20</v>
       </c>
       <c r="L480" s="5" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.3">
@@ -15068,7 +15083,7 @@
         <v>14</v>
       </c>
       <c r="L481" s="5" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.3">
@@ -15462,13 +15477,13 @@
         <v>924</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="G507" s="2">
         <v>45</v>
       </c>
       <c r="L507" s="5" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.3">
@@ -15876,7 +15891,7 @@
         <v>260</v>
       </c>
       <c r="L532" s="5" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.3">
@@ -15893,7 +15908,7 @@
         <v>924</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.3">
@@ -15910,7 +15925,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A535" s="3">
         <v>3037</v>
       </c>
@@ -15923,14 +15938,17 @@
       <c r="D535" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="E535" s="2" t="s">
-        <v>1744</v>
+      <c r="E535" s="4" t="s">
+        <v>2104</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>1874</v>
       </c>
       <c r="G535" s="2">
         <v>95</v>
+      </c>
+      <c r="I535" s="2">
+        <v>109</v>
       </c>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.3">
@@ -16004,7 +16022,7 @@
         <v>105</v>
       </c>
       <c r="L539" s="5" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.3">
@@ -16035,7 +16053,7 @@
         <v>924</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.3">
@@ -16501,10 +16519,10 @@
         <v>924</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="L573" s="5" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.3">
@@ -16577,7 +16595,7 @@
         <v>924</v>
       </c>
       <c r="E578" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.3">
@@ -16625,7 +16643,7 @@
         <v>1798</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="I581" s="2">
         <v>552</v>
@@ -16659,10 +16677,10 @@
         <v>924</v>
       </c>
       <c r="E583" s="2" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="G583" s="2">
         <v>72</v>
@@ -16890,7 +16908,10 @@
         <v>924</v>
       </c>
       <c r="E598" s="2" t="s">
-        <v>271</v>
+        <v>1832</v>
+      </c>
+      <c r="I598" s="2">
+        <v>189</v>
       </c>
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.3">
@@ -17124,7 +17145,7 @@
         <v>1794</v>
       </c>
       <c r="L613" s="5" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.3">
@@ -17225,7 +17246,7 @@
         <v>3665</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>3</v>
@@ -17237,7 +17258,7 @@
         <v>1794</v>
       </c>
       <c r="L620" s="5" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="621" spans="1:12" x14ac:dyDescent="0.3">
@@ -17274,10 +17295,10 @@
         <v>924</v>
       </c>
       <c r="E622" s="2" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="L622" s="5" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="623" spans="1:12" ht="30" x14ac:dyDescent="0.3">
@@ -17294,10 +17315,10 @@
         <v>924</v>
       </c>
       <c r="E623" s="2" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="F623" s="4" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="G623" s="2">
         <v>120</v>
@@ -17407,7 +17428,7 @@
         <v>924</v>
       </c>
       <c r="E630" s="2" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="G630" s="2">
         <v>31</v>
@@ -17698,13 +17719,13 @@
         <v>924</v>
       </c>
       <c r="E648" s="2" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="F648" s="2" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="L648" s="5" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.3">
@@ -17853,7 +17874,7 @@
         <v>924</v>
       </c>
       <c r="E658" s="2" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.3">
@@ -17968,13 +17989,13 @@
         <v>924</v>
       </c>
       <c r="E666" s="2" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="G666" s="2">
         <v>80</v>
       </c>
       <c r="L666" s="5" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.3">
@@ -18005,7 +18026,7 @@
         <v>924</v>
       </c>
       <c r="E668" s="2" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="669" spans="1:12" x14ac:dyDescent="0.3">
@@ -18202,7 +18223,7 @@
         <v>120</v>
       </c>
       <c r="L681" s="5" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.3">
@@ -18219,7 +18240,7 @@
         <v>924</v>
       </c>
       <c r="E682" s="2" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="G682" s="2">
         <v>54</v>
@@ -18267,13 +18288,13 @@
         <v>924</v>
       </c>
       <c r="E685" s="2" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="G685" s="2">
         <v>61</v>
       </c>
       <c r="L685" s="5" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="686" spans="1:12" x14ac:dyDescent="0.3">
@@ -18462,7 +18483,7 @@
         <v>1801</v>
       </c>
       <c r="L697" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="698" spans="1:12" ht="60" x14ac:dyDescent="0.3">
@@ -18564,10 +18585,10 @@
         <v>924</v>
       </c>
       <c r="E703" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="L703" s="5" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="704" spans="1:12" x14ac:dyDescent="0.3">
@@ -18804,13 +18825,13 @@
         <v>924</v>
       </c>
       <c r="E718" s="2" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="G718" s="2">
         <v>40</v>
       </c>
       <c r="L718" s="5" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.3">
@@ -19035,7 +19056,7 @@
         <v>110</v>
       </c>
       <c r="L733" s="5" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="734" spans="1:12" x14ac:dyDescent="0.3">
@@ -19159,7 +19180,7 @@
         <v>41</v>
       </c>
       <c r="L741" s="5" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="742" spans="1:12" x14ac:dyDescent="0.3">
@@ -19345,7 +19366,7 @@
         <v>33</v>
       </c>
       <c r="L753" s="5" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="754" spans="1:12" x14ac:dyDescent="0.3">
@@ -19528,7 +19549,7 @@
         <v>924</v>
       </c>
       <c r="E765" s="4" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="G765" s="2">
         <v>24.1</v>
@@ -19596,7 +19617,7 @@
         <v>80</v>
       </c>
       <c r="L769" s="5" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="770" spans="1:12" ht="60" x14ac:dyDescent="0.3">
@@ -19622,7 +19643,7 @@
         <v>35</v>
       </c>
       <c r="L770" s="5" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="771" spans="1:12" x14ac:dyDescent="0.3">
@@ -19726,13 +19747,13 @@
         <v>924</v>
       </c>
       <c r="E777" s="2" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="G777" s="2">
         <v>75</v>
       </c>
       <c r="L777" s="5" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="778" spans="1:12" x14ac:dyDescent="0.3">
@@ -20073,7 +20094,7 @@
         <v>924</v>
       </c>
       <c r="E799" s="2" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="800" spans="1:12" x14ac:dyDescent="0.3">
@@ -20107,7 +20128,7 @@
         <v>924</v>
       </c>
       <c r="E801" s="2" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="802" spans="1:12" x14ac:dyDescent="0.3">
@@ -20155,10 +20176,10 @@
         <v>1691</v>
       </c>
       <c r="F804" s="2" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="L804" s="5" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="805" spans="1:12" x14ac:dyDescent="0.3">
@@ -20251,7 +20272,16 @@
         <v>924</v>
       </c>
       <c r="E810" s="2" t="s">
-        <v>1970</v>
+        <v>1967</v>
+      </c>
+      <c r="F810" s="2" t="s">
+        <v>2106</v>
+      </c>
+      <c r="G810" s="2">
+        <v>266</v>
+      </c>
+      <c r="L810" s="5" t="s">
+        <v>2107</v>
       </c>
     </row>
     <row r="811" spans="1:12" x14ac:dyDescent="0.3">
@@ -20282,7 +20312,7 @@
         <v>924</v>
       </c>
       <c r="E812" s="2" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="813" spans="1:12" x14ac:dyDescent="0.3">
@@ -20355,10 +20385,10 @@
         <v>924</v>
       </c>
       <c r="E817" s="2" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="L817" s="5" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="818" spans="1:12" x14ac:dyDescent="0.3">
@@ -20366,7 +20396,7 @@
         <v>6558</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="C818" s="2" t="s">
         <v>3</v>
@@ -20403,7 +20433,7 @@
         <v>924</v>
       </c>
       <c r="E820" s="2" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="821" spans="1:12" x14ac:dyDescent="0.3">
@@ -20420,7 +20450,7 @@
         <v>924</v>
       </c>
       <c r="E821" s="2" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="822" spans="1:12" x14ac:dyDescent="0.3">
@@ -20773,7 +20803,7 @@
         <v>35</v>
       </c>
       <c r="L843" s="26" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="844" spans="1:12" x14ac:dyDescent="0.3">
@@ -20781,7 +20811,7 @@
         <v>8028</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C844" s="2" t="s">
         <v>3</v>
@@ -20824,7 +20854,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="847" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A847" s="3">
         <v>8046</v>
       </c>
@@ -20837,8 +20867,8 @@
       <c r="D847" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="E847" s="2" t="s">
-        <v>1744</v>
+      <c r="E847" s="4" t="s">
+        <v>2104</v>
       </c>
     </row>
     <row r="848" spans="1:12" x14ac:dyDescent="0.3">
@@ -21302,7 +21332,7 @@
         <v>320</v>
       </c>
       <c r="L878" s="5" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="879" spans="1:12" x14ac:dyDescent="0.3">
@@ -21535,7 +21565,7 @@
         <v>924</v>
       </c>
       <c r="E894" s="2" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="G894" s="2">
         <v>72</v>
@@ -21946,16 +21976,16 @@
         <v>924</v>
       </c>
       <c r="E921" s="2" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F921" s="2" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="G921" s="2">
         <v>70</v>
       </c>
       <c r="L921" s="5" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="922" spans="1:12" x14ac:dyDescent="0.3">
@@ -22046,7 +22076,7 @@
         <v>55</v>
       </c>
       <c r="L926" s="5" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="927" spans="1:12" x14ac:dyDescent="0.3">
@@ -22125,7 +22155,7 @@
         <v>90</v>
       </c>
       <c r="L931" s="5" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="932" spans="1:12" x14ac:dyDescent="0.3">
@@ -22287,7 +22317,7 @@
         <v>1586</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="C943" s="2" t="s">
         <v>1682</v>
@@ -22305,7 +22335,7 @@
         <v>35</v>
       </c>
       <c r="L943" s="5" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="944" spans="1:12" x14ac:dyDescent="0.3">
@@ -22644,7 +22674,7 @@
         <v>44</v>
       </c>
       <c r="L964" s="5" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="965" spans="1:12" x14ac:dyDescent="0.3">
@@ -23118,7 +23148,7 @@
         <v>924</v>
       </c>
       <c r="E997" s="4" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="H997" s="2">
         <v>50</v>
@@ -23186,13 +23216,13 @@
         <v>1773</v>
       </c>
       <c r="F1001" s="2" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="I1001" s="2">
         <v>165</v>
       </c>
       <c r="L1001" s="5" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1002" spans="1:12" x14ac:dyDescent="0.3">
@@ -23226,7 +23256,7 @@
         <v>1794</v>
       </c>
       <c r="L1003" s="5" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1004" spans="1:12" x14ac:dyDescent="0.3">
@@ -23274,7 +23304,7 @@
         <v>924</v>
       </c>
       <c r="E1006" s="2" t="s">
-        <v>1961</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="1007" spans="1:12" x14ac:dyDescent="0.3">
@@ -23344,7 +23374,7 @@
         <v>3128</v>
       </c>
       <c r="B1011" s="1" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="C1011" s="2" t="s">
         <v>1682</v>
@@ -23589,7 +23619,7 @@
         <v>1814</v>
       </c>
       <c r="L1027" s="5" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1028" spans="1:12" x14ac:dyDescent="0.3">
@@ -23865,7 +23895,7 @@
         <v>1801</v>
       </c>
       <c r="F1045" s="2" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="G1045" s="2">
         <v>90</v>
@@ -24048,16 +24078,16 @@
         <v>1755</v>
       </c>
       <c r="F1057" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="G1057" s="2">
         <v>720</v>
       </c>
       <c r="L1057" s="7" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="M1057" s="25" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1058" spans="1:13" x14ac:dyDescent="0.3">
@@ -24186,10 +24216,10 @@
         <v>924</v>
       </c>
       <c r="E1066" s="2" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="F1066" s="4" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="G1066" s="2">
         <v>50</v>
@@ -24212,13 +24242,13 @@
         <v>1693</v>
       </c>
       <c r="F1067" s="4" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="G1067" s="2">
         <v>150</v>
       </c>
       <c r="L1067" s="5" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1068" spans="1:13" x14ac:dyDescent="0.3">
@@ -24282,7 +24312,7 @@
         <v>3360</v>
       </c>
       <c r="B1072" s="1" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="C1072" s="2" t="s">
         <v>1682</v>
@@ -24294,7 +24324,7 @@
         <v>1862</v>
       </c>
       <c r="F1072" s="2" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="L1072" s="5" t="s">
         <v>1861</v>
@@ -24477,7 +24507,7 @@
         <v>924</v>
       </c>
       <c r="E1084" s="2" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1085" spans="1:7" x14ac:dyDescent="0.3">
@@ -24820,7 +24850,7 @@
         <v>80</v>
       </c>
       <c r="L1107" s="5" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1108" spans="1:12" x14ac:dyDescent="0.3">
@@ -24981,13 +25011,13 @@
         <v>1794</v>
       </c>
       <c r="F1117" s="2" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="G1117" s="2">
         <v>180</v>
       </c>
       <c r="L1117" s="7" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1118" spans="1:12" x14ac:dyDescent="0.3">
@@ -25121,7 +25151,7 @@
         <v>3587</v>
       </c>
       <c r="B1127" s="1" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="C1127" s="2" t="s">
         <v>1682</v>
@@ -25554,7 +25584,7 @@
         <v>924</v>
       </c>
       <c r="E1156" s="2" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1157" spans="1:12" x14ac:dyDescent="0.3">
@@ -25766,7 +25796,7 @@
         <v>1825</v>
       </c>
       <c r="M1169" s="25" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1170" spans="1:13" x14ac:dyDescent="0.3">
@@ -25884,7 +25914,7 @@
         <v>924</v>
       </c>
       <c r="E1177" s="2" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1178" spans="1:13" x14ac:dyDescent="0.3">
@@ -26016,7 +26046,7 @@
         <v>924</v>
       </c>
       <c r="L1186" s="5" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1187" spans="1:12" x14ac:dyDescent="0.3">
@@ -26641,7 +26671,7 @@
         <v>924</v>
       </c>
       <c r="E1230" s="2" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1231" spans="1:5" x14ac:dyDescent="0.3">
@@ -27020,13 +27050,13 @@
         <v>924</v>
       </c>
       <c r="F1256" s="2" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
       <c r="G1256" s="2">
         <v>42</v>
       </c>
       <c r="L1256" s="5" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1257" spans="1:12" ht="45" x14ac:dyDescent="0.3">
@@ -27043,10 +27073,10 @@
         <v>924</v>
       </c>
       <c r="E1257" s="2" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="L1257" s="5" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1258" spans="1:12" x14ac:dyDescent="0.3">
@@ -27387,10 +27417,10 @@
         <v>924</v>
       </c>
       <c r="E1279" s="2" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="L1279" s="5" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1280" spans="1:12" x14ac:dyDescent="0.3">
@@ -27477,10 +27507,10 @@
         <v>924</v>
       </c>
       <c r="E1285" s="2" t="s">
+        <v>1914</v>
+      </c>
+      <c r="L1285" s="5" t="s">
         <v>1915</v>
-      </c>
-      <c r="L1285" s="5" t="s">
-        <v>1916</v>
       </c>
     </row>
     <row r="1286" spans="1:12" x14ac:dyDescent="0.3">
@@ -27719,7 +27749,7 @@
         <v>85</v>
       </c>
       <c r="L1301" s="5" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1302" spans="1:12" x14ac:dyDescent="0.3">
@@ -27879,7 +27909,7 @@
         <v>924</v>
       </c>
       <c r="F1312" s="2" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1313" spans="1:12" x14ac:dyDescent="0.3">
@@ -27995,7 +28025,7 @@
         <v>48.2</v>
       </c>
       <c r="L1319" s="5" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1320" spans="1:12" x14ac:dyDescent="0.3">
@@ -28457,7 +28487,7 @@
         <v>31</v>
       </c>
       <c r="L1349" s="5" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1350" spans="1:12" x14ac:dyDescent="0.3">
@@ -29568,7 +29598,7 @@
         <v>924</v>
       </c>
       <c r="E1423" s="2" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="F1423" s="2" t="s">
         <v>1869</v>
@@ -30125,7 +30155,7 @@
         <v>1827</v>
       </c>
       <c r="F1460" s="2" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="G1460" s="2">
         <v>23</v>
@@ -30162,13 +30192,13 @@
         <v>1884</v>
       </c>
       <c r="F1462" s="4" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="G1462" s="2">
         <v>65</v>
       </c>
       <c r="L1462" s="5" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1463" spans="1:12" x14ac:dyDescent="0.3">
@@ -30335,7 +30365,7 @@
         <v>1874</v>
       </c>
       <c r="L1472" s="5" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1473" spans="1:7" x14ac:dyDescent="0.3">
@@ -30565,7 +30595,7 @@
         <v>1693</v>
       </c>
       <c r="F1488" s="2" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="G1488" s="2">
         <v>34</v>
@@ -30616,13 +30646,13 @@
         <v>1778</v>
       </c>
       <c r="F1491" s="2" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="G1491" s="2">
         <v>61</v>
       </c>
       <c r="L1491" s="5" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1492" spans="1:12" x14ac:dyDescent="0.3">
@@ -30867,7 +30897,7 @@
         <v>120</v>
       </c>
       <c r="L1507" s="5" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1508" spans="1:12" x14ac:dyDescent="0.3">
@@ -30957,16 +30987,16 @@
         <v>924</v>
       </c>
       <c r="E1513" s="2" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="F1513" s="2" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
       <c r="G1513" s="2">
         <v>100</v>
       </c>
       <c r="L1513" s="5" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1514" spans="1:12" x14ac:dyDescent="0.3">
@@ -31056,13 +31086,13 @@
         <v>1782</v>
       </c>
       <c r="F1519" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="G1519" s="2">
         <v>850</v>
       </c>
       <c r="L1519" s="5" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="1520" spans="1:12" x14ac:dyDescent="0.3">
@@ -31186,7 +31216,7 @@
         <v>924</v>
       </c>
       <c r="E1527" s="2" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1528" spans="1:12" x14ac:dyDescent="0.3">
@@ -31324,7 +31354,7 @@
         <v>1691</v>
       </c>
       <c r="F1536" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="H1536" s="2">
         <v>150</v>
@@ -31440,7 +31470,7 @@
         <v>924</v>
       </c>
       <c r="F1543" s="2" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1544" spans="1:12" x14ac:dyDescent="0.3">
@@ -31457,7 +31487,7 @@
         <v>924</v>
       </c>
       <c r="E1544" s="2" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1545" spans="1:12" x14ac:dyDescent="0.3">
@@ -31749,10 +31779,10 @@
         <v>924</v>
       </c>
       <c r="E1564" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="L1564" s="5" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1565" spans="1:12" x14ac:dyDescent="0.3">
@@ -32022,7 +32052,7 @@
         <v>924</v>
       </c>
       <c r="E1582" s="4" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="G1582" s="2">
         <v>81</v>
@@ -32135,7 +32165,7 @@
         <v>1757</v>
       </c>
       <c r="L1589" s="5" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="1590" spans="1:12" x14ac:dyDescent="0.3">
@@ -32194,7 +32224,7 @@
         <v>924</v>
       </c>
       <c r="E1593" s="2" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1594" spans="1:12" x14ac:dyDescent="0.3">
@@ -32436,7 +32466,7 @@
         <v>924</v>
       </c>
       <c r="E1609" s="2" t="s">
-        <v>1910</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="1610" spans="1:7" x14ac:dyDescent="0.3">
@@ -32700,7 +32730,7 @@
         <v>924</v>
       </c>
       <c r="E1627" s="4" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="F1627" s="4" t="s">
         <v>1855</v>
@@ -32709,7 +32739,7 @@
         <v>25</v>
       </c>
       <c r="L1627" s="5" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1628" spans="1:12" x14ac:dyDescent="0.3">
@@ -32757,7 +32787,7 @@
         <v>1743</v>
       </c>
       <c r="L1630" s="5" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1631" spans="1:12" x14ac:dyDescent="0.3">
@@ -32844,16 +32874,16 @@
         <v>924</v>
       </c>
       <c r="E1636" s="2" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="F1636" s="4" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="G1636" s="2">
         <v>550</v>
       </c>
       <c r="L1636" s="5" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1637" spans="1:12" x14ac:dyDescent="0.3">
@@ -32870,10 +32900,10 @@
         <v>924</v>
       </c>
       <c r="E1637" s="2" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="F1637" s="2" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="G1637" s="2">
         <v>55</v>
@@ -32921,7 +32951,7 @@
         <v>924</v>
       </c>
       <c r="E1640" s="2" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1641" spans="1:12" x14ac:dyDescent="0.3">
@@ -33459,7 +33489,7 @@
         <v>924</v>
       </c>
       <c r="E1678" s="2" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="F1678" s="2" t="s">
         <v>1869</v>
@@ -33468,7 +33498,7 @@
         <v>100</v>
       </c>
       <c r="L1678" s="5" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1679" spans="1:12" x14ac:dyDescent="0.3">
@@ -33628,10 +33658,10 @@
         <v>924</v>
       </c>
       <c r="E1689" s="2" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="F1689" s="4" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="G1689" s="2">
         <v>60</v>
@@ -33707,10 +33737,10 @@
         <v>924</v>
       </c>
       <c r="E1694" s="2" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="F1694" s="4" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="G1694" s="2">
         <v>90</v>
@@ -34027,7 +34057,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="E2" s="2">
         <v>15877</v>
@@ -34035,22 +34065,22 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>1949</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>1950</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>1951</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61691CFA-566F-40FE-902A-8821AFE7A267}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D40316-09AC-4225-9330-D555FD592A14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5823" uniqueCount="2108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2131">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6275,10 +6275,6 @@
   </si>
   <si>
     <t>https://www.notion.so/4123-45-93-9b3bf65775564cbea8499cd2eb335c68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電腦選</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6948,6 +6944,106 @@
   </si>
   <si>
     <t>2021 EPS 估 16塊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021Q1 估1.3塊，全年2021 EPS 估 5.2?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.moneydj.com/kmdj/wiki/wikiviewer.aspx?keyid=ba345a19-2ea3-4cef-b535-2064da9f7be4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電機機械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江申為台灣最大的車架及木床製造商，在3.5噸以上貨車(大貨車、巴士國產車等)之車架市佔高達100%，小型商用車(小貨車)之木床後車身市佔超過9成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營收衰退
+不投資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示器代工廠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不投資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被動元件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q1每股賺3.45元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星
+長期注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很穩，每年都配10塊左右。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定存5星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縫紉機製造廠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不投資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量太少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銅箔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金居自結1~2月合併獲利1.37億元，每股稅後0.54元
+2021 年估 5塊?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020Q4 EPS 2.5
+2021 全年估10塊?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紡織</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7499,8 +7595,8 @@
   <dimension ref="A1:M1697"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A804" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L811" sqref="L811"/>
+      <pane ySplit="1" topLeftCell="A1676" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1685" sqref="G1685"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7584,7 +7680,7 @@
         <v>40.5</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -7601,7 +7697,7 @@
         <v>924</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G3" s="2">
         <v>41</v>
@@ -7621,10 +7717,10 @@
         <v>924</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>2016</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>2017</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -7641,10 +7737,10 @@
         <v>924</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>2016</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>2017</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -7661,10 +7757,10 @@
         <v>924</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>2016</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>2017</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -7681,10 +7777,10 @@
         <v>924</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>2016</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>2017</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -7701,10 +7797,10 @@
         <v>924</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>2016</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>2017</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -7994,7 +8090,7 @@
         <v>924</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -8025,7 +8121,7 @@
         <v>924</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -8247,7 +8343,7 @@
         <v>924</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -8295,7 +8391,7 @@
         <v>924</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -8439,10 +8535,10 @@
         <v>1788</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>1993</v>
+      </c>
+      <c r="L56" s="5" t="s">
         <v>1994</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>1995</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -9081,7 +9177,7 @@
         <v>924</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>1742</v>
@@ -9090,7 +9186,7 @@
         <v>150</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -9158,7 +9254,7 @@
         <v>1800</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="G105" s="2">
         <v>51.5</v>
@@ -9205,7 +9301,7 @@
       </c>
       <c r="K107" s="4"/>
       <c r="L107" s="5" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -9279,7 +9375,7 @@
         <v>1855</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -9296,7 +9392,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>1521</v>
       </c>
@@ -9310,7 +9406,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>1522</v>
       </c>
@@ -9324,7 +9420,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>1524</v>
       </c>
@@ -9338,7 +9434,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>1525</v>
       </c>
@@ -9351,8 +9447,20 @@
       <c r="D116" s="2" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E116" s="2" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>2111</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>2110</v>
+      </c>
+      <c r="M116" s="25" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>1526</v>
       </c>
@@ -9369,7 +9477,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>1527</v>
       </c>
@@ -9383,7 +9491,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>1528</v>
       </c>
@@ -9397,7 +9505,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>1529</v>
       </c>
@@ -9411,7 +9519,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>1530</v>
       </c>
@@ -9425,7 +9533,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>1531</v>
       </c>
@@ -9439,7 +9547,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>1532</v>
       </c>
@@ -9453,7 +9561,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>1533</v>
       </c>
@@ -9470,7 +9578,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>1535</v>
       </c>
@@ -9484,7 +9592,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>1536</v>
       </c>
@@ -9501,7 +9609,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>1537</v>
       </c>
@@ -9514,8 +9622,20 @@
       <c r="D127" s="2" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E127" s="2" t="s">
+        <v>2118</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>2120</v>
+      </c>
+      <c r="G127" s="2">
+        <v>140</v>
+      </c>
+      <c r="L127" s="5" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>1538</v>
       </c>
@@ -9584,6 +9704,9 @@
       <c r="D132" s="2" t="s">
         <v>924</v>
       </c>
+      <c r="E132" s="2" t="s">
+        <v>2121</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
@@ -9777,10 +9900,10 @@
         <v>924</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G144" s="2">
         <v>15</v>
@@ -10120,7 +10243,7 @@
         <v>1822</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="G167" s="2">
         <v>36</v>
@@ -10597,7 +10720,7 @@
         <v>1905</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>3</v>
@@ -10606,13 +10729,13 @@
         <v>924</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>1855</v>
       </c>
       <c r="L200" s="5" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -10853,13 +10976,13 @@
         <v>924</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>1855</v>
       </c>
       <c r="L217" s="5" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
@@ -10960,10 +11083,10 @@
         <v>924</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="L224" s="5" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -11191,7 +11314,7 @@
         <v>924</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G239" s="2">
         <v>21</v>
@@ -11386,13 +11509,13 @@
         <v>1774</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="G251" s="2">
         <v>100</v>
       </c>
       <c r="L251" s="5" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
@@ -11479,7 +11602,7 @@
         <v>924</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G257" s="2">
         <v>55</v>
@@ -11562,7 +11685,7 @@
         <v>130</v>
       </c>
       <c r="L261" s="5" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
@@ -11695,7 +11818,7 @@
         <v>924</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
@@ -11715,7 +11838,7 @@
         <v>1743</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="G270" s="2">
         <v>540</v>
@@ -11775,7 +11898,7 @@
         <v>1775</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="G273" s="2">
         <v>585</v>
@@ -11826,13 +11949,13 @@
         <v>924</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>1874</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>2338</v>
       </c>
@@ -11844,6 +11967,18 @@
       </c>
       <c r="D277" s="2" t="s">
         <v>924</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>2127</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>2128</v>
+      </c>
+      <c r="G277" s="2">
+        <v>70</v>
+      </c>
+      <c r="L277" s="5" t="s">
+        <v>2129</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -12075,7 +12210,7 @@
         <v>1737</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="G291" s="2">
         <v>330</v>
@@ -12095,13 +12230,13 @@
         <v>924</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G292" s="2">
         <v>13</v>
       </c>
       <c r="L292" s="5" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
@@ -12262,7 +12397,7 @@
         <v>25</v>
       </c>
       <c r="L302" s="5" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
@@ -12313,7 +12448,7 @@
         <v>1855</v>
       </c>
       <c r="L305" s="5" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
@@ -12333,7 +12468,7 @@
         <v>1737</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="L306" s="5" t="s">
         <v>1847</v>
@@ -12356,7 +12491,7 @@
         <v>1737</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="L307" s="5" t="s">
         <v>1847</v>
@@ -12382,7 +12517,7 @@
         <v>280</v>
       </c>
       <c r="L308" s="5" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
@@ -12413,7 +12548,7 @@
         <v>924</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>1874</v>
@@ -12436,13 +12571,13 @@
         <v>924</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G311" s="2">
         <v>140</v>
       </c>
       <c r="L311" s="5" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
@@ -12661,7 +12796,7 @@
         <v>924</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.3">
@@ -12775,7 +12910,7 @@
         <v>48</v>
       </c>
       <c r="L332" s="5" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.3">
@@ -12879,7 +13014,7 @@
         <v>924</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.3">
@@ -13006,7 +13141,7 @@
         <v>75</v>
       </c>
       <c r="L347" s="5" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.3">
@@ -13124,7 +13259,7 @@
         <v>924</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="F355" s="4" t="s">
         <v>1869</v>
@@ -13133,7 +13268,7 @@
         <v>45</v>
       </c>
       <c r="L355" s="5" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -13215,10 +13350,10 @@
         <v>924</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="G360" s="2">
         <v>110</v>
@@ -13227,7 +13362,7 @@
         <v>121</v>
       </c>
       <c r="L360" s="5" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -13247,7 +13382,7 @@
         <v>1743</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="G361" s="2">
         <v>70</v>
@@ -13287,13 +13422,13 @@
         <v>1832</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="G363" s="2">
         <v>170</v>
       </c>
       <c r="L363" s="5" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -13465,7 +13600,7 @@
         <v>71</v>
       </c>
       <c r="L374" s="5" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
@@ -13643,7 +13778,7 @@
         <v>1835</v>
       </c>
       <c r="F385" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
@@ -13673,6 +13808,12 @@
       <c r="D387" s="2" t="s">
         <v>924</v>
       </c>
+      <c r="E387" s="2" t="s">
+        <v>2112</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>2113</v>
+      </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="3">
@@ -14681,7 +14822,7 @@
         <v>924</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G457" s="2">
         <v>30</v>
@@ -14724,7 +14865,7 @@
         <v>38</v>
       </c>
       <c r="L459" s="5" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.3">
@@ -15017,7 +15158,7 @@
         <v>30</v>
       </c>
       <c r="L478" s="5" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.3">
@@ -15057,7 +15198,7 @@
         <v>20</v>
       </c>
       <c r="L480" s="5" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.3">
@@ -15083,7 +15224,7 @@
         <v>14</v>
       </c>
       <c r="L481" s="5" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.3">
@@ -15477,13 +15618,13 @@
         <v>924</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G507" s="2">
         <v>45</v>
       </c>
       <c r="L507" s="5" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.3">
@@ -15750,7 +15891,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A524" s="3">
         <v>3026</v>
       </c>
@@ -15762,6 +15903,15 @@
       </c>
       <c r="D524" s="2" t="s">
         <v>924</v>
+      </c>
+      <c r="E524" s="2" t="s">
+        <v>2114</v>
+      </c>
+      <c r="F524" s="4" t="s">
+        <v>2116</v>
+      </c>
+      <c r="L524" s="5" t="s">
+        <v>2115</v>
       </c>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.3">
@@ -15780,6 +15930,9 @@
       <c r="E525" s="2" t="s">
         <v>1749</v>
       </c>
+      <c r="F525" s="2" t="s">
+        <v>2117</v>
+      </c>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A526" s="3">
@@ -15891,7 +16044,7 @@
         <v>260</v>
       </c>
       <c r="L532" s="5" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.3">
@@ -15939,7 +16092,7 @@
         <v>924</v>
       </c>
       <c r="E535" s="4" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>1874</v>
@@ -15949,6 +16102,9 @@
       </c>
       <c r="I535" s="2">
         <v>109</v>
+      </c>
+      <c r="L535" s="5" t="s">
+        <v>2107</v>
       </c>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.3">
@@ -16022,7 +16178,7 @@
         <v>105</v>
       </c>
       <c r="L539" s="5" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.3">
@@ -16053,7 +16209,7 @@
         <v>924</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.3">
@@ -16519,10 +16675,10 @@
         <v>924</v>
       </c>
       <c r="E573" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="L573" s="5" t="s">
         <v>1986</v>
-      </c>
-      <c r="L573" s="5" t="s">
-        <v>1987</v>
       </c>
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.3">
@@ -16643,7 +16799,7 @@
         <v>1798</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="I581" s="2">
         <v>552</v>
@@ -16677,10 +16833,10 @@
         <v>924</v>
       </c>
       <c r="E583" s="2" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G583" s="2">
         <v>72</v>
@@ -17295,10 +17451,10 @@
         <v>924</v>
       </c>
       <c r="E622" s="2" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="L622" s="5" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="623" spans="1:12" ht="30" x14ac:dyDescent="0.3">
@@ -17315,10 +17471,10 @@
         <v>924</v>
       </c>
       <c r="E623" s="2" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="F623" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="G623" s="2">
         <v>120</v>
@@ -17428,7 +17584,7 @@
         <v>924</v>
       </c>
       <c r="E630" s="2" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="G630" s="2">
         <v>31</v>
@@ -17719,13 +17875,13 @@
         <v>924</v>
       </c>
       <c r="E648" s="2" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="F648" s="2" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="L648" s="5" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.3">
@@ -17874,7 +18030,7 @@
         <v>924</v>
       </c>
       <c r="E658" s="2" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.3">
@@ -17989,13 +18145,13 @@
         <v>924</v>
       </c>
       <c r="E666" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G666" s="2">
         <v>80</v>
       </c>
       <c r="L666" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.3">
@@ -18223,7 +18379,7 @@
         <v>120</v>
       </c>
       <c r="L681" s="5" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.3">
@@ -18288,13 +18444,13 @@
         <v>924</v>
       </c>
       <c r="E685" s="2" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G685" s="2">
         <v>61</v>
       </c>
       <c r="L685" s="5" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="686" spans="1:12" x14ac:dyDescent="0.3">
@@ -18588,7 +18744,7 @@
         <v>1926</v>
       </c>
       <c r="L703" s="5" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="704" spans="1:12" x14ac:dyDescent="0.3">
@@ -18825,13 +18981,13 @@
         <v>924</v>
       </c>
       <c r="E718" s="2" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="G718" s="2">
         <v>40</v>
       </c>
       <c r="L718" s="5" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.3">
@@ -19056,7 +19212,7 @@
         <v>110</v>
       </c>
       <c r="L733" s="5" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="734" spans="1:12" x14ac:dyDescent="0.3">
@@ -19180,7 +19336,7 @@
         <v>41</v>
       </c>
       <c r="L741" s="5" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="742" spans="1:12" x14ac:dyDescent="0.3">
@@ -19366,7 +19522,7 @@
         <v>33</v>
       </c>
       <c r="L753" s="5" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="754" spans="1:12" x14ac:dyDescent="0.3">
@@ -19549,7 +19705,7 @@
         <v>924</v>
       </c>
       <c r="E765" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="G765" s="2">
         <v>24.1</v>
@@ -19617,7 +19773,7 @@
         <v>80</v>
       </c>
       <c r="L769" s="5" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="770" spans="1:12" ht="60" x14ac:dyDescent="0.3">
@@ -19643,7 +19799,7 @@
         <v>35</v>
       </c>
       <c r="L770" s="5" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="771" spans="1:12" x14ac:dyDescent="0.3">
@@ -20176,10 +20332,10 @@
         <v>1691</v>
       </c>
       <c r="F804" s="2" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="L804" s="5" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="805" spans="1:12" x14ac:dyDescent="0.3">
@@ -20272,16 +20428,16 @@
         <v>924</v>
       </c>
       <c r="E810" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="F810" s="2" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G810" s="2">
         <v>266</v>
       </c>
       <c r="L810" s="5" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="811" spans="1:12" x14ac:dyDescent="0.3">
@@ -20312,7 +20468,7 @@
         <v>924</v>
       </c>
       <c r="E812" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="813" spans="1:12" x14ac:dyDescent="0.3">
@@ -20385,10 +20541,10 @@
         <v>924</v>
       </c>
       <c r="E817" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="L817" s="5" t="s">
         <v>2018</v>
-      </c>
-      <c r="L817" s="5" t="s">
-        <v>2019</v>
       </c>
     </row>
     <row r="818" spans="1:12" x14ac:dyDescent="0.3">
@@ -20396,7 +20552,7 @@
         <v>6558</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C818" s="2" t="s">
         <v>3</v>
@@ -20433,7 +20589,7 @@
         <v>924</v>
       </c>
       <c r="E820" s="2" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="821" spans="1:12" x14ac:dyDescent="0.3">
@@ -20450,7 +20606,7 @@
         <v>924</v>
       </c>
       <c r="E821" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="822" spans="1:12" x14ac:dyDescent="0.3">
@@ -20803,7 +20959,7 @@
         <v>35</v>
       </c>
       <c r="L843" s="26" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="844" spans="1:12" x14ac:dyDescent="0.3">
@@ -20868,7 +21024,7 @@
         <v>924</v>
       </c>
       <c r="E847" s="4" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="848" spans="1:12" x14ac:dyDescent="0.3">
@@ -21332,7 +21488,7 @@
         <v>320</v>
       </c>
       <c r="L878" s="5" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="879" spans="1:12" x14ac:dyDescent="0.3">
@@ -21565,7 +21721,7 @@
         <v>924</v>
       </c>
       <c r="E894" s="2" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="G894" s="2">
         <v>72</v>
@@ -21979,13 +22135,13 @@
         <v>1935</v>
       </c>
       <c r="F921" s="2" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G921" s="2">
         <v>70</v>
       </c>
       <c r="L921" s="5" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="922" spans="1:12" x14ac:dyDescent="0.3">
@@ -22076,7 +22232,7 @@
         <v>55</v>
       </c>
       <c r="L926" s="5" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="927" spans="1:12" x14ac:dyDescent="0.3">
@@ -22155,7 +22311,7 @@
         <v>90</v>
       </c>
       <c r="L931" s="5" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="932" spans="1:12" x14ac:dyDescent="0.3">
@@ -22674,7 +22830,7 @@
         <v>44</v>
       </c>
       <c r="L964" s="5" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="965" spans="1:12" x14ac:dyDescent="0.3">
@@ -23216,13 +23372,13 @@
         <v>1773</v>
       </c>
       <c r="F1001" s="2" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="I1001" s="2">
         <v>165</v>
       </c>
       <c r="L1001" s="5" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1002" spans="1:12" x14ac:dyDescent="0.3">
@@ -23304,7 +23460,7 @@
         <v>924</v>
       </c>
       <c r="E1006" s="2" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="1007" spans="1:12" x14ac:dyDescent="0.3">
@@ -23374,7 +23530,7 @@
         <v>3128</v>
       </c>
       <c r="B1011" s="1" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="C1011" s="2" t="s">
         <v>1682</v>
@@ -23895,7 +24051,7 @@
         <v>1801</v>
       </c>
       <c r="F1045" s="2" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="G1045" s="2">
         <v>90</v>
@@ -24078,13 +24234,13 @@
         <v>1755</v>
       </c>
       <c r="F1057" s="4" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="G1057" s="2">
         <v>720</v>
       </c>
       <c r="L1057" s="7" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="M1057" s="25" t="s">
         <v>1954</v>
@@ -24216,10 +24372,10 @@
         <v>924</v>
       </c>
       <c r="E1066" s="2" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F1066" s="4" t="s">
         <v>2090</v>
-      </c>
-      <c r="F1066" s="4" t="s">
-        <v>2091</v>
       </c>
       <c r="G1066" s="2">
         <v>50</v>
@@ -24242,13 +24398,13 @@
         <v>1693</v>
       </c>
       <c r="F1067" s="4" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="G1067" s="2">
         <v>150</v>
       </c>
       <c r="L1067" s="5" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1068" spans="1:13" x14ac:dyDescent="0.3">
@@ -24312,7 +24468,7 @@
         <v>3360</v>
       </c>
       <c r="B1072" s="1" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C1072" s="2" t="s">
         <v>1682</v>
@@ -24324,7 +24480,7 @@
         <v>1862</v>
       </c>
       <c r="F1072" s="2" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="L1072" s="5" t="s">
         <v>1861</v>
@@ -24507,7 +24663,7 @@
         <v>924</v>
       </c>
       <c r="E1084" s="2" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1085" spans="1:7" x14ac:dyDescent="0.3">
@@ -24850,7 +25006,7 @@
         <v>80</v>
       </c>
       <c r="L1107" s="5" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1108" spans="1:12" x14ac:dyDescent="0.3">
@@ -25011,13 +25167,13 @@
         <v>1794</v>
       </c>
       <c r="F1117" s="2" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G1117" s="2">
         <v>180</v>
       </c>
       <c r="L1117" s="7" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1118" spans="1:12" x14ac:dyDescent="0.3">
@@ -25151,7 +25307,7 @@
         <v>3587</v>
       </c>
       <c r="B1127" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C1127" s="2" t="s">
         <v>1682</v>
@@ -25914,7 +26070,7 @@
         <v>924</v>
       </c>
       <c r="E1177" s="2" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1178" spans="1:13" x14ac:dyDescent="0.3">
@@ -26046,7 +26202,7 @@
         <v>924</v>
       </c>
       <c r="L1186" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1187" spans="1:12" x14ac:dyDescent="0.3">
@@ -26250,6 +26406,12 @@
       <c r="D1200" s="2" t="s">
         <v>924</v>
       </c>
+      <c r="F1200" s="2" t="s">
+        <v>2123</v>
+      </c>
+      <c r="L1200" s="5" t="s">
+        <v>2124</v>
+      </c>
     </row>
     <row r="1201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1201" s="3">
@@ -27050,13 +27212,13 @@
         <v>924</v>
       </c>
       <c r="F1256" s="2" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="G1256" s="2">
         <v>42</v>
       </c>
       <c r="L1256" s="5" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1257" spans="1:12" ht="45" x14ac:dyDescent="0.3">
@@ -27076,7 +27238,7 @@
         <v>1953</v>
       </c>
       <c r="L1257" s="5" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1258" spans="1:12" x14ac:dyDescent="0.3">
@@ -27420,7 +27582,7 @@
         <v>1950</v>
       </c>
       <c r="L1279" s="5" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1280" spans="1:12" x14ac:dyDescent="0.3">
@@ -27714,6 +27876,12 @@
       <c r="D1299" s="2" t="s">
         <v>924</v>
       </c>
+      <c r="E1299" s="2" t="s">
+        <v>2122</v>
+      </c>
+      <c r="F1299" s="2" t="s">
+        <v>2123</v>
+      </c>
     </row>
     <row r="1300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1300" s="3">
@@ -27749,7 +27917,7 @@
         <v>85</v>
       </c>
       <c r="L1301" s="5" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1302" spans="1:12" x14ac:dyDescent="0.3">
@@ -27909,7 +28077,7 @@
         <v>924</v>
       </c>
       <c r="F1312" s="2" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1313" spans="1:12" x14ac:dyDescent="0.3">
@@ -28019,13 +28187,13 @@
         <v>1855</v>
       </c>
       <c r="G1319" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I1319" s="2">
         <v>48.2</v>
       </c>
       <c r="L1319" s="5" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1320" spans="1:12" x14ac:dyDescent="0.3">
@@ -28487,7 +28655,7 @@
         <v>31</v>
       </c>
       <c r="L1349" s="5" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1350" spans="1:12" x14ac:dyDescent="0.3">
@@ -30155,7 +30323,7 @@
         <v>1827</v>
       </c>
       <c r="F1460" s="2" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="G1460" s="2">
         <v>23</v>
@@ -30192,13 +30360,13 @@
         <v>1884</v>
       </c>
       <c r="F1462" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="G1462" s="2">
         <v>65</v>
       </c>
       <c r="L1462" s="5" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1463" spans="1:12" x14ac:dyDescent="0.3">
@@ -30365,7 +30533,7 @@
         <v>1874</v>
       </c>
       <c r="L1472" s="5" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1473" spans="1:7" x14ac:dyDescent="0.3">
@@ -30595,7 +30763,7 @@
         <v>1693</v>
       </c>
       <c r="F1488" s="2" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="G1488" s="2">
         <v>34</v>
@@ -30646,13 +30814,13 @@
         <v>1778</v>
       </c>
       <c r="F1491" s="2" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="G1491" s="2">
         <v>61</v>
       </c>
       <c r="L1491" s="5" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1492" spans="1:12" x14ac:dyDescent="0.3">
@@ -30897,7 +31065,7 @@
         <v>120</v>
       </c>
       <c r="L1507" s="5" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1508" spans="1:12" x14ac:dyDescent="0.3">
@@ -30987,16 +31155,16 @@
         <v>924</v>
       </c>
       <c r="E1513" s="2" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="F1513" s="2" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="G1513" s="2">
         <v>100</v>
       </c>
       <c r="L1513" s="5" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1514" spans="1:12" x14ac:dyDescent="0.3">
@@ -31086,13 +31254,13 @@
         <v>1782</v>
       </c>
       <c r="F1519" s="4" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="G1519" s="2">
         <v>850</v>
       </c>
       <c r="L1519" s="5" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1520" spans="1:12" x14ac:dyDescent="0.3">
@@ -31354,7 +31522,7 @@
         <v>1691</v>
       </c>
       <c r="F1536" s="4" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="H1536" s="2">
         <v>150</v>
@@ -31470,7 +31638,7 @@
         <v>924</v>
       </c>
       <c r="F1543" s="2" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1544" spans="1:12" x14ac:dyDescent="0.3">
@@ -31487,7 +31655,7 @@
         <v>924</v>
       </c>
       <c r="E1544" s="2" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1545" spans="1:12" x14ac:dyDescent="0.3">
@@ -32052,7 +32220,7 @@
         <v>924</v>
       </c>
       <c r="E1582" s="4" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="G1582" s="2">
         <v>81</v>
@@ -32165,7 +32333,7 @@
         <v>1757</v>
       </c>
       <c r="L1589" s="5" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1590" spans="1:12" x14ac:dyDescent="0.3">
@@ -32224,7 +32392,7 @@
         <v>924</v>
       </c>
       <c r="E1593" s="2" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1594" spans="1:12" x14ac:dyDescent="0.3">
@@ -32466,7 +32634,7 @@
         <v>924</v>
       </c>
       <c r="E1609" s="2" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="1610" spans="1:7" x14ac:dyDescent="0.3">
@@ -32739,7 +32907,7 @@
         <v>25</v>
       </c>
       <c r="L1627" s="5" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1628" spans="1:12" x14ac:dyDescent="0.3">
@@ -32874,16 +33042,16 @@
         <v>924</v>
       </c>
       <c r="E1636" s="2" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="F1636" s="4" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="G1636" s="2">
         <v>550</v>
       </c>
       <c r="L1636" s="5" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="1637" spans="1:12" x14ac:dyDescent="0.3">
@@ -32900,10 +33068,10 @@
         <v>924</v>
       </c>
       <c r="E1637" s="2" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="F1637" s="2" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G1637" s="2">
         <v>55</v>
@@ -32937,7 +33105,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1640" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1640" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A1640" s="3">
         <v>8358</v>
       </c>
@@ -32951,7 +33119,10 @@
         <v>924</v>
       </c>
       <c r="E1640" s="2" t="s">
-        <v>1957</v>
+        <v>2125</v>
+      </c>
+      <c r="L1640" s="5" t="s">
+        <v>2126</v>
       </c>
     </row>
     <row r="1641" spans="1:12" x14ac:dyDescent="0.3">
@@ -33489,7 +33660,7 @@
         <v>924</v>
       </c>
       <c r="E1678" s="2" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="F1678" s="2" t="s">
         <v>1869</v>
@@ -33498,7 +33669,7 @@
         <v>100</v>
       </c>
       <c r="L1678" s="5" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1679" spans="1:12" x14ac:dyDescent="0.3">
@@ -33587,6 +33758,15 @@
       <c r="D1684" s="2" t="s">
         <v>924</v>
       </c>
+      <c r="E1684" s="2" t="s">
+        <v>2130</v>
+      </c>
+      <c r="F1684" s="2" t="s">
+        <v>2128</v>
+      </c>
+      <c r="G1684" s="2">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="1685" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1685" s="3">
@@ -33658,10 +33838,10 @@
         <v>924</v>
       </c>
       <c r="E1689" s="2" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="F1689" s="4" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="G1689" s="2">
         <v>60</v>
@@ -33737,10 +33917,10 @@
         <v>924</v>
       </c>
       <c r="E1694" s="2" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="F1694" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="G1694" s="2">
         <v>90</v>
@@ -33803,9 +33983,10 @@
   <hyperlinks>
     <hyperlink ref="M1057" r:id="rId1" xr:uid="{383C5809-0EBA-460F-96C7-1CCC7D4C612C}"/>
     <hyperlink ref="M1169" r:id="rId2" xr:uid="{3CF023B0-53A4-40C3-80B2-572834BD27FD}"/>
+    <hyperlink ref="M116" r:id="rId3" xr:uid="{6B45404D-48C5-451C-BDA0-477D7AF21A0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D40316-09AC-4225-9330-D555FD592A14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8CD8F7-AE14-4F0F-B3EA-473A047BEA24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="2131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5851" uniqueCount="2132">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7044,6 +7044,11 @@
   </si>
   <si>
     <t>紡織</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亞信Q1每股賺1.12元
+2021 全年 5塊?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7595,8 +7600,8 @@
   <dimension ref="A1:M1697"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1676" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1685" sqref="G1685"/>
+      <pane ySplit="1" topLeftCell="A1011" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1020" sqref="L1020"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -23637,7 +23642,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1019" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A1019" s="3">
         <v>3169</v>
       </c>
@@ -23649,6 +23654,15 @@
       </c>
       <c r="D1019" s="2" t="s">
         <v>924</v>
+      </c>
+      <c r="E1019" s="2" t="s">
+        <v>2127</v>
+      </c>
+      <c r="F1019" s="2" t="s">
+        <v>2128</v>
+      </c>
+      <c r="L1019" s="5" t="s">
+        <v>2131</v>
       </c>
     </row>
     <row r="1020" spans="1:12" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8CD8F7-AE14-4F0F-B3EA-473A047BEA24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67C0BF1-7321-4207-A6DD-0C6DCF26FFC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7600,8 +7600,8 @@
   <dimension ref="A1:M1697"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1011" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1020" sqref="L1020"/>
+      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G348" sqref="G348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -13143,7 +13143,7 @@
         <v>1855</v>
       </c>
       <c r="G347" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L347" s="5" t="s">
         <v>2031</v>
@@ -24252,6 +24252,9 @@
       </c>
       <c r="G1057" s="2">
         <v>720</v>
+      </c>
+      <c r="I1057" s="2">
+        <v>721</v>
       </c>
       <c r="L1057" s="7" t="s">
         <v>2071</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67C0BF1-7321-4207-A6DD-0C6DCF26FFC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7B376B-3F68-42D9-86CF-444E888511D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7600,8 +7600,8 @@
   <dimension ref="A1:M1697"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G348" sqref="G348"/>
+      <pane ySplit="1" topLeftCell="A529" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I537" sqref="I537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -11090,6 +11090,9 @@
       <c r="F224" s="4" t="s">
         <v>2086</v>
       </c>
+      <c r="I224" s="2">
+        <v>75</v>
+      </c>
       <c r="L224" s="5" t="s">
         <v>2080</v>
       </c>
@@ -16105,9 +16108,6 @@
       <c r="G535" s="2">
         <v>95</v>
       </c>
-      <c r="I535" s="2">
-        <v>109</v>
-      </c>
       <c r="L535" s="5" t="s">
         <v>2107</v>
       </c>
@@ -24252,9 +24252,6 @@
       </c>
       <c r="G1057" s="2">
         <v>720</v>
-      </c>
-      <c r="I1057" s="2">
-        <v>721</v>
       </c>
       <c r="L1057" s="7" t="s">
         <v>2071</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7B376B-3F68-42D9-86CF-444E888511D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4AEBA5-8583-45FB-B379-7ADDF0A77436}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5851" uniqueCount="2132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5854" uniqueCount="2134">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6832,10 +6832,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新光鋼第1季合併獲利6.19億元，每股稅後2.00元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7049,6 +7045,19 @@
   <si>
     <t>亞信Q1每股賺1.12元
 2021 全年 5塊?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑膠</t>
+  </si>
+  <si>
+    <t>殖利率夠 (6%)
+2021Q1 估 1塊，今年漲價
+製鞋(發泡級EVA)、太陽能(光伏級EVA)需求都維持暢旺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大陸收回補貼，所以，漲價是必然的。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7600,8 +7609,8 @@
   <dimension ref="A1:M1697"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A529" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I537" sqref="I537"/>
+      <pane ySplit="1" topLeftCell="A1049" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1058" sqref="G1058"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7612,7 +7621,7 @@
     <col min="4" max="4" width="8.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.625" style="6" bestFit="1" customWidth="1"/>
@@ -8191,7 +8200,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>1308</v>
       </c>
@@ -8203,6 +8212,18 @@
       </c>
       <c r="D34" s="2" t="s">
         <v>924</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>2096</v>
+      </c>
+      <c r="I34" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>2132</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -9453,16 +9474,16 @@
         <v>924</v>
       </c>
       <c r="E116" s="2" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="L116" s="5" t="s">
         <v>2109</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>2111</v>
-      </c>
-      <c r="L116" s="5" t="s">
-        <v>2110</v>
-      </c>
       <c r="M116" s="25" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
@@ -9628,16 +9649,16 @@
         <v>924</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="G127" s="2">
         <v>140</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
@@ -9710,7 +9731,7 @@
         <v>924</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -10248,7 +10269,7 @@
         <v>1822</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="G167" s="2">
         <v>36</v>
@@ -11088,13 +11109,16 @@
         <v>924</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
+      </c>
+      <c r="G224" s="2">
+        <v>72</v>
       </c>
       <c r="I224" s="2">
         <v>75</v>
       </c>
       <c r="L224" s="5" t="s">
-        <v>2080</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -11906,7 +11930,7 @@
         <v>1775</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G273" s="2">
         <v>585</v>
@@ -11977,16 +12001,16 @@
         <v>924</v>
       </c>
       <c r="E277" s="2" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F277" s="2" t="s">
         <v>2127</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>2128</v>
       </c>
       <c r="G277" s="2">
         <v>70</v>
       </c>
       <c r="L277" s="5" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -12218,7 +12242,7 @@
         <v>1737</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G291" s="2">
         <v>330</v>
@@ -12476,7 +12500,7 @@
         <v>1737</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="L306" s="5" t="s">
         <v>1847</v>
@@ -12499,7 +12523,7 @@
         <v>1737</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="L307" s="5" t="s">
         <v>1847</v>
@@ -13022,7 +13046,7 @@
         <v>924</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.3">
@@ -13276,7 +13300,7 @@
         <v>45</v>
       </c>
       <c r="L355" s="5" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -13358,10 +13382,10 @@
         <v>924</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G360" s="2">
         <v>110</v>
@@ -13370,7 +13394,7 @@
         <v>121</v>
       </c>
       <c r="L360" s="5" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -13390,7 +13414,7 @@
         <v>1743</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G361" s="2">
         <v>70</v>
@@ -13430,7 +13454,7 @@
         <v>1832</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G363" s="2">
         <v>170</v>
@@ -13786,7 +13810,7 @@
         <v>1835</v>
       </c>
       <c r="F385" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
@@ -13817,10 +13841,10 @@
         <v>924</v>
       </c>
       <c r="E387" s="2" t="s">
+        <v>2111</v>
+      </c>
+      <c r="F387" s="2" t="s">
         <v>2112</v>
-      </c>
-      <c r="F387" s="2" t="s">
-        <v>2113</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
@@ -15913,13 +15937,16 @@
         <v>924</v>
       </c>
       <c r="E524" s="2" t="s">
+        <v>2113</v>
+      </c>
+      <c r="F524" s="4" t="s">
+        <v>2115</v>
+      </c>
+      <c r="G524" s="2">
+        <v>130</v>
+      </c>
+      <c r="L524" s="5" t="s">
         <v>2114</v>
-      </c>
-      <c r="F524" s="4" t="s">
-        <v>2116</v>
-      </c>
-      <c r="L524" s="5" t="s">
-        <v>2115</v>
       </c>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.3">
@@ -15939,7 +15966,7 @@
         <v>1749</v>
       </c>
       <c r="F525" s="2" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.3">
@@ -16100,7 +16127,7 @@
         <v>924</v>
       </c>
       <c r="E535" s="4" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>1874</v>
@@ -16109,7 +16136,7 @@
         <v>95</v>
       </c>
       <c r="L535" s="5" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.3">
@@ -16804,7 +16831,7 @@
         <v>1798</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="I581" s="2">
         <v>552</v>
@@ -17479,7 +17506,7 @@
         <v>1981</v>
       </c>
       <c r="F623" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="G623" s="2">
         <v>120</v>
@@ -20436,13 +20463,13 @@
         <v>1966</v>
       </c>
       <c r="F810" s="2" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="G810" s="2">
         <v>266</v>
       </c>
       <c r="L810" s="5" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="811" spans="1:12" x14ac:dyDescent="0.3">
@@ -21029,7 +21056,7 @@
         <v>924</v>
       </c>
       <c r="E847" s="4" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="848" spans="1:12" x14ac:dyDescent="0.3">
@@ -23377,7 +23404,7 @@
         <v>1773</v>
       </c>
       <c r="F1001" s="2" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="I1001" s="2">
         <v>165</v>
@@ -23465,7 +23492,7 @@
         <v>924</v>
       </c>
       <c r="E1006" s="2" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1007" spans="1:12" x14ac:dyDescent="0.3">
@@ -23656,13 +23683,13 @@
         <v>924</v>
       </c>
       <c r="E1019" s="2" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F1019" s="2" t="s">
         <v>2127</v>
       </c>
-      <c r="F1019" s="2" t="s">
-        <v>2128</v>
-      </c>
       <c r="L1019" s="5" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1020" spans="1:12" x14ac:dyDescent="0.3">
@@ -24248,10 +24275,10 @@
         <v>1755</v>
       </c>
       <c r="F1057" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="G1057" s="2">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="L1057" s="7" t="s">
         <v>2071</v>
@@ -24386,10 +24413,10 @@
         <v>924</v>
       </c>
       <c r="E1066" s="2" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F1066" s="4" t="s">
         <v>2089</v>
-      </c>
-      <c r="F1066" s="4" t="s">
-        <v>2090</v>
       </c>
       <c r="G1066" s="2">
         <v>50</v>
@@ -24677,7 +24704,7 @@
         <v>924</v>
       </c>
       <c r="E1084" s="2" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1085" spans="1:7" x14ac:dyDescent="0.3">
@@ -26421,10 +26448,10 @@
         <v>924</v>
       </c>
       <c r="F1200" s="2" t="s">
+        <v>2122</v>
+      </c>
+      <c r="L1200" s="5" t="s">
         <v>2123</v>
-      </c>
-      <c r="L1200" s="5" t="s">
-        <v>2124</v>
       </c>
     </row>
     <row r="1201" spans="1:4" x14ac:dyDescent="0.3">
@@ -27226,13 +27253,13 @@
         <v>924</v>
       </c>
       <c r="F1256" s="2" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="G1256" s="2">
         <v>42</v>
       </c>
       <c r="L1256" s="5" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1257" spans="1:12" ht="45" x14ac:dyDescent="0.3">
@@ -27891,10 +27918,10 @@
         <v>924</v>
       </c>
       <c r="E1299" s="2" t="s">
+        <v>2121</v>
+      </c>
+      <c r="F1299" s="2" t="s">
         <v>2122</v>
-      </c>
-      <c r="F1299" s="2" t="s">
-        <v>2123</v>
       </c>
     </row>
     <row r="1300" spans="1:12" x14ac:dyDescent="0.3">
@@ -28091,7 +28118,7 @@
         <v>924</v>
       </c>
       <c r="F1312" s="2" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1313" spans="1:12" x14ac:dyDescent="0.3">
@@ -30337,7 +30364,7 @@
         <v>1827</v>
       </c>
       <c r="F1460" s="2" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G1460" s="2">
         <v>23</v>
@@ -30374,13 +30401,13 @@
         <v>1884</v>
       </c>
       <c r="F1462" s="4" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G1462" s="2">
         <v>65</v>
       </c>
       <c r="L1462" s="5" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1463" spans="1:12" x14ac:dyDescent="0.3">
@@ -30777,7 +30804,7 @@
         <v>1693</v>
       </c>
       <c r="F1488" s="2" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="G1488" s="2">
         <v>34</v>
@@ -31169,16 +31196,16 @@
         <v>924</v>
       </c>
       <c r="E1513" s="2" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="F1513" s="2" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="G1513" s="2">
         <v>100</v>
       </c>
       <c r="L1513" s="5" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1514" spans="1:12" x14ac:dyDescent="0.3">
@@ -31268,7 +31295,7 @@
         <v>1782</v>
       </c>
       <c r="F1519" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="G1519" s="2">
         <v>850</v>
@@ -31536,7 +31563,7 @@
         <v>1691</v>
       </c>
       <c r="F1536" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="H1536" s="2">
         <v>150</v>
@@ -31652,7 +31679,7 @@
         <v>924</v>
       </c>
       <c r="F1543" s="2" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1544" spans="1:12" x14ac:dyDescent="0.3">
@@ -32648,7 +32675,7 @@
         <v>924</v>
       </c>
       <c r="E1609" s="2" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1610" spans="1:7" x14ac:dyDescent="0.3">
@@ -33059,7 +33086,7 @@
         <v>1991</v>
       </c>
       <c r="F1636" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="G1636" s="2">
         <v>550</v>
@@ -33133,10 +33160,10 @@
         <v>924</v>
       </c>
       <c r="E1640" s="2" t="s">
+        <v>2124</v>
+      </c>
+      <c r="L1640" s="5" t="s">
         <v>2125</v>
-      </c>
-      <c r="L1640" s="5" t="s">
-        <v>2126</v>
       </c>
     </row>
     <row r="1641" spans="1:12" x14ac:dyDescent="0.3">
@@ -33773,10 +33800,10 @@
         <v>924</v>
       </c>
       <c r="E1684" s="2" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="F1684" s="2" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="G1684" s="2">
         <v>18.5</v>
@@ -33855,7 +33882,7 @@
         <v>1988</v>
       </c>
       <c r="F1689" s="4" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="G1689" s="2">
         <v>60</v>
@@ -33931,10 +33958,10 @@
         <v>924</v>
       </c>
       <c r="E1694" s="2" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="F1694" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="G1694" s="2">
         <v>90</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4AEBA5-8583-45FB-B379-7ADDF0A77436}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD056E7-249C-42C6-8F82-AF27C8E5F259}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6745,10 +6745,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>營收要上3E 才有看頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PChome 網路家庭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7058,6 +7054,11 @@
   </si>
   <si>
     <t>大陸收回補貼，所以，漲價是必然的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營收要上3E 才有看頭
+廣錠Q1營運落底 每股虧1.16元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7609,8 +7610,8 @@
   <dimension ref="A1:M1697"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1049" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1058" sqref="G1058"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G286" sqref="G286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8214,16 +8215,16 @@
         <v>924</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="I34" s="2">
         <v>29.5</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -9327,7 +9328,7 @@
       </c>
       <c r="K107" s="4"/>
       <c r="L107" s="5" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -9474,16 +9475,16 @@
         <v>924</v>
       </c>
       <c r="E116" s="2" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>2109</v>
+      </c>
+      <c r="L116" s="5" t="s">
         <v>2108</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>2110</v>
-      </c>
-      <c r="L116" s="5" t="s">
-        <v>2109</v>
-      </c>
       <c r="M116" s="25" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
@@ -9649,16 +9650,16 @@
         <v>924</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="G127" s="2">
         <v>140</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
@@ -9731,7 +9732,7 @@
         <v>924</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -10269,7 +10270,7 @@
         <v>1822</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G167" s="2">
         <v>36</v>
@@ -10746,7 +10747,7 @@
         <v>1905</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>3</v>
@@ -11109,7 +11110,7 @@
         <v>924</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G224" s="2">
         <v>72</v>
@@ -11118,7 +11119,7 @@
         <v>75</v>
       </c>
       <c r="L224" s="5" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -11541,13 +11542,13 @@
         <v>1774</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G251" s="2">
         <v>100</v>
       </c>
       <c r="L251" s="5" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
@@ -11850,7 +11851,7 @@
         <v>924</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
@@ -11870,7 +11871,7 @@
         <v>1743</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="G270" s="2">
         <v>540</v>
@@ -11930,7 +11931,7 @@
         <v>1775</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="G273" s="2">
         <v>585</v>
@@ -12001,16 +12002,16 @@
         <v>924</v>
       </c>
       <c r="E277" s="2" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F277" s="2" t="s">
         <v>2126</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>2127</v>
       </c>
       <c r="G277" s="2">
         <v>70</v>
       </c>
       <c r="L277" s="5" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -12142,6 +12143,9 @@
       <c r="F285" s="2" t="s">
         <v>1874</v>
       </c>
+      <c r="G285" s="2">
+        <v>65</v>
+      </c>
       <c r="L285" s="5" t="s">
         <v>1812</v>
       </c>
@@ -12242,7 +12246,7 @@
         <v>1737</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="G291" s="2">
         <v>330</v>
@@ -12500,7 +12504,7 @@
         <v>1737</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="L306" s="5" t="s">
         <v>1847</v>
@@ -12523,7 +12527,7 @@
         <v>1737</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="L307" s="5" t="s">
         <v>1847</v>
@@ -12580,7 +12584,7 @@
         <v>924</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>1874</v>
@@ -13046,7 +13050,7 @@
         <v>924</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.3">
@@ -13300,7 +13304,7 @@
         <v>45</v>
       </c>
       <c r="L355" s="5" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -13382,10 +13386,10 @@
         <v>924</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="G360" s="2">
         <v>110</v>
@@ -13394,7 +13398,7 @@
         <v>121</v>
       </c>
       <c r="L360" s="5" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -13414,7 +13418,7 @@
         <v>1743</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="G361" s="2">
         <v>70</v>
@@ -13454,7 +13458,7 @@
         <v>1832</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="G363" s="2">
         <v>170</v>
@@ -13810,7 +13814,7 @@
         <v>1835</v>
       </c>
       <c r="F385" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
@@ -13841,10 +13845,10 @@
         <v>924</v>
       </c>
       <c r="E387" s="2" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F387" s="2" t="s">
         <v>2111</v>
-      </c>
-      <c r="F387" s="2" t="s">
-        <v>2112</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
@@ -15937,16 +15941,16 @@
         <v>924</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="F524" s="4" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="G524" s="2">
         <v>130</v>
       </c>
       <c r="L524" s="5" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.3">
@@ -15966,7 +15970,7 @@
         <v>1749</v>
       </c>
       <c r="F525" s="2" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.3">
@@ -16127,7 +16131,7 @@
         <v>924</v>
       </c>
       <c r="E535" s="4" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>1874</v>
@@ -16136,7 +16140,7 @@
         <v>95</v>
       </c>
       <c r="L535" s="5" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.3">
@@ -16831,7 +16835,7 @@
         <v>1798</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="I581" s="2">
         <v>552</v>
@@ -17506,7 +17510,7 @@
         <v>1981</v>
       </c>
       <c r="F623" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G623" s="2">
         <v>120</v>
@@ -20463,13 +20467,13 @@
         <v>1966</v>
       </c>
       <c r="F810" s="2" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="G810" s="2">
         <v>266</v>
       </c>
       <c r="L810" s="5" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="811" spans="1:12" x14ac:dyDescent="0.3">
@@ -21056,7 +21060,7 @@
         <v>924</v>
       </c>
       <c r="E847" s="4" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="848" spans="1:12" x14ac:dyDescent="0.3">
@@ -23404,13 +23408,13 @@
         <v>1773</v>
       </c>
       <c r="F1001" s="2" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="I1001" s="2">
         <v>165</v>
       </c>
       <c r="L1001" s="5" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1002" spans="1:12" x14ac:dyDescent="0.3">
@@ -23492,7 +23496,7 @@
         <v>924</v>
       </c>
       <c r="E1006" s="2" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="1007" spans="1:12" x14ac:dyDescent="0.3">
@@ -23683,13 +23687,13 @@
         <v>924</v>
       </c>
       <c r="E1019" s="2" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F1019" s="2" t="s">
         <v>2126</v>
       </c>
-      <c r="F1019" s="2" t="s">
-        <v>2127</v>
-      </c>
       <c r="L1019" s="5" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="1020" spans="1:12" x14ac:dyDescent="0.3">
@@ -24275,13 +24279,13 @@
         <v>1755</v>
       </c>
       <c r="F1057" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="G1057" s="2">
         <v>740</v>
       </c>
       <c r="L1057" s="7" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="M1057" s="25" t="s">
         <v>1954</v>
@@ -24413,10 +24417,10 @@
         <v>924</v>
       </c>
       <c r="E1066" s="2" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F1066" s="4" t="s">
         <v>2088</v>
-      </c>
-      <c r="F1066" s="4" t="s">
-        <v>2089</v>
       </c>
       <c r="G1066" s="2">
         <v>50</v>
@@ -24439,13 +24443,13 @@
         <v>1693</v>
       </c>
       <c r="F1067" s="4" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G1067" s="2">
         <v>150</v>
       </c>
       <c r="L1067" s="5" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="1068" spans="1:13" x14ac:dyDescent="0.3">
@@ -24509,7 +24513,7 @@
         <v>3360</v>
       </c>
       <c r="B1072" s="1" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C1072" s="2" t="s">
         <v>1682</v>
@@ -24521,7 +24525,7 @@
         <v>1862</v>
       </c>
       <c r="F1072" s="2" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="L1072" s="5" t="s">
         <v>1861</v>
@@ -24704,7 +24708,7 @@
         <v>924</v>
       </c>
       <c r="E1084" s="2" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1085" spans="1:7" x14ac:dyDescent="0.3">
@@ -25214,7 +25218,7 @@
         <v>180</v>
       </c>
       <c r="L1117" s="7" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="1118" spans="1:12" x14ac:dyDescent="0.3">
@@ -26448,10 +26452,10 @@
         <v>924</v>
       </c>
       <c r="F1200" s="2" t="s">
+        <v>2121</v>
+      </c>
+      <c r="L1200" s="5" t="s">
         <v>2122</v>
-      </c>
-      <c r="L1200" s="5" t="s">
-        <v>2123</v>
       </c>
     </row>
     <row r="1201" spans="1:4" x14ac:dyDescent="0.3">
@@ -27253,13 +27257,13 @@
         <v>924</v>
       </c>
       <c r="F1256" s="2" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="G1256" s="2">
         <v>42</v>
       </c>
       <c r="L1256" s="5" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1257" spans="1:12" ht="45" x14ac:dyDescent="0.3">
@@ -27918,10 +27922,10 @@
         <v>924</v>
       </c>
       <c r="E1299" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F1299" s="2" t="s">
         <v>2121</v>
-      </c>
-      <c r="F1299" s="2" t="s">
-        <v>2122</v>
       </c>
     </row>
     <row r="1300" spans="1:12" x14ac:dyDescent="0.3">
@@ -28118,7 +28122,7 @@
         <v>924</v>
       </c>
       <c r="F1312" s="2" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1313" spans="1:12" x14ac:dyDescent="0.3">
@@ -30364,7 +30368,7 @@
         <v>1827</v>
       </c>
       <c r="F1460" s="2" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="G1460" s="2">
         <v>23</v>
@@ -30401,13 +30405,13 @@
         <v>1884</v>
       </c>
       <c r="F1462" s="4" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="G1462" s="2">
         <v>65</v>
       </c>
       <c r="L1462" s="5" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1463" spans="1:12" x14ac:dyDescent="0.3">
@@ -30804,7 +30808,7 @@
         <v>1693</v>
       </c>
       <c r="F1488" s="2" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="G1488" s="2">
         <v>34</v>
@@ -31083,7 +31087,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1507" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1507" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A1507" s="3">
         <v>6441</v>
       </c>
@@ -31102,11 +31106,8 @@
       <c r="F1507" s="2" t="s">
         <v>1874</v>
       </c>
-      <c r="G1507" s="2">
-        <v>120</v>
-      </c>
       <c r="L1507" s="5" t="s">
-        <v>2061</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1508" spans="1:12" x14ac:dyDescent="0.3">
@@ -31196,16 +31197,16 @@
         <v>924</v>
       </c>
       <c r="E1513" s="2" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="F1513" s="2" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="G1513" s="2">
         <v>100</v>
       </c>
       <c r="L1513" s="5" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1514" spans="1:12" x14ac:dyDescent="0.3">
@@ -31295,13 +31296,13 @@
         <v>1782</v>
       </c>
       <c r="F1519" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="G1519" s="2">
         <v>850</v>
       </c>
       <c r="L1519" s="5" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="1520" spans="1:12" x14ac:dyDescent="0.3">
@@ -31563,7 +31564,7 @@
         <v>1691</v>
       </c>
       <c r="F1536" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="H1536" s="2">
         <v>150</v>
@@ -31679,7 +31680,7 @@
         <v>924</v>
       </c>
       <c r="F1543" s="2" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1544" spans="1:12" x14ac:dyDescent="0.3">
@@ -32374,7 +32375,7 @@
         <v>1757</v>
       </c>
       <c r="L1589" s="5" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1590" spans="1:12" x14ac:dyDescent="0.3">
@@ -32675,7 +32676,7 @@
         <v>924</v>
       </c>
       <c r="E1609" s="2" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="1610" spans="1:7" x14ac:dyDescent="0.3">
@@ -33086,13 +33087,13 @@
         <v>1991</v>
       </c>
       <c r="F1636" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="G1636" s="2">
         <v>550</v>
       </c>
       <c r="L1636" s="5" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1637" spans="1:12" x14ac:dyDescent="0.3">
@@ -33160,10 +33161,10 @@
         <v>924</v>
       </c>
       <c r="E1640" s="2" t="s">
+        <v>2123</v>
+      </c>
+      <c r="L1640" s="5" t="s">
         <v>2124</v>
-      </c>
-      <c r="L1640" s="5" t="s">
-        <v>2125</v>
       </c>
     </row>
     <row r="1641" spans="1:12" x14ac:dyDescent="0.3">
@@ -33710,7 +33711,7 @@
         <v>100</v>
       </c>
       <c r="L1678" s="5" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="1679" spans="1:12" x14ac:dyDescent="0.3">
@@ -33800,10 +33801,10 @@
         <v>924</v>
       </c>
       <c r="E1684" s="2" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="F1684" s="2" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="G1684" s="2">
         <v>18.5</v>
@@ -33882,7 +33883,7 @@
         <v>1988</v>
       </c>
       <c r="F1689" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="G1689" s="2">
         <v>60</v>
@@ -33958,10 +33959,10 @@
         <v>924</v>
       </c>
       <c r="E1694" s="2" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="F1694" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G1694" s="2">
         <v>90</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD056E7-249C-42C6-8F82-AF27C8E5F259}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1093C76-BA70-4810-A997-E7D1DBDFDC7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5854" uniqueCount="2134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5852" uniqueCount="2128">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6857,29 +6857,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>核心
-短期注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鋰電池</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>衛星
-短期注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年年都配股</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>衛星
-短期注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生醫股</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6893,10 +6878,6 @@
   </si>
   <si>
     <t>國碳科主生產防火材料、防火塗料、防火工程、阻燃劑等，外銷比重約68％。國碳科持續推展北美、大陸及中東市場；占地約二千坪蘆竹廠辦合一新廠加入量產行列，搭配原有一廠生產支應未來三年接單成長。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短期注意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6973,15 +6954,6 @@
   </si>
   <si>
     <t>Q1每股賺3.45元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衛星
-長期注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短期注意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7610,8 +7582,8 @@
   <dimension ref="A1:M1697"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G286" sqref="G286"/>
+      <pane ySplit="1" topLeftCell="A1416" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1424" sqref="F1424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8215,16 +8187,16 @@
         <v>924</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>2130</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>2095</v>
+        <v>2124</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>2084</v>
       </c>
       <c r="I34" s="2">
         <v>29.5</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>2131</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -9475,16 +9447,16 @@
         <v>924</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="M116" s="25" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
@@ -9650,16 +9622,16 @@
         <v>924</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>2116</v>
+        <v>2110</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>2118</v>
+        <v>2112</v>
       </c>
       <c r="G127" s="2">
         <v>140</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>2117</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
@@ -9732,7 +9704,7 @@
         <v>924</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>2119</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -10270,7 +10242,7 @@
         <v>1822</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
       <c r="G167" s="2">
         <v>36</v>
@@ -11119,7 +11091,7 @@
         <v>75</v>
       </c>
       <c r="L224" s="5" t="s">
-        <v>2132</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -12002,16 +11974,16 @@
         <v>924</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>2125</v>
+        <v>2119</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
       <c r="G277" s="2">
         <v>70</v>
       </c>
       <c r="L277" s="5" t="s">
-        <v>2127</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -13049,9 +13021,6 @@
       <c r="D339" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="F339" s="2" t="s">
-        <v>2095</v>
-      </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
@@ -13386,7 +13355,7 @@
         <v>924</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>2081</v>
@@ -13398,7 +13367,7 @@
         <v>121</v>
       </c>
       <c r="L360" s="5" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -13797,7 +13766,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="3">
         <v>2486</v>
       </c>
@@ -13814,7 +13783,7 @@
         <v>1835</v>
       </c>
       <c r="F385" s="4" t="s">
-        <v>2084</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
@@ -13845,10 +13814,10 @@
         <v>924</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
@@ -15941,16 +15910,16 @@
         <v>924</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="F524" s="4" t="s">
-        <v>2114</v>
+        <v>2084</v>
       </c>
       <c r="G524" s="2">
         <v>130</v>
       </c>
       <c r="L524" s="5" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.3">
@@ -15969,9 +15938,6 @@
       <c r="E525" s="2" t="s">
         <v>1749</v>
       </c>
-      <c r="F525" s="2" t="s">
-        <v>2115</v>
-      </c>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A526" s="3">
@@ -16131,7 +16097,7 @@
         <v>924</v>
       </c>
       <c r="E535" s="4" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>1874</v>
@@ -16140,7 +16106,7 @@
         <v>95</v>
       </c>
       <c r="L535" s="5" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.3">
@@ -16835,7 +16801,7 @@
         <v>1798</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="I581" s="2">
         <v>552</v>
@@ -17493,7 +17459,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="623" spans="1:12" ht="30" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A623" s="3">
         <v>3679</v>
       </c>
@@ -17510,7 +17476,7 @@
         <v>1981</v>
       </c>
       <c r="F623" s="4" t="s">
-        <v>2084</v>
+        <v>1855</v>
       </c>
       <c r="G623" s="2">
         <v>120</v>
@@ -20467,13 +20433,13 @@
         <v>1966</v>
       </c>
       <c r="F810" s="2" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
       <c r="G810" s="2">
         <v>266</v>
       </c>
       <c r="L810" s="5" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="811" spans="1:12" x14ac:dyDescent="0.3">
@@ -21060,7 +21026,7 @@
         <v>924</v>
       </c>
       <c r="E847" s="4" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="848" spans="1:12" x14ac:dyDescent="0.3">
@@ -23496,7 +23462,7 @@
         <v>924</v>
       </c>
       <c r="E1006" s="2" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1007" spans="1:12" x14ac:dyDescent="0.3">
@@ -23687,13 +23653,13 @@
         <v>924</v>
       </c>
       <c r="E1019" s="2" t="s">
-        <v>2125</v>
+        <v>2119</v>
       </c>
       <c r="F1019" s="2" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
       <c r="L1019" s="5" t="s">
-        <v>2129</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1020" spans="1:12" x14ac:dyDescent="0.3">
@@ -24403,7 +24369,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1066" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="1066" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1066" s="3">
         <v>3323</v>
       </c>
@@ -24417,10 +24383,10 @@
         <v>924</v>
       </c>
       <c r="E1066" s="2" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F1066" s="4" t="s">
-        <v>2088</v>
+        <v>1855</v>
       </c>
       <c r="G1066" s="2">
         <v>50</v>
@@ -26452,10 +26418,10 @@
         <v>924</v>
       </c>
       <c r="F1200" s="2" t="s">
-        <v>2121</v>
+        <v>2115</v>
       </c>
       <c r="L1200" s="5" t="s">
-        <v>2122</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1201" spans="1:4" x14ac:dyDescent="0.3">
@@ -27257,13 +27223,13 @@
         <v>924</v>
       </c>
       <c r="F1256" s="2" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="G1256" s="2">
         <v>42</v>
       </c>
       <c r="L1256" s="5" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1257" spans="1:12" ht="45" x14ac:dyDescent="0.3">
@@ -27922,10 +27888,10 @@
         <v>924</v>
       </c>
       <c r="E1299" s="2" t="s">
-        <v>2120</v>
+        <v>2114</v>
       </c>
       <c r="F1299" s="2" t="s">
-        <v>2121</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="1300" spans="1:12" x14ac:dyDescent="0.3">
@@ -28122,7 +28088,7 @@
         <v>924</v>
       </c>
       <c r="F1312" s="2" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1313" spans="1:12" x14ac:dyDescent="0.3">
@@ -29797,7 +29763,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1423" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1423" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A1423" s="3">
         <v>6147</v>
       </c>
@@ -29813,8 +29779,8 @@
       <c r="E1423" s="2" t="s">
         <v>1924</v>
       </c>
-      <c r="F1423" s="2" t="s">
-        <v>1869</v>
+      <c r="F1423" s="4" t="s">
+        <v>2085</v>
       </c>
       <c r="G1423" s="2">
         <v>75</v>
@@ -30388,7 +30354,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1462" spans="1:12" ht="30" x14ac:dyDescent="0.3">
+    <row r="1462" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1462" s="3">
         <v>6221</v>
       </c>
@@ -30405,13 +30371,13 @@
         <v>1884</v>
       </c>
       <c r="F1462" s="4" t="s">
-        <v>2090</v>
+        <v>1855</v>
       </c>
       <c r="G1462" s="2">
         <v>65</v>
       </c>
       <c r="L1462" s="5" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1463" spans="1:12" x14ac:dyDescent="0.3">
@@ -30808,7 +30774,7 @@
         <v>1693</v>
       </c>
       <c r="F1488" s="2" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
       <c r="G1488" s="2">
         <v>34</v>
@@ -31107,7 +31073,7 @@
         <v>1874</v>
       </c>
       <c r="L1507" s="5" t="s">
-        <v>2133</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1508" spans="1:12" x14ac:dyDescent="0.3">
@@ -31197,16 +31163,16 @@
         <v>924</v>
       </c>
       <c r="E1513" s="2" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="F1513" s="2" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="G1513" s="2">
         <v>100</v>
       </c>
       <c r="L1513" s="5" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1514" spans="1:12" x14ac:dyDescent="0.3">
@@ -31296,7 +31262,7 @@
         <v>1782</v>
       </c>
       <c r="F1519" s="4" t="s">
-        <v>2085</v>
+        <v>1869</v>
       </c>
       <c r="G1519" s="2">
         <v>850</v>
@@ -31547,7 +31513,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="1536" spans="1:12" ht="30" x14ac:dyDescent="0.3">
+    <row r="1536" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1536" s="3">
         <v>6538</v>
       </c>
@@ -31564,7 +31530,7 @@
         <v>1691</v>
       </c>
       <c r="F1536" s="4" t="s">
-        <v>2085</v>
+        <v>1869</v>
       </c>
       <c r="H1536" s="2">
         <v>150</v>
@@ -31680,7 +31646,7 @@
         <v>924</v>
       </c>
       <c r="F1543" s="2" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1544" spans="1:12" x14ac:dyDescent="0.3">
@@ -32676,7 +32642,7 @@
         <v>924</v>
       </c>
       <c r="E1609" s="2" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1610" spans="1:7" x14ac:dyDescent="0.3">
@@ -33070,7 +33036,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1636" spans="1:12" ht="30" x14ac:dyDescent="0.3">
+    <row r="1636" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1636" s="3">
         <v>8299</v>
       </c>
@@ -33087,10 +33053,10 @@
         <v>1991</v>
       </c>
       <c r="F1636" s="4" t="s">
-        <v>2085</v>
+        <v>1869</v>
       </c>
       <c r="G1636" s="2">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="L1636" s="5" t="s">
         <v>2062</v>
@@ -33161,10 +33127,10 @@
         <v>924</v>
       </c>
       <c r="E1640" s="2" t="s">
-        <v>2123</v>
+        <v>2117</v>
       </c>
       <c r="L1640" s="5" t="s">
-        <v>2124</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1641" spans="1:12" x14ac:dyDescent="0.3">
@@ -33801,10 +33767,10 @@
         <v>924</v>
       </c>
       <c r="E1684" s="2" t="s">
-        <v>2128</v>
+        <v>2122</v>
       </c>
       <c r="F1684" s="2" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
       <c r="G1684" s="2">
         <v>18.5</v>
@@ -33866,7 +33832,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1689" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="1689" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1689" s="3">
         <v>8938</v>
       </c>
@@ -33883,7 +33849,7 @@
         <v>1988</v>
       </c>
       <c r="F1689" s="4" t="s">
-        <v>2086</v>
+        <v>1869</v>
       </c>
       <c r="G1689" s="2">
         <v>60</v>
@@ -33945,7 +33911,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1694" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="1694" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1694" s="3">
         <v>9951</v>
       </c>
@@ -33962,7 +33928,7 @@
         <v>2080</v>
       </c>
       <c r="F1694" s="4" t="s">
-        <v>2084</v>
+        <v>1855</v>
       </c>
       <c r="G1694" s="2">
         <v>90</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1093C76-BA70-4810-A997-E7D1DBDFDC7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE2FED0-6D14-413E-8241-6082B1DF0F3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7582,8 +7582,8 @@
   <dimension ref="A1:M1697"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1424" sqref="F1424"/>
+      <pane ySplit="1" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G536" sqref="G536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -16103,7 +16103,7 @@
         <v>1874</v>
       </c>
       <c r="G535" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L535" s="5" t="s">
         <v>2101</v>
@@ -29783,7 +29783,7 @@
         <v>2085</v>
       </c>
       <c r="G1423" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1424" spans="1:12" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE2FED0-6D14-413E-8241-6082B1DF0F3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E9D97B-C2DF-4750-A251-84BF373D488F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7582,8 +7582,8 @@
   <dimension ref="A1:M1697"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G536" sqref="G536"/>
+      <pane ySplit="1" topLeftCell="A1312" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1320" sqref="F1320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8192,9 +8192,6 @@
       <c r="F34" s="4" t="s">
         <v>2084</v>
       </c>
-      <c r="I34" s="2">
-        <v>29.5</v>
-      </c>
       <c r="L34" s="5" t="s">
         <v>2125</v>
       </c>
@@ -11087,9 +11084,6 @@
       <c r="G224" s="2">
         <v>72</v>
       </c>
-      <c r="I224" s="2">
-        <v>75</v>
-      </c>
       <c r="L224" s="5" t="s">
         <v>2126</v>
       </c>
@@ -13357,14 +13351,11 @@
       <c r="E360" s="4" t="s">
         <v>2096</v>
       </c>
-      <c r="F360" s="2" t="s">
-        <v>2081</v>
+      <c r="F360" s="4" t="s">
+        <v>2084</v>
       </c>
       <c r="G360" s="2">
-        <v>110</v>
-      </c>
-      <c r="I360" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="L360" s="5" t="s">
         <v>2094</v>
@@ -23377,7 +23368,7 @@
         <v>2083</v>
       </c>
       <c r="I1001" s="2">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="L1001" s="5" t="s">
         <v>2069</v>
@@ -28194,14 +28185,11 @@
       <c r="E1319" s="4" t="s">
         <v>1794</v>
       </c>
-      <c r="F1319" s="2" t="s">
-        <v>1855</v>
+      <c r="F1319" s="4" t="s">
+        <v>2084</v>
       </c>
       <c r="G1319" s="2">
-        <v>33</v>
-      </c>
-      <c r="I1319" s="2">
-        <v>48.2</v>
+        <v>32</v>
       </c>
       <c r="L1319" s="5" t="s">
         <v>2023</v>

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E9D97B-C2DF-4750-A251-84BF373D488F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A73423-F9F1-4623-A1BF-EB041671F5D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5852" uniqueCount="2128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5857" uniqueCount="2134">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6181,10 +6181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老師選</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鞋材</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6515,10 +6511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PCB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被動元件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6642,11 +6634,6 @@
   <si>
     <t>2021/01 EPS 1.1
 鈞興生產齒輪箱、粉末冶金齒輪及精密五金件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰鼎四大產品線包括HOME、通訊、PC、車用
-營收成長中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6780,17 +6767,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/12月自結稅後純益1,100萬元，每股純益0.81元，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真錢博奕
-月營收要守穩 10億
-單月 EPS 要有 8 塊
-鈊象2月稅前EPS為6.06元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>華紙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7031,6 +7007,59 @@
   <si>
     <t>營收要上3E 才有看頭
 廣錠Q1營運落底 每股虧1.16元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>華義列警示股 2月EPS0.64元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真錢博奕
+月營收要守穩 9億
+單月 EPS 要有 6 塊
+3月稅前EPS為5.66 元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觸控IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敦泰列注意股 2月每股盈餘1.17元
+毛利也有提昇
+2021 估 15?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛星
+短期注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不投資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 EPS 是負的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矽磊晶片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定存
+短期注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB
+短期注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰鼎四大產品線包括HOME、通訊、PC、車用
+泰鼎-KY第1季EPS0.81元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7582,8 +7611,8 @@
   <dimension ref="A1:M1697"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1312" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1320" sqref="F1320"/>
+      <pane ySplit="1" topLeftCell="A678" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L686" sqref="L686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7635,13 +7664,13 @@
         <v>1696</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>1683</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -7667,7 +7696,7 @@
         <v>40.5</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -7684,7 +7713,7 @@
         <v>924</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G3" s="2">
         <v>41</v>
@@ -7704,10 +7733,10 @@
         <v>924</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -7724,10 +7753,10 @@
         <v>924</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -7744,10 +7773,10 @@
         <v>924</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -7764,10 +7793,10 @@
         <v>924</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -7784,10 +7813,10 @@
         <v>924</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -8077,7 +8106,7 @@
         <v>924</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -8108,7 +8137,7 @@
         <v>924</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -8187,13 +8216,19 @@
         <v>924</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>2084</v>
+        <v>2079</v>
+      </c>
+      <c r="G34" s="2">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2">
+        <v>29.5</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -8339,7 +8374,7 @@
         <v>924</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -8387,7 +8422,7 @@
         <v>924</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -8531,10 +8566,10 @@
         <v>1788</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>1992</v>
+      </c>
+      <c r="L56" s="5" t="s">
         <v>1993</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -9173,7 +9208,7 @@
         <v>924</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>1742</v>
@@ -9182,7 +9217,7 @@
         <v>150</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -9250,7 +9285,7 @@
         <v>1800</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="G105" s="2">
         <v>51.5</v>
@@ -9297,7 +9332,7 @@
       </c>
       <c r="K107" s="4"/>
       <c r="L107" s="5" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -9371,7 +9406,7 @@
         <v>1855</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -9444,16 +9479,16 @@
         <v>924</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="M116" s="25" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
@@ -9619,16 +9654,16 @@
         <v>924</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>2112</v>
+        <v>2107</v>
       </c>
       <c r="G127" s="2">
         <v>140</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
@@ -9701,7 +9736,7 @@
         <v>924</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -9896,10 +9931,10 @@
         <v>924</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G144" s="2">
         <v>15</v>
@@ -10239,7 +10274,7 @@
         <v>1822</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="G167" s="2">
         <v>36</v>
@@ -10716,7 +10751,7 @@
         <v>1905</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>3</v>
@@ -10725,13 +10760,13 @@
         <v>924</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>1855</v>
       </c>
       <c r="L200" s="5" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -10972,13 +11007,13 @@
         <v>924</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>1855</v>
       </c>
       <c r="L217" s="5" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
@@ -11079,13 +11114,13 @@
         <v>924</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="G224" s="2">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L224" s="5" t="s">
-        <v>2126</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -11313,7 +11348,7 @@
         <v>924</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G239" s="2">
         <v>21</v>
@@ -11508,13 +11543,13 @@
         <v>1774</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="G251" s="2">
         <v>100</v>
       </c>
       <c r="L251" s="5" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
@@ -11601,7 +11636,7 @@
         <v>924</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G257" s="2">
         <v>55</v>
@@ -11638,7 +11673,7 @@
         <v>1776</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="G259" s="2">
         <v>51</v>
@@ -11684,7 +11719,7 @@
         <v>130</v>
       </c>
       <c r="L261" s="5" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
@@ -11763,7 +11798,7 @@
         <v>1779</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="G266" s="2">
         <v>101</v>
@@ -11817,7 +11852,7 @@
         <v>924</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
@@ -11837,7 +11872,7 @@
         <v>1743</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="G270" s="2">
         <v>540</v>
@@ -11897,7 +11932,7 @@
         <v>1775</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="G273" s="2">
         <v>585</v>
@@ -11948,7 +11983,7 @@
         <v>924</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>1874</v>
@@ -11968,16 +12003,16 @@
         <v>924</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="G277" s="2">
         <v>70</v>
       </c>
       <c r="L277" s="5" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -12212,7 +12247,7 @@
         <v>1737</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="G291" s="2">
         <v>330</v>
@@ -12232,13 +12267,13 @@
         <v>924</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G292" s="2">
         <v>13</v>
       </c>
       <c r="L292" s="5" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
@@ -12399,7 +12434,7 @@
         <v>25</v>
       </c>
       <c r="L302" s="5" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
@@ -12450,7 +12485,7 @@
         <v>1855</v>
       </c>
       <c r="L305" s="5" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
@@ -12470,7 +12505,7 @@
         <v>1737</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="L306" s="5" t="s">
         <v>1847</v>
@@ -12493,7 +12528,7 @@
         <v>1737</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="L307" s="5" t="s">
         <v>1847</v>
@@ -12519,7 +12554,7 @@
         <v>280</v>
       </c>
       <c r="L308" s="5" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
@@ -12550,7 +12585,7 @@
         <v>924</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>1874</v>
@@ -12573,13 +12608,13 @@
         <v>924</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G311" s="2">
         <v>140</v>
       </c>
       <c r="L311" s="5" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
@@ -12798,7 +12833,7 @@
         <v>924</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.3">
@@ -12912,7 +12947,7 @@
         <v>48</v>
       </c>
       <c r="L332" s="5" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.3">
@@ -13140,7 +13175,7 @@
         <v>70</v>
       </c>
       <c r="L347" s="5" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.3">
@@ -13258,7 +13293,7 @@
         <v>924</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F355" s="4" t="s">
         <v>1869</v>
@@ -13267,7 +13302,7 @@
         <v>45</v>
       </c>
       <c r="L355" s="5" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -13329,7 +13364,7 @@
         <v>1795</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="K359" s="24">
         <v>0.48331827758816837</v>
@@ -13349,16 +13384,16 @@
         <v>924</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="F360" s="4" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="G360" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="L360" s="5" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -13378,7 +13413,7 @@
         <v>1743</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="G361" s="2">
         <v>70</v>
@@ -13418,13 +13453,13 @@
         <v>1832</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="G363" s="2">
         <v>170</v>
       </c>
       <c r="L363" s="5" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -13596,7 +13631,7 @@
         <v>71</v>
       </c>
       <c r="L374" s="5" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
@@ -13698,7 +13733,7 @@
         <v>50</v>
       </c>
       <c r="L380" s="5" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.3">
@@ -13805,10 +13840,10 @@
         <v>924</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
@@ -14818,7 +14853,7 @@
         <v>924</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G457" s="2">
         <v>30</v>
@@ -14861,7 +14896,7 @@
         <v>38</v>
       </c>
       <c r="L459" s="5" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.3">
@@ -15154,7 +15189,7 @@
         <v>30</v>
       </c>
       <c r="L478" s="5" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.3">
@@ -15194,7 +15229,7 @@
         <v>20</v>
       </c>
       <c r="L480" s="5" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.3">
@@ -15220,7 +15255,7 @@
         <v>14</v>
       </c>
       <c r="L481" s="5" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.3">
@@ -15614,13 +15649,13 @@
         <v>924</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G507" s="2">
         <v>45</v>
       </c>
       <c r="L507" s="5" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.3">
@@ -15901,16 +15936,16 @@
         <v>924</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="F524" s="4" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="G524" s="2">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="L524" s="5" t="s">
-        <v>2109</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.3">
@@ -16040,7 +16075,7 @@
         <v>260</v>
       </c>
       <c r="L532" s="5" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.3">
@@ -16057,7 +16092,7 @@
         <v>924</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.3">
@@ -16088,7 +16123,7 @@
         <v>924</v>
       </c>
       <c r="E535" s="4" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>1874</v>
@@ -16097,7 +16132,7 @@
         <v>96</v>
       </c>
       <c r="L535" s="5" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.3">
@@ -16171,7 +16206,7 @@
         <v>105</v>
       </c>
       <c r="L539" s="5" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.3">
@@ -16202,7 +16237,7 @@
         <v>924</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.3">
@@ -16668,10 +16703,10 @@
         <v>924</v>
       </c>
       <c r="E573" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="L573" s="5" t="s">
         <v>1985</v>
-      </c>
-      <c r="L573" s="5" t="s">
-        <v>1986</v>
       </c>
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.3">
@@ -16792,7 +16827,7 @@
         <v>1798</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="I581" s="2">
         <v>552</v>
@@ -16826,10 +16861,10 @@
         <v>924</v>
       </c>
       <c r="E583" s="2" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G583" s="2">
         <v>72</v>
@@ -17059,9 +17094,6 @@
       <c r="E598" s="2" t="s">
         <v>1832</v>
       </c>
-      <c r="I598" s="2">
-        <v>189</v>
-      </c>
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A599" s="3">
@@ -17128,7 +17160,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:12" ht="45" x14ac:dyDescent="0.3">
       <c r="A603" s="3">
         <v>3545</v>
       </c>
@@ -17140,6 +17172,18 @@
       </c>
       <c r="D603" s="2" t="s">
         <v>924</v>
+      </c>
+      <c r="E603" s="2" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F603" s="4" t="s">
+        <v>2127</v>
+      </c>
+      <c r="G603" s="2">
+        <v>150</v>
+      </c>
+      <c r="L603" s="5" t="s">
+        <v>2126</v>
       </c>
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.3">
@@ -17395,7 +17439,7 @@
         <v>3665</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>3</v>
@@ -17444,10 +17488,10 @@
         <v>924</v>
       </c>
       <c r="E622" s="2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="L622" s="5" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="623" spans="1:12" x14ac:dyDescent="0.3">
@@ -17464,7 +17508,7 @@
         <v>924</v>
       </c>
       <c r="E623" s="2" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="F623" s="4" t="s">
         <v>1855</v>
@@ -17577,7 +17621,7 @@
         <v>924</v>
       </c>
       <c r="E630" s="2" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="G630" s="2">
         <v>31</v>
@@ -17868,13 +17912,13 @@
         <v>924</v>
       </c>
       <c r="E648" s="2" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="F648" s="2" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="L648" s="5" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.3">
@@ -18023,7 +18067,7 @@
         <v>924</v>
       </c>
       <c r="E658" s="2" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.3">
@@ -18138,13 +18182,13 @@
         <v>924</v>
       </c>
       <c r="E666" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="G666" s="2">
         <v>80</v>
       </c>
       <c r="L666" s="5" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.3">
@@ -18372,7 +18416,7 @@
         <v>120</v>
       </c>
       <c r="L681" s="5" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.3">
@@ -18389,7 +18433,7 @@
         <v>924</v>
       </c>
       <c r="E682" s="2" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="G682" s="2">
         <v>54</v>
@@ -18436,14 +18480,14 @@
       <c r="D685" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="E685" s="2" t="s">
-        <v>2012</v>
+      <c r="E685" s="4" t="s">
+        <v>2132</v>
       </c>
       <c r="G685" s="2">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L685" s="5" t="s">
-        <v>2042</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="686" spans="1:12" x14ac:dyDescent="0.3">
@@ -18737,7 +18781,7 @@
         <v>1926</v>
       </c>
       <c r="L703" s="5" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="704" spans="1:12" x14ac:dyDescent="0.3">
@@ -18974,13 +19018,13 @@
         <v>924</v>
       </c>
       <c r="E718" s="2" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="G718" s="2">
         <v>40</v>
       </c>
       <c r="L718" s="5" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.3">
@@ -19205,7 +19249,7 @@
         <v>110</v>
       </c>
       <c r="L733" s="5" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="734" spans="1:12" x14ac:dyDescent="0.3">
@@ -19329,7 +19373,7 @@
         <v>41</v>
       </c>
       <c r="L741" s="5" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="742" spans="1:12" x14ac:dyDescent="0.3">
@@ -19515,7 +19559,7 @@
         <v>33</v>
       </c>
       <c r="L753" s="5" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="754" spans="1:12" x14ac:dyDescent="0.3">
@@ -19698,7 +19742,7 @@
         <v>924</v>
       </c>
       <c r="E765" s="4" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="G765" s="2">
         <v>24.1</v>
@@ -19766,7 +19810,7 @@
         <v>80</v>
       </c>
       <c r="L769" s="5" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="770" spans="1:12" ht="60" x14ac:dyDescent="0.3">
@@ -19792,7 +19836,7 @@
         <v>35</v>
       </c>
       <c r="L770" s="5" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="771" spans="1:12" x14ac:dyDescent="0.3">
@@ -20325,10 +20369,10 @@
         <v>1691</v>
       </c>
       <c r="F804" s="2" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="L804" s="5" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="805" spans="1:12" x14ac:dyDescent="0.3">
@@ -20421,16 +20465,16 @@
         <v>924</v>
       </c>
       <c r="E810" s="2" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="F810" s="2" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="G810" s="2">
         <v>266</v>
       </c>
       <c r="L810" s="5" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="811" spans="1:12" x14ac:dyDescent="0.3">
@@ -20461,7 +20505,7 @@
         <v>924</v>
       </c>
       <c r="E812" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="813" spans="1:12" x14ac:dyDescent="0.3">
@@ -20534,10 +20578,10 @@
         <v>924</v>
       </c>
       <c r="E817" s="2" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="L817" s="5" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="818" spans="1:12" x14ac:dyDescent="0.3">
@@ -20545,7 +20589,7 @@
         <v>6558</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C818" s="2" t="s">
         <v>3</v>
@@ -20582,7 +20626,7 @@
         <v>924</v>
       </c>
       <c r="E820" s="2" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="821" spans="1:12" x14ac:dyDescent="0.3">
@@ -20599,7 +20643,7 @@
         <v>924</v>
       </c>
       <c r="E821" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="822" spans="1:12" x14ac:dyDescent="0.3">
@@ -20952,7 +20996,7 @@
         <v>35</v>
       </c>
       <c r="L843" s="26" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="844" spans="1:12" x14ac:dyDescent="0.3">
@@ -21017,7 +21061,7 @@
         <v>924</v>
       </c>
       <c r="E847" s="4" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="848" spans="1:12" x14ac:dyDescent="0.3">
@@ -21481,7 +21525,7 @@
         <v>320</v>
       </c>
       <c r="L878" s="5" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="879" spans="1:12" x14ac:dyDescent="0.3">
@@ -21714,7 +21758,7 @@
         <v>924</v>
       </c>
       <c r="E894" s="2" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="G894" s="2">
         <v>72</v>
@@ -22125,16 +22169,16 @@
         <v>924</v>
       </c>
       <c r="E921" s="2" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F921" s="2" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="G921" s="2">
         <v>70</v>
       </c>
       <c r="L921" s="5" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="922" spans="1:12" x14ac:dyDescent="0.3">
@@ -22225,7 +22269,7 @@
         <v>55</v>
       </c>
       <c r="L926" s="5" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="927" spans="1:12" x14ac:dyDescent="0.3">
@@ -22304,7 +22348,7 @@
         <v>90</v>
       </c>
       <c r="L931" s="5" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="932" spans="1:12" x14ac:dyDescent="0.3">
@@ -22466,7 +22510,7 @@
         <v>1586</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C943" s="2" t="s">
         <v>1682</v>
@@ -22823,7 +22867,7 @@
         <v>44</v>
       </c>
       <c r="L964" s="5" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="965" spans="1:12" x14ac:dyDescent="0.3">
@@ -23297,7 +23341,7 @@
         <v>924</v>
       </c>
       <c r="E997" s="4" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="H997" s="2">
         <v>50</v>
@@ -23365,13 +23409,13 @@
         <v>1773</v>
       </c>
       <c r="F1001" s="2" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="I1001" s="2">
         <v>150</v>
       </c>
       <c r="L1001" s="5" t="s">
-        <v>2069</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1002" spans="1:12" x14ac:dyDescent="0.3">
@@ -23453,7 +23497,7 @@
         <v>924</v>
       </c>
       <c r="E1006" s="2" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1007" spans="1:12" x14ac:dyDescent="0.3">
@@ -23523,7 +23567,7 @@
         <v>3128</v>
       </c>
       <c r="B1011" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="C1011" s="2" t="s">
         <v>1682</v>
@@ -23644,13 +23688,13 @@
         <v>924</v>
       </c>
       <c r="E1019" s="2" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="F1019" s="2" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="L1019" s="5" t="s">
-        <v>2123</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1020" spans="1:12" x14ac:dyDescent="0.3">
@@ -24053,7 +24097,7 @@
         <v>1801</v>
       </c>
       <c r="F1045" s="2" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G1045" s="2">
         <v>90</v>
@@ -24236,16 +24280,19 @@
         <v>1755</v>
       </c>
       <c r="F1057" s="4" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="G1057" s="2">
         <v>740</v>
       </c>
+      <c r="I1057" s="2">
+        <v>732</v>
+      </c>
       <c r="L1057" s="7" t="s">
-        <v>2070</v>
+        <v>2124</v>
       </c>
       <c r="M1057" s="25" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1058" spans="1:13" x14ac:dyDescent="0.3">
@@ -24374,7 +24421,7 @@
         <v>924</v>
       </c>
       <c r="E1066" s="2" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
       <c r="F1066" s="4" t="s">
         <v>1855</v>
@@ -24400,13 +24447,13 @@
         <v>1693</v>
       </c>
       <c r="F1067" s="4" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="G1067" s="2">
         <v>150</v>
       </c>
       <c r="L1067" s="5" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1068" spans="1:13" x14ac:dyDescent="0.3">
@@ -24470,7 +24517,7 @@
         <v>3360</v>
       </c>
       <c r="B1072" s="1" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="C1072" s="2" t="s">
         <v>1682</v>
@@ -24482,7 +24529,7 @@
         <v>1862</v>
       </c>
       <c r="F1072" s="2" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="L1072" s="5" t="s">
         <v>1861</v>
@@ -24665,7 +24712,7 @@
         <v>924</v>
       </c>
       <c r="E1084" s="2" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1085" spans="1:7" x14ac:dyDescent="0.3">
@@ -25008,7 +25055,7 @@
         <v>80</v>
       </c>
       <c r="L1107" s="5" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1108" spans="1:12" x14ac:dyDescent="0.3">
@@ -25169,13 +25216,13 @@
         <v>1794</v>
       </c>
       <c r="F1117" s="2" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G1117" s="2">
         <v>180</v>
       </c>
       <c r="L1117" s="7" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1118" spans="1:12" x14ac:dyDescent="0.3">
@@ -25309,7 +25356,7 @@
         <v>3587</v>
       </c>
       <c r="B1127" s="1" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C1127" s="2" t="s">
         <v>1682</v>
@@ -25742,7 +25789,13 @@
         <v>924</v>
       </c>
       <c r="E1156" s="2" t="s">
-        <v>1934</v>
+        <v>2130</v>
+      </c>
+      <c r="F1156" s="2" t="s">
+        <v>2128</v>
+      </c>
+      <c r="L1156" s="5" t="s">
+        <v>2129</v>
       </c>
     </row>
     <row r="1157" spans="1:12" x14ac:dyDescent="0.3">
@@ -25954,7 +26007,7 @@
         <v>1825</v>
       </c>
       <c r="M1169" s="25" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1170" spans="1:13" x14ac:dyDescent="0.3">
@@ -26072,7 +26125,7 @@
         <v>924</v>
       </c>
       <c r="E1177" s="2" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1178" spans="1:13" x14ac:dyDescent="0.3">
@@ -26204,7 +26257,7 @@
         <v>924</v>
       </c>
       <c r="L1186" s="5" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1187" spans="1:12" x14ac:dyDescent="0.3">
@@ -26409,10 +26462,10 @@
         <v>924</v>
       </c>
       <c r="F1200" s="2" t="s">
-        <v>2115</v>
+        <v>2110</v>
       </c>
       <c r="L1200" s="5" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="1201" spans="1:4" x14ac:dyDescent="0.3">
@@ -27214,13 +27267,13 @@
         <v>924</v>
       </c>
       <c r="F1256" s="2" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="G1256" s="2">
         <v>42</v>
       </c>
       <c r="L1256" s="5" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1257" spans="1:12" ht="45" x14ac:dyDescent="0.3">
@@ -27237,10 +27290,10 @@
         <v>924</v>
       </c>
       <c r="E1257" s="2" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="L1257" s="5" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1258" spans="1:12" x14ac:dyDescent="0.3">
@@ -27581,10 +27634,10 @@
         <v>924</v>
       </c>
       <c r="E1279" s="2" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="L1279" s="5" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1280" spans="1:12" x14ac:dyDescent="0.3">
@@ -27879,10 +27932,10 @@
         <v>924</v>
       </c>
       <c r="E1299" s="2" t="s">
-        <v>2114</v>
+        <v>2109</v>
       </c>
       <c r="F1299" s="2" t="s">
-        <v>2115</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1300" spans="1:12" x14ac:dyDescent="0.3">
@@ -27919,7 +27972,7 @@
         <v>85</v>
       </c>
       <c r="L1301" s="5" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1302" spans="1:12" x14ac:dyDescent="0.3">
@@ -28079,7 +28132,7 @@
         <v>924</v>
       </c>
       <c r="F1312" s="2" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1313" spans="1:12" x14ac:dyDescent="0.3">
@@ -28186,13 +28239,13 @@
         <v>1794</v>
       </c>
       <c r="F1319" s="4" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="G1319" s="2">
         <v>32</v>
       </c>
       <c r="L1319" s="5" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1320" spans="1:12" x14ac:dyDescent="0.3">
@@ -28654,7 +28707,7 @@
         <v>31</v>
       </c>
       <c r="L1349" s="5" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1350" spans="1:12" x14ac:dyDescent="0.3">
@@ -29155,7 +29208,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="1383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1383" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A1383" s="3">
         <v>5609</v>
       </c>
@@ -29171,11 +29224,11 @@
       <c r="E1383" s="2" t="s">
         <v>1841</v>
       </c>
-      <c r="F1383" s="2" t="s">
-        <v>1854</v>
+      <c r="F1383" s="4" t="s">
+        <v>2131</v>
       </c>
       <c r="G1383" s="2">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1384" spans="1:7" x14ac:dyDescent="0.3">
@@ -29768,10 +29821,10 @@
         <v>1924</v>
       </c>
       <c r="F1423" s="4" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="G1423" s="2">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1424" spans="1:12" x14ac:dyDescent="0.3">
@@ -30322,7 +30375,7 @@
         <v>1827</v>
       </c>
       <c r="F1460" s="2" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="G1460" s="2">
         <v>23</v>
@@ -30365,7 +30418,7 @@
         <v>65</v>
       </c>
       <c r="L1462" s="5" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1463" spans="1:12" x14ac:dyDescent="0.3">
@@ -30532,7 +30585,7 @@
         <v>1874</v>
       </c>
       <c r="L1472" s="5" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1473" spans="1:7" x14ac:dyDescent="0.3">
@@ -30762,7 +30815,7 @@
         <v>1693</v>
       </c>
       <c r="F1488" s="2" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="G1488" s="2">
         <v>34</v>
@@ -30813,13 +30866,13 @@
         <v>1778</v>
       </c>
       <c r="F1491" s="2" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G1491" s="2">
         <v>61</v>
       </c>
       <c r="L1491" s="5" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1492" spans="1:12" x14ac:dyDescent="0.3">
@@ -31061,7 +31114,7 @@
         <v>1874</v>
       </c>
       <c r="L1507" s="5" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1508" spans="1:12" x14ac:dyDescent="0.3">
@@ -31151,16 +31204,16 @@
         <v>924</v>
       </c>
       <c r="E1513" s="2" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="F1513" s="2" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="G1513" s="2">
         <v>100</v>
       </c>
       <c r="L1513" s="5" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1514" spans="1:12" x14ac:dyDescent="0.3">
@@ -31256,7 +31309,7 @@
         <v>850</v>
       </c>
       <c r="L1519" s="5" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1520" spans="1:12" x14ac:dyDescent="0.3">
@@ -31380,7 +31433,7 @@
         <v>924</v>
       </c>
       <c r="E1527" s="2" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1528" spans="1:12" x14ac:dyDescent="0.3">
@@ -31634,7 +31687,7 @@
         <v>924</v>
       </c>
       <c r="F1543" s="2" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1544" spans="1:12" x14ac:dyDescent="0.3">
@@ -31651,7 +31704,7 @@
         <v>924</v>
       </c>
       <c r="E1544" s="2" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1545" spans="1:12" x14ac:dyDescent="0.3">
@@ -32216,7 +32269,7 @@
         <v>924</v>
       </c>
       <c r="E1582" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G1582" s="2">
         <v>81</v>
@@ -32329,7 +32382,7 @@
         <v>1757</v>
       </c>
       <c r="L1589" s="5" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1590" spans="1:12" x14ac:dyDescent="0.3">
@@ -32388,7 +32441,7 @@
         <v>924</v>
       </c>
       <c r="E1593" s="2" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1594" spans="1:12" x14ac:dyDescent="0.3">
@@ -32630,7 +32683,7 @@
         <v>924</v>
       </c>
       <c r="E1609" s="2" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1610" spans="1:7" x14ac:dyDescent="0.3">
@@ -32903,7 +32956,7 @@
         <v>25</v>
       </c>
       <c r="L1627" s="5" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1628" spans="1:12" x14ac:dyDescent="0.3">
@@ -33038,7 +33091,7 @@
         <v>924</v>
       </c>
       <c r="E1636" s="2" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="F1636" s="4" t="s">
         <v>1869</v>
@@ -33047,7 +33100,7 @@
         <v>520</v>
       </c>
       <c r="L1636" s="5" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1637" spans="1:12" x14ac:dyDescent="0.3">
@@ -33064,10 +33117,10 @@
         <v>924</v>
       </c>
       <c r="E1637" s="2" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="F1637" s="2" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G1637" s="2">
         <v>55</v>
@@ -33115,10 +33168,10 @@
         <v>924</v>
       </c>
       <c r="E1640" s="2" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="L1640" s="5" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1641" spans="1:12" x14ac:dyDescent="0.3">
@@ -33656,7 +33709,7 @@
         <v>924</v>
       </c>
       <c r="E1678" s="2" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="F1678" s="2" t="s">
         <v>1869</v>
@@ -33665,7 +33718,7 @@
         <v>100</v>
       </c>
       <c r="L1678" s="5" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1679" spans="1:12" x14ac:dyDescent="0.3">
@@ -33755,10 +33808,10 @@
         <v>924</v>
       </c>
       <c r="E1684" s="2" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
       <c r="F1684" s="2" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="G1684" s="2">
         <v>18.5</v>
@@ -33834,7 +33887,7 @@
         <v>924</v>
       </c>
       <c r="E1689" s="2" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="F1689" s="4" t="s">
         <v>1869</v>
@@ -33913,7 +33966,7 @@
         <v>924</v>
       </c>
       <c r="E1694" s="2" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="F1694" s="4" t="s">
         <v>1855</v>
@@ -34234,7 +34287,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="E2" s="2">
         <v>15877</v>
@@ -34242,22 +34295,22 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1945</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1946</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>1947</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>1948</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>1949</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">

--- a/all_stock.xlsx
+++ b/all_stock.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\download\rich_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C9E15C-2E09-4A89-B837-1F33B8401851}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EF73C9-99E6-4A39-97D0-AC9A75E29810}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_stock" sheetId="1" r:id="rId1"/>
-    <sheet name="資訊列表" sheetId="2" r:id="rId2"/>
-    <sheet name="計算頁面" sheetId="3" r:id="rId3"/>
+    <sheet name="產業別" sheetId="4" r:id="rId2"/>
+    <sheet name="資訊列表" sheetId="2" r:id="rId3"/>
+    <sheet name="計算頁面" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_stock!$D$1:$E$1697</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4156" uniqueCount="2128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="1987">
   <si>
     <t>代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5121,10 +5122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>散熱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>聚隆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5153,11 +5150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>買入價
-可估</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5298,14 +5290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>風電</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PC擴充基座</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5322,102 +5306,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被動元件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PCB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>健身器材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>華為</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具機</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被動元件
-國巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電源供應器</t>
-  </si>
-  <si>
-    <t>電源供應器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光學鏡頭廠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mini LED</t>
-  </si>
-  <si>
-    <t>PCB
-電動車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>顯示器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遊戲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眼科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>創惟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>隆中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>電腦選</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接政府案子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老師選</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>泰山</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金融股</t>
-  </si>
-  <si>
     <t>資訊科技產品包括：網路伺服器、個人電腦、筆記型電腦、平板電腦、網路裝置、繪圖裝置、列印裝置、顯示裝置、影像掃描裝置、儲存裝置、數位相機、數位監控裝置等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封測廠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5430,75 +5343,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>資料中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>健身品牌
 美國出貨公司大跌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汽車</t>
-  </si>
-  <si>
-    <t>汽車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>遊戲</t>
   </si>
   <si>
-    <t>車用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台積電
-矽晶圓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聯電
-矽晶圓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被動元件
-LTCC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鴻海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面板</t>
-  </si>
-  <si>
-    <t>面板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矽晶圓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自行車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資產</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阮老師</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>晶圓薄化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5507,59 +5359,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>紡織</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口罩</t>
-  </si>
-  <si>
-    <t>口罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通路</t>
-  </si>
-  <si>
-    <t>資料中心</t>
-  </si>
-  <si>
-    <t>Tesla</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聯發科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電梯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>光學鏡頭廠</t>
-  </si>
-  <si>
-    <t>5G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電機機械</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DRAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鴻海
-PCB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>充電頭的固態電容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5576,20 +5379,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老師選
-面版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apple Mac 剪刀腳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>長科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>導線架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5608,11 +5402,6 @@
     <t>QFN導線架 (CP值最高)
 半導體封測
 擴廠中 (2022年)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阮老師
-車用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5627,10 +5416,6 @@
     <t>電機機械</t>
   </si>
   <si>
-    <t>食品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apple 剪刀腳
 導光版
 車載巿場獨家 (占比3~5)
@@ -5638,21 +5423,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鑽針</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出租</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生醫股</t>
-  </si>
-  <si>
-    <t>生醫股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>學名藥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5662,13 +5432,6 @@
   </si>
   <si>
     <t>投資很多生技公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>營建</t>
-  </si>
-  <si>
-    <t>營建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5681,31 +5444,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>車用
-綠能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IC 設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>伺服器，怕也是一年行情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電子紙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>均熱片</t>
-  </si>
-  <si>
-    <t>均熱片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5719,10 +5458,6 @@
   <si>
     <t>20年綠能貢獻 0.3~0.47
 本業大概 1塊左右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射頻 IC 廠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5781,31 +5516,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水泥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>定存</t>
   </si>
   <si>
     <t>衛星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>軟板
-Apple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>軟體</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>門鎖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5820,29 +5534,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sony
-華為</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>供應台灣電子產品使用的塑化材料(機殼為主)
 PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觀光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鋼鐵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光學膜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5879,47 +5572,18 @@
     <t>衛星</t>
   </si>
   <si>
-    <t>儲能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被動元件
-華新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統整合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電源管理與MOSFET整合產品
 電源管理IC廠致新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>連接器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>機遊戲《三國群英傳m》貢獻，累計今年前11個月營收13.99億元
 《三國群英傳M》手遊將從2月開始將在新加坡、馬來西亞、印尼、泰國以及日本等市場推出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mini LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>影像與傳輸介面晶片設計廠譜瑞
 PCIe 4.0、USB產品線、Mini LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電源供應</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資訊服務</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5933,11 +5597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晟德
-生醫股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>學名藥、疫苗公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5971,15 +5630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>台積電
-設備廠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備廠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>晶圓烘烤設備</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5994,16 +5644,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鴻海
-驅動 IC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>車用、影音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>探針卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6055,11 +5696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>電池
-Tesla</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tesla 占比營收比50%~55%
 2021 估18~20塊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6070,10 +5706,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>台東縣政府公共工程案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6098,11 +5730,6 @@
   <si>
     <t>視覺檢測
 和均豪一起打進台積電供應鍵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備廠
-台積電</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6120,48 +5747,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>封裝測試</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>軸承廠</t>
-  </si>
-  <si>
-    <t>軸承廠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被動元件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全球第2大PPTC廠
 營收占比 77%
 合併德商，衝全球第一大散熱基板廠
 https://www.moneydj.com/kmdj/wiki/wikiviewer.aspx?keyid=17d5a72e-0b5f-40c8-b338-2463bad9f7d5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電腦選</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輪胎</t>
-  </si>
-  <si>
-    <t>輪胎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工業電腦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具機</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞋材</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6174,15 +5763,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>電源供應器
-PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千金股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>貿聯-KY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6226,69 +5806,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>電腦選</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Apple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>導電漿料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老師說</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>之前的展旺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>閎康</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>運動</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> DRAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精密齒輪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電弧爐集塵灰處理</t>
-  </si>
-  <si>
-    <t>電纜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隱形眼鏡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台塑四寶</t>
-  </si>
-  <si>
-    <t>台塑四寶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保健</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6304,18 +5826,6 @@
   <si>
     <t>2021Q1 燁輝將再認列處分屏南工業區土地利益約5.38億元
 推出高耐腐蝕鋼材「光支彩」，受惠全球各地太陽能光電系統建置量逐步攀升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鍍鋅鋼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IC 測試</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6339,23 +5849,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>台積電</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>機構件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCB
-華新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>磷酸鋼理電池
 寧德時代
 TESLA
@@ -6363,23 +5856,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>半導體通路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主要代理瑞昱 (2379-TW)、友達 (2409-TW)、華邦電 (2344-TW) 等大廠產品
 2021/01 0.13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>製鞋廠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高爾夫球具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>定存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6389,14 +5870,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DRAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商用置物設備</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不投資</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6405,15 +5878,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2021/01 單月EPS 1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>製紙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6423,26 +5888,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鋁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐飲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>強固型電腦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>膠帶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽車零件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>季配，但配息率很差
 健身器材及手機零件出貨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6475,17 +5920,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IPC(工業電腦)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被動元件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橡膠</t>
-  </si>
-  <si>
     <t>不投資</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6494,18 +5928,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>封裝測試</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tape-COF98.29%</t>
   </si>
   <si>
     <t>興能高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6544,11 +5970,6 @@
 網通晶片
 瑞昱的WiFi及藍牙晶片出貨強勁
 車用及網路基建相關訂單明顯回溫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>銅箔基板(CCL)52.80%
-《電子零件》HDI板夯 台光電今年營運攀峰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6727,14 +6148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代工廠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>華紙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6772,13 +6185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>面版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽車遮陽簾</t>
-  </si>
-  <si>
     <t>衛星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6801,15 +6207,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鋰電池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年年都配股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生醫股</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6838,20 +6236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PA三雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砷化鎵
-PA三雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCB
-ABF三雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>衛星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6865,10 +6249,6 @@
   </si>
   <si>
     <t>2021Q1 估1.3塊，全年2021 EPS 估 5.2?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電機機械</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6881,26 +6261,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>顯示器代工廠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不投資</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被動元件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Q1每股賺3.45元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>電池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>很穩，每年都配10塊左右。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6909,23 +6277,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>縫紉機製造廠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>營建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不投資</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>量太少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>銅箔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6934,10 +6290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>衛星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6947,16 +6299,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>紡織</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>亞信Q1每股賺1.12元
 2021 全年 5塊?</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塑膠</t>
   </si>
   <si>
     <t>殖利率夠 (6%)
@@ -6981,10 +6326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>觸控IC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>敦泰列注意股 2月每股盈餘1.17元
 毛利也有提昇
 2021 估 15?</t>
@@ -7004,20 +6345,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>矽磊晶片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>定存
 短期注意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PCB
-短期注意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>泰鼎四大產品線包括HOME、通訊、PC、車用
 泰鼎-KY第1季EPS0.81元</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7029,6 +6361,103 @@
   <si>
     <t>華義列警示股 2月EPS0.64元
 《文創股》華義Q1每股賺1.48元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手動
+買入價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銅箔基板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銅箔基板三雄。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銅箔基板三雄。
+銅箔基板(CCL)52.80%
+《電子零件》HDI板夯 台光電今年營運攀峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被動元件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>銅箔廠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銅箔基板廠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銅箔廠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航運</t>
+  </si>
+  <si>
+    <t>航運</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海運</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空</t>
+  </si>
+  <si>
+    <t>航空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內陸運輸</t>
+  </si>
+  <si>
+    <t>內陸運輸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋼鐵</t>
+  </si>
+  <si>
+    <t>鋼鐵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具機</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7567,8 +6996,8 @@
   <dimension ref="A1:K1697"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A995" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1002" sqref="K1002"/>
+      <pane ySplit="1" topLeftCell="A923" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D931" sqref="D931"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7597,25 +7026,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2126</v>
+        <v>1960</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1882</v>
+        <v>1798</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1699</v>
+        <v>1962</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>1939</v>
+        <v>1835</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>1682</v>
@@ -7631,17 +7060,14 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1850</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>1851</v>
+        <v>1783</v>
       </c>
       <c r="F2" s="2">
         <v>40.5</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>2013</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -7655,7 +7081,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>2014</v>
+        <v>1871</v>
       </c>
       <c r="F3" s="2">
         <v>41</v>
@@ -7672,10 +7098,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>2007</v>
+        <v>1866</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>2008</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -7689,10 +7115,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>2007</v>
+        <v>1866</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>2008</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -7706,10 +7132,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>2007</v>
+        <v>1866</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>2008</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -7723,10 +7149,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>2007</v>
+        <v>1866</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>2008</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -7740,10 +7166,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>2007</v>
+        <v>1866</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>2008</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -7828,14 +7254,12 @@
         <v>1218</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1762</v>
+        <v>1742</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>1814</v>
-      </c>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
@@ -7858,11 +7282,9 @@
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>1814</v>
-      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="2" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="F18" s="2">
         <v>11</v>
@@ -7922,11 +7344,9 @@
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>1814</v>
-      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="F23" s="2">
         <v>115</v>
@@ -7975,9 +7395,6 @@
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>2012</v>
-      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
@@ -8000,9 +7417,6 @@
       <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>1960</v>
-      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
@@ -8037,7 +7451,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="F32" s="2">
         <v>31</v>
@@ -8064,11 +7478,8 @@
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>2112</v>
-      </c>
       <c r="E34" s="4" t="s">
-        <v>2073</v>
+        <v>1925</v>
       </c>
       <c r="F34" s="2">
         <v>30</v>
@@ -8077,7 +7488,7 @@
         <v>29.5</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>2113</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -8193,7 +7604,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>2016</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -8217,9 +7628,6 @@
       <c r="C46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>1789</v>
-      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
@@ -8231,9 +7639,6 @@
       <c r="C47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>1960</v>
-      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
@@ -8311,11 +7716,9 @@
       <c r="C54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>1786</v>
-      </c>
+      <c r="D54" s="4"/>
       <c r="E54" s="2" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="F54" s="2">
         <v>10.5</v>
@@ -8345,14 +7748,12 @@
       <c r="C56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>1786</v>
-      </c>
+      <c r="D56" s="4"/>
       <c r="E56" s="2" t="s">
-        <v>1986</v>
+        <v>1855</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>1987</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -8734,16 +8135,13 @@
         <v>1466</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>1786</v>
-      </c>
       <c r="K91" s="7" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -8855,17 +8253,14 @@
       <c r="C101" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>1988</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="F101" s="2">
         <v>150</v>
       </c>
       <c r="K101" s="5" t="s">
-        <v>1989</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -8878,9 +8273,6 @@
       <c r="C102" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>1797</v>
-      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
@@ -8892,9 +8284,6 @@
       <c r="C103" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>1797</v>
-      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
@@ -8917,17 +8306,15 @@
       <c r="C105" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>1797</v>
-      </c>
+      <c r="D105" s="4"/>
       <c r="E105" s="2" t="s">
-        <v>1982</v>
+        <v>1853</v>
       </c>
       <c r="F105" s="2">
         <v>51.5</v>
       </c>
       <c r="K105" s="5" t="s">
-        <v>1794</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
@@ -8951,18 +8338,16 @@
       <c r="C107" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>1797</v>
-      </c>
+      <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>1866</v>
+        <v>1789</v>
       </c>
       <c r="F107" s="2">
         <v>50</v>
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="5" t="s">
-        <v>2066</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -8975,11 +8360,9 @@
       <c r="C108" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>1736</v>
-      </c>
+      <c r="D108" s="4"/>
       <c r="K108" s="5" t="s">
-        <v>1813</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -8992,9 +8375,6 @@
       <c r="C109" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>1743</v>
-      </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
@@ -9017,14 +8397,11 @@
       <c r="C111" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>1781</v>
-      </c>
       <c r="E111" s="4" t="s">
-        <v>1852</v>
+        <v>1784</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>1964</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -9081,14 +8458,11 @@
       <c r="C116" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>2091</v>
-      </c>
       <c r="E116" s="4" t="s">
-        <v>2093</v>
+        <v>1939</v>
       </c>
       <c r="K116" s="5" t="s">
-        <v>2092</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
@@ -9101,9 +8475,6 @@
       <c r="C117" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>1781</v>
-      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
@@ -9181,9 +8552,6 @@
       <c r="C124" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>1772</v>
-      </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
@@ -9206,9 +8574,6 @@
       <c r="C126" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>1792</v>
-      </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
@@ -9220,17 +8585,14 @@
       <c r="C127" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>2098</v>
-      </c>
       <c r="E127" s="4" t="s">
-        <v>2100</v>
+        <v>1943</v>
       </c>
       <c r="F127" s="2">
         <v>140</v>
       </c>
       <c r="K127" s="5" t="s">
-        <v>2099</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
@@ -9287,9 +8649,6 @@
       <c r="C132" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>2101</v>
-      </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
@@ -9323,9 +8682,6 @@
       <c r="C135" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>1922</v>
-      </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
@@ -9359,14 +8715,11 @@
       <c r="C138" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>1736</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>1840</v>
+        <v>1773</v>
       </c>
       <c r="K138" s="5" t="s">
-        <v>1839</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -9401,17 +8754,14 @@
       <c r="C141" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>1743</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>1852</v>
+        <v>1784</v>
       </c>
       <c r="F141" s="2">
         <v>90</v>
       </c>
       <c r="K141" s="5" t="s">
-        <v>1768</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -9446,11 +8796,8 @@
       <c r="C144" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>1958</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>2003</v>
+        <v>1865</v>
       </c>
       <c r="F144" s="2">
         <v>15</v>
@@ -9477,14 +8824,11 @@
       <c r="C146" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>1689</v>
-      </c>
       <c r="F146" s="2">
         <v>15</v>
       </c>
       <c r="K146" s="5" t="s">
-        <v>1836</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -9717,17 +9061,14 @@
       <c r="C167" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D167" s="2" t="s">
-        <v>1819</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>2087</v>
+        <v>1934</v>
       </c>
       <c r="F167" s="2">
         <v>36</v>
       </c>
       <c r="K167" s="5" t="s">
-        <v>1820</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
@@ -9861,9 +9202,6 @@
       <c r="C179" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>1818</v>
-      </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
@@ -9886,14 +9224,11 @@
       <c r="C181" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D181" s="2" t="s">
-        <v>1743</v>
-      </c>
       <c r="E181" s="2" t="s">
-        <v>1840</v>
+        <v>1773</v>
       </c>
       <c r="K181" s="5" t="s">
-        <v>1849</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
@@ -9917,9 +9252,6 @@
       <c r="C183" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>1818</v>
-      </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
@@ -10102,19 +9434,16 @@
         <v>1905</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>2060</v>
+        <v>1914</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D200" s="2" t="s">
-        <v>1990</v>
-      </c>
       <c r="E200" s="2" t="s">
-        <v>1852</v>
+        <v>1784</v>
       </c>
       <c r="K200" s="5" t="s">
-        <v>1991</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
@@ -10160,6 +9489,9 @@
       <c r="C204" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D204" s="2" t="s">
+        <v>1985</v>
+      </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
@@ -10171,6 +9503,9 @@
       <c r="C205" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D205" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
@@ -10182,6 +9517,9 @@
       <c r="C206" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D206" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
@@ -10193,6 +9531,9 @@
       <c r="C207" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D207" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
@@ -10204,6 +9545,9 @@
       <c r="C208" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D208" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
@@ -10215,6 +9559,9 @@
       <c r="C209" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D209" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
@@ -10226,6 +9573,9 @@
       <c r="C210" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D210" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
@@ -10237,6 +9587,9 @@
       <c r="C211" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D211" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
@@ -10248,6 +9601,9 @@
       <c r="C212" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D212" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
@@ -10259,6 +9615,9 @@
       <c r="C213" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D213" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
@@ -10270,6 +9629,9 @@
       <c r="C214" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D214" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
@@ -10281,6 +9643,9 @@
       <c r="C215" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D215" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
@@ -10292,6 +9657,9 @@
       <c r="C216" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D216" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="217" spans="1:11" ht="60" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
@@ -10304,13 +9672,13 @@
         <v>3</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1966</v>
+        <v>1984</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>1852</v>
+        <v>1784</v>
       </c>
       <c r="K217" s="5" t="s">
-        <v>1965</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
@@ -10323,6 +9691,9 @@
       <c r="C218" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D218" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
@@ -10334,6 +9705,9 @@
       <c r="C219" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D219" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
@@ -10345,6 +9719,9 @@
       <c r="C220" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D220" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
@@ -10356,6 +9733,9 @@
       <c r="C221" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D221" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
@@ -10367,6 +9747,9 @@
       <c r="C222" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D222" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
@@ -10378,6 +9761,9 @@
       <c r="C223" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D223" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
@@ -10389,14 +9775,20 @@
       <c r="C224" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D224" s="2" t="s">
+        <v>1984</v>
+      </c>
       <c r="E224" s="4" t="s">
-        <v>2073</v>
+        <v>1925</v>
       </c>
       <c r="F224" s="2">
         <v>66</v>
       </c>
+      <c r="H224" s="2">
+        <v>62</v>
+      </c>
       <c r="K224" s="5" t="s">
-        <v>2114</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -10409,6 +9801,9 @@
       <c r="C225" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D225" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
@@ -10420,6 +9815,9 @@
       <c r="C226" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D226" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
@@ -10431,6 +9829,9 @@
       <c r="C227" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D227" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
@@ -10442,6 +9843,9 @@
       <c r="C228" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D228" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
@@ -10454,7 +9858,7 @@
         <v>3</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>1745</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -10489,6 +9893,9 @@
       <c r="C232" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D232" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
@@ -10500,9 +9907,6 @@
       <c r="C233" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D233" s="2" t="s">
-        <v>1927</v>
-      </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
@@ -10514,9 +9918,6 @@
       <c r="C234" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D234" s="2" t="s">
-        <v>1927</v>
-      </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
@@ -10550,9 +9951,6 @@
       <c r="C237" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D237" s="2" t="s">
-        <v>1928</v>
-      </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
@@ -10564,9 +9962,6 @@
       <c r="C238" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D238" s="2" t="s">
-        <v>1927</v>
-      </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
@@ -10578,9 +9973,6 @@
       <c r="C239" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D239" s="2" t="s">
-        <v>2006</v>
-      </c>
       <c r="F239" s="2">
         <v>21</v>
       </c>
@@ -10595,9 +9987,6 @@
       <c r="C240" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D240" s="2" t="s">
-        <v>1787</v>
-      </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
@@ -10609,9 +9998,6 @@
       <c r="C241" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D241" s="2" t="s">
-        <v>1927</v>
-      </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
@@ -10645,9 +10031,6 @@
       <c r="C244" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D244" s="2" t="s">
-        <v>1769</v>
-      </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
@@ -10659,9 +10042,6 @@
       <c r="C245" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D245" s="2" t="s">
-        <v>1769</v>
-      </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
@@ -10684,9 +10064,6 @@
       <c r="C247" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D247" s="2" t="s">
-        <v>1770</v>
-      </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
@@ -10698,6 +10075,9 @@
       <c r="C248" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D248" s="2" t="s">
+        <v>1978</v>
+      </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
@@ -10709,9 +10089,6 @@
       <c r="C249" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D249" s="2" t="s">
-        <v>1769</v>
-      </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
@@ -10734,17 +10111,14 @@
       <c r="C251" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>1772</v>
-      </c>
       <c r="E251" s="4" t="s">
-        <v>2055</v>
+        <v>1911</v>
       </c>
       <c r="F251" s="2">
         <v>100</v>
       </c>
       <c r="K251" s="5" t="s">
-        <v>2056</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
@@ -10813,7 +10187,7 @@
         <v>3</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>2003</v>
+        <v>1865</v>
       </c>
       <c r="F257" s="2">
         <v>55</v>
@@ -10830,7 +10204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>2303</v>
       </c>
@@ -10840,11 +10214,9 @@
       <c r="C259" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D259" s="4" t="s">
-        <v>1774</v>
-      </c>
+      <c r="D259" s="4"/>
       <c r="E259" s="2" t="s">
-        <v>1938</v>
+        <v>1834</v>
       </c>
       <c r="F259" s="2">
         <v>51</v>
@@ -10874,17 +10246,14 @@
       <c r="C261" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D261" s="2" t="s">
-        <v>1736</v>
-      </c>
       <c r="E261" s="2" t="s">
-        <v>1840</v>
+        <v>1773</v>
       </c>
       <c r="F261" s="2">
         <v>130</v>
       </c>
       <c r="K261" s="5" t="s">
-        <v>2017</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
@@ -10909,7 +10278,7 @@
         <v>3</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>1742</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
@@ -10933,6 +10302,9 @@
       <c r="C265" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D265" s="2" t="s">
+        <v>1971</v>
+      </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
@@ -10944,11 +10316,8 @@
       <c r="C266" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D266" s="2" t="s">
-        <v>1777</v>
-      </c>
       <c r="E266" s="2" t="s">
-        <v>1937</v>
+        <v>1833</v>
       </c>
       <c r="F266" s="2">
         <v>101</v>
@@ -10957,7 +10326,7 @@
         <v>3.9667649043478264</v>
       </c>
       <c r="K266" s="5" t="s">
-        <v>1843</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
@@ -10992,9 +10361,6 @@
       <c r="C269" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D269" s="2" t="s">
-        <v>2059</v>
-      </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
@@ -11007,10 +10373,10 @@
         <v>3</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>1741</v>
+        <v>1966</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>2057</v>
+        <v>1913</v>
       </c>
       <c r="F270" s="2">
         <v>540</v>
@@ -11026,14 +10392,12 @@
       <c r="C271" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D271" s="4" t="s">
-        <v>1799</v>
-      </c>
+      <c r="D271" s="4"/>
       <c r="E271" s="2" t="s">
-        <v>1871</v>
+        <v>1794</v>
       </c>
       <c r="K271" s="5" t="s">
-        <v>1916</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
@@ -11047,7 +10411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>2330</v>
       </c>
@@ -11057,11 +10421,9 @@
       <c r="C273" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D273" s="4" t="s">
-        <v>1773</v>
-      </c>
+      <c r="D273" s="4"/>
       <c r="E273" s="2" t="s">
-        <v>2072</v>
+        <v>1924</v>
       </c>
       <c r="F273" s="2">
         <v>585</v>
@@ -11102,11 +10464,8 @@
       <c r="C276" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D276" s="2" t="s">
-        <v>1953</v>
-      </c>
       <c r="E276" s="2" t="s">
-        <v>1871</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="277" spans="1:11" ht="30" x14ac:dyDescent="0.3">
@@ -11119,17 +10478,14 @@
       <c r="C277" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D277" s="2" t="s">
-        <v>2107</v>
-      </c>
       <c r="E277" s="2" t="s">
-        <v>2108</v>
+        <v>1947</v>
       </c>
       <c r="F277" s="2">
         <v>70</v>
       </c>
       <c r="K277" s="5" t="s">
-        <v>2109</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
@@ -11164,11 +10520,8 @@
       <c r="C280" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D280" s="2" t="s">
-        <v>1798</v>
-      </c>
       <c r="E280" s="2" t="s">
-        <v>1871</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
@@ -11181,9 +10534,6 @@
       <c r="C281" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D281" s="2" t="s">
-        <v>1791</v>
-      </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
@@ -11195,9 +10545,6 @@
       <c r="C282" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D282" s="2" t="s">
-        <v>1790</v>
-      </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
@@ -11231,17 +10578,14 @@
       <c r="C285" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D285" s="2" t="s">
-        <v>1807</v>
-      </c>
       <c r="E285" s="2" t="s">
-        <v>1871</v>
+        <v>1794</v>
       </c>
       <c r="F285" s="2">
         <v>65</v>
       </c>
       <c r="K285" s="5" t="s">
-        <v>1809</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
@@ -11255,7 +10599,7 @@
         <v>3</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>1871</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
@@ -11268,11 +10612,8 @@
       <c r="C287" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D287" s="2" t="s">
-        <v>1735</v>
-      </c>
       <c r="E287" s="2" t="s">
-        <v>1871</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
@@ -11296,6 +10637,9 @@
       <c r="C289" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D289" s="2" t="s">
+        <v>1971</v>
+      </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
@@ -11319,10 +10663,10 @@
         <v>3</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>1735</v>
+        <v>1976</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>2072</v>
+        <v>1924</v>
       </c>
       <c r="F291" s="2">
         <v>330</v>
@@ -11338,14 +10682,11 @@
       <c r="C292" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D292" s="2" t="s">
-        <v>1992</v>
-      </c>
       <c r="F292" s="2">
         <v>13</v>
       </c>
       <c r="K292" s="5" t="s">
-        <v>2018</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
@@ -11424,6 +10765,9 @@
       <c r="C299" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D299" s="2" t="s">
+        <v>1971</v>
+      </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
@@ -11436,10 +10780,10 @@
         <v>3</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>1742</v>
+        <v>1971</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>1871</v>
+        <v>1794</v>
       </c>
       <c r="F300" s="2">
         <v>51</v>
@@ -11466,17 +10810,14 @@
       <c r="C302" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D302" s="2" t="s">
-        <v>1782</v>
-      </c>
       <c r="E302" s="2" t="s">
-        <v>1852</v>
+        <v>1784</v>
       </c>
       <c r="F302" s="2">
         <v>25</v>
       </c>
       <c r="K302" s="5" t="s">
-        <v>1983</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
@@ -11512,13 +10853,13 @@
         <v>3</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>1746</v>
+        <v>1966</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>1852</v>
+        <v>1784</v>
       </c>
       <c r="K305" s="5" t="s">
-        <v>2019</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
@@ -11532,13 +10873,13 @@
         <v>3</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>1735</v>
+        <v>1975</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>2072</v>
+        <v>1924</v>
       </c>
       <c r="K306" s="5" t="s">
-        <v>1844</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
@@ -11552,13 +10893,13 @@
         <v>3</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>1735</v>
+        <v>1975</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>2072</v>
+        <v>1924</v>
       </c>
       <c r="K307" s="5" t="s">
-        <v>1844</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="308" spans="1:11" ht="60" x14ac:dyDescent="0.3">
@@ -11571,14 +10912,11 @@
       <c r="C308" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D308" s="2" t="s">
-        <v>1796</v>
-      </c>
       <c r="F308" s="2">
         <v>280</v>
       </c>
       <c r="K308" s="5" t="s">
-        <v>2020</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
@@ -11602,17 +10940,14 @@
       <c r="C310" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D310" s="2" t="s">
-        <v>2058</v>
-      </c>
       <c r="E310" s="2" t="s">
-        <v>1871</v>
+        <v>1794</v>
       </c>
       <c r="F310" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" ht="45" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>2383</v>
       </c>
@@ -11623,13 +10958,13 @@
         <v>3</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>2005</v>
+        <v>1963</v>
       </c>
       <c r="F311" s="2">
         <v>140</v>
       </c>
       <c r="K311" s="5" t="s">
-        <v>2021</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
@@ -11741,9 +11076,6 @@
       <c r="C321" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D321" s="2" t="s">
-        <v>1829</v>
-      </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
@@ -11755,6 +11087,9 @@
       <c r="C322" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D322" s="2" t="s">
+        <v>1971</v>
+      </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="3">
@@ -11766,9 +11101,6 @@
       <c r="C323" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D323" s="2" t="s">
-        <v>271</v>
-      </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
@@ -11802,9 +11134,6 @@
       <c r="C326" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D326" s="2" t="s">
-        <v>1961</v>
-      </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
@@ -11816,9 +11145,6 @@
       <c r="C327" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D327" s="2" t="s">
-        <v>1778</v>
-      </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
@@ -11830,11 +11156,8 @@
       <c r="C328" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D328" s="2" t="s">
-        <v>1775</v>
-      </c>
       <c r="E328" s="2" t="s">
-        <v>1840</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
@@ -11858,14 +11181,11 @@
       <c r="C330" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D330" s="2" t="s">
-        <v>1735</v>
-      </c>
       <c r="E330" s="2" t="s">
-        <v>1852</v>
+        <v>1784</v>
       </c>
       <c r="K330" s="5" t="s">
-        <v>1764</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
@@ -11889,17 +11209,14 @@
       <c r="C332" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D332" s="2" t="s">
-        <v>1735</v>
-      </c>
       <c r="E332" s="2" t="s">
-        <v>1852</v>
+        <v>1784</v>
       </c>
       <c r="G332" s="2">
         <v>48</v>
       </c>
       <c r="K332" s="5" t="s">
-        <v>2022</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
@@ -11934,9 +11251,6 @@
       <c r="C335" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D335" s="2" t="s">
-        <v>1747</v>
-      </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
@@ -12003,6 +11317,9 @@
       <c r="C341" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D341" s="2" t="s">
+        <v>1966</v>
+      </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
@@ -12014,6 +11331,9 @@
       <c r="C342" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D342" s="2" t="s">
+        <v>1971</v>
+      </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
@@ -12025,9 +11345,6 @@
       <c r="C343" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D343" s="2" t="s">
-        <v>1790</v>
-      </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
@@ -12072,17 +11389,14 @@
       <c r="C347" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D347" s="2" t="s">
-        <v>1829</v>
-      </c>
       <c r="E347" s="4" t="s">
-        <v>1852</v>
+        <v>1784</v>
       </c>
       <c r="F347" s="2">
         <v>70</v>
       </c>
       <c r="K347" s="5" t="s">
-        <v>2023</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
@@ -12128,9 +11442,6 @@
       <c r="C351" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D351" s="2" t="s">
-        <v>1765</v>
-      </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
@@ -12175,17 +11486,15 @@
       <c r="C355" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D355" s="4" t="s">
-        <v>1967</v>
-      </c>
+      <c r="D355" s="4"/>
       <c r="E355" s="4" t="s">
-        <v>1866</v>
+        <v>1789</v>
       </c>
       <c r="F355" s="2">
         <v>45</v>
       </c>
       <c r="K355" s="5" t="s">
-        <v>2071</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
@@ -12231,11 +11540,9 @@
       <c r="C359" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D359" s="4" t="s">
-        <v>1793</v>
-      </c>
+      <c r="D359" s="4"/>
       <c r="E359" s="2" t="s">
-        <v>1937</v>
+        <v>1833</v>
       </c>
       <c r="J359" s="24">
         <v>0.48331827758816837</v>
@@ -12251,17 +11558,15 @@
       <c r="C360" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D360" s="4" t="s">
-        <v>2085</v>
-      </c>
+      <c r="D360" s="4"/>
       <c r="E360" s="4" t="s">
-        <v>2073</v>
+        <v>1925</v>
       </c>
       <c r="F360" s="2">
         <v>90</v>
       </c>
       <c r="K360" s="5" t="s">
-        <v>2083</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
@@ -12275,16 +11580,16 @@
         <v>3</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>1741</v>
+        <v>1966</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>2070</v>
+        <v>1922</v>
       </c>
       <c r="F361" s="2">
         <v>70</v>
       </c>
       <c r="K361" s="5" t="s">
-        <v>1834</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
@@ -12308,17 +11613,14 @@
       <c r="C363" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D363" s="2" t="s">
-        <v>1829</v>
-      </c>
       <c r="E363" s="2" t="s">
-        <v>2070</v>
+        <v>1922</v>
       </c>
       <c r="F363" s="2">
         <v>170</v>
       </c>
       <c r="K363" s="5" t="s">
-        <v>2024</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
@@ -12408,11 +11710,8 @@
       <c r="C371" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D371" s="2" t="s">
-        <v>1892</v>
-      </c>
       <c r="K371" s="5" t="s">
-        <v>1893</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
@@ -12442,22 +11741,22 @@
         <v>2472</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1889</v>
+        <v>1804</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>1741</v>
+        <v>1966</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>1852</v>
+        <v>1784</v>
       </c>
       <c r="F374" s="2">
         <v>71</v>
       </c>
       <c r="K374" s="5" t="s">
-        <v>1971</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
@@ -12504,10 +11803,10 @@
         <v>3</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>1741</v>
+        <v>1966</v>
       </c>
       <c r="K378" s="5" t="s">
-        <v>1900</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
@@ -12531,17 +11830,14 @@
       <c r="C380" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D380" s="2" t="s">
-        <v>1741</v>
-      </c>
       <c r="E380" s="2" t="s">
-        <v>1852</v>
+        <v>1784</v>
       </c>
       <c r="F380" s="2">
         <v>50</v>
       </c>
       <c r="K380" s="5" t="s">
-        <v>1932</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
@@ -12598,11 +11894,8 @@
       <c r="C385" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D385" s="2" t="s">
-        <v>1832</v>
-      </c>
       <c r="E385" s="4" t="s">
-        <v>1852</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -12626,11 +11919,8 @@
       <c r="C387" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D387" s="2" t="s">
-        <v>2094</v>
-      </c>
       <c r="E387" s="2" t="s">
-        <v>2095</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -12644,7 +11934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="3">
         <v>2492</v>
       </c>
@@ -12655,10 +11945,10 @@
         <v>3</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>1873</v>
+        <v>1966</v>
       </c>
       <c r="F389" s="2">
-        <v>220</v>
+        <v>150</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -12704,9 +11994,6 @@
       <c r="C393" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D393" s="2" t="s">
-        <v>1772</v>
-      </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="3">
@@ -12785,7 +12072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="3">
         <v>2514</v>
       </c>
@@ -12796,7 +12083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="3">
         <v>2515</v>
       </c>
@@ -12807,7 +12094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="3">
         <v>2516</v>
       </c>
@@ -12818,7 +12105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="3">
         <v>2520</v>
       </c>
@@ -12828,11 +12115,8 @@
       <c r="C404" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D404" s="2" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="3">
         <v>2524</v>
       </c>
@@ -12843,7 +12127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="3">
         <v>2527</v>
       </c>
@@ -12854,7 +12138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="3">
         <v>2528</v>
       </c>
@@ -12865,7 +12149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="3">
         <v>2530</v>
       </c>
@@ -12876,7 +12160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="3">
         <v>2534</v>
       </c>
@@ -12887,7 +12171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="3">
         <v>2535</v>
       </c>
@@ -12897,11 +12181,8 @@
       <c r="C410" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D410" s="2" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="3">
         <v>2536</v>
       </c>
@@ -12912,7 +12193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="3">
         <v>2537</v>
       </c>
@@ -12923,7 +12204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="3">
         <v>2538</v>
       </c>
@@ -12934,7 +12215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="3">
         <v>2539</v>
       </c>
@@ -12945,7 +12226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="3">
         <v>2540</v>
       </c>
@@ -12956,7 +12237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="3">
         <v>2542</v>
       </c>
@@ -12999,11 +12280,9 @@
       <c r="C419" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D419" s="4" t="s">
-        <v>1824</v>
-      </c>
+      <c r="D419" s="4"/>
       <c r="E419" s="2" t="s">
-        <v>1851</v>
+        <v>1783</v>
       </c>
       <c r="F419" s="2">
         <v>46</v>
@@ -13030,9 +12309,6 @@
       <c r="C421" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D421" s="2" t="s">
-        <v>1823</v>
-      </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="3">
@@ -13066,6 +12342,9 @@
       <c r="C424" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D424" s="2" t="s">
+        <v>1977</v>
+      </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="3">
@@ -13077,6 +12356,9 @@
       <c r="C425" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D425" s="2" t="s">
+        <v>1977</v>
+      </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="3">
@@ -13088,6 +12370,9 @@
       <c r="C426" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D426" s="2" t="s">
+        <v>1977</v>
+      </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="3">
@@ -13099,6 +12384,9 @@
       <c r="C427" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D427" s="2" t="s">
+        <v>1983</v>
+      </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="3">
@@ -13110,6 +12398,9 @@
       <c r="C428" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D428" s="2" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="3">
@@ -13121,6 +12412,9 @@
       <c r="C429" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D429" s="2" t="s">
+        <v>1977</v>
+      </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="3">
@@ -13132,6 +12426,9 @@
       <c r="C430" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D430" s="2" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="3">
@@ -13143,6 +12440,9 @@
       <c r="C431" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D431" s="2" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="3">
@@ -13154,8 +12454,11 @@
       <c r="C432" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D432" s="2" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="3">
         <v>2613</v>
       </c>
@@ -13165,8 +12468,11 @@
       <c r="C433" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D433" s="2" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="3">
         <v>2614</v>
       </c>
@@ -13177,7 +12483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="3">
         <v>2615</v>
       </c>
@@ -13187,8 +12493,11 @@
       <c r="C435" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D435" s="2" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="3">
         <v>2616</v>
       </c>
@@ -13198,8 +12507,11 @@
       <c r="C436" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D436" s="2" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="3">
         <v>2617</v>
       </c>
@@ -13209,8 +12521,11 @@
       <c r="C437" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D437" s="2" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="3">
         <v>2618</v>
       </c>
@@ -13220,8 +12535,11 @@
       <c r="C438" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D438" s="2" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="3">
         <v>2630</v>
       </c>
@@ -13231,8 +12549,11 @@
       <c r="C439" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D439" s="2" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="3">
         <v>2633</v>
       </c>
@@ -13242,8 +12563,11 @@
       <c r="C440" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D440" s="2" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="3">
         <v>2634</v>
       </c>
@@ -13253,8 +12577,11 @@
       <c r="C441" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D441" s="2" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="3">
         <v>2636</v>
       </c>
@@ -13264,8 +12591,11 @@
       <c r="C442" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D442" s="2" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="3">
         <v>2637</v>
       </c>
@@ -13275,8 +12605,11 @@
       <c r="C443" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D443" s="2" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="3">
         <v>2642</v>
       </c>
@@ -13286,8 +12619,11 @@
       <c r="C444" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D444" s="2" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="3">
         <v>2701</v>
       </c>
@@ -13298,7 +12634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="3">
         <v>2702</v>
       </c>
@@ -13309,7 +12645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="3">
         <v>2704</v>
       </c>
@@ -13320,7 +12656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="3">
         <v>2705</v>
       </c>
@@ -13429,9 +12765,6 @@
       <c r="C457" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D457" s="2" t="s">
-        <v>1993</v>
-      </c>
       <c r="F457" s="2">
         <v>30</v>
       </c>
@@ -13457,17 +12790,15 @@
       <c r="C459" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D459" s="4" t="s">
-        <v>1763</v>
-      </c>
+      <c r="D459" s="4"/>
       <c r="E459" s="2" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="F459" s="2">
         <v>38</v>
       </c>
       <c r="K459" s="5" t="s">
-        <v>2025</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.3">
@@ -13656,17 +12987,15 @@
       <c r="C476" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D476" s="4" t="s">
-        <v>1763</v>
-      </c>
+      <c r="D476" s="4"/>
       <c r="E476" s="2" t="s">
-        <v>1851</v>
+        <v>1783</v>
       </c>
       <c r="F476" s="2">
         <v>15.5</v>
       </c>
       <c r="K476" s="5" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.3">
@@ -13679,9 +13008,6 @@
       <c r="C477" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D477" s="2" t="s">
-        <v>1763</v>
-      </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="3">
@@ -13693,17 +13019,15 @@
       <c r="C478" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D478" s="4" t="s">
-        <v>1763</v>
-      </c>
+      <c r="D478" s="4"/>
       <c r="E478" s="2" t="s">
-        <v>1851</v>
+        <v>1783</v>
       </c>
       <c r="F478" s="2">
         <v>30</v>
       </c>
       <c r="K478" s="5" t="s">
-        <v>2026</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.3">
@@ -13727,17 +13051,15 @@
       <c r="C480" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D480" s="4" t="s">
-        <v>1763</v>
-      </c>
+      <c r="D480" s="4"/>
       <c r="E480" s="2" t="s">
-        <v>1851</v>
+        <v>1783</v>
       </c>
       <c r="F480" s="2">
         <v>20</v>
       </c>
       <c r="K480" s="5" t="s">
-        <v>2027</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.3">
@@ -13750,17 +13072,15 @@
       <c r="C481" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D481" s="4" t="s">
-        <v>1763</v>
-      </c>
+      <c r="D481" s="4"/>
       <c r="E481" s="2" t="s">
-        <v>1851</v>
+        <v>1783</v>
       </c>
       <c r="F481" s="2">
         <v>14</v>
       </c>
       <c r="K481" s="5" t="s">
-        <v>2028</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.3">
@@ -13773,17 +13093,15 @@
       <c r="C482" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D482" s="4" t="s">
-        <v>1763</v>
-      </c>
+      <c r="D482" s="4"/>
       <c r="E482" s="2" t="s">
-        <v>1851</v>
+        <v>1783</v>
       </c>
       <c r="F482" s="2">
         <v>23.5</v>
       </c>
       <c r="K482" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.3">
@@ -13895,11 +13213,9 @@
       <c r="C492" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D492" s="4" t="s">
-        <v>1864</v>
-      </c>
+      <c r="D492" s="4"/>
       <c r="E492" s="2" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="F492" s="2">
         <v>24</v>
@@ -13959,9 +13275,6 @@
       <c r="C497" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D497" s="2" t="s">
-        <v>1755</v>
-      </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="3">
@@ -13973,9 +13286,6 @@
       <c r="C498" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D498" s="2" t="s">
-        <v>1755</v>
-      </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="3">
@@ -14064,6 +13374,9 @@
       <c r="C506" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D506" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="3">
@@ -14075,14 +13388,11 @@
       <c r="C507" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D507" s="2" t="s">
-        <v>1994</v>
-      </c>
       <c r="F507" s="2">
         <v>45</v>
       </c>
       <c r="K507" s="5" t="s">
-        <v>2029</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.3">
@@ -14095,9 +13405,7 @@
       <c r="C508" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D508" s="4" t="s">
-        <v>1798</v>
-      </c>
+      <c r="D508" s="4"/>
       <c r="F508" s="2">
         <v>61</v>
       </c>
@@ -14113,9 +13421,6 @@
       <c r="C509" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D509" s="2" t="s">
-        <v>1795</v>
-      </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="3">
@@ -14160,11 +13465,9 @@
       <c r="C513" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D513" s="4" t="s">
-        <v>1735</v>
-      </c>
+      <c r="D513" s="4"/>
       <c r="K513" s="5" t="s">
-        <v>1825</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.3">
@@ -14177,11 +13480,8 @@
       <c r="C514" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D514" s="2" t="s">
-        <v>1747</v>
-      </c>
       <c r="K514" s="5" t="s">
-        <v>1846</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.3">
@@ -14205,11 +13505,8 @@
       <c r="C516" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D516" s="2" t="s">
-        <v>1691</v>
-      </c>
       <c r="K516" s="5" t="s">
-        <v>1902</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.3">
@@ -14233,9 +13530,6 @@
       <c r="C518" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D518" s="2" t="s">
-        <v>1749</v>
-      </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="3">
@@ -14259,7 +13553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="3">
         <v>3023</v>
       </c>
@@ -14269,14 +13563,12 @@
       <c r="C521" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D521" s="4" t="s">
-        <v>1827</v>
-      </c>
+      <c r="D521" s="4"/>
       <c r="F521" s="2">
         <v>160</v>
       </c>
       <c r="K521" s="5" t="s">
-        <v>1826</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.3">
@@ -14312,16 +13604,16 @@
         <v>3</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>2096</v>
+        <v>1966</v>
       </c>
       <c r="E524" s="4" t="s">
-        <v>2073</v>
+        <v>1925</v>
       </c>
       <c r="F524" s="2">
         <v>120</v>
       </c>
       <c r="K524" s="5" t="s">
-        <v>2097</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.3">
@@ -14334,9 +13626,6 @@
       <c r="C525" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D525" s="2" t="s">
-        <v>1747</v>
-      </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="3">
@@ -14359,9 +13648,6 @@
       <c r="C527" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D527" s="2" t="s">
-        <v>1828</v>
-      </c>
       <c r="F527" s="2">
         <v>36</v>
       </c>
@@ -14420,14 +13706,11 @@
       <c r="C532" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D532" s="2" t="s">
-        <v>1829</v>
-      </c>
       <c r="F532" s="2">
         <v>260</v>
       </c>
       <c r="K532" s="5" t="s">
-        <v>2030</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.3">
@@ -14440,9 +13723,6 @@
       <c r="C533" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D533" s="2" t="s">
-        <v>1949</v>
-      </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="3">
@@ -14455,7 +13735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="3">
         <v>3037</v>
       </c>
@@ -14466,16 +13746,16 @@
         <v>3</v>
       </c>
       <c r="D535" s="4" t="s">
-        <v>2086</v>
+        <v>1973</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>1871</v>
+        <v>1794</v>
       </c>
       <c r="F535" s="2">
         <v>96</v>
       </c>
       <c r="K535" s="5" t="s">
-        <v>2090</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.3">
@@ -14510,11 +13790,9 @@
       <c r="C538" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D538" s="4" t="s">
-        <v>1793</v>
-      </c>
+      <c r="D538" s="4"/>
       <c r="K538" s="5" t="s">
-        <v>1848</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.3">
@@ -14527,17 +13805,14 @@
       <c r="C539" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D539" s="2" t="s">
-        <v>1741</v>
-      </c>
       <c r="E539" s="4" t="s">
-        <v>1866</v>
+        <v>1789</v>
       </c>
       <c r="F539" s="2">
         <v>105</v>
       </c>
       <c r="K539" s="5" t="s">
-        <v>1998</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.3">
@@ -14562,7 +13837,7 @@
         <v>3</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>1955</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.3">
@@ -14575,11 +13850,8 @@
       <c r="C542" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D542" s="2" t="s">
-        <v>1775</v>
-      </c>
       <c r="E542" s="2" t="s">
-        <v>1840</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.3">
@@ -14691,9 +13963,6 @@
       <c r="C552" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D552" s="2" t="s">
-        <v>1823</v>
-      </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="3">
@@ -14749,6 +14018,9 @@
       <c r="C557" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D557" s="2" t="s">
+        <v>1966</v>
+      </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="3">
@@ -14816,10 +14088,10 @@
         <v>3</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>1742</v>
+        <v>1973</v>
       </c>
       <c r="K563" s="5" t="s">
-        <v>1890</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
@@ -14843,6 +14115,9 @@
       <c r="C565" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D565" s="2" t="s">
+        <v>1967</v>
+      </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="3">
@@ -14931,11 +14206,8 @@
       <c r="C573" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D573" s="2" t="s">
-        <v>1978</v>
-      </c>
       <c r="K573" s="5" t="s">
-        <v>1979</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.3">
@@ -14948,6 +14220,9 @@
       <c r="C574" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D574" s="2" t="s">
+        <v>1967</v>
+      </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="3">
@@ -14992,9 +14267,6 @@
       <c r="C578" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D578" s="2" t="s">
-        <v>1923</v>
-      </c>
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A579" s="3">
@@ -15028,11 +14300,8 @@
       <c r="C581" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D581" s="2" t="s">
-        <v>1795</v>
-      </c>
       <c r="E581" s="2" t="s">
-        <v>2082</v>
+        <v>1932</v>
       </c>
       <c r="H581" s="2">
         <v>552</v>
@@ -15059,11 +14328,8 @@
       <c r="C583" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D583" s="2" t="s">
-        <v>2004</v>
-      </c>
       <c r="E583" s="2" t="s">
-        <v>2003</v>
+        <v>1865</v>
       </c>
       <c r="F583" s="2">
         <v>72</v>
@@ -15112,9 +14378,6 @@
       <c r="C587" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D587" s="2" t="s">
-        <v>1798</v>
-      </c>
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A588" s="3">
@@ -15148,9 +14411,6 @@
       <c r="C590" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D590" s="2" t="s">
-        <v>1779</v>
-      </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A591" s="3">
@@ -15195,11 +14455,8 @@
       <c r="C594" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D594" s="2" t="s">
-        <v>1735</v>
-      </c>
       <c r="K594" s="5" t="s">
-        <v>1830</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.3">
@@ -15245,9 +14502,6 @@
       <c r="C598" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D598" s="2" t="s">
-        <v>1829</v>
-      </c>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="3">
@@ -15259,14 +14513,12 @@
       <c r="C599" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D599" s="4" t="s">
-        <v>1767</v>
-      </c>
+      <c r="D599" s="4"/>
       <c r="F599" s="2">
         <v>300</v>
       </c>
       <c r="K599" s="5" t="s">
-        <v>1835</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.3">
@@ -15312,17 +14564,14 @@
       <c r="C603" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D603" s="2" t="s">
-        <v>2117</v>
-      </c>
       <c r="E603" s="4" t="s">
-        <v>2119</v>
+        <v>1955</v>
       </c>
       <c r="F603" s="2">
         <v>150</v>
       </c>
       <c r="K603" s="5" t="s">
-        <v>2118</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.3">
@@ -15393,11 +14642,8 @@
       <c r="C609" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D609" s="2" t="s">
-        <v>1761</v>
-      </c>
       <c r="K609" s="5" t="s">
-        <v>1801</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.3">
@@ -15443,11 +14689,8 @@
       <c r="C613" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D613" s="2" t="s">
-        <v>1792</v>
-      </c>
       <c r="K613" s="5" t="s">
-        <v>1915</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.3">
@@ -15493,6 +14736,9 @@
       <c r="C617" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D617" s="2" t="s">
+        <v>1967</v>
+      </c>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="3">
@@ -15504,9 +14750,6 @@
       <c r="C618" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D618" s="2" t="s">
-        <v>1833</v>
-      </c>
       <c r="F618" s="2">
         <v>160</v>
       </c>
@@ -15521,25 +14764,19 @@
       <c r="C619" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D619" s="2" t="s">
-        <v>1744</v>
-      </c>
     </row>
     <row r="620" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A620" s="3">
         <v>3665</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1935</v>
+        <v>1831</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D620" s="2" t="s">
-        <v>1792</v>
-      </c>
       <c r="K620" s="5" t="s">
-        <v>1909</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.3">
@@ -15552,11 +14789,8 @@
       <c r="C621" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D621" s="2" t="s">
-        <v>1735</v>
-      </c>
       <c r="E621" s="2" t="s">
-        <v>1866</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.3">
@@ -15569,11 +14803,8 @@
       <c r="C622" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D622" s="2" t="s">
-        <v>1954</v>
-      </c>
       <c r="K622" s="5" t="s">
-        <v>2031</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.3">
@@ -15586,11 +14817,8 @@
       <c r="C623" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D623" s="2" t="s">
-        <v>1974</v>
-      </c>
       <c r="E623" s="4" t="s">
-        <v>1852</v>
+        <v>1784</v>
       </c>
       <c r="F623" s="2">
         <v>120</v>
@@ -15606,9 +14834,6 @@
       <c r="C624" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D624" s="2" t="s">
-        <v>1775</v>
-      </c>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="3">
@@ -15653,9 +14878,6 @@
       <c r="C628" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D628" s="2" t="s">
-        <v>1790</v>
-      </c>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="3">
@@ -15678,14 +14900,11 @@
       <c r="C630" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D630" s="2" t="s">
-        <v>1968</v>
-      </c>
       <c r="F630" s="2">
         <v>31</v>
       </c>
       <c r="K630" s="5" t="s">
-        <v>1895</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.3">
@@ -15720,9 +14939,6 @@
       <c r="C633" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D633" s="2" t="s">
-        <v>1736</v>
-      </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="3">
@@ -15734,9 +14950,6 @@
       <c r="C634" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D634" s="2" t="s">
-        <v>1765</v>
-      </c>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="3">
@@ -15759,17 +14972,15 @@
       <c r="C636" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D636" s="4" t="s">
-        <v>1819</v>
-      </c>
+      <c r="D636" s="4"/>
       <c r="E636" s="2" t="s">
-        <v>1851</v>
+        <v>1783</v>
       </c>
       <c r="F636" s="2">
         <v>48</v>
       </c>
       <c r="K636" s="5" t="s">
-        <v>1820</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.3">
@@ -15804,9 +15015,7 @@
       <c r="C639" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D639" s="4" t="s">
-        <v>1819</v>
-      </c>
+      <c r="D639" s="4"/>
       <c r="F639" s="2">
         <v>80</v>
       </c>
@@ -15844,7 +15053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="643" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="3">
         <v>4142</v>
       </c>
@@ -15854,11 +15063,9 @@
       <c r="C643" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D643" s="4" t="s">
-        <v>1883</v>
-      </c>
+      <c r="D643" s="4"/>
       <c r="K643" s="5" t="s">
-        <v>1884</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.3">
@@ -15915,14 +15122,11 @@
       <c r="C648" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D648" s="2" t="s">
-        <v>1995</v>
-      </c>
       <c r="E648" s="2" t="s">
-        <v>1986</v>
+        <v>1855</v>
       </c>
       <c r="K648" s="5" t="s">
-        <v>2032</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.3">
@@ -16012,9 +15216,7 @@
       <c r="C656" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D656" s="4" t="s">
-        <v>1745</v>
-      </c>
+      <c r="D656" s="4"/>
       <c r="F656" s="2">
         <v>45</v>
       </c>
@@ -16040,9 +15242,6 @@
       <c r="C658" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D658" s="2" t="s">
-        <v>1996</v>
-      </c>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="3">
@@ -16131,14 +15330,11 @@
       <c r="C666" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D666" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="F666" s="2">
         <v>80</v>
       </c>
       <c r="K666" s="5" t="s">
-        <v>2033</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.3">
@@ -16162,9 +15358,6 @@
       <c r="C668" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D668" s="2" t="s">
-        <v>1930</v>
-      </c>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="3">
@@ -16221,7 +15414,10 @@
         <v>3</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>1819</v>
+        <v>1963</v>
+      </c>
+      <c r="K673" s="5" t="s">
+        <v>1964</v>
       </c>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.3">
@@ -16289,11 +15485,8 @@
       <c r="C679" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D679" s="2" t="s">
-        <v>1775</v>
-      </c>
       <c r="E679" s="2" t="s">
-        <v>1840</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.3">
@@ -16321,7 +15514,7 @@
         <v>120</v>
       </c>
       <c r="K681" s="5" t="s">
-        <v>1997</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.3">
@@ -16334,9 +15527,6 @@
       <c r="C682" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D682" s="2" t="s">
-        <v>1947</v>
-      </c>
       <c r="F682" s="2">
         <v>54</v>
       </c>
@@ -16374,13 +15564,13 @@
         <v>3</v>
       </c>
       <c r="D685" s="4" t="s">
-        <v>2124</v>
+        <v>1967</v>
       </c>
       <c r="F685" s="2">
         <v>51</v>
       </c>
       <c r="K685" s="5" t="s">
-        <v>2125</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.3">
@@ -16404,9 +15594,6 @@
       <c r="C687" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D687" s="2" t="s">
-        <v>1689</v>
-      </c>
     </row>
     <row r="688" spans="1:11" ht="60" x14ac:dyDescent="0.3">
       <c r="A688" s="3">
@@ -16418,11 +15605,8 @@
       <c r="C688" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D688" s="2" t="s">
-        <v>1735</v>
-      </c>
       <c r="K688" s="5" t="s">
-        <v>1815</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.3">
@@ -16490,6 +15674,9 @@
       <c r="C694" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D694" s="2" t="s">
+        <v>1967</v>
+      </c>
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="3">
@@ -16512,11 +15699,8 @@
       <c r="C696" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D696" s="2" t="s">
-        <v>1777</v>
-      </c>
       <c r="K696" s="5" t="s">
-        <v>1802</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="697" spans="1:11" ht="30" x14ac:dyDescent="0.3">
@@ -16529,11 +15713,9 @@
       <c r="C697" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D697" s="4" t="s">
-        <v>1798</v>
-      </c>
+      <c r="D697" s="4"/>
       <c r="K697" s="5" t="s">
-        <v>1910</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="698" spans="1:11" ht="75" x14ac:dyDescent="0.3">
@@ -16546,14 +15728,12 @@
       <c r="C698" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D698" s="2" t="s">
-        <v>1837</v>
-      </c>
+      <c r="D698" s="4"/>
       <c r="F698" s="2">
         <v>200</v>
       </c>
       <c r="K698" s="5" t="s">
-        <v>1870</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.3">
@@ -16566,9 +15746,6 @@
       <c r="C699" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D699" s="2" t="s">
-        <v>1795</v>
-      </c>
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="3">
@@ -16591,6 +15768,9 @@
       <c r="C701" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D701" s="2" t="s">
+        <v>1970</v>
+      </c>
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="3">
@@ -16603,7 +15783,7 @@
         <v>3</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>1753</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.3">
@@ -16616,11 +15796,8 @@
       <c r="C703" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D703" s="2" t="s">
-        <v>1923</v>
-      </c>
       <c r="K703" s="5" t="s">
-        <v>2034</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.3">
@@ -16633,6 +15810,9 @@
       <c r="C704" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D704" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="3">
@@ -16655,14 +15835,11 @@
       <c r="C706" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D706" s="2" t="s">
-        <v>1735</v>
-      </c>
       <c r="E706" s="2" t="s">
-        <v>1871</v>
+        <v>1794</v>
       </c>
       <c r="K706" s="5" t="s">
-        <v>1805</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.3">
@@ -16719,9 +15896,6 @@
       <c r="C711" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D711" s="2" t="s">
-        <v>1829</v>
-      </c>
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="3">
@@ -16755,14 +15929,11 @@
       <c r="C714" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D714" s="2" t="s">
-        <v>1807</v>
-      </c>
       <c r="F714" s="2">
         <v>68</v>
       </c>
       <c r="K714" s="5" t="s">
-        <v>1808</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.3">
@@ -16797,9 +15968,6 @@
       <c r="C717" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D717" s="2" t="s">
-        <v>271</v>
-      </c>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="3">
@@ -16812,13 +15980,13 @@
         <v>3</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="F718" s="2">
         <v>40</v>
       </c>
       <c r="K718" s="5" t="s">
-        <v>2035</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.3">
@@ -16930,9 +16098,6 @@
       <c r="C728" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D728" s="2" t="s">
-        <v>1823</v>
-      </c>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="3">
@@ -16944,6 +16109,9 @@
       <c r="C729" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D729" s="2" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="3">
@@ -16955,6 +16123,9 @@
       <c r="C730" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D730" s="2" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="3">
@@ -16966,6 +16137,9 @@
       <c r="C731" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D731" s="2" t="s">
+        <v>1977</v>
+      </c>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="3">
@@ -16988,17 +16162,15 @@
       <c r="C733" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D733" s="4" t="s">
-        <v>1817</v>
-      </c>
+      <c r="D733" s="4"/>
       <c r="E733" s="2" t="s">
-        <v>1851</v>
+        <v>1783</v>
       </c>
       <c r="F733" s="2">
         <v>110</v>
       </c>
       <c r="K733" s="5" t="s">
-        <v>2036</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.3">
@@ -17077,6 +16249,9 @@
       <c r="C740" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D740" s="2" t="s">
+        <v>1967</v>
+      </c>
     </row>
     <row r="741" spans="1:11" ht="75" x14ac:dyDescent="0.3">
       <c r="A741" s="3">
@@ -17088,17 +16263,14 @@
       <c r="C741" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D741" s="2" t="s">
-        <v>1874</v>
-      </c>
       <c r="E741" s="2" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="F741" s="2">
         <v>41</v>
       </c>
       <c r="K741" s="5" t="s">
-        <v>2037</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.3">
@@ -17122,9 +16294,6 @@
       <c r="C743" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D743" s="2" t="s">
-        <v>1779</v>
-      </c>
       <c r="F743" s="2">
         <v>11</v>
       </c>
@@ -17205,6 +16374,9 @@
       <c r="C750" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D750" s="2" t="s">
+        <v>1967</v>
+      </c>
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="3">
@@ -17239,16 +16411,16 @@
         <v>3</v>
       </c>
       <c r="D753" s="4" t="s">
-        <v>1853</v>
+        <v>1967</v>
       </c>
       <c r="E753" s="2" t="s">
-        <v>1871</v>
+        <v>1794</v>
       </c>
       <c r="F753" s="2">
         <v>33</v>
       </c>
       <c r="K753" s="5" t="s">
-        <v>2038</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.3">
@@ -17261,6 +16433,9 @@
       <c r="C754" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D754" s="2" t="s">
+        <v>1966</v>
+      </c>
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="3">
@@ -17349,17 +16524,14 @@
       <c r="C762" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D762" s="2" t="s">
-        <v>1854</v>
-      </c>
       <c r="E762" s="2" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="F762" s="2">
         <v>42</v>
       </c>
       <c r="K762" s="5" t="s">
-        <v>1760</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.3">
@@ -17384,7 +16556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="765" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="3">
         <v>6191</v>
       </c>
@@ -17395,7 +16567,7 @@
         <v>3</v>
       </c>
       <c r="D765" s="4" t="s">
-        <v>1975</v>
+        <v>1967</v>
       </c>
       <c r="F765" s="2">
         <v>24.1</v>
@@ -17444,14 +16616,11 @@
       <c r="C769" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D769" s="2" t="s">
-        <v>1829</v>
-      </c>
       <c r="F769" s="2">
         <v>80</v>
       </c>
       <c r="K769" s="5" t="s">
-        <v>2039</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="770" spans="1:11" ht="60" x14ac:dyDescent="0.3">
@@ -17464,17 +16633,15 @@
       <c r="C770" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D770" s="4" t="s">
-        <v>1792</v>
-      </c>
+      <c r="D770" s="4"/>
       <c r="E770" s="2" t="s">
-        <v>1866</v>
+        <v>1789</v>
       </c>
       <c r="F770" s="2">
         <v>35</v>
       </c>
       <c r="K770" s="5" t="s">
-        <v>1969</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.3">
@@ -17498,9 +16665,6 @@
       <c r="C772" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D772" s="2" t="s">
-        <v>1795</v>
-      </c>
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A773" s="3">
@@ -17512,6 +16676,12 @@
       <c r="C773" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D773" s="2" t="s">
+        <v>1963</v>
+      </c>
+      <c r="K773" s="5" t="s">
+        <v>1964</v>
+      </c>
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A774" s="3">
@@ -17557,13 +16727,13 @@
         <v>3</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>1924</v>
+        <v>1966</v>
       </c>
       <c r="F777" s="2">
         <v>75</v>
       </c>
       <c r="K777" s="5" t="s">
-        <v>1925</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.3">
@@ -17598,11 +16768,8 @@
       <c r="C780" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D780" s="2" t="s">
-        <v>1691</v>
-      </c>
       <c r="K780" s="5" t="s">
-        <v>1903</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.3">
@@ -17626,9 +16793,6 @@
       <c r="C782" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D782" s="2" t="s">
-        <v>1765</v>
-      </c>
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A783" s="3">
@@ -17651,6 +16815,9 @@
       <c r="C784" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D784" s="2" t="s">
+        <v>1967</v>
+      </c>
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A785" s="3">
@@ -17662,11 +16829,8 @@
       <c r="C785" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D785" s="2" t="s">
-        <v>1765</v>
-      </c>
       <c r="E785" s="2" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.3">
@@ -17679,6 +16843,9 @@
       <c r="C786" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D786" s="2" t="s">
+        <v>1967</v>
+      </c>
     </row>
     <row r="787" spans="1:11" ht="105" x14ac:dyDescent="0.3">
       <c r="A787" s="3">
@@ -17690,11 +16857,8 @@
       <c r="C787" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D787" s="2" t="s">
-        <v>1765</v>
-      </c>
       <c r="K787" s="5" t="s">
-        <v>1766</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.3">
@@ -17718,9 +16882,6 @@
       <c r="C789" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D789" s="2" t="s">
-        <v>1761</v>
-      </c>
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A790" s="3">
@@ -17732,9 +16893,6 @@
       <c r="C790" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D790" s="2" t="s">
-        <v>1790</v>
-      </c>
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A791" s="3">
@@ -17768,9 +16926,6 @@
       <c r="C793" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D793" s="2" t="s">
-        <v>1761</v>
-      </c>
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A794" s="3">
@@ -17837,9 +16992,6 @@
       <c r="C799" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D799" s="2" t="s">
-        <v>1929</v>
-      </c>
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A800" s="3">
@@ -17851,9 +17003,6 @@
       <c r="C800" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D800" s="2" t="s">
-        <v>1829</v>
-      </c>
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A801" s="3">
@@ -17865,9 +17014,6 @@
       <c r="C801" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D801" s="2" t="s">
-        <v>1929</v>
-      </c>
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A802" s="3">
@@ -17901,14 +17047,12 @@
       <c r="C804" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D804" s="4" t="s">
-        <v>1689</v>
-      </c>
+      <c r="D804" s="4"/>
       <c r="E804" s="2" t="s">
-        <v>2000</v>
+        <v>1862</v>
       </c>
       <c r="K804" s="5" t="s">
-        <v>1999</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.3">
@@ -17921,11 +17065,8 @@
       <c r="C805" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D805" s="2" t="s">
-        <v>1761</v>
-      </c>
       <c r="K805" s="5" t="s">
-        <v>1800</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.3">
@@ -17982,17 +17123,14 @@
       <c r="C810" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D810" s="2" t="s">
-        <v>1959</v>
-      </c>
       <c r="E810" s="2" t="s">
-        <v>2088</v>
+        <v>1935</v>
       </c>
       <c r="F810" s="2">
         <v>266</v>
       </c>
       <c r="K810" s="5" t="s">
-        <v>2089</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.3">
@@ -18016,9 +17154,6 @@
       <c r="C812" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D812" s="2" t="s">
-        <v>1960</v>
-      </c>
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A813" s="3">
@@ -18075,10 +17210,10 @@
         <v>3</v>
       </c>
       <c r="D817" s="2" t="s">
-        <v>2009</v>
+        <v>1967</v>
       </c>
       <c r="K817" s="5" t="s">
-        <v>2010</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="818" spans="1:11" x14ac:dyDescent="0.3">
@@ -18086,7 +17221,7 @@
         <v>6558</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>2011</v>
+        <v>1869</v>
       </c>
       <c r="C818" s="2" t="s">
         <v>3</v>
@@ -18113,9 +17248,6 @@
       <c r="C820" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D820" s="2" t="s">
-        <v>2004</v>
-      </c>
     </row>
     <row r="821" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A821" s="3">
@@ -18127,9 +17259,6 @@
       <c r="C821" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D821" s="2" t="s">
-        <v>1957</v>
-      </c>
     </row>
     <row r="822" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A822" s="3">
@@ -18141,9 +17270,6 @@
       <c r="C822" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D822" s="2" t="s">
-        <v>1787</v>
-      </c>
       <c r="F822" s="2">
         <v>130</v>
       </c>
@@ -18158,9 +17284,6 @@
       <c r="C823" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D823" s="2" t="s">
-        <v>1691</v>
-      </c>
     </row>
     <row r="824" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A824" s="3">
@@ -18172,9 +17295,7 @@
       <c r="C824" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D824" s="4" t="s">
-        <v>1817</v>
-      </c>
+      <c r="D824" s="4"/>
       <c r="F824" s="2">
         <v>50</v>
       </c>
@@ -18189,9 +17310,6 @@
       <c r="C825" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D825" s="2" t="s">
-        <v>1818</v>
-      </c>
     </row>
     <row r="826" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A826" s="3">
@@ -18269,9 +17387,6 @@
       <c r="C832" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D832" s="2" t="s">
-        <v>1767</v>
-      </c>
     </row>
     <row r="833" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A833" s="3">
@@ -18305,6 +17420,9 @@
       <c r="C835" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D835" s="2" t="s">
+        <v>1967</v>
+      </c>
     </row>
     <row r="836" spans="1:11" x14ac:dyDescent="0.3">
       <c r